--- a/Game simulations/Week 16/Dolphins at Saints.xlsx
+++ b/Game simulations/Week 16/Dolphins at Saints.xlsx
@@ -57,16 +57,16 @@
     <t>SaintsAvg. FPTS</t>
   </si>
   <si>
-    <t>JSU(0.38500848372905416, 4.193858653487725, -0.0662595532310812, 46.266871835829164)</t>
-  </si>
-  <si>
-    <t>-2 3 4 3 -10 2 3 -13 -21 -14 -1 -10 -6 -2 3 -10 -24 2 -9 -12 6 13 -10 1 -11 6 -7 -11 11 -14 -10 15 2 -10 -7 -2 -21 20 -17 -13 -16 3 -31 18 -20 -18 -14 -17 -8 1 10 9 -33 20 -14 -8 6 -1 -22 -11 -4 -13 -6 -14 -9 -15 -1 17 -4 7 -4 16 -11 -20 4 -4 -3 -11 -6 4 7 -10 31 -18 -10 -17 -13 -3 -2 -16 -4 1 8 -7 1 4 0 7 -6 -10 -6 -13 -6 3 0 -6 -27 -3 -7 -10 -7 -25 -3 -7 -3 -24 -3 3 -4 -4 -20 8 -7 -6 13 -22 -3 -6 -7 3 3 -10 18 -9 -4 6 2 -7 1 3 0 -7 -17 1 3 -14 -8 -7 14 4 17 -10 5 10 3 -38 -28 -15 -14 11 9 -1 10 8 -11 -18 2 -3 -3 -14 -14 5 -24 -6 4 6 -10 13 -6 2 -6 -2 6 3 -13 -6 -3 -31 -1 -3 13 -10 -4 6 21 -17 19 14 -6 3 -1 -21 -7 3 -13 -6 -6 -14 13 -20 4 -8 -2 -8 -20 -15 -3 -37 3 6 -3 4 -9 -14 4 3 13 -6 -1 -18 3 21 -17 34 -14 -4 -11 26 -3 -28 -7 -20 -4 10 -13 18 -3 3 -5 -3 -12 17 -4 -2 -4 -17 6 9 -3 -13 -3 -14 -18 4 -3 10 -3 7 2 -5 -28 -4 -9 -15 -1 7 -4 -6 1 -14 7 -17 -24 3 -3 7 2 -4 -1 -13 -3 2 -8 1 1 3 -3 -7 -3 -1 -3 -10 -4 -3 -9 -6 -5 -22 -7 -8 12 -16 23 -6 -2 -6 -18 -19 -5 -10 -10 -3 -25 -16 -14 -18 2 -3 -3 4 0 -11 -3 -11 -18 3 -27 19 -37 -7 10 -13 5 -1 -6 7 -25 1 -32 -3 -20 -6 -3 7 -5 -15 -6 17 -6 -6 8 -12 -2 -5 -4 4 -21 -2 5 -13 13 -24 -3 -7 3 -7 -24 -7 -4 -8 -3 -10 18 -1 3 -16 10 -21 -20 -11 13 -1 7 5 -10 -19 -7 7 -13 21 -31 -4 -7 -21 -13 3 -5 10 -10 -6 -28 -17 -17 -17 -13 6 16 -10 10 -3 6 -7 3 -18 -1 6 3 -8 -27 2 3 -2 9 -3 -8 -3 -34 -3 -6 -19 11 3 -7 8 12 17 6 -15 21 24 -9 -3 -4 6 3 3 6 -31 -6 -14 -10 4 -31 -19 -29 -21 -24 3 -4 -29 -6 -11 6 -3 -7 -7 -11 -13 -1 -6 -14 -24 -22 2 -24 -14 -10 10 -2 -23 2 -5 -15 -12 3 14 2 17 -24 -21 -13 -10 -5 3 -6 -8 13 -4 -3 -24 17 -18 3 -3 -3 -24 -20 7 -18 -5 -10 -2 -3 -11 -13 12 -3 -6 1 -20 8 -17 8 -5 17 14 -18 -14 -11 3 7 14 -7 -24 -15 10 -5 -12 14 -3 7 4 -21 -14 -21 10 -16 -17 -4 -10 3 6 -12 -16 4 3 -8 -22 4 -35 5 -6 10 -7 -24 -4 6 -3 -2 -5 -7 7 3 -2 17 -13 7 -21 6 -1 -9 -5 -9 -23 -1 -34 -4 6 14 14 -14 -20 -6 -4 10 -22 -11 -3 3 -23 6 17 -3 -9 13 -13 16 -23 -25 3 3 6 -14 -20 -12 -8 -25 7 8 6 4 -2 5 -31 -9 3 -17 -10 -30 -9 -13 -7 -17 -18 14 -6 -6 17 -24 -4 -7 3 -34 -27 -10 -18 -7 3 3 -10 -13 -13 13 7 -7 6 -3 8 16 -5 -17 -19 -1 -21 -5 -1 -3 -2 -10 10 -10 -9 -6 -11 -1 -3 -18 20 8 -14 -18 -14 11 -6 3 -13 7 3 -12 12 -3 -9 -28 -14 -17 3 -10 -7 30 -3 -11 -18 -21 -13 7 -7 -12 24 -4 7 -9 3 -10 7 6 -7 -11 -28 -22 3 -27 -4 -3 -15 -7 -14 7 -11 -14 3 -16 -3 21 5 1 -21 -21 -23 -7 -9 -36 13 6 17 6 -10 7 -7 9 -11 4 -8 18 6 -4 6 -18 -8 -7 -17 -20 -10 18 -4 -31 -12 -3 -28 -13 -6 -7 -3 -14 6 -4 -4 -14 -4 -3 -3 -23 -6 -7 -13 -4 -3 -2 -17 11 -27 13 3 -16 -17 10 -15 5 7 2 -18 3 -22 9 -21 -4 -14 -3 -13 -9 3 -9 -7 7 -18 -1 -19 -8 -20 12 2 2 -31 -7 -11 3 17 -24 3 -13 -3 18 -17 2 13 5 -13 -2 -6 4 6 -25 3 -4 -17 -17 3 6 -3 2 8 7 -10 -12 3 -14 18 -30 -11 4 2 -15 -3 10 6 -6 -19 3 11 -4 7 -20 -27 -7 1 -6 -8 -4 -6 -1 -3 2 -17 -16 -4 -4 -1 8 2 -24 -1 -3 -13 -6 -6 -7 10 -11 -20 -8 -15 -11 -3 -7 -2 4 -21 -19 3 -5 27 -19 1 -6 -14 -4 -6 -7 7 -3 3 13 -4 -11 -25 -28 7 -19 3 -3 -2 -3 -24 -3 -24 8 -7 -21 -5 -30 -14 -9 8 18 -21 -14 -8 1 -14 -20 4 5 -4 -7 -3 -20 -21 -2 3 -22 -5 4 8 -14 -16 -3 8 -19 8 18 10 1 4 9 6 3 -7 5 3 -10 -14 -16 -26 3 3 3 -3 -12 -3 -31 -6 -8 -10 13 -7 -6 3 -14 -5 7 -7 1 -16 -23 10 3 -21 -3 -30 3 5 -7 -6 -16 9 -6 -7 3 -5 3 -20 -13 -5 4 -14 -12 28 -4 7 -24 -24 -27 -18 -4 -8 -21 -7 9 23 -14 3 -6 -8 -18 -5 1 -20 12 -16 3 -24 15 -3 -20 17 -25 -9 3 17 -1 -12 3 3 -14 3 -3 -7 -6 7 6 9 -7 18 5 -10 -24 -17 -4 1 -9 -16 -5 13 6 -13 -16 3 -8 14 -17 -5 13 -15 1 -3 10 -5 -18 -11 3 -27 5 -4 -3 -4 -19 -9 -18 -2 -31 -8 3 14 -6 14 -4 -6 5 1 -8 11 11 13 -11 -17 -11 -10 2 -16 -7 4 13 -10 -9 3 -11 6 5 -10 -6 -15 3 10 -22 3 -3 -7 3 -7 -23 23 -21 -19 3 -27 9 7 -10 -7 3 10 21 -3 -7 -13 -8 20 9 -17 -3 -11 21 0 -17 -6 -3 13 -6 7 -2 -16 -3 -20 3 9 -14 -6 -4 3 -27 2 -3 -7 -10 -3 -19 5 5 10 -6 -22 4 -18 -14 -16 -5 -15 3 16 -3 -4 -6 -4 12 -3 -5 -8 -18 -3 3 -10 7 -5 -3 13 -6 3 17 -3 6 -2 -14 -7 -7 -17 -20 -14 6 10 -6 -17 -3 17 10 13 11 -8 4 -5 -3 -6 -20 14 3 6 -12 18 3 -2 -10 11 -5 0 -1 -18 3 -3 5 -22 3 3 -22 -13 -3 -11 -8 -10 -14 -11 -8 -4 6 -13 -12 -3 -25 -7 -6 14 -10 3 -27 -6 6 3 -20 -3 21 6 -6 -17 -3 -19 19 -1 -3 1 -21 -7 2 -20 -7 -7 5 -10 18 24 -5 -1 3 -19 26 -17 3 17 11 6 -6 14 2 6 -15 6 -5 8 3 -4 -7 -14 -8 -3 6 -23 2 -27 -7 -3 26 -8 -7 3 -15 -6 0 -3 4 11 12 15 20 3 18 12 -3 -3 -3 -11 -17 2 -10 -17 10 -8 5 -10 -12 -7 -12 2 -12 -14 3 4 4 -21 -10 -12 -1 3 -8 10 7 17 8 38 3 -14 -1 -21 3 -2 -14 3 4 3 -14 -8 18 3 3 -21 -14 -14 3 -17 10 6 -10 -2 6 -6 -6 -11 -4 -15 -14 -21 -1 -3 -3 -7 7 -3 -37 -5 -3 -16 -35 3 -32 10 -5 -7 7 7 -7 10 -6 -14 3 -22 -14 -36 20 19 -4 3 7 14 -10 -21 -19 -13 4 -27 14 -4 6 -7 6 -18 7 -5 -5 10 -4 3 -28 -24 -8 -3 3 -11 -6 -36 1 -8 12 -14 3 3 17 -3 -15 -10 -15 -1 11 16 -16 -17 -13 0 19 -3 -3 -22 9 -31 5 -11 13 -3 -8 -8 9 -9 -1 6 11 6 -17 -7 -13 1 7 -22 7 -42 -21 -19 10 -1 -18 24 7 -17 -13 -3 -10 -8 -4 -9 11 -4 -15 3 -6 -3 -1 7 5 -3 13 -23 -18 7 7 -21 -28 7 -7 -3 10 6 -1 -3 -29 13 -28 -3 3 -1 -24 4 2 -6 -7 -2 -2 -4 -3 -7 -4 -7 -6 -41 13 -8 -3 -5 7 -6 6 -11 -12 0 5 -4 -4 -11 -7 -20 7 6 -14 -18 -12 -6 -5 -7 3 -6 -5 -6 15 -6 -22 -29 4 -9 -3 -18 -3 10 -18 2 15 -21 6 6 -14 -23 -3 4 -23 -9 10 10 -24 2 6 -14 -26 -11 -1 10 0 -13 -6 6 -5 -2 10 6 -24 -9 -14 7 -20 17 -8 -14 3 -11 -17 -16 -3 -18 -21 -14 -7 -8 -7 -34 -7 10 -10 6 7 13 -6 -32 -11 1 7 -22 10 -4 -11 -14 -8 -7 7 -11 8 -21 -3 -4 -14 -21 -4 12 3 21 -14 -7 10 -1 -14 -18 -3 -1 -21 -10 6 -11 -13 15 -23 -6 -2 -8 -5 3 -12 -14 -10 -38 -4 -13 9 -36 1 -20 -14 -11 1 -13 -4 30 -3 5 6 7 -20 4 -5 -6 -8 15 -3 -2 -2 -14 -8 7 -6 -3 -3 -14 4 -6 -19 -14 -8 -7 -10 -6 11 -20 -23 -15 5 3 -18 17 -10 -6 -7 -6 1 -8 11 -14 6 3 -16 3 6 -14 -27 -17 -6 -13 1 7 6 -15 -7 3 -10 3 21 -14 -13 -4 -7 2 -21 7 14 -10 -7 -19 -9 -20 1 -3 -6 9 -5 1 -5 -6 0 14 -2 -13 -11 -10 2 17 4 3 -17 27 -23 -6 -7 -10 -17 -16 -6 -6 -21 -7 3 -19 6 -22 -23 18 3 -30 5 17 3 14 -3 9 -2 17 5 19 3 -10 -8 -4 11 -38 -14 -8 21 6 9 -8 5 6 3 -1 -8 4 -13 -21 -3 36 -2 -3 20 -17 6 -34 -23 -11 -9 -21 -4 -8 -2 4 -4 -18 3 -7 6 -3 -10 -4 -1 10 -17 -3 -27 -10 3 -11 0 -16 6 -30 -3 -6 -14 11 -4 -12 -21 -14 -3 -18 2 -7 -1 -9 3 15 -7 -1 14 -4 10 -14 -7 6 3 -8 -3 -30 17 -3 0 -10 -1 9 -7 5 -17 6 -13 -2 -4 2 5 -27 -13 3 19 8 -6 4 10 -3 8 -14 -8 20 15 -17 -12 7 -20 15 -3 2 5 6 -17 7 -4 -11 -8 -31 -4 -7 2 2 -7 -1 -17 -4 -3 14 3 -5 3 -3 -10 -19 -6 1 -3 -10 -25 -27 -13 5 5 -6 -8 -25 -8 3 -12 3 -18 0 -14 -3 -11 -16 -5 -5 -11 3 -4 6 -9 -4 3 -13 -7 5 -7 6 -16 -10 18 -14 -4 -21 -20 10 4 -14 7 6 -3 -19 -11 -5 -2 3 13 -17 -8 14 1 7 -3 0 -4 -18 6 5 -4 1 -12 19 -8 -16 0 -11 1 7 -8 2 13 -6 5 6 -31 5 -3 1 3 -8 -12 -5 -3 -21 -10 -14 4 -17 -7 6 -20 -11 -16 -14 -11 -17 -14 -24 -18 -23 -21 -7 -14 -17 -3 9 -2 4 4 5 -16 -4 -27 9 5 -4 8 13 -5 -7 2 11 -10 -7 10 -4 9 10 19 -3 6 -11 7 12 -5 -16 -17 -31 5 -1 3 -11 -20 -4 38 2 -15 3 3 2 -20 6 -28 -18 -5 -17 -3 -12 11 3 8 -21 -3 8 -1 -1 6 -14 -21 14 -4 -1 -19 -11 -5 -6 -2 -13 -14 -34 -24 -4 -7 -17 5 -15 14 -13 -1 -3 12 -14 -3 -3 -26 -1 -4 -7 14 14 16 -11 0 7 -18 3 -3 -7 -7 -7 10 -16 16 -7 -17 8 -3 10 -7 2 3 -3 -10 -3 -9 7 26 4 20 -7 16 -1 -3 0 5 -4 -19 3 -11 3 7 -6 -2 -10 -8 3 7 -24 -9 0 -6 10 7 -8 -25 -3 -4 13 9 5 11 -10 3 -27 6 9 -6 25 -35 6 -7 -8 -17 3 -8 14 -8 -11 3 -27 -3 4 -21 -22 -6 -13 6 15 -9 -2 -17 -14 -7 -17 -17 -4 3 3 19 -11 12 -9 -11 -7 -11 -7 -1 -16 3 0 -24 -3 -14 18 -22 11 3 -4 -27 3 -2 5 -27 -3 3 -6 -3 5 -24 -6 -2 -7 -9 -8 -6 25 6 -3 -24 -7 -16 -7 10 -23 -7 -7 15 -2 -3 -3 4 3 -2 0 7 7 -14 3 -10 -9 -6 -3 -4 -7 6 -15 3 -21 -19 -6 -17 -13 -1 12 1 8 -24 12 3 -3 -22 -22 -12 -21 -16 -3 -25 24 -8 10 -5 -17 -10 -15 0 5 -20 4 -3 8 -8 17 -13 4 -15 -3 5 6 -18 13 -8 -17 14 3 -2 -21 7 -11 -1 -21 -8 2 3 -6 -6 -14 -9 -7 -15 14 -7 7 -7 18 5 3 -11 -7 3 -14 -5 -3 3 -5 3 -40 -16 -4 -3 -14 -17 1 -11 -9 -7 -9 3 -11 -10 -4 10 0 3 -5 6 -19 -7 -34 -9 -18 -9 -14 -23 -13 14 -23 11 -13 -10 -9 3 3 19 20 -14 2 6 19 3 -24 4 -3 -11 -12 4 1 -1 -7 -3 -3 -13 -9 0 -3 -12 -23 3 3 -10 5 -7 21 -8 8 -4 -31 -4 -14 -9 3 -7 -4 0 -3 -29 -28 -21 -31 -8 -14 2 -6 3 -18 -10 -19 17 15 -6 0 -13 -12 -26 -6 9 -13 -23 -10 -13 8 -7 5 -4 10 -3 3 4 -14 -23 -4 -25 -14 -3 -14 -16 -25 -7 4 -31 3 2 -12 14 3 5 -3 -1 -5 -6 -20 -31 6 -18 -20 14 -9 6 -6 24 -8 -7 4 -11 -34 -2 3 10 -15 -13 -3 -13 -13 -25 -13 -21 -6 -2 3 -6 13 23 -5 5 -8 17 8 -14 1 -22 16 8 -12 1 -3 4 10 -34 -4 -6 -15 24 -14 -14 -8 -4 -17 -3 -6 -11 -10 -7 -14 -6 7 -25 -8 -3 -10 -6 -14 -3 -21 0 -4 -3 -8 8 10 -7 -7 -7 3 -12 -14 8 -2 20 3 -21 -3 10 -18 -17 -6 -32 -11 5 -13 5 -10 14 -19 -6 3 15 -42 -10 -11 -12 -4 -8 -21 -3 -18 -4 0 6 -8 -21 22 3 -4 20 -9 0 2 -18 6 -12 4 -14 -9 30 1 -23 -6 -6 10 -15 -13 -6 3 -4 -21 -15 -3 -1 -16 10 -7 -7 -1 3 -3 -10 -6 -7 -9 3 12 -19 -14 -13 14 0 -13 -10 -1 -8 6 -21 -38 3 -18 3 -12 -7 1 -24 -6 -10 -3 4 -19 -6 8 20 -7 -23 9 -3 -8 -24 -3 -19 4 -13 -3 5 -4 4 -3 -4 -10 -19 10 -21 -10 -25 -7 -6 -19 -21 -3 -25 9 -17 -11 -12 3 -4 -12 -23 -3 -10 -17 -4 14 10 -14 4 -12 -7 -24 -3 15 3 2 -10 13 -14 -3 -1 -35 -35 7 -4 15 -3 -11 -11 5 -18 -8 -1 -28 -6 3 -37 -6 -3 -10 -11 -6 -5 -6 3 -9 -3 3 -14 -21 6 -2 -10 -18 11 -3 -3 -13 -3 -7 -4 -3 -8 3 5 6 -2 -3 -13 -31 -28 -17 -6 -15 -31 -16 -6 -14 -4 4 14 -13 -3 -7 -17 -20 6 -13 -7 -4 -15 -8 -14 -6 -7 3 -19 14 -18 -4 38 -10 3 15 -3 -14 1 -4 5 -20 -15 -17 3 -7 9 3 -20 -8 10 -10 -13 4 -14 -3 -9 -14 17 -7 -8 4 7 -3 3 4 -1 -3 -7 -8 -7 3 1 6 -7 -27 7 -4 -7 24 21 7 -7 9 -14 -14 -18 -30 -3 -7 7 -7 -2 -4 -9 4 7 1 -7 3 -19 13 -15 -11 10 -4 10 -3 3 -25 6 3 -7 11 -15 -17 -8 -3 -11 -15 -3 -8 -10 3 -3 -22 -23 -1 -5 3 -14 -5 -6 -12 27 -15 0 -3 -14 -7 -11 17 7 3 -17 8 -10 7 -3 8 -5 -13 -6 -6 2 -6 -15 -7 -29 -7 3 3 -7 17 -25 -18 -17 -20 14 -9 7 -3 -24 -4 -10 -16 -6 7 3 -18 -11 -26 30 -10 -6 11 -11 8 -5 -14 6 3 1 -3 6 -24 3 -20 -17 -3 -2 -32 12 5 7 -3 -6 -14 -10 -3 -5 4 -21 -37 -23 -21 11 -10 -7 -8 -24 -14 -14 5 -16 3 -6 -18 7 -12 -3 -10 -14 -6 3 -3 3 16 -3 -2 -3 -21 -2 -11 3 -20 9 -31 -18 6 -21 -17 -16 -28 -3 -24 -12 2 8 -13 -1 -8 3 -3 -5 20 -20 -2 11 3 -1 3 -3 -24 -3 -21 -3 -4 7 6 -13 -24 -11 -23 -20 -11 -7 -24 -9 -3 -7 -4 -27 -8 23 8 -9 -8 9 -8 -18 5 -9 -10 -7 -3 -25 -7 -10 -11 -4 -13 -1 14 -7 -17 -5 -3 -15 -3 -2 -7 -13 -14 3 -20 -6 4 -6 -10 -2 3 -14 -10 -23 -8 -10 -1 -11 -16 -10 17 -3 -6 -11 18 1 -21 14 -7 -5 -1 -3 -3 7 -3 5 5 22 -20 17 -16 16 3 -7 -3 -2 1 17 13 -6 -18 -17 -2 6 -14 -3 6 -9 -6 -9 3 -7 -18 7 -21 6 3 -7 -14 -8 -10 -4 -29 -3 -6 9 -49 -6 10 -6 -3 6 -3 -6 -4 -11 7 -3 -8 -2 5 -4 -3 -13 -4 14 -4 -4 -3 -3 -29 -19 -24 1 -16 3 -6 -17 1 -4 -7 6 -24 -3 -10 2 13 -20 8 -35 -19 -11 13 -19 -4 -14 3 -18 -7 -13 -3 -6 -18 22 6 0 -3 -8 3 7 14 7 -3 3 16 -15 -21 -8 4 -10 -11 -12 12 3 18 -3 -3 8 -5 12 3 -17 -3 -11 -6 9 0 -24 -5 -11 -14 -1 -14 -28 -37 -10 -14 5 -8 10 -3 -9 -3 -3 -14 5 -7 -4 -4 -7 -4 -11 -25 4 -6 -24 -2 7 -3 3 -12 -7 -3 -13 -7 -31 5 14 -3 -17 -20 10 -19 -6 3 8 -7 -10 -15 -5 -29 -9 14 -11 -3 -14 5 -4 -11 -19 -12 8 1 -18 5 -12 -24 -25 13 13 -6 -13 -17 -4 10 -6 -17 14 -3 14 -3 -3 2 -4 -15 11 -3 -23 -10 -6 1 -31 -14 -7 -2 2 21 -3 3 10 -9 3 -10 -16 -2 -33 -2 -2 5 6 4 -27 -11 -3 -13 6 -7 3 -8 4 -19 -21 3 4 -3 -7 20 3 -8 -1 6 7 -7 -2 3 -3 -3 4 6 -7 -7 7 -35 -16 -20 -6 4 2 -5 -7 -19 -14 -2 3 -10 -2 11 -13 4 0 -7 -5 -16 2 -14 -5 17 -1 -3 1 7 -14 16 -38 -12 0 -3 -9 6 -2 -21 -2 -4 -3 3 -1 6 3 13 -7 -6 4 3 5 16 -1 5 -4 11 -18 -14 -14 -9 -4 10 -5 6 -21 -10 -4 27 20 -15 -28 -23 4 -5 -10 13 -6 2 -18 -23 -1 6 -5 -10 -38 -4 -7 7 -16 -13 18 -32 17 -15 -13 -15 -8 4 10 -10 -21 -2 -3 -8 -9 -7 0 -38 -8 -13 -21 0 3 5 -10 -19 -3 -6 -16 -18 11 -7 4 -10 -12 -18 -17 -14 -11 -10 -8 -1 2 -6 -14 -25 2 14 -2 0 -11 3 -15 -3 -3 -3 -3 3 5 -14 -4 -3 -21 -1 -11 -10 5 -5 0 12 -7 -9 -3 -10 21 -15 -3 1 7 -3 -21 -10 -3 1 -8 -7 1 7 -17 8 3 -6 -18 3 -7 4 21 -13 -14 -10 -3 -3 7 21 -3 9 3 -8 7 1 -3 -2 11 -11 7 -3 -5 3 3 -21 -19 -3 -18 -2 11 10 3 -14 -7 3 3 -17 -30 -21 3 12 -10 3 -4 9 -1 13 11 -13 -22 -8 10 4 -6 -2 -9 -5 7 3 -3 2 -5 -12 -12 12 14 3 -20 -14 -26 6 7 -7 -6 3 -3 3 4 5 3 5 7 7 6 -3 3 -6 -17 -22 10 -19 -17 2 -14 -30 -10 5 13 4 -5 -13 6 3 -8 -7 -7 6 -6 5 19 -3 -3 4 -29 1 -14 7 -4 -8 -12 3 -17 -14 12 -10 -8 -3 7 1 -17 -6 -2 -20 -10 -3 -10 -21 -15 11 -14 -10 3 -3 -5 -1 3 24 -27 -6 -11 7 -22 6 -14 2 8 -17 -23 -15 -18 17 -3 7 2 -15 -6 -4 -14 3 3 -10 -6 3 -7 -24 -3 3 6 -10 -3 -19 4 11 -18 -10 -6 -6 -15 13 14 -27 -33 -6 -31 -17 -2 7 -11 -14 3 -4 -8 -24 -3 -3 -2 -9 -3 -14 -1 19 -19 -8 -16 1 -2 -13 -11 -17 4 -5 -3 -11 -11 -21 -12 -6 -3 4 -10 1 -4 -6 -14 3 -10 -17 -14 2 -10 2 1 -14 -21 13 14 -1 -20 3 -12 -4 -6 -11 -14 -7 3 -4 2 13 -3 -6 -10 1 3 -21 -1 5 0 -5 12 -11 7 -2 6 -5 7 -3 13 -42 -2 0 -20 -2 -7 -23 -19 -15 -8 3 10 -7 14 -4 -15 -18 -21 0 7 7 1 7 -6 10 -3 -24 13 -14 -3 3 17 -3 0 3 -6 -3 2 3 -1 -7 -19 -4 -1 7 -6 -20 -14 -6 -21 -20 6 6 5 11 -2 -11 24 -6 -7 9 -3 6 7 -3 3 -3 3 7 -3 -18 -21 6 -11 7 3 -4 -6 -34 3 -17 -10 7 -3 -11 7 -14 3 -9 -24 -3 1 -10 10 -7 1 -16 12 13 -30 -15 3 -13 -6 -6 -4 -10 -15 -10 -31 3 -8 -3 -8 -19 -3 -9 -21 -19 -4 -6 -3 -16 6 6 -10 6 1 9 3 1 3 4 0 -17 17 -3 -13 11 -6 -4 17 -7 -23 -13 -3 -1 5 3 -4 -4 -17 -17 -10 -10 -7 5 -14 -13 -7 -3 -4 4 -6 5 3 -7 -10 -28 3 6 -11 -27 -40 -1 -31 3 3 -18 -3 -14 -6 4 -22 -10 -16 -10 -6 10 3 -3 -7 -3 7 13 9 -15 -9 -14 -7 -6 -10 0 -30 10 3 1 4 19 -14 -19 -19 6 -5 16 -17 -10 15 14 -6 13 -3 -20 3 -9 4 13 -14 -15 -6 -6 -11 -17 3 3 11 -8 -4 4 3 -13 -8 9 2 11 13 1 -11 -3 -1 -14 -5 6 -8 -16 14 -14 -7 10 11 7 -3 -9 10 -7 -3 -24 -23 -7 -7 -16 -14 -3 -35 15 -2 -28 -9 2 3 30 -20 -3 -12 20 -3 -18 12 14 -7 3 -25 2 -26 -6 6 -3 19 -15 10 -3 -3 -10 5 -18 -13 -5 2 14 -13 6 1 -10 -7 -6 -1 -8 -5 -12 -20 -3 -30 -10 -3 -5 0 -4 4 -11 7 3 5 -4 6 -7 -12 -17 3 -21 -24 -5 8 -17 -24 13 17 17 11 3 -10 4 -7 10 -2 3 -12 -13 7 -12 -3 -6 -11 7 6 -6 -26 -17 -12 -9 -16 21 -3 -15 -8 -13 -6 -3 -13 7 -6 7 -6 6 -5 -3 11 10 -13 4 -13 -14 -17 15 16 -18 -28 10 -11 -3 -7 3 -4 -20 -25 21 -11 -5 -3 -3 -1 -1 -4 -16 -3 -23 -19 3 6 2 -2 -11 8 6 -12 7 -3 -11 -10 -20 -7 -15 -7 4 9 -4 -11 -7 0 -5 -7 -12 -19 -9 10 -3 -1 -9 4 -17 -1 -14 -17 -10 -7 -18 -8 9 -10 3 21 3 12 -18 -11 -6 17 -5 6 9 0 -5 -8 -1 -14 3 -7 -22 -8 -6 -3 3 -3 -12 -7 -10 6 -7 -29 -24 -4 -3 0 3 7 -3 10 -7 3 -6 -5 -20 -17 -21 -27 4 18 -18 24 -15 6 -21 -14 -5 -18 -40 -8 3 -17 -2 6 -7 -13 -20 1 -14 13 -3 -3 -1 -6 5 -6 -3 -3 10 11 -11 -6 -9 3 -2 -36 -4 -5 -3 5 -20 -4 7 -17 15 -31 -4 -10 10 -11 -3 18 -14 -1 -18 31 -28 -8 -7 20 3 -25 -14 -11 -7 -3 8 -6 -5 -7 -15 -9 -18 -7 -24 -5 -5 -19 11 -6 -10 -4 -27 3 5 8 -13 -4 -4 -8 -26 3 -17 6 -17 -10 -8 3 -3 -7 -1 1 6 -4 -4 3 -6 -3 -4 13 -11 -13 -1 -4 -17 3 -27 14 -21 -18 -28 -13 -21 6 1 4 -3 6 -11 28 -3 7 -14 -9 -7 1 -20 -24 -6 -17 24 5 2 -15 12 -3 -5 8 5 -7 -8 -13 -7 6 -10 -4 7 -5 -6 3 -6 -24 10 -3 -3 -20 -12 -3 -18 -16 6 2 -21 10 -8 -17 13 11 -24 2 14 -13 3 -6 -5 2 -8 2 10 -8 3 -10 -14 -14 -6 -7 -14 -17 7 -17 6 -5 -12 -6 -1 3 3 4 4 6 -6 19 -17 -5 -6 -15 -4 4 1 1 -7 -7 6 -6 8 -19 -14 2 -4 -10 -14 -5 11 -7 -4 10 3 -16 6 -3 -15 8 -4 -6 -2 -7 -23 18 7 18 2 -6 8 -17 -16 -20 -6 6 -21 -6 -6 3 -1 3 -13 -21 3 -14 3 -7 -14 3 -11 10 -10 -11 12 16 7 11 -7 -13 19 -24 -27 -12 14 0 0 3 -8 -4 -18 -5 -23 10 -6 17 -13 -21 -13 3 -20 -28 3 -19 -16 -7 -10 -15 -15 -9 -3 -8 6 -17 7 -6 -6 7 -15 1 2 12 -14 0 -13 5 6 -13 -14 -8 14 -3 3 7 10 -32 -3 -32 -6 -7 3 -9 -3 -13 -15 -10 -18 -10 -7 -17 4 3 -4 -17 -3 19 -7 -10 -6 -2 -5 -7 4 3 -7 -11 -25 -5 -3 -2 6 6 0 2 0 24 -5 3 -7 -4 10 -10 6 9 -3 -2 11 17 7 -14 3 -19 5 -37 -17 -14 7 -7 -10 -13 -3 -14 -5 8 8 -21 3 12 3 6 -4 -12 -3 22 -2 -7 -5 15 -4 -10 3 -6 -4 6 -3 7 7 4 -12 10 -19 -9 10 -20 8 -5 -9 17 3 3 1 -17 -7 -11 3 11 7 -25 -3 9 -3 -2 15 8 -5 21 -3 -11 -1 -10 -8 3 -11 -35 -10 -6 -3 -27 -13 2 10 17 -5 2 -3 -7 -9 9 -13 -19 -8 -7 -16 -7 -4 -3 -11 3 -20 14 3 6 3 12 -22 3 8 4 -21 9 -6 -4 -10 -8 -21 -3 -12 1 -7 -3 -2 -6 -4 -4 -7 7 4 -1 3 5 -6 -16 2 8 -4 23 -6 -7 -10 3 -14 -8 -12 24 -7 -3 0 2 16 -14 14 -13 19 3 -3 -1 -30 -4 -3 -8 3 -8 3 -15 -8 17 -11 -8 -4 -14 -20 14 -6 -5 -12 6 -6 3 -3 -3 -12 3 -26 3 1 11 1 -3 28 11 1 4 21 -3 -18 -5 -7 -10 -20 -23 3 -9 -8 -15 -17 -3 -4 3 -3 3 10 27 -6 18 -11 -3 -9 -7 -4 -6 3 17 10 -4 -31 -17 -10 -6 7 -15 -13 -10 14 1 -19 -9 -4 6 -3 2 3 -4 -5 -14 -20 -1 -1 -31 3 3 -11 -7 -12 4 -7 -9 -7 -4 1 -4 -19 3 3 -18 -3 -17 -10 17 -6 -18 -6 18 -8 -6 -4 -13 7 -21 -6 -17 -11 -10 -3 -12 -12 -28 -5 3 3 -2 -5 3 -14 -2 -13 -31 1 -18 7 14 -24 -10 17 9 -21 -19 -10 -5 -18 -5 -7 14 -6 -7 -7 -23 3 0 -21 -20 -12 3 4 -2 9 6 3 -3 -21 -7 9 24 -17 -10 -7 -6 6 7 -29 -14 4 -11 5 -10 -6 1 -11 1 -10 -17 -5 -22 -5 -2 -5 16 30 8 -15 11 7 -12 2 4 -2 -8 -10 13 -16 -2 3 7 3 -18 11 20 6 -3 10 -8 7 7 -9 14 3 -12 11 -9 3 -10 -3 13 -6 -10 10 -3 -28 1 -3 -2 -3 -3 -6 10 -11 -22 -14 6 -16 -10 -13 3 -18 -4 -6 -3 -8 -7 -16 -13 1 3 -21 -15 -15 -1 14 -3 -11 9 7 6 -4 -25 -20 -9 -35 -24 -7 -6 -4 -3 -6 8 3 13 -3 14 9 -14 -3 -24 -3 8 -3 -3 -6 -14 6 12 -7 9 -5 -11 -10 -15 -21 23 1 -4 3 3 -28 3 -15 -14 -19 -7 4 -9 -7 -31 -14 7 -12 -5 -10 -3 8 7 3 6 -27 -14 -5 -14 -17 8 -20 -14 -1 -24 -7 -17 -3 -3 -9 3 -5 -1 11 8 6 -16 -6 -18 6 -5 -3 3 3 -14 -6 6 6 11 9 -3 -25 -14 -8 17 -15 -7 14 3 -9 -18 3 9 7 -38 -13 -25 -3 6 -26 5 -4 17 -5 3 -5 6 10 -10 6 8 -14 4 -34 13 24 -3 8 -27 3 -7 10 -8 -14 -7 1 -10 6 -11 -1 -1 -11 3 3 -18 -10 3 3 -14 -11 3 -12 16 27 -1 -7 -7 -3 -1 6 -17 3 10 -1 7 13 -17 28 -12 4 -3 5 -8 -10 -18 15 -12 -9 9 10 3 12 -14 -4 12 4 13 -8 -13 -6 -8 18 14 -3 -27 -3 -11 -23 -14 -6 -3 -7 8 -3 -7 -1 3 -11 3 -7 -9 -7 -26 -3 -5 8 -3 -3 22 6 6 22 -21 -13 -5 -17 -14 5 10 -3 -7 -6 5 2 -6 4 -7 -9 5 7 -17 -21 11 -7 -7 11 5 3 3 6 2 2 -3 -17 -17 -5 -10 9 -6 23 -16 3 9 -14 3 -11 -14 -14 -10 -41 -23 -3 4 -14 10 -10 -15 -1 -4 -3 8 -15 -14 3 -4 5 -11 -8 11 15 -4 -4 7 -16 13 17 -8 1 -3 -11 2 6 -17 -3 -3 -2 -3 27 -2 -10 -10 3 24 -4 -6 -3 11 -10 10 -7 -14 -3 -3 -14 -8 15 -16 -5 -11 10 -15 -17 6 6 -1 -7 -21 -1 -14 -3 -3 -9 7 3 0 9 -24 6 -13 -6 3 -6 -28 -21 -10 -31 -14 -16 16 -1 -4 -28 -6 -3 -1 2 -11 17 -10 -5 -10 3 -17 -7 -4 3 -5 -11 3 3 -13 -12 -11 -3 -2 8 3 -7 10 -14 -15 -6 -18 -10 -23 2 -3 -17 3 -1 -3 3 -25 -6 7 10 -18 -25 -8 -4 -32 3 -17 -2 2 6 -14 3 -6 -17 -14 5 -1 -15 -18 -10 3 -16 -6 8 -8 3 3 -11 -15 -6 9 -12 -3 -2 -13 5 14 7 -3 -11 -4 -4 -13 -13 16 -17 -2 -7 3 -3 -14 -20 -20 4 -23 -4 -7 -17 5 6 -24 6 3 -14 -3 -3 -3 -8 13 -17 -13 8 -1 -10 -13 -6 7 -20 -17 -18 4 -2 8 -3 -8 -10 -2 14 -10 -24 -7 -5 10 24 -4 -14 -7 0 3 -20 -9 -13 -31 11 2 -4 -11 5 -2 -11 -13 6 -18 -11 7 -6 -18 -24 -6 -15 -10 -10 -3 10 -17 3 -21 -9 -11 -18 -3 -4 -25 -11 2 -14 -7 -14 -17 -6 -5 -3 -16 -14 8 4 1 -5 -12 -7 -1 -4 6 -3 -3 14 7 -22 -1 -6 1 -15 -14 4 -3 20 -14 -14 2 -46 3 -18 -7 -8 -3 2 -6 3 -3 26 18 -20 -23 2 -21 5 -4 3 -24 -19 -11 3 -16 6 15 14 5 -27 -7 -11 -4 -17 -24 3 -7 -10 -21 16 -10 -16 6 -14 -26 -11 -3 -4 -9 7 10 14 -4 3 -22 -3 12 4 6 -3 -17 -3 10 -3 7 3 15 -2 -11 7 8 9 26 -3 7 4 13 15 -7 -12 -3 21 -14 7 4 -7 -23 -22 -3 -10 -3 -8 5 -8 -25 12 -1 20 0 15 -14 -7 0 -18 3 7 23 3 -17 -14 24 -4 -6 4 -17 18 -3 -5 2 2 -13 -1 4 -13 -14 8 -3 2 3 -21 2 -10 -14 -16 -15 -7 -4 -13 -15 -17 -13 2 -1 -1 -30 8 10 -16 11 -4 -14 -2 -9 1 -3 -6 9 4 -14 24 -18 4 -4 -9 10 -3 6 11 -7 -14 14 -1 0 6 3 -6 -17 -9 3 -14 -14 -7 -23 11 -46 -11 3 -18 -4 -3 -2 -8 -11 -9 1 -11 -6 10 -4 3 5 8 -3 -21 6 -16 -14 7 -11 3 15 14 6 -3 6 -7 -35 -7 -15 -3 -14 7 9 -2 -9 -15 -15 -14 -4 7 11 -4 1 -4 3 -7 -1 -1 7 3 -13 6 -9 -21 -8 10 11 -18 3 -15 14 -21 7 -5 -32 -11 -14 -4 5 3 24 3 -11 -6 6 -1 6 -7 -27 3 -10 -7 0 3 -17 -16 -8 1 -13 -1 13 -19 3 -2 6 -1 3 -27 7 -15 -18 14 20 15 -11 5 -18 6 25 -29 -31 -3 -17 4 -10 7 -4 -3 -13 -32 1 -24 -23 -2 0 -10 -5 -3 -21 17 -10 -7 -7 6 18 -3 7 14 6 -17 -7 7 6 -3 6 -6 9 -3 -4 1 -11 24 3 -14 -3 -2 -6 -3 -11 -16 -8 -4 -2 6 -3 -5 -13 -9 -20 9 -12 10 -9 6 -9 -3 -13 5 -6 -4 -10 -12 -13 10 3 7 -4 -6 18 -12 -15 -15 -10 -4 -6 -7 17 -10 -6 -5 -13 -10 -13 -3 9 -1 -2 -8 -6 6 -15 16 -3 -7 5 3 4 7 -10 7 -6 -17 2 -6 -12 -9 -9 -10 3 -21 3 9 -11 -5 3 17 3 -23 3 6 -10 -14 5 -6 -37 -1 -8 -10 -18 -14 6 -7 -14 -3 -1 13 11 -7 4 -13 -11 -24 -2 3 -11 -7 -26 -13 -18 -19 -14 -24 -7 -6 -26 -31 -3 -28 3 -3 3 -1 -8 1 -5 -15 6 -1 -15 -3 -15 -6 -8 -8 -7 -10 1 -14 -8 -14 -11 -9 10 19 -7 -6 -10 12 -10 -21 -25 -3 -9 2 -10 -18 1 13 -5 -1 -6 -10 3 -14 -2 -4 -14 2 13 17 -17 -13 3 7 -7 0 8 3 3 -19 3 -12 3 -7 4 -11 3 -19 16 -4 -3 -20 -10 3 20 -8 -14 -28 -8 -28 -13 -10 19 -20 -10 -11 -28 -7 -15 -29 -12 -5 3 -2 1 3 -14 -15 -3 3 2 -7 3 -4 -13 -5 -3 -6 -10 -7 -38 -10 10 15 -7 -3 5 9 23 -1 -2 -3 16 -33 -3 2 -1 -4 -3 0 3 7 -10 3 -5 -3 -5 11 -6 6 -17 -3 6 -29 -7 3 3 -5 -6 -12 20 -7 14 -21 18 -16 -18 1 -25 -4 6 -18 -5 -11 3 0 -3 2 -4 -21 -1 3 9 -15 3 -4 1 -19 5 -18 -7 7 2 -23 9 -11 10 6 3 -10 1 -28 -14 16 21 -6 -19 3 -10 -28 -3 -1 -4 -18 -10 -7 8 -11 -1 24 -14 6 -4 12 -7 -5 -17 6 -3 -6 14 6 2 -24 -7 -28 -14 12 -11 3 -7 -17 -16 -18 5 5 -1 -6 1 -6 -1 5 3 -14 -7 -7 -4 -6 -5 3 -6 -3 12 -15 -2 10 10 -10 -4 -5 -14 1 14 0 8 -2 -5 -9 -11 -24 -14 -7 -14 3 -7 -7 7 -6 3 -17 -4 -21 -4 1 -6 -6 -1 -3 1 4 7 -3 -34 -1 -3 -4 4 2 -6 -3 -3 -13 -33 16 -4 -4 -7 -24 2 -4 -1 6 -11 -17 -7 -3 24 6 4 -23 17 -3 -11 -22 -6 -7 1 -9 -3 5 -29 -15 22 -10 -7 6 -8 -3 -3 -7 -6 -1 -10 -7 -11 -6 -12 10 -3 15 6 3 -32 -10 0 -5 13 -17 -6 3 -13 3 2 -5 3 -7 -12 -16 4 -10 8 4 -41 4 -18 -21 14 -19 3 -17 5 -17 -11 1 14 -18 -13 -17 -7 1 -5 2 -7 -5 -11 -30 -12 -8 2 -8 8 -11 -13 11 -14 3 -7 -25 3 2 -17 -11 10 -7 2 -7 -11 10 4 -8 4 24 -20 -6 -5 -3 10 -4 7 -8 -4 6 17 -7 -11 17 -7 -3 7 -6 3 -6 -13 -12 -14 -12 -7 5 -11 14 -3 10 -7 3 -16 -3 7 33 3 -5 -1 3 2 7 -5 -11 -27 -22 10 -3 -5 -20 -5 2 -18 -3 -24 3 -3 12 -6 8 -2 11 -12 -3 -18 -8 -3 -7 -28 3 -11 -11 19 -26 -8 24 -23 -25 -32 -13 0 -1 -19 3 -5 2 -22 -8 -13 7 -24 -11 8 -18 0 0 -14 3 5 -20 -3 -20 7 3 -30 -10 -8 -4 -15 -8 -10 -3 5 -11 -16 -6 -11 -9 14 -19 -18 -17 -8 -4 -16 13 -2 24 3 -31 -4 19 -3 -4 -7 -12 13 -20 4 -3 -26 11 -13 7 21 -20 -13 -4 -15 -7 -3 -30 -8 -1 -8 8 15 -13 -21 -4 -4 3 1 4 -7 -20 -21 3 3 -3 -26 -11 -6 -3 6 -14 -2 -11 3 -3 -6 4 -7 -4 -5 -3 -3 -25 14 -6 -7 -7 1 -12 -15 -6 -14 -3 -2 -4 1 20 -8 -7 13 -21 -20 -17 3 3 14 6 -20 -3 -7 -18 6 2 12 9 3 -8 -28 -8 26 -3 -10 -8 -16 7 -2 -14 -12 -8 -20 8 -14 12 3 -7 -11 7 -20 -18 -2 -1 10 -6 -11 7 -1 3 -11 3 3 -29 16 -18 1 3 21 18 -25 -9 3 -10 -7 -14 -23 -23 -3 6 5 -24 12 -14 -9 -7 -13 4 -10 -5 7 -7 -7 5 -20 0 3 6 -16 -9 -8 4 -5 7 -17 0 -3 -11 -4 -9 3 -28 0 -2 0 -3 -14 7 -3 -3 0 -3 5 3 -14 -10 4 -3 -4 -23 -31 1 -9 -6 -3 -18 1 7 1 -7 -13 -7 4 -11 -13 12 -9 0 3 -27 0 6 -4 3 -1 3 -25 -21 15 4 -1 -10 22 -2 -8 10 6 20 5 3 14 -3 3 3 -6 -17 14 -24 3 4 -3 -13 -3 -12 6 -14 -17 -20 7 10 7 3 -5 6 -8 0 -5 -17 3 28 -11 -10 0 -6 -13 -5 -10 4 -6 -9 -6 -22 5 3 4 -4 -17 -14 -17 -3 10 -18 -2 -1 -17 -10 7 -14 8 3 2 7 10 -8 -10 -14 -3 -6 -7 10 14 -10 -12 -6 21 -13 10 5 -7 3 -28 -15 -15 12 3 -2 -7 -15 -3 -3 -7 1 -21 17 -32 -24 -3 3 10 -24 -11 -20 7 5 -3 -21 1 -10 -6 -24 -33 -6 -7 -3 -13 2 -13 1 17 -17 -22 -9 -3 -16 3 14 -27 6 -11 3 10 -15 9 -9 -56 -5 -25 -7 -24 -10 3 -7 -8 -3 -15 -10 -10 -18 3 -14 18 10 -11 -3 7 5 -10 -32 14 -4 2 1 -3 24 -14 4 9 7 -7 -4 -3 -45 -18 7 -7 0 -20 -6 3 9 -8 -24 -13 -12 13 -9 25 -3 -14 -11 7 4 -18 -4 9 -3 3 -22 -18 -20 -3 -7 20 18 -7 3 -7 7 -21 -18 3 -12 -8 0 -6 -13 16 -13 5 -3 -6 0 13 -3 3 -15 24 2 10 10 13 16 -8 -14 -3 0 -7 -7 -24 9 -5 -3 22 -8 -11 -1 4 -3 24 -20 -19 11 -32 -14 -20 -23 6 3 -3 -3 -2 -10 -4 14 -13 -31 -9 0 -10 -7 -7 -6 -8 -6 6 -20 6 -7 10 -14 14 -3 -25 -3 -13 -6 -25 7 9 22 -14 -3 6 -6 -11 3 1 6 -4 3 3 -19 12 -7 3 -4 -14 10 13 -3 -4 -10 -4 7 -8 9 11 -5 -17 21 4 4 -3 13 -19 15 2 -17 -14 -9 -12 -37 -1 -2 -23 4 -3 11 -5 2 -19 7 -5 9 4 -4 7 17 -31 -3 6 -10 14 -9 8 9 -13 -7 3 -4 -6 -3 11 -18 -16 4 3 3 -4 -8 -4 -3 -10 5 -1 -7 -13 -1 -3 -3 1 -3 -6 6 3 3 6 12 10 -13 -3 6 17 -14 -9 -7 -6 -10 3 -8 -17 -3 -31 20 -14 14 9 2 -14 -4 -6 -3 -3 27 -7 -1 5 11 -15 -3 -10 -8 -10 -12 3 -25 -7 13 17 7 7 -7 3 -14 -2 -13 -31 0 1 -3 -9 2 -6 -14 -3 11 -4 -13 -1 -1 -3 3 -7 3 4 -22 -2 -14 7 0 -14 -14 14 5 -15 13 -3 -3 -13 6 24 6 -3 7 -3 5 10 -10 -13 -5 3 -18 -6 -3 -13 14 -23 -11 -3 3 -7 -10 13 -8 8 3 -18 -28 -4 -13 -11 -18 -3 -1 7 24 -10 9 4 -1 12 -34 -10 -3 9 -16 -10 -14 24 -10 -3 5 3 3 10 -6 -6 -6 2 -3 -7 -4 -4 -30 -6 -4 -2 11 -12 3 -3 -20 10 -4 11 -22 -10 -3 -30 22 -14 -3 14 -13 -4 -21 -1 -4 -1 9 -6 -3 3 -4 5 -7 -20 -21 -16 -7 3 20 16 -15 -14 17 8 3 8 -18 -3 -8 -3 -15 -3 -1 3 -13 1 -21 -13 17 -11 2 -3 -10 -6 -9 2 -17 -4 -8 0 -8 -4 3 -3 -11 -3 -6 -9 8 -4 -3 -11 12 -17 -28 9 -1 -3 -10 3 -6 -17 11 -20 -7 7 -3 -3 -19 -6 -12 -1 3 3 1 14 3 20 20 1 -21 -3 -1 -18 -7 -2 -3 -9 -18 1 5 -7 1 -3 3 4 -6 -3 -6 -6 0 -3 0 -5 3 -17 -24 -6 -5 -7 2 -10 3 -3 -17 3 -14 -3 16 5 -32 8 -11 -10 1 -4 4 -3 2 -6 5 -7 -13 -5 -10 -31 -5 -25 -6 18 -10 -2 -3 -12 7 4 1 -12 6 -4 10 3 -5 11 -15 -22 -2 -12 3 -7 0 20 -11 -36 20 -4 7 -6 18 -5 35 -10 17 7 -10 3 -14 9 8 16 -3 14 -4 -8 -20 -8 -25 -13 -31 3 -14 -3 2 -10 6 -13 -14 -3 -18 -7 -28 2 -7 -3 9 -7 -13 -9 -7 -25 -6 -17 -10 4 17 -3 -6 -19 6 -23 -3 -1 7 -15 3 5 -2 -6 2 -22 -12 -27 -17 11 7 -7 -7 -11 5 3 -1 3 8 9 3 -7 2 -7 13 14 -10 27 3 -7 -17 -11 -19 -25 -11 -3 -23 -28 2 2 -26 -17 -25 -13 -6 -11 13 -2 -6 -18 14 -4 -3 7 -10 -11 -8 15 0 1 3 7 -6 -8 -3 -14 -11 4 6 -5 -3 -28 -13 -14 -8 -9 -3 -3 3 -13 -10 -7 -23 -18 -3 5 -18 -9 -7 -16 -29 -17 14 -1 3 -11 -9 -15 -20 -5 -28 -35 6 19 -9 14 -7 14 -10 -6 -3 -4 3 -3 14 3 3 3 -6 2 8 -9 3 -17 5 -7 6 -3 -3 1 -3 -7 -8 3 -11 -18 6 3 -35 -4 -6 -10 11 28 -28 -3 -7 3 -24 -1 3 -16 7 13 -4 -38 -6 -11 -17 -15 3 10 -11 -18 13 -11 -15 -3 4 2 -3 7 12 3 -16 -4 8 6 -3 8 13 -3 2 -23 -24 -14 -4 -21 -8 -3 -22 -8 7 3 8 18 -21 17 -3 2 3 6 6 -13 -7 11 -16 1 -6 10 -12 -17 -20 -11 7 17 -10 -10 2 -6 -17 -17 -13 7 -15 -14 -15 4 3 7 -3 -35 -6 -23 -8 16 6 -3 -11 4 -27 -3 -17 5 -14 -24 21 -6 -20 3 -7 -15 13 -3 7 2 6 -13 14 -14 13 3 0 -18 -4 -11 -14 -14 -3 -11 7 0 -1 -20 -17 11 -6 3 -21 -24 -3 7 -12 6 9 5 13 -10 -20 23 7 -2 5 -3 12 -24 6 -3 -4 -3 -11 -28 5 -3 -10 -20 5 11 13 -7 0 -5 -2 -17 -6 -10 -3 -3 6 4 11 -11 3 -13 -7 -20 -7 -7 -21 -9 10 3 -3 -11 14 -13 14 -6 -14 9 -3 28 3 -26 -7 -24 17 -14 3 -2 -13 -7 3 -17 -21 7 -8 4 6 -14 0 15 13 -7 -3 -1 -11 -2 6 10 -31 18 3 -10 -5 -13 -22 -14 1 -31 -18 8 -22 -2 -10 -2 -6 -4 4 22 -14 3 -6 -23 -10 -18 -18 -1 9 -8 4 -6 16 -13 -15 -7 -23 3 -4 -8 -19 2 7 -7 -7 10 10 -3 7 7 20 -7 -3 -1 -10 3 -3 15 -17 -6 -5 1 -3 -16 -3 -7 -17 -10 -20 -10 -3 -16 5 3 -9 5 -11 4 -10 -3 -6 10 1 -3 -15 -18 -16 7 -6 -17 8 -5 -20 -1 -14 12 3 1 -22 3 11 7 -19 -4 -7 -6 2 -12 -14 -10 -1 9 -10 -14 -3 -3 3 6 -1 3 -16 -17 -4 2 19 -4 4 3 6 12 -5 -11 -1 3 -7 13 -11 -7 -13 -24 -17 -20 4 -34 -13 6 12 -13 -15 -9 -6 1 11 -14 1 3 4 6 -5 -3 3 -32 1 -17 15 -7 -6 -6 16 1 -37 -11 -3 -3 -6 6 -3 -15 11 -4 -2 -5 -10 -23 6 2 -31 -11 -35 -3 14 -6 4 -14 -3 -20 -15 3 -13 3 -7 6 -1 -14 -17 7 9 4 -25 -8 -2 -3 6 -15 -7 3 -3 -3 -24 -17 16 1 2 6 1 -3 -4 -17 -1 -4 -3 -4 3 -16 -13 -6 -14 -12 -21 2 -8 14 -27 3 3 -6 -6 -10 10 12 -28 -21 7 -7 -20 19 -11 -10 3 -6 -24 -13 14 7 -3 -7 3 -8 6 7 -14 10 -20 -25 7 -9 -14 -4 1 -20 -14 -10 -13 -13 4 7 -7 -15 -10 8 12 -8 -27 -7 1 -3 23 5 16 -4 -7 5 6 -7 -8 -4 4 1 23 -21 -11 -4 -7 -28 -4 -19 18 -4 -11 -17 -13 -22 -18 1 13 -14 -8 -20 -5 23 3 0 -5 -5 5 7 -2 -19 4 1 4 6 17 3 -21 -3 -5 -8 -8 -5 7 -8 -16 -2 -5 -3 -14 5 -28 -12 -7 -6 -3 3 14 -20 -11 -6 -29 8 10 -22 4 -5 -11 10 -3 -13 -5 -5 -6 -8 -48 -6 4 -28 -4 3 16 -6 -7 3 -11 -17 25 16 -27 -24 -5 -24 11 -8 6 -7 -17 -3 -10 -14 -14 -2 -11 3 -8 -10 -6 -2 8 4 7 -24 -8 -1 -1 6 3 0 -3 -14 -10 -6 -10 -17 -1 -9 17 10 3 -5 4 -15 -10 -6 -5 -10 -8 8 10 -18 -1 -3 -2 7 -2 -7 -7 -6 -3 -11 -28 -3 -21 -6 3 8 -18 -5 3 -3 6 4 -4 -32 -14 -10 5 3 -20 4 2 -3 8 -12 4 3 -10 5 -1 1 5 -3 -27 -8 -7 3 -4 -4 -24 -11 3 -33 -7 -16 -6 -11 -17 3 2 4 -23 -10 -14 -1 -35 14 11 -7 -2 -3 -1 -13 -9 -20 -14 -10 -5 8 1 4 -6 -6 -25 10 -1 -3 -3 4 16 3 -9 16 3 -14 -8 -10 14 3 -25 -8 -7 15 -2 -1 15 -10 -23 -18 -3 -6 -3 3 -3 27 2 -17 -13 -1 -13 -4 3 -17 -5 6 -7 -10 -16 11 3 -3 2 1 -13 -2 10 -10 -4 0 1 -13 -18 -7 -3 4 -8 -3 -11 2 -4 -14 -7 -16 -17 -14 -20 6 -4 -6 -3 3 -6 23 -3 10 -3 -6 14 -5 -7 3 11 3 -1 23 3 -4 1 -3 -6 -7 -16 3 -6 9 -31 -6 3 -41 -7 -7 3 2 -1 -17 16 -3 -13 -10 1 7 -8 6 -7 -7 6 -24 -11 10 6 -23 5 -25 5 -7 3 3 3 -27 -3 -4 3 -2 -16 3 -4 3 -5 11 7 -2 -15 -9 -9 -3 -7 -3 4 14 10 17 6 -11 20 8 1 -13 -6 5 -7 3 4 -1 10 -11 13 -10 6 -8 13 6 13 -7 7 -4 -11 -11 -24 -10 0 -1 -11 -10 -8 -3 -3 -3 -4 5 -3 -25 -7 -4 -9 -7 -28 8 9 -6 -13 -7 -3 5 -14 -26 -25 -16 -5 -11 -2 -14 -6 -8 -8 6 3 -8 4 -19 1 -7 -4 -10 3 9 -11 -13 3 3 -7 -14 -1 -3 0 -8 6 -19 -3 9 3 7 -10 7 -13 -27 6 -24 12 3 -7 7 10 -21 -5 -4 3 -3 -4 5 -14 -16 -9 -32 -19 -14 -24 14 -14 -1 -7 3 -10 -4 7 1 -8 -3 -11 14 -29 -23 15 -4 -3 15 3 -24 -17 -4 -17 -15 3 -10 -21 -10 -14 10 18 -1 -3 3 -21 7 -30 -11 15 -5 -1 3 -7 -25 -10 10 -11 -3 39 -3 8 -4 8 -13 5 -3 -3 21 -7 8 -6 -13 -4 3 -10 -1 -23 -13 2 11 16 -10 -1 3 -11 -9 2 7 -14 20 3 -3 -13 3 -16 -19 -21 6 -4 -7 -17 -24 -4 2 -17 -6 -5 -7 3 16 3 -17 -13 -7 3 -29 -21 4 17 -30 -27 -11 -20 16 -2 -2 9 -4 -7 3 -14 12 6 -1 -3 -10 -6 -14 -4 -17 -3 -2 2 -25 1 8 4 11 -28 20 -3 6 -14 -12 18 6 13 -3 -14 -24 -14 17 -17 4 1 5 -14 -3 -13 -7 16 -19 5 -4 -1 7 -14 9 -10 -10 7 -6 -3 -8 -3 -8 19 1 -16 -3 -6 7 -8 -7 3 -5 -7 3 9 -15 -21 -13 -31 -4 -4 -16 -5 3 -4 8 -6 -16 -5 -13 -13 -11 -10 7 -10 -9 -15 3 -9 -30 10 -8 14 6 -7 -3 6 -14 -15 -8 -21 6 17 3 -4 -18 -21 11 -5 10 7 10 -14 15 11 -8 5 3 -10 -13 3 -1 5 -14 5 -2 -10 6 6 -6 -21 -11 -3 26 -17 -10 -5 -28 -10 7 2 -14 -4 -13 -15 13 -18 -3 15 17 6 -21 10 -15 -15 -18 -18 -9 8 -8 -5 -23 -23 6 12 14 -7 -18 1 -4 -31 -16 -3 -4 -7 -16 -16 -13 16 -7 5 -8 -12 -6 -20 25 -17 -17 -14 10 -6 -16 -7 -2 8 -8 3 2 7 8 -21 -21 8 -4 -20 -34 -4 -15 9 -8 -3 10 -11 -25 -18 3 -8 -14 -11 -3 -21 12 -2 18 3 1 -6 -31 -10 -6 -22 18 15 13 -3 24 3 0 -2 -16 -17 -8 -5 -3 -4 -22 -27 -3 3 -2 -16 14 3 -7 -7 10 -16 -8 -7 -25 -16 3 -7 6 -12 -5 5 -4 -6 -23 6 3 7 -3 8 -13 -14 -10 -14 -32 -8 -22 -1 -26 -24 11 -14 -27 3 -3 -14 -8 -6 -14 -13 -3 11 -14 -23 -4 -17 6 -21 0 6 -6 -18 -3 4 -6 -23 -22 -17 -10 21 -10 19 -3 -8 -14 -4 -9 3 13 23 -11 -9 7 -10 1 -14 -9 -11 3 -24 10 3 3 6 1 -3 -16 -12 -11 -6 2 1 -13 3 -1 -3 3 -5 6 -13 -17 -31 -3 3 7 -17 -4 3 -7 -1 -4 -2 -12 -13 3 -4 -10 -6 14 -8 6 -3 -3 -17 -1 6 6 3 -6 -23 10 -1 -2 -4 -11 4 -3 -24 -18 21 -4 3 -16 -29 -6 -28 -10 -7 14 6 13 -13 -18 10 -5 0 -12 -3 -5 14 -22 21 -21 -2 -7 4 -7 -14 -7 -16 6 -3 27 -7 -9 -4 -15 -1 -3 -3 3 -17 -26 18 -6 3 7 -6 -21 -3 -13 6 -9 3 -13 -3 -4 -8 3 -11 -24 6 3 16 2 -16 -21 -11 -9 7 -7 7 13 -24 -11 3 -4 -6 -31 6 15 13 -3 -13 12 -25 -8 -11 -13 7 -8 -21 3 -5 -12 -4 -7 -6 -12 -24 -10 -6 3 -4 3 -3 -23 -5 1 5 9 -13 -10 -2 11 -3 6 -20 -20 1 -22 -17 -3 -8 -11 3 -18 10 6 18 2 -15 0 3 6 -11 -19 -17 -2 3 -2 10 -11 3 -4 1 -13 -8 -2 17 -8 -7 -1 -8 12 -7 3 3 -4 -6 -7 3 7 -7 3 2 -6 -17 -3 -21 -3 -11 23 -7 -2 -5 3 -11 -2 10 -7 12 -3 -2 -25 3 7 -1 8 -10 -10 -24 6 -3 15 -8 -15 -7 -9 31 -24 -8 -15 17 -3 -14 -7 -6 -11 -3 -2 -13 0 -11 -22 4 -18 13 -10 10 -14 4 -3 3 -7 -6 13 -14 3 6 -7 -12 3 -17 1 10 -7 -4 -1 -4 3 5 -5 7 -17 -11 20 -17 3 -16 16 10 10 -27 -17 -3 -7 -12 -16 3 6 3 -27 -6 -9 -20 6 3 33 -24 -28 3 -13 -7 -8 -3 11 -1 -3 -14 4 -6 -15 -3 -1 -14 -14 17 -5 -1 -18 8 -22 -21 -3 -3 -7 -8 -5 -4 8 -10 16 -6 -9 3 1 28 3 -11 -4 -19 10 -14 -14 -7 -17 -14 6 -10 -4 2 -1 -18 -7 -13 -1 -23 -40 -6 -20 -3 -11 -6 -6 22 4 7 -11 -7 -23 -3 6 -14 6 -7 -8 -11 -4 7 -10 -13 2 16 -3 -34 -1 -4 -4 7 -7 -18 1 -4</t>
-  </si>
-  <si>
-    <t>JSB(1.4058790311508935, 3.1337776342607078, -18.885160708657175, 130.9198707517786)</t>
-  </si>
-  <si>
-    <t>16 51 30 37 16 16 23 27 47 20 35 36 34 32 29 44 38 28 47 32 34 33 36 19 25 12 27 23 31 26 24 39 22 10 35 22 53 46 29 55 46 31 53 36 46 30 20 23 46 33 50 15 33 26 40 32 12 33 52 17 44 55 26 20 31 51 41 31 30 33 38 30 37 40 44 30 23 31 40 16 13 44 37 30 16 31 25 37 28 30 30 29 18 33 33 22 40 33 40 30 34 25 34 43 48 20 41 37 19 24 27 43 23 33 37 36 21 29 36 30 20 20 19 34 33 38 27 40 33 29 37 38 30 27 38 26 52 27 25 37 48 21 23 33 29 26 48 33 42 10 45 16 35 16 29 38 40 29 54 29 23 19 36 44 17 50 16 9 37 48 42 43 30 24 16 26 22 25 48 30 62 40 18 25 27 42 27 43 33 31 19 44 30 40 35 29 51 34 18 37 33 33 27 37 47 38 26 48 19 40 30 40 22 32 46 41 29 43 29 38 37 24 29 48 38 49 27 26 27 30 37 47 43 34 34 10 23 26 37 48 13 20 30 30 33 24 37 23 37 23 42 17 30 44 30 37 40 29 23 19 31 26 38 44 23 16 37 19 30 19 34 24 9 33 37 27 16 28 19 26 27 17 42 37 37 47 16 36 27 41 37 30 30 29 33 45 37 49 37 27 23 46 30 39 31 18 19 36 25 38 18 26 37 52 36 48 50 33 33 44 30 23 29 30 34 30 44 15 15 10 26 31 23 59 42 31 41 25 37 33 16 25 19 25 26 21 41 29 38 43 54 26 23 13 39 29 26 29 40 36 26 26 32 43 22 36 33 26 43 41 39 30 43 27 37 27 36 21 44 34 37 16 30 29 3 22 36 53 40 29 27 19 27 29 10 19 33 27 41 47 37 38 33 33 27 45 29 30 22 42 44 43 37 39 41 40 38 44 44 37 26 25 31 44 41 36 17 26 49 38 29 16 27 37 40 37 34 31 54 19 49 17 47 44 26 17 34 19 41 44 21 37 10 34 45 37 62 31 34 34 16 16 43 19 47 41 44 15 28 41 40 29 26 21 25 33 23 39 25 40 34 52 22 58 44 54 24 30 30 29 36 43 27 42 21 34 22 23 44 47 27 38 29 31 42 20 13 44 31 36 43 30 23 43 23 38 26 27 52 37 44 42 21 23 19 36 37 46 27 42 22 33 26 33 23 26 50 34 17 23 27 34 33 36 27 38 25 36 30 43 27 24 47 34 21 38 38 23 28 30 23 26 42 22 28 29 26 34 30 55 29 34 44 27 38 22 12 37 46 47 33 13 39 22 23 27 33 53 26 27 35 37 23 23 29 50 28 24 40 48 26 26 32 28 28 48 31 45 31 23 34 37 51 51 27 13 16 45 37 29 29 28 32 26 36 34 31 35 32 34 30 30 29 37 37 37 23 24 50 53 27 27 37 42 26 40 26 23 30 28 33 31 40 27 32 36 41 51 29 36 19 33 13 33 13 32 43 34 22 47 31 33 27 33 39 33 37 30 36 32 22 37 48 29 25 37 44 26 50 34 38 20 45 40 29 33 33 37 26 26 23 37 34 48 23 37 32 35 30 29 37 52 27 33 33 33 30 38 22 7 45 23 30 33 26 33 17 44 22 15 33 16 23 41 27 20 55 29 26 31 46 23 33 29 25 33 49 23 25 37 36 41 42 51 40 44 27 27 29 29 30 46 44 20 30 34 36 38 39 43 52 30 38 30 37 32 25 34 33 40 19 43 34 20 22 16 40 22 23 23 29 18 39 19 24 29 22 35 23 49 33 31 46 65 30 41 25 35 16 36 23 42 35 47 30 34 37 33 33 37 29 13 27 30 19 49 32 38 38 32 30 37 35 17 31 45 24 37 41 29 56 23 22 33 15 19 16 26 18 34 51 31 24 31 29 31 46 43 38 20 33 36 26 23 40 24 36 31 36 36 41 37 16 40 20 49 23 29 38 35 26 51 47 39 28 26 30 40 47 37 50 29 44 20 34 19 26 22 44 47 23 13 20 12 47 30 37 42 40 33 43 45 13 38 16 47 37 23 43 41 25 19 20 34 30 28 39 39 21 23 25 38 25 45 42 41 55 51 23 36 37 36 31 30 36 49 21 31 36 40 23 32 24 41 28 40 33 48 46 16 49 44 37 23 34 49 16 29 34 29 30 32 28 44 37 60 29 38 38 30 27 30 23 54 31 41 39 29 38 20 30 36 21 29 37 15 26 29 37 34 34 36 33 41 26 29 48 37 27 27 25 22 43 36 31 33 51 30 23 25 27 20 30 43 26 41 35 23 41 46 33 43 36 32 42 40 16 27 30 30 41 44 36 20 21 27 25 51 48 43 32 34 30 35 31 42 26 16 37 30 29 23 32 23 37 45 29 17 33 30 37 37 28 23 23 19 26 27 34 37 27 52 33 10 38 57 38 33 29 30 25 47 34 27 16 23 38 34 43 37 19 55 25 15 10 27 48 23 27 33 49 44 29 38 49 27 30 44 53 32 31 54 48 20 36 46 19 51 40 23 29 31 23 51 23 16 36 30 13 44 13 24 23 9 45 26 33 32 26 33 37 44 48 23 31 47 29 27 53 23 33 47 29 27 15 19 32 27 39 38 39 29 41 41 52 20 23 31 31 43 39 40 37 42 31 33 42 21 36 30 31 32 15 37 20 26 38 23 53 44 23 19 38 37 25 37 25 22 20 38 16 36 34 30 37 33 31 32 29 36 20 36 18 23 43 34 36 37 17 22 13 29 57 27 42 37 37 3 32 30 42 55 47 27 34 34 46 24 40 37 23 23 36 27 37 40 16 39 37 40 20 34 23 38 32 36 29 38 24 31 33 18 29 34 37 31 33 38 23 9 28 27 23 23 48 22 28 45 30 30 32 41 38 43 51 27 40 40 30 45 47 40 42 45 40 37 27 26 26 29 29 35 43 25 9 19 27 33 42 20 31 47 33 30 30 50 39 19 29 43 26 37 37 37 23 20 40 34 30 26 33 12 29 48 29 52 41 26 20 31 26 37 16 43 55 15 38 48 33 23 29 40 34 31 10 31 26 19 20 45 44 46 23 45 45 29 31 26 30 37 36 40 33 36 30 41 26 50 38 26 23 36 36 37 30 44 27 29 38 30 13 51 40 52 31 40 41 49 29 38 34 35 22 23 26 26 30 35 35 35 32 20 23 31 30 34 24 36 40 38 38 31 16 33 34 27 19 53 17 37 27 37 37 33 23 30 53 37 44 28 25 19 35 47 41 22 26 32 17 48 40 48 34 55 30 29 33 20 36 33 25 45 36 49 20 24 20 19 26 30 21 31 29 42 10 37 40 38 34 37 23 23 26 36 33 40 40 34 35 29 31 51 57 28 43 25 27 22 22 43 33 26 31 21 35 34 29 31 29 31 19 31 32 32 25 43 33 40 43 20 37 33 41 33 55 40 19 42 35 37 30 47 46 44 27 37 27 45 10 30 10 15 31 24 51 23 40 45 27 33 37 37 33 35 44 27 25 27 56 41 41 37 38 32 33 35 43 47 46 37 37 27 30 42 22 20 59 26 36 38 37 41 24 39 50 57 25 40 35 37 21 50 40 29 30 6 39 36 30 17 33 46 41 26 46 52 32 42 23 33 31 24 49 46 41 26 32 29 28 37 23 48 37 36 48 28 39 41 26 34 40 49 27 22 43 23 24 30 30 30 40 40 26 37 41 44 20 27 40 34 33 30 36 46 50 15 34 19 48 31 26 26 17 23 31 30 37 40 41 34 27 26 13 64 31 10 30 34 27 33 34 48 25 25 33 34 38 38 45 42 26 33 33 29 32 47 45 32 34 39 22 26 17 39 32 27 24 27 20 58 23 19 21 24 26 31 19 43 29 26 40 34 41 45 30 26 16 44 44 55 29 60 41 32 32 23 41 33 30 36 51 29 54 21 26 24 43 20 26 33 51 30 32 34 26 27 40 23 37 34 16 34 19 20 24 27 38 24 29 34 23 39 29 31 30 37 30 32 27 12 19 44 45 34 40 37 44 37 12 20 41 51 26 19 31 39 26 39 27 23 52 23 41 14 13 16 27 30 35 19 20 22 13 33 23 48 35 51 46 37 23 35 29 20 40 26 30 13 23 44 16 17 38 31 23 27 29 34 33 22 35 44 42 40 41 35 9 51 46 44 23 50 37 44 19 31 29 14 37 31 22 29 33 41 39 34 58 16 23 38 26 40 27 26 31 44 33 26 37 19 48 34 33 27 45 36 26 29 20 51 28 40 39 29 31 41 16 26 60 28 38 36 23 33 26 37 46 30 19 30 31 43 33 24 31 49 20 30 30 50 29 34 14 29 36 32 41 32 43 30 30 55 33 43 31 33 41 27 34 28 46 32 33 32 37 28 23 64 31 43 34 16 47 43 27 29 37 20 27 32 16 30 37 33 19 29 43 30 46 16 58 51 34 34 28 34 31 45 54 41 26 43 29 30 37 38 23 19 30 37 40 45 36 41 36 36 33 37 51 36 23 20 17 39 37 37 22 25 34 19 37 24 43 39 19 43 43 22 32 37 26 37 12 29 30 26 34 23 49 38 37 33 29 31 16 38 35 22 17 27 39 29 47 18 28 30 36 42 22 21 20 22 38 40 33 40 37 55 35 29 36 37 19 23 30 26 19 25 23 26 42 36 20 19 10 19 36 33 40 38 18 31 25 37 32 50 27 32 37 48 45 39 33 37 9 26 32 23 45 37 30 26 30 31 41 40 40 37 28 40 43 43 34 38 44 23 33 19 46 31 15 31 40 24 50 31 36 16 55 21 23 30 32 25 39 25 16 31 24 27 24 30 47 30 25 29 40 45 27 32 37 38 45 31 29 27 25 17 34 30 44 30 27 25 37 36 46 26 40 24 29 37 29 34 37 23 28 41 31 36 33 25 28 28 33 40 32 25 33 37 23 26 30 55 20 34 42 30 33 31 29 29 32 41 19 31 40 40 37 31 40 21 30 27 32 48 30 35 40 41 44 37 43 27 27 23 30 30 30 35 37 26 29 24 33 34 23 23 58 45 47 19 40 22 50 27 30 13 21 20 49 30 25 29 31 37 27 40 38 28 30 37 27 36 15 26 46 46 25 44 45 23 36 33 21 25 37 24 45 41 20 33 20 45 49 20 21 34 29 31 40 42 26 29 23 47 59 30 33 22 34 33 26 33 29 44 29 26 33 23 37 24 31 29 35 37 26 25 31 27 23 33 41 44 23 20 44 29 20 44 48 23 31 30 47 15 30 47 33 17 43 34 31 29 56 22 26 41 21 26 20 25 26 45 24 41 22 27 30 23 27 33 27 52 37 15 24 23 48 20 25 25 22 37 38 33 34 49 38 35 24 27 31 21 39 26 53 47 33 36 27 34 30 32 37 37 40 32 30 33 36 23 43 30 34 30 29 29 22 27 34 51 40 30 37 22 26 43 25 30 33 29 37 36 44 35 52 31 26 23 32 39 27 37 41 47 34 22 37 48 20 20 29 33 41 20 27 7 33 36 25 37 29 39 37 44 39 43 65 23 29 46 34 30 23 32 23 33 31 25 27 33 23 23 38 38 30 12 43 33 34 39 27 34 47 50 33 20 51 43 26 37 43 33 30 29 29 25 19 26 34 28 26 25 43 36 22 37 17 26 30 43 41 25 51 29 19 35 20 23 36 47 37 51 16 33 35 47 38 34 22 31 10 26 29 37 49 24 40 23 47 42 61 37 20 34 44 20 23 44 16 35 31 35 28 34 33 26 32 40 37 47 29 44 19 38 53 37 16 24 37 23 24 46 23 24 41 26 23 42 42 31 33 24 37 29 22 40 26 17 49 23 31 43 48 26 31 26 52 32 26 31 38 26 30 48 27 44 23 46 30 23 36 39 25 27 41 39 45 33 33 40 36 31 20 27 29 29 35 20 23 26 40 19 38 30 32 40 35 45 22 38 34 30 40 15 30 34 34 40 36 31 29 20 23 42 35 34 26 27 31 32 43 30 48 32 29 27 34 38 37 40 26 14 31 33 25 45 30 36 54 16 26 37 39 45 22 32 31 32 44 31 35 19 23 50 20 47 40 9 31 54 30 37 44 42 38 33 23 38 38 26 40 26 47 46 31 36 26 37 12 16 30 32 32 16 42 33 50 27 29 18 42 44 27 39 20 9 30 49 33 17 31 30 22 25 51 19 37 29 50 40 27 41 31 32 21 34 41 34 28 19 36 29 30 32 45 44 29 30 31 48 35 27 36 32 24 43 22 47 26 34 40 35 23 27 35 26 24 17 49 16 27 43 29 36 30 45 16 30 25 28 49 38 37 39 26 41 41 35 43 23 57 43 38 15 30 18 23 39 24 45 22 26 36 48 16 36 27 30 49 29 29 22 58 19 40 21 45 55 55 27 36 37 57 37 37 55 30 26 25 28 32 37 37 34 29 24 29 26 39 40 31 29 37 17 42 45 40 24 10 30 37 23 29 27 43 41 36 23 34 31 25 40 42 23 19 45 34 29 34 45 45 38 56 26 28 16 28 27 31 31 31 20 48 27 33 38 43 46 54 32 27 37 25 40 42 36 58 36 51 49 51 34 39 38 39 26 33 35 37 47 39 15 20 48 24 30 33 10 28 29 37 26 17 27 26 24 25 31 17 38 47 59 27 40 41 29 25 28 27 33 13 30 35 36 21 19 27 29 34 20 44 44 23 17 41 19 22 30 45 24 19 19 39 37 47 27 29 31 36 28 38 23 29 37 40 29 41 23 43 31 32 29 23 41 31 54 38 29 37 44 49 33 43 23 34 35 48 40 33 27 34 35 42 27 23 23 27 31 29 28 44 41 37 26 33 19 32 26 44 34 31 35 45 55 45 37 33 31 31 30 37 42 26 9 19 31 36 24 38 30 42 27 35 24 23 42 30 22 28 31 43 50 35 34 26 27 13 55 12 42 29 40 51 23 26 48 34 33 33 17 20 48 30 29 37 22 47 65 35 27 17 24 27 26 30 26 32 33 52 37 20 36 21 36 43 16 40 26 25 23 31 22 23 28 23 27 30 23 37 42 39 37 44 26 41 23 36 34 23 38 26 28 48 41 27 26 23 35 27 20 40 36 23 37 33 29 23 44 23 41 31 44 33 26 25 30 45 29 40 23 35 56 47 29 19 50 27 26 23 34 43 20 39 32 44 19 23 28 27 29 41 41 30 37 22 27 51 54 27 51 39 23 47 45 42 31 41 20 31 34 26 38 12 16 22 29 48 32 37 26 30 25 29 30 38 23 45 48 29 36 27 41 20 21 15 29 23 43 19 23 37 19 52 48 17 22 30 29 27 45 22 33 47 27 44 42 37 30 26 34 37 26 39 18 39 31 19 32 19 49 34 43 33 32 38 16 30 65 37 12 23 69 26 44 42 29 30 39 40 38 43 33 17 40 40 25 36 23 13 38 32 30 10 57 23 47 41 44 29 22 43 20 23 25 30 33 26 38 51 52 22 33 26 34 47 37 37 27 49 36 40 35 30 27 27 29 34 30 28 34 34 17 32 21 25 34 27 9 29 30 33 41 34 38 48 23 32 16 45 30 29 9 20 37 24 31 29 31 35 26 31 34 36 51 45 34 39 26 34 37 16 40 19 40 36 31 39 37 37 40 25 27 16 50 33 22 31 37 22 36 30 44 19 43 23 64 33 29 27 41 37 57 46 23 43 26 44 37 24 59 26 33 30 33 33 37 23 32 37 37 20 19 22 25 49 36 36 33 38 25 50 30 31 27 25 38 27 37 36 24 34 23 26 29 34 35 23 16 30 27 29 23 37 30 38 21 37 34 49 36 16 41 51 15 10 23 43 28 52 36 47 22 22 33 40 44 33 31 29 33 26 21 37 32 16 25 27 21 30 29 21 38 29 28 33 38 33 27 22 37 23 23 36 20 19 33 47 47 28 40 26 24 22 33 19 43 26 30 29 30 26 35 13 32 12 13 19 36 26 34 23 31 39 29 29 41 20 36 44 36 26 49 19 26 32 27 22 14 45 37 33 40 45 19 27 22 44 43 33 16 25 19 36 35 36 32 48 51 44 16 29 40 49 36 30 33 20 45 34 39 22 39 36 27 40 32 38 45 25 34 51 32 44 16 25 33 46 13 30 50 23 35 47 19 58 36 30 24 41 16 35 30 21 21 40 44 40 41 33 34 29 49 10 37 29 28 32 36 25 25 44 44 44 38 61 26 37 30 26 41 16 20 56 43 34 26 28 20 37 31 29 43 31 29 29 51 29 34 30 31 47 41 23 36 35 19 34 40 41 37 23 16 35 31 37 25 13 45 27 22 23 35 40 25 33 27 37 36 31 26 30 23 19 38 27 27 20 16 23 37 19 39 29 33 31 20 19 19 37 28 17 37 19 31 33 29 37 33 19 29 44 16 37 38 37 34 39 31 17 23 30 27 37 26 30 17 30 25 35 27 23 27 38 38 16 24 28 36 27 37 27 9 37 22 29 34 36 26 44 27 48 26 32 40 29 41 40 23 25 37 24 33 23 29 21 19 26 23 31 40 29 40 22 41 51 30 34 30 36 39 33 32 33 25 26 37 40 27 41 26 28 43 49 43 33 22 51 33 28 25 38 34 44 17 31 40 12 42 40 15 27 31 23 32 32 32 24 45 16 33 33 45 34 22 43 45 23 25 33 30 33 56 29 27 48 34 20 22 34 29 23 45 24 29 39 49 16 33 34 58 42 21 31 44 40 17 13 50 29 23 32 30 9 47 30 31 34 22 34 26 33 25 20 39 39 40 37 45 32 27 31 32 29 24 26 24 37 37 22 33 37 34 33 19 33 26 22 31 40 39 31 37 36 29 45 23 45 27 40 26 23 44 34 33 24 42 34 41 30 23 34 38 30 16 41 48 33 39 28 19 42 37 30 22 26 31 26 13 31 30 36 27 25 20 36 35 51 55 19 33 40 43 38 31 13 30 20 37 25 37 13 48 44 40 50 42 33 45 37 37 42 37 28 33 20 30 41 42 53 40 33 33 27 19 42 16 29 52 33 20 37 37 37 31 20 15 34 45 22 37 47 25 33 28 47 13 20 20 54 34 47 26 34 24 23 29 36 17 36 26 19 21 29 26 35 41 29 37 29 35 31 24 47 40 23 33 25 22 28 40 23 53 16 39 31 29 19 20 39 57 42 21 33 24 24 55 27 36 44 19 36 33 23 41 48 26 28 44 33 30 51 37 22 29 48 49 37 15 21 35 24 50 17 30 24 34 24 34 27 51 17 29 43 44 54 39 31 45 25 37 40 30 43 33 45 27 37 19 35 23 30 24 29 29 16 30 21 43 26 19 23 23 30 46 18 11 31 27 24 48 35 6 35 33 60 43 43 23 15 50 23 40 22 16 40 30 28 36 40 24 37 43 41 23 35 19 23 27 23 26 49 12 22 34 44 28 37 33 50 25 40 33 33 42 33 44 37 30 27 34 26 25 41 34 29 35 36 33 26 27 12 40 17 29 29 3 31 20 44 38 23 33 44 33 16 31 27 25 37 15 27 26 25 26 44 50 40 48 27 30 29 27 29 47 30 49 23 50 51 35 19 46 54 23 41 33 42 48 23 28 29 36 48 17 36 26 23 30 26 40 27 35 31 40 38 20 20 23 27 47 44 29 29 36 21 44 33 51 16 20 33 36 19 52 33 32 33 46 19 40 20 39 46 22 25 53 54 44 38 37 41 37 29 22 34 13 34 23 29 21 36 37 14 39 30 33 45 23 29 37 16 38 19 22 36 37 18 39 13 30 29 34 37 27 20 34 38 37 36 23 44 41 29 37 48 13 60 31 33 27 32 35 40 48 37 31 31 38 33 30 19 20 29 27 22 52 34 24 23 23 27 43 38 40 25 33 23 31 35 37 39 13 24 38 31 35 43 17 32 28 28 29 26 18 32 33 51 37 44 20 35 47 21 38 21 24 31 25 46 9 49 30 25 29 24 43 19 37 36 37 33 26 29 24 19 30 20 37 44 21 49 37 30 30 31 40 17 23 40 29 48 19 20 33 42 29 49 42 26 36 43 17 43 40 21 16 34 13 47 30 30 29 34 31 41 23 26 27 37 40 37 46 23 39 47 16 48 28 30 15 40 35 40 35 36 40 26 45 37 26 34 33 31 42 27 26 27 45 21 19 26 39 48 31 37 34 23 23 46 29 43 22 54 22 29 25 25 46 44 33 31 33 37 16 22 30 17 25 36 26 25 36 45 40 34 25 40 51 37 34 29 35 23 32 26 29 27 37 27 36 19 30 33 23 37 23 34 38 44 33 29 19 20 33 16 22 18 50 31 37 40 23 24 38 35 29 41 43 33 18 36 16 45 34 31 24 13 29 27 33 30 23 23 33 26 41 34 34 47 27 40 39 22 53 30 23 34 31 31 26 31 41 27 52 36 36 31 24 65 22 41 26 33 23 30 51 47 48 31 27 20 30 36 27 29 34 23 34 24 22 29 37 48 36 31 36 38 20 22 33 42 26 45 25 37 36 38 26 25 27 34 29 36 56 22 42 38 43 30 32 20 34 41 28 59 35 37 18 33 36 40 25 43 29 28 16 34 34 39 23 27 20 41 16 30 27 33 55 25 20 26 26 43 26 28 44 24 26 33 27 39 22 30 31 36 32 23 41 34 16 34 30 39 49 30 19 18 16 20 36 23 36 32 42 26 27 26 12 37 39 23 53 41 23 26 37 19 20 29 29 30 44 29 26 46 19 31 35 33 47 44 39 32 20 54 26 15 32 22 44 29 29 50 40 29 27 39 33 43 46 34 27 47 32 33 30 27 33 35 23 30 38 51 33 34 40 41 45 25 36 26 26 18 13 33 34 13 20 22 40 57 29 19 30 52 43 38 26 27 17 37 23 33 33 30 44 36 27 23 36 23 24 29 43 47 27 30 26 28 15 25 36 37 41 57 43 51 17 44 34 40 32 16 52 30 29 45 39 30 30 16 40 31 31 16 23 39 27 26 29 39 37 37 23 34 19 27 28 27 59 20 25 30 50 33 17 36 15 32 24 24 31 34 22 27 51 35 36 22 23 46 38 34 23 13 25 16 12 10 37 41 34 26 40 47 43 29 43 29 25 45 49 35 29 37 47 43 45 51 37 28 27 22 25 27 37 37 31 24 48 37 17 41 24 38 31 41 27 30 30 63 29 26 17 19 35 29 41 19 32 33 36 27 30 23 17 23 26 42 31 32 47 26 34 37 38 30 27 23 48 42 36 32 47 29 40 27 19 23 36 48 30 28 35 27 30 19 37 29 26 22 30 20 36 29 26 33 44 51 48 26 36 38 33 37 26 22 16 46 26 27 33 23 17 33 36 24 37 46 29 36 9 33 48 43 17 20 16 32 36 34 34 29 32 26 12 23 29 29 40 17 48 17 45 17 41 15 54 17 25 36 41 37 36 29 41 30 34 29 23 31 20 27 31 43 30 31 41 49 30 55 40 24 37 43 45 41 22 34 37 45 16 24 51 35 30 48 13 27 19 36 34 27 19 47 38 28 35 30 45 38 39 28 40 33 27 43 29 23 31 31 40 42 25 37 33 30 33 28 37 15 23 44 23 43 30 23 32 36 28 24 40 26 36 41 47 27 26 29 29 16 29 18 24 34 49 29 31 30 19 29 26 22 27 31 19 44 33 40 50 42 37 37 33 33 50 23 36 29 27 34 44 39 27 29 29 34 41 48 30 37 38 36 15 32 37 23 35 39 45 44 37 28 19 32 26 27 41 34 30 37 29 30 20 47 23 33 28 37 33 40 39 30 29 22 48 34 39 29 33 26 30 22 22 26 16 47 30 22 51 13 37 36 37 26 46 39 38 44 27 27 45 48 43 36 31 29 23 38 45 25 34 36 30 51 48 25 29 36 45 29 18 30 17 22 20 48 38 38 45 37 34 22 32 31 32 19 30 33 33 29 27 55 27 53 48 15 29 47 25 46 36 49 20 39 35 30 27 34 24 37 50 32 23 25 29 34 23 32 23 30 29 26 37 31 32 34 26 36 45 35 29 43 36 37 21 35 47 30 9 47 34 37 27 26 47 27 16 37 27 31 48 13 30 37 36 29 48 39 37 30 33 28 37 34 41 38 32 26 27 38 19 53 45 17 29 9 41 33 31 38 40 30 40 52 40 33 43 39 23 40 40 26 34 37 23 23 51 40 48 45 33 33 48 23 31 30 37 23 19 44 39 31 37 34 26 25 30 29 35 37 29 26 24 36 34 34 34 16 34 33 36 21 26 33 31 25 16 34 38 39 13 30 54 41 57 27 37 37 43 36 42 45 51 34 43 29 44 44 27 27 19 27 31 39 18 49 31 28 29 49 19 29 40 18 28 25 25 52 24 42 15 28 35 29 44 23 30 26 24 26 30 33 26 47 38 40 44 26 43 41 23 29 43 32 42 29 21 26 23 43 25 37 35 31 19 51 41 48 29 19 34 51 29 28 46 26 40 33 39 37 31 20 23 24 37 41 20 33 36 20 36 27 33 43 35 43 47 23 25 27 29 57 45 31 20 30 22 41 43 23 23 44 43 26 35 30 23 15 32 23 23 14 40 30 47 23 31 16 44 44 36 43 19 16 29 32 41 32 31 30 29 37 40 37 29 30 30 33 16 27 43 40 53 45 23 16 18 17 23 31 30 17 39 30 36 22 35 30 36 18 37 23 58 44 21 40 43 31 26 40 21 30 29 37 28 39 43 24 46 29 31 41 33 48 23 31 59 19 35 30 23 36 34 33 40 29 26 34 27 30 49 56 16 30 13 30 46 20 39 39 30 37 23 52 43 30 29 37 25 36 35 25 23 29 39 33 36 23 55 36 26 29 19 10 26 43 28 44 44 45 22 37 37 57 33 29 23 37 26 39 44 30 37 32 22 52 37 37 22 42 28 34 23 40 37 48 21 33 27 32 16 23 16 40 34 26 15 37 29 39 26 39 32 29 30 19 33 42 33 37 51 22 24 39 13 16 31 30 27 23 35 34 34 34 24 43 38 19 51 39 34 36 26 17 34 23 27 17 26 19 29 47 26 33 22 19 38 27 34 37 30 22 30 40 37 60 30 26 26 30 44 25 29 44 36 22 56 19 26 37 38 37 27 37 23 26 24 37 33 26 31 27 26 56 57 27 42 36 36 28 27 24 38 31 30 29 23 39 39 31 24 29 24 31 45 30 42 25 26 35 26 37 45 30 26 20 30 27 25 40 33 19 36 18 23 33 28 33 34 19 32 19 29 34 16 21 26 34 40 16 52 29 36 33 32 29 26 54 29 37 32 52 48 43 46 27 27 16 29 38 57 45 37 32 18 57 34 37 39 27 37 36 43 36 35 33 22 41 28 30 50 6 40 44 21 37 10 23 33 24 28 16 23 48 37 42 16 20 31 37 17 38 31 25 35 33 56 29 19 54 41 48 31 47 16 47 61 33 30 43 21 42 27 30 23 29 34 31 30 29 24 33 60 31 46 19 20 40 29 34 27 40 44 43 33 49 29 29 42 30 24 48 24 37 30 45 23 46 30 25 27 30 19 32 32 9 36 29 35 28 30 20 30 35 27 24 19 37 23 33 16 33 41 42 20 42 32 45 30 34 30 45 39 35 48 15 22 34 38 34 58 24 37 24 23 12 17 27 48 26 33 48 42 23 12 23 37 23 20 20 13 41 37 58 29 23 36 10 37 30 32 37 53 27 23 26 28 22 31 25 34 23 55 42 46 26 27 31 37 41 28 40 31 34 35 35 13 31 37 20 31 35 22 27 35 27 34 38 47 23 38 33 44 37 27 39 13 33 43 19 20 45 33 22 44 43 42 15 41 48 47 13 19 50 17 42 44 19 23 30 15 55 22 46 13 6 33 27 37 36 33 40 45 29 56 60 25 41 27 33 43 37 50 34 33 37 33 13 29 42 20 34 33 51 19 24 48 45 51 31 23 31 30 44 33 22 23 41 38 43 44 37 58 40 30 19 29 53 23 24 27 25 54 52 9 27 20 34 37 21 27 54 29 34 36 23 23 28 33 31 38 23 32 57 36 40 37 43 50 42 28 36 34 37 37 39 29 34 23 30 30 29 26 29 27 49 47 34 24 44 48 47 22 23 41 16 26 30 24 41 29 16 22 28 33 37 38 34 49 41 38 33 23 35 27 22 38 54 26 43 30 37 27 33 41 24 33 30 13 40 43 36 26 32 21 45 28 23 39 21 37 37 43 47 45 23 39 23 42 30 26 43 26 37 19 20 16 44 26 48 19 34 37 41 13 49 35 30 39 17 30 44 43 31 47 32 41 38 53 42 38 41 30 32 43 31 54 43 23 23 35 50 19 23 35 42 13 33 37 41 24 48 32 19 44 27 36 34 46 45 33 10 41 47 32 36 32 10 41 41 25 27 50 38 30 27 39 47 33 26 30 37 48 26 22 28 44 47 23 17 41 23 49 47 34 40 43 37 25 29 60 17 19 30 37 43 47 38 22 37 52 16 37 34 48 42 34 26 46 13 30 19 70 16 43 42 27 27 53 26 23 47 36 27 31 28 39 23 37 44 33 29 16 27 39 31 34 38 39 50 30 16 43 19 37 23 49 37 19 30 45 30 47 43 18 33 24 23 42 15 27 24 31 23 29 35 23 40 46 17 23 26 41 25 29 25 37 42 26 24 19 34 35 36 38 36 33 43 30 40 30 33 29 35 18 33 22 24 41 33 13 39 27 29 44 29 29 33 42 33 19 22 29 29 37 24 30 47 16 19 54 32 44 47 34 43 45 22 54 17 13 24 24 44 49 26 17 19 38 28 20 30 18 49 43 37 20 37 26 34 40 22 44 33 48 48 26 17 37 13 37 44 44 19 33 33 18 33 34 39 29 29 34 49 33 24 34 41 29 28 51 22 51 32 44 36 38 16 33 34 33 26 46 30 66 29 35 37 40 26 39 34 29 41 33 25 20 31 29 24 27 38 33 42 18 27 29 47 38 41 23 40 33 23 22 10 32 36 49 37 31 47 16 30 38 27 52 22 24 27 18 23 53 33 37 24 26 38 37 23 53 17 50 26 25 27 27 31 25 43 33 40 22 47 42 26 21 21 7 42 35 10 33 27 26 46 22 23 25 32 23 44 50 28 37 19 51 28 23 41 31 30 39 31 13 40 44 38 32 34 36 41 16 36 47 26 39 23 51 35 41 55 37 40 30 39 31 27 25 49 28 27 29 51 30 34 26 28 34 20 37 19 31 26 23 27 37 45 22 43 31 16 25 22 27 51 30 16 34 44 50 26 46 23 23 38 30 7 26 30 32 45 33 29 45 33 29 41 32 31 32 33 32 34 56 31 35 43 20 45 30 25 51 22 29 33 39 15 29 29 23 32 13 39 43 33 28 38 43 23 20 63 28 38 31 24 29 23 28 48 22 32 29 30 43 38 34 45 27 40 37 35 45 41 40 34 38 43 37 46 27 40 41 39 9 53 16 34 48 27 27 30 35 34 36 26 32 20 51 35 26 43 32 27 45 50 52 40 22 39 40 16 31 19 23 42 24 17 45 28 25 34 45 26 24 32 27 16 30 37 45 38 37 37 30 33 24 13 20 30 17 48 23 13 39 33 36 27 30 55 41 45 30 20 27 28 26 41 25 33 30 16 43 33 28 19 54 47 9 29 29 26 23 40 31 20 26 44 37 23 43 58 30 13 24 19 23 29 39 20 44 19 33 29 40 35 20 26 31 46 16 13 48 40 21 27 33 20 23 15 31 32 18 26 25 35 42 20 38 16 29 31 48 28 26 26 31 10 38 30 49 22 20 40 26 26 36 48 46 23 33 35 41 40 44 16 17 30 26 23 47 33 23 23 45 37 57 30 30 25 37 39 44 31 23 41 44 21 34 43 23 23 20 33 30 46 34 29 27 47 30 52 23 13 19 47 39 20 26 43 34 22 33 26 30 31 33 45 20 37 45 36 21 51 48 14 16 20 53 34 27 37 17 34 41 43 43 40 16 30 37 30 37 49 29 15 54 31 24 25 33 33 35 27 21 28 51 13 30 39 26 3 33 46 34 30 21 27 29 43 47 31 46 41 38 28 16 34 24 26 26 33 37 28 31 29 43 40 37 20 24 31 38 37 49 23 38 34 26 45 46 19 24 27 31 23 20 32 26 39 31 9 32 37 30 26 34 41 43 36 22 32 45 20 44 37 17 34 22 27 26 31 45 24 30 40 27 29 28 27 32 22 45 22 41 24 40 30 34 37 34 41 24 42 30 30 20 41 41 24 29 33 37 34 41 37 36 31 32 25 33 35 37 47 31 33 57 66 52 31 31 22 30 23 40 19 19 37 27 19 22 32 30 33 26 33 39 41 22 27 39 29 23 48 31 49 30 23 34 49 40 31 31 38 27 31 23 62 51 37 25 30 30 15 41 40 23 47 30 16 38 37 42 38 38 29 29 13 25 44 44 34 30 30 31 29 58 26 10 37 27 41 38 35 45 42 33 19 32 42 40 9 23 26 30 25 44 27 29 41 29 20 37 19 24 24 50 27 37 23 54 36 40 9 13 26 38 35 41 27 27 41 30 43 30 36 34 40 33 30 27 53 15 38 26 27 37 23 39 30 36 52 22 39 16 34 40 25 26 27 33 30 37 39 23 22 30 43 33 16 23 36 40 39 37 44 40 48 45 40 43 29 39 30 50 30 28 33 51 29 40 36 35 41 28 34 28 34 48 26 33 16 20 26 37 31 31 13 40 37 27 15 40 26 43 34 32 23 37 43 54 28 23 37 51 36 27 29 36 34 30 39 51 24 38 10 41 34 37 23 25 17 27 42 30 31 27 35 29 30 31 26 23 26 37 27 30 39 24 37 43 35 30 39 25 49 29 36 16 41 37 31 45 26 16 40 37 50 23 33 33 51 30 26 43 43 30 16 32 37 29 30 54 30 37 30 33 19 47 33 39 17 37 27 31 20 34 37 23 20 32 30 33 23 34 43 26 23 13 26 30 31 32 23 37 37 48 26 40 39 22 26 10 48 37 29 41 21 27 39 43 33 29 24 30 30 44 23 51 27 27 31 45 27 33 17 26 28 33 37 26 47 37 29 16 20 34 23 37 30 13 27 35 29 37 41 37 36 28 36 20 35 32 34 42 28 37 41 33 35 45 13 20 36 34 29 41 23 19 16 16 33 31 37 44 34 29 19 34 43 29 23 37 33 30 33 46 46 43 44 40 36 27 35 50 45 25 27 44 38 33 30 51 32 40 22 37 23 30 28 40 24 24 31 37 35 37 30 40 34 52 36 43 19 22 30 30 32 10 50 39 50 9 39 26 16 24 37 34 44 23 30 34 26 23 40 41 36 33 29 44 33 25 34 37 43 36 33 27 34 33 44 33 37 26 58 23 34 37 40 17 40 30 27 26 41 47 37 27 21 53 25 21 33 37 27 30 29 44 42 29 26 31 44 24 42 40 36 37 31 37 17 34 45 22 16 15 29 30 37 46 29 19 43 30 37 34 31 27 32 19 19 31 29 43 54 26 33 23 43 41 20 23 26 26 27 21 43 47 44 27 36 35 9 34 19 25 31 39 57 23 44 32 15 26 22 12 37 40 25 45 43 44 40 35 19 26 16 9 29 31 29 34 35 52 19 46 40 23 36 33 30 36 17 56 26 45 19 27 19 56 37 29 37 48 30 44 28 43 50 21 16 27 32 12 30 30 51 37 29 55 48 22 44 31 19 12 40 23 48 40 44 33 26 30 29 47 16 17 13 30 37 26 37 40 44 17 20 16 32 34 26 47 19 43 21 26 49 30 30 34 47 48 31 42 19 34 16 33 25 53 19 33 21 33 59 42 31 30 16 45 49 28 51 38 35 29 13 47 41 37 29 36 28 16 52 46 49 35 23 13 33 37 29 29 23 19 43 36 37 23 27 40 35 33 40 22 41 31 27 23 31 43 37 45 31 29 34 22 30 50 37 57 13 40 51 41 26 40 44 40 38 51 33 22 37 20 27 26 27 43 27 34 32 29 34 17 30 26 41 17 46 33 28 40 37 57 59 17 27 24 35 45 38 45 25 36 25 13 36 57 31 32 33 39 45 43 33 26 35 52 47 34 37 37 44 27 26 38 26 37 36 37 29 26 31 37 31 24 16 46 35 31 45 19 33 20 35 37 29 51 33 26 31 23 34 40 31 53 24 32 24 31 48 34 37 41 23 30 39 31 22 33 19 30 44 34 43 31 55 23 28 43 44 33 45 33 23 30 46 37 33 30 21 30 44 40 26 29 40 27 23 44 23 30 26 34 35 36 23 42 34 39 29 34 52 39 37 43 44 35 34 40 33 27 23 16 49 20 30 38 37 26 29 33 23 52 24 34 12 37 43 33 33 37 48 45 24 45 19 27 47 34 29 26 16 28 23 37 50 33 31 43 21 34 38 27 46 32 15 33 31 19 37 27 36 36 13 14 40 27 23 20 30 24 37 54 40 35 25 41 12 37 34 43 37 34 9 27 44 35 27 42 54 29 35 47 30 42 29 13 16 37 31 30 30 26 17 30 45 37 34 23 29 42 32 33 17 25 39 26 29 36 41 34 22 31 37 26 30 31 17 27 33 41 26 19 19 41 9 10 23 37 31 34 33 26 34 32 9 37 34 31 42 33 30 37 26 31 30 55 41 37 29 33 27 52 36 40 48 20 29 19 33 35 19 29 54 26 22 43 30 23 22 23 33 38 34 41 31 50 34 52 28 16 54 34 22 16 22 48 35 32 51 30 44 24 19 21 38 32 26 30 33 47 33 29 29 16 26 35 32 41 35 33 30 36 23 27 19 20 21 23 13 22 45 37 27 31 28 29 41 45 32 37 19 51 16 48 36 17 30 39 15 23 25 23 30 30 37 28 36 29 35 27 26 46 25 40 37 26 39 26 31 48 36 23 13 48 43 23 33 43 30 33 40 34 12 34 30 29 51 16 38 23 17 29 40 19 37 30 23 36 16 43 30 36 29 34 26 39 45 31 23 19 33 37 49 39 52 31 48 44 34 33 26 32 39 33 35 34 39 23 48 53 29 22 26 29 37 31 46 39 45 35 35 34 46 16 35 43 37 23 23 40 26 31 47 17 22 16 39 28 39 26 36 43 31 41 43 28 12 30 28 23 48 41 23 55 23 35 26 33 34 37 19 35 24 37 48 36 23 20 41 13 29 23 37 36 31 30 27 36 28 29 37 36 31 19 30 45 44 35 30 45 40 26 18 63 30 26 26 39 31 43 40 26 50 36 24 34 47 27 19 20 19 37 22 23 34 36 19 26 19 15 33 37 26 40 41 26 30 40 43 27 37 26 28 39 40 20 38 27 19 30 27 47 33 44 44 32 40 27 27 25 23 37 23 30 50 27 47 20 35 48 22 30 29 39 55 51 30 25 48 16 63 30 30 23 43 19 54 24 13 27 34 32 48 33 43 31 20 37 39 33 27 28 43 30 27 16 34 37 23 27 43 33 26 22 29 35 20 30 30 37 25 34 51 28 30 27 42 43 15 54 40 37 48 41 26 30 54 30 29 29 38 29 33 29 29 24 32 54 40 22 48 28 29 22 46 33 43 29 23 37 30 33 52 29 30 31 20 26 35 45 53 30 48 42 58 23 43 34 44 28 44 32 16 33 44 40 33 41 40 31 40 29 40 44 26 36 43 27 23 31 30 29 43 28 33 46 32 33 30 40 48 36 52 25 3 28 27 24 41 47 28 25 31 48 37 25 26 29 22 34 47 35 9 32 28 24 44 48 16 19 23 26 22 30 45 20 40 30 29 30 29 35 39 25 37 39 26 19 43 22 38 36 29 29 39 41 40 32 23 51 23 50 30 29 22 40 33 41 20 17 27 30 17 31 55 39 56 26 30 33 38 19 16 34 34 43 16 19 23 15 30 32 45 51 22 29 20 32 36 26 43 43 30 33 29 30 43 41 16 29 36 45 34 25 37 43 27 36 29 27 33 19 16 23 43 33 34 27 36 66 31 15 29 30 19 41 32 44 28 44 26 27 27 24 27 23 24 26 35 37 44 24 34 33 30 23 40 54 54 16 32 23 17 50 23 41 16 31 30 42 33 13 21 17 51 27 43 35 30 47 45 40 41 50 45 20 43 37 34 37 41 35 41 39 22 47 23 16 37 33 42 25 35 34 26 33 31 42 36 23 16 38 23 47 25 25 41 37 51 37 39 29 36 29 36 38 45 16 37 25 37 33 36 45 45 15 37 11 3 16 40 38 37 40 45 26 34 39 25 12 29 25 29 52 19 44 23 13 30 42 46 33 26 27 27 41 22 35 37 30 16 26 33 27 32 26 29 29 23 10 19 31 37 27 22 49 27 34 26 29 22 41 19 43 19 26 44 31 40 33 43 18 42 42 20 48 40 31 20 30 39 29 27 30 16 51 23 37 13 29 29 33 40 39 17 40 40 40 43 23 43 51 35 16 25 33 33 40 36 34 23 47 35 30 27 33 48 17 23 30 33 20 16 29 44 25 34 30 34 34 47 33 49 28 30 27 27 26 23 37 32 41 53 35 30 29 41 23 38 45 30 39 33 37 52 41 44 14 30 38 33 23 31 47 21 30 29 39 21 33 9 39 25 36 50 31 49 51 45 34 16 46 19 49 29 37 27 19 20 40 47 24 37 38 19 35 33 44 43 22 30 19 31 23 29 38 55 46 20 31 31 33 37 30 47 33 34 30 33 23 30 36 36 31 28 29 41 31 30 31 37 51 27 23 41 33 30 23 30 33 23 34 36 44 42 45 30 33 3 28 42 26 27 45 52 20 48 38 31 45 26 36 31 41 44 38 37 44 26 23 44 40 32 36 34 27 43 40 38 34 23 17 38 19 51 28 31 25 33 36 41 29 30 33 49 32 29 16 36 41 26 31 20 29 48 33 33 22 45 26 35 34 41 37 29 39 47 45 27 41 47 37 38 16 44 51 51 44 34 44 44 37 19 41 31 16 49 30 23 41 37 29 46 30 48 40 26 33 39 26 34 33 40 45 42 45 27 16 36 21 29 25 24 19 44 40 39 37 34 19 23 46 41 29 27 37 42 25 48 22 6 34 32 49 17 29 48 29 44 41 44 30 25 34 34 24 13 27 41 52 21 27 43 34 41 10 33 29 44 36 43 34 20 33 43 29 26 18 20 33 36 13 52 45 36 29 22 19 38 32 33 36 41 29 26 26 34 34 37 43 17 34 22 36 22 19 28 26 26 35 30 41 24 27 33 26 24 40 40 38 27 45 40 29 30 23 31 50 29 34 26 37 35 33 18 36 30 23 19 32 37 30 34 40 42 29 33 31 30 29 40 36 30 39 30 31 23 44 48 47 37 23 30 36 26 51 27 33 16 36 30 27 37 28 31 41 28 26 53 43 30 34 29 20 29 55 23 20 41 34 40 20 46 40 40 27 48 30 37 20 33 37 27 34 40 32 28 31 57 29 40 23 30 37 28 27 26 54 46 36 37 24 46 45 34 45 36 39 16 25 43 32 34 30 43 31 19 37 29 15 21 36 43 26 33 43 37 42 38 37 37 26 25 41 52 30 31 34 42 41 55 23 55 17 37 19 32 33 31 37 49 37 25 37 22 29 27 33 36 22 30 39 29 22 30 34 14 26 34 25 37 31 33 34 38 31 44 29 30 41 36 22 37 36 17 24 38 21 36 45 50 41 34 46 42 19 28 40 33 25 36 24 33 34 32 37 37 32 40 35 27 28 35 38 49 54 55 36 44 31 27 33 37 10 43 33 37 35 37 31 26 38 40 31 19 32 33 37 33 40 21 59 19 37 30 32 43 23 50 32 37 44 36 30 49 37 23 27 25 35 33 24 35 9 30 38 53 20 21 27 49 41 36 37 20 29 25 21 20 21 23 25 32 30 33 20 26 44 24 28 31 38 43 43 53 43 19 23 37 25 30 30 29 31 36 34 26 33 34 29 31 26 17 31 30 16 20 44 36 29 32 35 20 31 25 43 30 31 40 44 29 23 28 27 41 30 20 23 40 33 13 32 36 21 33 29 24 12 13 19 13 19 23 50 36 37 29 27 51 35 23 47 16 33 37 23 22 30 19 54 33 60 47 15 27 39 26 38 16 30 12 23 37 34 33 41 29 31 52 36 47 37 43 26 47 46 31 23 36 41 20 29 22 16 42 19 30 30 34 24 9 29 41 40 39 54 37 26 19 24 29 31 43 22 39 22 33 24 29 37 37 33 59 17 34 37 23 16 30 24 28 33 29 29 27 26 36 37 26 17 27 40 31 20 34 37 39 30 34 29 39 41 26 25 29 47 23 48 44 20 27 31 27 20 20 29 25 39 36 32 36 33 31 37 21 40 33 22 26 22 30 42 29 23 53 34 23 23 36 25 36 20 18 39 45 40 40 34 30 30 19 30 27 27 45 37 40 40 40 31 43 40 26 34 30 33 41 47 37 15 46 48 26 33 38 43 36 19 30 33 36 30 37 48 33 16 42 41 35 38 43 30</t>
+    <t>JSU(0.4427155570436033, 4.315662779057998, 0.3879331518835217, 48.134494807235754)</t>
+  </si>
+  <si>
+    <t>-6 -11 9 31 6 3 7 -11 -9 10 1 -19 4 -9 -3 -4 -4 -35 -6 4 7 19 -1 -9 5 -23 -17 -14 -8 -20 -10 8 -20 5 -16 -6 5 1 2 4 -1 -14 -10 -4 6 -3 5 3 0 -5 4 7 -5 -16 16 10 -16 -7 24 -11 14 -13 24 -17 -2 -24 7 -13 -13 7 -11 20 -6 17 5 -20 -12 -15 -8 -3 -12 -9 6 -24 -4 3 -14 -8 3 16 24 10 -5 -2 -24 -13 7 -18 1 -25 -3 -7 -4 4 -32 7 -18 -10 3 -9 17 9 -18 -4 -31 -13 -22 -11 6 1 -14 4 -15 4 5 -21 -3 -35 -5 -3 -7 16 -5 6 -17 -6 -13 -8 -6 -7 5 17 -24 -7 -6 -17 -14 13 -19 -22 -7 -3 -10 7 14 4 -13 -31 -14 -24 3 11 -17 17 -6 14 -3 -17 12 -13 -18 5 -8 -6 -7 1 10 -21 -14 -9 5 -3 -3 -3 -7 3 -12 -3 -16 -6 -26 -6 -3 -8 6 18 -14 -14 -6 -38 -8 -11 -2 11 -21 -31 -7 -11 -3 2 10 -7 -18 15 5 -13 13 -24 14 1 -10 -6 -14 -14 20 8 -3 -3 -29 4 -3 -17 2 -7 -17 -4 -10 -7 -17 -23 11 -4 -13 -6 -34 -11 5 -21 -10 3 -27 0 -20 3 19 -6 7 -14 3 -7 10 9 4 -17 2 3 9 7 24 -3 12 3 -11 14 -19 -10 -34 -4 -28 1 -27 17 -15 -7 -10 -8 9 6 3 9 3 -13 -24 7 -17 -5 -20 -14 -9 -24 5 -8 3 1 7 -5 -13 4 -3 -17 -4 -17 8 -8 2 -8 -7 -3 -19 18 2 11 -2 -6 7 -23 6 -10 -14 -18 -3 4 -3 13 -7 7 9 -14 6 7 -5 6 -14 -5 6 5 -14 3 -4 -5 -14 -4 -5 -15 1 -3 3 -13 -5 8 8 1 -8 -17 -18 3 -18 13 -5 -13 -7 -6 11 -4 -16 -15 -5 -27 -7 -19 -14 3 -17 25 -30 -7 17 3 -14 -23 -8 3 3 3 -5 -3 3 -13 -7 2 -6 1 7 2 23 6 -15 5 3 2 3 -14 -16 20 8 -15 -6 -17 6 -4 -4 -3 19 -4 3 -13 8 -3 -7 -9 5 17 3 -9 10 -20 -3 3 -20 28 -7 -4 3 -3 3 -18 -12 -23 19 -7 -6 5 -6 -7 -18 -11 -3 -10 7 5 4 24 -16 9 -21 -3 -16 -11 -5 -5 -17 -21 8 8 -6 -8 -14 -11 6 6 -6 -3 -3 -32 10 -3 6 -16 -5 4 -6 -6 -11 -18 -14 6 -12 3 -11 -3 -17 -6 -23 15 4 -6 1 3 -4 11 -19 -10 -21 -3 6 -34 -6 -24 -20 -9 -4 -6 5 -6 -14 1 -27 -4 -21 3 -4 3 -31 -5 -26 4 -3 -21 4 -8 0 4 -1 -6 10 -10 -14 -17 -19 -8 3 -9 -7 -11 24 -3 17 -6 -25 7 -15 5 7 -8 -10 -14 8 3 12 11 -18 17 17 13 -10 -20 -1 -20 0 -4 -4 -7 -14 16 -14 -3 -21 3 3 1 -13 -3 11 -3 5 1 -7 10 -3 -27 10 3 -11 -17 3 -13 -3 -10 10 -6 -11 -12 -2 3 -13 3 -31 -14 20 9 -3 -4 -9 -20 6 -8 -6 -6 -8 -14 -14 -13 -3 6 -20 18 -1 7 10 16 -7 2 -16 0 12 -6 -19 -30 2 -30 -7 -13 3 -15 1 -12 5 -7 -9 6 -4 -4 -10 6 -3 -18 4 17 3 -5 -10 -7 24 26 -6 -4 -7 -5 7 -7 10 -8 -6 -14 -18 -10 -3 -3 -3 -11 -4 3 -12 14 -3 3 -17 -20 -21 -19 -4 -10 9 3 -4 -13 -14 -14 7 3 6 -5 -3 10 3 -2 -8 -3 1 0 3 -5 -10 -3 -2 10 -7 -14 -16 -9 -14 -17 16 13 -7 7 -24 -25 -8 -20 -5 -3 -10 14 11 -6 -13 -6 -14 2 1 -4 0 -25 5 -3 -15 4 -6 -11 -21 -17 -7 -8 9 -12 -14 -16 7 -17 10 -7 8 3 -17 6 -7 -17 25 -2 -17 -10 -7 3 -6 -4 -6 1 -20 6 -3 14 12 3 -3 -24 -4 12 -6 -10 -13 -11 -6 -4 7 -12 9 -3 4 -9 -10 -2 -4 -33 -11 -1 -3 -4 -1 -7 3 -10 -3 5 -19 -7 -3 8 -8 1 9 -4 -7 -7 -14 16 -8 -18 -6 -3 -11 13 -19 -14 -4 -11 -14 -3 -12 1 -12 2 3 -10 -1 -4 -13 14 -11 2 -1 -3 8 -13 -13 -17 -14 -1 5 -10 -9 -3 -6 -4 -9 14 -15 -7 -9 -15 -4 -8 -3 -16 -21 -11 -7 -14 -5 -16 3 -20 16 -32 14 15 -18 -18 7 3 -7 -13 3 -10 2 3 17 -10 -12 -4 13 3 -1 -11 3 -3 -10 -6 -12 3 -13 -10 -4 -3 -8 -3 -14 -31 1 22 3 3 -34 -16 -14 -3 -8 -7 -4 13 -9 -3 -38 -18 -6 9 -14 -16 -13 -18 -2 -3 -2 2 -11 -17 6 -7 12 7 -3 3 -8 2 20 10 -25 20 -16 -13 -20 -3 -6 -8 -6 -25 -15 5 -3 6 -25 3 -7 -12 -3 3 3 -7 -9 -1 -23 -5 -1 -10 -11 -6 -19 -17 3 -14 0 -6 19 -29 10 3 9 6 -12 12 -5 -4 -10 -3 -3 -6 6 20 -2 4 -3 -8 -17 -12 -8 -11 -10 -21 -10 3 -4 -4 -19 -9 0 -7 -2 1 13 5 15 8 -24 12 4 6 11 5 -18 -1 -21 6 -20 8 3 -10 -9 -6 -4 6 4 -13 -7 -10 -7 2 -11 -7 -4 13 -8 -15 3 -6 -26 -7 -3 13 14 -22 0 -28 -1 -9 14 15 -3 -21 -21 4 15 5 14 -4 3 -6 -4 -2 -11 -14 -1 -9 -10 -11 -3 9 -15 -6 -15 -11 3 -6 -20 -28 11 -2 3 -6 -4 2 -14 -6 -1 -3 5 -14 -2 -3 -42 -10 -20 12 -27 -18 -17 -3 -3 -13 -3 -1 -6 4 4 -4 -4 8 -7 -7 0 -14 -4 15 6 0 3 -13 -8 -7 3 15 -4 7 4 -1 -12 7 -3 -8 7 13 -2 -14 11 -17 -5 -22 2 -3 3 -3 3 -5 3 13 4 -3 -17 -21 -7 -6 7 4 2 -6 -6 -6 6 3 -20 -3 -10 -27 -8 -9 -10 3 -10 -3 -15 4 -7 -14 -16 -11 -8 -3 -6 -11 7 7 12 -7 -11 7 -4 -10 -10 -3 -13 10 3 -8 -6 14 -11 -19 4 -11 22 -8 -18 -17 -17 -19 -19 6 -13 2 -22 -17 -24 3 -8 -6 0 -18 3 -25 -3 7 -5 -3 -3 4 -3 2 -21 -13 -4 5 3 -26 -3 3 -5 -18 -15 7 -6 -10 15 -7 -4 3 -9 -38 7 -7 5 -7 -9 -16 -20 -11 -8 -9 -7 3 -14 -2 -3 3 -4 -11 -10 -27 -4 7 3 -11 -11 14 -13 -7 8 -13 -5 -17 3 -15 3 -21 -13 6 17 17 6 -21 5 -4 -14 -6 14 5 25 -9 13 2 -15 7 6 15 10 -10 -34 1 15 -3 -19 8 9 -6 3 -14 -6 -7 18 -7 -4 3 23 -4 -27 -8 7 -23 -11 -17 -6 -31 -6 -14 -3 -18 -14 -4 -9 -7 -14 -10 8 2 -13 2 -3 17 -30 -3 -3 -18 -6 -1 -3 -10 17 7 -5 -10 5 -18 -8 -11 -5 -13 -15 -19 7 14 -1 -7 -6 -6 11 6 -6 -23 15 -23 -4 18 1 7 3 -3 -6 6 13 -3 -15 -24 -12 4 -10 -3 4 5 -2 -35 -17 3 -2 -3 -2 -1 7 -6 -28 -10 -3 -1 -16 -3 10 4 -6 -4 -6 21 -21 3 -1 3 -2 -7 9 -18 -10 7 -23 -11 12 -35 6 -3 -6 20 -31 6 9 -3 3 16 -30 -19 14 -6 1 -1 -20 -5 4 -14 -3 3 -11 -6 18 -7 -18 6 6 0 7 -3 3 14 -31 -13 -20 -3 -14 21 0 4 -14 -7 -3 20 -3 -10 13 -21 -3 7 2 -7 -9 -3 -6 2 20 13 16 -14 -17 3 -3 7 3 -17 5 -2 -2 -11 -7 -10 4 -11 7 -21 -15 3 -1 17 -45 13 11 17 -7 2 -13 -7 -5 -3 -5 5 -3 -18 6 -17 1 -21 -18 5 10 -15 1 -6 11 -5 9 -7 -3 -3 -3 -8 -8 -18 -28 -6 7 3 -19 3 -7 -4 -7 -13 -7 -12 -13 -20 -18 -3 10 7 -16 7 -3 -3 -8 6 -19 4 -6 18 3 -5 7 -17 -13 -5 14 2 -3 -10 3 -4 -1 -8 -4 -18 -1 -13 6 -3 -6 3 -7 -16 -4 -7 3 -16 2 -6 -6 21 3 -10 -24 17 -5 -5 0 -3 -4 6 -2 -17 -17 -7 -10 -7 -21 -1 -10 -25 -20 5 -14 10 -22 -11 3 4 -10 -3 -20 -14 -4 -6 -19 -14 -11 4 17 24 4 -23 -4 5 -3 -11 6 -3 -32 -1 17 3 2 -7 -10 10 8 8 -17 8 14 -5 -30 -3 5 -1 1 18 -16 -4 -10 -11 3 -1 -14 -25 -18 1 -41 -7 -3 -3 -14 -4 -7 8 -13 6 -11 12 -24 3 3 5 -20 4 2 -3 -3 -1 -2 -3 -3 -8 8 13 5 -7 7 16 6 -12 10 -6 -6 -24 11 -4 15 0 -7 3 3 -39 -7 -9 -14 -12 -6 17 24 -7 -9 6 2 -9 -2 -31 -6 10 -11 14 -3 -19 4 -10 -26 -3 -21 -19 -26 -3 -8 3 9 -3 -3 4 -1 -18 -3 -18 -12 -8 -7 -6 -22 -15 -10 -18 -20 -8 -1 -14 -3 -12 -21 6 -28 11 -3 -6 -2 -18 -6 10 -21 -14 -3 -2 -3 2 -4 -14 -10 4 4 -6 -17 -7 -9 -3 2 -3 6 4 8 19 -12 3 10 -31 11 -11 10 -11 -12 -11 -5 -1 -20 -13 -6 -7 -21 10 -8 -10 -10 10 1 3 -9 -11 2 -5 -16 3 -7 -9 5 6 -18 -6 -3 -11 -13 -24 -6 7 -27 14 2 13 -15 12 4 -5 -10 -4 10 -14 -3 -1 3 -5 -9 -14 -17 18 -21 0 -3 -7 -15 -13 -4 -8 17 -27 -4 -6 -2 -4 -7 -36 3 -7 8 2 -6 6 -27 1 7 -10 -20 11 -18 10 3 0 -22 9 -3 7 7 -14 -27 6 -4 7 -20 12 2 -11 7 -18 7 -7 -9 1 -35 3 -3 -6 -22 -17 -35 -3 -5 -3 9 6 5 -3 5 1 5 -1 -18 -10 22 -10 3 -17 -28 -8 11 -6 20 -16 -7 7 -14 7 -3 -14 -3 -15 -19 -10 -4 -8 16 -4 -3 -7 -10 -3 -7 0 -3 3 -14 -11 -13 -4 -3 -6 13 12 14 -6 27 -21 -29 5 -2 -6 -15 -11 -1 3 -3 -2 -5 8 7 -7 -18 -2 -38 -24 -31 -3 6 26 -10 -3 -10 -25 6 -7 -11 -8 -13 6 25 6 -26 0 15 -23 -16 3 -9 7 -3 6 -8 -10 -4 -3 -3 5 -25 -17 -3 -13 14 10 7 -28 -22 -20 -21 -8 -7 -3 -3 3 3 -7 -7 23 9 3 -6 -15 -10 -7 7 -6 -10 -7 4 -13 14 -3 -3 -16 -17 -4 -9 -4 -13 -3 -5 -24 4 1 -7 6 -8 -19 -6 -6 -38 -6 0 -3 -14 -20 16 -14 -3 11 -3 -7 -17 -9 7 -7 5 -5 -30 -11 -2 6 -15 -14 -32 3 -14 -9 -30 -9 -9 3 -12 -6 3 -7 -17 -15 -7 -4 -7 -17 3 -3 -24 2 -36 -3 -2 -6 15 17 -8 -3 -3 -10 14 -10 10 -1 8 2 -3 -3 -27 -7 14 -9 -26 3 -18 -3 -18 -17 -7 -13 -5 -21 -6 -9 -3 8 10 -7 -11 -19 -2 -6 -6 -22 -12 -8 -4 -11 -3 3 3 -24 -21 -7 -11 -18 -3 -15 -3 5 -6 -14 -21 -15 -25 -3 -3 -14 -9 3 -18 -31 -7 -11 -7 -11 7 -3 -4 -10 -5 3 13 6 -3 5 -6 -3 8 3 20 -10 9 -15 3 -26 -5 3 -2 5 3 -17 7 -1 7 -4 -24 6 -8 -6 -3 21 -11 -10 -14 -3 17 -17 -17 -2 7 -7 -12 -18 3 -20 -17 -27 -17 -21 15 -13 -7 -3 3 24 34 -3 -9 -10 -24 17 -21 -9 -39 14 -9 -8 -6 -6 -18 -10 2 1 24 -3 -7 6 -1 5 -7 -7 -26 -18 3 -2 2 -13 -7 -27 3 -10 1 11 20 -3 -10 7 -3 4 -6 3 -21 4 -1 -6 2 6 0 3 -4 -15 -24 3 6 -15 4 9 3 -7 -11 -6 -7 1 -2 -13 -21 -3 -12 -2 11 4 -7 -9 -12 -20 7 -13 -31 19 -17 4 3 0 3 14 3 -5 6 17 15 -6 3 -27 6 9 -4 14 3 -7 24 -2 16 -6 -10 -6 -27 -7 -4 -1 7 2 -18 -12 -8 -7 -3 -10 -10 10 -6 7 6 -7 -3 -10 -34 -38 -6 -4 -20 -5 -11 -11 -29 3 -30 14 6 3 8 9 -20 -6 -1 -24 7 -20 -21 -7 -3 11 -21 -3 -4 3 -3 6 1 -23 4 -12 -16 0 18 6 -1 0 -2 5 -11 -12 3 9 -21 -20 6 -14 7 -6 -3 10 6 -8 6 -4 13 -3 11 11 -5 -34 -7 -10 10 8 -13 -23 -3 3 -19 3 -1 1 -14 5 -15 -3 16 -8 -10 -6 3 7 -4 15 -14 -6 -12 -4 -23 -4 -7 -12 -6 -11 -20 -14 -3 -9 18 -12 -12 -7 -32 2 0 12 5 -16 -34 3 7 3 -3 2 -3 3 -22 -20 -6 -9 6 -3 7 5 -18 -5 -3 17 -28 -27 25 -6 -1 3 -14 25 -4 5 -7 1 -7 -3 -1 -31 8 -8 -6 -11 -27 -28 -14 4 -24 -8 10 5 -7 -6 -4 6 -13 -14 -3 -5 13 2 7 4 7 13 11 11 3 -2 -1 4 -14 17 -19 -2 -7 -3 27 -12 -10 -17 14 6 11 -15 -8 3 -35 11 -11 -8 -12 -12 -1 2 3 6 -25 -8 -4 -14 3 -10 -24 -10 -15 -3 -3 -5 -21 -18 7 -7 18 -22 4 21 -30 -5 -6 7 -3 4 5 4 -6 0 -17 6 -27 -25 -6 9 -17 -4 -16 -17 5 -7 7 18 -21 -8 -24 11 -20 -13 -21 -6 -13 -7 3 -10 23 9 -3 8 -7 7 -7 -19 -10 -5 3 -2 -1 -4 14 -3 2 -3 -2 -12 -9 6 -3 14 -5 -7 4 -11 -15 -6 -6 4 -6 -3 -20 -6 -11 3 -12 -4 -7 6 -22 -21 -10 -1 -11 -6 -12 16 -11 -13 -6 -7 -4 -7 7 9 -2 3 -6 -3 7 5 -2 11 -8 2 -3 3 -15 -16 -7 6 -3 -11 8 -10 17 -7 -10 -13 -5 -10 7 -18 7 -23 -20 3 -13 -4 3 -4 -21 7 8 -5 17 6 -3 9 -15 8 -3 -3 -14 6 -13 -25 -17 5 -11 10 0 -3 -21 4 -11 -22 12 -19 -17 6 7 5 -17 -4 14 -11 2 -24 -11 -29 -6 2 -21 -7 10 -11 -13 -9 -4 10 -18 -13 -24 -4 -10 -28 -7 -13 5 -11 -25 21 -18 13 -23 -2 -11 -16 -1 3 23 -8 2 -2 -7 14 -16 -7 0 3 -7 3 -15 4 2 8 0 4 -4 -17 -10 5 -17 -7 7 -22 -7 2 -13 -17 3 -5 -29 3 4 -20 -4 -21 -10 -15 5 2 -29 -27 -1 3 -14 -6 -26 -28 -3 -18 -10 -13 -14 -6 8 -15 6 -15 6 -6 8 10 9 -7 6 -15 -14 -4 -17 -3 3 1 0 -6 -13 -14 -3 -13 -6 -7 0 -3 -1 -5 -7 4 4 -7 13 -10 10 -15 -11 2 10 -16 -10 -13 -19 -4 -11 -7 -3 -2 2 -4 -8 -34 -19 -2 -8 -3 -19 10 -10 -2 -20 -3 -17 -10 -8 -8 5 15 -19 1 7 -18 -15 9 -16 3 -13 -8 -10 -5 -6 -3 17 -4 6 13 7 -10 13 27 -24 7 -12 6 -9 7 -11 3 3 0 3 17 -6 -6 3 20 -2 -6 7 4 2 -8 -13 -7 6 -21 -1 -19 -14 14 6 12 10 -6 -23 -15 -3 0 -6 -10 -6 10 -6 -31 -1 -19 -14 -17 13 -13 3 7 -10 -4 14 -29 3 -8 6 -1 0 -18 -7 -7 14 2 7 -3 -34 -17 -4 -16 15 -11 -4 -10 -1 3 -22 17 3 -11 -13 -7 7 -6 -3 7 -10 3 -5 -7 -26 -2 -28 -18 -18 -9 7 7 3 -3 -6 -7 -26 -11 -12 -9 1 -32 -6 5 -11 -6 -3 -3 3 -7 -1 -7 -17 -5 14 12 -30 -11 14 -32 2 -6 -11 -7 3 3 -6 -13 2 4 -4 3 -6 3 3 -6 -10 3 -7 -9 4 -9 -8 -3 -3 7 12 -3 -6 15 -10 -27 -17 -12 4 7 -5 14 -7 2 -4 -13 -6 -3 3 -15 -1 -14 11 1 -6 -1 14 3 -21 -11 2 -3 13 -7 -6 7 -8 -7 -5 -5 -4 -6 -3 -29 -22 -18 -10 2 -8 -7 6 -31 -22 6 -5 -18 -3 -10 6 -19 17 -22 10 -6 -5 -7 -4 -9 25 -12 -4 4 -5 2 -7 -10 -4 -5 19 6 -9 -10 3 4 -9 4 4 14 3 -6 15 -8 -39 -1 -14 6 -28 -30 24 -8 7 -13 -4 -39 6 -28 3 -4 -14 7 -21 -13 -3 -7 -7 8 5 -10 -10 -30 10 3 -26 6 -4 -1 -14 -9 6 -6 -6 -15 -20 16 -18 -9 -17 -1 -12 8 -25 -20 -3 7 -4 -14 3 -6 -3 -7 7 6 -3 6 -1 15 -10 -6 6 -14 3 -23 -9 -11 -5 -3 -17 4 18 -3 -11 -22 15 -6 -11 -19 -16 -11 4 10 -7 -12 -14 -17 -21 -6 -5 -31 6 12 -27 -9 -31 -2 -21 -8 -39 7 -9 4 8 1 -10 7 15 -11 -13 -3 -7 3 10 28 -3 -17 5 0 -27 5 -6 4 -4 -9 -20 1 1 -14 -7 -17 -8 -18 -11 -12 -13 -16 -10 -17 6 -21 -17 3 -16 -27 24 -20 -10 1 -1 -3 -9 6 -17 -10 23 -4 17 -20 17 18 -18 -6 27 -29 7 -3 7 -12 8 -5 14 -3 3 2 8 -18 2 -19 -2 16 -17 3 -26 7 -13 -16 -13 9 3 -1 -2 9 20 6 -10 -11 -17 24 -25 3 4 -11 -7 -18 -3 -7 -3 6 -15 -17 -48 1 6 8 -5 -11 -4 7 11 -1 11 -3 -24 10 -5 -7 -8 -11 1 -4 -18 -7 -10 1 -18 -10 -10 3 -10 3 -14 5 -7 -5 -4 7 5 -18 3 -38 -6 -10 -4 7 -4 -6 -18 -5 -24 -17 -7 -5 17 -12 -3 -7 -14 -21 -5 10 4 -7 -11 2 -5 0 -16 -19 -10 -10 9 -5 -4 25 7 11 -3 6 -5 -17 -9 5 14 -10 6 7 5 -6 3 -25 2 6 -3 -4 2 -39 -7 -9 -24 -1 3 -2 6 -14 -11 10 -16 -19 -12 -31 -6 -3 -4 -12 -14 -25 0 2 -1 3 -4 3 14 0 3 -13 -19 -3 -5 -3 3 -14 -11 -3 8 2 6 -6 9 3 -4 -8 3 -6 -5 -11 -4 9 -10 -6 -6 -10 4 -7 -5 7 5 -3 6 -14 4 -1 -3 22 -21 2 -13 -24 20 27 0 -3 3 -7 -3 -17 -10 7 -6 2 -10 -3 -5 -8 6 -3 -10 -14 -3 -2 19 -3 -5 3 -4 -18 -21 -8 8 -1 -4 -6 3 10 20 -34 3 4 -13 2 -24 -7 -5 0 10 -31 -21 -11 11 -2 -7 3 -2 -5 -32 -3 -25 -21 -22 -7 -15 -7 -3 -12 -3 3 -15 -15 -16 -1 13 7 -17 -11 34 8 1 -3 -8 -10 15 -11 9 -10 -16 -24 -20 -4 6 -13 11 -8 9 -7 -3 -3 4 -7 3 11 19 -17 -14 -8 -24 12 -4 -15 6 -17 -7 -22 13 3 7 -19 -20 10 2 18 3 -14 17 -3 10 -6 10 4 -17 -34 4 -11 -11 14 4 -2 -1 -4 -12 -7 -14 -6 3 -22 -23 4 -3 -1 -14 5 -10 3 -14 -12 -3 -6 16 -6 -16 20 -6 -4 -21 -14 2 -6 -8 10 24 21 3 -14 6 -5 -3 -11 -15 8 -16 -6 -12 -5 2 3 -9 -45 8 7 5 -18 4 -4 -34 -11 13 3 -3 -6 3 -11 3 -18 -5 -11 -3 3 3 -17 -27 -8 -14 -13 -4 -8 -6 3 -5 -24 13 3 -12 -13 7 -11 -7 22 9 5 -20 -14 4 -14 4 -13 7 -28 -23 -6 -9 -18 -21 -1 0 -30 -3 -8 -5 -3 -14 -8 -38 -19 -14 -19 7 -14 -7 23 -3 1 27 6 -6 -9 -8 -28 -20 -34 -7 18 13 -6 -8 17 -6 3 -3 3 -10 -3 -19 23 8 2 4 7 -6 -2 -7 14 2 -15 13 8 5 -20 10 -11 -3 -18 -17 13 -12 7 7 -16 -17 -9 -8 2 -10 6 -21 -8 -28 -6 -18 15 -30 -8 9 -10 -14 -4 -6 -10 -13 3 -23 15 -6 -6 -1 -17 -10 -5 4 -20 -7 -3 7 15 -11 3 6 -6 -17 3 -10 4 -20 3 -3 -13 -6 10 3 11 -12 13 -9 6 9 -21 -7 -8 8 -12 8 4 2 -21 9 -20 -10 -7 -3 -5 -31 -17 14 -4 -5 -3 -1 -5 -5 7 6 -4 -14 3 -11 -14 7 3 -3 -13 -17 -20 -20 -11 18 -2 -7 12 -11 -4 11 -28 -27 10 3 -3 12 -3 6 -20 -6 -28 -9 -32 15 -32 -11 -17 -19 -13 10 2 -3 -6 -3 14 -28 11 -13 -17 -15 3 -3 -14 -13 0 -24 -7 8 -3 -17 -3 -15 -26 -26 2 -6 -27 -7 -14 -21 0 -1 -2 -6 -10 -6 -16 -4 -17 10 -21 -25 2 -12 -31 -13 3 10 -7 -24 -6 7 3 -34 7 -15 -6 -2 -7 9 -3 6 -9 -4 -6 -8 -15 9 3 -13 -17 -3 -8 -21 -9 11 -3 -8 -3 6 -2 16 -4 -10 -4 -3 -6 -7 -3 -3 -16 2 5 6 -7 6 5 -17 7 -13 -5 0 -3 6 -6 -6 -7 -1 -3 5 -12 -3 -3 -22 -7 -8 10 -7 -10 10 -10 -10 -11 -6 6 -6 3 -24 -14 -3 -6 11 -17 -3 19 1 -6 -17 3 -8 -6 -19 5 -29 -6 -15 -7 0 -7 -14 15 -5 14 3 8 -7 5 -13 4 -4 -21 -5 -5 14 10 -1 -6 -23 -17 -3 -4 5 -11 -11 -6 -27 -18 -4 -10 -19 -11 -8 -3 -2 -19 -6 -15 -15 -11 -5 -6 -3 -13 7 -12 -17 -2 -14 19 -9 -2 -10 7 10 -2 -50 1 19 -18 -20 -4 -22 -4 8 -20 7 -21 18 -18 -31 0 -10 -7 -22 10 -3 2 7 2 -14 -8 -10 -11 -7 -6 -6 -12 -6 -17 5 14 -3 10 -20 -14 -6 6 3 6 -13 7 3 -7 5 3 -7 6 3 -11 19 2 -3 11 -20 -3 7 3 -7 1 -3 -17 2 -3 -17 8 -14 -2 -8 -24 -18 0 -3 -6 10 5 6 2 -10 1 -13 -12 -3 10 -1 -7 -1 -12 7 10 -17 14 -1 6 -8 -30 -6 2 3 -1 17 -2 14 11 -11 -8 -5 -11 -4 -19 3 -3 -3 1 -4 -27 10 -6 -4 -4 4 3 -19 -7 -13 -7 -9 -11 -11 12 6 -11 -10 7 -2 -3 -10 -1 -15 -5 -3 -7 -6 -15 -11 -4 -9 -3 -14 -7 -3 -6 3 -4 7 -3 17 3 5 -2 -15 -20 -11 3 -13 -6 23 -21 -1 -6 -3 -4 -4 -7 -13 7 -5 -22 -20 -3 6 -14 21 -16 10 -30 -3 -9 -6 4 -9 14 -4 -8 -24 17 21 -14 -8 -20 -1 4 -12 7 8 -14 -14 4 6 -4 -18 -7 6 -37 -18 -3 20 -22 4 -3 -10 -13 -14 -7 -8 -7 3 -4 2 -18 -11 -10 -6 3 -12 -20 -1 21 1 -6 -22 6 -33 3 -17 -14 -2 -7 -15 3 -7 -32 -3 1 -3 9 -5 -4 3 -9 -6 -14 -12 -5 -5 -18 -10 8 3 -7 -17 3 -14 -9 8 -5 -17 -8 -10 14 -5 -10 20 6 4 -28 -8 -6 -6 -11 -11 3 -19 -13 -6 3 -3 -4 -17 3 16 3 -24 -12 -13 3 -4 -12 9 17 7 10 -18 -22 13 -5 3 1 1 3 -12 17 -3 -3 -17 6 -14 -14 -14 8 3 13 6 10 -16 3 3 -2 9 11 -1 4 -25 -3 21 -14 7 4 2 3 -31 -2 10 15 -5 -4 -1 2 6 6 6 7 -6 -12 -2 -3 -8 20 -34 -1 -3 -18 46 -24 13 4 -4 -4 -34 -15 -10 -22 -3 -11 6 0 -21 -6 3 3 -22 3 -9 -14 -25 9 -4 -14 -17 7 -7 3 -8 -5 7 14 6 3 -1 1 2 -8 -17 3 -2 -2 3 6 -2 13 -19 -15 16 -7 -12 -26 -14 7 3 2 -15 -8 1 -15 15 -31 -2 3 -1 -19 -19 12 4 -10 -11 -23 -10 -6 -6 -6 -10 -14 -4 9 -3 -2 -8 7 -13 7 1 6 -6 -4 14 5 -9 -13 -3 -19 -10 -11 -18 -14 -11 3 3 -16 -15 -28 6 -24 6 -6 -3 -21 3 15 3 3 -11 -30 5 7 -14 -21 6 -38 -31 -17 -7 -7 -14 -14 1 -5 -19 3 -20 -1 -13 -25 -6 -3 16 5 -12 10 -5 -29 -10 -15 0 -3 3 -13 -25 7 -3 -3 -33 -8 -3 13 -32 6 -1 -7 -17 -25 -3 3 -18 -4 -2 17 12 2 -15 -14 -2 -17 -33 -17 3 -5 8 -11 -3 -12 -3 -3 -25 -1 -3 -7 -3 -5 -3 -7 -1 3 6 4 3 4 10 -13 6 14 -15 -26 -12 -5 6 -1 10 -6 -24 -27 6 -8 6 -2 -17 -10 6 7 9 -21 8 2 7 -7 14 4 -1 -10 -17 -11 -13 -3 -2 -15 -8 11 14 -3 -11 -22 -7 -24 -17 -31 -21 0 8 -14 -19 6 -2 -20 -27 17 -19 -10 5 13 0 -18 3 3 17 -11 -14 -4 -4 -7 -1 -18 2 13 3 -23 -32 -17 -3 -22 -7 -26 7 -14 -6 10 -4 -6 -18 1 -17 2 -11 -8 -7 10 0 15 -17 18 13 -7 10 -1 3 3 -5 13 -24 -17 -12 4 -10 -1 10 -27 -4 -17 -13 -10 -2 -5 6 -14 1 -6 3 -12 -5 -15 24 7 -21 7 -1 21 3 5 -25 -14 -8 2 -5 -17 4 -9 -8 -25 -20 1 -13 -5 -15 6 -42 10 0 10 3 -9 -14 -7 -6 -28 7 -17 23 -28 -14 3 -17 13 21 -12 -6 -11 -6 -7 19 -3 -8 -4 4 -3 -16 -28 -3 -3 -3 -4 5 13 4 -8 -21 6 -3 12 -8 -3 -3 -14 3 12 7 -5 -8 -10 -8 -2 -4 -14 17 5 -14 -15 -3 -18 -15 -3 -3 -25 -21 -17 -5 7 3 4 -11 -7 -15 -12 -2 6 23 -10 -4 1 1 -4 13 -4 -7 24 -3 1 -8 -6 -10 17 -3 -3 -3 -1 -21 -20 -3 11 -21 -3 -4 -14 10 -8 2 -11 15 -7 0 -7 -17 7 -13 0 5 -15 -26 -9 -15 -7 3 -28 -25 -18 -1 -1 -7 21 -6 -3 3 10 -4 2 -27 -4 -11 -2 -4 14 7 -6 -8 7 -4 -7 -14 -23 -24 -20 -10 -7 -10 13 -11 -14 3 -7 -14 -3 -15 3 -2 10 -3 6 10 3 14 -6 1 6 4 1 -8 0 6 10 -15 -7 -14 12 -9 -9 10 7 -7 -18 -1 -19 -6 9 16 -4 6 4 -10 6 -6 3 -7 -24 11 0 12 -8 -3 -13 -15 4 -15 -3 -10 -10 7 -4 -21 -19 -4 -8 -27 6 -34 5 3 -24 -8 -14 -3 -20 14 -21 -12 14 8 -3 8 -4 -21 -8 -14 3 -21 6 4 -3 7 3 -7 13 -22 -13 -28 23 3 -3 -2 -16 -3 1 3 -5 8 13 3 -2 -17 -17 14 9 7 -3 -3 1 6 7 -8 -3 13 5 -4 -6 -27 -33 -16 4 -8 -7 6 -8 20 4 9 -9 6 1 -14 -14 -3 -18 6 -32 -2 -3 -7 6 -6 -3 -31 7 -10 12 -17 -3 11 -28 -4 -1 -25 -24 9 7 3 -4 -9 -14 -8 -10 -8 -18 -22 -2 7 -14 -7 -4 -3 3 -7 4 -11 -17 -20 -24 7 12 6 -7 4 -17 10 8 -13 -15 10 -17 8 -10 3 -1 6 -8 31 -3 4 8 -18 -19 3 -15 5 11 4 -22 3 -7 -7 -10 5 14 18 9 -17 -7 -29 -3 -4 -4 -30 -21 -6 9 -4 -10 -11 -11 4 -10 -1 -24 10 7 -3 -3 -17 -2 -3 3 22 6 -4 7 -9 -4 -11 -18 -14 -7 -39 -19 10 18 20 24 -11 -5 3 -8 9 -17 -14 12 -9 -8 -13 3 -10 2 4 3 3 -14 -21 -15 -4 7 -13 -3 -14 -3 3 -28 -8 10 -3 -20 -3 -6 -1 4 -6 -3 -3 3 3 11 4 -6 -22 -14 -6 -9 20 -1 -24 -12 -13 -25 -21 -4 6 -17 -9 -7 -2 -14 -7 -9 14 -10 -3 -20 -11 -4 -18 -5 6 -3 -11 -11 -6 -25 -11 3 0 -3 -8 -19 -25 4 -38 15 -16 -14 -9 5 -6 3 -7 -20 17 14 -9 6 3 -8 3 -6 -3 9 5 3 4 -1 -7 -14 -17 -7 -4 3 -16 -14 -4 3 -9 -23 -6 -6 -7 18 1 -13 10 -18 5 -28 -20 6 -4 -14 -7 -18 -21 1 -21 -11 3 -3 7 11 5 -2 -13 -11 1 -4 -6 5 -24 -8 -7 -5 -18 1 -2 -16 -4 -10 10 -6 -11 -1 -3 14 -16 -6 -12 1 8 28 -19 -7 6 31 18 -13 -6 -3 -3 7 -18 -7 -20 -16 -7 -6 10 1 3 -5 0 4 -25 14 -4 -11 3 -16 -10 2 -18 -23 -24 1 -10 -13 -10 7 -4 -27 -20 10 14 -1 -27 6 -4 -10 -9 -27 3 -8 9 3 -17 -11 -3 15 1 14 -4 -35 10 11 7 16 1 -14 -8 16 3 -33 -3 -3 -14 -14 8 4 3 -4 10 -12 -20 4 4 -27 27 -4 -12 13 3 0 -28 -4 -24 3 -2 -3 -6 21 -4 0 -12 4 -4 -8 -15 -30 3 -6 18 -1 -7 -7 -24 -23 -3 6 -11 -6 -20 -16 -34 -18 -3 3 -14 -4 3 1 -32 -18 -9 -7 -19 -6 -2 -16 1 -20 0 -25 3 -3 3 -9 -28 -33 -4 -10 -6 -4 -1 6 10 8 -7 -17 -16 -3 -17 -10 -3 10 2 -9 3 -15 1 -10 -3 6 -21 3 -5 -2 -3 20 -6 3 -23 -21 -25 -21 6 -24 -9 -3 -7 -31 9 -7 -13 -3 -10 6 -13 -20 -6 10 -3 -4 -7 -14 7 -18 -10 -21 -4 -27 -29 10 11 -20 7 3 -7 7 -14 1 -7 -17 -9 -10 1 -11 1 -30 -14 -11 27 3 -1 -3 -14 -11 3 10 -6 -10 -2 3 14 -11 3 -3 21 -28 1 -14 7 -2 -3 -6 17 5 -10 -6 -1 3 3 9 -11 5 7 -14 -3 -18 -6 3 -5 -8 -26 -17 -13 3 18 8 0 7 -3 -14 6 -7 -4 -4 1 10 5 9 10 5 3 -9 -14 -11 -10 -6 11 -11 14 0 -17 -11 -41 -12 -4 -4 -13 3 -18 17 -7 -3 6 10 -10 -3 9 -20 -8 3 -28 3 2 -9 -23 -11 -20 4 3 -1 -6 -15 3 -13 4 -3 -10 20 -4 1 3 -10 -24 -4 -20 0 9 7 -2 -27 -24 13 3 -16 -17 -12 -14 3 3 -10 -16 -6 -4 -23 -7 -12 -5 -7 -1 -23 -21 -4 8 3 1 -33 -3 14 -5 20 -7 10 -23 -3 -5 -7 -28 14 -1 -24 -22 -29 -14 -17 13 -6 4 6 7 -6 5 -2 25 3 -17 1 -4 -5 -14 -13 -8 -16 11 -16 2 -14 -11 -2 -10 -3 3 10 -4 -13 -3 -1 -10 -20 -3 -11 -18 -14 -5 -4 -7 -17 -8 -6 -14 -3 -7 -7 -11 -7 -24 -3 -11 -6 -17 12 7 -6 -10 15 -27 -3 -3 -11 -10 -21 1 -14 24 -6 -32 -12 -9 -14 13 -8 3 -17 -24 14 -17 -6 -16 -11 5 -5 -16 3 -14 -21 -1 -14 -3 6 2 -14 3 -20 -17 -6 10 -17 3 20 -14 19 -14 -21 1 -18 -8 17 1 5 3 -20 -3 -4 -5 -6 7 6 -3 -13 -3 -11 -14 -5 6 3 -10 1 -14 4 -12 18 -7 -18 -9 6 15 -25 6 4 -19 7 3 -13 -14 -39 -15 -4 -7 -7 -25 -18 -6 -7 18 18 -15 -14 -22 20 -12 3 -17 7 3 -15 11 14 5 -8 -3 20 10 -27 3 6 10 3 6 -7 -14 8 -11 -5 -32 -23 -5 -3 -19 12 -17 -14 14 -5 -17 -3 -13 -7 -10 -10 -21 3 20 -11 -15 -7 -24 -15 -8 -3 -2 -6 21 -28 24 6 13 -7 -21 -3 -4 -3 -10 6 8 13 -7 -2 -34 -13 -10 -3 -13 11 6 -4 14 -7 -16 -4 -7 11 -10 -7 -9 -12 8 -11 -22 7 -14 -1 -6 -7 -9 -3 6 8 -8 -8 -19 -11 -19 -4 7 24 17 -8 -5 3 -8 -6 -12 -37 -11 -9 -1 -14 -21 11 -3 17 -11 4 -4 2 7 7 -20 8 6 -20 -7 -8 -5 -13 0 13 0 -15 -15 3 -4 -6 -31 -7 -20 -18 -7 13 -7 21 -15 -27 -10 18 -4 -28 -14 -3 11 -18 -14 -3 -12 4 1 -28 -15 6 -2 -5 -5 -10 -6 -27 -3 10 3 3 -17 -3 -15 9 -6 -1 -6 -3 -4 -8 -5 -5 -3 -2 -11 -21 9 6 -18 4 -20 4 -14 -13 14 -17 -13 -19 -2 1 3 -14 -17 -20 -6 14 4 -14 -11 6 -8 -10 17 -8 6 15 3 -2 14 13 -8 -5 4 -19 -9 -5 11 -25 -5 -2 -14 -3 -42 1 -3 5 11 3 -10 -14 -13 -3 -23 -12 3 -4 3 -9 -14 9 -11 0 13 -21 6 21 -6 3 -8 7 -31 1 -4 2 2 -20 7 4 3 13 -10 5 14 10 -7 -2 -15 -10 14 12 -14 -6 -1 -28 -6 -16 -11 15 0 -8 10 -17 -10 -3 -9 -15 -2 -13 -6 -26 32 6 7 -4 -4 -6 -10 -20 11 3 16 7 -24 -28 -3 -18 2 -17 6 -10 -3 -3 -9 10 -3 -11 1 -2 -8 -27 -18 9 6 -21 -12 -13 -3 -7 -14 -4 7 11 -19 -14 -3 -13 -7 0 -7 0 -13 10 -1 -4 -8 6 -8 7 -10 -17 13 -1 4 6 -3 -17 -14 3 -24 -4 -27 25 -11 -5 2 -11 -1 6 -7 -7 -10 -22 12 -6 -28 -12 -6 9 8 -7 6 1 -11 -18 -3 -8 -8 -14 -3 -4 4 20 -8 3 -12 -27 21 5 6 -14 -11 14 -7 7 -20 -7 3 5 3 9 11 -17 -11 -1 3 3 12 -8 -6 -4 -8 17 -4 -6 -22 -17 17 6 10 -17 -2 -20 3 15 4 4 9 -13 -13 1 19 0 -15 -20 -6 6 27 -13 7 1 -14 -9 -9 3 -9 -16 -18 10 -23 17 -2 1 -14 -7 -1 -11 -30 12 -11 5 1 17 -18 -1 -10 1 3 -3 -13 27 -5 -31 -14 -24 12 -22 3 -31 -9 -21 3 -8 -14 -1 -16 -3 3 7 -8 -7 -15 10 14 -9 -14 -3 -2 -9 5 -7 3 -11 13 -7 -16 -3 -14 -24 7 20 -13 3 -3 -20 -3 10 -14 3 14 -32 9 10 9 -4 -11 -4 -1 -15 -17 -6 -7 6 3 -6 3 -17 3 7 3 4 -14 1 -7 -3 9 4 -7 6 6 -6 -14 -4 7 4 -13 5 -10 1 0 7 2 2 -7 -13 -2 11 -3 14 13 9 -14 5 -23 -7 -3 3 14 -9 10 14 8 -3 -4 1 -18 4 16 7 4 3 -17 4 -11 8 -16 1 19 -7 -13 -11 -4 -3 -14 10 -3 -17 -6 17 7 -17 -11 9 -18 -25 -3 -14 -6 -9 14 -10 -18 -26 -3 3 8 1 -11 -3 -15 -6 -19 -18 10 -5 -25 1 -10 6 -27 -25 -3 20 -17 8 -29 -1 -13 3 -21 -7 -7 15 -3 -3 -3 -12 -3 -20 -6 -14 -12 11 -11 19 3 -1 -21 -4 12 5 2 -13 -11 10 -7 9 3 -4 -3 10 -13 4 27 -1 -30 3 -7 -3 -6 -15 17 3 -4 -8 1 -9 -17 11 -17 2 -3 -3 -3 -20 -8 -7 -4 -3 -4 12 1 4 6 16 -24 27 9 -17 -3 -8 -6 1 12 12 -7 -10 -21 -5 7 10 -3 -13 -11 -10 -20 -8 2 16 -17 -6 5 -3 -7 -5 -9 0 3 -10 -13 -3 1 2 -14 3 -7 -10 -2 4 10 4 -11 6 -11 -27 -17 6 -4 -6 11 -6 3 -16 -4 -4 -14 -10 3 -3 -15 3 1 -32 3 7 1 25 -11 7 6 -15 -10 30 11 -1 -7 -8 9 2 5 11 2 3 0 3 7 14 -14 3 -10 -15 -21 -9 5 -9 -11 -23 -21 0 -7 -2 -4 3 -2 -6 -3 -11 4 -4 -1 -11 -17 -6 -27 -6 -10 -12 -3 -6 -4 -39 -3 7 3 -6 -14 -11 -6 -18 6 15 0 -8 -9 -16 -6 4 6 -15 -2 -14 -12 -24 -4 -7 -14 -17 -5 -13 -4 -5 -6 -15 -3 5 -31 -13 -14 -22 -3 -7 -4 5 -1 5 4 14 12 -10 -18 -10 11 6 21 -7 -9 12 -24 -3 -11 -5 -47 -14 -6 -14 -6 -12 21 -3 7 15 9 -11 15 4 -8 -1 -24 -31 -18 -6 -21 -7 -20 21 3 -22 3 -18 -21 -1 5 5 -13 -2 -17 -14 -5 -1 -17 27 -2 -13 -25 -8 12 3 -4 -6 -21 -13 -3 -1 17 -14 -6 -14 1 2 10 21 -4 5 -10 8 -28 -5 -19 -3 -4 -3 -6 -10 16 -16 4 -18 -4 -7 3 -13 -9 -14 3 3 -25 -3 -17 6 -3 -6 13 12 -8 -3 0 -3 -3 -10 -18 -7 -3 3 -4 -11 10 -16 -4 -7 -3 -17 -7 12 -16 -3 -4 7 4 3 4 3 -10 22 -35 -3 -20 -35 3 -13 -13 -7 1 -19 -3 8 -6 6 2 -3 -4 8 -3 11 -11 -22 6 3 -10 -28 3 -2 0 -5 10 16 -31 -28 0 -4 -15 -6 3 -1 -1 -6 -18 -5 -20 7 10 -14 -28 -10 -11 -24 -7 -3 4 -8 -6 -17 -26 -20 6 -16 -17 -8 6 -11 -7 33 -8 3 3 -7 3 12 -11 -6 -7 -6 -24 2 -4 -12 -14 -18 -13 8 -3 -5 -17 2 -1 14 17 -4 6 -3 -16 -17 -24 -3 -5 0 3 17 -6 -30 -7 7 -28 -3 -10 -6 10 -36 1 -4 -21 7 7 -11 -2 -4 -6 -29 -22 -9 -14 -17 -3 -2 -3 4 -8 -12 -4 -11 -8 8 -17 -3 4 -20 -7 -16 11 -21 -2 -4 -21 17 -1 -3 -1 3 15 3 -15 5 5 -18 -3 -13 -20 -4 -3 -1 -28 6 -8 -10 12 -10 2 -3 23 -8 6 18 -8 -15 6 -21 -10 7 -10 22 9 -1 3 -29 -15 -1 -10 6 -8 9 7 -7 15 -2 1 -1 -11 10 21 -8 3 -5 -14 -24 3 5 -5 -8 3 28 -20 -6 -10 3 7 10 -1 -11 -9 -17 -3 3 -22 -3 -6 -5 -4 3 3 3 -1 -10 10 -32 24 4 4 -10 -5 -3 -1 -15 4 -1 -21 -13 5 -17 6 -10 -27 -3 10 -10 1 -3 13 3 6 14 -8 4 -3 5 12 1 -10 -3 -28 -10 -2 -24 2 -13 11 3 -26 -10 -7 -16 -6 -14 -3 -15 5 4 -14 -6 3 9 -9 -14 6 -7 -7 5 3 -8 6 12 3 -3 -8 -15 4 -8 -6 6 3 3 14 7 -10 -6 7 -27 -3 13 -10 -3 -2 7 -6 -13 -21 7 -2 -1 -3 -7 36 8 -18 18 -3 7 -21 4 2 -3 -3 -4 3 5 -8 -34 -11 -3 3 -10 -9 -6 21 9 -8 4 2 -3 -14 -7 8 5 -10 -20 -8 -6 5 -6 -21 -3 -10 -7 -20 -6 -7 -18 -4 -6 4 -18 -10 -11 -8 1 3 0 20 3 7 -16 -3 -12 -7 20 -10 4 -13 -26 -20 -7 -10 -6 -11 -8 3 -3 3 -24 -1 -6 -8 -17 7 11 -11 3 10 7 9 -4 -3 -22 -2 -3 -10 -3 5 8 9 4 1 -7 -20 13 -19 -6 -21 3 10 1 11 3 -7 -9 3 -5 3 4 1 3 -7 -7 1 -7 -8 -3 -6 -13 6 1 -7 -9 -17 -14 7 2 -21 -16 -14 -3 4 3 -3 -3 -4 -13 -10 -37 8 -23 -24 17 3 -8 -4 4 -6 -1 10 -6 21 3 -6 -27 -6 -3 7 -7 19 -16 -12 -17 -20 -5 3 -5 10 8 -11 -10 -3 -27 -6 -3 3 3 -10 3 -4 -7 -19 -3 -8 3 3 -28 -21 -9 -7 -6 -20 4 9 6 7 -13 -11 -13 -13 3 -11 -24 3 -30 3 -14 16 -2 -5 -13 -11 -1 -17 -7 -9 -18 -2 8 -9 -3 4 -11 -17 -25 8 6 -17 -11 -12 -3 12 -6 -7 -3 -21 -10 -6 4 -17 6 -19 -17 -3 -6 6 -11 13 -24 -4 -30 -2 -13 -14 -9 -3 3 -16 -10 18 -6 -14 -5 -10 7 18 3 -16 -17 -14 -2 -2 -4 3 -15 -17 -3 -9 -2 -6 -13 -15 -3 1 -8 19 -5 -7 -14 -6 -34 14 7 -2 4 10 -12 13 -5 7 -28 -5 -3 -13 6 29 -24 3 -23 31 -11 -14 -2 -19 -3 -3 18 -23 -16 3 -24 -7 -39 -18 -10 11 -6 20 -31 -20 7 -3 -3 -13 3 -13 -8 -9 -11 -8 -11 -7 -18 7 -4 -7 -24 -23 -17 4 -22 -6 0 3 -4 -4 -21 18 17 -4 -10 -3 27 -9 -23 3 11 -3 14 -6 -3 -6 9 -3 -3 3 13 -1 3 10 -1 -3 -10 2 -19 5 11 5 -3 -9 13 -3 -1 10 -4 -10 -3 -4 -3 -6 -6 3 2 -4 -7 10 -19 -3 10 -32 7 -22 -10 20 6 -3 -6 -3 3 -20 -4 -14 -10 13 -11 -14 -10 -3 -2 12 -4 -17 -23 -2 6 -14 -2 10 3 -7 7 22 -14 -10 -3 3 10 1 -15 -7 -8 3 -5 -10 -14 -23 -20 10 -30 -4 -7 12 3 9 0 -7 -17 -7 -26 -4 -20 -11 -27 -5 -8 -3 9 13 34 -4 0 -11 -31 -3 -6 -11 -7 28 -3 14 -6 7 6 -14 17 -33 6 -13 -11 9 -19 -14 -25 6 -3 -17 -31 -10 -6 -9 16 19 -1 3 -4 6 -17 16 -14 -11 -7 14 -2 8 4 10 16 -10 -28 7 -21 -13 -3 -12 -2 -21 11 2 12 0 -41 -8 4 -28 -31 -1 -32 -17 -3 12 -6 3 9 6 -18 -13 -15 -10 6 -7 -3 -6 -6 -7 -10 -4 -6 -18 -6 4 -18 8 -5 -3 -6 -3 -13 -3 -28 -17 -1 -1 -6 8 4 3 -33 -7 10 10 -6 -15 -17 -3 3 2 -11 -17 -12 4 6 -14 3 -18 -15 -15 -7 -6 7 -11 -3 4 -6 -8 3 -4 -10 -12 -13 12 -7 -5 -7 -23 -21 -8 -13 -21 -7 -21 -3 3 -13 6 -9 6 -17 -24 10 -3 -3 23 -15 -7 -1 10 -1 -10 -14 -9 -3 7 -14 3 -3 3 -22 1 -13 -27 -8 -3 -14 -3 -19 9 7 4 0 -14 -3 -15 3 -3 -6 10 -27 -1 -14 -3 4 -38 4 -18 -2 -7 7 -1 7 -9 1 11 -1 -22 -7 -8 17 -3 6 -36 -11 -1 -16 -2 -11 10 -6 -5 -10 -6 -15 -10 -3 -20 -3 -8 -9 -4 -4 3 -10 -10 -27 3 0 3 -17 -13 -13 -10 -6 -16 -7 1 1 -8 -3 24 -1 -10 11 -13 -3 6 -22 -3 -5 11 -7 2 -15 -4 -1 -27 -9 -14 4 10 -10 13 -1 -13 -14 3 6 10 -21 -16 8 -14 11 -10 -10 6 6 -3 -28 -11 -7 10 -3 -14 5 -14 -23 -12 -17 -6 6 -28 -15 6 -4 -6 14 -26 2 -8 3 -1 -3 -18 -12 -12 6 7 -7 -10 -26 -13 -3 -13 -9 -10 -23 -3 8 -9 -24 -27 3 -3 -8 -11 -17 -2 -7 -14 3 1 8 -3 20 14 3 -31 -3 -10 -20 -10 4 -3 2 -11 -8 -5 3 -12 -4 -17 -14 -14 -10 8 4 -21 -6 -1 -16 2 -3 17 -10 -4 -6 -11 -1 2 -8 -3 -6 -6 -30 -18 -4 2 -21 21 -8 11 -7 -1 -7 -14 7 0 13 3 -27 6 -31 -11 3 -21 2 -3 -4 -3 -11 -11 -11 -17 -13 31 3 5 -3 4 -14 -3 -7 -11 -16 6 -19 -3 -4 -7 -13 -12 -3 -10 10 -7 3 3 -20 10 -4 -3 14 -22 -15 -22 -15 4 -6 12 -29 -7 -10 -14 -4 -3 -18 -8 -20 -24 -25 -3 -5 -3 -3 -9 -4 4 -16 7 -17 7 2 25 13 -14 -30 -43 14 -6 7 -14 3 6 -11 16 12 -10 -4 -18 0 -28 2 0 -20 2 21 -4 -8 -11 -22 -18 -13 0 -11 -11 6 20 -17 -2 22 9 -14 14 -7 -20 2 -14 -5 -10 3 8 -1 10 -1 -8 6 -18 11 -6 2 -1 3 30 -5 6 -27 -3 -19 -5 -12 -7 23 -13 14 -14 -18 1 -9 7 -15 -7 -24 -14 -14 4 12 14 -5 -2 -27 -5 -6 -8 17 11 -6 -7 7 -3 7 4 14 24 -7 -13 -19 -7 -25 -35 -3 -10 6 -18 -15 -12 -9 -11 -7 -13 -29 -20 -6 -14 6 14 -3 -5 3 -18 2 -24 0 2 -13 -5 10 -6 -3 -6 0 -1 -7 -2 -10 -17 -3 6 -18 -19 -16 -8 19 7 -16 4 -1 1 -4 -8 -8 7 -15 -26 -10 -15 -6 20 -9 -7 12 -11 7 4 3 -16 -4 11 -1 -3 -13 3 -8 -21 -3 -6 -5 -3 -10 6 7 -13 -25 -12 0 -6 -23 -3 3 -7 -18 -11 9 -6 12 17 -15 9 30 -13 -11 3 -17 7 6 -4 3 -22 -8 -10 3 -24 -8 4 -7 -15 8 -6 -8 -12 1 -2 -6 20 -4 3 -6 -13 3 -11 -3 -11 3 1 6 -9 2 -3 -3 14 -6 -20 -19 -6 10 19 -3 -6 -3 -16 -49 -10 -14 3 -6 -3 -6 10 -20 -3 3 -3 -31 -15 17 -7 -7 4 7 -5 5 -13 -6 -18 14 2 -14 -3 -17 -3 4 -3 2 -22 8 -5 7 -1 -1 -6 -3 8 10 -9 -6 3 -3 5 6 5 -33 -7 -5 -14 -6 10 -6 -4 14 -10 -3 -22 -23 4 -10 -6 6 -10 -10 -10 -11 -7 -13 -7 3 -7 14 -16 -20 -3 11 -7 6 -6 7 -8 17 -9 -24 -10 -4 -14 -3 -17 5 12 -21 14 -34 -12 13 -29 -3 -6 11 2 -5 9 7 7 -15 -10 -19 4 -10 14 -6 10 -4 6 1 -34 -1 27 -10 -3 -17 14 -27 -10 -20 -1 -6 -14 -11 4 10 9 10 2 -7 -17 -23 -14 8 14 -1 -20 -3 -6 -10 6 -20 -6 0 2 -17 11 -14 -3 -9 -3 10 -6 -8 7 -3 -3 10 1 -7 -4 -15 -6 27 -9 -11 -6 -9 -3 3 -18 1 1 -3 -4 -4 5 3 -1 -6 14 -15 -10 -9 9 -6 3 4 -14 -8 -3 12 -3 3 9 1 -8 -21 11 -3 -15 -10 -3 5 -6 -11 -30 -22 -5 -20 -3 27 14 -13 6 -3 10 -3 -3 -14 -32 -6 -3 11 0 -7 -3 -18 -17 -1 -27 16 -3 6 -27 -3 6 -6 -7 4 -7 -9 -8 -13 3 3 -3 10 10 -7 -16 -17 -15 -3 -11 -7 18 -3 -10 -7 1 7 -14 -1 -17 -32 7 -17 -9 -6 5 -3 -17 3 24 -10 6 11 -3 -19 -3 -17 -15 -15 6 -14 -15 10 -24 1 -13 10 -22 -1 -20 3 -15 -3 5 8 0 17 -7 3 -11 -5 -28 21 4 -3 -21 -9 7 -9 -4 -10 -3 -10 6 3 -14 12 -14 3 -3 -14 7 -3 6 -3 -4 2 4 1 -20 -3 -14 -17 -3 -19 -20 -16 -3 -6 -1 18 -14 -6 27 6 11 -4 18 -14 -8 -14 -9 -22 -10 -10 14 25 -27 8 -6 -36 -14 -20 -18 2 -6 6 3 -2 -21 10 -5 15 4 -22 -13 2 4 -21 -17 11 -2 -3 10 -3 3 -9 18 3 -3 -17 2 -28 -3 -4 1 3 -7 4 0 -6 -10 -24 -15 -11 -6 -8 -6 -7 0 2 -23 -7 -14 7 13 1 -3 -29 -18 -4 -8 -7 -10 -10 20 -6 -6 -6 -11 -6 1 -1 7 -14 3 3 -22 -1 -11 8 -14 -4 -6 3 -3 -3 6 -11 -14 9 27 2 -7 -1 -6 -1 -16 -11 -7 -5 7 -17 -4 -7 7 -3 -4 -6 -3 -20 -24 -14 3 -10 5 5 -24 -7 -2 9 6 -10 2 -10 -20 -7 13 7 -7 -28 13 -20 7 -3 -10 -10 14 6 -11 3 -3 -21 -5 -8 -7 -7 21 -3 -3 -1 5 -5 -17 -5 -3 -8 -21 6 -14 -3 -22 -19 3 4 -8 -12 -6 -18 -3 -14 1 -7 -12 9 -7 6 -17 -8 -24 -7 -12 -7 -27 1 -17 -31 -4 14 -13 -13 6 14 -7 10 -8 0 -13 7 0 10 -9 -3 18 -21 3 5 -24 7 3 -2 -3 -3 -17 -13 -7 3 -11 -7 -15 -9 1 -10 2 21 7 -26 17 3 -2 -8 1 10 -14 31 -1 5 -26 7 17 -21 16 3 -9 -4 -8 3 -11 -4 -7 3 -2 6 -3 -25 -11 1 -3 -3 -1 -12 -14 4 -3 -18 -28 -10 9 -1 -10 -7 8 -2 -14 10 4 -30 -13 -13 2 -4 -32 14 -14 1 -20 -16 -9 -17 -18 -3 10 -23 -11 -14 -17 -6 -13 -5 -14 -5 -6 -9 -17 -13 11 -1 -11 14 -10 -4 -7 10 -14 -10 -11 -6 0 16 -7 -1 3 -12 -9 8 -20 5 7 -18 -1 -5 3 7 -7 6 -3 3 4 -3 -58 -3 25 -14 -20 -5 -6 -18 -1 3 -8 -32 -17 -3 -16 -11 3 -3 -6 7 -23 3 -11 6 6 23 -18 -1 -7 -25 -6 5 -6 -10 -3 3 -10 6 -9 -17 -5 14 3 10 -1 -33 3 7 -18 -13 -13 3 15 -12 -14 -10 -3 -3 -6 -7 -9 -11 -8 21 10 18 -11 4 -24 -19 -7 -14 19 -6 -13 4 -13 -8 3 -3 -5 -9 -14 -31 11 3 7 3 -5 -7 -5 12 -7 21 -3 -4 -1 3 7 3 -18 -3 -7 4 3 7 -7 -7 -24 -23 -9 -5 -17 -4 -5 4 14 7 -3 10 -18 -4 -8 -4 -9 -6 13 -3 8 4 0 -7 -18 17 -3 -8 2 -15 2 -13 22 7 -7 1 -29 -3 -23 10 3 2 7 17 7 -21 -10 -19 1 -10 -10 5 -3 24 4 -1 6 0 -6 3 -13 -22 3 -23 -8 -16 -5 -2 6 3 -7 18 6 -3 -26 10 15 14 -19 -13 -14 -11 -27 6 -3 -16 -3 -25 -11 -7 -21 -20 -24 -6 -3 -17 3 18 -24 -9 -12 3 -2 1 -13 -12 -3 -23 5 -6 -2 3 6 9 -4 9 -5 -12 -19 5 -9 24 3 -6 -10 -8 3 14 1 -10 -10 -9 -25 -11 -16 9 2 -21 -7 12 -6 21 -10 4 -14 -14 -6 -28 -10 -15 2 -3 -14 4 -13 -6 -13 -10 -20 1 -15 -14 -16 -17 -14 3 -8 -31 -24 -25 -15 -13 -7 -3 -3 -8 -31 -17 -12 -19 -18 -7 -6 2 -15 -24 6 7 -4 3 -28 -10 -5 6 -9 8 -15 -22 -24 11 -14 -6 6 -3 -15 -8 -35 -28 18 5 8 -16 -14 -2 -28 -11 -12 -17 -3 6 7 -32 -16 -25 -3 -31 -25 3 -7 -3 -20 4 -7 -5 -14 -18 -26 -7 -14 -3 -3 -9 -10 -3 -19 -3 -7 -11 -3 6 -28 -5 6 -3 2 -7 -20 -18 -7 -21 19 6 8 -30 -31 -2 4 -16 -24 24 -29 -10 -14 7 -20 3 3 -23 7 3 -3 -7 -8 8 -11 8 1 1 3 -5 4 -7 2 1 -4 -4 -14 -17 -10 1 -6 -24 -3 -13 -3 -3 3 -5 -7 -4 17 -8 6 -31 20 14 -3 -9 -9 7 -14 -7 -14 -3 -7 7 18 -5 -21 -11 -21 -10 -14 -2 -12 13 -6 -14 -4 7 -10 -4 -19 3 -8 -5 -3 -3 -17 15 7 -3 -30 -21 -27 -17 -8 6 3 1 6 -10 7 -3 -13 7 -22 -6 20 -15</t>
+  </si>
+  <si>
+    <t>JSB(1.2529133498350749, 3.2204122986630974, -20.691654905254776, 131.03566219175326)</t>
+  </si>
+  <si>
+    <t>38 37 23 31 28 15 39 37 23 36 33 19 16 9 29 24 22 39 34 50 19 19 13 45 33 43 17 42 32 60 44 44 46 39 36 18 33 33 22 36 43 40 52 22 34 37 19 45 34 23 22 41 39 36 30 36 32 27 36 37 32 53 52 29 30 24 33 33 33 27 37 20 48 29 33 20 18 41 34 37 26 31 40 38 24 43 42 28 31 36 58 22 43 28 24 55 41 24 25 39 45 35 30 30 44 19 30 30 23 45 23 25 36 28 37 27 34 45 34 33 46 30 33 38 29 27 29 47 23 45 31 30 49 46 41 34 19 36 28 33 33 45 38 27 42 29 34 25 33 34 13 43 44 27 34 44 25 37 48 24 31 37 29 31 18 40 29 43 36 33 38 25 26 28 25 47 36 41 48 39 39 37 45 51 33 29 12 23 16 18 42 20 37 48 32 42 20 32 26 44 34 23 32 23 27 37 53 23 45 38 10 19 42 29 19 19 31 38 28 39 30 26 34 42 60 40 29 53 29 22 45 37 30 27 49 28 36 55 37 37 43 24 33 40 40 29 19 39 28 29 39 34 48 31 25 34 19 48 31 27 38 23 36 45 36 35 23 33 24 37 26 23 17 40 51 44 48 28 34 19 47 29 41 33 22 32 41 38 25 29 35 25 50 33 45 29 34 40 35 52 47 26 31 27 49 39 41 30 29 37 44 23 24 26 48 54 13 17 35 42 28 37 30 34 39 35 34 16 32 50 51 30 17 27 21 41 29 40 26 33 35 24 34 35 26 47 26 29 22 33 46 38 29 29 27 35 23 41 43 26 46 19 34 45 30 23 30 19 43 33 47 34 23 28 50 47 29 45 37 29 20 23 39 29 30 27 53 31 46 23 40 23 29 17 19 37 37 31 27 36 40 33 13 22 29 48 27 37 23 26 31 34 16 34 26 33 26 43 32 36 10 23 33 30 23 27 20 37 37 49 35 37 23 53 30 50 37 29 26 34 39 30 43 17 37 44 36 29 39 33 34 25 48 27 24 31 37 16 27 17 16 58 36 33 27 37 22 31 43 31 29 27 26 36 48 34 34 17 26 20 34 37 25 48 24 49 50 16 45 28 12 50 43 36 20 32 40 25 23 43 37 20 35 33 36 26 19 29 36 23 43 16 53 29 26 34 44 36 26 27 38 34 31 12 26 13 27 44 21 49 30 15 37 51 44 36 29 49 34 30 20 38 13 40 28 30 26 31 25 36 43 45 41 37 36 15 43 20 45 33 33 41 27 40 28 26 32 31 30 51 32 29 31 27 38 34 39 40 34 36 30 41 42 30 28 43 55 23 15 39 13 15 37 29 39 27 49 24 37 27 16 17 29 23 29 13 31 10 36 30 31 36 44 23 39 37 37 42 40 29 23 30 35 20 36 26 28 36 36 32 46 27 29 26 34 30 41 33 30 30 27 22 28 24 26 26 35 30 28 44 21 33 23 49 41 34 33 35 27 26 30 36 42 30 23 50 36 37 37 33 16 33 30 26 20 28 39 39 27 41 22 40 40 34 38 24 33 29 17 23 30 23 50 34 29 43 37 40 39 33 24 38 23 31 52 27 40 20 27 31 38 29 37 36 43 30 26 29 35 26 17 29 30 37 30 22 27 40 36 47 26 37 44 41 27 33 24 45 40 50 49 9 36 34 23 26 25 40 26 36 47 44 46 39 39 45 47 38 6 29 33 39 49 32 29 30 34 42 13 43 22 25 26 37 17 28 33 37 37 16 51 30 19 23 40 42 24 27 34 32 31 40 26 37 9 42 30 44 42 30 19 29 34 30 27 36 27 43 36 31 22 22 22 57 23 27 43 24 13 19 37 36 23 33 57 33 31 26 20 33 29 16 33 33 62 38 34 36 34 31 31 27 35 34 36 29 40 17 44 27 36 30 23 16 33 28 27 28 17 52 19 41 24 39 27 37 26 55 29 30 9 23 12 44 51 14 27 41 31 27 30 28 31 30 33 25 41 40 33 30 21 42 22 44 26 27 24 38 21 29 27 33 17 30 30 23 23 44 44 24 19 43 33 35 29 23 22 20 30 51 41 36 24 29 18 17 40 37 39 40 43 43 34 44 38 31 26 27 30 39 29 23 50 40 26 23 34 42 41 30 30 37 40 22 31 29 48 47 12 47 15 35 26 22 32 22 51 34 36 27 26 23 40 32 26 43 33 35 45 12 37 23 19 30 31 23 37 13 37 41 45 53 19 30 37 32 43 31 37 20 40 34 37 47 36 35 47 34 48 26 19 30 30 23 35 40 34 20 52 44 45 26 35 32 46 29 16 27 22 35 36 44 39 23 40 35 44 27 33 35 33 32 38 42 30 26 43 39 36 19 47 34 26 46 29 24 33 34 22 44 10 33 35 44 41 18 17 55 24 39 26 51 31 48 38 41 43 39 26 34 40 48 33 31 20 49 51 33 27 30 29 29 32 36 29 32 38 30 23 46 27 37 22 23 37 37 41 42 39 43 35 20 46 54 23 28 31 40 24 32 40 42 27 17 33 54 22 23 42 36 40 26 47 50 43 29 23 41 37 33 30 22 30 10 30 38 33 25 34 40 38 41 26 20 45 53 32 25 31 35 36 21 24 27 36 25 37 26 33 27 52 48 17 31 37 40 22 51 37 51 37 33 43 19 22 29 31 27 27 26 25 30 26 20 28 28 40 23 26 39 44 41 32 31 16 31 22 35 41 32 33 54 44 37 34 29 20 29 41 25 38 33 23 27 44 34 22 31 47 30 37 20 56 26 37 41 30 45 38 32 50 51 37 33 37 40 13 30 40 23 30 43 36 32 26 38 37 31 37 13 49 17 43 24 37 36 33 55 30 37 29 42 51 37 17 30 35 13 20 36 33 39 52 37 15 44 39 25 21 19 29 22 34 23 36 39 33 29 34 26 37 15 22 37 50 39 22 27 17 23 23 20 25 27 46 27 29 29 37 31 23 47 13 26 37 31 38 33 33 30 42 26 32 11 43 39 25 34 41 33 26 41 30 22 34 27 29 23 45 54 29 42 39 50 34 35 24 41 30 45 35 16 43 40 41 35 41 31 26 31 26 34 31 34 34 24 29 19 34 16 30 32 49 54 43 23 36 31 29 30 20 25 51 30 43 27 43 46 33 44 34 23 19 19 43 45 13 32 41 41 40 20 17 26 46 29 33 43 16 24 47 41 29 37 22 6 27 43 41 30 40 22 50 23 38 37 36 45 23 35 38 23 26 27 25 20 34 16 37 13 30 31 30 28 34 28 28 27 21 23 35 29 52 27 37 30 10 33 35 35 24 41 20 35 30 20 51 34 37 23 29 28 30 31 26 26 33 19 20 35 30 28 29 23 17 34 36 41 48 12 40 34 27 23 37 40 31 33 38 41 34 37 26 22 26 27 29 34 29 24 33 47 23 27 36 27 45 31 24 28 26 25 36 48 29 17 45 41 37 29 25 36 44 23 19 38 30 31 47 27 33 37 19 37 45 47 23 37 19 30 33 27 49 37 33 37 37 38 32 37 39 41 54 37 16 41 13 40 43 23 51 33 57 9 29 20 26 30 34 40 33 43 41 23 27 24 27 33 55 36 41 32 36 15 30 19 16 27 37 31 26 26 39 22 26 44 23 23 27 37 19 23 40 22 29 30 29 16 33 26 30 36 27 41 26 43 20 29 41 30 16 19 43 46 30 34 18 37 21 30 36 21 39 23 40 15 22 20 36 41 43 21 52 27 35 19 30 31 34 33 42 38 48 31 31 24 16 39 34 48 30 26 41 26 23 36 23 24 16 39 16 19 45 35 26 29 38 33 37 43 22 33 36 24 32 26 31 34 20 23 36 29 39 39 27 30 16 30 30 23 43 39 40 37 30 33 53 41 23 23 26 56 41 30 19 20 23 32 36 35 29 19 40 42 44 37 47 19 26 31 9 38 32 47 35 41 27 42 40 32 30 24 26 38 23 36 35 26 33 37 29 45 33 15 26 42 34 43 44 39 45 26 22 15 48 31 26 24 51 20 55 25 30 30 26 43 41 19 44 45 40 31 61 31 35 38 25 36 37 38 40 28 27 34 60 15 22 30 34 32 27 20 23 26 33 26 34 23 23 40 32 50 36 30 41 26 37 18 29 28 44 28 30 30 24 40 45 33 25 29 30 21 26 34 34 41 40 37 30 51 31 31 16 23 42 29 29 33 34 41 26 27 27 22 40 16 30 30 19 37 39 23 22 47 32 23 27 47 39 26 38 34 29 29 41 44 20 21 39 48 30 33 33 38 24 35 36 30 36 20 31 33 23 29 25 26 23 30 47 20 23 33 27 27 36 40 17 47 36 32 16 44 41 48 23 33 34 42 54 20 33 27 33 22 32 17 30 22 23 34 60 27 31 33 47 20 39 32 36 33 26 32 22 37 19 36 27 27 39 33 35 23 43 34 40 41 35 29 35 23 31 42 39 23 39 19 31 27 30 30 28 16 31 29 40 34 29 40 32 46 13 27 34 13 37 20 35 27 43 30 38 26 44 44 37 33 30 31 41 42 23 23 20 37 33 44 29 20 25 40 38 34 41 27 53 43 28 26 51 23 31 37 23 28 35 40 33 19 36 32 44 46 37 43 32 32 44 23 44 37 26 27 23 36 33 18 31 40 26 32 41 49 30 39 27 41 29 20 26 30 40 31 37 37 43 31 35 41 26 10 41 34 48 32 33 48 21 23 23 31 21 47 47 29 29 51 6 33 16 13 13 40 22 33 30 33 26 37 31 38 35 34 23 44 13 43 19 36 30 27 13 26 38 31 40 26 44 48 40 51 40 34 32 48 37 37 29 27 29 43 27 27 25 37 48 43 32 40 55 20 44 23 34 33 52 35 45 25 18 34 43 47 17 33 27 22 33 37 51 39 24 30 60 37 22 48 41 37 48 31 37 30 34 16 24 33 32 44 37 21 39 19 34 31 38 29 30 29 30 41 21 41 37 27 26 33 29 42 36 47 37 37 22 40 54 42 40 34 42 31 23 23 29 44 47 13 37 30 37 27 29 25 26 20 49 29 47 23 43 34 39 23 44 45 25 37 41 45 25 23 24 44 37 37 27 26 29 29 36 51 26 45 26 30 39 21 29 54 19 31 50 37 43 23 25 21 19 22 30 26 20 40 37 53 27 30 34 23 23 23 37 16 33 41 32 36 31 20 23 41 29 41 33 33 19 37 29 24 34 35 51 36 30 31 35 39 51 48 33 40 26 42 36 22 52 25 24 31 35 26 33 39 31 27 26 44 37 30 22 33 27 33 23 10 13 25 20 29 22 35 23 44 28 23 41 46 47 26 22 30 32 23 16 41 50 29 26 27 30 35 45 25 29 20 13 19 26 25 41 23 56 42 49 16 33 29 36 26 41 19 31 33 31 36 45 56 23 40 29 19 18 31 27 54 23 41 24 45 38 32 29 33 42 22 36 24 30 20 27 27 38 31 19 36 36 44 40 27 51 30 24 28 40 27 26 33 35 30 56 44 26 36 38 47 29 37 41 31 36 40 34 23 30 23 20 34 19 30 53 50 33 33 43 23 27 21 38 15 51 28 47 23 16 24 42 32 50 40 27 40 32 33 37 36 23 31 47 20 42 20 39 26 43 16 20 46 20 30 55 23 29 57 37 40 27 24 30 36 47 47 37 23 49 41 25 19 40 49 39 31 16 40 30 46 29 27 36 33 48 32 50 36 53 24 35 36 40 23 34 20 37 37 32 44 30 33 44 30 34 34 19 38 34 37 25 23 37 22 37 29 40 34 42 35 26 35 19 19 42 33 29 37 28 49 37 34 31 43 54 37 22 23 41 19 33 23 43 37 34 20 52 17 33 64 32 44 38 26 38 49 27 28 36 20 33 20 35 43 33 38 27 24 41 39 17 17 31 36 33 22 40 29 25 44 27 17 33 36 58 23 20 28 23 27 20 31 55 59 37 34 32 44 33 22 23 26 37 26 38 20 51 28 24 22 31 43 37 35 33 44 19 35 38 52 30 27 36 33 42 27 23 16 19 38 28 32 37 26 33 57 32 29 37 28 30 45 37 33 33 48 35 26 30 37 32 25 41 30 19 55 37 36 23 15 29 20 27 25 21 49 38 37 17 22 25 30 40 23 22 37 22 44 35 50 31 34 37 19 10 31 33 20 34 38 26 43 26 26 31 37 30 16 41 20 48 55 30 25 37 34 36 44 21 37 32 27 30 39 13 15 32 35 30 17 47 47 22 11 36 44 29 23 39 52 27 34 37 37 28 38 37 41 16 33 33 24 35 36 49 29 50 37 27 16 9 16 45 33 26 39 37 34 23 37 37 20 31 17 34 26 55 45 37 19 31 30 34 29 39 30 37 40 42 41 29 54 25 33 37 16 48 31 28 46 29 57 34 34 33 33 10 31 27 39 36 44 36 25 30 24 30 34 35 47 33 51 45 21 44 41 51 26 27 38 27 23 51 40 30 40 49 32 30 47 42 29 25 23 41 42 36 36 34 44 10 29 30 33 43 31 27 48 7 16 41 23 43 37 61 31 48 26 24 33 30 31 25 16 41 33 41 43 34 40 44 48 23 38 30 47 54 26 36 27 32 41 26 26 26 22 41 35 32 41 34 36 23 37 23 33 26 18 41 48 17 33 34 47 12 43 33 31 13 30 22 41 19 44 30 27 31 22 24 44 16 33 39 36 23 35 29 32 36 30 28 40 43 42 36 15 25 50 22 18 40 45 37 30 26 26 35 31 43 33 33 44 27 37 36 29 27 38 30 43 26 23 29 24 32 27 33 38 25 39 36 27 26 20 43 31 35 31 37 26 37 31 26 32 31 40 30 42 19 22 38 40 19 19 40 41 19 39 48 34 34 58 44 40 29 33 35 34 54 40 40 52 20 43 33 39 46 37 33 39 29 27 16 30 32 47 37 48 12 27 32 36 39 33 18 44 27 31 40 43 22 36 15 59 44 22 27 23 34 31 37 29 27 19 41 26 37 35 38 17 29 13 40 42 28 36 38 29 47 27 31 51 46 41 50 45 26 23 19 38 26 19 37 26 29 29 43 33 33 55 23 31 48 54 30 23 34 44 22 40 31 19 29 31 34 31 30 46 36 43 12 29 23 40 16 23 19 29 44 39 48 51 37 33 26 35 34 27 28 41 37 30 24 27 33 28 19 42 30 47 38 37 15 29 41 34 35 33 26 13 34 15 47 31 38 45 27 33 48 41 22 41 45 29 30 52 17 41 54 24 36 26 38 33 20 37 40 40 25 34 29 44 40 49 31 48 22 46 25 33 16 33 37 36 36 16 33 32 33 24 22 23 25 34 39 30 29 22 29 30 16 26 23 48 15 34 51 27 34 12 34 52 36 38 19 19 30 45 38 34 37 30 48 27 47 39 21 35 27 26 31 16 36 42 30 37 44 26 42 19 42 51 34 20 44 39 40 44 48 29 17 25 26 32 43 46 31 41 28 54 17 26 31 27 19 34 35 26 19 41 44 26 20 26 37 29 45 37 39 29 45 16 50 43 37 40 41 40 37 37 30 37 44 22 27 12 40 37 41 40 37 45 28 32 27 31 37 44 35 46 45 27 23 16 24 19 30 31 27 23 27 37 27 37 36 28 51 17 23 26 39 33 26 42 36 31 26 47 27 20 41 23 40 44 17 26 19 28 16 29 30 41 43 43 30 33 30 26 10 27 41 37 37 62 23 36 35 36 23 40 39 30 36 32 27 55 33 23 19 24 20 39 32 37 23 26 34 38 28 53 36 28 37 51 32 47 27 52 33 29 37 33 32 43 46 26 22 23 17 30 37 37 30 31 21 24 21 25 31 40 39 55 54 33 32 46 39 23 16 39 37 43 29 35 30 16 35 13 26 29 55 38 48 35 16 39 42 22 16 23 22 31 20 25 19 23 52 55 25 36 31 38 28 36 16 25 30 20 24 33 38 29 13 25 45 44 9 41 20 41 29 30 16 25 23 36 47 30 30 19 30 38 35 37 30 49 39 37 23 50 19 35 39 47 32 32 26 41 29 26 45 37 26 18 37 36 58 45 19 43 44 33 23 32 6 34 37 22 22 33 30 37 26 31 24 50 26 31 42 36 33 43 28 51 34 20 43 33 41 37 29 23 35 54 37 37 36 44 40 42 23 43 30 40 23 26 51 37 16 21 30 50 48 16 36 41 19 49 39 51 34 28 16 27 47 22 41 22 41 36 34 27 34 17 23 27 31 37 30 41 26 30 30 37 37 40 26 29 36 26 29 42 47 23 37 17 24 44 41 40 26 39 22 26 37 36 32 48 23 30 19 22 30 33 23 28 16 45 59 43 35 32 31 31 44 33 38 29 31 27 34 19 27 27 51 32 43 51 33 27 30 39 25 19 29 23 34 38 13 35 32 36 43 31 15 36 36 36 26 22 38 25 23 26 37 41 37 45 16 19 31 29 35 31 40 48 38 24 38 21 26 37 13 48 19 31 13 41 40 30 16 24 37 20 43 49 44 12 36 22 37 46 22 51 31 34 16 26 27 30 54 35 28 12 29 50 29 30 31 27 34 29 16 37 34 30 43 46 30 32 16 40 34 42 21 40 16 34 32 36 30 33 41 40 24 39 35 17 39 20 22 26 52 35 36 43 15 45 20 39 19 50 38 44 64 23 33 37 21 40 31 29 37 36 37 29 23 37 45 51 33 34 20 27 22 40 26 23 29 36 33 51 48 33 19 29 33 48 37 37 34 54 24 40 24 19 47 54 47 40 39 44 41 25 28 30 9 34 35 35 32 20 52 55 26 37 35 40 27 37 37 39 27 20 20 35 28 34 26 34 27 34 57 26 28 23 20 59 37 33 30 45 41 29 26 30 30 33 40 30 33 34 26 27 33 30 29 26 30 29 23 36 29 41 40 33 41 30 17 29 44 30 36 48 41 34 34 36 30 27 42 26 23 28 48 38 26 30 25 15 29 27 18 28 33 31 16 27 16 26 35 29 27 39 29 35 18 46 43 23 16 30 34 15 37 25 50 24 41 35 42 19 39 34 37 27 21 26 38 24 40 36 16 27 29 36 36 21 31 35 31 43 26 30 19 31 27 19 33 41 34 36 40 29 31 40 13 35 65 19 45 20 40 23 30 30 19 26 23 10 23 34 39 30 29 43 36 35 42 26 34 34 15 50 33 44 43 49 39 33 28 46 37 12 23 20 34 29 33 29 21 43 37 48 41 40 38 33 38 37 23 37 41 44 58 42 46 33 13 34 55 12 27 36 26 36 18 36 30 51 36 33 45 30 30 37 33 23 38 27 38 40 33 51 54 41 27 48 46 21 37 21 32 25 36 34 26 27 43 51 39 45 37 32 51 39 37 31 34 31 28 22 22 16 30 24 21 34 41 37 23 22 40 19 42 27 20 33 23 41 27 43 46 35 34 34 18 35 33 31 39 24 37 29 40 41 40 22 35 30 22 36 30 31 28 40 34 31 42 48 17 12 49 29 23 35 41 40 29 37 20 40 25 33 47 26 33 35 32 55 32 33 25 28 17 26 19 31 33 30 10 35 59 33 28 16 33 40 53 31 31 28 19 29 37 26 41 36 36 36 49 43 26 23 40 33 32 41 33 43 37 24 23 19 19 40 37 48 48 49 23 40 30 33 38 28 50 49 47 30 26 30 38 24 34 34 27 47 24 24 37 38 36 27 40 44 43 30 27 16 20 40 16 51 31 48 18 32 32 51 37 40 37 30 34 26 32 48 31 26 27 19 23 37 33 23 13 32 37 37 39 30 23 17 46 15 55 23 41 25 37 43 32 37 29 26 34 52 20 30 44 26 37 34 44 43 42 16 30 35 27 36 51 36 35 41 41 18 33 36 31 14 33 42 40 36 42 28 37 25 23 36 28 23 29 26 25 45 36 33 37 37 51 27 24 27 30 18 36 16 30 59 37 27 27 19 31 45 43 26 34 23 36 35 30 37 38 33 25 29 29 27 24 47 39 24 45 29 20 27 37 28 15 30 13 41 29 45 25 40 41 40 51 31 27 40 29 21 25 46 31 10 30 25 41 27 43 42 48 23 40 34 27 44 30 44 31 45 46 30 43 40 22 38 44 29 55 34 26 46 39 28 26 27 46 34 20 52 52 16 58 33 40 43 46 31 34 48 24 23 38 41 34 41 46 27 37 30 30 64 35 44 24 23 30 20 27 35 35 34 28 26 55 29 23 26 24 25 39 29 25 38 43 27 35 51 19 28 23 35 26 26 26 25 43 36 30 22 29 27 37 23 48 15 22 23 23 34 22 48 23 32 26 24 32 46 26 42 34 23 23 29 19 41 34 31 35 36 45 15 22 45 36 34 41 31 22 26 9 23 39 44 36 46 27 33 31 19 25 51 44 31 31 35 29 60 40 34 34 26 31 27 40 30 22 29 39 44 23 17 27 30 51 41 35 40 27 50 36 23 45 36 44 49 29 30 25 30 26 26 32 25 34 26 16 23 48 40 48 13 37 46 46 30 55 30 30 16 46 31 38 46 43 51 28 12 55 20 15 37 36 37 23 48 43 23 24 34 49 27 25 45 40 39 47 20 46 27 33 41 26 32 37 9 38 2 51 34 28 25 39 29 30 39 12 26 20 33 43 16 27 24 25 21 35 37 22 35 13 35 47 36 24 42 41 29 52 26 26 26 24 34 24 23 23 26 34 27 33 21 39 20 6 36 40 19 39 33 29 37 22 17 38 20 45 23 43 28 45 40 26 38 48 34 29 41 29 35 37 43 31 44 37 27 34 47 48 44 49 57 49 19 34 34 27 33 51 37 54 19 27 45 20 23 36 25 36 36 23 29 24 35 40 37 37 33 37 27 9 23 49 26 37 27 32 42 33 27 17 31 43 17 50 16 30 23 30 44 21 42 26 23 33 23 35 29 30 51 51 32 23 31 37 41 35 35 43 29 23 33 27 31 12 30 21 36 30 27 40 42 43 50 32 47 26 13 30 20 30 47 26 26 48 40 31 30 18 41 37 41 38 40 35 41 26 30 33 22 31 31 41 37 16 45 40 37 40 15 37 22 41 48 45 31 53 34 32 36 31 12 26 32 69 31 37 38 35 27 20 38 23 37 35 29 42 30 22 19 27 50 22 19 23 23 50 37 17 40 19 32 33 54 48 30 30 48 50 27 17 22 29 40 33 28 32 53 43 38 19 35 22 19 45 37 37 27 30 23 32 30 34 13 30 43 22 31 33 30 28 23 40 34 27 42 25 32 23 27 30 27 33 19 33 55 23 33 37 48 26 30 43 23 30 39 14 37 48 25 19 19 35 32 42 24 32 32 23 25 26 27 26 34 41 31 43 34 26 29 37 27 33 26 42 31 26 33 19 23 54 24 30 45 52 40 37 29 45 32 31 13 42 48 55 44 23 40 38 33 9 26 37 56 19 35 34 30 26 40 36 26 23 29 48 29 29 44 15 37 43 43 21 37 19 33 31 16 43 13 33 28 16 32 23 22 36 33 27 22 27 30 25 50 43 19 34 34 30 29 23 51 37 41 33 42 37 33 41 23 36 20 24 26 16 37 43 41 20 35 23 41 41 34 51 33 30 43 43 35 29 40 37 32 25 39 27 33 26 29 49 30 36 16 45 30 29 22 30 20 13 34 32 49 36 35 46 23 24 34 24 19 16 25 17 40 43 33 34 43 39 51 40 10 23 34 16 37 38 20 31 12 22 33 34 34 34 36 29 21 28 38 41 51 30 31 19 24 41 25 38 15 44 22 26 30 44 40 28 37 19 50 25 46 40 26 51 27 33 36 41 45 30 36 49 38 41 47 28 26 27 24 52 25 31 30 26 40 37 50 32 41 18 34 28 43 26 30 33 20 26 17 33 26 38 37 19 37 41 39 26 33 40 29 45 29 26 50 37 13 37 35 34 33 9 22 17 23 34 29 33 29 37 25 32 41 46 23 27 19 24 20 33 33 30 24 20 47 26 14 34 38 35 15 20 41 28 26 43 38 26 50 22 15 27 24 20 37 37 27 30 32 29 37 23 34 38 41 43 30 43 25 23 52 29 28 44 36 32 34 40 22 33 20 33 30 27 37 27 16 29 23 38 30 39 12 34 13 38 31 16 34 41 27 24 37 40 24 29 19 46 26 31 29 16 32 30 25 37 39 25 17 30 54 31 13 33 16 33 38 36 35 37 25 35 31 22 36 56 27 26 29 22 30 31 39 36 30 39 36 44 33 31 37 39 28 45 23 22 26 16 13 31 36 23 30 26 27 57 43 30 42 26 38 37 25 17 40 23 23 40 12 31 40 25 29 36 30 16 31 43 34 27 47 24 27 19 37 34 29 53 34 46 10 37 40 43 34 27 30 26 35 23 29 55 37 30 34 40 20 12 23 34 33 38 36 33 37 47 16 20 37 31 33 38 40 41 33 34 30 17 50 23 24 36 37 12 43 29 23 34 49 23 45 34 37 26 25 43 30 38 43 44 20 35 25 26 37 33 40 29 28 23 26 37 54 51 34 37 45 33 51 24 25 19 34 29 35 32 23 36 26 44 29 43 29 26 18 41 44 33 13 22 36 33 48 26 20 28 34 41 38 27 37 41 29 17 31 27 23 33 30 25 39 19 24 32 29 30 32 33 29 36 27 32 36 16 30 30 20 37 25 17 34 28 34 30 37 44 40 19 35 20 45 34 33 26 37 17 27 30 47 34 44 33 34 30 29 23 25 18 22 37 40 44 23 43 36 36 50 38 29 44 13 24 19 16 13 22 41 26 30 34 19 41 36 10 16 37 47 29 26 27 21 43 37 31 57 39 26 42 47 30 23 27 36 33 26 54 30 23 33 23 25 34 34 26 44 29 36 30 36 34 36 36 57 27 36 24 27 29 32 34 22 30 35 36 23 32 39 36 26 46 24 38 38 33 42 21 26 44 19 27 27 24 29 37 56 37 26 40 54 34 38 35 39 40 42 23 33 44 38 53 55 33 40 22 36 49 26 40 37 51 37 23 37 34 39 30 30 20 30 19 22 24 34 33 17 30 23 43 38 43 24 26 43 9 47 33 30 23 32 41 17 37 26 45 26 42 17 37 41 43 55 32 36 23 49 27 45 31 27 27 43 44 26 27 62 32 38 45 24 27 42 19 22 16 27 38 39 47 30 31 20 35 35 13 21 32 27 27 37 39 24 19 23 39 30 56 35 27 23 27 51 32 29 37 24 20 44 30 37 54 51 37 29 33 28 33 40 27 16 23 20 23 33 22 48 19 45 23 23 35 19 33 34 39 30 54 31 49 34 40 29 41 17 36 32 40 19 23 26 24 41 38 30 33 22 33 39 24 45 45 9 20 37 16 28 23 37 34 20 37 23 41 26 16 28 27 43 24 29 25 59 40 22 36 45 37 34 26 51 46 23 44 31 53 37 20 38 31 53 48 41 41 19 22 57 16 34 16 27 35 28 44 24 40 34 37 33 52 33 30 27 43 42 39 30 34 31 29 16 30 38 30 23 33 34 33 19 33 43 47 30 32 45 17 47 45 20 33 34 25 38 37 23 29 27 48 34 39 30 46 43 26 29 39 36 22 40 27 26 33 26 31 17 23 35 30 25 20 37 40 44 37 30 22 20 31 38 16 21 37 22 22 33 23 45 38 40 29 43 42 20 33 36 27 37 20 26 34 37 27 19 45 25 50 29 29 34 37 40 27 12 10 33 27 51 15 23 56 33 19 40 40 46 44 32 51 26 33 30 31 37 30 42 37 42 58 43 31 33 30 37 32 49 19 26 29 26 22 40 23 40 23 26 44 45 23 20 20 19 32 49 25 52 48 17 33 43 37 32 29 24 19 26 13 40 29 25 39 29 42 33 26 37 30 33 34 16 26 30 21 30 23 42 37 37 32 22 35 49 15 27 34 41 65 28 55 27 37 44 26 27 44 50 29 48 34 40 40 37 37 35 29 15 23 48 25 20 23 26 16 33 31 18 32 31 18 35 26 38 37 29 44 53 43 37 33 32 35 42 28 29 23 29 27 35 24 30 21 23 26 29 27 33 44 41 42 53 16 34 33 34 36 48 13 47 27 29 36 23 22 12 34 41 41 44 34 33 30 43 27 17 50 30 20 41 22 28 19 29 30 21 45 36 22 37 62 39 34 33 26 21 23 35 26 40 40 26 37 37 47 16 33 36 23 34 39 43 52 34 40 37 29 31 39 34 41 41 9 23 45 30 24 32 27 41 26 24 12 26 41 26 29 53 26 33 40 31 33 35 30 24 37 49 26 50 27 19 33 33 33 27 36 24 30 34 34 45 37 36 34 37 18 22 39 34 37 42 44 23 43 22 46 41 31 30 43 23 37 29 35 23 36 45 34 45 36 38 33 29 29 28 37 33 43 18 36 30 20 36 34 27 20 37 33 49 30 25 37 28 23 26 20 34 40 20 29 26 26 28 23 20 20 27 51 36 26 19 28 39 30 55 29 45 37 45 25 30 48 37 54 41 39 51 37 29 10 38 33 23 43 38 35 16 23 47 26 25 29 26 27 27 26 35 32 51 20 21 51 25 30 22 30 40 35 36 23 25 22 33 20 16 19 26 27 30 34 32 28 40 39 40 34 16 37 45 20 24 38 37 30 29 29 21 32 25 32 26 38 34 13 20 22 54 16 26 31 23 16 35 36 40 23 44 44 31 46 30 37 43 37 52 9 29 35 32 38 33 44 37 32 47 26 33 31 27 48 30 41 43 39 28 29 33 33 28 47 34 33 50 25 30 32 6 40 19 16 45 27 41 42 34 43 17 20 41 36 22 27 41 31 23 38 37 33 34 41 21 24 38 32 44 34 40 34 37 26 19 20 13 31 40 29 14 32 34 37 30 30 20 32 23 30 49 21 33 26 46 23 26 21 13 40 27 37 17 29 35 31 37 37 33 37 59 40 26 32 28 20 43 52 32 38 45 37 26 30 31 36 20 43 29 24 24 31 33 55 19 19 28 33 20 20 40 41 13 33 39 40 39 29 29 39 22 52 30 61 17 28 39 40 41 29 23 30 36 31 33 33 45 38 13 22 47 35 37 39 33 33 45 40 38 26 34 29 31 39 33 45 32 20 39 36 15 33 13 20 33 39 44 34 33 26 23 22 51 29 21 9 23 33 19 22 23 20 30 47 42 33 23 23 48 29 30 20 17 32 44 45 16 37 30 31 52 13 21 23 34 25 40 17 34 15 23 29 41 45 50 34 33 33 37 37 36 39 6 6 26 26 22 33 44 27 31 34 27 38 27 16 22 53 33 34 37 31 20 33 39 26 35 45 33 23 29 34 29 30 38 26 31 22 27 38 24 36 49 30 23 39 30 59 34 38 31 33 33 41 35 30 15 26 28 45 23 42 23 19 43 59 35 48 37 31 40 40 29 34 44 38 44 31 29 20 19 31 23 27 62 49 24 38 39 43 43 38 48 33 37 37 64 31 38 55 47 19 43 33 27 41 43 37 9 31 44 45 38 42 26 40 43 37 57 31 19 27 30 36 31 48 27 43 32 27 31 35 16 23 30 41 52 27 47 30 31 21 23 40 41 45 23 44 40 35 43 23 23 51 22 29 23 29 34 26 53 30 45 36 32 31 36 34 38 30 33 29 37 43 50 46 19 30 46 27 10 27 37 25 44 43 33 29 22 26 22 22 16 29 26 15 43 13 41 29 34 39 42 27 27 19 30 34 45 41 44 26 30 36 36 45 46 31 39 37 12 16 36 29 42 37 32 30 24 40 30 51 23 33 29 33 44 37 33 27 37 17 55 34 33 16 30 23 25 33 40 23 28 29 29 36 37 32 37 47 32 40 15 16 49 41 35 25 39 29 23 41 34 47 16 24 23 40 26 35 37 24 24 27 23 59 34 41 26 16 32 25 20 30 41 43 39 29 26 34 23 38 30 22 29 42 20 37 36 12 44 20 27 40 26 26 36 30 19 28 51 23 27 22 39 20 29 31 43 43 41 40 40 51 33 44 33 33 25 24 32 32 30 30 36 29 26 59 33 45 26 38 23 17 31 47 26 34 34 42 42 21 29 55 21 31 29 33 24 34 33 36 45 30 34 33 33 38 33 45 52 23 38 27 47 31 33 33 36 37 40 43 27 23 33 26 25 37 28 54 37 22 46 47 33 37 31 43 34 26 32 33 32 28 41 24 19 38 28 34 33 43 43 16 21 20 24 36 22 22 44 36 19 23 27 23 34 45 15 31 49 29 12 31 26 19 26 38 51 26 45 37 16 38 45 23 23 30 47 24 42 36 41 15 43 41 26 36 23 30 39 16 23 16 29 38 26 41 37 20 41 39 47 39 49 25 33 45 24 42 28 16 35 16 32 37 31 45 54 36 25 30 34 37 30 20 19 30 22 37 32 26 38 27 36 23 47 19 12 50 31 26 27 36 34 40 22 25 50 31 51 44 32 32 29 26 54 6 22 45 34 20 47 33 33 26 23 31 27 29 46 35 40 13 48 52 28 38 36 20 38 33 46 21 35 29 36 19 40 43 16 34 37 36 29 38 23 37 40 35 37 18 36 49 19 40 15 44 26 38 36 27 30 41 19 33 43 34 44 38 33 58 23 40 45 31 26 31 24 38 12 22 17 26 32 23 23 34 50 31 28 37 33 22 18 33 29 19 17 33 29 33 43 45 49 29 52 23 47 26 28 37 25 40 48 26 28 40 10 30 37 43 40 40 44 44 27 20 33 36 37 36 44 21 35 29 47 41 25 10 30 38 41 19 27 29 30 25 33 29 38 27 40 45 47 34 36 45 25 27 20 15 40 40 20 30 37 33 38 19 31 23 23 37 43 34 29 46 43 28 37 55 29 19 30 30 44 38 22 16 30 33 29 25 41 44 41 33 25 39 37 32 38 33 17 22 30 33 37 25 43 40 34 26 36 37 25 12 25 24 15 40 30 40 36 40 27 23 45 42 16 21 30 40 20 3 35 33 24 26 48 29 15 35 34 26 39 25 49 23 26 26 40 29 23 44 41 44 30 6 32 35 37 40 25 58 46 27 41 31 39 38 31 30 19 36 41 41 25 40 13 29 41 36 46 50 44 39 35 27 30 42 43 43 16 43 19 32 34 23 29 59 28 43 40 27 23 26 30 36 31 42 19 30 37 36 48 40 34 31 20 27 15 30 39 20 24 35 44 24 32 28 22 30 37 44 27 35 42 48 23 25 38 31 32 41 20 24 36 13 58 40 25 16 26 37 40 17 15 37 36 27 42 26 37 49 27 29 31 28 13 37 16 37 40 18 29 24 37 33 22 23 24 13 19 20 19 19 18 41 31 30 19 29 31 41 27 29 37 23 30 39 45 27 27 33 35 40 29 34 47 42 27 35 39 37 20 39 16 35 30 34 45 10 39 31 31 30 33 16 37 22 47 30 31 41 40 24 38 34 33 16 50 33 37 20 27 40 45 33 33 25 28 46 29 26 29 37 53 28 32 29 44 37 41 34 29 23 23 30 31 30 13 19 23 36 43 59 34 33 41 39 40 20 44 37 20 33 39 23 33 53 51 31 30 29 30 27 28 30 36 31 33 31 27 23 33 47 44 30 26 23 23 34 37 17 37 34 20 37 23 24 37 44 40 33 31 41 30 12 36 29 34 43 37 31 26 30 37 19 52 22 66 44 19 32 31 31 31 38 22 44 20 34 37 22 25 44 23 50 23 28 14 50 36 41 27 31 31 29 36 26 19 27 51 27 34 19 29 33 26 34 34 34 41 22 42 22 40 43 55 19 40 37 25 19 36 43 38 43 29 31 23 26 54 39 9 27 30 29 32 37 46 21 51 44 24 17 34 34 43 40 21 37 23 25 31 41 28 21 37 42 37 39 38 41 24 27 36 37 53 36 52 38 26 31 22 36 27 44 23 16 36 29 47 31 51 9 31 29 26 26 37 48 37 31 37 29 33 13 37 30 33 31 44 30 25 19 43 37 45 45 25 37 19 36 42 36 23 30 31 38 20 23 30 24 39 22 49 31 30 44 27 38 30 48 12 51 40 15 37 32 16 20 38 27 31 20 16 31 40 40 30 37 43 16 26 34 30 38 43 33 27 48 20 50 45 23 30 25 39 33 34 29 29 30 28 35 44 22 50 42 41 50 37 37 26 47 29 21 26 30 20 43 27 23 32 41 15 19 34 48 34 31 37 51 40 23 27 34 23 42 34 39 20 28 43 51 54 19 43 39 31 26 37 40 45 23 31 16 46 39 36 39 27 45 38 26 29 16 34 37 33 40 16 34 20 30 52 30 34 33 39 13 29 32 36 41 41 16 40 42 41 26 44 34 31 27 58 23 53 32 24 35 29 32 30 33 29 38 34 33 49 26 28 21 50 30 32 52 18 22 38 34 35 51 34 37 33 37 34 27 45 37 40 26 30 37 33 41 32 24 42 47 51 37 23 30 31 23 30 16 48 40 29 30 41 27 35 20 27 31 15 30 28 26 23 44 28 34 49 32 27 37 27 29 27 36 41 33 27 27 17 23 33 34 37 26 45 38 22 43 37 37 27 33 31 24 31 16 34 29 21 33 20 45 23 29 32 19 19 27 34 37 26 23 51 23 19 24 32 34 25 39 23 45 40 38 33 19 20 39 18 44 22 30 36 27 39 33 27 23 43 29 13 38 27 34 45 23 28 50 23 29 36 28 23 22 42 23 38 34 41 24 37 20 37 40 37 30 22 31 30 32 55 37 34 37 23 19 41 44 34 38 13 31 39 40 51 30 13 34 31 39 31 28 34 31 35 29 35 28 33 24 27 39 29 34 30 36 30 27 19 25 34 51 42 44 47 36 40 34 29 44 28 26 18 29 34 43 13 38 29 34 25 34 29 40 23 50 34 42 27 46 30 32 20 26 32 30 37 41 29 36 40 32 36 33 33 30 50 39 39 41 29 28 37 45 52 53 38 27 51 17 40 17 45 30 33 32 43 13 36 43 32 26 29 43 43 36 48 30 24 15 22 43 34 19 23 44 30 31 40 28 30 48 30 27 26 27 46 34 31 31 52 16 48 45 41 36 26 9 40 12 48 38 10 40 35 33 26 55 13 33 33 40 35 40 49 43 27 12 49 29 37 47 16 31 22 31 37 37 37 31 19 35 29 33 23 24 40 29 35 31 16 20 47 29 30 27 19 22 37 38 30 35 29 37 20 22 22 23 48 40 39 34 15 30 40 32 35 33 36 26 38 17 30 40 32 30 37 37 37 37 29 47 24 28 38 27 17 27 16 31 27 26 30 43 28 42 7 20 29 36 17 22 46 44 24 38 30 40 36 12 40 50 35 36 20 43 38 30 33 44 31 17 20 26 23 26 36 29 46 28 39 26 30 34 37 30 37 40 19 38 27 26 26 30 31 48 44 27 37 30 37 26 27 31 37 25 36 19 29 33 26 40 28 27 29 33 41 61 38 48 34 36 36 34 43 36 33 37 20 24 17 35 26 33 31 45 21 36 34 44 41 41 49 45 51 47 35 30 40 30 41 36 43 51 33 33 41 20 18 42 40 52 43 23 29 30 34 38 14 28 27 23 24 28 17 40 40 33 33 22 34 29 37 26 44 37 52 20 19 19 16 16 19 45 30 40 26 27 43 46 28 33 58 34 29 27 42 45 41 30 23 38 36 51 33 23 19 29 34 33 29 20 37 23 30 34 33 33 51 32 26 48 29 23 23 33 36 29 9 26 12 23 33 29 30 25 23 37 17 33 38 30 65 40 54 28 9 36 20 44 35 33 32 26 20 28 59 28 34 34 24 21 30 13 23 23 37 43 31 47 34 23 40 37 35 34 26 42 29 64 22 33 17 20 9 36 55 42 40 23 20 23 26 22 26 23 43 35 49 27 23 25 35 30 27 37 37 19 40 36 20 22 26 9 29 37 36 9 36 46 32 29 41 39 33 34 37 40 36 23 26 17 31 29 34 29 51 27 25 28 34 44 48 38 34 44 21 54 35 30 30 34 20 22 30 16 29 19 25 27 35 33 34 32 36 23 29 27 26 32 27 30 37 35 36 44 16 56 29 31 25 40 41 20 46 26 13 47 37 18 17 34 37 43 27 27 35 24 35 30 36 34 40 16 44 20 33 40 25 27 36 29 45 46 33 36 40 33 40 26 35 30 36 23 36 30 27 23 23 46 26 20 25 26 37 40 24 34 48 26 26 36 29 23 40 43 45 29 36 12 54 7 37 17 16 27 55 30 33 26 45 33 49 46 37 31 23 50 49 29 51 30 44 37 23 39 40 14 47 42 35 15 20 23 24 26 34 37 12 31 29 37 35 34 21 23 21 39 30 23 31 34 43 30 50 43 48 23 27 40 19 26 31 30 29 29 20 50 20 15 43 48 33 23 44 31 39 33 30 37 36 39 37 32 40 35 22 19 43 26 33 37 23 35 22 30 33 36 55 51 37 37 19 36 15 44 21 29 35 48 41 29 62 33 31 29 50 37 29 37 37 36 52 34 29 49 33 23 23 55 47 26 40 43 30 64 33 27 44 28 27 42 29 27 37 19 34 40 37 19 31 23 35 34 41 28 45 41 51 39 37 28 58 37 24 20 15 32 22 28 45 37 28 41 31 34 37 24 22 30 25 20 51 26 23 37 37 48 30 45 26 25 44 48 20 41 32 31 36 30 26 38 20 37 44 44 30 24 37 33 26 34 36 34 48 38 16 32 26 43 34 33 16 29 43 28 28 25 26 10 33 45 29 28 31 44 35 45 21 30 23 29 29 32 34 23 24 41 45 19 38 32 34 22 52 31 29 32 26 28 27 20 16 29 35 48 33 25 15 41 35 44 38 30 19 24 38 26 40 26 34 51 30 25 33 35 20 31 29 34 27 45 34 20 16 26 9 23 35 12 29 26 29 27 16 41 47 26 19 36 31 33 37 41 37 30 19 25 37 24 54 31 34 30 26 29 52 47 33 42 41 16 15 26 38 40 24 40 21 33 25 41 34 27 48 19 23 44 30 14 20 29 45 31 27 39 34 27 41 27 29 51 35 33 29 23 23 31 40 39 60 42 41 34 25 37 30 26 30 34 30 51 34 41 33 26 15 33 26 37 34 30 33 26 19 33 39 35 31 10 34 27 41 28 32 13 30 26 12 27 39 40 24 51 51 36 47 23 23 36 19 31 50 51 9 31 39 35 37 45 41 21 29 13 36 30 27 27 26 23 37 28 12 31 22 46 45 19 25 50 27 37 33 38 3 51 16 26 47 31 30 33 23 26 26 29 43 23 25 37 35 29 30 28 30 21 36 40 30 29 39 16 27 26 36 34 22 30 30 41 33 30 28 48 34 34 33 56 22 37 37 38 35 38 23 35 34 23 26 19 35 34 29 20 23 37 35 33 25 43 34 36 22 27 16 40 30 37 26 20 30 55 33 37 26 31 32 26 37 33 24 33 51 23 35 27 32 29 29 36 37 58 37 37 28 34 37 26 44 41 29 32 44 35 37 42 29 35 29 40 33 23 15 23 38 50 45 44 55 27 37 34 39 20 38 39 29 36 20 31 43 23 34 37 22 49 39 49 25 30 25 33 17 27 32 48 24 29 31 48 27 29 45 32 27 58 30 41 22 52 37 33 26 31 26 41 24 39 20 45 29 57 39 46 51 23 45 27 33 23 27 33 22 21 47 29 30 33 23 27 37 24 43 27 30 23 41 25 35 30 43 23 43 37 38 33 16 20 35 37 24 30 38 32 24 39 20 33 45 32 24 40 19 50 23 37 34 42 35 30 47 28 27 37 55 35 29 37 44 45 30 39 29 27 21 24 19 43 24 30 19 43 38 10 39 28 20 48 43 41 40 17 29 48 44 39 28 40 29 33 36 32 43 42 22 43 46 43 41 20 51 45 32 57 16 21 51 23 41 41 46 30 46 43 29 29 44 38 25 26 29 54 33 39 36 31 29 41 32 30 15 34 37 38 23 25 36 45 33 23 42 37 34 36 20 29 40 27 40 32 29 37 29 22 37 28 41 55 30 34 27 16 30 40 32 40 34 38 29 62 51 26 30 33 30 25 22 34 47 27 42 22 17 26 43 40 51 24 31 33 33 41 29 37 40 37 31 32 39 38 33 20 28 27 38 34 33 36 51 48 16 33 28 15 26 41 36 36 17 38 26 34 29 41 34 41 34 46 33 26 16 40 30 40 17 26 29 45 38 33 44 44 31 35 37 31 23 35 29 34 28 35 43 34 44 50 41 28 29 23 35 38 43 41 9 25 59 35 28 42 37 20 21 50 35 40 30 33 27 37 34 36 44 37 30 30 52 24 24 41 38 40 33 26 23 23 49 27 45 31 13 34 20 37 28 33 27 9 47 16 21 30 33 16 22 42 17 24 33 28 44 39 25 41 53 23 29 27 22 29 26 40 31 38 32 31 9 39 39 28 13 34 37 13 41 44 47 27 37 21 42 46 44 30 13 30 34 30 19 30 24 31 21 28 23 17 27 37 35 39 15 58 47 41 31 26 26 29 33 24 38 13 9 41 27 46 12 20 51</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSB(2.7960716114703814, 3.024053683323945, -15.336581861768524, 101.67932415597033)</t>
-  </si>
-  <si>
-    <t>7 27 17 20 3 9 13 7 13 3 17 13 14 15 16 17 7 15 19 10 20 23 13 10 7 9 10 6 21 6 7 27 12 0 14 10 16 33 6 21 15 17 11 27 13 6 3 3 19 17 30 12 0 23 13 12 9 16 15 3 20 21 10 3 11 18 20 24 13 20 17 23 13 10 24 13 10 10 17 10 10 17 34 6 3 7 6 17 13 7 13 15 13 13 17 13 20 20 17 10 14 6 14 23 24 7 7 17 6 7 10 9 10 13 17 6 9 16 16 13 0 14 6 14 23 8 12 17 13 16 20 14 24 9 17 16 27 10 13 20 24 7 3 17 16 6 20 13 28 7 31 3 20 13 16 0 6 7 20 20 16 9 23 26 3 16 9 3 17 17 14 24 3 9 10 16 6 19 21 16 28 19 12 14 7 18 12 6 16 14 16 17 13 23 28 6 35 24 6 20 16 6 10 20 17 16 10 17 16 10 17 16 10 12 13 13 13 3 16 22 17 14 10 17 21 26 20 10 13 6 20 34 13 34 10 3 6 26 17 10 3 0 13 20 10 21 17 13 16 10 15 17 13 21 13 10 23 19 10 3 14 6 10 24 10 13 17 13 16 7 3 10 0 9 18 17 6 11 10 6 17 0 9 20 17 27 9 16 13 14 17 16 11 15 17 24 17 21 17 13 10 18 13 18 11 6 7 7 9 15 15 5 30 23 17 21 16 7 14 17 10 10 2 7 10 6 23 6 6 7 13 10 10 24 12 17 7 22 0 13 13 6 12 12 10 14 8 15 3 20 17 10 10 10 17 7 10 23 17 15 17 7 15 19 9 20 6 12 24 14 26 3 20 10 20 10 6 7 20 13 17 3 24 14 3 3 23 16 10 9 20 9 17 17 0 0 13 17 14 34 3 17 13 6 7 24 12 20 6 18 8 13 10 11 14 23 27 17 27 17 16 9 17 13 20 21 10 9 11 20 16 7 18 17 16 17 0 14 24 0 30 10 20 26 19 17 20 2 31 34 6 17 3 20 24 20 34 0 14 10 3 10 6 0 9 10 10 9 12 6 17 9 16 9 9 13 6 13 12 17 10 14 0 30 10 20 7 20 14 3 19 19 6 15 12 24 12 20 10 13 7 14 12 17 18 6 13 20 14 6 30 6 13 20 10 7 3 17 17 16 17 20 9 6 3 24 17 20 14 11 15 8 17 14 20 20 16 10 3 13 17 24 13 6 6 24 10 12 22 20 17 14 13 10 0 24 11 3 12 10 13 16 15 3 16 16 9 6 17 10 17 14 27 10 7 9 9 17 22 21 13 10 21 10 20 7 20 16 16 13 13 16 7 0 14 8 12 15 27 31 6 3 13 12 19 13 10 21 17 0 20 27 24 21 20 0 16 11 6 16 16 17 9 3 12 13 3 21 20 20 17 14 17 3 14 20 3 7 10 22 7 10 10 12 20 17 10 20 3 12 13 17 3 0 11 9 17 27 16 13 3 10 13 20 3 19 20 21 19 21 7 7 13 6 17 16 17 14 13 21 6 14 21 9 12 17 13 23 29 10 10 3 28 17 16 10 20 20 7 19 10 14 3 17 3 20 11 14 30 13 13 17 3 10 20 13 9 31 9 7 18 13 10 20 16 13 3 8 0 9 3 6 10 13 10 3 31 9 6 17 15 10 27 17 13 6 14 0 9 14 0 27 24 34 23 17 17 10 19 9 17 19 31 13 13 20 9 15 16 13 16 10 28 13 3 10 11 3 10 17 6 20 10 13 9 6 13 9 10 10 3 6 16 3 10 13 10 9 17 11 23 17 15 24 20 13 15 21 9 9 13 10 22 13 13 10 17 10 12 20 10 3 17 6 9 15 12 9 25 17 16 3 14 3 17 31 0 20 14 13 37 3 12 23 10 3 7 10 11 20 13 17 10 7 6 17 26 20 20 14 20 13 7 13 13 21 3 10 20 19 13 17 13 23 7 15 13 20 17 21 3 12 20 20 11 9 13 17 23 17 26 6 14 8 15 9 17 12 10 23 10 0 7 3 20 20 13 11 16 9 16 21 3 18 10 13 9 13 19 34 3 10 7 10 13 11 16 23 9 13 19 17 7 10 7 24 18 27 10 17 17 6 14 3 22 21 0 13 3 13 7 20 21 10 7 16 17 17 13 10 27 20 15 10 7 14 7 16 6 12 17 20 7 14 17 34 5 23 28 20 14 17 16 30 17 17 22 16 14 3 7 5 12 16 20 6 7 13 3 14 13 13 23 17 10 16 17 16 17 10 13 3 10 23 17 6 24 0 13 15 10 7 7 26 10 17 19 9 22 13 10 19 20 9 15 34 6 17 3 3 7 13 16 6 0 10 17 37 17 23 13 13 6 15 16 11 19 0 20 3 22 10 6 20 6 18 16 17 16 9 20 20 7 13 10 6 10 17 20 23 10 35 19 0 7 20 17 17 10 7 10 30 20 7 0 13 15 24 13 16 16 20 13 6 10 11 15 6 15 3 27 20 13 17 15 9 6 21 11 12 17 34 21 17 16 20 12 26 16 17 20 22 6 17 6 3 19 7 3 24 13 7 7 6 17 16 19 11 10 9 20 27 13 13 14 20 16 10 15 23 6 14 16 0 12 13 11 10 21 24 30 13 17 14 22 20 16 7 14 16 30 20 10 18 14 23 18 14 17 7 14 6 9 23 3 10 17 13 13 23 10 6 14 17 3 21 15 16 7 8 10 9 10 7 16 9 17 24 13 16 7 16 15 10 19 13 9 17 10 6 10 12 27 20 18 20 27 0 19 14 14 24 20 5 7 10 26 17 17 10 10 20 23 20 24 16 10 17 17 17 0 24 13 22 10 27 16 18 7 21 14 9 14 8 20 14 19 8 13 6 3 7 10 6 20 6 7 17 11 13 19 14 13 20 13 10 17 27 10 24 10 17 24 24 10 17 24 16 10 6 13 8 31 12 3 10 3 13 22 0 12 20 19 10 24 37 17 9 16 12 26 10 20 27 17 13 17 24 16 16 9 9 12 28 16 24 17 6 6 14 16 7 9 8 24 6 32 20 13 13 7 17 17 14 7 21 19 17 20 24 31 29 10 21 21 9 7 14 10 10 23 16 19 13 9 17 7 26 13 6 13 20 20 8 10 16 13 16 15 20 10 34 24 45 17 13 20 14 16 18 10 19 13 13 6 9 24 19 19 7 9 3 13 7 20 20 7 17 23 16 16 10 6 9 10 3 9 25 7 15 17 17 0 14 10 7 9 20 6 19 10 6 21 27 17 16 10 9 10 13 13 6 27 37 13 16 20 17 13 6 3 16 20 11 17 10 13 6 16 6 14 13 12 26 3 20 6 7 13 17 13 6 10 0 17 16 26 10 19 16 24 24 21 9 14 12 19 19 3 13 10 13 25 9 16 6 19 0 17 10 16 14 12 12 17 17 16 23 27 13 10 13 14 17 31 9 13 0 7 9 20 23 14 34 17 10 7 21 0 11 3 3 21 10 18 13 17 21 13 20 21 17 23 6 13 17 16 3 14 24 17 17 24 19 16 16 7 30 9 17 20 13 3 23 12 7 26 12 17 17 17 17 10 16 22 8 19 16 16 16 14 22 23 9 9 3 22 16 13 3 13 13 24 16 16 17 10 18 9 13 17 9 22 20 28 10 5 0 16 14 10 15 17 23 15 15 27 10 16 20 13 13 12 13 10 7 17 20 3 16 23 13 0 13 20 27 10 7 17 20 14 14 23 26 13 3 10 13 14 24 9 6 10 6 7 7 17 11 10 10 10 9 3 15 12 10 10 20 17 23 14 8 7 13 20 6 24 17 17 14 9 13 20 9 20 13 21 14 10 9 9 19 10 30 9 10 17 13 3 20 10 9 0 7 16 10 3 29 3 10 19 13 18 24 9 6 3 3 20 21 19 12 21 6 9 6 21 10 13 33 24 17 30 14 3 14 19 7 9 24 24 14 15 10 9 17 17 10 17 10 10 14 0 3 8 10 14 9 20 7 0 12 17 17 6 27 10 13 10 3 10 18 28 10 23 20 14 20 9 3 7 17 10 3 16 23 16 12 10 13 21 13 31 0 0 6 10 16 7 13 17 6 3 7 7 14 18 24 20 23 9 18 12 7 20 20 14 0 6 17 9 17 21 17 3 27 3 14 13 6 9 14 18 17 10 14 6 16 26 11 0 34 20 7 12 24 16 14 17 20 10 23 19 30 21 12 25 6 17 0 6 16 24 16 20 18 19 16 20 9 20 19 10 3 21 36 12 13 20 17 17 3 8 9 11 10 6 9 29 16 17 9 13 13 16 17 18 13 9 20 7 20 3 7 17 19 10 7 18 10 13 14 0 20 16 10 10 9 20 6 16 24 16 17 17 24 17 13 24 12 28 9 13 19 20 10 10 17 24 20 17 3 23 26 10 17 10 13 7 15 6 16 21 3 3 16 31 19 20 10 34 24 21 10 10 27 23 14 21 24 3 29 13 16 21 22 3 13 13 13 16 7 16 17 19 19 13 18 17 16 10 17 10 17 20 17 6 3 14 10 17 7 9 6 3 24 24 8 12 6 9 20 0 16 6 13 10 10 19 11 16 14 9 17 6 22 13 9 10 7 16 17 20 12 6 10 27 14 9 0 0 16 21 13 20 23 17 18 12 12 17 20 16 3 11 20 10 16 10 13 19 9 13 12 3 10 12 26 16 11 9 10 13 22 12 26 20 13 21 27 7 22 15 19 6 9 10 9 21 8 10 6 17 7 17 23 10 13 6 13 16 13 10 7 13 0 6 6 16 7 6 20 19 14 27 18 10 6 14 15 14 13 20 19 17 9 9 21 7 10 17 13 28 20 22 13 23 17 17 22 16 11 14 0 17 13 14 3 7 13 41 16 6 14 20 19 13 16 6 3 12 10 13 11 24 13 18 10 14 22 16 12 17 7 6 27 14 12 7 13 9 10 14 21 3 0 9 13 13 7 17 7 23 14 9 14 26 13 17 14 7 10 13 10 23 31 23 12 20 24 13 20 20 10 10 8 20 7 23 14 10 17 13 17 13 18 13 10 24 21 19 13 33 13 35 10 23 6 9 10 27 13 3 16 10 20 17 17 18 9 11 20 17 6 3 13 20 28 16 18 10 10 16 23 15 15 24 7 24 7 13 21 7 35 7 13 7 13 6 17 16 28 9 9 13 10 28 17 6 0 14 10 16 24 10 21 6 6 13 3 10 10 17 16 27 13 19 8 10 10 6 13 20 14 13 10 10 13 3 31 13 17 17 13 10 9 14 26 3 7 23 14 14 17 16 8 12 17 6 9 7 25 16 21 0 17 3 10 20 0 10 13 21 25 17 6 14 13 23 10 16 16 4 20 14 12 14 23 17 14 15 6 17 0 10 10 18 17 16 24 14 21 3 22 20 17 9 5 9 6 10 10 9 27 13 20 12 6 6 6 17 28 10 17 17 15 9 30 6 17 9 13 21 21 13 24 22 7 20 13 15 9 17 13 20 13 13 12 20 21 7 3 10 13 13 17 10 7 13 27 15 20 9 16 20 15 17 20 34 9 16 3 9 13 10 9 3 17 10 8 10 12 13 6 14 17 20 6 23 14 20 10 10 0 19 16 12 3 14 15 20 7 27 10 10 10 16 14 19 23 10 15 16 22 23 6 13 17 3 7 17 22 20 9 24 13 3 13 10 10 12 12 20 27 3 19 14 34 15 21 9 0 3 6 10 20 21 10 20 10 9 7 20 3 6 10 23 7 13 13 3 8 24 25 11 17 10 7 3 17 23 17 3 17 3 23 23 21 6 17 17 13 14 16 0 10 8 6 10 14 13 3 13 14 3 16 12 14 20 10 27 10 15 19 21 3 0 16 17 6 20 11 22 10 27 20 10 24 6 6 14 13 23 12 6 12 14 13 10 10 6 17 17 17 7 20 26 12 20 6 20 17 13 10 8 23 20 14 18 21 13 24 0 13 17 0 27 10 10 16 16 7 13 7 6 16 14 10 10 17 3 12 20 10 21 9 13 3 17 17 17 16 17 12 12 13 9 24 9 11 31 7 23 20 9 21 16 7 7 13 6 10 20 3 14 20 17 14 17 6 23 6 10 13 16 19 15 6 10 10 17 13 23 9 13 34 17 16 23 14 6 9 6 19 10 10 14 12 40 14 3 6 18 27 6 13 7 6 13 14 9 7 15 7 16 9 22 9 20 13 20 17 10 16 17 22 1 10 14 24 14 3 13 14 11 19 12 3 16 6 17 18 14 14 6 13 7 20 13 14 10 21 30 14 0 18 16 9 0 7 15 10 7 20 17 16 17 21 6 10 3 19 14 14 6 16 10 11 10 16 9 16 20 16 13 9 13 3 0 18 7 14 9 20 23 17 10 12 10 3 23 22 16 12 24 16 13 9 22 10 10 17 16 26 27 13 13 30 6 9 12 0 13 20 0 14 13 7 9 10 17 17 17 10 17 10 14 12 23 11 0 6 24 10 13 7 20 17 16 10 13 17 15 23 20 10 3 7 3 6 14 15 7 11 25 6 12 10 21 7 14 12 7 0 27 7 13 17 14 19 20 13 10 20 3 27 12 16 48 13 27 32 24 10 20 17 22 3 9 9 20 20 24 9 0 20 17 10 10 7 7 13 14 6 17 10 9 14 16 14 10 21 23 28 10 16 17 16 13 17 10 3 10 13 14 30 21 13 10 19 10 3 13 7 10 5 24 6 10 13 18 14 13 10 16 20 14 20 7 10 23 12 24 10 16 6 23 16 17 17 14 7 12 13 6 13 14 23 14 16 17 11 13 16 19 13 10 15 21 14 30 6 17 16 14 10 6 20 17 17 6 18 17 24 17 17 14 3 13 10 23 14 8 14 8 24 24 20 13 24 3 6 10 11 20 0 13 14 6 10 14 7 18 17 19 3 6 8 30 6 11 21 16 29 15 10 16 15 7 26 9 9 16 10 17 10 12 8 23 19 20 7 7 17 10 13 16 13 13 14 6 3 14 7 10 9 3 6 9 19 18 20 7 9 14 12 20 3 13 10 14 10 17 19 10 13 10 3 14 6 20 11 24 3 13 16 10 3 10 3 10 7 7 15 28 14 13 9 13 16 11 20 10 17 17 20 16 16 10 10 10 10 14 20 20 16 6 3 17 3 10 6 14 16 19 13 6 23 0 9 23 21 17 6 24 12 13 12 7 9 10 13 8 17 10 13 9 7 25 34 10 17 17 10 16 21 20 12 14 3 17 7 10 21 3 3 10 16 17 11 7 9 10 12 9 7 14 20 21 21 9 27 14 10 17 7 5 14 10 20 13 10 21 12 37 14 17 3 23 16 10 21 10 17 32 20 19 12 10 14 16 10 17 16 15 6 15 17 6 7 13 14 20 23 13 9 15 3 13 18 17 3 16 10 10 27 18 13 18 18 17 17 16 20 7 16 19 15 16 10 0 17 23 13 3 27 10 9 11 10 15 3 23 7 3 13 13 13 16 7 24 21 12 23 3 21 6 9 13 20 15 16 13 19 6 10 7 13 14 6 25 20 17 7 12 12 16 24 17 3 16 23 9 10 13 21 19 6 10 14 24 24 13 3 14 16 18 17 6 14 12 10 20 17 6 23 17 10 19 6 3 0 3 13 12 16 23 14 15 17 17 13 15 10 6 23 13 9 10 6 13 15 3 21 13 20 13 26 13 13 7 17 3 31 30 10 13 3 27 9 9 31 17 13 10 9 14 4 7 23 13 17 3 12 9 7 15 12 22 17 10 15 19 3 3 20 19 16 7 10 16 17 14 3 20 13 24 16 10 9 13 6 20 10 7 10 16 11 3 10 21 17 9 31 24 9 10 7 23 9 18 17 7 10 10 19 23 24 3 10 13 10 16 7 20 12 10 3 3 12 17 13 7 29 16 10 16 22 20 10 10 20 10 10 20 13 6 13 27 6 6 10 10 14 12 14 6 12 6 14 16 10 12 23 0 18 6 3 7 10 14 10 9 24 19 13 15 24 3 26 3 12 13 23 5 16 15 3 10 5 21 20 16 23 24 16 10 8 24 23 19 16 12 12 16 23 9 9 17 21 20 13 12 23 14 13 13 30 20 15 3 8 13 17 13 20 17 17 10 11 12 20 23 11 3 6 9 20 15 0 24 9 20 10 17 2 25 20 20 7 10 7 16 11 6 7 20 3 16 14 6 17 16 27 0 9 13 11 8 9 18 9 24 17 16 10 22 6 13 10 9 20 9 7 21 9 18 20 13 10 13 17 7 20 14 13 13 27 17 10 13 14 13 20 6 13 20 7 17 26 17 14 10 3 28 8 17 13 10 21 3 6 10 18 16 9 17 17 10 22 17 10 6 13 6 21 24 7 3 3 10 17 13 30 13 21 17 6 13 10 17 13 14 13 13 14 14 16 20 6 0 13 13 7 24 24 20 10 16 17 10 3 0 3 20 19 10 10 13 17 17 20 17 7 8 15 13 14 11 17 9 16 17 6 17 12 12 11 12 19 29 15 14 6 3 23 18 17 17 13 11 20 14 19 13 17 14 13 16 10 17 17 6 9 16 11 17 16 10 0 13 22 23 18 14 6 16 20 16 10 17 16 11 24 34 20 15 13 11 17 7 16 17 13 16 10 7 13 12 16 16 6 17 16 3 13 15 6 7 21 3 6 9 28 10 6 23 21 9 12 18 27 3 25 9 17 13 20 3 12 21 6 0 15 3 23 18 28 9 9 14 27 14 12 17 17 17 10 3 13 13 13 19 10 3 14 17 21 8 6 14 10 9 19 17 6 3 17 3 14 15 17 10 9 16 10 9 0 17 17 10 12 17 10 16 19 7 9 3 16 19 13 10 10 20 12 21 6 17 3 14 10 10 24 12 17 10 18 10 22 10 3 10 20 10 9 21 17 6 26 21 9 11 20 9 9 10 10 6 3 17 13 19 20 11 7 13 18 27 17 9 19 20 19 25 10 10 14 13 16 16 17 13 3 21 20 15 20 13 11 9 11 17 20 19 13 17 13 13 12 16 20 20 20 14 13 18 13 13 14 23 3 17 20 27 14 10 9 14 21 12 20 23 9 7 12 23 10 7 0 20 14 13 3 20 15 14 20 17 3 30 10 6 15 13 16 21 19 16 17 16 21 14 3 13 23 6 20 14 9 11 3 13 18 3 23 14 9 13 3 21 24 9 9 17 7 17 24 14 10 28 16 3 9 13 14 21 10 12 17 9 10 10 20 7 13 20 15 17 3 0 8 10 22 7 7 15 20 7 20 14 30 10 15 23 24 27 11 24 21 6 24 17 13 30 13 11 7 17 9 20 13 13 10 6 6 3 10 7 24 6 3 8 10 13 25 6 8 17 10 7 10 19 6 12 3 10 21 6 13 9 16 10 13 8 10 9 10 6 13 17 17 20 20 17 10 21 16 16 6 7 6 21 3 6 17 7 19 20 17 27 22 13 7 7 24 14 30 10 10 21 24 10 19 19 7 16 13 20 23 6 6 3 17 3 6 16 3 21 6 20 21 13 10 18 21 9 21 20 13 13 6 13 6 10 16 18 17 27 17 10 20 20 17 13 19 20 21 10 13 14 14 6 15 20 10 3 24 20 10 7 15 16 33 14 7 12 23 10 6 19 27 10 19 3 21 6 7 13 10 23 16 27 13 13 13 13 13 10 23 9 17 10 21 10 21 13 13 16 19 7 14 0 18 8 6 11 24 27 20 21 13 24 20 17 9 20 3 11 3 16 0 6 16 11 11 3 23 31 20 20 20 3 21 6 16 17 20 3 13 10 9 13 14 13 17 13 14 6 10 12 7 14 31 13 11 20 0 27 14 10 17 13 21 17 27 16 14 21 24 10 17 3 3 6 21 19 17 3 17 6 10 10 23 17 10 0 27 6 13 16 17 19 6 10 11 14 6 12 10 19 15 13 9 17 12 10 20 24 13 17 0 14 16 7 21 15 10 10 9 23 2 21 9 3 10 17 20 9 14 20 10 16 6 6 7 6 6 6 23 17 12 35 20 21 6 10 17 17 9 23 19 24 7 6 16 14 16 21 10 9 15 20 10 20 14 7 3 20 3 9 3 13 13 17 17 24 10 18 10 20 17 16 13 3 9 10 10 33 5 27 0 23 7 13 15 9 0 9 24 10 12 20 13 9 11 14 6 20 21 9 9 10 22 21 14 17 22 17 6 20 10 23 10 9 9 12 11 15 13 20 20 7 24 3 6 6 20 3 11 27 6 12 9 38 6 13 9 30 27 6 10 9 14 10 20 10 12 10 11 9 9 6 3 14 9 9 17 14 14 20 3 16 12 14 10 6 9 5 12 17 10 23 3 7 15 19 13 17 21 17 12 16 6 24 14 14 10 13 9 7 16 13 3 13 3 20 10 8 3 17 3 23 20 13 25 18 6 31 14 19 6 11 17 14 16 6 15 7 24 35 12 13 19 15 9 19 28 20 20 9 10 13 10 16 17 12 14 13 14 0 16 13 17 14 12 14 9 11 13 12 6 26 9 14 19 24 6 20 20 6 15 14 12 19 24 12 26 15 23 10 9 3 14 17 7 21 21 10 12 14 12 17 12 23 16 16 10 20 14 29 3 11 7 13 6 17 14 17 24 9 13 10 17 12 6 15 20 7 6 14 19 16 9 20 17 10 19 10 13 21 6 14 14 16 13 24 13 18 9 7 22 3 10 6 18 16 3 10 3 20 19 13 20 10 13 6 20 6 3 16 9 20 17 9 19 31 13 21 14 10 33 10 6 10 17 27 13 9 12 9 13 12 3 30 17 23 7 9 10 23 13 3 15 14 8 13 10 6 9 13 10 11 22 17 20 14 17 24 15 13 19 19 6 9 0 19 20 0 3 7 27 27 16 13 20 10 20 3 10 10 10 14 10 10 9 10 13 13 10 3 20 13 10 6 20 33 10 10 10 13 5 9 20 20 17 23 9 23 7 21 20 23 16 9 26 27 12 24 16 13 20 3 23 20 14 7 17 28 17 6 16 10 21 0 3 10 13 10 9 7 28 3 10 19 29 6 10 24 9 19 10 6 14 28 10 10 23 25 16 6 13 20 17 20 10 10 16 10 0 10 9 16 22 3 24 21 17 23 23 16 13 14 21 12 16 24 27 9 21 30 17 13 21 15 10 24 17 13 15 7 20 20 3 3 7 16 14 7 7 16 20 40 12 14 7 6 13 19 14 0 12 13 10 10 13 10 3 13 3 28 17 19 25 19 6 20 23 17 3 16 21 19 13 12 13 13 14 14 6 10 17 21 13 12 14 17 17 9 20 17 10 3 16 14 16 26 10 13 17 27 17 9 12 31 13 17 13 12 16 16 20 7 26 13 7 16 3 10 17 19 16 14 6 9 20 30 3 6 6 9 8 24 14 12 10 16 3 13 13 13 14 10 11 10 23 14 21 6 41 14 13 20 31 17 9 12 17 10 7 3 13 11 6 6 7 20 13 17 19 26 20 41 17 21 13 20 18 17 9 14 20 31 13 10 10 9 10 21 10 6 3 13 24 14 0 19 17 17 16 16 24 17 17 7 10 16 13 6 16 13 10 12 14 23 9 14 13 13 17 12 9 9 13 13 10 13 10 20 13 9 11 21 16 10 16 14 27 3 10 6 9 3 13 3 6 3 22 16 17 14 7 16 6 10 7 0 10 13 20 27 13 16 27 23 6 7 20 9 9 12 10 24 19 16 10 3 16 17 10 14 9 20 21 17 12 19 20 10 7 16 27 34 10 9 6 13 16 17 6 10 17 13 17 10 7 24 6 17 9 10 14 9 17 14 12 19 39 21 12 20 20 7 16 13 10 9 3 30 7 10 27 10 20 9 24 23 26 18 24 18 17 17 18 31 23 12 21 10 13 14 21 19 14 13 20 24 10 13 13 17 21 13 6 20 3 0 3 27 11 14 16 20 8 9 13 14 12 6 7 10 17 16 3 20 6 26 31 6 9 28 16 26 16 12 0 15 0 3 10 14 10 17 22 20 13 19 13 24 16 9 10 3 13 17 17 14 13 10 16 24 19 22 12 16 13 11 0 29 24 13 6 25 3 20 6 6 14 10 10 14 10 0 17 10 9 16 13 13 28 23 20 18 3 7 16 10 12 23 6 6 13 7 6 18 21 7 10 6 18 16 21 23 23 7 17 17 23 14 20 21 13 13 17 16 20 24 16 10 13 13 20 31 9 13 31 13 11 6 20 16 13 3 13 3 17 20 0 15 13 23 15 20 12 16 17 13 20 21 10 10 0 23 30 9 17 3 17 9 13 13 12 16 7 10 30 15 28 13 13 20 23 9 16 24 27 10 16 16 16 30 27 13 6 10 14 19 12 16 17 19 14 28 16 6 34 3 16 11 15 22 7 12 15 8 13 19 27 13 21 6 10 19 17 23 9 17 16 16 31 20 20 7 10 9 10 9 18 13 7 17 10 18 12 20 12 17 6 21 17 11 13 7 21 24 13 25 26 16 31 6 13 16 7 3 14 17 17 17 7 19 19 7 20 10 12 24 21 13 13 17 9 10 20 31 24 17 13 16 12 19 13 3 9 17 26 10 29 7 13 12 9 13 6 0 13 10 3 0 14 10 15 27 13 14 9 6 13 20 13 9 17 13 17 13 16 24 22 13 13 20 0 20 30 16 27 21 6 9 12 0 10 14 14 7 33 14 13 6 19 27 16 6 17 17 24 27 7 13 20 14 6 16 18 7 12 13 19 12 13 15 26 14 12 10 16 17 10 14 25 13 19 15 16 6 20 10 17 16 10 3 3 10 9 21 0 23 6 13 9 7 18 19 16 13 20 21 19 10 16 10 9 16 19 10 6 16 21 10 12 6 26 17 17 16 6 10 6 14 11 13 17 11 12 17 10 30 16 13 13 6 10 23 27 6 6 12 9 10 20 10 10 22 17 10 13 17 10 17 13 16 6 7 3 13 0 17 21 9 9 20 9 12 10 24 10 13 14 3 19 28 20 17 20 9 10 13 0 16 7 14 10 13 16 10 7 7 14 10 17 6 17 22 20 6 16 10 10 10 12 7 9 16 6 17 17 16 6 3 16 17 7 10 6 13 14 24 17 26 10 12 20 10 10 9 12 27 30 9 21 6 13 20 9 14 7 3 17 14 10 13 19 12 10 7 16 19 23 17 18 9 6 11 6 7 14 14 20 6 13 9 15 10 3 13 10 3 17 16 14 9 6 9 10 16 21 7 6 14 17 14 10 14 13 9 16 12 10 15 21 20 6 9 13 10 7 10 10 9 23 10 13 9 3 16 9 13 12 13 14 24 16 17 29 35 14 10 24 3 16 6 16 7 19 17 20 8 12 36 24 21 6 10 13 16 13 6 19 13 6 10 22 10 17 6 13 9 5 17 3 7 20 17 21 6 13 13 17 27 10 13 14 10 7 24 14 16 19 24 27 9 13 31 25 37 14 27 10 30 38 13 9 20 21 14 17 17 8 3 6 14 10 13 8 19 26 3 29 9 20 20 22 10 10 20 13 23 20 36 16 6 14 27 10 21 14 10 24 21 9 24 16 6 13 17 3 9 20 3 19 16 7 15 10 3 7 10 10 10 3 11 3 10 9 16 20 6 14 26 8 28 13 10 14 18 20 16 21 12 13 10 31 8 31 10 14 17 10 9 14 10 17 20 16 24 24 13 3 3 14 13 3 3 3 9 24 6 9 13 9 3 17 14 12 13 22 14 6 10 19 9 17 15 21 10 17 24 15 6 17 10 20 28 21 23 14 20 14 0 3 8 17 3 19 22 10 9 10 6 10 17 27 17 17 17 20 20 10 19 6 20 23 3 13 18 6 7 27 27 12 9 13 31 13 10 7 9 3 14 20 12 13 27 9 22 8 26 6 6 13 0 20 13 13 20 24 6 20 26 13 14 13 23 12 20 24 20 16 20 3 10 7 12 17 27 24 20 12 3 27 35 11 0 10 7 17 17 20 9 10 14 3 22 10 7 28 20 10 7 13 16 20 7 10 9 30 35 3 17 17 20 10 7 17 30 13 20 15 16 10 12 17 10 31 13 9 27 17 17 17 16 17 17 12 17 20 17 16 13 10 7 16 9 20 10 16 10 12 18 26 14 10 17 18 17 16 13 24 6 10 24 6 13 7 3 9 11 13 27 14 14 22 14 14 10 10 22 13 10 15 24 16 14 23 17 10 19 22 14 20 10 10 17 13 19 10 10 6 18 9 13 9 12 23 13 19 25 31 13 8 13 24 10 6 24 10 0 9 6 3 13 6 27 6 10 17 20 13 30 14 17 13 3 3 21 23 10 20 3 14 10 17 14 7 17 12 3 6 14 13 23 10 13 17 21 10 9 10 24 6 9 17 13 9 20 12 6 17 14 11 13 16 17 12 10 30 20 13 13 22 0 10 8 11 9 26 14 6 14 26 21 16 10 10 20 17 12 9 7 23 30 20 0 14 13 28 20 17 24 23 20 3 16 24 10 6 17 13 23 14 27 9 17 16 3 20 27 20 14 3 9 9 0 10 19 25 3 16 7 10 6 12 7 9 25 17 14 17 7 12 10 20 23 13 16 6 7 17 14 14 14 16 6 10 13 29 6 17 14 29 30 9 14 21 23 7 20 10 16 10 10 21 9 17 7 17 9 13 15 17 17 26 0 10 16 6 9 16 14 16 18 7 22 6 24 7 27 11 9 17 9 13 23 6 14 9 19 9 15 12 10 10 16 8 24 6 16 20 15 5 19 12 13 13 12 3 19 13 17 18 25 3 10 13 9 30 34 14 12 24 6 13 7 6 10 3 17 21 17 3 9 31 7 13 13 15 21 19 10 13 17 10 24 23 12 10 13 10 17 19 3 20 3 10 14 13 12 19 16 6 17 14 19 17 16 10 21 13 10 14 18 16 11 24 17 18 15 27 23 14 6 14 10 17 20 23 19 32 12 13 13 8 6 16 10 16 17 13 16 7 17 6 10 3 17 17 18 6 13 13 24 21 24 10 3 16 10 9 7 17 15 23 17 9 7 16 13 17 10 14 12 10 13 12 6 18 13 17 24 16 21 7 20 25 3 14 10 9 14 9 14 15 7 9 31 6 20 24 9 9 9 0 18 17 0 13 8 10 17 16 10 20 19 13 6 20 14 16 16 17 11 13 14 17 16 17 17 3 14 14 21 11 21 20 0 10 9 13 20 10 13 17 20 12 22 19 27 6 13 7 10 13 22 15 10 12 20 0 11 9 15 13 14 13 3 21 6 13 10 6 24 12 13 10 13 9 12 10 20 20 10 13 24 37 3 20 9 10 24 13 7 9 13 19 31 13 9 31 13 13 24 13 17 13 10 10 10 22 12 20 16 17 21 20 9 27 3 13 20 36 9 12 14 13 17 10 17 16 3 3 24 20 9 0 29 15 10 14 0 16 10 20 21 15 15 20 9 20 10 13 21 10 6 20 12 17 30 7 13 31 10 6 7 7 20 20 10 6 24 9 6 20 7 17 3 12 21 9 13 16 3 27 20 3 20 6 17 24 10 21 16 9 12 16 3 14 12 6 13 9 3 18 21 3 8 14 9 10 8 20 7 27 20 7 17 28 17 13 13 6 13 0 17 7 11 17 0 23 27 8 7 13 20 17 21 0 6 13 10 17 28 6 6 13 6 23 17 16 6 17 13 6 16 13 0 6 17 14 13 6 21 13 13 20 26 17 3 10 7 10 13 7 17 19 6 13 15 14 10 7 6 14 22 6 7 34 16 7 20 6 0 3 9 17 23 12 3 11 14 12 13 20 14 19 17 20 0 9 26 14 0 15 7 28 10 3 14 9 3 22 17 29 13 13 12 24 10 13 7 8 20 10 6 27 16 13 6 24 20 14 23 6 13 20 30 31 3 7 22 17 7 10 10 0 10 13 19 3 29 10 10 10 17 17 21 9 10 6 20 22 0 13 23 20 3 12 9 17 13 20 14 10 17 17 16 6 27 10 7 7 10 25 10 17 17 7 17 19 24 23 13 3 17 17 13 7 9 15 3 24 14 3 13 20 17 14 7 7 16 20 0 21 15 13 3 3 23 20 13 12 13 16 9 13 23 25 20 14 25 7 13 17 16 23 19 20 21 14 16 23 17 10 17 0 17 21 17 18 10 13 20 6 14 13 13 17 17 17 9 13 12 13 17 7 6 30 13 10 13 14 14 19 13 13 13 18 7 11 21 10 19 9 5 6 7 21 17 6 19 13 6 9 17 9 15 24 12 24 17 16 10 10 17 14 17 17 28 10 9 7 31 14 17 17 13 20 3 13 11 24 17 15 9 9 16 17 20 16 6 37 17 14 14 17 16 3 6 10 13 12 17 3 10 6 13 3 0 10 13 18 14 12 7 20 23 3 13 11 23 7 13 24 11 23 10 17 24 6 20 7 3 23 6 9 3 10 9 17 16 10 16 10 3 10 20 14 28 24 9 13 10 15 17 6 24 13 16 16 13 41 6 7 23 17 17 17 16 0 12 20 6 16 11 17 6 16 9 3 6 16 20 10 33 13 3 13 13 14 3 23 18 17 13 16 9 10 3 3 23 28 14 22 10 17 10 6 23 9 14 17 17 10 23 7 29 6 16 13 20 17 13 12 27 19 31 16 26 16 13 13 11 13 10 13 3 23 17 10 22 11 16 16 10 10 30 10 10 24 6 13 14 11 23 23 13 18 14 20 13 21 10 10 10 20 13 14 17 11 13 11 20 14 16 13 13 3 20 17 3 14 0 17 6 17 12 31 6 20 20 13 6 20 22 30 12 13 20 16 24 10 16 16 10 20 26 24 10 14 3 24 13 23 17 10 0 24 23 17 14 20 8 22 16 7 6 7 7 0 13 14 8 14 17 27 15 16 10 16 22 19 20 6 24 27 0 21 16 3 27 14 29 16 10 13 27 13 10 20 27 6 0 18 20 16 13 23 13 17 10 19 9 20 10 19 7 17 14 14 7 20 20 13 13 22 20 10 10 20 30 6 7 3 10 10 17 12 3 17 3 34 6 27 24 12 6 3 21 17 13 34 7 13 22 27 9 13 7 11 10 16 13 13 10 20 24 26 17 13 10 6 13 10 3 13 24 17 10 9 7 10 10 24 13 0 13 17 13 20 17 20 20 3 17 3 21 16 10 14 21 21 13 23 16 21 0 13 30 20 13 24 10 12 13 3 10 13 20 13 14 13 3 24 10 9 10 20 13 10 23 19 27 23 13 6 16 7 12 16 21 12 17 34 14 21 17 25 22 3 6 17 16 7 9 13 24 7 14 21 19 20 20 17 14 23 19 20 6 9 13 0 13 3 24 25 19 6 18 3 13 10 24 6 17 10 0 28 6 10 27 14 16 6 14 20 16 17 14 17 23 16 19 10 7 6 14 13 20 23 37 4 10 27 24 10 24 6 12 9 19 16 17 13 12 20 13 0 10 27 8 16 13 17 18 10 14 7 20 8 21 16 16 20 14 13 7 14 18 15 6 6 9 21 10 9 19 9 20 10 20 14 7 19 6 6 13 14 13 12 24 7 16 13 23 21 17 13 23 23 14 0 20 23 13 10 17 16 0 8 10 15 12 20 27 13 24 13 6 10 8 6 17 20 10 24 13 10 17 15 6 14 3 6 13 7 16 10 16 34 12 7 24 6 13 17 13 20 7 29 10 25 6 7 7 23 3 12 6 21 24 17 13 20 19 14 10 14 10 9 13 20 27 16 20 20 13 10 16 17 6 6 30 6 6 30 20 20 10 24 12 41 3 17 10 10 20 6 23 24 30 7 17 6 12 7 9 11 3 6 12 6 23 16 10 20 17 17 14 12 6 3 9 13 11 31 6 10 6 13 17 18 7 10 10 31 23 11 16 22 6 13 6 27 13 20 17 17 11 9 15 17 11 9 17 10 13 15 9 17 13 9 23 22 23 13 10 21 14 23 27 6 34 17 10 3 10 12 6 17 14 3 3 12 16 12 10 16 0 17 20 27 12 17 13 27 17 24 20 6 13 6 21 13 14 23 17 14 12 13 10 3 17 16 18 7 9 10 7 16 14 27 28 10 7 7 14 11 10 21 15 9 8 3 10 14 7 23 16 21 17 17 9 3 15 12 6 20 28 14 29 10 20 14 10 17 16 20 13 20 17 20 17 9 9 27 13 17 14 12 13 13 16 17 15 24 13 9 17 6 8 23 17 9 10 13 7 21 38 3 17 17 13 3 19 17 3 20 16 13 3 14 16 7 20 13 19 16 13 23 17 9 10 17 24 17 20 21 12 7 20 24 16 13 24 20 10 23 0 3 6 15 7 14 10 10 13 23 16 21 35 9 27 20 23 19 20 23 10 10 17 0 25 7 20 13 10 3 9 20 20 21 7 18 3 10 13 10 20 11 17 15 14 24 13 12 6 14 3 9 16 17 10 13 27 3 14 13 13 10 7 24 20 6 9 13 8 16 17 17 19 21 0 14 13 20 13 10 6 10 13 20 13 16 7 24 6 18 7 13 24 14 6 3 10 16 17 15 30 19 20 30 10 11 26 10 7 21 14 21 3 16 7 13 21 13 3 14 13 16 6 19 14 19 16 13 12 17 12 14 6 14 17 16 17 21 3 15 10 17 3 6 6 10 0 10 13 17 10 24 10 20 14 9 9 17 31 17 8 13 3 27 6 17 14 21 17 20 6 6 17 22 20 23 17 10 22 16 13 16 9 9 26 16 16 6 24 13 6 9 10 8 10 21 0 16 21 15 13 3 26 14 9 10 22 17 19 13 14 10 13 3 9 15 15 18 10 23 10 16 13 3 16 6 9 8 17 24 14 13 20 23 10 17 13 20 7 10 6 6 24 17 21 7 11 12 21 21 8 17 6 17 3 14 13 7 7 22 9 7 15 6 17 10 17 11 23 15 16 6 4 15 16 17 10 17 17 3 15 17 24 13 7 13 23 17 20 12 13 13 17 18 0 10 10 14 30 3 12 10 7 16 23 9 20 7 3 16 9 31 13 20 16 20 19 17 17 15 13 6 23 13 21 13 14 7 14 24 0 10 16 22 13 9 13 14 20 17 17 27 16 13 16 12 17 17 7 20 14 25 14 14 20 16 18 3 13 10 10 17 16 14 16 14 9 7 17 9 8 16 19 6 10 3 20 21 3 17 7 10 14 13 13 21 13 14 16 16 10 10 13 22 14 6 20 17 10 13 13 3 16 10 17 6 7 23 14 19 17 15 17 16 7 9 13 21 20 19 7 16 17 6 3 21 16 9 20 6 17 23 17 10 20 23 18 3 13 17 6 0 19 13 6 13 14 6 3 20 13 6 13 20 9 23 24 6 20 10 9 17 14 6 12 20 10 3 14 7 3 17 17 20 9 17 26 22 16 0 10 13 10 30 14 23 23 10 26 13 14 20 9 17 15 31 17 20 13 9 10 6 22 24 13 6 13 3 16 3 7 20 10 12 14 14 33 17 10 16 17 19 17 13 12 17 14 10 20 27 13 3 20 14 9 7 12 21 6 7 14 16 11 10 28 0 9 10 18 20 9 34 10 13 21 6 17 20 16 17 12 9 24 13 10 12 12 9 12 3 17 13 10 12 16 19 20 13 23 9 3 31 23 3 14 12 3 21 6 16 14 14 25 10 17 14 28 6 23 13 17 11 21 20 10 20 10 16 16 20 23 17 20 13 13 17 10 13 13 13 7 24 20 16 19 16 9 18 13 14 10 16 28 23 17 12 0 13 17 11 17 20 11 11 10 10 17 2 10 16 15 8 21 19 3 19 16 10 6 17 3 12 13 3 13 16 21 14 14 17 16 10 17 17 20 15 17 6 9 6 23 9 17 6 9 16 3 17 12 13 6 17 13 26 17 3 6 13 16 3 17 14 10 14 7 15 21 15 18 6 10 14 23 10 10 14 14 9 13 9 10 6 17 24 24 21 19 16 3 12 13 20 23 9 11 13 22 14 21 28 3 3 9 21 14 11 20 20 27 19 6 7 16 3 6 13 13 14 20 10 13 25 21 9 13 16 10 14 15 27 9 20 13 14 7 3 10 10 14 9 16 13 23 10 10 13 7 3 13 17 30 6 13 10 10 22 23 19 13 14 12 28 14 3 12 14 27 13 33 19 13 24 21 17 17 17 24 7 26 3 14 20 0 14 17 21 12 23 3 16 17 10 16 13 21 13 16 13 12 24 6 6 13 22 0 26 0 15 17 20 27 20 6 13 16 16 17 11 24 6 20 10 24 20 17 15 18 3 17 2 0 10 27 24 27 23 17 23 21 20 6 3 17 9 16 28 9 27 6 13 10 24 19 23 16 20 10 24 9 12 13 3 3 13 16 8 11 9 13 13 10 3 12 14 6 10 9 20 10 3 17 19 8 14 6 20 12 6 9 3 12 14 16 8 14 18 6 20 23 17 6 17 10 15 10 13 3 27 16 13 0 16 16 13 13 19 7 20 16 23 12 10 26 27 21 3 16 10 3 23 6 23 13 20 21 20 3 14 22 10 10 13 19 3 0 10 6 3 10 3 24 10 23 13 26 9 13 17 14 9 10 13 23 6 15 25 13 13 28 13 7 14 13 11 9 20 21 10 17 0 20 28 16 10 17 13 14 0 9 27 8 16 6 16 0 13 30 10 23 45 21 21 6 27 3 27 13 17 24 6 14 17 17 10 20 14 9 6 10 23 27 19 10 9 17 6 10 20 31 16 20 17 14 10 20 7 14 6 20 13 13 3 3 16 19 7 11 12 17 17 23 17 10 19 10 13 6 6 17 20 0 3 6 7 26 21 20 27 13 13 3 7 27 16 13 21 21 7 17 17 7 21 12 19 3 21 26 21 24 8 23 10 25 13 10 27 20 20 20 13 7 10 20 0 21 10 28 7 14 6 13 26 11 17 13 16 28 9 19 3 13 24 10 14 6 13 20 26 17 3 21 10 21 13 17 20 12 16 25 27 6 10 17 3 17 6 14 23 27 20 21 19 14 16 3 14 10 3 28 10 7 13 20 10 8 20 20 27 16 13 18 16 10 9 16 12 24 31 15 6 9 0 20 10 17 13 27 13 27 24 13 12 13 18 14 16 13 21 14 15 23 6 6 20 13 14 3 13 37 6 17 18 8 10 16 18 10 10 0 6 27 17 9 21 30 20 10 10 9 7 13 9 17 21 6 14 10 3 16 15 17 13 9 7 24 7 10 13 9 6 11 8 10 26 17 17 9 7 14 7 31 13 0 10 16 15 3 6 13 17 9 19 16 24 16 3 6 17 10 10 3 17 6 27 16 13 20 6 3 16 16 13 6 13 16 6 15 17 24 13 10 13 3 10 14 9 30 22 23 14 27 16 20 17 7 11 11 13 10 20 13 10 17 13 14 10 20 27 10 13 13 10 11 10 6 6 17 17 17 7 24 24 13 14 3 13 16 31 10 14 14 10 15 3 7 16 9 13 11 3 24 3 3 20 12 10 16 13 7 9 27 20 13 0 13 10 17 3 13 30 20 9 17 14 20 11 6 14 13 30 3 22 20 12 10 13 17 17 16 30 9 3 14 13 22 6 12 16 20 9 24 20 20 16 13 19 18 9 10 14 22 21 21 13 27 7 20 7 19 10 7 3 23 20 16 10 9 16 10 16 16 10 9 13 16 9 10 14 14 9 20 11 17 7 16 20 22 17 19 3 20 20 17 9 13 20 7 0 10 21 16 24 17 6 14 9 16 6 21 23 23 6 9 17 14 17 10 17 16 23 9 28 3 13 14 21 21 20 24 10 25 14 27 13 14 3 14 16 17 16 20 7 0 28 17 17 13 13 6 17 10 23 6 31 3 17 13 12 23 6 13 19 20 30 19 7 14 13 7 17 9 21 23 0 12 6 13 16 11 13 18 20 23 14 24 6 6 9 6 14 6 0 13 10 10 13 13 7 7 10 7 11 17 17 23 20 15 19 10 14 23 6 10 14 20 14 21 7 3 17 6 6 14 9 3 17 6 13 13 31 19 7 16 19 13 10 3 13 14 17 19 27 9 13 12 14 14 11 9 20 16 13 6 12 24 7 18 16 10 3 3 11 10 6 13 26 15 10 13 3 24 12 23 20 7 14 20 6 10 20 6 33 15 29 11 9 17 19 17 14 3 3 9 10 26 13 9 17 10 31 14 14 16 27 20 6 20 20 10 10 17 14 10 9 0 10 12 16 10 20 10 14 3 16 17 17 26 20 20 16 6 6 16 7 22 16 16 9 16 10 16 21 16 20 21 3 27 10 13 0 23 17 19 3 6 13 10 7 10 20 16 10 0 17 11 0 20 20 36 3 3 16 13 17 9 11 20 23 10 17 24 7 6 14 13 3 3 23 10 19 9 20 7 6 14 17 7 16 14 9 17 6 23 18 10 13 27 31 13 6 16 3 23 3 2 16 14 13 23 12 13 16 9 6 10 7 22 7 0 17 10 14 16 17 10 28 17 20 15 20 7 6 26 17 16 13 15 16 16 13 10 10 19 23 17 7 16 6 19 24 14 10 22 13</t>
-  </si>
-  <si>
-    <t>JSB(20.528128097488413, 14.988460280137943, -62.554802549535125, 431.788035939156)</t>
-  </si>
-  <si>
-    <t>18 28 28 22 17 23 29 27 29 29 20 24 23 34 29 30 33 26 31 25 20 30 28 22 19 24 19 24 22 21 26 24 28 21 28 28 32 33 26 37 31 30 20 25 20 22 20 30 25 23 28 16 19 28 26 18 27 23 27 24 31 25 19 23 27 31 19 24 21 20 25 18 26 29 27 17 21 18 30 18 19 19 32 27 26 23 25 32 22 25 26 26 21 22 23 21 29 22 23 23 16 23 30 34 29 24 23 27 31 15 20 25 27 23 27 27 27 22 27 20 22 28 24 25 25 22 23 22 23 22 32 21 28 18 30 20 27 24 21 24 33 20 19 23 27 19 25 24 30 27 34 19 28 26 26 18 22 19 26 20 24 25 29 22 20 15 33 20 28 40 30 25 22 22 20 26 23 22 28 20 34 30 25 18 22 30 22 29 21 25 24 27 25 29 26 22 28 34 25 29 35 17 22 27 27 21 19 32 19 20 29 38 17 22 25 21 23 25 29 20 23 15 25 24 21 27 31 23 23 23 27 18 25 29 26 29 22 26 26 22 24 19 21 25 24 33 25 26 22 21 25 18 31 32 29 22 28 30 31 24 27 22 31 27 26 25 32 20 19 19 22 22 20 30 26 23 23 26 16 35 26 23 17 25 29 25 28 22 31 29 32 23 26 21 20 22 25 29 29 30 17 39 28 27 23 17 24 20 19 29 21 23 32 22 19 28 38 20 25 23 21 24 18 18 26 29 25 20 17 28 27 31 27 30 27 34 23 28 27 30 17 20 20 20 26 29 27 16 25 26 38 24 23 15 23 30 25 22 28 22 25 21 25 29 22 25 24 25 30 20 26 17 23 23 27 30 23 20 25 24 22 24 29 22 21 23 26 24 22 25 26 27 25 27 27 27 23 25 21 32 28 20 21 18 20 25 26 28 26 23 25 31 24 27 31 24 27 23 26 29 25 20 32 21 24 32 29 22 26 21 22 20 28 23 20 28 32 31 30 22 29 21 21 37 27 25 23 12 29 29 26 25 15 32 28 20 29 17 24 19 20 22 20 20 26 32 23 30 30 34 26 24 32 26 19 28 21 30 17 23 31 29 14 29 15 30 23 28 32 25 21 31 20 26 18 23 27 30 24 22 21 27 23 27 26 28 29 20 29 24 25 19 29 25 29 26 20 29 19 33 26 21 26 21 24 25 30 32 25 29 25 28 18 27 25 28 29 26 26 20 26 24 21 28 24 19 22 19 30 29 24 21 24 29 22 32 26 18 22 25 32 25 25 23 19 15 26 28 17 28 33 22 32 25 22 24 29 25 35 19 24 18 25 25 22 29 27 30 22 23 30 21 21 32 22 22 24 24 35 30 15 25 26 30 31 23 22 22 33 22 24 23 29 30 38 21 31 31 26 27 21 21 23 21 29 24 22 29 26 22 22 19 25 20 28 26 27 21 32 34 13 27 25 23 28 26 21 22 18 26 22 23 32 18 33 31 28 29 19 21 24 32 24 26 24 26 30 29 25 39 24 19 28 26 35 29 20 24 26 25 17 17 27 26 27 28 34 29 30 27 21 29 30 29 27 23 24 23 30 26 29 24 20 29 17 32 28 25 21 18 18 23 24 29 24 23 17 31 26 17 29 18 21 21 30 32 16 28 24 17 20 22 28 23 20 22 27 28 29 31 31 22 26 19 21 28 28 16 25 24 20 26 25 18 28 31 23 32 28 28 24 24 38 28 19 30 23 28 34 26 26 30 27 24 16 27 23 21 20 34 18 29 28 29 28 25 27 23 20 25 14 19 26 24 25 23 16 21 24 26 23 24 27 27 26 26 25 27 31 26 23 26 18 33 17 26 25 24 15 30 18 18 18 26 17 38 21 20 27 25 34 23 16 23 29 25 20 25 34 21 27 17 27 27 20 27 23 25 27 20 29 23 17 23 19 25 25 27 30 19 30 32 28 18 21 32 24 25 23 23 29 29 23 26 18 22 17 25 26 31 24 22 27 32 32 21 29 25 22 27 23 19 27 27 24 26 22 26 27 29 22 18 23 28 28 25 20 26 19 24 24 33 24 26 21 29 21 24 33 36 18 23 21 25 18 34 20 28 21 24 20 20 25 23 10 22 26 36 35 30 25 19 25 17 23 27 21 31 16 31 26 25 25 31 27 31 19 22 31 27 30 25 21 28 19 30 28 24 22 28 22 22 17 36 29 31 28 26 30 26 20 20 28 30 22 27 28 19 34 26 27 18 24 30 33 29 24 14 25 26 29 30 27 22 24 20 27 25 22 27 29 23 30 32 25 21 25 28 23 19 27 17 19 29 22 27 21 25 27 24 18 26 24 20 36 31 21 26 21 29 28 27 18 28 17 28 24 33 21 30 20 27 23 23 19 31 19 17 28 25 24 19 26 27 28 26 30 29 17 31 24 25 25 21 20 24 28 33 23 25 28 34 30 13 23 21 17 21 19 22 24 36 18 22 19 23 20 27 33 27 28 24 23 24 25 23 19 27 20 19 23 30 23 32 32 18 24 25 25 32 23 27 32 23 29 23 23 26 28 23 26 21 20 23 16 28 22 21 17 22 30 27 25 17 26 27 29 24 31 25 25 27 28 25 29 30 24 20 22 28 26 22 28 33 22 22 31 29 23 27 24 25 24 25 31 24 22 20 25 26 37 29 22 25 26 32 23 25 22 27 33 26 25 30 23 20 28 25 34 30 30 17 25 20 15 24 27 28 18 25 20 19 23 20 23 26 20 30 27 25 29 27 14 32 24 24 19 25 26 17 23 32 32 19 25 33 37 8 24 28 32 29 20 28 19 26 30 25 20 22 19 23 34 33 29 27 17 29 28 24 20 23 23 31 24 35 18 28 17 20 19 24 22 23 27 29 29 25 24 18 20 23 28 26 31 24 25 18 23 22 25 23 27 30 29 14 21 30 28 22 24 20 27 30 22 27 27 23 24 19 24 25 24 23 22 17 22 23 18 27 25 25 25 27 25 30 24 28 24 28 28 22 20 20 29 23 26 30 27 20 23 28 24 27 31 28 26 21 22 29 29 24 18 31 22 16 32 29 22 23 30 32 34 27 14 20 34 30 32 26 32 31 20 27 28 21 23 26 20 22 26 20 23 30 23 26 20 29 26 24 17 22 23 32 23 15 26 28 25 28 23 23 30 31 26 36 26 30 28 23 30 22 20 24 25 20 28 29 30 24 21 22 26 21 34 25 24 36 32 23 29 30 24 29 30 19 23 28 18 29 22 28 16 20 23 18 29 28 23 21 22 27 25 32 27 23 21 21 22 31 29 22 30 32 24 23 26 26 30 16 19 28 22 23 25 30 19 19 31 20 21 16 24 26 33 26 28 24 29 27 19 22 22 17 22 29 24 27 25 17 25 32 30 16 28 28 25 22 19 36 29 25 32 22 24 23 23 35 20 16 20 33 20 26 30 26 27 30 23 23 24 29 28 33 27 15 24 24 29 37 19 20 22 30 17 25 23 23 20 24 26 16 23 20 33 29 38 27 31 25 23 33 28 25 32 25 20 21 25 29 26 23 28 32 25 30 20 29 29 25 28 21 28 25 27 19 40 16 25 22 31 26 27 27 28 26 21 29 28 29 30 27 34 29 26 19 22 23 25 16 23 22 29 21 30 36 23 30 30 28 23 27 25 23 34 22 22 8 21 28 22 33 23 32 28 30 28 22 24 28 30 24 29 22 24 29 28 27 23 18 37 24 19 24 26 29 30 17 24 34 26 25 28 20 31 19 17 22 28 27 26 21 19 15 29 24 27 32 27 20 22 14 14 27 22 18 23 18 27 27 21 32 19 29 28 27 28 27 26 27 23 27 26 18 27 29 35 26 24 20 22 23 26 34 28 19 20 14 26 26 23 31 20 27 17 40 22 31 20 30 26 26 29 20 24 16 28 25 27 25 29 23 22 22 24 21 20 18 23 31 39 33 28 22 28 25 24 21 30 27 25 22 22 23 18 24 29 19 28 22 18 25 17 31 24 19 28 22 24 31 24 25 25 20 34 28 27 21 19 24 25 19 28 27 21 31 19 24 22 26 26 29 15 17 18 27 23 36 16 20 16 22 29 22 25 24 24 28 20 22 22 24 17 19 20 28 29 21 29 31 28 25 19 19 29 22 25 20 26 27 24 35 25 28 21 30 30 30 25 31 29 33 30 17 29 27 31 28 32 23 26 37 27 25 26 32 24 28 24 24 26 24 19 22 32 27 30 19 26 22 23 18 27 34 23 31 27 27 25 18 23 27 21 21 29 25 24 19 27 24 29 19 24 26 18 27 19 33 38 16 27 24 26 25 30 28 28 23 14 27 27 36 22 23 23 25 30 30 31 27 25 21 22 26 25 20 32 22 25 27 16 26 13 21 19 22 29 21 30 24 22 19 26 32 22 27 31 31 27 28 20 21 31 29 21 27 23 28 21 23 20 27 32 31 19 24 36 26 25 21 31 31 22 20 23 29 24 23 25 32 17 27 32 23 27 29 13 23 24 24 32 23 24 23 20 25 23 22 21 26 33 29 31 29 26 31 25 22 31 26 27 27 25 36 35 26 24 32 16 24 23 24 11 22 25 30 20 23 31 23 19 13 26 29 24 25 22 21 29 18 22 22 20 20 24 26 30 27 30 16 29 23 24 28 28 22 22 22 20 25 17 32 26 28 24 27 25 23 24 25 29 18 28 21 23 29 21 31 30 24 31 35 24 30 21 25 25 24 23 29 21 29 18 24 22 17 21 32 28 24 23 24 28 16 27 19 25 22 30 23 22 33 25 26 33 21 31 19 25 26 23 34 29 27 22 24 20 26 26 22 20 23 25 18 29 24 24 23 25 22 21 36 26 31 33 21 29 26 25 27 34 29 26 20 27 27 22 18 24 20 35 24 27 31 27 28 36 23 29 24 27 32 32 31 35 17 16 21 21 24 24 26 24 24 19 19 19 19 25 22 25 17 28 31 25 15 30 19 17 21 25 25 29 28 36 26 33 31 29 23 28 23 25 23 30 33 22 28 30 31 28 29 29 21 21 17 19 22 27 30 18 23 26 26 27 19 22 21 22 28 20 26 33 27 37 31 23 25 27 31 27 29 27 27 24 29 22 25 27 21 18 23 23 24 22 32 26 32 24 34 22 18 26 21 22 21 28 25 34 22 16 25 17 33 19 19 24 29 23 27 30 26 16 24 29 19 30 25 22 21 29 31 23 25 21 26 16 25 23 22 27 25 24 29 27 24 33 31 26 25 23 30 26 29 27 29 25 26 24 22 21 27 30 32 18 28 22 23 31 26 30 30 27 20 29 22 21 27 26 22 21 23 28 26 25 30 20 23 33 23 26 23 24 44 26 30 23 21 25 20 24 20 30 28 23 27 25 27 23 22 19 20 21 28 23 26 27 22 22 21 23 27 26 28 29 31 22 21 29 23 28 23 21 32 19 22 27 20 26 23 27 29 32 16 22 15 24 33 27 26 22 20 23 21 23 33 29 28 22 26 35 18 27 25 29 28 28 16 22 26 20 25 30 28 24 24 21 28 27 29 23 27 27 21 32 25 26 16 31 26 25 28 19 33 27 29 24 23 24 26 24 29 22 21 32 24 24 33 24 23 29 23 25 15 27 32 32 20 36 25 24 18 24 17 28 20 22 21 25 25 26 20 27 32 25 24 23 26 19 16 31 27 28 26 21 28 30 25 30 22 33 30 27 29 23 28 21 32 27 23 26 22 17 24 20 19 29 18 33 26 16 36 32 16 23 29 28 26 29 23 21 28 26 27 23 27 14 21 17 29 28 30 25 32 14 24 25 25 20 26 28 25 20 34 15 26 23 22 15 26 32 23 27 19 30 23 24 18 24 26 26 21 19 28 26 15 20 27 28 24 17 19 25 18 34 28 27 20 27 19 22 28 34 27 19 24 29 26 27 31 29 31 28 25 24 27 31 20 25 14 22 18 21 26 23 26 24 33 21 34 24 27 21 29 26 19 27 25 23 29 26 28 27 23 34 22 25 18 23 25 18 22 23 16 32 21 36 21 27 20 25 25 24 25 19 28 17 27 23 23 28 11 31 28 36 31 31 18 14 28 31 31 22 17 16 27 25 21 23 30 31 21 26 21 37 30 29 28 22 20 26 29 20 23 31 29 24 28 24 22 25 21 21 30 26 19 25 29 39 27 21 22 22 24 23 27 27 24 23 34 19 19 28 28 26 26 25 19 26 25 23 19 21 27 17 27 24 21 27 32 32 19 22 19 19 25 22 25 30 27 35 35 21 22 24 22 28 28 20 17 23 29 23 25 16 32 22 28 23 27 26 23 23 30 23 27 28 29 22 19 20 21 19 20 25 21 25 25 25 25 22 19 39 14 22 27 26 20 18 25 20 32 18 18 21 20 25 24 30 26 29 30 26 19 23 29 23 30 26 17 28 21 21 26 26 25 28 25 40 27 28 19 26 24 21 30 20 34 23 31 24 30 24 26 25 25 31 18 27 23 20 27 28 19 33 27 29 28 22 29 24 28 23 26 30 20 24 27 31 32 26 27 20 28 28 17 21 21 32 26 26 23 28 24 36 31 27 29 29 27 26 25 22 25 23 28 28 21 31 26 33 32 27 23 25 29 26 18 21 20 27 26 31 22 21 22 22 27 33 24 31 26 26 21 35 15 21 25 20 22 25 28 29 27 24 23 29 21 21 23 21 26 19 21 21 26 24 28 19 21 28 21 23 26 23 18 25 18 22 20 27 21 19 27 29 26 28 25 14 34 28 24 24 24 27 35 23 34 23 25 33 30 17 30 22 27 19 28 26 26 31 29 26 22 27 24 25 23 24 27 27 18 26 23 27 20 22 25 28 37 16 24 27 32 28 24 29 15 28 24 28 41 23 29 19 28 31 29 32 24 32 30 34 30 29 27 27 20 14 22 30 17 26 25 22 28 19 23 25 23 30 26 26 25 30 21 22 23 18 26 23 30 29 27 27 24 31 29 25 19 24 18 17 26 20 32 25 22 28 23 20 20 20 19 26 22 17 19 30 28 32 33 22 23 20 17 23 23 22 17 26 25 23 28 18 23 22 23 25 24 19 20 26 17 26 26 28 25 22 21 14 29 26 27 25 22 29 29 24 19 16 25 23 24 24 30 23 17 23 25 28 29 27 23 22 30 20 23 27 23 17 17 26 40 31 34 25 28 19 22 31 33 19 25 18 20 36 31 22 19 25 17 31 24 21 25 29 26 27 29 23 23 32 27 30 30 20 20 24 29 22 35 27 28 17 21 20 37 22 28 20 20 30 23 21 24 27 20 30 23 21 20 18 27 18 25 13 24 26 25 24 29 25 26 33 24 23 20 30 24 29 30 18 25 33 20 30 28 32 21 31 29 29 20 28 26 31 23 30 22 24 24 28 28 17 24 24 21 27 38 29 20 26 22 26 28 29 25 27 28 25 29 25 21 18 27 20 22 23 27 28 29 22 21 27 34 20 28 24 20 16 17 32 19 23 19 18 25 27 32 22 32 21 39 32 20 24 20 25 25 27 24 25 32 29 26 31 26 25 16 25 35 31 26 26 21 29 32 27 21 28 23 31 27 24 25 22 22 32 18 27 23 26 25 23 32 27 26 21 22 30 27 25 31 31 30 32 35 27 16 32 27 23 29 26 22 29 23 27 29 22 28 27 21 17 29 17 23 33 30 24 30 23 27 23 28 21 33 28 23 24 19 19 28 30 15 31 25 27 31 30 33 28 23 25 24 20 25 23 23 28 31 27 25 23 31 20 21 32 18 30 31 22 22 34 31 25 22 22 32 23 27 23 28 27 29 23 26 30 23 23 28 21 23 28 21 30 25 24 25 28 23 23 30 19 28 19 25 23 25 30 30 20 24 24 27 27 31 24 23 20 26 20 20 27 29 23 27 23 27 25 25 21 26 23 27 25 25 21 18 21 24 26 18 29 22 22 28 36 36 29 22 28 29 25 28 16 26 27 21 29 22 27 28 24 27 21 24 21 29 25 15 32 25 26 24 35 29 15 25 17 24 28 28 25 17 18 26 23 23 23 25 24 24 29 27 19 27 19 25 23 15 24 33 32 37 27 24 22 26 22 23 29 33 31 21 33 27 32 23 18 25 20 22 24 26 22 29 21 17 31 24 36 34 22 23 25 19 34 23 31 24 30 23 27 18 26 31 21 28 29 22 29 26 19 21 35 20 24 29 24 24 28 35 18 28 26 21 24 18 17 21 21 25 30 24 37 21 32 26 27 30 23 26 32 24 31 27 25 27 31 31 30 21 24 28 28 25 24 22 24 26 26 24 19 21 20 18 31 26 29 24 20 15 30 22 28 14 23 35 18 18 17 22 28 14 18 23 30 21 31 20 27 28 30 35 29 30 25 25 27 14 20 28 26 27 26 21 26 19 23 32 20 26 32 21 22 25 24 25 11 26 26 22 20 25 21 31 26 14 27 17 16 25 28 22 22 21 30 29 26 25 25 25 26 31 19 18 19 24 27 20 22 27 24 21 14 26 23 29 33 23 28 22 20 21 23 23 22 22 22 20 22 23 25 19 26 24 20 27 24 25 23 22 20 35 25 22 25 15 30 18 31 27 31 28 22 27 20 22 25 25 26 24 25 24 27 24 24 22 27 22 25 21 26 29 32 21 26 27 20 22 25 36 21 21 31 31 25 26 27 23 34 25 27 21 34 31 22 27 26 27 22 31 22 22 24 28 23 19 25 25 22 25 20 34 30 39 19 25 23 27 24 25 30 23 24 31 20 22 23 18 23 18 23 32 29 27 22 28 26 18 24 25 19 27 21 34 19 26 30 25 23 26 24 26 22 26 33 23 22 17 23 26 28 29 25 16 22 27 23 26 21 23 22 30 31 34 33 19 19 21 19 24 20 29 29 24 20 28 22 26 21 20 25 15 30 23 20 23 26 25 26 32 30 22 26 27 25 25 33 23 24 32 20 27 22 22 34 26 32 25 31 26 35 23 24 25 29 24 22 23 27 27 29 31 29 26 15 29 26 24 29 25 27 25 25 30 27 22 32 26 25 28 20 25 28 32 24 28 20 18 32 24 27 19 22 19 29 27 31 29 27 26 24 25 30 18 23 21 35 22 27 12 25 28 17 29 23 22 29 14 30 23 24 20 24 23 25 26 31 24 20 30 23 31 24 28 22 19 26 25 26 23 27 26 31 25 31 25 25 24 27 26 22 27 20 24 23 23 28 22 22 21 20 21 21 27 23 24 24 25 30 27 23 26 26 30 20 25 26 28 19 23 25 30 26 29 22 28 21 32 34 28 26 30 27 26 28 31 32 32 24 23 34 14 28 21 21 27 22 24 28 28 26 28 29 25 22 17 19 19 22 19 22 26 17 25 30 31 32 31 29 24 22 18 20 28 24 19 27 25 27 32 27 27 24 26 15 28 31 23 20 27 23 27 33 19 21 28 24 22 22 23 26 27 19 23 25 27 29 29 22 32 23 21 20 35 24 21 21 24 25 21 29 23 27 26 32 24 30 22 22 22 21 24 29 28 24 21 36 23 23 22 33 25 27 37 27 26 27 24 26 29 18 22 23 22 22 21 23 25 20 27 16 32 28 30 16 18 25 27 23 35 30 22 14 29 19 16 22 31 28 34 26 25 27 28 20 26 27 29 22 34 23 31 28 24 30 25 32 26 25 33 24 26 24 26 23 27 23 27 25 22 22 35 29 21 27 27 21 24 26 26 25 21 27 24 28 24 25 34 29 28 25 22 26 24 27 24 30 23 25 25 21 34 23 24 26 30 21 31 12 27 20 27 17 29 25 21 23 25 27 28 30 23 24 27 22 16 27 20 27 29 25 24 24 21 27 31 29 20 20 28 22 23 31 20 25 39 24 27 24 25 20 22 27 24 25 18 20 29 18 28 20 24 30 30 30 28 26 27 22 24 24 30 27 25 29 24 34 22 22 23 27 25 19 28 31 27 35 19 25 39 19 25 27 22 25 27 28 21 22 30 17 31 24 23 27 28 22 28 25 28 26 34 24 24 12 21 22 23 31 21 24 24 27 25 27 32 26 27 29 18 18 23 29 33 27 22 23 22 31 21 34 34 21 25 24 30 21 29 28 25 25 23 29 23 17 19 24 37 27 24 22 23 28 31 29 24 33 16 30 25 20 28 23 19 23 25 21 28 29 23 19 27 19 19 27 32 21 16 27 26 30 26 31 26 30 23 31 22 27 21 23 18 25 27 24 34 36 22 24 27 24 20 18 25 28 21 36 26 22 22 36 20 25 20 29 30 20 24 29 24 24 25 16 24 28 18 25 23 17 25 24 28 28 18 20 36 27 16 29 27 23 20 23 28 15 25 24 28 21 30 18 22 25 22 19 30 22 25 29 25 31 29 28 29 28 19 24 27 21 20 31 32 29 29 22 23 24 32 22 24 19 31 23 32 36 24 24 23 23 27 24 27 22 23 25 17 28 25 28 28 21 27 26 27 32 23 23 29 32 25 23 26 16 22 27 31 18 32 28 25 36 20 30 27 41 23 21 27 31 19 19 25 30 25 28 26 23 25 23 21 25 21 28 29 20 24 20 23 19 26 28 22 25 31 29 25 24 28 29 22 33 20 25 20 30 32 31 24 28 23 21 26 20 22 25 27 22 24 22 22 35 25 24 27 28 22 21 34 21 23 28 23 30 28 18 30 24 30 26 26 27 23 27 21 34 25 22 21 20 23 32 29 20 32 31 20 28 20 25 22 23 24 25 23 24 28 20 23 24 32 22 21 31 25 29 24 22 29 25 18 20 24 25 22 25 27 22 32 26 22 23 26 36 22 25 27 21 25 16 27 31 29 20 29 22 19 22 18 20 25 19 25 28 26 26 25 18 18 25 24 34 20 27 21 18 25 17 27 24 20 17 25 29 30 20 17 23 23 21 28 25 18 26 21 19 15 18 26 21 29 18 27 37 25 29 24 20 23 21 17 27 22 26 18 30 21 31 16 38 29 16 27 28 24 21 32 27 27 22 31 22 25 20 23 30 23 23 24 26 21 24 20 26 28 24 24 28 31 21 34 27 23 22 20 32 22 26 23 16 35 25 26 25 30 30 29 27 24 27 27 23 21 23 27 22 20 33 25 22 30 30 25 30 25 26 25 27 27 25 19 26 23 29 30 22 31 29 23 27 32 20 22 27 24 29 19 27 30 28 27 24 20 28 27 21 22 26 27 27 23 22 23 14 27 29 35 23 32 23 31 19 27 23 22 27 28 29 24 19 20 29 21 30 21 21 28 30 30 26 19 21 32 27 21 16 21 20 21 26 17 19 28 23 23 21 22 26 22 15 27 20 27 27 18 22 22 30 27 27 17 29 22 21 29 18 20 26 25 24 29 19 25 21 24 25 30 29 33 26 29 23 24 27 22 19 24 19 29 36 26 35 23 19 25 27 22 32 27 27 27 28 20 23 20 22 29 27 18 20 36 22 30 19 25 28 22 34 23 26 25 25 22 28 27 27 25 29 25 26 23 28 37 34 35 22 29 17 23 29 21 28 23 25 30 27 34 27 27 21 24 24 25 25 22 28 37 28 30 26 25 20 20 27 25 25 25 19 15 25 33 31 19 23 24 21 25 19 28 20 21 23 20 26 27 31 27 28 26 38 23 25 20 23 22 25 16 21 16 37 27 27 21 22 27 23 26 23 20 21 28 24 25 33 26 26 25 36 14 31 28 21 23 24 34 25 26 28 23 29 23 34 26 19 31 21 21 27 29 32 25 22 20 31 25 21 22 25 25 25 25 28 19 23 31 23 31 21 26 26 27 22 20 29 28 29 27 17 21 23 13 24 21 28 30 28 24 27 14 27 24 20 21 26 20 30 19 27 28 30 27 30 28 20 31 26 28 27 28 27 30 28 25 26 20 24 28 19 29 27 23 17 24 35 21 20 18 27 31 34 25 24 21 19 25 32 25 23 32 23 23 28 23 18 23 26 21 20 28 19 27 38 17 24 32 28 19 26 28 23 23 30 16 27 25 25 27 23 27 29 36 28 23 33 24 24 24 27 19 15 28 23 24 19 26 19 25 22 27 24 30 22 22 23 26 29 29 24 28 37 19 23 14 18 38 33 23 32 18 19 30 24 29 32 25 29 24 25 21 21 17 15 25 37 26 19 27 20 18 22 21 28 29 23 25 20 33 25 23 26 24 28 26 22 26 18 26 32 26 27 24 26 25 26 24 26 31 29 24 31 20 24 33 20 24 25 25 31 22 22 29 29 29 28 13 26 37 30 27 22 26 21 26 23 29 20 26 20 27 29 27 23 21 20 28 31 24 29 26 28 27 23 31 29 34 30 28 19 27 20 28 24 28 25 21 26 29 23 27 24 28 26 26 21 19 27 23 25 23 34 26 22 25 13 29 32 21 26 24 24 26 16 35 32 32 19 24 18 27 18 22 33 27 28 19 29 23 28 22 26 13 25 28 25 31 25 27 30 20 24 23 28 29 23 21 25 30 37 21 27 23 22 22 27 37 28 26 26 25 27 28 28 26 28 21 21 21 34 27 23 30 26 25 26 26 26 29 28 18 24 23 26 31 21 26 26 27 24 20 23 23 29 28 20 27 25 19 17 30 25 35 25 24 22 24 19 25 23 25 32 21 23 20 25 23 27 19 18 21 26 29 21 34 26 26 20 19 21 17 33 32 32 25 21 21 27 31 23 18 32 24 21 31 23 26 19 28 22 27 30 21 25 33 23 21 24 32 22 26 25 34 21 23 26 17 22 28 28 29 26 31 26 28 20 20 30 30 24 29 27 30 23 26 18 25 28 28 27 21 27 26 24 19 27 24 29 31 23 39 26 23 32 25 19 28 27 31 22 24 28 24 13 24 28 32 17 27 15 27 30 20 18 22 24 25 23 25 26 27 36 27 27 29 37 26 25 23 21 22 25 18 24 17 24 24 28 25 21 16 29 29 19 19 21 29 35 26 25 23 15 30 22 21 27 23 25 26 29 30 17 25 23 25 20 28 28 24 30 20 23 29 26 17 22 33 29 23 24 19 28 31 24 30 28 22 24 25 23 27 24 24 23 24 22 25 16 21 21 22 27 25 29 24 33 21 13 20 26 27 23 16 23 25 28 25 31 21 20 22 26 28 32 27 28 33 22 37 29 29 24 31 21 13 25 18 25 22 25 29 25 21 32 29 25 24 29 30 28 28 19 24 26 26 21 23 23 23 26 23 34 24 24 21 15 26 23 27 19 34 20 26 29 31 24 22 22 25 24 26 20 25 24 25 25 27 30 26 21 36 29 25 31 22 28 26 27 21 27 27 21 19 24 18 15 18 32 21 30 22 27 37 36 26 26 22 21 16 21 30 23 29 39 23 22 20 29 34 28 23 29 21 47 31 22 24 28 26 27 31 28 27 19 28 31 20 32 25 20 29 20 27 29 22 30 22 31 25 25 19 23 19 26 25 21 22 28 27 28 15 23 26 20 32 26 26 26 31 23 25 35 26 30 27 30 19 28 27 25 23 22 20 24 28 24 25 17 27 26 34 15 19 26 29 30 21 31 23 15 29 27 30 29 18 24 32 29 27 26 21 19 28 31 15 24 29 21 29 21 29 23 29 21 20 24 24 29 18 23 22 29 17 24 26 26 25 23 23 35 22 20 23 24 25 26 27 26 21 27 28 35 23 26 26 19 22 17 24 25 37 28 28 28 34 22 21 27 25 26 23 20 29 26 29 28 23 21 26 17 27 32 26 27 33 23 29 29 20 30 32 27 25 25 29 30 29 22 29 29 31 27 30 19 25 29 23 25 18 18 31 22 25 25 23 23 24 29 26 30 30 24 35 30 26 34 29 24 20 27 24 18 27 23 22 22 30 25 25 24 24 35 24 21 23 30 19 28 23 25 19 21 23 31 29 25 20 25 26 21 24 16 26 27 23 18 23 28 32 32 30 25 26 26 28 24 28 27 29 17 22 26 23 32 33 30 25 16 29 29 28 27 17 30 26 27 23 25 18 18 26 31 20 23 34 33 22 17 26 21 30 22 22 25 33 27 20 31 26 20 23 22 25 36 15 31 25 25 24 24 22 16 35 33 22 33 20 32 21 22 27 31 27 19 22 32 25 25 23 33 25 27 26 18 28 25 28 35 17 30 28 28 36 21 30 21 23 29 23 25 23 26 25 25 22 30 20 24 24 33 26 21 20 23 23 24 24 30 21 31 29 19 29 24 19 34 31 23 21 27 21 21 21 26 23 20 25 21 22 25 25 25 31 27 29 30 31 21 18 25 28 25 25 27 25 16 24 19 19 18 23 24 26 30 19 18 24 30 27 27 22 29 22 29 32 23 32 25 24 30 24 23 27 28 25 27 24 16 33 33 25 29 24 31 21 19 23 25 17 21 17 25 23 30 23 19 22 22 20 16 17 32 30 27 23 22 21 27 24 21 29 26 16 29 29 27 27 21 30 24 25 19 24 30 27 18 21 26 24 26 26 22 33 21 24 22 27 18 34 26 26 34 26 32 20 31 30 24 33 26 18 22 23 15 27 29 36 15 17 28 27 24 29 26 21 24 32 18 17 22 27 21 22 38 32 18 26 30 24 28 25 28 28 24 17 24 16 25 28 26 25 28 30 25 27 27 25 24 30 27 18 20 25 34 23 18 18 28 36 24 29 25 21 27 22 24 25 24 22 24 34 16 24 19 31 20 28 22 30 28 24 25 20 31 20 26 27 29 25 21 27 22 28 18 22 22 22 20 18 28 26 23 16 30 21 25 23 26 28 30 31 32 24 25 26 26 22 21 24 28 26 20 23 23 26 27 27 23 28 21 39 18 17 26 22 27 34 28 25 20 37 21 21 28 31 31 23 30 22 25 30 17 22 28 33 24 29 34 31 20 26 29 32 30 29 21 28 29 24 31 21 25 26 26 18 30 25 25 19 22 27 26 26 22 24 29 23 34 29 23 20 25 22 23 33 25 30 22 24 23 29 24 20 17 24 31 19 17 22 23 12 15 33 21 21 32 25 27 27 26 28 30 23 22 29 21 21 20 25 24 31 22 22 27 24 20 23 20 20 24 27 24 26 29 24 29 30 29 24 30 26 25 27 27 28 20 22 19 23 24 28 22 24 24 18 27 25 26 22 24 28 23 25 19 23 18 24 16 22 19 23 23 23 21 26 22 22 23 24 21 18 22 22 25 20 24 17 26 33 23 27 27 24 21 24 16 26 33 29 27 18 26 27 30 23 29 19 24 27 19 24 31 27 24 16 33 19 21 18 19 20 20 27 20 24 20 29 21 22 35 31 15 26 28 21 29 20 27 25 22 26 25 33 24 27 19 26 24 22 24 27 27 22 36 20 25 25 29 23 32 24 27 25 28 32 31 28 26 29 37 26 23 24 21 37 20 24 25 26 22 30 18 24 24 25 30 35 23 32 33 26 28 13 23 27 14 21 17 30 25 30 20 29 27 26 23 27 26 33 31 27 22 28 26 31 26 33 31 34 29 25 28 19 33 33 20 25 36 25 21 24 39 22 26 30 31 20 31 29 17 24 25 21 24 24 26 21 25 35 20 24 27 23 20 23 27 20 33 17 19 20 27 22 18 18 25 23 26 31 22 26 29 17 24 30 30 17 27 21 23 17 24 29 32 21 28 25 33 24 27 17 29 22 18 15 18 27 24 23 28 19 35 23 24 22 18 24 24 30 26 28 23 22 24 14 33 23 24 32 24 29 29 22 33 30 22 24 21 26 28 17 22 24 20 27 19 22 26 33 20 27 32 20 22 26 25 32 27 27 23 18 25 19 27 27 18 23 16 25 29 25 21 22 28 23 21 25 29 20 21 31 30 31 27 27 28 19 28 26 33 31 19 20 24 26 23 21 25 22 22 26 22 27 28 20 26 26 25 32 32 10 24 23 34 24 34 24 25 28 30 28 29 22 26 26 24 32 29 23 24 24 19 19 25 24 27 22 29 27 21 34 23 26 19 33 21 26 18 24 29 30 18 24 24 28 29 32 29 32 25 26 33 26 21 26 33 27 25 28 30 21 26 24 22 26 36 28 27 31 18 31 18 25 25 25 21 20 24 28 20 28 30 30 27 25 39 25 26 20 28 24 23 34 29 31 18 23 31 20 24 25 26 35 25 27 26 23 26 17 32 23 31 25 23 19 29 29 27 26 22 30 29 32 21 25 28 24 22 22 21 25 28 23 23 32 26 27 33 18 25 32 26 23 24 31 22 21 27 22 27 24 21 16 22 32 23 17 26 25 20 26 35 20 21 21 25 23 19 20 26 29 31 23 32 14 22 25 32 6 33 30 22 31 22 30 20 30 37 25 34 27 28 22 28 32 24 19 32 31 41 29 28 24 21 30 26 18 30 18 23 17 18 21 23 23 18 18 34 30 17 24 34 28 25 20 29 25 17 21 20 31 28 33 17 21 24 23 26 22 11 20 23 23 30 20 28 30 25 29 23 29 19 27 24 28 34 24 29 26 25 22 30 31 26 26 33 19 10 29 18 14 29 22 22 23 23 18 30 30 25 25 26 27 28 23 28 34 19 28 28 29 32 31 24 26 25 25 30 30 19 21 20 32 23 18 28 23 25 26 21 22 26 30 22 28 25 28 23 32 22 21 32 25 27 24 28 30 38 19 31 19 26 26 25 23 24 23 20 25 23 31 25 23 24 23 31 30 34 19 33 18 27 23 30 29 30 26 28 27 24 28 31 29 23 26 27 23 32 26 23 28 22 29 21 22 33 31 24 25 19 28 25 24 28 22 24 20 30 29 17 27 18 17 18 31 21 29 26 29 20 25 30 19 24 18 30 27 34 23 23 35 20 18 33 40 22 35 27 24 17 25 24 23 15 24 25 22 29 24 19 28 19 23 22 27 26 24 28 23 26 25 23 21 27 21 17 26 24 19 27 23 23 27 30 28 25 30 29 25 26 27 19 32 28 18 19 22 28 23 10 20 27 21 31 34 23 24 19 29 26 29 25 21 21 25 21 32 27 23 25 31 28 22 35 20 20 26 31 23 16 27 23 27 19 31 24 26 14 29 34 31 35 24 27 24 28 25 28 29 26 37 34 18 30 21 25 21 23 21 26 34 24 30 26 29 34 28 39 20 19 35 25 24 26 28 24 22 24 34 27 20 20 23 24 23 32 23 26 21 26 19 30 18 22 33 17 29 30 28 25 33 29 24 12 23 33 30 29 33 23 23 21 18 21 21 29 28 32 27 25 28 16 24 28 27 14 28 30 34 28 25 25 20 26 24 32 31 36 32 25 31 24 32 19 29 27 26 18 28 25 18 27 28 29 22 16 21 22 30 22 23 20 23 23 25 15 23 24 25 22 27 26 26 36 21 21 26 31 22 22 23 27 24 11 22 18 26 33 33 25 28 22 29 23 26 20 24 14 23 22 24 23 22 32 26 27 26 34 30 24 26 21 27 31 27 22 24 31 29 23 15 22 36 33 28 30 28 22 26 27 27 23 22 19 20 28 21 28 17 28 33 34 25 17 22 26 20 21 25 17 21 25 25 28 20 29 20 30 17 28 30 26 26 28 24 19 26 27 23 29 18 23 28 28 21 37 29 22 22 27 27 22 24 34 28 23 22 27 26 25 31 27 26 23 28 17 24 19 22 30 30 18 24 24 20 28 27 24 19 26 25 24 28 18 29 21 36 27 27 27 22 23 23 25 26 27 28 21 30 27 23 21 33 24 23 28 33 27 20 28 30 30 25 25 21 21 32 18 29 25 23 24 34 24 21 19 26 19 26 24 18 25 29 24 24 27 28 23 28 24 30 21 20 27 29 29 26 28 19 29 26 22 20 15 28 27 22 24 26 33 22 18 28 27 27 27 23 23 22 27 24 24 27 25 21 23 25 29 29 19 27 24 29 34 24 21 33 24 21 23 27 25 23 21 34 22 23 26 22 26 20 22 26 21 22 25 25 23 25 25 22 26 22 17 30 21 29 33 21 31 20 20 18 25 24 25 27 21 20 29 24 26 32 23 30 15 30 28 21 29 18 23 28 28 25 25 23 26 21 25 22 19 28 20 25 23 31 24 19 22 20 28 27 19 23 28 27 17 27 26 17 17 29 21 33 21 26 22 31 24 15 19 29 18 25 30 28 26 26 24 14 26 27 22 22 28 23 30 18 32 23 23 22 31 29 22 25 28 17 25 21 18 28 24 32 20 18 29 24 26 31 28 27 34 28 27 19 22 32 24 27 16 26 27 19 29 25 18 28 21 23 19 24 19 29 30 24 30 25 25 20 35 36 28 43 27 26 24 27 30 24 29 26 24 22 29 23 30 27 33 24 26 31 25 29 19 17 24 32 28 17 23 15 28 29 29 28 28 28 28 30 32 30 22 24 24 21 25 22 23 28 22 33 25 22 21 31 23 28 31 23 25 21 18 25 25 17 32 24 18 28 15 21 26 24 21 22 26 31 24 26 23 20 18 28 33 26 24 24 28 29 27 17 35 25 24 21 22 30 25 29 28 17 28 27 21 27 21 15 26 29 16 28 33 26 26 25 21 22 19 24 28 24 31 29 32 27 27 31 26 23 26 25 20 26 31 23 21 34 15 25 28 26 21 17 29 30 22 35 19 21 21 25 28 28 26 24 18 18 22 29 25 24 24 21 26 24 18 22 22 27 15 26 24 18 21 28 20 20 20 26 26 23 26 24 25 22 19 33 25 29 19 28 17 31 16 24 20 25 23 29 23 26 24 24 23 29 28 26 31 25 20 28 26 37 23 30 32 27 30 25 27 29 22 29 22 25 26 22 28 17 28 26 33 28 28 28 34 31 25 30 26 31 28 22 18 33 29 26 30 28 29 23 27 25 20 26 22 25 25 22 31 29 11 20 19 20 29 26 32 20 19 31 24 23 25 24 19 26 28 22 28 23 24 27 18 22 19 24 24 21 26 27 26 20 31 30 27 26 26 16 28 29 24 16 28 27 35 28 25 31 29 22 30 28 16 32 20 27 16 25 18 24 26 27 23 26 22 29 24 26 23 21 25 25 28 31 19 24 22 26 32 22 28 31 26 23 23 26 32 30 20 29 27 21 24 34 27 21 22 23 35 29 23 19 38 26 34 24 24 20 18 30 24 26 27 26 28 27 19 24 24 24 27 22 29 23 26 22 28 23 19 26 33 20 22 21 21 24 25 25 30 28 23 22 25 25 25 26 26 31 38 29 19 34 13 23 30 30 26 26 22 17 22 22 28 23 25 32 22 11 24 33 21 36 29 22 25 17 19 23 28 24 22 24 17 31 21 33 21 26 24 18 25 26 25 28 18 30 21 27 20 28 28 33 24 22 31 22 22 27 26 28 19 29 23 19 24 31 23 25 22 18 21 14 32 21 28 23 20 29 27 16 21 26 27 22 25 24 19 27 27 22 33 27 29 31 21 27 24 19 20 19 25 27 26 24 17 26 27 25 33 35 28 20 21 25 26 25 24 21 24 23 31 19 21 21 28 23 30 24 24 29 33 15 29 27 23 16 17 19 17 20 25 31 21 27 22 22 26 21 29 25 20 27 19 26 31 30 20 14 23 21 23 20 24 31 27 21 35 22 23 22 28 26 22 26 24 19 27 25 16 20 23 26 34 21 23 17 26 28 28 28 33 22 26 34 23 25 19 24 21 32 27 25 22 26 38 21 31 23 24 26 24 20 21 25 22 17 27 22 21 27 26 30 23 25 32 35 27 31 19 33 20 22 25 23 30 32 29 28 31 22 21 25 21 33 30 25 27 30 18 24 22 24 27 26 27 28 18 22 20 24 28 29 29 21 30 30 19 20 29 22 22 29 29 16 22 26 20 22 26 27 27 20 34 15 24 20 26 24 23 19 28 17 30 30 25 30 17 31 23 28 28 28 30 23 22 29 17 20 23 28 26 30 23 24 24 19 31 30 28 21 31 20 21 27 19 15 21 26 25 26 32 27 21 19 26 21 29 31 33 26 18 22 24 28 28 28 30 20 23 26 24 29 14 23 28 27 21 26 28 26 25 24 25 25 27 20 18 16 19 12 26 18 15 33 27 21 23 26 28 30 21 23 25 24 26 27 22 24 22 24 24 25 20 29 30 20 33 21 19 21 28 31 39 23 23 26 20 24 29 28 21 23 21 25 23 19 24 19 29 30 29 27 26 32 26 24 23 30 25 21 31 15 29 32 23 23 24 29 23 22 19 18 23 25 26 26 34 26 29 31 21 21 21 25 22 23 28 25 27 25 23 19 23 34 28 28 22 24 25 17 30 25 31 21 29 27 21 30 31 21 21 23 24 17 30 19 29 37 22 23 22 29 23 20 20 20 29 32 16 31 19 21 23 24 26 30 26 27 27 24 22 21 23 29 21 26 26 22 24 22 23 22 19 20 18 30 22 25 20 25 27 28 22 28 23 35 24 33 28 22 29 28 24 31 28 29 22 25 30 25 25 22 30 28 21 36 27 22 21 31 29 29 19 30 26 35 26 31 20 27 23 27 34 18 32 29 31 33 15 16 26 22 29 37 26 31 26 22 26 26 34 24 32 20 26 18 14 23 26 19 26 30 26 27 27 21 25 23 27 22 21 20 21 28 26 27 25 27 28 24 32 31 20 33 23 33 24 22 29 25 29 20 30 28 25 21 28 24 26 19 26 30 19 26 27 30 23 28 24 26 24 30 22 26 25 31 22 23 33 29 29 15 22 24 33 29 26 41 19 19 19 23 25 18 34 17 25 25 30 19 24 23 29 22 23 34 23 20 25 22 31 20 26 16 24 23 34 25 17 17 21 28 26 27 21 30 19 19 16 25 29 29 29 24 30 17 32 24 25 26 30 22 32 25 24 30 22 28 24 27 36 24 20 33 20 28 34 25 21 28 29 28 23 17 28 24 26 29 34 28 29 34 22 26 17 31 37 24 28 27 19 34 29 26 31 17 15 29 31 18 26 26 22 28 24 32 13 19 34 33 24 14 23 28 25 26 25 32 27 26 35 34 13 26 19 24 26 26 24 28 31 25 22 31 26 27 15 33 23 27 32 24 21 27 26 20 25 22 34 22 21 23 23 17 26 30 30 23 28 28 26 20 27 24 25 25 23 23 28 16 31 25 25 22 22 37 36 32 19 22 25 30 26 21 28 26 27 29 33 24 30 17 25 33 22 18 23 21 22 23 30 33 26 17 31 31 29 27 18 17 18 18 26 18 25 18 24 23 29 19 18 24 28 24 20 24 31 19 24 24 21 28 32 29 40 29 25 32 24 21 23 23 22 21 38 22 27 27 21 19 18 21 28 27 24 33 21 25 26 29 24 32 21 20 24 29 21 31 24 21 23 24 27 27 22 23 36 21 29 29 35 21 13 20 29 19 22 25 26 26 32 22 27 26 36 27 23 26 27 20 25 27 38 25 34 23 32 24 29 23 21 19 28 30 21 21 25 20 19 29 16 29 33 29 26 23 23 24 22 29 18 19 31 24 32 14 21 32 29 29 30 19 25 23 21 28 21 20 29 24 28 22 38 31 18 15 26 28 22 22 22 39 21 20 24 24 22 23 16 27 22 36 12 30 29 31 26 25 33 25 27 32 28 15 35 22 21 22 21 29 25 24 29 28 21 26 19 23 30 22 27 26 32 29 30 26 30 18 30 21 21 23 28 25 26 31 19 28 23 29 20 21 20 28 23 26 20 26 29 29 25 21 29 21 28 30 33 27 31 21 23 29 28 27 26 26 30 25 19 22 22 30 28 29 30 26 20 28 28 20 26 37 28 20 26 22 33 33 18 30 29 29 29 30 31 26 29 30 25 32 26 16 29 30 29 28 28 13 28 20 27 22 30 17 22 28 20 22 26 31 22 34 28 30 12 23 16 33 26 25 31 26 28 23 26 31 24 26 31 26 22 29 26 27 28 18 26 24 24 31 31 19 33 26 26 32 27 23 19 19 19 19 17 24 21 21 20 17 33 28 21 33 18 22 24 18 36 19 27 31 27 20 24 23 19 18 30 19 24 22 21 23 20 17 22 14 25 25 20 25 30 32 22 16 22 25 24 23 20 22 27 25 21 26 28 35 29 25 19 13 24 25 24 21 22 21 23 19 22 28 24 24 24 36 27 28 34 28 26 22 28 25 29 22 25 22 21 25 33 21 27 25 25 24 24 31 28 26 21 30 34 20 21 23 20 27 29 26 24 23 28 32 36 19 27 32 31 22 28 30 25 25 28 27 23 19 17 25 23 28 24 23 22 24 19 26 24 30 27 33 24 24 18 16 30 22 37 29 22 27 32 25 21 23 26 28 23 18 32 28 20 21 34 30 32 21 18 22 18 20 25 28 39 19 25 26 23 19 23 26 27 20 26 30 22 31 23 26 25 26 23 26 20 23 32 31 29 30 18 33 20 25 19 21 21 24 22 30 28 31 24 30 23 23 18 20 22 26 26 29 23 28 25 19 26 19 22 24 35 29 30 28 23 30 20 24 27 19 25 37 21 27 25 23 33 18 24 27 22 30 21 26 22 25 27 30 31 19 22 21 28 32 21 26 33 25 21 26 30 20 22 34 19 36 31 30</t>
-  </si>
-  <si>
-    <t>EXN(0.5498892901167871, 34.240500686937224, 5.332523333380299)</t>
-  </si>
-  <si>
-    <t>25 37 40 33 35 29 38 39 47 42 33 40 33 51 45 41 40 43 48 40 32 39 44 35 28 33 28 36 38 36 41 37 38 36 39 43 42 42 54 51 46 44 38 40 30 38 28 48 36 33 43 32 33 38 41 33 35 31 38 38 41 38 35 38 43 40 29 34 41 31 41 24 40 44 34 27 33 29 39 27 30 39 40 42 45 28 33 47 37 39 42 35 33 30 36 30 38 33 37 36 28 47 40 44 41 40 42 35 48 22 34 41 36 42 45 39 43 30 46 34 40 37 36 35 35 41 36 38 30 30 39 37 37 32 37 31 42 33 29 34 48 34 31 30 38 33 32 40 40 42 38 31 44 31 33 32 42 35 44 27 33 35 39 26 42 27 42 35 36 54 46 35 35 34 33 36 37 28 42 28 42 43 38 25 35 45 33 46 30 40 39 38 34 38 35 33 40 44 37 40 46 32 36 33 41 33 30 52 29 27 37 51 29 33 43 34 35 41 43 30 37 17 37 35 32 39 42 38 36 35 34 26 43 37 33 43 35 30 34 40 40 26 34 38 38 40 40 35 34 30 41 25 42 49 40 34 38 43 44 42 38 35 45 36 36 35 44 38 34 27 38 30 33 55 35 37 33 36 24 49 39 48 32 32 41 34 38 37 38 42 43 36 34 33 26 29 41 41 43 38 26 53 46 42 31 35 37 33 33 44 30 41 41 36 26 37 48 36 38 36 36 38 35 27 37 45 37 32 29 36 39 45 39 41 39 50 42 41 44 45 32 33 35 32 37 47 42 28 42 35 52 36 36 25 28 42 34 32 37 39 32 31 37 38 32 34 38 35 35 30 42 26 25 31 39 47 38 35 32 42 27 36 37 37 28 37 35 37 39 42 33 40 29 42 40 39 26 35 34 46 43 30 34 30 37 37 36 42 39 36 38 38 42 46 48 31 40 34 41 34 41 31 44 34 28 49 35 33 49 29 31 32 39 42 31 34 44 42 39 40 39 29 32 48 34 30 31 22 36 38 42 36 28 46 38 31 40 29 35 33 36 25 43 37 43 52 43 45 45 45 38 33 44 40 32 37 35 45 27 27 41 51 21 42 25 49 39 34 39 37 32 37 37 37 29 28 39 40 40 33 32 40 41 38 35 39 43 29 37 42 34 32 41 36 38 35 31 35 33 48 41 37 40 30 35 37 50 40 39 39 44 38 29 28 34 35 38 42 41 25 36 34 26 39 43 31 37 29 39 35 35 29 45 41 32 44 39 30 37 42 42 33 41 38 24 31 42 41 23 41 43 33 43 39 34 37 38 37 42 29 41 27 36 37 36 41 35 44 29 35 41 35 30 54 29 36 38 34 46 47 31 44 34 42 43 39 35 29 43 35 36 36 47 47 53 37 42 43 41 40 34 34 33 32 35 35 30 40 39 37 35 27 35 25 43 34 43 30 55 50 29 40 44 42 39 40 39 27 35 37 36 29 45 30 48 45 42 36 33 34 42 39 37 37 43 36 33 34 44 53 36 34 35 41 42 37 33 31 40 36 27 32 34 36 40 41 54 40 48 40 33 41 35 39 34 35 37 33 44 39 48 31 35 43 32 43 46 34 29 29 28 36 38 44 37 32 22 39 32 32 46 26 37 33 40 42 30 40 44 28 35 33 46 31 24 37 43 43 41 44 41 35 34 28 27 43 40 31 40 40 33 41 37 24 36 46 35 43 35 38 30 34 48 37 26 36 35 43 44 38 46 48 36 41 32 38 46 40 28 50 28 47 33 38 42 36 42 29 32 33 35 31 37 40 38 39 26 36 37 42 34 30 47 45 34 47 34 39 36 36 32 39 25 46 29 38 28 36 34 44 31 30 30 50 32 50 32 35 41 35 45 40 26 41 44 34 42 33 46 34 38 32 41 39 30 41 29 41 42 31 47 29 26 40 31 31 36 41 48 31 42 45 41 30 33 40 39 39 35 35 47 41 38 39 31 35 22 35 38 37 42 40 38 43 44 34 40 32 37 33 35 33 47 43 45 34 32 44 36 37 34 30 33 38 43 36 32 40 30 39 46 45 36 33 32 41 32 39 53 43 32 28 35 41 32 50 27 36 33 35 26 27 38 36 26 35 35 48 49 42 36 34 32 32 35 34 37 42 34 46 37 40 36 43 39 47 27 33 45 38 43 29 36 36 32 49 46 34 51 40 29 31 36 61 43 48 44 41 42 35 31 35 38 40 28 39 37 25 48 39 42 35 38 38 50 44 39 25 40 34 40 44 38 33 42 35 36 47 32 36 36 38 53 43 31 33 33 45 36 30 40 29 34 36 33 40 29 42 36 40 30 37 38 32 52 40 36 31 43 49 38 48 32 43 34 42 38 45 37 40 31 40 31 41 26 47 31 35 41 39 35 30 47 37 44 39 41 40 28 46 42 38 39 36 37 33 42 42 27 31 37 47 42 26 35 36 27 33 28 40 29 44 28 31 26 33 29 38 46 38 40 36 32 42 38 39 28 42 34 35 33 42 38 43 42 29 39 32 50 49 33 33 40 32 36 34 31 37 35 32 36 33 36 44 27 43 38 28 28 30 38 39 38 22 39 38 40 42 48 34 36 40 46 34 46 37 37 33 36 40 37 33 39 42 32 34 46 42 34 37 34 34 36 40 46 35 33 31 41 37 47 39 41 34 37 46 36 32 33 39 44 38 35 44 32 35 39 36 48 43 43 27 34 27 22 35 35 41 29 34 31 36 30 35 38 38 25 41 35 36 39 42 26 41 38 44 34 40 42 27 31 46 44 35 38 45 46 28 36 37 45 41 33 43 28 40 38 32 37 37 29 32 42 44 39 38 30 43 44 35 32 30 32 49 37 44 25 40 29 30 25 40 35 39 37 41 39 43 36 29 36 44 42 36 42 50 33 29 37 35 38 35 34 42 45 23 29 39 41 33 43 36 38 40 42 41 35 38 40 35 33 42 41 36 32 24 35 36 31 42 42 37 35 43 34 37 37 43 37 39 43 38 33 27 42 35 44 37 39 28 36 43 40 38 41 42 36 34 36 42 40 36 27 45 29 33 44 40 32 35 43 47 41 35 29 31 44 51 42 36 40 41 35 35 39 35 34 38 32 35 37 33 31 49 31 42 35 44 37 35 24 33 33 46 32 27 31 43 40 33 40 28 39 38 41 46 38 46 47 32 42 31 30 39 43 31 38 38 39 47 43 34 37 33 48 38 35 46 47 42 41 44 38 53 44 31 36 42 24 47 32 38 32 22 34 30 53 37 41 31 33 38 33 48 44 35 26 36 32 50 47 41 35 43 35 29 40 30 52 29 37 42 32 30 35 49 23 34 42 29 28 30 34 37 51 38 49 40 40 46 35 34 41 31 37 39 31 33 38 28 34 39 42 25 43 37 36 31 34 53 44 34 40 38 31 34 28 48 31 27 33 41 32 38 40 42 36 44 30 31 33 40 37 45 41 33 36 40 45 66 35 28 37 40 28 38 32 41 31 31 37 28 31 38 44 39 49 33 42 32 40 42 40 39 52 34 27 44 40 38 37 29 36 42 35 44 33 39 50 33 33 34 43 34 41 34 55 27 35 31 51 42 30 42 41 53 32 44 38 43 38 49 42 45 40 34 31 33 33 27 39 40 44 33 40 55 35 39 38 40 35 36 34 31 43 30 41 24 28 44 38 47 39 41 43 42 36 41 41 40 45 40 41 34 40 45 38 46 41 23 54 41 38 30 37 37 40 28 36 42 38 32 43 28 48 28 28 31 46 39 35 29 29 28 42 36 40 52 42 41 33 27 27 38 37 27 38 26 38 38 36 46 34 43 40 45 37 34 41 41 36 32 34 34 40 42 50 37 42 33 35 34 37 43 41 29 30 18 42 40 29 47 30 45 30 58 38 38 34 46 40 44 35 32 43 27 43 42 43 42 33 42 32 46 39 35 31 27 34 44 43 45 39 36 42 33 33 31 40 39 33 29 40 34 27 29 40 31 37 30 26 32 28 44 33 32 43 35 36 49 34 37 34 26 45 34 40 31 33 39 37 29 32 46 30 44 32 34 33 34 39 44 32 31 29 36 33 51 25 29 27 44 37 37 35 40 35 40 36 33 33 35 31 30 31 47 42 32 36 41 35 36 28 28 44 35 34 36 38 41 36 50 32 42 38 40 41 42 33 49 40 48 45 26 43 42 40 43 40 39 44 51 40 38 38 36 36 37 39 37 33 40 30 33 38 44 47 35 37 44 36 27 34 50 36 45 33 33 35 30 34 36 33 35 41 35 35 32 38 34 44 34 41 44 37 39 35 50 45 27 44 38 35 39 42 40 46 33 21 37 43 45 34 41 38 38 45 46 40 36 38 30 33 42 34 24 44 41 38 39 24 32 20 29 30 35 40 27 40 38 28 33 44 46 29 42 39 52 35 40 34 32 42 43 34 34 36 38 32 31 28 33 44 49 35 43 45 32 32 30 46 40 36 37 37 39 33 37 37 38 41 33 45 33 35 37 29 37 36 47 52 36 35 39 31 40 39 32 33 34 47 37 43 36 36 41 40 45 41 42 38 35 42 54 52 40 35 44 26 39 35 37 27 28 35 43 35 36 46 36 30 27 46 41 39 37 33 41 39 31 32 40 29 30 34 37 47 38 37 28 45 27 35 43 38 29 33 42 35 37 26 38 35 41 35 29 34 34 31 38 42 33 41 34 33 39 31 41 37 35 49 49 34 46 33 35 36 33 28 41 40 37 31 42 28 29 35 39 36 36 34 33 35 29 43 31 35 39 48 34 34 52 32 42 48 35 45 31 41 43 32 49 38 37 34 31 32 42 43 31 28 39 30 32 35 32 43 32 35 36 30 43 36 39 42 32 40 32 34 36 46 43 44 33 36 37 30 26 39 31 43 34 39 39 37 39 46 35 47 35 40 55 41 56 44 28 29 40 33 32 32 36 35 37 34 29 24 33 35 39 43 24 48 40 39 27 42 29 23 39 36 36 38 35 55 36 50 45 46 30 38 38 33 33 37 41 33 40 44 46 41 41 44 38 27 32 23 35 38 36 31 34 32 33 41 28 30 35 36 38 33 32 42 42 52 42 30 37 42 42 35 42 40 40 39 38 28 36 41 33 30 31 27 39 36 46 37 43 32 48 32 23 37 39 36 32 39 35 40 41 28 35 26 44 26 30 36 47 40 40 42 35 26 35 36 36 44 34 40 34 40 49 31 38 27 37 30 37 31 36 43 36 36 38 42 37 40 47 36 35 32 41 32 43 34 38 37 39 38 28 29 39 34 39 31 39 28 34 50 38 38 48 37 38 43 40 31 36 38 40 31 36 40 33 38 46 32 39 45 31 40 37 27 57 36 43 26 28 35 35 35 30 41 45 33 43 36 41 36 39 29 44 29 40 32 42 38 31 35 29 31 36 39 39 39 42 34 42 49 35 39 30 40 46 32 32 38 27 39 33 43 37 47 23 41 30 34 44 36 42 32 33 34 31 40 45 41 37 30 38 44 27 42 37 36 37 42 29 26 36 32 36 45 35 38 43 37 35 37 38 38 43 36 33 51 38 39 24 38 35 38 46 26 43 40 39 42 43 35 34 33 41 34 40 49 35 32 53 34 30 41 31 35 28 38 45 40 28 47 37 37 25 33 25 39 35 33 30 37 39 40 28 35 43 35 41 35 45 25 29 43 38 33 37 34 40 41 43 43 37 54 47 37 37 37 40 30 44 39 32 44 35 37 38 33 33 39 32 41 36 29 58 44 33 41 45 39 35 36 39 34 40 36 43 39 45 25 30 34 41 38 49 40 46 24 34 35 37 34 35 41 34 36 46 29 37 45 43 24 36 47 33 47 29 56 38 27 27 30 40 39 29 29 41 39 27 45 40 44 33 24 37 41 31 43 37 43 28 40 31 36 38 44 42 32 36 47 44 41 41 38 45 40 42 40 33 42 33 32 32 37 24 38 35 38 37 34 47 34 47 36 39 33 39 38 37 38 38 36 40 37 44 35 34 58 35 33 34 33 32 32 36 37 27 40 32 43 34 43 31 41 36 33 34 28 43 32 36 43 40 32 25 45 36 51 40 46 34 25 39 48 44 30 36 22 42 31 33 32 46 39 34 45 35 54 39 42 48 34 36 35 44 30 37 49 37 37 35 41 38 38 33 37 38 40 29 36 43 48 39 38 37 34 32 33 38 36 35 36 51 29 29 38 50 41 45 35 32 40 36 36 27 39 36 23 35 39 27 48 44 50 33 33 33 30 36 42 41 42 44 46 52 38 33 42 37 37 33 33 34 30 36 33 37 33 47 34 40 49 36 47 30 37 43 34 44 39 43 39 28 33 33 28 27 38 37 39 42 37 37 34 30 55 26 39 38 39 35 29 34 32 48 31 31 36 30 33 37 38 43 39 45 38 34 34 41 39 47 37 28 45 32 28 35 41 42 42 36 60 37 36 29 32 32 39 37 33 46 40 46 36 52 34 41 43 33 44 32 41 28 35 46 39 29 43 38 39 36 31 45 39 42 30 35 37 38 37 45 51 46 41 39 36 41 39 30 33 33 43 36 39 35 37 42 49 41 38 41 43 42 39 39 37 31 36 43 44 28 41 38 43 43 37 38 34 41 41 31 34 35 40 34 39 34 35 35 34 37 38 42 44 34 37 27 48 30 35 34 35 40 37 34 49 39 30 36 36 30 34 33 29 39 29 31 31 40 29 46 32 32 37 36 33 48 36 30 37 23 32 35 42 25 24 32 41 40 40 38 23 43 38 40 37 39 40 49 34 47 29 33 51 42 30 41 34 40 29 38 39 40 42 45 38 30 45 30 40 37 29 46 39 30 40 35 36 27 32 34 39 47 31 38 42 45 38 33 44 25 33 29 43 57 41 40 35 37 44 45 39 32 42 41 47 52 43 49 38 31 21 29 50 33 38 32 26 45 31 38 30 42 45 37 42 35 52 37 34 37 24 44 37 44 42 40 38 32 38 36 36 32 35 31 29 37 31 49 35 34 47 43 36 34 31 33 38 29 28 23 55 40 48 45 32 34 30 25 31 37 41 25 34 29 34 42 34 42 31 43 32 44 32 37 34 38 44 32 41 38 37 36 33 55 46 35 35 32 42 46 42 26 27 38 33 35 37 41 34 29 33 40 42 43 38 30 35 40 31 37 39 35 35 29 36 54 42 44 38 40 38 37 43 36 31 35 27 31 56 45 36 29 36 33 50 32 30 40 44 45 32 41 32 34 44 37 46 45 30 34 33 47 30 43 42 35 28 26 38 52 33 46 24 29 41 34 36 37 40 29 43 38 38 34 32 44 27 38 21 42 35 37 32 40 36 39 42 38 35 29 38 31 43 37 35 33 50 34 41 40 49 35 45 40 42 26 44 33 39 30 43 35 33 38 42 40 28 42 41 41 39 46 37 29 39 42 45 35 45 37 45 35 30 37 40 26 28 38 26 32 41 38 40 38 31 32 35 46 35 44 38 31 30 31 49 33 36 34 30 35 30 48 37 42 32 49 50 27 36 34 40 42 43 36 38 44 42 33 43 45 34 35 35 45 50 38 38 28 40 41 35 38 37 36 44 38 39 33 36 39 41 25 32 32 37 39 34 46 44 32 36 33 48 41 37 43 42 44 56 55 42 30 45 42 35 44 39 33 37 29 34 37 35 49 38 35 33 43 25 42 50 44 33 40 36 34 34 38 38 48 41 34 42 34 36 36 38 26 46 38 39 44 43 42 37 38 41 37 25 36 34 32 41 40 37 33 36 42 26 29 43 28 46 42 35 33 55 42 38 37 31 46 32 35 36 49 42 43 30 42 52 37 32 42 35 39 39 34 40 43 49 37 42 32 33 45 30 38 29 35 35 37 48 42 39 38 35 37 41 38 36 31 37 47 33 34 38 45 37 44 34 38 35 36 33 38 40 38 39 34 35 33 39 36 37 31 35 34 37 42 46 44 42 30 42 38 37 38 31 42 34 31 44 34 40 38 38 37 40 32 27 46 31 27 45 31 33 38 44 35 24 29 28 31 43 43 40 26 31 40 37 38 34 31 37 29 44 38 30 38 29 41 38 32 33 46 47 43 37 39 34 37 32 35 47 42 48 38 44 37 42 37 21 37 33 37 29 38 30 39 37 28 44 35 56 49 37 37 37 36 48 40 38 43 50 37 35 27 36 41 33 38 47 31 48 39 29 33 49 38 41 45 39 34 37 42 30 48 38 35 36 37 25 34 28 30 45 41 47 27 45 39 37 39 37 39 53 42 42 39 38 43 46 49 48 33 34 48 43 37 41 35 38 38 41 37 37 32 26 28 43 38 38 31 27 25 36 39 36 24 31 53 34 37 31 30 39 23 27 30 45 28 38 30 49 43 41 45 43 40 33 43 40 22 29 41 40 40 34 32 37 27 31 40 28 43 40 27 35 44 37 45 27 35 36 38 27 34 32 47 43 24 37 33 26 40 38 35 39 34 41 41 40 32 38 36 38 37 34 31 33 32 35 28 37 42 42 30 22 38 37 39 44 32 39 38 32 30 40 30 28 29 39 41 35 33 37 28 36 38 28 33 35 40 38 36 32 51 38 32 35 29 54 30 45 39 44 42 38 36 30 38 33 41 32 36 37 35 44 34 40 29 45 36 33 32 37 43 44 31 40 45 31 40 34 48 31 31 46 49 37 33 42 41 47 30 43 30 46 39 31 48 36 42 36 39 36 34 34 40 35 36 33 36 39 38 27 44 46 48 30 37 31 38 37 38 45 37 37 43 29 36 34 32 36 31 38 45 38 36 37 41 39 30 42 43 29 48 34 46 41 37 37 28 37 37 32 35 35 39 47 37 38 32 32 37 35 42 41 26 34 41 41 40 33 37 31 42 47 45 43 35 26 36 28 34 36 40 42 42 33 33 38 40 37 32 41 27 45 39 32 40 37 39 40 41 46 34 45 43 38 43 44 34 35 39 34 34 35 33 46 39 39 32 46 36 47 34 39 33 36 36 36 58 38 47 41 45 47 36 27 44 39 39 44 29 43 39 30 43 40 40 44 37 38 37 29 40 38 39 36 45 29 32 39 33 36 27 31 30 38 39 47 40 37 38 37 40 36 32 27 31 43 32 46 24 31 38 24 38 34 38 45 25 48 32 41 35 29 33 37 37 46 30 28 45 31 37 40 34 37 33 45 42 40 28 39 35 41 34 38 39 29 33 41 34 32 43 29 39 35 30 40 28 37 32 30 32 30 34 33 31 44 41 39 37 35 38 36 43 36 38 43 40 31 29 38 44 36 38 36 41 29 43 52 38 43 44 41 46 39 39 45 43 32 33 45 23 41 37 31 42 30 35 38 45 35 45 43 40 31 28 39 39 38 30 32 34 30 34 41 41 51 48 42 40 35 34 39 34 44 27 38 34 38 44 35 38 45 39 25 47 33 28 30 35 30 35 39 28 35 41 35 37 38 31 40 41 40 31 32 39 35 40 42 54 39 34 35 48 36 40 35 36 39 27 43 38 42 41 46 42 48 31 31 32 39 39 41 38 29 35 46 31 30 38 48 33 40 45 34 43 47 35 43 45 35 36 41 35 33 38 37 32 27 41 29 46 33 42 26 36 36 33 37 50 45 44 30 38 31 35 35 38 39 42 45 36 36 43 28 41 42 37 36 47 38 41 48 39 40 38 43 41 36 51 32 41 32 35 40 39 35 38 43 31 32 49 39 32 40 35 32 31 39 37 34 30 37 33 37 37 31 45 39 38 35 37 34 38 40 39 42 38 46 34 33 50 40 38 28 45 35 43 22 35 31 42 25 39 40 31 34 39 51 36 39 30 34 40 37 24 42 37 39 36 47 41 36 33 37 43 40 30 38 33 30 28 47 34 35 52 33 32 37 37 35 34 34 35 41 24 36 46 33 38 30 40 51 37 47 35 38 37 31 36 35 41 33 38 43 39 43 34 36 35 35 37 31 41 44 44 45 32 30 51 27 37 40 41 38 41 42 40 30 45 33 45 30 37 41 35 32 44 35 41 45 45 41 37 23 31 34 41 40 32 32 38 39 34 32 39 33 35 38 30 30 36 45 46 34 36 33 33 39 29 49 41 35 38 36 39 40 42 43 33 40 31 38 33 35 38 31 44 37 34 43 34 42 39 38 34 43 28 40 39 35 42 44 35 34 36 32 38 39 34 41 40 35 26 34 45 38 33 34 41 41 38 46 36 41 32 39 36 34 29 36 34 39 43 38 58 47 32 39 32 40 37 33 37 42 29 51 50 33 43 47 33 36 29 38 42 36 38 38 34 33 39 26 42 37 29 38 39 27 46 34 47 42 31 31 59 36 31 38 38 35 26 32 35 34 39 33 39 32 41 29 36 35 25 32 37 32 36 40 35 41 39 37 43 39 38 39 38 32 34 49 51 39 39 33 33 31 51 36 35 32 44 35 47 42 37 35 38 40 36 32 42 34 29 37 26 35 43 39 39 37 36 33 33 49 29 31 37 42 45 31 38 28 31 38 46 33 43 40 40 45 35 51 38 58 34 35 42 39 32 32 36 37 43 35 38 44 42 39 33 31 30 41 44 26 35 35 41 35 35 37 33 39 42 46 33 35 43 44 38 46 31 36 29 47 49 42 41 35 43 38 47 30 30 38 40 36 36 33 31 53 41 35 36 51 28 33 44 27 33 40 34 47 35 32 48 34 44 35 41 41 45 41 31 46 41 34 37 28 42 52 43 28 47 46 34 39 34 40 40 44 37 41 40 38 38 31 29 36 48 29 29 38 34 40 35 33 41 40 34 31 31 36 37 31 36 34 42 29 30 34 35 54 36 38 48 31 32 33 39 43 43 26 48 37 40 36 27 35 31 34 37 36 34 36 41 28 33 39 29 47 36 36 37 31 41 27 36 28 31 26 36 46 42 40 28 32 35 34 51 39 29 35 37 35 22 30 40 32 37 34 37 55 41 43 33 33 37 31 28 41 31 44 27 44 35 41 22 47 38 22 42 36 36 35 44 32 35 33 42 29 37 36 32 40 26 35 32 46 32 40 38 39 40 35 31 37 47 30 45 33 33 45 26 39 34 40 35 34 50 34 35 40 42 46 46 38 37 39 35 35 37 31 39 34 33 47 37 35 47 44 30 37 44 39 37 36 40 36 32 48 29 41 37 42 41 45 42 36 42 34 36 34 34 43 33 34 39 46 36 42 28 37 45 35 34 38 33 33 35 33 38 26 40 45 54 38 50 35 41 27 42 32 35 40 40 39 35 27 32 38 38 41 32 30 41 48 41 39 33 31 47 39 34 26 34 29 35 35 30 25 42 35 35 35 30 33 32 24 35 35 36 38 32 40 38 46 37 41 29 36 32 36 44 31 32 38 35 44 47 31 43 29 34 31 41 42 42 39 42 36 37 36 32 26 38 34 44 49 44 48 37 32 37 42 35 41 38 40 43 33 31 31 28 36 35 34 29 27 46 36 46 32 34 34 36 47 30 43 34 44 32 39 42 33 39 49 38 35 33 36 53 49 49 27 49 27 28 39 32 45 45 39 46 43 43 42 39 29 38 31 37 30 29 38 47 36 37 36 34 32 36 41 36 40 38 35 24 34 46 38 31 31 38 31 33 33 40 30 34 37 35 37 41 39 39 47 44 52 35 41 30 40 30 34 26 39 26 48 42 39 37 32 38 29 40 34 40 38 38 34 40 52 43 40 34 45 25 43 34 33 41 42 49 38 44 37 34 35 34 52 39 38 44 41 40 41 37 40 33 28 30 40 38 34 33 38 36 37 38 40 36 39 41 31 53 30 41 35 38 34 29 49 49 36 38 32 32 41 21 35 29 43 40 42 40 41 22 38 34 31 40 38 38 42 30 35 41 39 43 39 38 27 37 38 43 38 39 39 44 36 33 41 30 37 37 27 44 45 33 31 32 50 31 30 33 39 45 47 40 34 34 33 41 43 45 34 48 33 37 41 32 27 36 42 42 35 36 26 51 53 32 37 42 37 29 43 38 34 33 44 35 34 44 39 37 37 34 47 50 45 38 42 38 36 34 40 28 34 40 30 34 33 39 32 40 27 39 34 44 38 31 38 36 41 44 39 34 45 33 32 22 25 50 47 33 42 24 27 35 32 44 44 41 39 37 35 32 37 34 26 41 57 43 31 44 27 29 29 31 36 35 31 41 30 45 40 29 37 32 48 36 27 36 25 40 42 35 40 37 36 37 29 38 34 41 46 37 37 30 37 37 31 34 34 34 41 34 31 38 41 46 41 28 35 47 37 42 26 38 35 33 38 37 37 38 28 46 41 37 38 36 35 41 48 34 34 41 43 44 34 44 43 48 39 38 26 38 36 42 35 45 35 32 37 33 32 34 33 39 34 34 32 28 44 36 36 35 45 37 40 37 36 41 42 31 37 33 37 38 27 50 45 42 27 28 24 36 29 34 46 39 43 36 46 31 37 30 45 19 36 47 38 46 41 46 37 35 36 32 40 39 34 34 36 42 49 32 41 33 33 28 41 53 39 41 39 33 39 40 36 34 35 29 31 34 48 33 33 41 31 46 34 35 37 40 44 35 39 32 33 48 35 40 35 38 36 28 36 31 43 40 44 36 32 31 24 44 38 47 36 39 34 40 33 36 40 38 43 33 32 30 36 34 36 28 30 26 37 42 31 50 30 40 27 28 31 29 43 37 44 32 35 35 43 43 38 28 45 32 35 40 34 38 28 41 33 34 41 30 33 42 39 33 36 43 32 37 40 50 42 33 45 30 31 34 43 43 44 40 45 33 31 31 48 43 34 41 41 42 41 36 31 36 37 39 40 30 42 46 39 32 38 39 41 49 34 54 38 33 47 33 30 41 42 46 25 39 41 35 27 38 44 40 33 38 28 39 43 26 27 33 36 33 37 41 49 40 52 40 36 44 42 37 36 36 33 32 37 31 35 31 38 36 42 34 29 25 35 34 28 29 39 44 43 34 37 36 19 46 35 32 35 39 38 40 44 38 32 31 32 41 35 38 39 38 36 32 32 43 39 25 33 37 40 36 38 39 39 45 34 46 42 28 40 35 44 42 36 34 31 35 31 43 31 29 36 32 40 44 42 36 43 30 26 32 40 42 27 28 34 40 33 39 43 32 34 40 44 38 49 41 37 46 29 44 39 38 35 50 32 25 40 30 31 35 36 36 40 37 45 39 39 36 36 43 37 39 30 38 40 35 36 32 42 34 33 37 47 32 36 33 27 44 30 43 31 48 38 38 40 43 44 35 36 36 39 37 34 40 35 37 41 40 41 32 34 54 41 39 49 32 41 40 41 27 44 42 39 31 31 37 26 27 47 33 40 28 38 44 45 37 36 33 37 23 35 46 29 46 61 36 38 33 38 45 39 44 37 33 59 38 34 38 42 43 40 45 41 42 27 42 46 35 43 39 28 35 34 39 39 32 50 32 42 43 39 29 38 29 35 40 30 33 40 39 43 23 31 35 29 39 41 37 34 38 33 40 43 33 40 36 45 30 43 48 34 37 33 27 36 42 35 42 24 39 44 42 28 32 41 39 44 24 38 36 30 39 38 43 45 22 36 45 43 38 31 35 34 40 44 23 31 39 34 35 27 44 35 49 38 25 42 35 40 33 33 38 44 25 35 35 44 36 31 33 39 33 35 31 42 35 34 38 37 29 40 35 55 34 34 36 30 29 31 33 34 55 40 45 44 47 36 30 41 35 41 36 32 43 47 39 43 32 36 39 30 38 44 38 43 47 31 47 36 28 39 40 38 31 38 45 35 42 37 40 38 43 33 38 33 39 36 33 39 36 32 46 36 33 33 41 38 33 47 42 44 37 34 42 42 36 50 41 40 29 38 29 33 35 42 32 32 45 32 38 36 35 49 40 31 36 44 27 45 34 36 34 35 37 44 47 43 33 38 37 37 36 28 39 38 32 36 39 42 45 48 36 33 37 40 38 34 39 35 47 29 35 48 35 37 44 44 31 33 35 33 41 42 30 46 33 33 38 44 28 25 35 45 37 39 43 45 30 35 38 33 41 29 35 37 41 38 32 41 37 29 35 37 35 45 25 36 30 37 41 36 36 31 47 40 32 44 33 43 33 32 45 40 39 29 35 47 36 40 32 48 38 34 42 28 36 35 39 51 31 43 39 41 55 34 45 33 32 39 40 35 42 38 36 36 35 36 33 29 36 46 40 39 30 38 40 42 33 40 35 47 37 29 40 39 29 43 45 30 27 37 33 33 37 35 40 27 47 32 38 36 40 34 44 42 39 42 38 33 30 33 35 39 34 34 38 29 40 35 31 32 41 35 37 44 33 26 34 38 40 35 36 45 37 37 49 34 43 46 34 47 43 30 43 39 37 44 39 30 56 45 32 37 33 41 41 26 37 30 28 34 27 39 44 48 37 21 28 22 31 27 29 49 39 41 36 31 36 40 33 33 43 48 32 44 38 39 45 30 37 37 37 36 41 46 39 31 31 38 34 35 31 31 46 27 34 35 45 30 42 39 44 45 38 48 35 43 36 39 45 33 25 31 39 24 30 39 47 31 29 45 47 41 43 37 37 38 48 33 30 31 37 33 40 50 42 26 44 45 41 39 36 42 34 34 26 34 26 35 37 38 40 45 44 37 40 39 40 36 42 34 33 34 38 42 48 28 26 44 45 44 39 35 37 41 32 38 36 42 31 36 47 31 40 31 44 36 43 30 45 39 36 39 32 45 36 38 41 46 36 36 39 27 42 31 34 39 39 28 29 39 39 32 26 41 31 37 35 33 43 43 49 39 38 40 38 32 36 29 41 35 35 27 43 33 40 38 40 34 42 32 52 33 30 35 31 40 47 44 44 31 48 40 30 41 45 44 34 44 35 37 46 22 27 42 50 37 44 53 41 29 37 43 53 45 55 32 44 41 31 42 36 44 35 41 33 42 34 35 27 32 43 33 43 28 42 41 37 45 41 28 31 36 32 34 45 32 49 30 37 38 45 33 34 33 36 41 26 27 32 38 21 33 61 31 35 41 36 41 39 35 39 42 31 41 38 32 27 31 42 37 38 34 32 41 38 37 31 29 35 35 39 38 40 45 41 44 40 42 34 41 43 40 37 40 43 34 42 31 35 30 37 43 42 36 29 42 33 35 35 36 44 35 33 30 41 36 42 22 28 38 31 36 39 39 38 36 30 39 38 32 28 34 29 34 32 38 32 37 46 29 41 36 37 46 38 28 45 44 41 42 28 30 44 48 33 39 24 36 44 27 35 42 37 36 25 44 37 37 29 28 31 27 44 30 32 31 41 29 39 48 44 28 39 38 33 39 33 44 38 39 40 32 41 41 40 45 38 35 35 32 37 38 39 48 37 40 34 39 44 45 31 41 37 39 43 41 47 40 42 53 45 32 33 34 49 36 32 35 34 36 43 20 36 29 39 41 49 35 46 40 40 48 32 39 36 30 29 27 44 38 37 26 41 40 40 41 41 34 50 36 38 36 36 38 42 37 45 51 44 42 44 49 36 45 45 31 38 52 37 32 37 55 32 44 40 40 29 42 40 28 34 40 37 37 38 36 33 48 49 33 38 40 35 32 35 35 37 44 30 26 30 36 34 29 30 37 35 37 43 32 38 37 31 33 39 39 31 35 33 38 39 29 42 44 31 41 33 36 33 40 29 36 35 23 34 33 38 35 34 44 34 47 37 37 35 26 34 34 44 33 43 36 36 35 26 49 43 35 44 31 39 38 36 50 45 41 38 31 43 35 39 32 35 33 41 30 38 39 44 35 46 49 30 28 36 36 43 35 41 31 34 38 32 38 32 37 34 29 38 42 39 35 33 40 31 36 39 37 32 40 47 46 39 39 42 47 34 39 37 50 46 30 29 42 37 44 34 39 33 27 36 31 33 42 38 43 35 35 46 46 22 38 32 45 33 52 36 38 38 42 37 39 39 43 42 43 50 39 35 39 34 31 25 36 37 36 36 42 42 40 44 29 34 39 44 29 38 32 37 42 45 33 33 37 38 47 39 40 45 43 38 52 35 39 40 47 43 34 31 45 30 33 31 36 44 48 36 38 41 26 51 29 43 42 35 34 34 37 44 28 42 45 50 43 36 56 33 36 31 43 39 39 51 40 43 32 32 47 35 37 30 40 46 35 39 39 33 38 26 43 43 33 41 33 25 40 43 44 42 36 39 47 47 32 41 35 41 35 33 36 35 34 30 32 39 36 41 40 27 35 43 39 32 33 42 28 35 39 30 44 39 30 33 28 42 31 32 37 35 39 42 47 27 33 29 37 36 33 29 41 43 42 40 45 28 28 36 57 16 40 37 39 38 32 42 41 37 55 31 49 45 36 40 42 45 29 33 43 41 55 39 33 31 36 43 34 30 34 30 29 35 30 38 30 39 35 27 47 41 24 32 50 40 38 37 49 44 25 33 31 46 47 39 24 35 37 32 31 35 21 32 40 36 41 35 41 40 33 44 35 47 33 34 37 43 41 38 39 35 32 37 38 43 36 39 42 31 21 43 30 29 42 31 35 33 39 28 42 39 34 38 39 39 41 35 39 49 30 44 37 41 43 42 37 43 33 37 48 40 30 33 30 49 35 29 37 35 40 36 33 33 39 35 34 42 32 40 33 49 34 40 43 37 41 31 39 39 55 25 47 32 33 37 33 30 35 36 30 40 35 45 37 34 34 30 46 42 46 35 46 28 37 33 41 47 42 43 46 47 35 37 41 37 31 40 38 38 43 39 38 44 35 40 30 28 40 42 35 34 27 39 37 29 36 38 29 31 48 41 24 43 33 29 23 38 34 42 36 35 28 39 45 32 32 29 42 40 44 40 35 53 32 31 41 52 32 48 36 28 33 35 34 36 33 37 30 30 38 35 28 37 27 40 38 37 38 46 40 31 43 29 35 36 42 33 24 39 33 35 36 36 35 33 43 36 37 42 45 39 33 36 34 43 38 28 30 34 39 36 19 28 40 36 47 44 38 31 32 41 33 39 45 35 33 37 37 43 41 32 36 43 40 38 44 27 32 36 44 38 24 36 34 36 28 39 39 36 28 38 50 37 44 40 47 41 34 44 36 40 44 52 46 22 50 29 39 29 35 36 35 46 36 43 33 39 43 43 52 37 31 42 37 35 40 34 33 38 35 44 44 31 29 35 34 39 42 29 34 35 39 27 40 26 31 45 32 47 39 34 36 43 42 35 26 33 45 38 36 44 40 35 33 32 34 42 45 49 44 41 41 35 24 35 43 39 25 49 40 48 41 45 38 33 41 42 47 46 49 49 36 36 32 37 24 39 39 40 33 44 40 35 43 40 37 29 28 31 27 41 28 32 32 34 32 36 30 30 34 46 29 37 34 32 53 33 31 44 39 31 33 42 42 36 22 31 31 40 48 48 31 37 31 41 31 33 32 39 29 33 31 28 33 37 45 33 39 36 47 44 34 43 34 39 45 47 36 34 41 39 36 27 37 46 45 42 40 35 43 36 45 41 39 29 29 34 36 28 41 31 40 46 45 46 29 36 42 29 29 30 33 31 43 33 40 34 39 31 39 27 53 48 42 41 36 36 31 45 40 33 42 25 36 38 37 32 48 42 30 40 41 37 32 35 47 39 37 32 40 32 34 40 38 31 36 39 26 38 33 41 42 47 28 31 36 33 38 42 33 31 37 39 36 46 29 43 30 50 38 40 41 32 38 32 40 42 37 36 34 43 37 30 38 39 42 40 44 54 34 29 37 50 45 40 32 33 35 48 32 41 31 31 30 50 41 31 29 37 38 39 33 29 41 42 32 34 39 40 32 36 39 34 35 33 36 41 37 35 40 25 36 36 33 29 28 43 39 41 37 40 50 39 31 37 39 37 35 41 34 34 42 33 32 37 38 31 39 33 36 36 39 39 37 41 44 32 34 42 44 35 35 38 40 32 35 45 31 32 44 39 41 34 33 35 31 29 38 34 29 38 35 37 35 29 22 40 27 39 41 30 39 27 28 31 35 36 34 40 33 37 50 41 41 47 40 47 26 41 39 29 47 32 35 39 40 38 34 36 40 34 33 34 27 44 32 35 29 40 32 29 33 26 40 45 27 35 43 41 31 37 42 29 26 37 31 52 34 35 38 43 33 28 35 40 31 38 42 44 40 36 40 26 37 52 39 29 38 32 41 30 37 41 35 30 50 34 33 35 39 28 37 36 31 34 35 36 33 30 48 36 36 39 43 39 51 38 39 39 39 43 32 39 33 39 39 31 36 33 29 38 29 30 33 40 32 39 42 34 50 33 39 40 49 52 39 60 38 40 37 42 44 33 41 31 34 31 49 42 40 40 44 36 35 40 34 41 29 35 38 44 46 26 37 31 38 39 48 34 36 50 34 38 50 36 32 33 37 34 37 34 36 39 29 48 40 32 30 38 32 38 47 37 34 28 26 39 33 29 42 34 30 37 24 27 38 38 35 36 36 41 32 34 30 34 29 38 51 37 43 35 39 43 39 28 52 34 31 32 35 40 33 41 48 30 37 48 36 37 33 30 41 36 27 37 53 36 38 39 34 33 30 36 39 31 44 40 39 42 36 38 34 39 38 37 25 38 49 37 39 46 21 39 43 36 38 26 42 42 35 47 33 30 33 43 35 39 42 36 34 25 32 44 35 35 45 35 34 34 33 34 31 47 22 39 35 30 30 36 38 29 32 36 40 33 41 36 35 34 28 51 34 45 32 48 29 39 31 43 32 37 32 39 33 37 31 36 39 44 40 38 48 43 25 46 35 50 35 41 47 44 40 34 41 44 28 46 31 37 39 35 33 25 41 42 45 40 40 40 51 44 37 40 38 41 45 38 33 45 40 36 43 44 44 34 43 36 32 38 31 39 31 27 42 41 21 32 35 31 41 46 41 30 31 37 29 29 45 36 30 45 38 34 41 35 40 38 27 42 29 34 39 31 40 39 34 38 45 43 41 46 41 25 45 46 35 34 39 40 42 43 40 44 40 32 45 42 25 44 27 36 30 40 34 33 36 36 30 34 37 43 35 41 32 36 38 36 43 44 35 37 31 38 50 38 39 43 38 35 30 43 41 43 33 49 38 29 42 50 36 31 26 36 50 41 34 27 52 37 51 31 33 30 28 37 42 33 37 36 39 38 28 42 36 41 43 36 42 35 39 34 38 33 27 41 46 35 35 35 28 40 33 38 42 44 39 31 44 38 34 36 31 42 49 43 31 49 24 42 39 42 29 45 32 23 35 32 47 35 38 41 30 20 32 49 31 40 42 32 36 33 29 39 42 33 31 31 25 43 32 44 38 35 39 25 29 45 31 42 25 47 39 37 32 37 41 40 35 41 44 49 34 43 35 50 38 37 29 29 32 42 37 33 27 33 27 21 52 31 36 37 29 39 35 31 30 41 38 34 32 29 29 52 40 36 41 40 40 38 34 33 34 31 27 28 37 43 40 32 25 36 35 32 45 45 38 30 32 35 39 35 37 38 36 37 54 34 27 28 43 30 43 36 31 40 41 27 40 39 34 27 23 32 27 30 40 38 30 36 31 30 34 35 44 30 34 43 29 40 45 45 32 32 35 33 33 25 36 42 35 33 48 33 29 38 47 37 38 38 37 35 45 32 28 30 33 37 53 29 37 32 33 38 36 40 46 37 46 46 29 45 34 43 28 43 35 39 35 40 49 30 48 36 33 36 36 30 38 38 32 27 40 30 33 43 39 40 33 31 45 45 43 37 36 45 31 31 37 34 39 46 42 42 50 39 26 41 33 47 37 34 39 41 28 34 34 36 41 38 39 43 30 37 30 38 38 45 39 32 38 42 36 34 39 34 37 39 40 25 30 39 30 33 44 37 43 28 50 25 32 31 42 34 35 33 37 24 38 40 38 47 27 43 36 45 39 35 42 33 30 38 26 32 41 45 42 52 34 43 37 29 49 42 49 34 45 32 37 39 28 25 28 45 43 40 49 41 35 31 33 26 40 44 44 37 30 34 35 40 37 43 43 35 38 37 35 33 31 31 40 40 24 40 37 40 30 35 41 39 36 31 38 22 32 24 34 32 28 47 40 34 39 34 39 45 35 31 44 35 35 39 38 34 32 29 33 34 28 45 41 27 52 35 31 34 42 44 51 35 35 37 28 33 36 39 30 38 32 34 35 29 33 29 40 44 39 36 39 45 37 35 33 50 28 35 39 39 35 44 43 37 32 37 36 35 30 33 31 39 37 43 53 41 40 47 30 34 36 42 32 33 50 36 43 37 39 26 34 44 45 38 32 36 35 37 41 41 48 34 43 34 36 47 40 33 30 36 38 26 40 25 40 43 31 36 27 35 34 36 28 37 44 41 25 38 32 36 35 32 38 40 40 36 35 36 31 33 33 49 36 42 40 38 45 30 36 40 31 34 32 47 31 36 31 35 36 47 38 41 32 52 30 42 39 37 51 37 40 44 38 40 35 39 42 30 35 27 42 40 32 52 37 32 38 42 42 43 37 35 37 46 40 37 26 37 34 38 54 28 40 36 41 50 25 31 38 36 49 46 38 40 48 30 40 39 54 36 42 32 34 37 26 37 45 24 40 46 34 40 37 33 36 32 45 30 33 37 28 35 35 43 38 35 47 36 40 42 34 43 34 50 33 31 41 36 36 28 39 40 40 35 44 37 36 38 44 40 31 36 35 46 38 38 34 41 37 38 33 33 39 39 36 29 48 34 36 22 29 29 47 46 32 52 32 30 33 30 32 30 49 32 36 45 42 26 37 38 43 29 32 58 31 31 46 37 35 29 42 34 43 33 43 43 29 31 28 35 37 41 34 45 29 26 27 36 39 44 42 38 42 29 38 38 42 42 38 32 42 33 29 46 30 37 39 39 52 39 32 43 29 39 54 32 30 37 37 51 36 24 38 33 35 35 40 39 44 52 38 42 32 43 44 34 37 38 32 48 39 39 45 25 28 41 41 27 33 37 37 34 36 45 30 29 42 40 34 28 30 40 38 34 36 45 46 43 52 44 24 33 31 46 39 42 37 35 35 38 39 40 43 38 29 42 34 39 39 43 31 41 38 33 38 31 46 34 31 35 31 24 37 50 36 40 43 35 39 27 36 52 31 36 28 31 42 33 39 33 35 35 27 52 44 46 31 32 37 48 35 39 40 35 36 45 50 41 40 39 40 43 39 33 36 27 30 33 35 44 33 27 43 38 43 37 33 27 34 28 46 31 36 31 35 38 42 31 29 35 38 36 35 31 41 30 33 30 27 43 55 50 60 37 42 37 42 25 30 41 32 36 50 34 39 43 33 25 36 29 44 41 36 43 30 36 40 40 38 50 43 30 36 38 26 48 39 30 39 35 35 42 33 39 51 36 45 37 49 36 23 26 45 32 33 39 38 32 43 36 31 35 45 37 30 37 35 33 41 40 54 45 51 32 42 29 39 35 28 29 41 55 37 32 39 29 28 33 30 45 44 40 39 32 43 35 33 33 26 30 44 47 49 22 32 43 50 48 44 33 37 34 38 38 30 31 41 33 43 31 49 39 37 29 34 35 34 40 38 45 29 38 38 34 33 39 39 40 32 49 23 36 42 45 47 42 44 34 36 45 43 28 45 30 40 37 41 42 37 36 43 38 28 39 29 30 55 35 41 34 40 36 44 34 33 31 42 26 26 28 46 34 41 38 26 41 39 41 32 32 30 37 39 40 33 38 40 46 36 35 42 31 43 44 44 38 39 32 32 41 38 35 39 36 46 40 32 31 34 45 44 43 49 43 30 41 38 36 40 50 37 31 35 30 40 42 34 41 38 44 40 41 42 35 44 40 35 46 34 28 35 38 38 38 39 24 42 32 42 34 41 28 37 41 31 34 34 37 42 44 46 39 29 31 29 45 38 38 46 42 41 32 36 38 36 36 43 47 36 37 37 43 38 32 41 33 43 43 55 33 50 34 38 46 39 46 31 31 34 28 30 36 31 34 37 28 49 39 37 46 29 35 34 32 46 31 50 41 36 28 34 32 30 34 44 34 35 35 42 34 33 31 38 31 33 35 32 43 45 39 40 32 34 35 31 34 27 35 38 33 34 32 39 47 37 40 33 21 37 36 36 34 39 30 35 33 35 43 38 34 37 48 37 35 48 42 39 32 37 43 40 27 35 31 35 40 47 38 35 35 35 33 40 42 45 38 32 40 43 27 31 38 31 40 34 40 36 36 41 43 47 32 39 44 41 39 33 47 37 40 37 38 32 33 28 37 39 37 37 34 34 37 29 34 42 39 37 49 36 37 30 27 44 38 48 38 34 34 39 39 32 32 36 39 35 36 39 48 33 35 40 37 43 32 30 32 36 31 34 32 48 29 42 35 40 29 34 39 38 39 44 43 39 45 32 39 35 39 30 41 29 32 41 39 42 44 32 44 28 31 44 28 38 37 33 42 37 43 36 43 39 34 29 26 37 36 33 37 37 43 33 32 33 25 40 43 51 46 36 40 31 49 32 36 38 38 39 48 35 43 39 35 45 22 40 38 32 41 31 34 38 38 41 41 48 32 36 34 39 45 34 41 44 35 27 43 37 29 34 42 28 48 46 45</t>
-  </si>
-  <si>
-    <t>JSB(3.8535076494285256, 6.980611990057961, -270.1380343133093, 1362.6821935555504)</t>
-  </si>
-  <si>
-    <t>147 262 228 218 149 225 295 237 263 280 188 259 212 329 286 287 315 293 307 195 219 310 233 217 146 245 161 196 223 179 251 252 254 168 250 264 268 275 221 337 273 293 183 268 173 224 173 279 225 215 291 155 161 291 217 171 252 195 249 210 283 223 171 222 241 286 158 228 196 192 236 175 209 273 250 159 206 154 260 175 177 168 314 260 241 196 245 282 189 226 264 239 212 184 231 184 269 203 248 234 150 203 247 285 231 239 213 256 319 114 161 212 238 222 247 255 254 206 251 165 190 263 202 214 206 197 221 213 261 239 261 152 242 176 264 186 278 215 206 230 287 195 165 195 259 148 222 251 275 251 328 168 245 271 214 147 188 140 234 181 239 258 276 209 171 132 287 188 254 368 240 209 185 229 178 225 226 212 264 147 323 250 217 156 220 276 209 237 199 222 223 243 235 263 234 187 282 316 233 235 332 136 236 260 232 205 182 269 175 171 233 333 167 222 224 218 196 213 277 209 214 132 224 226 191 263 276 213 202 234 274 175 231 251 231 258 173 253 245 221 194 175 171 208 208 298 225 195 204 204 199 151 248 286 252 194 268 283 260 207 237 220 258 268 246 226 285 179 192 185 187 184 194 288 254 220 212 203 140 305 231 188 159 251 256 233 251 180 279 265 283 215 206 204 199 214 238 294 259 279 139 338 250 244 194 139 209 197 161 256 177 206 315 172 205 281 337 173 230 218 202 216 163 140 218 243 244 198 172 265 253 276 269 282 241 325 211 245 255 270 164 165 159 183 237 278 278 167 190 211 363 216 216 143 198 251 199 200 276 240 219 157 235 243 184 234 233 214 240 198 238 125 239 202 268 285 192 175 263 216 160 223 268 202 188 189 240 197 175 228 284 234 239 260 254 243 220 239 187 315 231 198 173 139 189 196 225 261 256 212 234 277 237 239 282 227 250 233 250 272 235 178 272 197 231 289 240 189 240 193 251 162 251 198 190 239 276 296 277 193 264 227 213 345 254 221 199 126 258 271 214 264 105 273 240 218 239 174 239 157 197 199 166 155 255 307 213 271 270 309 237 201 280 229 189 276 198 260 172 253 291 284 128 271 143 271 225 259 231 221 191 289 176 266 170 215 211 275 196 176 222 263 216 250 247 247 265 175 282 246 235 163 252 257 276 230 180 245 182 290 235 229 216 179 200 231 272 289 228 258 222 254 179 244 220 233 245 236 225 178 207 239 195 235 227 137 195 166 255 241 251 199 253 283 211 308 221 132 215 236 297 197 231 219 210 146 263 251 141 273 315 205 333 213 183 240 255 251 320 171 235 171 206 210 193 265 248 252 179 209 225 189 214 238 200 170 215 201 303 291 129 227 268 294 331 200 223 185 288 178 263 190 259 252 376 198 308 292 217 249 194 184 199 175 263 224 186 233 227 214 215 196 222 165 238 255 226 168 280 312 145 240 272 244 278 238 204 210 163 258 235 216 282 166 297 302 268 274 189 216 226 277 186 237 240 260 265 269 222 317 228 167 268 246 342 235 164 212 259 213 157 167 254 236 266 240 333 269 244 223 203 286 289 261 270 217 188 227 287 222 268 190 158 296 145 291 226 203 200 160 194 213 202 249 202 197 159 319 270 162 278 137 193 165 278 288 162 245 195 143 182 194 237 213 217 213 279 229 281 303 274 186 237 172 191 231 237 127 232 268 158 241 234 160 272 277 196 299 248 257 225 215 352 248 157 250 224 309 288 229 273 255 277 227 143 218 208 181 173 323 144 289 283 255 252 231 259 184 178 224 126 173 228 194 215 227 136 179 219 231 220 222 241 259 241 230 232 250 305 242 165 195 168 295 165 254 227 204 108 244 161 158 185 242 181 339 199 183 227 223 322 199 155 211 282 251 172 219 311 185 265 176 251 277 158 264 207 233 250 169 272 208 179 215 186 214 244 243 282 142 277 313 261 163 197 288 225 207 218 216 243 283 226 234 147 190 152 228 255 255 223 209 266 308 299 213 276 260 219 280 214 189 245 270 245 206 201 238 265 277 191 157 208 277 288 207 197 263 186 225 250 305 227 248 200 279 214 258 295 354 192 191 185 240 161 306 183 238 233 220 180 184 237 206 115 200 227 363 269 266 244 174 225 157 205 249 190 239 152 263 204 264 267 298 252 289 135 207 277 290 276 276 180 265 193 266 237 242 190 277 201 192 157 339 266 321 261 256 289 287 164 213 284 268 233 250 291 181 289 219 220 163 242 286 313 257 221 140 212 251 262 283 245 223 219 194 222 218 197 236 253 220 307 292 218 208 251 245 228 191 256 136 189 272 190 243 212 202 245 222 174 252 244 194 297 267 166 265 199 297 268 259 194 243 148 230 230 298 203 283 219 229 206 208 175 266 169 147 270 209 219 180 214 248 274 238 246 262 147 270 196 239 205 203 201 216 273 283 243 252 268 335 265 151 217 205 135 196 188 187 181 313 164 188 175 205 173 243 292 253 264 203 220 196 218 217 192 244 198 181 207 273 217 267 299 181 218 212 220 259 216 243 277 210 268 244 231 241 273 215 221 212 194 223 186 261 215 178 158 199 264 225 237 155 237 261 275 203 298 205 260 268 279 263 277 250 243 216 180 254 261 194 232 272 248 232 253 254 228 268 206 240 232 253 293 214 184 191 198 276 316 290 212 218 242 267 207 220 212 212 322 240 223 280 219 185 295 254 281 274 243 126 250 205 126 227 273 253 167 215 202 208 189 169 187 211 184 262 233 220 286 244 148 264 255 233 179 227 221 175 219 281 285 165 168 285 326 69 210 235 277 268 175 261 167 217 266 247 166 209 152 230 352 319 246 223 156 273 240 205 173 197 236 318 245 335 194 233 152 192 155 217 183 190 229 231 232 226 231 168 197 230 284 257 306 187 185 175 176 201 260 228 208 309 254 125 219 269 237 221 219 205 222 249 219 252 270 220 210 153 249 189 243 233 227 168 206 234 154 242 213 238 223 263 248 296 200 270 241 257 247 180 186 190 269 211 295 285 288 178 203 232 236 236 280 267 251 181 210 285 224 261 173 277 202 148 290 277 186 240 247 281 290 238 105 202 299 284 292 240 283 301 171 240 260 185 222 208 184 194 218 167 213 261 208 257 180 261 219 210 136 195 212 273 247 126 207 281 218 249 259 202 284 332 212 351 244 271 241 192 285 230 173 225 221 169 270 268 266 194 178 200 241 161 300 224 238 301 284 213 263 258 200 245 286 184 200 233 147 258 172 245 112 185 233 164 279 235 203 190 201 275 235 306 260 199 193 187 214 297 227 185 267 277 252 241 254 232 280 150 180 240 204 210 222 253 193 198 287 193 166 162 182 272 283 222 268 246 260 221 176 236 217 151 195 260 236 250 235 157 222 300 275 123 241 258 225 187 145 285 244 220 325 208 207 174 225 339 220 146 158 292 154 212 279 227 236 285 213 220 232 269 275 311 210 141 227 199 240 331 202 225 213 289 174 204 234 259 163 226 239 148 189 170 264 267 325 261 245 232 244 263 228 228 312 244 213 185 241 244 241 187 250 323 223 239 178 271 265 218 234 194 226 206 264 166 355 157 199 200 278 234 211 259 256 241 210 257 256 257 266 235 313 250 248 201 209 198 230 140 181 238 290 166 285 323 218 259 285 274 215 260 246 219 325 164 174 63 192 242 227 294 187 286 250 264 326 218 231 243 270 241 261 181 211 268 234 262 187 161 362 222 196 259 245 263 275 159 213 317 251 217 253 173 247 178 180 200 235 240 200 198 183 122 273 192 229 263 238 182 231 127 117 252 176 170 203 160 221 239 199 301 132 278 244 239 240 246 247 230 211 215 239 152 250 237 312 272 209 179 192 212 244 292 216 177 188 142 258 266 252 268 178 248 146 346 160 262 186 262 272 218 283 178 230 151 211 227 278 233 262 207 202 196 200 193 175 166 226 335 353 266 299 233 228 219 241 191 252 276 230 155 178 234 161 237 262 201 231 213 194 234 120 281 204 181 278 207 213 269 191 248 214 195 306 271 233 192 181 222 246 173 276 244 221 264 188 210 172 235 234 234 122 165 194 266 215 310 153 192 157 193 319 229 216 205 216 253 177 172 197 208 139 157 196 285 282 214 251 296 259 232 171 149 238 213 225 174 253 271 201 298 214 288 192 269 290 258 234 315 231 280 270 156 240 231 266 245 302 203 228 322 267 219 212 274 219 268 228 233 273 212 198 217 297 247 279 191 203 217 204 172 245 296 207 261 238 279 215 185 219 216 206 166 283 226 220 187 194 202 267 168 246 246 168 280 200 254 326 160 260 195 256 207 292 256 245 232 117 210 233 337 202 226 212 238 262 247 251 266 247 168 193 229 213 158 278 184 246 232 171 258 148 219 190 221 283 210 269 232 194 184 225 258 198 265 278 267 258 243 183 203 303 270 199 209 187 259 169 212 193 267 344 280 180 224 320 247 221 192 309 295 201 183 204 267 232 207 212 291 147 222 278 230 229 234 121 191 225 245 303 202 233 196 169 250 195 210 179 226 305 244 262 275 257 295 211 191 283 231 252 287 263 303 312 227 196 268 155 208 216 208 114 215 218 274 188 195 287 216 183 115 225 248 231 244 248 206 253 182 204 228 217 205 225 268 300 276 275 146 252 197 233 254 268 204 185 192 213 197 167 285 241 252 253 267 210 222 233 217 306 160 257 217 207 279 205 303 281 258 247 315 207 264 186 229 237 203 221 319 193 275 179 242 196 158 189 283 239 201 180 216 256 148 228 195 225 219 259 230 204 289 221 249 314 196 263 149 238 197 182 319 266 253 203 244 170 231 223 223 159 182 241 153 283 221 225 240 215 195 196 295 250 270 282 186 248 231 215 280 290 225 254 191 248 262 227 162 190 155 344 200 216 263 280 265 288 219 293 231 246 298 313 288 336 157 117 166 197 248 201 220 218 212 201 157 186 148 243 222 251 142 261 267 206 113 267 195 156 174 230 233 307 260 327 171 315 274 261 197 248 218 212 191 265 323 199 249 293 272 274 244 264 200 202 175 158 210 268 287 158 185 266 209 232 153 204 220 225 268 191 262 315 251 366 299 208 235 232 257 268 287 225 224 217 224 226 230 260 189 167 202 206 223 169 307 253 267 228 246 216 156 279 236 232 163 265 207 287 184 137 258 170 339 193 180 212 271 196 234 275 256 152 246 270 151 282 226 203 196 243 248 238 254 193 255 138 234 210 214 246 212 295 280 265 224 331 279 208 223 225 293 222 260 271 230 229 255 201 202 206 238 257 306 177 262 215 213 318 220 322 314 237 208 267 188 191 253 196 206 166 205 239 214 238 294 173 193 284 181 235 262 218 373 233 291 213 225 214 180 213 198 259 308 214 230 225 251 182 212 168 203 181 254 201 289 237 236 215 193 211 246 199 231 266 267 216 183 265 186 255 193 181 304 173 218 221 192 237 228 254 275 273 158 180 138 265 318 232 235 204 194 237 205 242 288 265 264 224 221 319 189 252 228 287 250 273 119 183 241 167 233 254 276 228 234 246 242 264 300 203 245 238 196 256 218 219 157 285 240 207 243 146 305 254 283 246 215 237 219 220 250 204 218 255 256 213 329 254 208 286 222 209 126 246 311 306 150 318 258 195 132 219 169 234 199 206 205 261 197 245 167 279 298 222 192 204 241 189 161 249 236 262 195 204 249 272 233 295 204 346 248 259 286 209 244 168 333 207 206 235 187 179 205 186 164 271 170 291 238 157 322 295 183 197 233 250 248 251 229 181 280 230 230 222 234 124 194 136 285 230 275 232 291 133 243 214 239 167 208 240 225 161 292 146 232 202 195 134 251 309 192 252 173 301 206 193 180 221 224 241 185 187 234 264 136 201 260 318 213 156 174 246 146 306 238 253 182 222 156 205 242 322 264 181 229 251 247 227 259 305 323 253 244 223 231 284 212 224 100 219 175 182 244 214 245 276 314 234 351 236 262 195 261 229 179 234 206 192 249 236 221 227 238 286 190 231 166 217 205 187 213 215 131 280 206 331 164 238 181 235 215 226 216 173 237 147 244 245 233 257 91 307 243 294 263 282 175 141 261 308 292 191 140 142 266 232 200 207 256 297 191 223 182 336 263 272 257 227 185 236 279 207 216 296 268 238 273 219 196 215 181 188 276 242 178 227 240 352 227 240 167 179 216 235 211 220 218 227 302 182 177 267 222 248 211 229 170 224 260 208 183 186 247 139 268 219 156 256 290 301 177 210 152 161 228 188 224 252 250 296 327 184 205 216 228 220 233 152 168 210 242 197 216 130 296 227 221 195 214 245 217 257 262 188 237 254 272 182 164 167 206 203 198 247 201 229 209 225 213 181 173 374 116 204 230 232 189 188 234 180 316 153 167 231 185 231 189 250 213 240 285 244 191 198 250 233 277 239 164 281 214 172 251 265 203 256 227 342 236 238 174 238 234 200 248 177 295 179 250 240 262 227 230 231 213 285 199 251 227 193 237 250 168 291 240 237 280 235 237 204 248 208 277 275 191 196 222 250 283 242 234 186 236 293 164 182 206 281 255 220 178 223 214 351 304 221 233 243 240 211 223 164 239 212 272 263 225 308 233 263 281 231 214 257 252 234 186 212 187 249 238 272 183 162 211 195 267 279 218 274 243 239 185 300 136 199 191 204 201 218 301 256 232 227 205 239 217 188 228 188 249 185 203 194 277 246 258 190 178 233 182 229 218 247 156 244 170 181 216 255 180 166 234 267 226 275 265 130 298 238 240 233 235 235 292 238 293 233 220 297 278 151 270 202 274 173 280 219 216 308 223 233 193 243 195 205 207 237 232 223 181 256 215 243 168 193 245 237 335 135 211 259 285 255 251 240 122 246 214 255 313 234 242 155 259 288 294 276 211 272 277 329 248 268 241 252 210 146 183 292 148 217 237 193 276 153 204 263 201 294 232 268 246 256 212 228 201 158 245 218 269 294 243 241 216 350 279 226 199 222 164 164 258 182 292 195 204 240 236 170 189 196 171 223 221 152 149 276 232 274 325 227 203 191 165 235 207 239 136 260 235 192 274 164 231 177 198 216 225 184 175 237 155 246 230 250 209 228 195 145 281 241 238 238 194 235 267 238 197 146 230 184 229 265 316 232 135 197 230 250 254 276 229 213 264 182 204 244 190 169 136 252 364 276 300 235 318 131 229 278 261 176 210 174 205 312 276 189 176 236 131 269 205 199 193 225 273 259 255 186 222 297 231 283 258 172 210 194 248 204 287 243 253 157 186 168 344 220 284 187 178 266 209 177 214 256 206 243 210 175 213 182 234 162 241 127 260 217 222 241 251 253 255 330 229 229 164 249 198 244 276 171 207 277 188 241 237 298 162 275 266 315 190 272 236 299 207 283 188 219 245 262 278 184 185 223 190 222 306 294 173 230 226 247 256 252 228 232 244 240 268 210 195 172 272 194 178 202 251 269 266 248 199 247 305 209 277 222 161 161 183 275 212 203 189 155 252 273 298 215 275 219 366 297 177 197 186 224 202 281 221 241 307 257 241 269 240 216 161 207 306 274 216 251 196 249 313 245 196 254 244 292 236 251 226 233 226 297 157 250 201 223 201 209 267 233 242 164 197 286 233 231 278 277 273 308 270 232 134 305 257 200 258 236 149 274 193 228 294 208 271 221 174 157 286 185 236 284 262 221 275 178 239 196 257 158 319 260 200 220 177 192 260 263 122 297 187 220 284 258 294 268 218 217 232 163 234 200 223 254 321 220 222 185 256 223 213 279 141 247 279 210 215 295 310 207 235 200 291 184 242 229 228 214 258 231 258 257 206 199 298 192 199 245 180 322 206 215 237 246 207 184 282 165 269 172 197 267 245 321 291 181 201 199 264 245 315 189 218 192 208 182 173 274 264 210 233 207 247 220 264 159 246 201 264 217 213 166 154 176 231 267 162 307 222 192 251 346 318 235 196 243 274 247 279 141 232 242 158 317 191 257 276 204 257 194 243 194 281 208 132 272 245 241 206 326 301 126 218 159 234 235 306 264 176 149 242 238 239 216 241 200 249 275 236 206 252 194 210 204 150 192 323 313 328 221 226 217 251 216 196 246 297 291 192 283 279 300 210 167 199 185 227 210 246 198 288 179 184 254 220 325 309 192 217 268 177 293 208 314 222 282 195 285 134 215 306 164 262 265 222 270 229 172 178 345 179 224 262 239 212 240 365 160 237 236 181 209 162 143 194 182 217 293 215 331 191 305 234 234 242 201 224 291 207 276 222 219 258 270 250 264 181 207 216 235 232 214 204 225 233 237 218 202 185 170 172 286 246 244 206 172 147 294 173 239 126 177 330 175 160 161 221 279 140 173 198 270 187 274 163 216 253 244 329 264 252 209 205 284 117 177 263 224 246 271 192 250 178 206 280 197 234 296 188 166 246 248 216 105 246 229 209 172 218 182 258 255 118 250 174 143 216 254 197 181 188 282 288 240 257 251 220 242 275 180 186 168 196 205 175 203 257 199 187 117 225 238 269 287 188 264 199 156 216 211 228 192 186 187 219 191 219 238 191 238 198 166 246 249 245 189 173 220 332 224 230 222 122 262 161 272 265 311 274 232 206 163 225 228 261 257 235 234 219 219 203 208 209 238 199 225 202 226 270 278 229 272 245 168 196 233 310 179 179 282 297 217 228 268 198 319 243 257 205 315 314 184 258 223 287 233 288 195 233 260 269 199 188 246 223 180 252 166 301 299 367 177 226 239 247 213 217 274 236 172 293 174 232 212 169 209 146 212 288 235 256 222 247 221 166 205 231 176 261 193 307 165 242 287 194 200 280 221 210 217 220 313 192 236 143 206 232 244 251 219 146 219 236 204 252 182 194 219 263 272 349 316 157 188 175 191 253 187 243 248 231 165 206 207 236 186 196 217 128 247 224 199 205 216 226 236 304 255 181 207 242 232 213 280 211 227 261 165 265 221 180 348 273 279 210 299 210 324 198 202 224 270 202 204 239 221 257 288 277 269 222 121 268 252 188 277 234 262 215 264 252 244 181 261 223 190 227 179 232 247 269 206 240 201 156 306 217 270 194 250 197 248 249 278 276 279 217 189 267 255 174 169 193 308 183 252 108 254 240 148 260 204 204 266 129 278 193 212 195 230 226 248 261 251 224 193 274 201 293 212 270 193 158 213 264 241 212 224 225 289 257 285 219 211 235 286 229 230 287 172 217 192 184 267 190 227 210 165 183 178 232 223 208 232 219 256 241 208 290 230 285 220 215 210 240 165 197 228 278 207 242 183 275 185 316 272 242 252 269 267 174 259 274 309 283 234 241 302 126 257 174 168 250 219 216 241 224 235 288 255 203 211 164 197 133 202 163 224 242 155 221 282 290 269 263 281 207 160 169 202 284 200 180 241 221 241 285 238 252 201 208 117 269 261 219 190 224 232 235 291 222 211 245 189 188 229 208 212 249 196 215 222 234 259 263 237 261 207 192 163 337 208 176 167 221 241 233 285 196 244 239 279 212 268 219 213 200 171 217 258 273 264 180 296 189 206 187 312 244 225 338 260 266 241 237 217 264 142 229 224 219 219 169 251 228 165 232 155 281 271 250 136 172 258 221 191 322 266 226 123 267 169 150 181 304 252 343 259 232 265 246 176 191 231 286 187 298 191 309 230 225 247 228 285 255 230 305 219 256 209 216 212 231 233 275 207 211 225 310 300 214 245 257 185 190 230 254 209 211 223 221 297 242 231 291 283 287 217 191 284 205 213 233 319 193 232 212 197 314 180 251 262 291 185 273 93 246 173 242 148 304 205 194 197 235 243 276 298 211 212 247 239 156 229 194 245 293 244 235 233 183 258 287 251 203 190 269 199 233 267 188 219 336 203 228 210 241 184 174 216 232 226 178 164 236 170 266 183 234 235 285 242 257 225 221 192 197 213 280 224 251 276 225 302 208 175 197 247 195 196 223 290 250 351 152 210 346 163 243 231 193 209 272 255 162 214 292 147 289 232 217 279 246 184 267 261 283 236 274 194 211 104 188 177 235 294 214 207 215 232 233 255 352 265 241 263 165 153 209 252 301 273 186 193 208 253 203 299 312 199 212 197 279 184 241 245 253 216 185 262 193 169 200 236 303 237 203 185 218 268 309 237 245 306 149 271 227 208 258 216 145 213 199 163 266 250 215 190 271 201 170 235 266 194 151 237 237 260 254 264 254 256 211 268 187 239 210 234 148 230 275 233 275 341 198 239 235 228 187 164 266 221 156 313 232 214 204 332 206 209 210 297 274 185 218 284 239 209 214 148 229 248 163 226 222 150 226 177 236 227 152 182 295 235 141 290 240 196 182 172 251 142 225 218 287 234 272 189 163 233 219 179 303 189 209 253 210 307 246 283 263 282 156 191 273 200 206 302 276 248 282 187 192 244 294 169 210 164 313 216 314 343 247 211 210 188 232 210 221 201 229 201 178 253 268 285 229 199 229 228 262 254 203 205 264 239 233 204 247 153 227 236 273 157 271 250 227 316 193 289 244 312 232 190 260 282 195 190 232 296 218 244 219 248 227 221 201 218 200 253 271 200 223 161 209 188 199 250 193 216 266 269 225 250 231 285 179 297 201 241 185 297 276 267 183 260 211 231 198 229 185 246 263 191 209 203 197 285 222 223 234 266 196 184 290 173 223 237 229 277 242 175 265 223 289 263 216 223 226 246 198 318 273 198 194 184 178 262 272 175 238 278 176 289 194 212 192 191 245 243 232 244 245 183 212 204 301 195 198 342 217 243 233 192 252 231 153 159 214 223 184 230 212 207 274 202 197 225 252 358 199 236 253 219 256 161 226 255 252 183 292 172 151 184 144 160 239 168 221 247 229 217 215 160 163 247 237 276 173 277 201 158 210 151 247 214 169 160 258 275 319 190 157 215 203 198 248 212 159 260 207 177 131 176 218 197 261 152 232 368 228 279 233 195 212 201 160 277 189 239 159 296 173 279 141 377 264 129 276 282 225 225 323 228 253 199 326 205 238 194 206 297 246 242 224 244 184 200 182 216 258 244 196 264 286 184 300 249 204 209 189 273 185 266 205 137 270 283 223 203 243 281 267 253 215 257 223 240 199 224 224 238 140 311 207 214 248 271 252 225 214 242 234 191 277 219 177 229 249 263 300 193 267 304 218 249 254 191 210 229 204 266 159 251 269 256 248 216 197 290 300 181 190 254 224 284 217 187 208 112 282 261 295 222 288 250 265 174 256 200 223 255 227 272 209 158 185 277 164 273 182 182 218 256 255 243 159 227 293 280 200 174 203 207 226 262 165 152 237 209 208 200 169 253 203 120 274 177 264 236 156 197 202 260 259 264 161 243 210 194 280 164 196 248 212 230 287 151 227 199 210 222 259 296 309 266 297 205 226 245 212 184 189 176 259 330 236 337 192 164 220 249 198 298 274 262 240 245 187 192 202 189 272 245 148 170 314 183 253 153 210 267 206 299 194 220 226 236 217 254 213 219 272 240 234 253 193 269 363 293 281 213 278 171 224 240 185 233 188 220 269 227 336 257 232 164 211 195 212 227 198 239 287 230 241 243 226 143 197 261 205 219 228 191 135 200 280 266 192 192 214 175 236 177 241 163 181 184 174 240 233 291 256 225 238 310 194 235 172 217 229 224 138 208 135 273 243 219 186 198 249 213 253 246 200 224 287 203 203 275 231 257 211 354 164 277 252 186 196 205 269 217 215 233 199 260 238 291 204 177 256 214 199 218 239 270 238 201 167 286 233 177 180 231 229 244 231 253 193 186 253 185 272 186 236 244 265 200 198 275 230 265 243 143 203 211 130 205 231 283 258 229 200 239 121 278 208 216 217 248 192 266 169 200 270 286 239 288 252 175 299 300 244 238 266 204 290 258 234 244 185 244 246 172 276 222 241 133 202 339 199 204 153 242 298 318 228 202 197 150 228 315 223 214 293 207 231 243 210 160 216 238 198 169 243 178 221 352 167 220 314 214 169 231 232 246 172 279 139 243 226 253 225 243 234 230 323 250 236 284 243 220 232 249 183 131 288 215 212 191 215 187 238 223 243 238 285 210 259 163 215 277 279 222 258 335 189 209 130 154 337 287 211 295 145 148 265 203 250 276 265 260 184 230 193 183 144 135 227 332 237 192 238 165 165 211 177 231 238 243 224 177 272 247 197 219 205 228 221 170 226 134 214 273 217 213 231 223 207 239 212 265 275 268 261 252 174 228 331 203 245 212 231 274 205 221 246 243 259 268 143 255 326 260 239 169 225 190 215 200 289 182 211 149 236 279 244 211 191 185 256 243 236 260 246 252 248 212 291 276 327 256 242 179 247 195 244 188 277 233 189 228 267 240 244 231 273 210 237 190 165 241 207 235 215 320 270 201 232 131 252 270 175 269 230 209 255 150 293 315 274 179 217 167 275 161 210 286 230 204 180 241 253 252 188 253 152 227 263 260 287 262 250 291 208 224 207 234 236 199 156 252 228 348 188 259 215 214 212 252 357 288 274 232 230 247 265 278 247 234 169 207 181 328 252 194 322 202 226 234 230 245 278 252 160 211 231 282 317 173 271 271 240 236 192 214 209 252 252 184 230 204 155 173 269 226 285 232 195 180 224 202 215 222 231 313 185 192 195 233 213 244 190 169 217 236 304 192 312 215 234 211 166 209 145 324 272 271 276 193 166 262 273 190 169 286 268 190 277 226 267 163 268 249 220 278 211 228 289 234 181 205 322 177 231 240 319 218 213 306 180 218 255 261 272 222 260 251 291 212 179 296 250 232 256 270 265 192 230 174 237 290 240 252 201 262 266 229 158 237 225 239 282 194 301 251 191 270 227 158 260 245 286 215 219 275 220 119 227 247 304 163 239 160 241 257 195 139 171 201 222 204 247 238 242 314 231 224 244 352 206 231 222 201 223 211 183 219 148 216 213 249 245 213 125 253 244 193 156 163 263 331 223 246 209 136 276 154 166 252 222 196 248 296 303 154 240 208 213 185 227 248 220 261 196 186 299 230 161 207 246 261 202 211 176 244 264 226 284 272 219 198 225 180 228 243 235 207 230 166 252 150 191 180 187 249 255 267 211 291 205 106 181 246 239 252 148 187 237 262 235 276 210 174 184 207 257 258 244 274 297 201 319 226 270 204 275 180 130 232 162 226 199 213 295 232 178 313 285 286 204 262 288 259 234 165 222 245 242 166 218 227 251 257 249 292 211 223 179 127 229 221 227 198 296 179 233 267 252 201 185 201 218 247 203 168 257 213 250 217 238 297 234 214 274 268 244 258 184 270 236 250 214 232 238 185 156 208 166 120 161 292 203 257 189 243 320 310 270 244 197 219 158 181 258 242 267 348 220 171 155 263 286 241 231 258 180 413 300 210 222 258 234 237 314 225 254 162 271 249 167 302 253 152 257 192 220 256 196 242 202 323 221 248 186 201 160 223 235 195 254 269 246 269 146 192 256 189 265 253 249 209 268 218 237 341 259 249 243 259 161 243 266 210 198 198 183 214 272 186 229 154 244 237 290 121 186 219 250 264 168 281 188 177 242 263 254 252 131 230 291 307 270 252 197 170 260 246 121 208 287 172 289 199 261 196 245 186 170 239 222 234 165 241 180 251 148 240 239 233 229 228 186 316 187 184 222 226 242 228 255 236 204 250 312 283 251 233 212 191 226 154 248 215 338 244 268 260 287 216 216 244 223 211 183 196 254 259 250 252 224 200 243 164 252 350 242 262 285 238 240 245 170 275 295 257 215 245 291 244 249 193 304 268 286 249 266 218 221 273 267 205 170 145 254 222 232 214 200 200 207 269 233 255 260 192 333 278 238 319 220 252 195 238 214 166 253 207 202 200 281 226 233 217 198 326 227 189 179 261 193 241 225 237 175 225 217 248 270 259 157 230 212 204 210 146 244 239 224 177 199 224 280 287 237 225 249 266 243 200 274 189 269 142 161 280 201 277 289 279 203 129 282 264 257 225 158 281 207 236 244 207 150 150 269 310 181 208 319 292 228 147 228 185 271 190 222 230 292 272 162 328 228 202 210 202 241 340 152 278 221 271 226 189 215 155 304 277 198 294 170 245 239 179 223 302 248 178 226 284 210 237 226 272 263 207 221 181 283 243 286 274 137 272 242 237 323 224 297 192 206 304 203 279 200 254 246 217 188 259 169 234 170 298 256 211 204 209 177 214 205 283 199 287 272 181 261 238 152 288 316 237 197 255 206 225 199 246 204 175 244 209 184 212 251 260 279 234 261 287 256 189 149 205 245 193 218 226 216 145 211 206 172 171 192 218 214 260 194 192 207 290 261 277 181 253 169 259 296 237 321 233 237 289 222 182 231 246 207 224 219 116 288 323 207 253 227 271 199 193 222 252 167 179 169 195 197 276 217 178 226 186 185 162 144 271 261 229 239 209 183 251 241 158 237 207 147 232 255 258 229 185 266 241 257 163 207 275 237 167 181 232 266 250 222 193 289 230 249 183 265 175 289 255 265 288 261 320 211 285 247 240 273 185 142 171 232 143 241 269 360 132 129 243 282 228 264 219 194 225 285 162 162 176 245 172 204 358 309 149 297 281 178 262 233 252 236 224 135 232 155 210 282 238 238 222 272 218 247 226 240 214 307 229 158 180 264 293 198 178 172 235 338 223 256 220 174 222 205 206 239 247 192 192 299 125 212 180 274 188 220 204 268 282 220 242 201 311 200 253 248 242 217 187 241 210 262 133 206 195 221 159 172 268 265 222 150 268 225 203 169 216 251 313 279 284 205 224 191 242 201 205 221 235 243 169 198 223 260 253 250 219 258 190 350 149 164 224 173 229 297 287 231 202 332 179 202 235 276 304 206 284 196 247 263 148 208 251 303 188 254 274 298 154 230 275 304 284 267 205 270 300 215 271 172 263 250 211 158 262 260 208 141 200 215 240 216 201 205 242 229 330 263 210 167 245 185 194 300 211 277 194 242 249 260 205 182 167 207 307 172 176 213 250 118 141 316 207 212 299 236 268 257 263 239 277 208 200 252 163 182 201 235 204 278 190 239 277 226 208 208 166 224 265 237 211 245 264 222 296 256 265 240 276 239 230 275 226 240 186 194 200 223 208 265 197 242 225 156 261 256 260 221 242 232 218 202 161 226 198 193 163 243 169 205 235 208 220 221 222 191 203 260 173 138 213 207 242 180 227 135 255 287 200 268 257 220 199 234 149 235 300 233 214 186 249 253 317 198 255 176 242 257 188 264 255 248 226 167 281 169 202 161 151 185 200 236 176 206 199 235 207 209 319 281 120 248 238 205 246 198 266 226 183 225 256 302 215 232 208 256 190 204 223 238 264 206 322 200 237 213 264 215 295 225 237 235 255 265 237 297 259 271 361 244 258 246 196 343 205 186 235 254 198 262 166 225 257 225 264 315 203 265 318 257 272 96 227 237 153 194 127 267 226 283 211 278 228 261 197 232 231 282 305 242 199 256 231 277 253 286 273 334 223 230 213 190 293 287 171 214 336 221 185 233 328 197 220 254 281 183 291 281 167 228 246 238 227 235 221 193 218 305 201 223 235 216 165 208 212 192 303 171 178 189 247 206 164 122 217 246 202 262 194 259 261 162 203 276 241 180 222 180 209 129 204 253 311 200 230 207 293 207 240 173 282 193 184 128 160 234 193 174 240 172 323 213 203 212 175 222 234 286 217 249 198 207 196 146 255 217 227 266 217 261 277 208 296 264 167 191 178 257 243 143 195 211 199 233 198 201 213 320 200 247 323 164 165 238 257 277 284 229 196 177 235 160 237 243 145 196 134 267 251 214 187 220 252 207 191 203 274 154 191 282 273 274 236 208 271 183 238 237 304 307 170 211 191 246 237 182 255 202 213 233 208 277 267 184 239 248 212 289 268 80 249 202 271 220 327 197 227 240 283 254 271 179 255 216 209 286 301 201 205 184 207 176 249 227 253 222 243 235 185 316 186 225 152 285 193 208 172 210 260 300 166 263 210 245 251 267 268 269 215 258 307 264 211 231 306 247 237 279 276 177 233 248 233 209 278 240 228 300 177 287 157 217 232 211 186 162 231 242 173 249 290 290 259 184 360 210 253 186 248 228 193 294 285 299 193 200 281 197 223 213 242 298 254 281 222 252 269 144 332 215 272 206 214 178 221 243 271 230 199 244 265 285 176 228 246 196 196 200 187 210 263 225 211 275 239 269 267 168 208 283 246 197 219 277 201 196 250 182 287 208 212 128 190 279 236 197 231 216 181 284 328 221 226 174 261 193 187 192 249 324 297 228 299 153 222 217 276 68 316 278 191 285 202 259 177 273 307 224 311 257 266 221 270 263 213 157 293 278 370 259 228 257 203 271 201 160 286 176 181 134 178 196 197 221 138 142 314 253 166 224 275 246 233 157 242 233 147 197 167 258 265 313 159 201 223 213 214 183 102 192 224 214 236 197 267 286 258 235 198 284 168 248 186 226 327 216 229 236 246 179 306 274 252 266 316 189 77 309 145 151 235 188 182 229 218 156 286 290 209 246 251 236 241 200 252 308 197 279 263 213 281 264 195 259 240 274 254 277 207 216 181 317 200 166 234 196 246 242 213 189 205 262 198 255 222 258 221 300 227 186 286 253 249 204 264 299 359 157 288 204 294 250 227 209 254 235 192 205 175 259 207 215 206 206 249 251 322 159 335 187 259 209 268 255 220 264 235 260 203 261 296 263 182 247 207 231 280 243 204 287 172 243 178 222 315 268 191 203 148 238 209 221 242 187 187 166 247 300 156 236 163 151 143 288 192 279 218 261 199 225 263 188 230 146 287 284 293 206 207 318 246 169 302 373 212 280 237 243 161 232 218 211 133 227 286 179 257 198 178 228 179 219 214 211 237 206 239 214 229 231 181 231 233 214 129 204 264 152 227 216 213 229 251 235 223 251 273 230 217 260 168 292 275 188 185 219 228 215 85 202 278 179 265 303 212 255 162 240 272 251 198 228 182 221 215 301 257 217 258 337 241 205 335 176 159 224 308 197 120 249 193 243 161 281 232 211 132 243 300 271 339 249 226 216 247 219 230 276 236 303 295 149 309 179 247 212 200 218 244 319 218 280 226 265 305 254 351 166 169 307 239 243 216 254 236 230 224 323 217 181 180 217 213 194 263 208 246 205 233 199 257 156 210 272 152 281 221 263 250 331 293 203 98 198 335 275 255 316 206 217 167 163 222 218 288 274 277 218 260 236 136 181 261 290 125 245 265 320 268 232 197 193 225 213 266 303 318 274 226 336 241 289 187 258 248 224 152 295 263 140 231 242 243 207 141 195 194 243 164 242 167 219 225 232 136 202 230 225 197 243 214 263 342 180 190 229 267 191 221 221 229 175 96 195 160 228 279 268 240 277 198 244 202 233 199 206 113 230 193 181 207 202 267 246 245 257 310 263 241 241 211 237 306 232 237 210 260 253 233 129 194 312 304 243 210 239 157 247 249 248 203 194 158 173 239 207 262 164 246 309 292 222 143 215 211 191 184 216 164 179 222 226 233 170 243 163 293 145 263 283 242 230 261 176 165 236 255 220 268 181 228 271 227 180 323 268 180 197 259 255 182 230 325 223 203 200 239 239 236 301 250 235 213 254 148 214 172 222 288 252 138 196 232 186 227 236 201 188 227 199 204 246 176 264 206 302 229 255 246 180 218 216 206 253 253 272 201 266 234 188 208 289 215 217 258 308 217 222 230 268 277 244 240 224 201 274 188 254 248 206 224 317 231 189 207 240 163 247 247 154 187 259 245 202 200 250 188 262 217 268 185 200 267 245 259 228 273 177 264 225 202 178 157 227 203 175 198 226 283 180 152 278 244 240 265 209 196 180 251 243 206 239 201 180 211 188 292 253 163 238 209 295 316 196 185 267 179 161 216 259 260 222 207 308 196 219 249 204 196 186 200 243 173 209 219 220 212 203 239 207 240 202 145 277 165 264 327 162 282 200 199 176 240 230 226 271 204 166 259 222 232 268 215 273 133 280 279 193 241 141 219 256 258 230 222 185 255 181 205 199 164 278 198 218 205 274 236 158 226 190 233 237 207 198 261 231 129 247 253 172 167 268 204 299 154 214 176 293 218 146 183 270 140 210 276 269 231 241 214 105 247 273 231 207 270 208 288 188 292 192 190 167 260 256 213 204 262 159 219 213 167 269 239 340 191 134 234 236 245 310 295 219 292 238 294 205 200 260 219 248 174 239 228 167 264 277 164 264 199 208 165 278 179 279 241 226 262 205 185 189 286 289 280 392 258 209 239 247 242 238 280 222 244 236 256 194 254 223 266 221 230 288 226 239 154 148 211 325 214 185 214 121 282 313 283 316 268 237 256 256 300 266 198 263 233 202 213 190 205 247 230 316 270 175 204 294 223 257 314 245 227 193 180 238 208 147 314 207 167 278 118 192 207 256 172 212 244 291 210 246 215 175 176 247 292 202 222 247 279 269 239 161 31</t>
-  </si>
-  <si>
-    <t>GAM(0.2907255365965849, -8.438261325716492e-23, 0.4954079929154464)</t>
-  </si>
-  <si>
-    <t>1 2 1 2 0 0 1 1 1 0 0 0 2 2 1 2 0 0 1 1 1 0 1 1 1 0 1 0 3 0 1 2 1 0 1 1 2 3 0 3 1 2 1 1 1 0 0 0 0 1 3 1 0 2 1 0 0 1 1 0 1 3 1 0 1 2 0 1 1 1 1 1 1 1 2 0 1 1 2 1 1 0 2 1 0 1 0 2 2 1 0 1 0 1 1 1 2 2 2 0 1 0 2 2 2 1 1 2 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 2 1 1 0 2 1 1 2 1 2 0 2 0 2 1 0 0 3 1 0 1 0 0 1 0 0 1 4 0 1 1 1 0 0 1 1 1 0 0 2 0 0 1 0 0 1 1 2 3 0 0 1 1 0 0 3 1 3 1 0 1 0 2 0 0 1 1 0 1 0 2 2 0 5 3 0 1 1 0 0 2 1 1 1 2 1 1 1 1 1 1 2 0 1 0 0 0 1 1 0 0 1 1 1 1 1 0 1 4 1 3 1 0 0 2 1 0 0 0 1 1 1 2 1 0 0 1 2 0 1 3 0 1 3 1 1 0 1 0 1 2 1 1 2 0 1 1 0 1 0 0 0 1 0 1 1 0 1 0 0 1 2 1 0 1 0 2 2 0 1 0 2 2 2 2 2 1 0 2 0 2 1 0 0 1 0 1 0 0 2 1 2 1 2 0 0 1 0 1 0 1 1 0 1 0 0 1 0 1 0 1 1 2 0 1 0 1 0 0 1 0 1 2 1 0 0 2 2 1 1 0 2 1 0 1 1 0 2 1 0 2 0 2 0 1 1 1 2 0 2 1 0 1 1 1 1 1 2 0 2 2 0 0 2 2 1 0 2 0 2 1 0 0 1 1 2 1 0 1 1 1 1 2 0 1 0 2 1 2 1 1 2 1 0 2 2 0 0 0 1 1 2 2 1 0 1 1 0 0 1 1 0 0 0 1 3 0 4 1 1 2 0 1 2 0 4 2 1 2 0 2 1 1 4 0 1 1 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 1 0 2 0 1 1 1 0 2 0 2 0 0 2 0 0 2 0 1 0 1 0 1 1 1 1 0 0 2 1 1 0 2 0 0 1 0 1 1 1 1 0 2 1 1 2 1 0 0 0 3 2 2 1 1 0 1 1 2 2 2 1 0 0 1 2 1 0 0 0 2 1 0 1 1 1 1 1 0 0 2 1 0 0 1 1 0 2 0 2 0 0 0 1 1 1 1 3 0 0 0 0 0 2 3 0 1 3 1 1 1 1 2 0 1 1 1 0 0 0 1 1 1 3 2 0 0 1 0 1 1 1 0 2 0 2 3 2 3 1 0 1 1 0 1 1 2 0 0 0 1 0 2 2 1 2 1 2 0 1 0 0 1 1 3 0 0 1 1 1 2 1 1 0 0 1 2 0 0 1 1 2 3 1 1 0 0 1 2 0 1 2 2 1 3 1 1 1 0 2 0 1 2 2 2 1 1 2 0 0 1 1 2 2 1 0 0 3 2 1 1 2 1 1 1 0 1 0 1 0 1 1 1 2 0 1 2 0 1 0 1 0 1 0 1 2 0 1 2 1 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 2 1 3 2 1 0 1 0 0 1 0 3 1 2 3 1 1 0 1 0 1 1 2 1 1 2 1 2 1 2 2 0 3 0 0 1 0 0 1 2 0 1 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 1 1 1 1 0 2 3 1 1 0 3 0 1 1 1 1 1 1 0 1 1 1 2 0 0 1 0 0 2 1 0 2 2 0 0 0 0 1 3 0 2 2 1 3 0 0 2 0 0 0 1 1 1 2 0 1 0 0 1 0 1 2 1 1 1 1 0 0 3 0 1 1 1 0 2 0 2 1 2 1 1 1 3 0 0 1 1 0 0 1 2 1 2 1 0 2 0 0 0 0 0 1 2 0 0 1 0 1 2 0 1 2 0 1 2 0 2 1 1 0 1 2 2 0 1 1 1 1 0 1 1 0 1 2 1 1 1 0 2 2 3 1 2 1 0 1 0 1 1 0 1 0 1 1 0 3 1 1 2 1 1 0 1 1 2 2 1 1 1 1 1 0 0 0 2 0 1 1 3 0 1 3 0 1 1 0 3 1 1 2 0 1 0 1 0 0 0 1 0 1 1 0 1 0 1 2 0 1 0 2 1 1 1 1 0 1 2 2 0 3 0 1 0 1 1 1 2 1 1 0 1 1 2 1 1 1 0 2 4 0 0 0 0 1 1 1 0 0 1 1 3 2 2 0 1 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 2 1 0 1 2 0 0 1 0 1 2 1 0 1 2 1 0 1 1 1 1 1 1 1 2 2 0 0 1 1 2 1 2 0 1 1 0 1 0 2 0 0 0 1 1 1 1 1 0 0 3 1 0 1 4 2 0 1 1 0 1 0 1 2 1 0 1 0 0 1 0 0 3 1 0 1 0 2 1 1 1 1 0 1 2 1 1 1 2 1 1 1 1 0 2 1 0 1 1 0 0 2 2 2 1 2 2 1 1 0 0 2 1 2 2 1 0 1 2 2 1 1 1 2 1 0 2 0 1 0 1 2 0 1 0 0 2 0 1 0 1 0 1 1 0 1 1 0 0 1 3 0 1 1 1 1 1 2 1 0 1 1 0 1 1 2 2 2 1 3 0 1 2 2 2 1 0 1 1 1 1 1 1 1 0 1 1 3 0 0 2 2 1 0 1 1 2 0 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0 0 1 1 0 0 0 0 2 1 1 0 1 1 1 1 1 2 2 1 2 0 2 2 3 1 1 2 1 0 0 0 1 2 0 0 1 0 1 1 0 0 2 1 0 2 2 1 0 0 0 1 1 1 1 0 0 2 2 0 1 0 0 0 1 1 2 1 0 0 1 1 1 0 1 2 0 1 2 0 0 1 2 2 2 1 2 1 0 2 2 2 2 1 1 3 0 0 1 0 1 1 0 2 1 0 2 1 2 1 0 0 2 1 1 1 2 1 1 2 1 1 1 3 2 2 2 2 1 1 1 1 0 1 0 0 1 2 0 1 0 0 0 1 1 2 1 0 2 3 2 0 1 0 1 1 0 0 2 1 0 1 2 0 1 0 1 0 2 0 0 1 0 2 2 2 0 0 0 0 1 1 0 4 2 1 0 1 0 1 0 0 2 2 1 0 1 1 0 1 1 1 1 1 1 0 2 0 1 1 2 0 0 1 0 1 1 1 1 2 1 2 1 2 1 2 0 0 1 0 2 1 1 1 0 2 0 1 0 1 0 1 2 1 1 1 2 1 2 1 1 1 1 1 2 2 0 0 0 1 0 2 0 1 4 0 1 0 3 0 1 0 0 3 0 2 1 1 3 1 1 0 2 2 0 1 1 1 0 1 2 0 1 3 2 1 2 1 1 0 2 1 0 0 1 0 0 3 1 2 1 1 0 0 0 1 1 0 0 2 1 0 1 2 1 0 0 1 0 1 0 1 1 1 1 2 1 1 2 1 1 1 0 2 1 0 1 0 0 1 2 0 2 2 2 1 0 3 1 1 2 2 0 0 1 1 1 1 1 0 1 3 1 0 1 2 3 1 1 2 2 1 1 1 2 1 0 1 0 1 3 0 0 1 0 0 0 2 1 1 1 1 0 0 2 0 0 0 0 2 2 2 1 1 1 2 0 2 0 2 1 0 1 1 0 1 0 3 2 1 1 0 0 1 1 0 1 0 1 0 2 1 0 0 0 0 1 0 3 0 1 1 1 1 2 0 0 0 0 2 2 0 1 2 0 0 0 0 0 1 1 1 2 1 1 0 1 2 1 1 2 2 2 0 1 0 1 2 1 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1 0 0 1 1 1 1 0 1 1 3 1 1 2 1 1 0 0 1 1 1 0 1 2 1 1 0 1 0 1 2 0 0 0 1 1 0 1 1 0 0 1 1 2 1 3 1 1 0 0 1 1 0 2 2 0 0 1 0 2 2 1 0 2 0 1 1 0 1 1 2 0 1 2 0 1 4 1 0 2 1 1 0 3 1 1 1 2 0 0 0 2 3 0 2 0 2 0 0 1 1 1 1 2 1 1 2 0 2 1 0 0 1 1 0 1 2 1 2 0 1 1 0 1 0 0 3 2 1 1 1 1 1 2 1 0 0 1 1 2 0 1 0 1 1 1 2 1 1 2 0 1 2 0 1 0 1 0 1 2 1 1 2 2 1 0 1 0 3 0 0 1 2 0 1 1 2 2 2 0 2 2 1 2 1 0 1 1 0 1 1 0 0 1 3 1 2 1 1 3 1 1 0 2 1 2 2 2 0 1 1 1 2 3 0 1 1 0 2 1 1 1 0 0 0 0 2 2 0 2 1 1 1 0 0 0 2 0 1 0 0 1 0 2 3 1 1 0 0 2 0 1 0 1 0 1 2 1 1 0 0 2 0 2 0 0 1 1 2 2 1 1 0 1 1 1 0 0 0 1 3 1 1 0 1 1 0 0 1 2 0 0 1 1 1 1 1 1 1 0 1 1 0 1 0 2 1 1 1 1 0 1 0 1 2 1 3 3 1 1 2 1 0 0 1 1 2 1 0 0 0 1 2 1 1 1 0 1 1 0 1 1 2 0 0 0 2 1 0 2 1 1 2 0 1 0 1 1 2 0 1 1 1 0 0 3 1 0 0 1 1 1 1 2 0 1 0 2 1 1 0 0 1 0 0 0 1 1 4 0 0 2 2 0 1 1 0 0 1 1 0 1 3 0 0 1 1 2 1 1 1 1 0 2 2 0 0 1 0 1 1 3 0 0 1 1 1 0 2 1 1 1 0 2 2 1 2 1 1 0 0 1 2 2 1 0 2 0 2 0 0 1 1 0 1 1 2 0 1 1 1 1 0 1 0 1 3 2 2 1 1 0 4 0 1 0 0 0 2 1 0 1 1 2 1 1 1 0 0 1 2 0 0 1 2 2 1 2 1 0 1 1 0 1 1 1 2 1 0 2 0 5 0 0 1 2 0 2 2 2 0 0 0 0 1 1 0 0 1 1 0 1 1 3 0 0 1 0 1 1 2 1 2 1 2 0 0 1 0 0 1 1 1 1 0 1 0 2 1 2 1 1 1 0 1 3 0 1 2 1 2 2 1 1 1 1 0 0 1 0 1 0 0 2 0 1 2 0 0 1 1 3 2 0 1 0 1 1 1 0 0 0 2 1 1 1 1 1 1 0 1 0 1 0 2 1 1 2 2 1 0 1 2 2 0 0 1 0 1 0 1 1 1 1 1 0 0 0 1 2 1 0 1 0 0 1 0 0 0 1 1 2 0 2 1 1 1 1 1 0 1 1 2 1 0 0 2 2 1 0 1 0 0 1 1 1 1 2 0 1 1 0 1 0 2 1 3 0 0 0 0 1 0 1 0 1 1 1 1 1 1 0 2 0 1 0 2 0 2 0 1 0 1 1 0 0 1 1 2 1 2 0 0 1 1 0 0 1 1 1 1 0 2 0 0 1 0 0 1 2 1 0 2 1 0 2 1 1 0 1 0 2 0 1 2 1 2 2 0 0 0 0 1 0 1 0 1 1 1 1 2 0 0 1 2 0 1 1 0 1 1 1 1 0 1 0 0 2 1 1 0 1 0 2 2 3 0 2 2 1 1 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 0 0 3 1 0 3 2 0 0 1 2 0 2 0 2 0 1 3 1 0 0 0 0 1 2 0 1 1 2 0 1 1 0 1 1 1 1 2 1 0 0 1 0 2 1 1 1 2 2 1 0 1 1 0 0 0 2 0 2 1 1 1 0 0 0 0 1 2 2 1 1 2 0 0 1 0 3 0 0 0 2 1 1 1 2 0 1 1 0 2 0 1 2 0 1 1 0 3 1 1 0 1 0 0 1 0 2 2 2 1 1 0 2 0 0 1 0 1 2 0 0 1 1 0 1 1 2 3 0 1 2 2 0 0 0 1 1 1 1 0 4 2 0 0 1 2 0 2 1 0 1 1 0 1 0 1 0 0 2 0 0 1 1 1 1 2 1 2 0 1 2 2 1 0 1 1 0 0 1 0 0 1 2 2 1 1 0 1 1 1 1 0 1 2 1 1 0 0 0 0 0 0 1 1 1 2 2 1 1 3 0 1 0 1 2 2 0 0 0 1 1 1 1 1 2 1 0 0 1 0 0 2 1 2 0 1 1 2 1 0 1 0 3 2 1 0 0 1 1 0 1 0 0 2 1 2 1 1 1 2 0 1 0 0 0 1 0 1 1 0 1 1 2 2 1 1 1 0 2 0 3 0 0 0 2 0 0 1 2 1 0 0 1 1 1 1 2 1 0 0 0 0 2 2 1 1 3 0 0 1 2 1 2 0 1 0 2 1 0 2 2 2 2 1 1 2 0 2 1 1 2 1 3 2 1 1 1 2 1 0 0 1 1 0 3 0 0 0 1 1 1 0 1 1 1 0 1 0 1 2 0 1 1 3 2 1 1 2 1 0 1 1 1 0 0 1 2 3 1 1 0 1 1 0 1 0 0 0 1 0 0 1 1 1 1 1 0 2 2 1 0 1 2 0 2 1 0 1 1 1 2 0 1 1 1 0 0 1 2 3 2 0 2 1 1 1 1 1 0 1 2 2 1 0 2 0 2 1 0 1 2 1 0 0 1 2 1 1 2 0 0 0 1 2 1 2 1 1 2 2 0 0 0 1 1 1 1 0 0 2 0 1 2 1 1 2 0 0 0 1 2 0 1 2 1 2 0 1 1 0 0 2 0 0 0 1 0 1 1 1 0 1 2 0 1 2 1 0 1 1 1 1 0 0 2 1 1 0 0 0 0 1 1 2 1 1 2 0 2 0 1 0 2 0 1 1 0 1 0 0 1 0 1 1 3 0 1 1 1 0 1 0 0 1 1 1 0 1 1 0 0 0 1 1 1 1 0 1 0 1 0 1 1 1 1 0 2 1 0 0 1 0 1 0 1 2 2 1 0 1 0 0 1 3 0 0 2 0 1 1 1 0 1 1 0 1 0 1 0 1 2 3 1 2 1 1 1 1 2 1 2 0 2 1 1 3 0 0 0 1 2 1 1 0 1 0 1 1 2 1 2 2 0 3 1 1 1 1 0 1 1 1 1 1 2 0 2 1 0 0 1 1 1 2 1 2 1 1 1 1 1 0 1 1 0 1 1 0 2 0 0 0 0 2 3 2 1 1 1 0 1 2 2 0 1 1 1 3 2 1 2 1 1 2 0 0 1 1 1 0 0 1 0 1 2 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 1 1 1 2 0 2 0 2 1 0 0 2 2 0 1 1 0 1 0 1 1 1 2 1 1 1 1 0 1 3 1 0 1 1 0 1 0 3 1 0 1 1 3 1 0 0 1 1 1 1 0 1 0 1 1 2 0 1 1 1 2 0 0 0 0 1 0 1 2 1 2 2 2 2 1 1 0 2 1 0 1 0 2 2 0 2 0 1 0 2 1 0 1 1 0 4 3 1 1 0 3 0 0 3 2 1 1 0 2 0 1 1 1 1 0 0 0 0 2 1 1 1 1 0 1 0 0 2 1 0 0 1 0 1 1 0 2 1 3 1 1 0 1 0 1 1 1 1 1 0 0 0 1 2 0 3 1 0 1 1 1 0 2 2 1 1 1 2 2 2 0 1 1 1 0 1 2 1 1 0 0 0 1 1 1 1 0 1 0 2 1 0 1 2 1 0 2 0 0 0 2 1 0 1 1 2 0 1 0 0 0 2 1 0 1 1 0 0 0 0 1 1 1 0 1 3 0 1 1 2 0 1 0 1 1 1 0 1 0 0 0 0 1 1 1 1 2 0 1 1 2 2 1 0 0 0 0 1 1 0 0 2 1 1 1 1 1 0 1 3 1 2 0 1 1 2 1 1 1 1 1 1 0 2 3 1 0 0 0 0 2 0 3 0 1 1 1 0 3 1 1 0 0 1 1 1 1 0 1 0 2 2 0 1 0 1 0 1 1 0 0 0 0 0 2 0 0 0 3 0 0 1 1 2 0 1 1 0 0 0 1 1 1 1 1 2 2 1 1 3 1 1 1 2 2 1 0 2 1 0 2 0 1 2 0 0 1 1 0 2 1 0 0 0 0 1 1 0 1 0 1 1 1 1 0 1 0 2 3 1 0 0 0 0 0 2 0 2 1 0 1 1 1 1 1 0 0 1 0 0 2 1 0 1 1 1 2 3 1 1 0 1 0 0 0 0 1 0 1 1 0 2 2 1 1 1 1 1 0 1 1 2 0 2 2 0 1 0 1 1 0 1 2 1 2 0 0 0 0 1 1 1 1 2 2 1 1 1 2 1 1 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 0 0 2 1 1 2 1 1 2 2 2 0 1 1 1 1 1 2 0 2 1 0 1 0 0 0 0 1 1 0 1 1 1 1 3 0 0 0 2 1 1 2 2 0 0 1 2 0 3 0 2 1 1 0 0 1 0 0 2 0 2 2 2 0 0 1 3 1 0 1 2 2 0 0 2 1 0 1 1 0 2 1 0 1 0 2 0 0 0 1 0 0 2 0 2 0 2 0 0 1 1 0 0 1 1 1 0 2 1 0 1 0 0 0 1 1 0 1 0 1 0 2 0 2 0 1 1 0 2 0 2 1 1 1 1 0 0 1 2 1 1 2 2 0 1 1 0 1 1 0 0 1 1 0 0 1 1 1 1 1 0 1 1 0 1 0 1 1 2 1 0 0 2 1 2 2 1 1 0 2 2 1 3 0 0 0 1 1 1 2 1 1 1 1 1 1 1 1 2 2 1 2 1 1 2 2 0 2 2 0 1 1 0 2 1 0 1 0 0 1 0 1 1 1 0 2 2 1 0 1 1 1 0 1 0 2 0 0 1 1 1 1 1 1 2 1 1 2 0 0 2 0 2 1 0 1 0 1 1 0 1 2 0 1 0 2 1 0 0 1 1 2 2 0 0 1 1 0 0 1 1 3 1 0 2 0 1 1 2 1 0 2 2 0 0 0 1 1 1 1 1 2 1 1 2 2 1 1 0 1 2 2 1 1 2 0 2 1 0 2 0 1 1 0 0 1 1 0 1 0 0 0 1 1 1 0 0 1 1 0 1 0 0 2 1 1 1 1 0 0 0 1 2 1 2 0 1 1 1 1 1 0 1 0 1 1 1 2 2 1 1 2 1 1 0 1 0 2 0 0 2 0 1 2 1 1 1 0 1 1 1 1 2 1 1 2 1 1 0 1 1 1 1 2 1 0 0 0 1 0 0 1 0 2 0 3 3 0 1 2 3 0 3 2 1 2 0 0 0 1 1 2 1 1 2 1 2 2 1 0 1 1 1 1 2 1 2 0 2 1 1 0 2 1 0 1 1 0 2 1 0 0 1 0 0 1 1 1 1 0 2 0 1 1 0 1 0 2 1 1 2 1 1 0 2 0 2 1 2 0 3 1 0 1 0 1 2 0 1 1 0 0 2 2 2 3 1 0 2 0 0 1 0 1 0 1 0 0 1 0 1 0 1 4 2 0 2 0 3 0 0 1 0 0 1 0 0 1 2 0 2 0 0 0 1 0 1 1 4 0 1 1 0 3 1 1 1 1 2 2 2 1 0 1 1 1 2 0 0 0 2 1 1 0 2 0 1 1 2 1 1 0 3 0 1 0 2 1 0 1 1 1 0 1 1 2 0 1 1 2 1 0 0 2 1 0 0 2 1 0 3 0 1 1 0 1 0 1 1 0 1 1 1 0 1 2 1 1 0 0 1 0 0 0 1 1 0 3 0 1 0 0 1 0 0 2 0 0 1 1 2 2 1 3 1 1 1 2 1 2 1 0 0 2 0 0 0 1 0 1 2 2 1 0 0 0 1 1 1 0 0 1 1 3 0 1 0 1 1 1 1 1 0 0 3 1 0 1 1 0 1 1 0 2 2 0 0 1 2 2 1 1 1 2 0 2 1 1 1 1 0 0 1 0 2 2 1 1 2 0 0 1 2 0 1 3 0 0 0 2 1 1 0 0 3 0 1 0 1 1 2 1 0 0 0 0 0 0 0 1 0 1 2 2 1 1 0 0 0 0 0 0 0 0 1 2 0 2 0 1 0 0 1 2 2 1 0 0 0 0 2 2 1 0 0 1 1 1 0 1 0 2 1 1 0 1 0 1 1 0 3 1 0 2 1 1 0 1 1 2 2 1 1 1 2 3 0 0 1 0 1 1 3 1 2 0 1 1 1 0 0 1 1 1 1 0 1 1 1 2 0 2 1 1 0 0 1 2 1 2 1 2 0 2 1 0 0 1 1 1 3 0 2 1 2 1 0 0 1 2 1 1 3 1 0 1 0 2 1 1 1 1 0 0 2 1 0 0 1 0 0 2 2 2 2 1 1 0 2 1 0 1 1 1 0 2 0 1 0 1 0 0 0 1 1 2 0 2 2 2 1 2 1 0 0 1 1 0 1 0 1 0 0 1 0 2 1 0 2 0 1 0 2 0 0 1 0 1 2 1 0 2 1 2 0 1 2 0 0 1 2 1 1 1 1 0 0 0 0 1 2 2 1 1 1 2 2 0 1 1 1 0 1 0 0 1 0 0 1 0 1 2 1 2 2 1 0 0 0 0 0 2 0 0 0 1 1 2 0 1 1 1 2 0 1 0 1 0 1 0 0 1 0 2 1 0 1 1 0 0 1 2 0 0 1 1 0 0 1 2 2 2 1 2 1 3 0 0 0 0 2 2 1 0 1 1 2 0 1 1 1 1 1 2 1 0 1 1 2 0 0 0 1 1 1 1 1 0 1 2 2 0 0 3 0 1 0 0 2 2 0 1 2 1 0 0 0 3 2 1 0 0 1 1 0 1 0 1 1 0 2 2 1 2 1 1 1 2 2 0 1 2 1 1 2 2 0 1 0 0 1 2 1 0 0 1 2 1 0 0 1 0 2 0 0 0 1 0 1 1 0 0 1 0 2 0 1 1 1 0 0 1 0 0 0 2 1 1 1 0 0 2 2 2 0 1 3 1 0 0 2 0 1 0 0 1 2 1 1 0 1 1 1 0 2 1 1 0 1 1 1 2 0 1 2 1 2 1 0 2 1 0 1 0 1 0 2 1 1 1 1 1 0 1 2 2 1 2 0 0 1 3 0 1 0 0 1 1 1 1 0 0 0 1 0 1 1 0 1 1 0 2 1 0 3 1 1 2 2 2 1 0 2 1 0 0 0 1 0 0 1 2 1 1 1 2 2 3 1 3 1 2 2 2 0 2 2 2 0 1 1 1 0 2 1 0 0 1 1 1 0 1 0 1 1 2 2 2 2 1 1 1 1 0 1 1 1 0 2 2 0 2 1 0 2 0 0 0 1 1 1 1 1 1 0 0 1 3 1 1 0 1 1 0 1 0 0 0 1 0 0 0 3 1 1 2 1 0 0 1 1 0 0 1 1 3 1 2 3 1 0 0 2 0 0 1 1 3 0 0 1 0 1 0 1 1 1 2 3 1 0 1 1 0 1 1 1 2 1 1 0 1 1 2 0 0 1 1 1 1 1 3 0 2 1 1 1 0 0 2 1 0 1 1 0 2 2 1 0 0 0 0 0 2 1 1 2 1 2 0 2 2 1 1 3 1 2 2 1 2 2 1 1 0 0 1 3 1 2 0 1 2 1 0 0 2 2 1 1 0 0 0 0 2 1 1 1 0 1 0 1 2 0 0 0 0 2 0 0 1 0 0 4 0 0 4 1 0 1 0 0 2 0 0 1 1 1 1 3 1 1 1 0 0 0 0 1 0 1 1 2 1 1 1 1 2 1 1 1 1 1 1 0 3 2 1 0 2 0 2 0 0 2 1 0 1 1 0 2 0 0 1 1 2 2 3 0 2 0 0 1 1 0 2 1 0 0 0 0 2 3 1 1 0 0 1 1 3 1 1 1 2 1 1 1 2 0 1 2 1 1 1 0 1 2 1 1 1 0 1 3 0 1 0 1 1 1 0 1 0 2 3 0 0 0 1 1 2 1 0 2 1 1 1 1 1 0 2 2 0 2 0 0 0 1 0 0 1 0 1 2 2 3 1 1 0 1 1 2 3 0 0 1 1 1 2 0 0 0 1 1 0 0 1 2 2 1 3 1 0 2 0 0 0 1 3 0 1 0 0 1 0 3 1 2 0 1 1 1 2 1 2 0 2 1 1 1 0 1 1 1 0 2 1 0 1 1 1 0 2 0 0 0 2 1 1 1 1 1 0 1 0 2 0 1 0 1 2 1 0 1 2 1 1 1 1 0 1 2 1 1 2 2 1 1 1 0 0 1 3 2 2 1 0 0 2 2 0 0 0 0 1 2 1 0 0 1 0 1 0 1 1 0 0 2 0 2 2 1 1 0 0 0 2 1 1 2 1 2 1 2 1 0 1 0 0 0 1 1 2 2 2 0 0 0 0 0 1 2 0 1 1 0 1 0 2 0 0 0 2 3 3 1 1 1 1 0 1 2 1 0 0 1 0 0 1 2 2 0 0 1 2 1 2 3 0 1 1 0 0 2 0 1 0 1 0 0 1 0 3 0 2 0 2 0 1 2 0 1 1 1 2 2 1 1 1 0 0 1 1 1 2 3 1 0 0 2 2 1 1 0 1 0 1 1 0 2 1 0 2 1 2 0 1 1 0 0 2 1 1 0 1 0 1 1 1 0 1 1 1 2 1 1 2 1 1 0 0 0 1 0 1 2 1 0 1 1 0 1 2 0 1 2 0 1 3 2 2 2 0 0 2 0 0 1 0 0 1 1 1 0 1 0 0 1 0 2 2 1 1 1 1 1 0 0 1 0 0 0 2 2 2 0 0 1 1 1 1 0 1 2 0 2 2 1 0 0 1 1 0 1 2 2 0 3 0 1 1 1 2 0 0 1 0 1 1 2 0 0 1 0 1 2 2 2 1 0 1 0 1 1 1 2 0 0 0 1 1 0 1 1 0 2 0 1 0 1 1 1 2 0 1 0 1 1 0 1 0 1 0 0 0 0 2 2 2 0 0 1 1 0 1 1 0 1 1 0 0 0 1 0 1 1 1 1 3 0 2 1 3 1 0 2 0 0 0 1 1 3 2 1 1 0 3 3 1 1 0 1 2 1 0 1 0 0 0 0 1 2 0 1 1 0 1 0 1 2 2 2 0 1 1 0 2 1 1 1 1 1 2 1 1 1 2 4 0 1 4 2 2 2 1 1 2 2 1 0 2 3 2 0 2 0 0 0 2 0 1 0 0 1 0 2 0 2 2 1 0 1 1 1 2 2 1 1 1 2 2 1 2 2 0 1 2 0 2 1 0 1 2 0 1 2 0 1 1 1 0 1 0 0 1 0 1 0 1 0 1 0 1 1 0 1 2 1 2 1 0 1 1 2 1 3 0 1 1 3 1 3 1 0 1 1 0 1 0 1 1 1 3 2 0 0 0 1 1 0 0 0 0 2 0 0 1 1 0 0 0 0 1 2 2 0 1 0 0 2 1 1 1 1 2 2 0 1 1 2 2 1 1 2 2 0 0 0 1 1 0 1 1 0 0 1 0 1 2 3 2 1 1 2 2 1 1 0 2 0 0 1 2 1 0 2 3 1 0 0 2 2 1 0 0 0 2 1 0 1 1 0 3 0 1 0 0 1 0 2 1 1 1 0 0 2 2 0 2 1 1 1 1 2 2 2 2 0 0 1 0 1 2 0 1 1 0 2 4 1 0 1 0 2 2 2 0 0 2 0 1 0 1 3 2 0 1 1 2 1 1 0 0 2 4 0 0 2 1 0 0 1 3 0 1 2 0 1 0 1 1 2 1 1 2 2 0 1 1 2 2 0 2 1 2 0 1 0 1 1 1 1 0 1 0 0 2 1 2 1 2 3 1 1 1 1 0 0 1 0 1 1 0 0 1 1 1 1 2 2 1 2 1 1 2 1 1 1 3 0 1 2 1 1 1 1 0 2 1 0 1 2 1 1 1 0 1 1 1 0 0 2 1 2 2 1 1 0 2 3 0 0 1 1 0 0 0 0 1 0 2 0 1 1 1 1 3 1 2 1 0 0 2 2 1 2 0 1 1 2 2 1 2 0 0 0 1 2 1 1 0 2 1 1 0 1 2 0 1 1 1 0 2 1 0 1 1 1 0 0 2 2 1 3 1 1 1 1 0 0 1 1 0 1 2 0 1 1 2 0 1 0 1 2 0 0 0 1 3 2 0 2 0 2 1 2 1 2 1 0 0 2 1 0 2 1 1 1 3 0 0 2 0 1 3 2 1 0 1 1 0 0 1 1 0 2 1 0 0 2 0 0 1 2 1 1 1 1 1 2 2 1 1 0 0 1 1 2 2 1 0 1 1 3 0 1 2 4 1 0 1 3 1 0 2 1 0 1 1 2 0 1 1 2 0 1 1 1 0 0 0 1 1 0 0 1 0 2 2 1 2 0 2 0 2 1 1 2 1 1 2 0 0 0 0 0 0 0 1 1 1 0 3 1 0 1 1 0 1 0 1 1 0 0 1 0 1 0 2 0 1 1 0 0 1 0 0 1 0 2 1 0 0 0 1 2 2 0 0 3 0 1 1 0 2 1 0 0 2 1 1 1 0 1 1 1 1 1 0 2 0 1 2 1 1 1 0 0 2 2 2 2 1 0 3 1 1 1 0 1 1 2 1 2 0 3 1 2 0 1 1 2 1 1 1 3 0 0 0 1 0 1 0 2 1 1 0 1 2 0 1 0 0 1 2 0 1 1 2 1 2 0 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1 1 0 1 0 0 0 2 0 2 1 1 3 1 0 2 0 1 1 0 1 0 2 1 1 0 3 1 1 2 0 0 0 0 2 1 0 0 1 1 0 1 0 2 0 1 0 1 1 1 0 2 1 1 2 2 1 0 1 0 1 1 2 1 2 0 0 1 1 0 2 1 1 0 2 1 2 2 1 0 0 0 0 0 2 0 1 0 2 0 1 1 0 1 0 1 0 2 0 1 1 0 2 1 1 1 1 0 0 0 1 2 1 1 2 2 0 0 1 1 3 0 0 0 1 1 3 1 1 3 1 1 3 1 1 1 1 1 1 2 0 3 2 2 2 1 0 2 0 1 1 2 0 1 1 1 1 0 2 2 0 0 2 2 0 0 2 0 1 2 0 1 0 2 2 0 1 2 0 1 1 1 1 1 0 1 0 2 1 1 1 3 1 0 1 1 2 1 1 0 3 0 0 2 0 0 0 1 2 0 1 1 0 2 0 0 2 0 2 2 1 3 0 0 1 1 0 1 0 0 1 0 0 1 2 0 1 2 0 0 1 2 1 2 2 1 2 3 2 1 1 0 0 0 2 1 1 2 0 2 1 1 1 0 2 2 2 0 0 1 0 2 1 0 0 1 0 2 1 0 0 1 2 0 0 0 0 0 2 1 1 0 3 2 0 1 1 1 0 1 1 1 1 0 1 0 0 1 1 2 1 1 0 1 2 0 0 3 2 0 0 1 0 0 0 1 2 0 0 1 1 1 0 2 2 1 1 2 0 0 0 2 0 1 1 1 1 0 1 1 0 1 2 1 0 1 0 1 1 1 1 0 2 0 0 2 1 1 0 2 2 2 0 0 1 2 2 1 0 1 2 1 0 1 1 0 1 1 0 0 3 0 1 1 2 2 2 0 1 0 1 1 0 1 2 1 0 1 1 2 0 1 1 1 0 2 2 0 3 1 1 1 0 2 1 1 1 1 2 1 1 2 2 0 2 1 1 1 0 1 0 2 0 0 1 1 2 1 0 1 1 2 0 1 2 0 0 0 2 0 1 1 0 0 0 1 1 1 2 1 2 1 0 1 0 1 1 0 1 1 1 2 2 1 1 0 1 1 1 1 1 1 1 0 1 2 1 1 1 1 0 0 1 1 1 1 0 1 1 1 1 2 2 1 0 0 0 2 1 1 2 0 1 0 0 0 0 1 2 0 1 1 0 1 2 0 0 2 0 1 0 1 1 1 2 0 2 0 1 1 1 0 3 0 2 1 1 1 0 1 1 1 2 2 0 0 1 1 2 1 0 2 2 2 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 1 2 1 0 1 2 1 0 1 1 0 1 0 2 1 2 1 1 2 0 1 1 0 1 0 0 0 1 0 2 2 1 1 0 0 1 2 2 2 2 0 1 1 0 0 0 1 2 1 1 0 5 0 1 0 2 2 2 0 0 1 0 0 1 1 2 0 1 0 0 0 1 2 1 2 1 0 2 0 2 0 0 2 1 0 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 0 0 1 1 2 1 1 0 0 1 2 0 1 0 1 1 2 1 0 0 1 1 1 1 1 0 0 2 2 1 1 1 2 0 1 1 1 0 1 1 0 1 1 1 1 2 0 2 2 1 1 2 1 0 1 1 1 2 2 1 1 1 2 1 0 1 1 0 2 1 0 2 0 2 0 0 0 2 0 1 0 0 0 1 2 3 0 0 2 0 3 1 0 1 0 2 2 2 1 2 0 2 1 0 1 1 0 1 1 2 1 2 1 2 0 1 0 1 1 0 1 2 1 1 2 0 0 1 0 1 2 1 0 0 2 2 0 3 1 0 2 1 3 1 0 1 2 0 0 1 2 0 0 2 0 0 1 2 1 1 0 1 0 1 1 1 0 1 1 2 1 1 2 1 1 1 2 1 1 2 2 0 0 0 1 1 0 1 0 2 0 3 0 1 3 1 0 0 3 2 1 2 0 1 2 1 0 0 0 1 1 2 1 1 1 2 1 1 2 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 0 0 0 1 0 2 2 2 2 0 2 0 1 0 1 1 1 2 1 2 1 2 0 0 1 1 0 2 1 0 0 0 1 0 1 1 1 0 0 1 1 0 1 2 0 1 1 1 2 2 1 0 1 1 1 2 2 0 1 3 2 3 0 3 2 0 0 1 1 1 0 1 3 0 1 2 1 1 1 1 2 1 1 2 0 0 1 0 1 0 2 2 2 0 2 0 1 0 2 0 1 1 0 1 0 1 1 1 1 0 2 1 1 0 0 0 0 1 2 1 1 0 2 1 1 1 3 0 0 3 2 1 2 0 0 1 2 1 0 0 0 3 1 0 1 1 1 0 1 1 0 1 1 1 2 0 2 2 1 2 2 2 1 2 2 1 0 0 0 2 1 1 1 0 1 1 1 0 0 1 0 0 1 1 0 1 3 1 1 1 1 1 1 0 1 1 0 0 2 1 2 1 1 1 0 1 1 2 0 1 2 0 1 1 0 1 0 0 2 1 0 2 1 1 1 1 0 2 0 0 1 0 1 0 1 4 0 0 2 0 0 2 1 2 1 2 1 2 0 1 0 3 0 0 0 2 0 1 1 0 2 2 1 1 1 0 1 2 1 1 2 2 0 1 2 0 0 0 3 0 0 2 2 1 1 2 0 1 0 1 0 1 1 0 2 1 2 0 2 0 1 0 0 1 0 0 0 0 1 1 1 2 1 0 1 0 0 0 0 1 1 3 0 0 0 1 1 1 1 1 1 2 2 1 2 3 1 1 0 0 0 1 2 1 0 0 2 2 1 0 0 1 1 0 0 1 1 0 2 0 2 0 0 3 1 1 3 1 4 2 1 0 1 1 0 0 1 0 0 0 1 0 1 2 0 2 1 2 0 1 1 2 0 1 0 0 1 0 2 1 1 1 2 2 1 1 1 0 2 1 2 1 0 0 1 2 1 3 4 0 1 1 2 0 1 3 0 1 0 0 1 2 1 1 1 1 1 2 0 0 1 1 0 1 2 1 1 0 2 1 1 2 1 2 1 1 1 0 1 0 0 4 2 2 2 0 1 0 1 0 1 2 1 0 1 0 1 1 2 1 0 1 1 1 4 0 1 1 0 0 1 1 0 2 1 0 0 1 2 1 2 1 0 2 1 1 1 0 1 1 1 1 1 1 1 1 1 2 1 0 3 0 1 2 0 0 0 0 1 1 1 1 1 2 0 3 3 0 1 1 2 1 2 2 1 1 1 0 2 0 0 0 0 0 0 0 1 2 1 0 0 0 1 1 2 1 1 1 1 2 0 0 0 0 0 1 0 2 0 0 2 0 2 1 1 1 1 3 2 0 0 1 1 0 1 2 0 2 0 1 1 1 0 0 0 0 1 0 1 1 0 3 0 1 1 1 3 1 0 0 0 1 1 1 3 1 0 1 1 1 1 1 0 3 2 0 0 2 0 1 2 0 0 2 1 1 1 1 1 1 1 1 0 2 1 1 0 2 2 0 2 2 0 1 1 2 0 0 0 1 0 1 1 1 0 2 1 1 1 0 0 2 2 2 1 0 0 2 0 1 2 2 0 2 0 0 0 3 1 2 1 0 0 0 1 1 0 1 1 0 1 1 3 0 1 0 1 1 1 2 0 1 2 0 0 0 2 1 0 1 1 2 2 1 2 0 2 0 0 0 2 1 1 1 1 2 0 0 1 0 0 1 1 2 1 1 1 1 0 1 1 2 0 1 0 0 1 2 3 1 1 1 2 2 1 2 0 2 0 1 1 1 0 2 0 0 0 1 2 1 1 1 0 0 1 0 0 2 1 2 1 2 2 0 0 1 3 0 0 1 1 2 1 0 0 0 1 1 0 1 1 1 2 0 0 1 0 1 2 0 1 1 0 1 0 2 0 0 0 1 2 1 2 0 0 0 1 1 2 1 1 0 1 1 0 1 1 2 1 0 0 2 3 1 2 1 1 1 1 0 1 2 1 2 2 0 2 2 2 1 1 0 1 1 1 1 0 1 1 1 0 1 2 0 1 1 0 0 1 0 0 0 0 2 0 0 1 1 1 2 1 1 1 1 0 1 1 1 2 0 2 1 1 1 1 0 1 1 1 0 1 1 2 1 1 0 2 0 1 0 1 3 2 0 1 1 1 0 0 2 1 1 2 0 0 1 2 1 0 2 0 0 1 2 0 0 1 0 0 1 1 0 0 1 1 0 1 2 0 1 1 0 0 1 1 2 1 0 0 3 1 0 2 1 0 1 2 0 0 1 3 2 1 0 0 1 1 2 2 2 2 1 2 0 2 1 0 2 1 3 1 2 0 0 1 0 2 1 1 0 1 0 1 0 1 2 0 0 1 1 2 2 1 0 2 1 1 1 0 1 1 0 2 3 1 0 1 1 1 1 0 2 0 1 0 1 1 1 2 0 0 0 1 2 0 3 0 1 3 0 1 1 1 1 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 0 2 1 1 0 0 4 1 0 2 0 0 2 0 0 1 1 3 0 1 2 3 0 2 1 1 0 3 0 1 1 0 1 1 2 1 2 1 1 1 2 1 2 1 1 0 2 2 0 2 0 1 2 1 2 1 1 2 0 1 0 0 1 1 0 2 2 1 1 1 0 2 0 1 1 0 0 2 1 0 0 1 0 0 2 0 0 0 0 0 1 3 2 2 1 1 0 1 2 2 1 2 0 0 0 2 1 2 0 0 1 0 2 1 1 1 1 1 2 0 0 0 1 1 0 1 1 0 1 1 0 3 0 2 0 1 2 0 0 1 1 0 0 0 0 1 0 2 0 2 2 1 2 0 1 1 2 2 1 0 1 1 1 1 2 0 0 0 1 1 1 1 1 1 2 0 1 1 0 0 0 0 0 2 1 0 3 2 0 1 0 0 2 0 1 0 2 1 2 1 0 0 1 1 0 0 1 0 1 1 1 1 0 1 2 2 0 1 1 1 3 1 1 0 1 0 1 2 0 0 1 1 1 1 2 1 1 1 2 2 1 3 1 2 0 2 0 0 1 2 2 0 1 0 0 1 0 2 1 1 2 0 1 1 2 0 0 0 1 0 1 0 0 1 2 0 1 0 1 1 1 2 1 2 0 2 0 2 2 1 2 2 0 0 0 0 0 3 2 1 2 2 2 3 1 0 0 2 0 0 2 0 0 0 0 1 2 1 0 1 0 1 2 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 2 0 0 0 2 0 0 1 1 1 2 0 2 1 0 0 0 1 2 2 0 1 1 0 1 1 0 0 2 1 1 0 1 0 2 1 0 0 1 1 1 1 1 0 0 0 2 1 1 1 1 2 0 1 0 0 1 0 2 1 1 0 2 0 2 2 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 2 1 1 1 1 1 1 2 3 0 1 1 0 0 2 1 0 1 0 1 0 1 2 1 2 0 2 1 0 1 1 0 2 0 0 3 0 1 0 1 0 0 3 0 2 5 0 0 0 3 0 1 1 2 1 1 2 1 1 0 1 1 0 0 1 2 0 1 1 0 1 1 1 0 3 1 1 1 1 1 1 0 1 0 2 1 1 0 0 1 2 0 1 0 2 1 2 2 0 1 1 0 0 0 0 2 0 0 0 1 2 1 2 3 0 1 0 1 1 1 0 2 2 1 2 1 0 3 1 2 0 2 2 3 2 1 2 1 2 0 1 1 1 2 1 1 0 1 0 0 3 1 3 1 1 0 1 2 1 2 0 2 3 0 2 0 0 1 1 2 0 1 2 2 2 0 1 1 3 1 2 1 0 2 0 2 0 1 1 0 1 0 0 1 1 2 1 1 2 2 0 2 0 0 3 1 1 0 2 0 1 1 2 1 1 0 2 1 1 0 2 1 1 2 0 0 1 0 1 0 2 1 3 1 1 2 1 0 1 2 2 1 0 2 1 1 1 0 0 2 1 1 0 1 3 0 1 1 1 0 1 2 1 1 0 0 3 1 0 3 3 2 1 0 1 1 1 0 2 2 0 2 1 0 0 0 1 1 0 1 2 1 1 1 0 0 1 1 1 3 1 1 0 1 1 1 3 0 0 1 1 2 0 0 1 1 0 1 1 3 0 0 0 2 1 1 0 2 0 2 1 0 0 0 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 0 0 3 1 1 2 1 1 0 1 1 1 1 1 2 2 1 1 1 1 0 1 1 1 1 1 0 0 2 2 0 0 3 1 0 2 0 1 1 1 0 1 2 0 2 0 0 1 1 1 1 0 1 0 0 1 0 0 2 1 1 1 2 1 1 0 1 0 0 0 1 2 1 1 1 1 1 1 0 2 0 3 0 2 2 1 0 1 1 1 1 2 0 0 2 0 1 0 1 2 2 0 3 2 1 1 1 1 1 1 0 1 0 3 3 1 2 0 2 0 1 0 1 0 1 2 0 1 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 2 1 1 2 3 2 0 0 2 1 1 0 1 1 1 0 1 2 1 2 1 1 1 0 2 0 0 2 1 0 1 2 1 1 1 2 2 2 0 3 0 0 2 3 2 2 2 1 1 0 2 1 2 0 1 1 2 1 1 1 0 3 2 1 0 1 0 2 1 2 0 2 0 2 0 0 1 0 1 0 1 2 0 1 2 2 1 1 0 2 0 0 1 0 0 0 1 0 1 0 2 1 2 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 1 1 1 2 0 1 1 0 1 1 1 1 1 0 0 2 0 0 1 0 0 2 0 1 0 2 0 1 1 0 1 1 0 1 2 0 2 3 0 1 0 1 2 1 1 1 2 1 0 1 2 0 1 1 1 0 0 0 1 0 1 1 2 1 2 0 3 0 1 2 1 1 1 0 1 1 0 3 0 4 1 0 1 1 1 0 0 0 0 1 3 1 0 1 0 3 1 2 1 2 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 2 2 2 2 2 1 1 0 1 1 1 2 1 0 2 0 1 2 1 1 2 0 1 1 1 0 2 2 0 0 0 1 0 0 1 2 1 1 0 1 1 0 2 0 3 0 0 1 1 1 0 1 1 0 1 0 2 1 0 2 1 0 0 1 0 0 1 1 0 0 0 2 1 2 0 0 0 0 0 2 1 1 3 3 1 1 2 0 1 0 0 1 2 1 1 0 1 1 0 0 1 1 1 1 0 1 1 2 0 2 1 4 1 1 1 1 1 0 1 2 0 1 0 1 1 0 0 0 1 2 0 1 0 0 0 2 1 0 1 1</t>
-  </si>
-  <si>
-    <t>GAM(0.6309908720991546, -1.8595087759371786e-27, 0.48684733463143426)</t>
-  </si>
-  <si>
-    <t>1 0 0 0 1 0 1 0 0 1 1 0 1 1 1 2 1 0 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 2 0 0 1 0 1 0 0 1 0 0 1 0 2 0 0 1 0 1 0 0 1 1 0 1 0 2 0 0 0 0 0 0 1 0 0 2 0 0 2 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 2 2 0 0 0 1 1 1 0 0 1 1 1 0 3 0 0 0 0 0 2 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 1 1 1 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 2 0 0 1 0 0 2 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 1 0 0 0 1 3 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 2 0 0 1 0 1 2 0 0 0 1 0 1 1 2 0 0 0 0 1 0 2 1 0 1 0 0 0 1 0 0 0 0 2 0 2 0 1 0 0 2 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 2 0 0 0 0 1 0 2 0 0 0 1 2 0 1 0 0 1 0 0 0 2 0 0 0 1 0 1 1 2 1 0 0 2 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 1 0 0 0 1 3 0 2 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 3 1 0 1 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 2 1 1 1 0 0 0 0 1 1 1 0 0 1 1 1 0 0 0 2 1 0 1 0 0 0 5 1 0 0 0 0 0 1 1 2 0 1 0 1 0 2 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 1 0 1 0 5 0 1 0 2 2 1 1 1 0 2 0 0 1 0 2 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 0 0 0 2 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 2 1 1 0 1 0 0 0 2 0 0 0 2 0 0 0 3 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 2 0 0 0 0 1 0 1 1 1 1 0 0 1 2 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 2 1 1 1 0 0 0 1 1 0 0 1 0 2 2 0 3 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 2 0 2 1 1 0 0 0 2 0 0 0 0 2 1 1 1 0 0 0 0 0 0 3 0 0 2 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 4 0 4 1 1 0 0 1 1 3 1 0 0 0 0 1 1 2 0 1 0 1 0 0 0 0 0 0 1 2 1 2 1 0 2 1 1 0 0 1 0 0 0 2 1 0 0 0 5 1 0 3 0 2 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 1 1 0 0 1 2 0 0 0 1 0 0 0 3 0 1 0 2 2 0 2 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 3 0 1 1 2 0 0 0 1 1 0 0 0 1 1 0 0 0 2 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 2 1 0 1 1 0 0 0 0 1 0 0 0 1 1 1 1 1 1 1 1 0 1 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 2 1 1 1 0 1 3 1 0 1 0 0 0 0 1 1 1 1 2 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 3 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 2 1 0 0 0 1 0 1 2 0 0 1 0 1 0 0 0 0 0 1 1 0 2 0 1 0 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 1 3 0 0 0 2 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 0 1 2 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 1 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 3 0 0 1 1 0 3 0 2 0 0 3 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 4 2 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 2 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 1 0 3 1 1 1 0 1 1 1 1 0 1 0 3 0 0 0 0 0 0 0 2 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 1 0 2 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 1 0 0 0 0 2 0 2 0 0 0 1 0 0 2 1 1 0 1 0 0 0 1 1 0 1 0 1 1 1 0 0 0 3 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 0 0 1 0 0 2 1 0 2 0 1 1 1 0 1 0 0 0 2 0 0 2 0 1 0 0 0 0 0 0 2 0 0 0 0 1 1 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 3 1 1 0 0 0 1 0 0 0 1 0 1 1 3 0 0 0 3 0 0 3 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 1 0 0 0 1 0 0 0 1 0 0 0 1 0 3 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 2 1 1 0 1 0 0 0 1 1 0 1 0 1 0 0 1 2 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 2 2 0 0 0 1 1 1 0 1 1 0 1 0 0 1 0 0 0 1 1 0 1 0 1 1 1 2 1 1 0 0 0 1 0 0 2 0 0 0 1 0 1 1 2 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 2 0 4 1 0 1 0 0 0 0 0 2 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 2 1 0 1 2 2 0 1 1 1 3 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 1 0 1 2 0 3 0 0 2 0 1 2 1 0 1 1 0 0 1 0 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 3 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 1 1 1 0 0 1 0 2 0 1 0 0 0 0 1 2 2 1 1 0 2 2 0 0 2 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 1 0 1 0 0 1 1 1 1 2 1 0 0 0 2 2 0 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 2 0 1 0 0 2 0 1 0 2 0 1 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 2 0 1 2 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 2 0 1 1 0 1 2 0 2 0 0 0 1 0 0 0 1 2 1 1 1 1 0 1 0 0 1 1 2 0 2 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 1 2 1 1 1 1 1 0 0 0 1 0 1 0 1 0 0 2 1 1 0 0 0 1 0 0 3 0 0 0 3 3 0 2 0 2 0 0 0 0 1 2 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 0 1 1 0 2 1 1 0 0 0 1 2 0 0 1 1 0 3 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 0 0 2 0 1 2 3 0 0 0 0 0 0 0 1 1 0 0 0 1 2 1 1 0 0 0 0 1 0 2 0 1 3 1 0 1 1 0 0 0 1 0 1 1 0 0 0 2 2 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 0 1 0 0 2 1 0 0 0 0 1 2 0 1 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 2 0 0 1 1 0 1 0 1 0 0 0 0 2 0 1 1 0 0 1 1 1 1 3 0 0 1 0 0 1 1 0 1 1 2 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 3 0 1 1 2 0 2 0 0 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 1 0 0 2 0 1 0 0 1 0 1 0 0 1 0 0 0 1 3 1 0 0 1 0 2 0 0 1 0 1 2 0 0 0 0 0 0 0 0 1 0 1 3 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 1 2 0 0 0 1 1 1 2 1 2 0 0 2 0 1 0 0 0 1 0 0 0 0 0 1 2 1 0 3 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 2 1 0 0 0 0 1 0 0 2 0 2 1 0 0 2 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0 2 1 0 0 1 2 1 2 0 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 0 0 2 0 1 0 0 1 1 1 2 0 0 1 1 1 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 2 0 1 0 1 0 1 0 0 0 1 0 3 2 0 0 1 0 0 0 2 0 1 0 0 2 1 0 2 0 0 0 0 0 1 0 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 3 0 0 0 0 1 0 1 3 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 2 0 0 0 1 1 0 0 0 2 0 0 2 0 0 0 1 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 1 1 1 1 0 0 2 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 3 1 1 1 1 3 0 2 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 2 1 0 1 1 0 0 1 0 0 1 0 1 1 1 1 2 1 1 1 0 0 0 1 0 1 1 1 1 0 0 1 0 1 2 1 2 0 0 1 0 0 1 1 0 2 2 1 1 0 0 0 0 0 1 1 1 0 0 0 2 1 1 1 0 0 3 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 3 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1 2 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 2 1 2 1 0 0 1 0 1 1 1 1 0 0 0 0 1 0 2 3 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 2 1 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 2 0 1 0 2 1 1 2 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 1 0 0 1 2 0 0 1 0 0 1 0 2 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 1 1 0 0 0 1 3 1 0 2 0 1 0 1 1 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 2 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 0 0 0 0 2 1 1 1 4 0 0 1 0 0 1 0 0 0 0 1 1 0 0 2 1 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 2 0 1 0 2 0 0 0 0 1 1 1 0 2 1 1 0 0 0 1 1 1 0 1 2 3 1 0 0 1 0 0 1 0 3 0 2 0 0 0 0 0 1 0 0 0 1 1 3 2 1 0 1 0 0 0 2 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 2 0 0 1 1 2 0 1 2 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 2 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 2 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 2 0 1 0 1 0 0 1 1 1 0 1 0 0 2 1 0 1 0 1 0 0 3 0 0 2 0 0 0 1 0 1 2 1 0 1 0 1 0 0 1 1 1 1 0 0 0 1 0 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 4 0 0 0 1 0 0 0 2 1 0 1 0 0 3 1 1 0 0 1 0 0 0 0 0 1 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 2 0 0 1 0 0 0 0 1 1 1 1 0 1 2 1 0 0 1 2 0 0 3 1 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 4 0 0 0 1 0 2 0 0 1 1 1 0 0 0 2 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 2 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 1 1 0 0 1 1 0 2 3 1 0 0 0 1 0 1 0 0 0 1 1 2 0 1 0 0 0 0 0 1 1 0 0 0 1 0 3 0 0 0 1 1 0 1 0 1 1 0 1 0 1 1 1 1 1 1 0 1 1 0 0 1 1 2 0 1 0 0 1 0 0 0 1 0 0 1 1 0 3 0 0 2 0 0 0 1 0 1 0 1 1 1 1 2 0 1 0 2 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 2 0 0 1 2 0 2 0 3 1 0 0 0 1 3 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 3 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 2 0 0 0 1 1 1 1 3 1 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 0 2 0 2 0 1 1 0 1 0 0 0 0 0 1 1 0 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 1 0 1 0 0 0 3 2 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 2 0 0 1 1 2 0 1 0 3 3 0 2 0 1 0 1 0 1 0 1 2 0 0 0 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 1 4 0 0 0 0 0 0 1 1 1 0 0 0 2 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 2 0 2 2 1 0 2 0 0 0 0 0 2 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 2 1 0 0 1 0 0 0 0 1 2 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 1 1 0 0 0 1 2 0 1 0 1 0 1 1 1 0 1 0 0 2 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 1 3 0 0 0 0 1 2 0 0 1 1 1 1 0 1 1 0 0 0 0 0 1 0 0 0 2 0 0 2 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 1 1 2 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 2 0 1 0 0 1 3 1 0 2 1 1 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 2 1 0 1 0 0 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 1 1 0 0 2 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 2 1 0 2 1 0 0 0 0 0 4 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 0 0 3 0 1 0 0 1 1 1 0 1 1 1 0 1 0 1 1 1 1 0 0 2 1 0 0 0 2 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 2 1 0 0 1 1 1 0 0 0 1 1 1 1 0 0 0 0 2 0 1 2 0 0 2 0 0 1 4 1 0 1 1 1 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 2 1 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 2 1 1 3 0 0 0 1 2 1 0 0 1 0 1 0 1 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 2 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 2 1 2 0 0 2 0 1 1 0 0 2 1 2 0 0 0 0 1 0 3 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 4 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 2 1 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 1 0 1 0 0 0 1 1 1 0 1 1 0 3 0 1 0 1 0 0 1 0 1 0 3 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 3 0 0 0 0 1 1 0 0 0 0 0 2 2 0 0 0 0 0 0 2 1 0 1 0 2 1 0 1 0 0 0 1 0 0 0 0 1 1 0 1 2 3 1 0 1 0 0 0 1 1 1 1 2 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 2 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 2 1 0 0 2 1 0 0 1 0 1 1 1 0 0 1 1 1 0 1 1 1 0 0 0 1 1 2 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 2 0 0 0 1 1 0 2 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 1 0 2 0 2 0 0 0 2 1 0 0 1 0 0 1 1 0 0 1 0 2 0 0 0 0 0 0 0 1 2 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 2 0 1 0 0 3 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 2 1 1 0 1 0 0 0 2 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 4 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 2 1 2 0 0 0 0 1 0 2 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 2 1 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 2 0 0 1 1 0 1 0 1 1 0 0 0 2 2 0 0 0 0 0 2 0 1 0 1 2 0 1 0 0 1 1 1 0 1 1 1 0 0 0 1 0 2 0 0 0 2 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 2 2 0 0 1 0 0 0 2 0 2 1 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 1 0 0 0 0 1 1 1 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 2 0 0 2 1 0 0 0 2 0 1 1 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 0 3 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 1 0 1 1 1 0 0 1 2 0 0 1 0 1 1 0 0 0 3 2 1 2 0 1 0 2 0 1 0 0 0 0 3 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 0 2 1 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 1 2 2 2 0 1 2 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 1 0 1 2 2 0 1 0 0 1 0 0 1 1 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 2 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 2 0 2 0 0 1 0 0 0 1 0 0 1 1 3 1 2 0 1 0 0 2 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 4 1 2 0 0 1 0 0 2 0 1 0 2 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 1 2 1 0 1 0 0 0 1 0 0 2 1 1 0 1 0 0 1 2 0 2 0 0 1 1 1 2 2 0 0 0 1 0 1 0 0 2 0 0 1 0 0 1 1 0 0 2 0 0 0 1 1 1 0 1 1 1 1 2 1 2 0 0 0 0 0 2 0 0 2 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 2 0 0 0 1 1 1 0 0 1 1 1 0 3 1 1 1 2 0 0 1 0 1 1 0 0 0 0 1 1 0 3 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 3 0 0 0 2 0 0 1 0 1 2 1 1 0 0 2 0 0 0 0 0 1 0 2 0 0 0 0 1 1 1 1 1 0 0 0 1 1 1 0 0 1 0 2 0 1 0 0 0 0 2 0 0 0 1 1 0 0 0 3 0 1 0 0 0 0 3 0 1 0 1 0 1 0 2 0 0 0 2 1 0 0 0 1 1 0 0 0 1 0 2 1 1 0 2 2 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 3 0 1 0 1 0 1 0 0 1 0 1 1 2 1 1 0 1 0 1 1 0 4 1 0 1 1 4 1 1 1 1 3 0 0 1 1 0 0 0 1 0 1 0 2 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 2 1 0 1 4 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 1 0 0 1 1 0 0 2 1 0 1 0 1 1 1 0 0 0 1 0 0 0 0 1 2 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1 0 0 1 1 1 0 0 1 0 2 1 2 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 1 1 0 2 0 1 0 1 0 1 0 0 0 0 0 1 2 0 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 1 1 0 0 2 1 3 0 0 0 1 0 0 0 1 0 1 2 1 0 1 0 1 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 3 1 0 0 0 1 0 1 1 1 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 2 1 1 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 1 1 0 2 0 1 2 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 2 1 2 0 0 2 1 0 1 0 0 1 0 4 0 0 1 0 0 2 0 0 1 0 0 0 0 2 0 0 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 2 1 2 0 0 0 2 1 1 0 1 0 0 0 0 0 0 0 2 0 2 2 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 3 0 2 0 0 0 0 0 1 0 0 4 0 0 3 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 2 0 0 1 0 1 1 2 0 0 0 0 0 0 0 1 2 1 3 0 0 1 1 0 0 0 0 1 1 2 2 0 1 1 1 0 0 0 0 1 0 0 2 0 0 1 0 2 0 1 1 0 1 1 2 1 0 0 2 1 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 3 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 0 1 0 0 1 1 0 0 1 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 2 1 0 0 1 1 1 1 0 1 0 1 2 0 1 2 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 2 0 2 1 1 0 0 0 1 1 1 1 1 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 3 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 3 1 0 2 0 0 0 1 0 0 1 0 1 2 0 2 0 0 1 0 0 0 1 0 2 0 1 1 0 1 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 2 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 2 0 0 0 1 1 1 0 0 1 1 1 0 1 1 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 2 0 0 2 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 3 1 0 0 0 1 0 1 0 0 1 1 0 0 2 0 0 0 1 2 0 0 1 1 0 0 0 2 2 0 0 1 1 0 0 0 0 0 0 1 0 2 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 2 0 1 1 0 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 1 2 0 0 1 1 0 0 0 1 1 0 0 3 0 1 1 1 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 3 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 2 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 3 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 2 0 1 0 3 0 1 1 0 1 0 2 1 1 1 0 0 1 0 1 0 0 1 1 1 1 0 0 1 1 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 2 0 0 0 1 1 0 1 0 0 0 0 1 2 0 0 1 0 0 0 2 1 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 0 0 2 1 0 0 0 1 1 0 0 0 0 1 0 1 0 2 2 0 3 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 2 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 1 0 2 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 2 2 0 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 1 0 2 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 3 0 0 1 1 1 0 1 0 0 2 0 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 3 0 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 2 1 0 0 0 1 0 2 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 2 3 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 2 0 1 2 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 1 0 0 2 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 2 0 2 0 2 2 1 0 1 0 0 1 1 2 0 0 2 1 0 0 0 0 2 0 0 1 0 0 0 1 1 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 3 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 1 2 0 1 0 1 0 0 2 0 0 0 1 0 2 2 1 0 0 1 0 1 0 3 0 0 2 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 2 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 3 0 1 1 0 0 1 0 1 0 3 0 0 0 1 2 1 0 1 0 2 0 0 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 2 0 1 0 0 0 1 0 2 1 1 0 0 0 0 1 0 1 0 0 0 0 1 2 1 1 0 0 1 0 1 1 0 0 1 1 2 0 0 0 0 0 0 1 0 2 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 1 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 2 1 1 0 0 0 2 0 0 2 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 1 2 0 0 0 1 0 0 0 1 1 3 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 2 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 2 0 2 1 0 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 3 2 0 1 0 0 0 0 1 0 1 0 2 0 1 0 1 0 1 0 1 1 0 0 1 3 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 2 1 1 2 2 0 0 1 0 0 0 0 1 1 1 2 0 1 0 0 0 0 0 1 0 2 0 0 1 2 0 1 0 1 0 1 0 0 0 1 0 0 2 0 1 2 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 2 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 2 0 0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 2 0 3 1 0 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 1 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 2 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 2 0 2 0 1 0 2 0 0 2 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 1 2 0 2 0 2 2 0 1 0 1 0 0 2 2 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 2 3 0 0 0 0 1 2 1 1 0 0 0 1 0 2 1 1 0 0 1 0 1 2 1 1 2 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 1 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 2 1 1 0 0 0 0 1 0 0 0 0 0 1</t>
-  </si>
-  <si>
-    <t>JSB(3.41145727949761, 2.9592554240866833, -45.9705865119972, 508.49769623054914)</t>
-  </si>
-  <si>
-    <t>70 69 82 43 103 80 93 94 47 68 141 130 49 46 96 46 53 84 50 61 128 88 79 13 54 60 82 68 69 49 43 70 80 79 69 90 35 116 35 18 64 86 27 152 61 53 33 53 132 135 88 47 32 109 50 92 61 90 67 68 98 45 94 53 60 77 95 112 94 79 57 174 73 102 79 78 62 99 68 42 66 65 97 70 72 53 85 49 62 51 89 71 88 113 101 70 75 76 46 48 89 65 59 91 100 67 50 56 54 52 137 65 72 66 104 49 71 117 76 73 31 121 100 60 57 25 86 112 67 114 73 120 107 74 48 91 85 90 110 136 217 67 50 86 146 53 108 115 109 46 76 93 92 67 164 38 43 68 119 101 131 86 71 160 61 81 57 101 98 39 107 127 40 74 68 74 67 82 76 85 99 54 52 98 111 56 79 28 77 120 110 110 66 100 100 61 79 93 71 82 75 85 87 83 93 102 38 76 131 39 47 50 92 87 48 44 85 63 114 165 38 143 100 98 109 142 108 102 111 46 134 144 28 121 38 67 89 124 105 56 66 79 60 123 52 128 73 116 97 59 70 159 70 83 55 54 83 45 59 35 89 99 48 97 62 91 105 89 111 97 54 89 66 70 85 131 46 107 44 62 62 80 75 142 117 133 66 84 110 61 76 102 53 81 89 126 93 80 51 67 90 49 64 75 89 89 49 74 55 82 105 42 115 130 48 60 42 71 77 58 50 88 22 60 68 86 75 83 109 78 101 80 83 90 8 87 74 43 43 81 69 91 67 64 143 77 17 120 30 64 33 98 82 62 84 30 89 140 110 48 52 64 101 75 106 111 24 109 139 80 97 30 103 104 88 109 35 69 94 69 100 58 113 116 98 45 103 63 73 22 93 54 105 69 53 67 88 77 62 109 39 103 54 76 21 116 91 84 57 38 48 58 55 14 80 106 155 42 78 131 96 42 78 66 124 50 97 68 38 72 93 100 90 115 92 75 16 91 81 38 60 87 52 66 103 74 112 35 91 185 44 12 88 116 96 112 131 25 49 91 47 109 67 46 40 39 44 72 54 39 50 80 100 82 211 72 88 109 75 79 31 55 52 122 43 83 105 54 65 44 100 75 96 100 108 133 95 125 56 18 59 67 61 81 85 32 133 101 59 59 121 89 65 88 85 32 56 28 105 109 85 41 60 90 52 78 107 46 80 35 95 42 96 104 108 71 62 79 64 78 152 91 75 40 89 156 50 120 75 84 126 72 36 79 50 112 58 38 66 68 83 94 27 46 122 104 64 38 151 51 80 57 98 103 87 71 70 85 97 52 103 94 102 63 113 31 105 26 112 74 30 82 59 40 84 9 64 113 103 82 142 41 49 110 66 88 39 88 88 39 56 125 87 96 50 69 74 37 63 114 29 111 103 39 41 9 50 106 116 111 129 88 140 55 74 133 22 111 38 59 133 98 40 22 93 113 72 145 52 53 39 120 24 37 30 33 69 83 89 48 81 30 81 154 80 85 112 84 65 9 66 27 86 55 52 124 68 70 47 137 61 61 26 76 51 50 45 139 117 32 105 69 94 79 82 81 81 54 47 44 82 65 33 81 107 114 32 93 149 59 44 56 43 56 87 85 78 104 66 100 34 64 111 128 73 56 56 40 47 85 20 25 65 66 49 73 88 30 43 99 18 76 69 55 72 59 55 34 72 45 32 63 112 143 93 45 150 87 112 66 65 116 73 75 145 81 18 38 81 33 60 114 79 77 45 88 91 64 34 57 97 46 46 81 53 109 101 105 67 62 50 58 76 90 89 34 61 33 80 30 140 76 43 81 177 85 59 68 47 61 140 87 133 50 50 67 101 48 146 82 86 100 72 52 110 32 68 45 103 117 84 56 93 88 77 72 40 49 33 76 134 94 68 110 46 38 72 76 56 90 49 85 51 69 53 146 107 49 64 75 79 73 45 107 71 118 39 39 89 90 75 57 68 95 46 81 92 67 79 81 62 54 87 56 119 86 91 46 118 71 114 49 68 81 64 125 129 72 57 62 120 34 49 69 80 77 53 21 56 40 65 54 54 69 58 52 66 82 80 105 47 71 17 54 76 48 73 133 60 68 89 104 64 23 66 98 22 105 141 73 69 23 84 38 84 106 71 56 -1 38 117 106 91 47 28 106 178 89 86 76 54 114 73 47 90 77 85 95 58 100 58 85 61 23 86 99 37 99 93 89 121 81 63 122 96 99 34 89 20 60 86 35 70 92 117 52 42 81 15 117 87 71 38 74 63 66 77 73 65 67 75 58 62 101 103 84 48 54 71 77 61 80 63 85 72 97 90 116 156 37 70 70 89 69 102 130 58 119 68 27 33 47 66 76 31 123 113 54 39 109 37 90 47 89 82 53 134 60 118 76 109 112 57 85 27 52 84 94 99 75 92 75 56 164 77 67 106 75 100 117 59 137 116 72 97 85 80 75 39 95 36 103 70 61 59 133 98 102 39 73 79 142 67 90 65 68 76 53 91 33 116 56 109 93 43 66 80 53 22 62 81 110 94 89 77 57 84 94 98 111 62 108 42 38 57 84 123 73 72 97 106 46 76 67 53 91 101 37 40 70 124 76 51 95 37 72 77 70 18 111 17 104 109 36 34 64 91 53 117 76 135 58 85 43 55 91 123 102 78 33 109 110 58 118 90 77 105 51 74 42 78 70 64 87 126 81 73 68 26 143 47 72 50 69 68 55 104 80 69 41 73 65 94 93 82 98 98 144 84 95 44 134 95 120 101 36 38 45 89 39 79 70 134 141 96 122 131 28 91 45 36 92 103 58 47 56 86 73 96 35 85 108 61 98 113 98 100 64 70 69 37 106 87 74 65 102 116 120 66 118 103 96 93 45 113 121 52 30 85 65 60 41 40 90 71 44 127 125 47 66 95 51 37 98 46 67 130 109 30 144 87 58 77 154 38 97 82 106 93 59 74 24 86 47 97 109 33 95 106 27 52 120 161 93 99 172 77 57 109 30 101 71 105 129 146 101 67 131 88 124 59 54 79 132 75 76 81 71 90 106 110 40 109 48 58 131 160 53 123 93 41 76 75 49 134 119 91 71 82 94 77 97 71 82 64 96 56 80 64 50 131 98 128 54 80 88 70 131 72 51 113 89 130 10 54 71 101 73 57 70 75 193 98 148 109 33 81 62 54 85 62 73 40 55 80 39 79 99 54 41 100 31 67 44 112 84 84 73 84 129 68 63 110 96 35 28 97 92 71 42 158 37 47 81 100 56 40 73 33 73 117 98 162 97 80 73 95 74 92 16 43 30 123 159 62 55 90 128 62 35 58 59 78 71 59 78 83 109 70 64 155 72 178 129 84 82 83 48 59 30 169 35 67 80 105 49 195 44 102 166 102 81 50 114 81 66 95 97 68 37 79 70 99 60 95 48 124 10 147 81 104 80 117 48 151 83 84 87 159 69 76 61 134 80 131 97 83 48 76 48 160 123 67 159 129 122 108 70 34 53 53 89 160 34 107 58 42 47 104 91 81 66 117 50 50 89 64 39 50 100 92 89 156 72 64 73 42 158 20 62 57 89 56 121 113 109 34 91 93 114 52 90 60 105 75 22 89 70 48 44 65 128 135 42 54 109 90 85 146 80 27 65 106 123 39 49 48 62 93 100 72 79 132 95 53 89 53 24 148 61 79 40 78 139 32 103 53 48 95 82 16 24 87 65 76 78 99 77 42 82 76 75 23 48 82 91 83 53 129 72 89 42 88 182 43 41 45 83 106 152 77 66 80 21 39 101 69 34 82 99 53 111 102 37 81 103 96 110 43 86 45 37 46 65 78 64 151 80 41 87 81 97 93 82 86 60 85 49 34 24 96 80 103 80 88 97 134 91 50 30 42 79 27 78 108 59 50 87 5 51 64 51 94 128 118 56 67 58 51 35 104 48 108 47 64 60 104 92 69 117 88 50 180 109 51 126 59 49 74 96 119 113 97 57 54 101 75 94 62 119 74 115 38 49 113 72 59 95 171 39 66 49 116 43 47 91 35 75 103 83 23 120 139 92 108 85 65 114 70 75 37 64 115 90 116 80 113 53 87 99 78 124 100 75 40 59 96 84 45 111 124 49 87 40 58 36 113 77 65 98 90 67 104 51 150 68 73 23 67 75 66 59 121 69 47 166 46 55 70 34 90 60 81 136 91 52 88 49 129 16 33 89 111 46 86 83 60 104 95 124 64 95 77 145 84 94 51 50 128 32 66 120 214 119 114 86 75 90 122 136 79 83 133 33 27 182 101 90 86 98 56 35 31 47 118 48 90 54 79 111 89 65 116 65 64 57 60 77 84 76 49 75 40 79 43 51 54 47 64 26 53 58 63 66 93 91 25 81 98 114 77 49 89 76 81 114 114 72 73 94 144 19 53 108 66 71 67 35 115 64 53 56 89 111 62 89 53 62 41 74 94 90 39 38 35 74 68 103 108 92 118 100 164 56 98 76 111 56 94 79 31 104 77 117 67 124 61 93 60 87 39 17 86 94 91 64 85 64 76 92 95 93 81 83 93 84 105 60 95 53 89 103 7 26 50 93 92 50 48 70 80 72 40 91 49 100 90 70 42 15 127 88 90 98 96 154 94 101 71 37 73 55 96 82 47 66 122 60 85 43 27 73 79 52 82 118 83 129 96 50 71 108 97 93 109 100 79 82 73 144 70 100 107 111 108 105 91 123 71 33 62 44 95 91 111 121 87 70 73 87 36 116 23 110 94 95 42 58 89 55 83 87 71 52 104 73 42 56 24 84 40 49 78 66 64 35 54 67 83 80 76 62 77 81 135 53 118 71 36 115 98 81 138 93 44 80 73 100 38 65 91 111 104 89 143 127 72 54 160 104 86 49 46 25 112 149 63 73 49 85 99 70 58 96 84 62 73 98 47 30 50 38 69 30 36 115 127 67 34 80 98 75 44 59 56 53 49 100 47 75 70 100 77 36 25 13 25 126 47 76 55 27 67 61 83 105 93 38 40 52 38 58 94 84 47 102 120 79 104 132 80 98 94 128 80 73 145 62 89 132 50 104 119 139 109 73 103 79 94 57 110 121 112 78 95 64 69 58 94 129 134 82 24 87 67 95 73 61 53 73 57 106 43 34 33 95 60 74 85 66 84 105 56 68 121 81 115 67 105 50 84 103 56 62 43 95 72 42 60 121 41 114 65 53 111 64 112 94 47 33 29 67 92 89 107 71 88 37 63 61 26 64 83 136 99 71 111 49 55 91 52 83 66 22 65 111 64 94 54 166 61 90 89 56 39 50 125 70 39 66 79 57 108 83 11 39 67 56 35 60 65 107 75 116 73 54 72 93 95 70 108 54 118 31 103 87 116 84 101 54 90 99 49 78 31 93 61 60 79 60 113 25 108 11 23 63 51 49 71 110 49 142 49 164 71 45 32 58 62 52 69 103 37 80 101 120 98 44 50 69 113 154 40 88 92 107 62 50 43 90 67 46 84 151 46 95 93 31 96 134 65 54 81 74 60 59 59 85 153 80 76 54 72 85 53 63 53 109 60 105 111 112 116 70 67 58 53 77 169 101 53 34 83 61 104 71 77 80 44 35 65 77 116 58 34 106 122 64 109 84 69 59 68 47 115 36 49 63 29 62 111 7 91 53 83 55 119 108 110 153 64 80 53 122 124 29 24 60 74 95 50 105 124 87 99 123 56 56 99 174 26 56 106 67 61 173 97 118 64 33 94 40 53 75 82 87 86 121 108 82 74 31 53 39 31 30 79 39 41 42 93 26 136 100 51 114 86 57 44 33 71 43 46 80 77 80 68 72 101 108 97 109 131 41 40 74 34 42 76 66 71 17 80 117 17 110 97 77 116 85 119 109 91 98 79 30 42 101 66 69 117 54 130 104 109 81 96 108 94 44 124 70 76 28 100 52 46 56 39 69 59 77 83 115 93 128 110 71 100 145 69 125 61 65 84 80 66 41 162 77 125 81 48 66 76 50 121 51 53 92 154 81 111 91 51 41 147 117 116 119 43 42 57 104 54 67 33 54 95 76 86 45 83 54 64 78 58 134 27 95 143 116 115 114 26 67 47 55 61 65 42 43 73 81 89 68 94 130 73 79 80 66 75 80 70 91 48 15 53 82 98 102 95 65 18 129 113 92 66 45 52 105 44 77 72 50 95 104 82 72 58 39 84 139 6 54 70 48 97 25 78 72 61 56 103 56 67 100 81 85 87 62 78 119 74 86 25 45 65 75 133 52 67 80 62 76 72 52 81 41 97 34 53 106 47 101 73 142 84 156 111 83 84 71 48 102 188 72 14 97 77 108 42 106 48 97 81 87 89 65 27 96 43 95 39 84 80 34 43 104 58 90 11 117 74 87 61 76 55 59 71 47 72 102 62 77 71 58 57 51 77 129 90 97 171 81 28 86 120 81 32 87 99 117 115 36 60 151 24 82 139 68 67 102 34 40 158 71 46 36 69 57 141 70 91 68 34 76 97 128 35 61 109 101 60 76 64 62 55 101 66 103 96 87 60 64 64 77 42 29 68 29 47 36 68 107 79 111 152 34 73 110 70 61 91 32 65 101 67 74 67 118 139 158 96 96 74 70 119 65 104 120 96 59 91 71 126 15 62 33 85 156 95 77 30 104 102 67 67 83 107 77 83 82 91 90 66 69 121 117 52 91 78 141 89 107 114 114 60 103 92 42 104 59 96 154 103 80 58 138 76 39 53 32 61 69 99 75 111 135 54 89 83 97 83 84 60 122 98 121 46 100 127 105 138 48 79 49 132 71 23 61 76 86 117 79 83 85 102 130 81 42 101 81 157 113 100 124 59 50 121 63 119 106 36 139 51 127 71 71 45 82 77 73 146 65 20 96 83 97 60 42 51 95 36 127 50 97 67 149 25 82 61 40 140 34 73 74 94 77 45 62 80 110 84 67 83 56 88 115 50 150 66 95 95 71 67 82 82 166 87 68 81 37 83 43 69 44 89 134 65 52 82 127 101 116 89 89 30 62 82 64 94 74 89 58 65 76 71 44 49 75 44 11 60 71 85 83 53 90 105 116 101 98 85 41 44 49 106 64 80 75 154 58 25 115 82 69 25 37 126 64 55 87 114 55 76 79 63 48 182 44 58 102 134 116 57 139 150 44 82 97 44 106 91 64 59 32 73 30 79 113 71 40 55 82 69 100 61 95 116 89 101 61 90 46 50 111 36 45 52 107 46 132 46 99 153 32 117 112 64 95 74 27 78 83 53 32 50 38 64 43 87 98 74 46 60 102 92 84 42 42 38 109 81 64 73 78 51 56 78 58 67 60 183 66 97 126 45 105 106 69 81 46 110 57 85 32 81 65 79 94 76 83 162 90 86 75 30 107 71 47 70 101 54 62 46 90 76 60 72 39 103 190 76 89 122 88 104 59 54 70 94 7 76 107 71 99 67 103 61 94 117 129 97 51 130 125 117 57 65 44 63 69 41 81 113 45 19 54 123 74 60 86 99 92 43 52 68 15 113 67 53 59 54 130 36 33 82 146 43 83 51 77 66 95 49 108 94 40 122 66 151 47 42 72 84 140 64 62 81 104 81 91 64 89 117 80 24 124 122 39 129 77 125 84 76 69 47 103 66 61 98 91 51 100 37 14 66 70 19 27 74 37 112 73 111 43 68 121 99 56 87 114 118 92 67 66 43 53 76 63 45 22 122 99 60 93 73 94 47 111 56 59 132 118 6 49 148 52 66 95 53 63 83 70 67 54 23 123 78 66 87 68 103 68 45 57 91 118 26 82 100 78 38 65 141 87 54 30 97 71 61 53 55 30 115 64 114 55 102 59 84 112 32 88 49 81 18 31 59 72 52 117 176 78 113 83 81 83 59 77 32 46 91 127 90 72 37 39 102 67 134 74 42 67 34 28 49 98 192 50 49 129 169 53 84 71 154 78 118 65 96 73 95 83 79 32 81 1 74 75 68 31 57 65 24 75 73 96 120 65 88 85 74 60 109 82 192 80 37 46 60 71 134 107 44 81 96 147 19 87 41 59 32 84 103 65 87 59 100 157 87 107 89 104 58 66 105 124 120 156 83 89 71 105 66 61 87 68 109 82 27 71 91 102 83 62 71 50 23 12 79 67 59 79 132 128 34 34 54 109 67 70 28 66 130 144 38 37 57 24 107 21 72 38 124 85 95 63 61 55 109 72 80 73 104 24 76 90 55 87 86 139 39 54 100 108 51 69 91 60 95 124 93 43 44 28 42 41 69 58 80 60 33 54 66 127 78 123 86 112 41 81 106 106 64 77 62 44 68 53 40 93 75 64 127 106 96 85 86 42 99 59 88 6 54 105 97 77 81 85 67 62 71 62 134 93 73 55 116 48 33 44 103 66 101 49 52 83 72 118 96 101 90 99 144 66 69 75 144 87 124 46 79 109 52 120 112 51 45 26 36 54 115 110 61 58 102 186 51 17 24 87 127 156 82 43 79 129 74 140 72 65 80 56 89 75 55 90 64 96 94 84 85 79 94 27 57 71 113 44 49 28 16 156 93 64 85 73 75 126 86 118 60 141 77 80 97 87 45 90 46 75 66 45 64 83 53 57 31 132 91 60 73 41 90 93 88 46 113 65 75 106 103 67 90 45 45 118 52 82 84 65 50 84 37 72 120 65 48 51 76 67 59 50 61 45 74 76 81 7 38 123 65 58 87 41 71 102 44 126 22 57 45 106 26 98 53 120 146 84 33 44 61 99 110 113 98 80 102 71 52 85 87 44 85 88 57 42 102 84 107 88 31 59 75 69 60 81 65 102 59 66 97 43 16 68 46 67 121 70 82 37 94 83 92 28 147 164 59 77 71 125 94 141 48 131 41 63 34 59 79 85 63 50 70 45 62 62 53 153 90 121 95 56 90 78 68 99 80 132 57 87 89 103 101 35 36 147 90 85 60 62 82 95 112 50 68 158 67 100 95 97 56 54 38 60 77 84 56 123 130 55 108 71 100 67 123 83 73 108 108 47 62 117 33 42 119 28 55 34 136 54 95 87 106 107 83 76 61 119 95 109 81 86 48 87 57 27 75 87 64 89 120 145 80 45 58 116 51 66 118 81 75 90 66 107 80 73 51 86 57 56 59 50 59 120 80 112 154 121 59 43 54 71 174 124 82 63 68 110 122 44 44 53 43 122 104 68 48 51 97 81 38 98 110 53 107 31 96 88 94 84 69 58 132 95 60 140 67 77 16 87 58 76 134 102 104 105 78 36 43 53 55 124 92 31 108 70 27 28 86 87 82 18 71 150 53 99 100 85 72 72 94 103 116 34 190 58 48 97 120 91 58 112 47 85 102 80 101 69 68 67 78 61 76 34 73 154 52 101 67 129 84 91 78 45 64 78 87 35 109 59 73 50 48 69 32 96 67 56 58 62 42 64 42 108 36 70 61 125 44 57 50 84 71 75 88 53 91 68 74 50 26 121 21 65 98 126 90 56 123 50 64 127 63 87 74 60 79 109 64 106 107 41 63 60 106 121 36 76 61 107 54 74 102 63 112 64 80 81 103 62 63 75 83 62 90 52 58 48 63 46 80 79 48 86 167 91 58 62 89 108 62 99 114 88 57 55 74 51 71 10 95 92 31 137 101 101 60 52 102 59 25 99 131 66 133 30 98 170 39 75 98 114 43 74 86 54 124 76 118 89 82 71 83 65 43 39 109 103 31 46 87 68 75 67 63 58 69 78 47 76 33 54 80 99 74 44 90 62 100 127 72 95 72 72 87 67 93 65 51 62 95 76 63 105 113 65 100 71 78 99 44 61 127 111 64 41 105 87 66 19 55 98 59 96 35 136 62 22 41 116 89 48 120 61 51 57 39 173 76 60 96 125 43 100 118 90 72 106 65 35 62 115 123 60 41 81 78 59 111 95 121 17 59 94 85 52 81 55 76 70 90 49 100 79 62 61 146 113 104 75 93 90 77 96 85 81 60 41 63 30 108 115 100 100 82 68 141 116 131 39 72 23 105 52 82 101 87 30 82 79 55 66 71 87 92 72 99 77 106 93 92 94 54 56 133 69 68 95 87 98 66 105 28 87 43 56 57 103 152 99 90 71 37 58 65 47 102 62 28 90 124 74 93 84 137 102 92 67 63 31 29 65 38 62 111 24 108 60 96 90 28 74 43 2 67 90 93 71 62 103 68 24 71 95 96 102 94 131 103 84 73 76 101 90 104 54 89 72 115 59 58 101 58 71 33 45 23 135 92 91 25 76 39 166 68 81 77 46 102 64 117 43 72 87 127 83 29 47 99 105 66 90 55 92 112 44 39 47 86 40 87 61 54 95 86 47 99 24 61 58 101 77 62 104 72 65 76 92 102 64 75 75 161 62 52 46 76 110 68 78 88 68 140 127 59 114 47 68 66 37 61 31 82 75 48 54 71 33 124 101 66 54 87 25 130 84 39 94 52 102 49 59 13 46 73 111 110 128 66 48 84 81 100 98 51 77 136 61 61 102 80 87 86 98 74 99 31 59 79 56 21 90 80 124 20 62 142 42 115 20 61 113 125 37 67 106 78 115 51 70 60 93 93 108 78 37 73 109 57 85 68 103 82 73 52 98 67 71 102 137 89 80 57 107 111 82 86 21 73 110 79 75 111 95 88 82 91 112 94 82 42 52 152 111 40 102 84 71 76 98 153 93 30 118 101 74 138 67 79 74 88 45 118 89 74 151 66 111 75 35 54 24 119 55 68 62 69 89 47 61 70 61 78 48 56 46 106 79 133 21 81 147 113 110 138 90 77 87 25 14 68 81 162 161 67 68 58 42 112 61 134 92 139 42 30 81 153 48 54 51 39 51 70 34 70 29 69 53 101 40 89 118 96 93 106 45 113 155 68 43 87 53 86 140 93 73 75 81 188 139 87 90 55 65 39 73 65 55 33 78 57 55 51 146 74 46 86 62 89 133 61 110 107 66 98 74 68 80 55 105 104 114 51 29 53 63 94 102 92 80 75 177 134 31 141 54 63 75 97 78 78 61 95 95 130 36 58 53 54 80 41 54 54 86 106 59 43 20 109 80 105 135 9 48 95 70 63 55 69 68 107 51 88 94 111 101 102 104 70 102 75 68 81 63 118 51 75 110 68 117 32 88 41 138 90 118 57 57 83 136 59 81 89 57 71 63 62 60 106 112 107 62 115 110 67 133 68 71 96 70 41 71 95 54 35 102 140 96 196 107 111 77 118 52 139 37 66 46 77 55 87 50 86 43 77 29 104 74 85 88 102 82 132 139 116 57 104 59 102 80 126 72 74 86 93 100 68 102 62 45 171 44 63 72 84 83 45 59 52 95 81 66 156 118 37 61 158 49 51 75 161 88 126 89 71 114 33 108 58 140 57 78 99 72 50 99 103 128 60 45 54 83 115 36 65 61 71 63 44 61 51 114 118 76 57 79 50 87 50 24 125 123 70 119 86 87 112 90 116 105 55 25 87 109 57 50 47 106 51 37 67 34 41 79 87 108 103 97 134 88 119 49 38 35 48 52 135 61 78 102 43 42 68 37 127 105 80 70 80 83 97 68 75 102 128 65 84 105 74 99 95 78 106 37 25 72 59 68 132 27 69 83 81 88 58 79 42 40 92 82 45 78 70 31 68 87 85 103 82 156 66 93 120 139 61 82 42 85 69 79 69 64 39 64 139 109 48 75 80 71 73 90 15 80 104 129 81 54 58 90 123 82 46 37 76 55 64 123 57 72 90 89 49 140 126 57 76 33 165 65 86 90 105 81 63 97 59 115 126 76 58 115 32 90 88 47 68 96 113 100 77 91 54 81 45 99 9 115 27 132 96 54 59 129 109 102 121 154 79 90 84 64 85 69 155 106 96 107 73 97 44 106 162 90 79 81 82 50 107 50 162 69 60 156 78 104 75 56 83 72 119 77 71 107 113 91 91 79 67 39 147 80 38 98 67 43 91 26 96 84 47 63 92 71 55 82 58 94 110 20 22 33 128 104 99 153 65 63 116 113 44 41 32 32 29 139 62 69 64 77 110 126 69 58 104 110 63 64 113 62 105 46 49 64 38 63 114 63 88 102 97 103 48 46 91 107 94 85 75 62 165 85 96 26 71 81 22 86 68 60 89 79 93 78 60 141 131 70 65 42 69 41 59 72 163 34 97 43 52 56 64 107 40 45 114 85 23 172 89 83 37 80 56 150 80 73 95 96 81 98 149 66 134 133 87 18 30 53 75 103 39 111 103 99 100 40 75 88 27 32 89 68 78 24 80 68 92 64 70 51 107 123 98 83 196 71 100 24 131 116 81 68 31 111 67 107 110 84 28 67 57 98 48 56 74 67 93 118 61 44 94 159 72 99 91 101 127 127 48 110 95 71 87 96 39 124 55 103 111 115 22 89 61 76 53 99 71 105 39 137 152 109 44 49 73 109 48 133 161 87 96 85 70 153 41 118 103 82 32 91 78 67 60 114 82 66 72 44 91 95 94 70 65 74 70 122 21 60 63 69 129 50 114 92 106 78 45 43 26 41 48 59 103 110 111 64 80 89 91 21 64 64 88 70 49 46 71 149 104 123 92 67 99 75 130 84 66 46 58 85 92 120 87 70 54 86 35 67 64 53 49 36 77 31 32 42 24 67 113 93 41 72 85 123 56 42 49 108 79 71 110 65 110 91 89 70 95 63 72 152 96 79 57 42 21 71 23 66 88 85 87 105 75 81 85 96 83 150 77 125 116 65 82 39 57 94 84 90 55 50 62 101 43 113 49 63 111 130 50 78 28 84 49 29 78 91 96 76 77 119 48 96 106 115 95 80 44 63 51 13 53 31 41 63 76 47 78 47 51 59 48 81 85 51 45 86 48 65 55 94 100 78 54 60 114 22 90 67 98 78 115 49 161 29 55 66 34 58 47 73 104 82 126 123 121 75 15 108 154 184 56 60 76 111 66 38 93 56 104 98 59 58 88 54 116 45 70 84 49 48 113 44 115 76 81 63 88 68 75 105 90 48 84 36 78 80 88 109 80 39 83 110 41 86 59 72 68 127 106 119 58 39 65 86 54 94 52 53 159 132 26 101 86 51 104 106 93 117 62 38 60 148 101 55 31 92 67 61 41 53 76 86 108 58 70 83 98 57 76 60 79 109 101 75 79 39 77 104 100 20 54 78 75 102 79 82 109 86 76 51 19 115 36 80 49 75 60 24 83 50 67 59 115 70 42 63 58 70 57 68 72 52 79 46 73 64 131 54 113 117 75 75 95 102 24 122 83 54 66 84 43 86 75 109 43 91 66 78 73 51 39 92 8 69 68 89 44 49 86 11 102 57 100 59 87 59 96 73 110 100 95 63 74 66 67 145 65 70 41 45 67 74 41 97 75 71 164 41 50 58 33 46 38 134 105 86 82 79 30 43 53 38 40 47 50 95 80 133 62 108 95 63 138 88 72 48 17 104 51 89 109 78 92 47 84 71 61 92 115 92 235 80 89 99 92 174 84 65 67 87 57 73 40 53 50 64 45 135 147 69 113 111 41 89 106 86 64 103 56 107 140 32 56 107 145 93 16 56 79 29 46 133 76 97 84 67 122 151 63 48 97 30 55 99 102 66 150 16 103 68 80 61 56 130 73 61 40 32 60 57 66 87 42 59 119 51 120 114 65 97 73 55 71 78 85 83 76 128 39 69 61 65 134 77 119 92 113 65 89 105 76 85 147 90 34 80 54 52 74 64 55 129 25 43 43 53 152 93 101 60 68 98 87 38 55 101 72 82 70 93 50 94 81 40 46 75 104 56 108 114 101 53 77 59 45 38 51 62 44 67 118 127 97 78 56 46 110 96 112 71 111 156 89 76 98 72 138 157 75 92 59 66 96 131 126 52 120 119 53 32 85 61 70 63 73 108 57 118 111 97 62 103 79 100 105 36 39 91 111 102 130 107 48 72 135 83 86 86 57 45 67 76 59 98 112 19 129 56 59 110 70 62 43 83 51 94 142 45 16 101 29 77 56 73 84 82 90 55 109 68 63 78 97 97 47 123 65 116 38 97 74 65 85 85 95 108 118 65 144 63 136 122 79 111 72 69 82 83 116 89 131 72 145 100 49 66 88 26 101 98 65 57 62 72 45 36 42 74 32 71 73 67 51 75 39 134 79 102 104 81 24 84 76 106 90 80 109 76 48 52 31 85 79 127 114 87 67 57 50 71 68 99 85 105 68 97 61 82 94 116 74 72 128 74 116 50 57 133 89 54 100 77 39 102 87 40 106 64 98 71 74 62 118 152 63 90 108 90 44 44 82 62 16 93 80 71 57 47 132 71 43 110 68 95 78 120 98 113 66 30 65 81 101 65 44 29 36 36 104 24 72 63 39 28 147 5 117 71 56 59 123 73 133 75 86 50 62 100 63 53 94 79 80 80 66 70 87 82 62 85 103 132 56 95 80 93 64 63 60 59 76 73 24 46 86 78 72 68 107 75 110 61 78 57 32 66 139 96 48 30 56 153 120 102 121 127 114 33 81 57 55 36 65 47 105 38 124 118 104 52 64 129 97 81 73 94 42 21 97 44 124 111 84 37 66 61 100 42 88 125 146 70 58 104 36 67 87 144 167 90 114 65 59 84 69 40 43 107 43 81 112 63 86 111 73 89 135 127 72 59 137 96 81 92 59 66 73 135 104 128 66 91 47 61 67 97 68 103 31 110 113 31 62 69 75 96 72 67 130 66 70 48 124 29 48 115 18 114 49 95 110 69 104 82 104 131 59 44 37 147 83 77 72 69 108 34 47 49 103 56 66 45 123 101 128 82 102 51 78 74 71 114 140 67 52 94 103 55 113 66 54 113 96 70 94 49 75 105 98 71 38 49 37 96 55 103 59 76 151 160 89 38 116 35 73 65 100 83 121 11 27 44 37 89 67 108 60 54 86 101 47 105 100 68 74 69 112 49 79 79 63 26 64 65 87 32 104 121 70 75 112 90 107 30 117 94 62 16 66 85 91 102 66 134 161 31 74 44 73 21 86 94 61 104 69 40 49 64 117 91 30 66 70 64 65 52 55 98 170 56 38 88 74 76 107 83 71 137 98 96 111 88 54 68 151 142 77 45 123 67 66 70 68 53 106 97 54 78 54 34 191 44 89 93 67 40 74 79 110 76 77 86 75 72 94 88 57 116 66 75 45 70 82 113 129 87 94 77 41 132 57 137 97 109 66 33 110 57 98 76 25 68 63 68 120 70 69 74 79 54 47 104 106 92 97 70 119 62 108 147 110 113 30 30 56 73 69 114 78 75 69 101 50 49 133 59 80 79 48 100 83 104 103 101 68 98 57 64 54 76 65 83 23 74 152 99 83 73 98 120 106 109 70 115 98 51 52 53 119 68 43 58 67 50 44 80 51 138 43 147 66 113 43 103 100 171 101 83 129 47 139 105 54 70 39 55 150 65 75 44 111 82 38 86 57 107 123 103 66 96 115 87 33 90 76 51 64 126 63 63 120 53 74 39 27 79 43 56 25 87 64 114 51 41 58 47 44 92 56 72 12 83 83 76 149 65 101 112 61 40 88 11 98 93 92 65 129 70 29 62 60 77 121 65 53 55 77 135 114 94 51 108 93 106 37 112 29 60 103 60 94 115 87 108 79 39 111 14 112 65 28 75 109 151 158 59 63 128 65 31 106 40 61 58 90 124 121 57 35 90 64 141 105 117 73 48 72 118 56 99 38 54 46 80 87 28 103 50 117 43 140 55 102 62 51 71 78 93 125 101 42 115 63 41 67 34 106 97 102 93 109 76 54 93 113 17 81 44 107 115 87 81 22 85 69 75 142 64 65 123 126 133 23 106 197 105 24 114 58 92 98 43 82 116 63 104 31 105 42 93 76 63 79 80 149 94 108 112 75 66 62 67 112 77 107 43 64 58 49 83 139 91 32 44 92 99 89 40 42 34 59 112 100 31 67 38 110 101 87 111 89 78 108 93 39 113 45 59 133 102 60 73 52 121 129 53 38 113 125 61 84 30 83 68 108 48 91 39 49 91 63 74 106 96 137 65 25 49 102 63 87 61 74 116 83 61 49 63 55 84 117 82 39 120 91 130 68 100 42 73 51 49 90 138 72 68 67 120 84 72 64 56 82 85 95 26 92 84 75 73 113 119 95 69 87 94 61 58 84 56 58 153 92 49 86 93 110 58 35 50 124 109 112 58 85 131 96 80 100 35 94 73 43 37 118 45 58 93 52 63 128 9 78 41 99 118 96 100 86 75 38 141 93 37 113 65 66 116 54 77 104 126 60 85 79 82 52 60 63 45 83 86 126 84 26 174 77 63 71 95 74 85 73 26 21 96 65 26 155 34 82 114 96 62 117 65 39 39 82 57 79 28 118 103 112 33 87 115 76 68 87 36 36 68 73 85 75 100 30 104 143 80 98 92 146 104 50 103 53 92 80 81 103 64 126 66 37 93 93 116 32 40 87 103 83 77 75 78 59 51 54 107 82 92 54 91 92 100 52 38 152 77 57 118 108 122 73 75 124 70 73 84 58 32 74 62 96 79 32 59 90 66 92 51 52 101 100 61 106 82 68 60 69 67 34 127 113 98 59 65 25 74 121 74 86 149 129 84 52 124 38 42 135 30 96 76 83 31 113 45 67 73 134 93 79 87 120 99 140 121 138 95 121 127 119 42 128 83 90 61 54 121 83 62 98 72 43 73 67 120 110 60 97 129 21 43 45 42 88 143 80 39 95 90 117 107 69 68 110 116 65 83 71 39 99 67 124 68 111 71 94 52 119 144 55 109 47 54 47 115 73 108 45 108 92 47 76 118 56 129 110 89 82 74 70 39 102 75 35 125 102 109 75 62 100 107 146 94 119 62 39 104 66 99 84 92 36 62 105 99 67 45 70 46 105 41 38 101 97 124 59 80 92 64 52 59 44 68 85 114 22 96 112 46 66 115 129 102 56 90 47 119 116 93 96 65 35 122 88 140 69 51 56 53 92 157 68 42 66 112 62 82 65 70 76 58 109 83 76 138 47 91 75 72 160 75 58 123 112 63 92 70 20 120 31 133 78 128 27 84 41 106 104 101 78 111 115 120 72 146 54 107 82 57 84 59 89 23 142 70 168 98 85 42 76 49 63 25 42 95 91 65 94 99 115 60 93 180 125 18 109 132 69 62 86 109 79 54 80 22 91 104 57 61 155 75 53 85 78 113 65 142 76 77 180 61 62 99 89 106 40 86 63 68 73 112 56 128 52 112 104 114 95 66 53 40 168 100 105 25 173 36 113 54 77 69 112 106 90 85 135 79 110 24 88 167 85 46 70 44 69 81 101 82 154 88 79 94 93 99 137 60 86 95 99 76 85 54 144 114 62 63 63 19 75 45 77 31 55 58 30 80 79 51 111 53 101 50 40 84 110 63 123 81 120 95 129 113 34 59 17 82 145 123 146 71 96 113 103 96 90 47 56 60 111 74 132 164 97 38 52 34 51 79 34 108 62 68 127 74 92 26 98 71 81 30 44 95 46 44 65 55 84 107 103 49 51 64 77 42 75 79 72 88 100 152 35 62 73 99 59 61 86 76 76 60 31 55 84 85 84 73 92 138 81 52 80 67 47 94 76 88 50 22 91 117 107 60 38 39 176 131 94 33 123 90 72 109 119 94 38 50 44 65 109 47 50 55 79 97 122 57 89 91 93 34 106 47 39 115 73 54 55 112 58 136 129 54 54 62 25 80 68 73 173 117 84 128 39 113 56 97 60 90 78 68 174 160 92 57 14 32 51 73 109 111 130 34 42 122 62 128 67 106 83 89 70 74 77 64 112 78 58 122 81 108 89 77 92 117 65 23 54 45 85 91 120 80 81 88 50 35 55 31 85 59 78 72 96 122 159 77 68 129 54 47 64 70 65 106 96 74 60 59 25 117 54 78 72 116 108 42 88 82 52 83 18 122 74 93 79 69 56 80 37 103 100 81 87 123 123 65 68 112 109 63 84 88 49 119 89 107 44 155 103 23 61 48 120 7 59 50 35 50 31 150 108 54 54 88 102 164 71 64 42 74 124 110 72 95 44 85 64 66 64 40 50 67 62 33 64 58 77 80 85 102 63 83 101 59 51 43 68 74 73 29 106 101 53 30 52 56 61 71 73 121 75 48 65 41 32 65 78 64 153 79 82 99 50 106 101 79 53 140 95 148 121 60 153 104 95 91 63 25 89 90 46 85 110 83 66 46 70 65 25 140 73 47 77 53 79 109 164 31 122 140 92 65 89 129 80 126 82 61 56 91 98 37 84 72 74 41 81 60 75 70 84 107 143 111 111 97 76 81 31 127 90 48 117 86 115 79 53 119 94 74 63 88 88 46 71 82 95 88 77 85 71 83 81 109 58 75 57 73 67 106 113 57 146 77 47 88 72 95 117 49 96 75 100 74 56 43 69 36 78 93 150 85 156 86 55 76 33 74 91 86 104 55 119 22 93 59 88 80 64 81 72 75 42 138 19 68 82 93 111 163 52 82 70 110 122 112 86 86 96 97 57 103 55 113 135 78 54 70 128 111 123 51 43 89 59 91 100 84 73 96 91 88 139 100 66 60 73 92 55 126 72 100 79 98 25 74 49 107 49 36 114 104 98 92 59 71 96 64 77 78 72 100 67 38 40 91 96 100 38 55 85 53 32 89 56 63 106 109 63 104 40 48 67 129 127 76 31 104 32 77 93 79 78 37 103 94 88 51 162 54 74 107 97 116 109 104 51 43 93 60 102 67 92 10 108 100 55 86 64 48 54 78 67 62 107 57 123 37 99 83 43 68 45 28 80 64 63 102 33 87 34 76 85 116 42 145 78 155 85 15 88 42 75 80 55 58 69 55 84 62 60 144 76 112 87 74 42 40 173 89 137 23 110 75 92 151 20 124 104 59 62 66 69 40 71 144 108 82 122 71 94 73 99 83 115 172 39 64 72 48 67 73 20 54 56 69 61 53 75 110 69 69 102 116 31 89 198 61 63 82 59 29 89 89 153 27 86 52 118 107 114 78 92 43 80 67 70 64 104 88 61 97 72 68 101 62 80 51 84 124 136 26 111 37 43 144 22 33 62 202 56 47 38 53 93 72 30 51 103 71 88 100 137 42 33 98 23 117 42 23 95 83 70 26 39 105 78 117 58 61 100 127 57 120 63 67 57 83 64 11 35 38 78 98 68 81 69 50 76 77 99 49 105 86 63 92 111 55 89 63 90 41 78 74 65 157 37 123 68 56 35 32 82 125 86 72 100 63 82 104 12 43 89 102 69 137 107 48 81 36 70 105 107 89 74 39 88 96 81 83 100 89 99 20 50 85 79 52 74 110 41 74 110 61 57 106 67 102 92 123 99 99 132 103 114 94 37 155 38 55 126 69 62 108 79 38 39 56 110 90 101 66 86 81 75 61 65 80 80 97 67 106 156 55 100 99 71 89 94 86 86 116 30 29 87 60 92 36 57 120 82 64 67 86 33 49 72 137 85 104 56 90 183 144 119 84 67 95 72 83 113 41 89 59 98 79 88 17 61 148 82 62 51 69 139 58 98 72 71 90 93 48 81 93 79 90 63 68 45 102 82 40 73 109 66 105 67 64 135 136 19 78 77 129 96 67 59 137 31 74 59 81 80 79 116 83 31 89 165 80 75 110 35 52 107 58 119 57 60 72 49 63 149 46 58 81 9 110 85 128 68 68 79 89 81 73 99 95 138 103 77 70 66 24 25 86 38 78 56 82 45 95 35 79 81 89 102 47 93 132 27 60 61 79 102 68 115 109 27 40 42 46 104 111 73 125 107 67 53 106 79 80 104 71 64 64 46 65 67 65 95 125 68 73 97 84 98 108 64 149 66 38 67 51 77 90 71 75 108 9 102 97 36 114 58 90 75 39 54 119 164 66 63 41 21 33 82 103 77 66 111 48 49 48 40 59 53 33 108 79 99 74 81 77 101 76 112 109 85 147 99 108 85 118 47 76 81 93 71 50 56 106 75 46 107 95 51 40 22 86 111 64 92 80 138 85 66 57 93 63 53 116 92 122 154 87 96 24 98 86 60 76 56 21 79 112 62 75 79 55 45 60 38 75 76 52 134 51 80 87 37 106 96 66 51 74 85 116 88 61 114 86 137 80 117 56 53 68 79 68 76 136 92 58 113 104 73 104 71 45 63 65 119 47 61 62 81 149 3 107 72 70 54 65 59 101 53 72 69 52 97 59 46 53 84 135 33 36 84 100 19 149 63 85 97 125 109 88 33 88 67 88 68 26 58 96 79 141 66 46 90 22 73 86 152 46 73 64 157 211 123 159 87 57 101 81 53 78 87 85 90 139 78 82 69 64 41 98 115 85 66 98 87 113 64 89 67 67 62 118 78 34 66 46 129 42 75 83 120 143 38 61 62 70 74 58 66 90 43 38 67 51 83 101 65 37 57 53 43 94 38 68 63 52 67 73 78 75 55 105 128 124 95 77 49 89 32 103 68 77 45 97 107 198 87 114 17 44 105 148 77 62 115 80 57 93 41 84 85 49 147 67 62 49 56 44 99 88 118 74 58 56 47 67 52 61 195 101 98 47 135 47 61 98 149 47 92 26 107 48 46 83 107 69 140 39 80 99 75 53 75 103 101 32 76 44 100 112 79 102 74 90 54 21 52 126 93 59 70 49 33 71 122 97 90 210 55 71 77 66 50 81 45 42 91 89 60 51 52 58 137 20 66 52 142 111 84 104 38 96 51 57 56 115 60 103 69 68 31 33 165 54 30 60 115 63 71 41 44 62 106 73 91 124 107 44 78 41 36 79 105 92 88 33 76 76 62 14 116 66 85 60 85 131 127 39 74 87 131 85 112 41 61 75 62 54 51 53 78 81 56 87 146 68 147 52 119 62 99 77 51 128 98 95 105 72 104 43 85 13 78 52 164 64 122 37 67 152 30 110 108 55 69 77 136 52 76 117 75 84 83 83 67 72 70 87 60 90 101 47 52 52 89 67 116 70 71 63 41 73 120 63 72 93 74 99 44 62 43 63 40 43 92 102 126 49 104 79 90 127 53 122 89 174 109 84 85 121 53 56 50 39 87 205 114 100 35 50 150 58 73 90 113 80 96 122 35 145 91 20 29 94 88 145 25 84 100 64 88 47 104 27 51 113 59 60 53 66 24 108 76 108 104 66 61 53 110 115 72 91 112 103 46 155 78 56 43 69 91 108 25 119 96 35 120 62 89 53 28 63 45 20 74 55 114 95 69 29 60 128 82 73 37 34 69 67 166 79 48 42 45 94 38 90 94 90 41 92 75 73 67 46 56 66 52 44 35 115 96 99 92 118 87 114 33 77 79 104 89 25 117 83 72 52 70 36 95 74 45 68 104 43 97 89 108 67 132 142 99 96 19 31 51 120 41 108 15 42 77 97 46 65 97 115 64 79 86 8 65 58 65 44 123 84 112 46 53 99 109 56 45 95 47 153 87 94 29 58 63 99 59 124 31 156 26 28 101 58 21 82 80 36 79 67 67 54 105 119 53 65 54 54 95 15 65 89 127 53 74 106 122 22 50 21 71 101 68 119 89 75 82 146 50 46 91 97 34 96 60 74 83 95 80 56 66 48 79 99 91 66 75 122 16 47 70 60 88 77 49 66 130 98 89 103 111 142 55 61 112 76 96 24 72 120 135 105 135 44 58 34 70 104 98 49 84 85 93 86 51 35 99 104 144 69 114 31 90 88 96 86 33 84 62 33 18 111 61 86 12 34 77 46 30 123 93 66 126 61 44 111 59 81 40 69 70 124 79 110 69 62 94 119 90 33 63 47 125 107 151 66 79 101 57 51 35 84 123 54 76 138 100 98 96 51 72 63 56 106 57 117 79 64 98 80 118 71 12 113 102 139 95 40 74 40 33 94 46 80 130 43 51 66 73 91 62 77 50 56 55 101 101 55 124 60 76 81 35 53 138 118 89 122 57 99 71 39 85 38 134 176 61 113 37 120 40 91 124 64 86 83 105 82 52 56 32 95 80 57 83 118 56 82 30 72 66 126 139 25 107 78 104 45 28 124 76 71 95 140 58 52 61 82 67 56 56 88 192 70 76 94 77 55 75 77 59 97 73 110 55 91 44 67 35 83 122 47 159 32 93 118 69 66 73 115 82 95 96 112 85 70 61 85 76 75 58 85 10 29 60 61 95 82 71 98 79 86 57 89 70 82 93 52 84 81 75 79 89 77 76 51 30 25 61 107 32 125 82 78 107 69 144 104 89 39 77 62 64 20 75 41 80 51 140 69 63 68 65 90 47 107 116 95 56 31 71 89 72 76 142 20 78 68 102 83 33 108 47 87 39 98 34 32 105 77 138 23 84 114 78 58 104 58 167 117 73 61 77 64 50 36 75 36 64 67 53 104 61 101 41 48 140 52 70 57 92 46 111 56 151 77 58 94 91 87 83 31 124 63 71 130 67 73 37 55 113 47 38 51 91 63 82 75 97 63 22 93 72 26 102 112 76 138 64 73 30 67 53 101 119 28 104 87 132 81 77 53 100 36 78 56 66 50 48 55 68 74 104 40 61 60</t>
-  </si>
-  <si>
-    <t>NIG(0.31622082517775585, 0.3161315140807242, 0.005644539276970461, 0.009871398316299951)</t>
-  </si>
-  <si>
-    <t>0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 1 1 1 0 0 1 1 0 0 0 0 0 2 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 2 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 2 0 0 0 1 1 0 1 1 4 0 0 0 1 0 0 0 0 0 1 1 1 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 1 1 2 2 2 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 1 1 1 0 0 2 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 1 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 2 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 3 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 4 0 1 2 1 0 1 0 0 1 0 0 0 1 1 1 0 1 2 2 0 0 0 0 0 0 1 0 1 1 1 0 0 2 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 1 3 0 0 1 0 0 0 0 2 0 1 0 0 0 2 0 0 1 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 2 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 2 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 0 2 0 0 1 0 2 0 0 0 0 1 0 0 3 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 1 0 0 1 2 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 1 1 1 0 0 0 0 2 0 0 3 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 2 0 0 1 1 1 0 1 1 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 2 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 2 0 1 0 1 3 1 0 1 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 2 0 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 1 0 2 1 1 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 2 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 2 1 1 1 0 0 2 0 0 2 0 1 0 1 1 0 0 0 0 1 0 0 2 0 0 2 0 0 1 0 0 2 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 2 1 1 0 0 2 1 1 0 2 1 0 0 1 0 2 0 0 1 2 0 0 0 2 1 0 1 0 1 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 0 0 1 1 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 1 1 1 2 1 0 1 0 1 0 1 2 2 1 0 1 1 0 0 0 1 3 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 2 1 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 3 0 4 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 1 1 0 1 0 1 0 0 2 0 1 1 2 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 2 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 2 1 0 0 0 0 0 2 0 0 1 1 0 1 0 1 0 0 0 1 1 2 1 1 1 0 1 1 0 1 1 1 1 0 0 0 1 1 0 0 0 1 2 0 0 1 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 1 1 0 0 0 0 0 2 0 2 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 3 1 0 2 2 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 1 2 0 2 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 3 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 0 1 2 2 1 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 1 1 1 1 0 1 3 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 1 2 0 1 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 3 0 2 0 1 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1 2 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 2 0 2 1 0 0 2 0 2 0 0 0 1 0 1 1 2 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 2 1 0 0 1 0 2 2 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 3 1 0 1 1 0 0 1 2 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 2 0 0 0 1 0 1 0 0 2 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 1 0 1 1 2 1 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 2 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 3 0 0 0 0 0 0 1 0 2 0 0 0 1 1 1 0 1 1 0 1 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 1 0 2 0 2 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 1 2 0 2 1 0 0 2 0 2 0 0 2 0 1 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 2 1 1 0 0 0 1 1 0 1 1 0 1 1 1 1 0 1 1 0 0 0 0 0 0 1 1 0 1 0 3 0 1 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 2 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 0 3 0 0 2 0 0 0 0 0 0 2 0 0 0 1 1 1 0 0 1 1 2 0 2 0 0 0 0 0 0 1 2 1 0 3 0 1 0 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 2 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 2 1 0 0 1 0 1 1 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 2 0 1 2 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 1 0 1 0 2 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 4 1 0 1 2 0 1 0 1 0 0 0 1 2 0 0 0 2 1 0 0 1 0 0 1 0 1 1 0 0 2 0 0 0 0 3 0 0 1 1 0 1 0 0 1 0 0 1 2 0 1 0 0 0 1 1 1 0 2 0 1 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 2 0 0 1 0 0 0 1 0 1 0 0 1 1 1 1 0 0 1 1 1 0 0 0 0 1 1 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 2 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 4 1 0 0 1 1 0 1 0 1 2 1 1 0 1 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 2 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 2 0 2 0 1 0 0 1 0 0 1 1 0 0 0 2 0 0 2 0 0 0 0 2 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 2 0 1 1 0 1 0 0 1 0 1 0 2 1 0 1 0 0 0 2 0 0 1 0 1 0 0 2 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 2 1 0 1 0 0 1 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 2 0 0 0 1 0 0 1 0 1 0 2 1 0 1 0 1 0 0 1 0 0 1 1 0 1 2 0 0 2 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 1 1 2 0 0 0 1 1 0 0 0 1 2 2 1 0 0 1 0 0 0 0 0 2 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 2 0 0 1 0 1 0 2 0 0 2 0 0 1 0 0 0 1 2 0 1 1 0 0 0 0 1 0 0 0 0 1 2 1 1 1 1 1 0 0 0 1 0 1 1 1 0 2 1 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 1 0 0 0 1 2 1 0 0 1 0 1 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 2 2 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 1 1 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 1 3 1 0 1 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 3 0 0 1 0 1 0 1 2 0 0 0 2 0 0 0 0 0 0 0 1 1 1 2 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 1 0 0 1 2 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 2 0 0 0 1 0 0 0 2 0 0 0 1 1 0 2 1 0 1 1 1 1 1 0 0 2 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 2 1 1 0 0 1 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0 1 2 0 1 0 1 0 0 0 1 2 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 0 1 1 1 0 0 0 2 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 1 2 0 0 1 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 2 2 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 2 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 2 2 0 1 1 2 0 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 2 1 1 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 3 0 0 0 4 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 2 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 1 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 1 0 2 0 0 0 0 1 0 0 0 1 0 0 2 0 1 0 1 0 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 1 2 0 2 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 2 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 1 2 0 1 2 0 1 1 0 0 0 2 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 2 1 0 1 1 0 0 1 2 0 0 0 0 2 0 0 0 2 2 1 0 1 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 2 2 1 0 1 1 0 3 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 2 1 0 1 0 1 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 1 3 0 0 1 1 0 1 0 0 1 1 1 1 0 0 1 0 0 0 1 0 1 1 1 1 4 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 2 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 2 0 0 0 2 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 1 1 0 0 1 0 0 1 0 0 2 0 2 0 2 1 0 0 2 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 1 0 0 2 1 0 0 0 1 1 0 0 0 1 2 1 0 1 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 2 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 2 0 0 2 3 2 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 1 2 1 0 1 0 0 1 2 0 0 2 1 1 0 0 0 0 1 1 1 0 1 1 0 1 0 0 2 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 1 0 1 0 1 0 2 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 3 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 2 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 2 0 2 0 1 0 1 0 1 1 1 1 1 0 0 0 1 2 1 0 0 0 1 3 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 2 0 0 1 0 0 1 0 1 0 1 0 0 2 0 0 0 0 3 1 0 0 0 1 3 1 0 0 1 1 0 1 0 0 1 1 0 0 2 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 3 1 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 1 0 2 3 0 2 0 1 3 0 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 2 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 2 0 1 2 0 1 2 0 1 0 0 0 0 0 1 0 0 1 2 1 1 0 1 1 1 0 2 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 0 1 1 2 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 2 1 0 0 0 1 0 2 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 2 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 1 1 2 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 0 1 2 1 1 1 0 1 0 0 0 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 2 0 2 0 1 3 0 1 1 0 0 2 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 1 1 0 1 1 0 1 2 0 0 0 1 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 2 0 1 1 1 0 0 0 1 0 0 1 0 1 0 2 1 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 2 0 0 1 0 0 0 1 1 0 0 2 0 1 1 0 0 1 0 0 2 1 1 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 1 2 0 0 1 0 0 0 1 0 0 2 0 0 0 2 0 0 0 0 0 0 0 1 3 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 3 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 1 1 0 2 0 1 1 1 1 1 1 1 0 1 0 0 1 0 2 0 0 1 0 2 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 0 2 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 2 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 2 0 0 0 0 1 0 0 1 0 1 0 0 0 2 0 0 1 1 1 1 0 1 1 0 0 0 1 1 0 0 0 0 1 2 1 0 2 0 2 0 1 1 0 0 0 0 1 1 0 0 2 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 2 2 0 0 0 0 0 0 2 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 3 3 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 2 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 1 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 2 1 0 0 0 0 1 2 1 1 0 0 0 0 0 1 1 2 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 2 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 2 1 0 1 0 1 0 1 2 0 0 0 1 0 0 0 2 0 0 0 0 2 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 2 0 2 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 2 0 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 3 0 0 1 0 0 1 0 0 0 1 0 3 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 1 0 1 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 1 3 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 2 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 1 1 1 1 2 0 1 0 0 0 0 1 0 1 2 1 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 0 2 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 2 1 1 0 0 0 1 0 2 3 0 0 1 1 2 0 1 0 1 0 0 0 2 0 0 0 0 1 1 0 0 0 2 0 0 2 1 1 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 2 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 1 1 0 2 0 0 0 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 1 1 1 0 0 0 0 1 3 2 1 0 1 0 0 1 0 1 1 1 0 0 0 2 0 1 0 0 1 0 0 2 0 2 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 1 0 2 0 0 1 0 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 2 0 2 0 1 2 1 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 2 1 0 0 2 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 3 1 0 1 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 0 0 0 2 1 0 0 0 1 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 2 0 0 0 0 1 0 2 0 0 0 0 0 0 0 2 1 0 0 2 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 1 2 1 0 0 0 0 1 2 1 0 1 1 1 0 0 0 0 0 0 0 2 1 0 1 1 1 0 0 0 1 0 1 2 1 1 1 0 0 1 0 0 1 1 0 1 1 0 2 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 2 1 0 0 0 1 0 2 2 2 2 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 0 2 1 1 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 1 2 0 0 1 0 0 1 0 0 0 0 0 1 1 1 1 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 0 1 3 1 0 2 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 1 1 4 0 1 1 0 1 0 0 2 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 3 1 1 0 1 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 2 2 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 1 1 0 1 0 0 0 0 0 1 1 2 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 2 1 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 2 1 1 2 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 2 1 0 0 0 0 0 0 1 0 1 1 2 1 1 0 1 2 1 0 0 1 0 1 0 0 0 0 1 1 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 1 0 2 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 1 0 2 2 0 0 2 0 1 0 0 3 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 2 0 0 1 0 1 0 1 0 0 1 0 0 0 2 0 1 1 1 1 2 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 2 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 2 1 2 1 1 0 1 0 0 1 0 1 1 1 0 1 1 0 2 0 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 2 2 0 0 1 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 2 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 0 0 1 1 0 2 1 0 0 1 0 1 1 1 0 0 1 1 0 0 0 1 1 0 1 1 0 2 1 0 1 0 0 0 0 2 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 1 0 2 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 1 0 2 0 0 0 0 0 1 2 2 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 2 1 0 1 1 0 1 0 0 0 0 3 1 1 0 0 0 0 0 0 1 0 1 0 1 1 2 2 0 0 0 1 1 0 1 1 2 0 0 0 0 0 0 1 1 2 0 0 1 0 1 0 0 1 1 0 1 2 0 0 0 0 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 1 1 0 2 0 0 0 1 2 0 3 0 0 2 2 0 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 1 1 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 3 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 0 1 0 1 2 1 0 0 0 1 0 0 0 0 1 2 0 3 0 1 0 1 1 2 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 2 1 1 0 0 1 2 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 1 2 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 2 0 1 1 1 0 0 1 1 0 0 0 0 3 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 2 0 0 0 2 0 0 1 0 0 0 1 1 1 0 0 0 0 0 3 0 0 0 0 0 0 2 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 2 0 0 1 0 0 0 2 1 1 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 2 1 0 1 0 1 0 2 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 2 1 0 0 1 0 1 0 2 2 2 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 2 1 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 2 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 2 0 2 2 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 2 1 0 0 0 0 0 0 0 0 0 2 1 0 2 1 0 0 0 1 3 1 1 0 1 0 0 1 1 0 0 0 0 2 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 2 0 0 2 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 2 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 1 1 2 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 2 2 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 2 0 0 1 1 1 0 0 1 1 2 1 0 0 0 0 1 0 0 2 0 0 0 1 1 0 1 0 2 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 2 1 1 0 0 1 1 1 0 0 1 1 0 2 1 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 2 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 0 1 1 1 2 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 2 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 1 0 2 0 0 0 0 0 2 0 0 0 1 1 0 0 1 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 1 2 0 2 1 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 0 0 2 0 2 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 1 1 1 1 0 0 1 0 2 0 0 0 0 1 1 1 0 0 1 0 1 0 1 1 1 1 1 0</t>
+    <t>NIG(50.2458788272276, 37.33321343786774, -15.541620477490799, 26.51052752447861)</t>
+  </si>
+  <si>
+    <t>16 13 16 31 17 9 23 13 7 23 17 0 10 0 13 10 9 2 14 27 13 19 6 18 19 10 0 14 12 20 17 26 13 22 10 6 19 17 12 20 21 13 21 9 20 17 12 24 17 9 13 24 17 10 23 23 8 10 30 13 23 20 38 6 14 0 20 10 10 17 13 20 21 23 19 0 3 13 13 17 7 11 23 7 10 23 14 10 17 26 41 16 19 13 0 21 24 3 13 7 21 14 13 17 6 13 6 10 13 18 20 17 9 12 3 7 6 17 20 17 16 17 9 21 17 3 13 6 9 21 12 23 22 26 12 14 3 14 11 13 19 31 7 10 18 6 10 19 7 6 3 20 17 17 24 24 6 3 17 0 17 24 6 24 6 27 13 13 24 10 10 15 9 11 9 24 23 10 17 15 22 17 21 24 13 16 0 10 0 6 8 7 17 20 19 30 3 9 10 3 13 6 15 17 3 3 23 6 21 20 10 6 12 22 12 3 22 7 21 20 10 10 10 14 40 24 13 25 0 13 21 10 16 10 16 12 13 24 10 7 27 10 10 17 3 9 12 9 9 16 6 17 14 17 22 14 13 17 17 10 24 16 20 14 19 19 16 20 24 17 19 13 3 27 16 17 7 12 3 10 10 23 13 13 6 12 25 22 14 19 19 6 13 20 14 12 7 13 13 14 26 9 17 14 28 17 14 17 13 10 20 3 16 9 25 23 3 7 8 30 15 24 14 14 23 6 20 3 9 16 24 17 7 20 7 24 19 13 16 20 15 15 10 15 16 26 6 16 9 14 16 17 12 7 14 16 13 14 19 17 27 10 13 14 6 13 6 16 19 10 20 14 17 12 17 16 12 9 15 5 3 13 11 27 0 10 35 17 16 0 16 13 16 10 7 17 20 9 10 19 17 17 10 12 26 27 6 21 13 14 17 10 0 27 17 9 10 13 19 16 3 10 26 13 13 7 14 17 15 20 20 27 13 22 20 15 17 16 3 31 16 13 23 7 20 13 12 3 29 13 14 15 21 10 3 10 17 3 17 11 10 41 10 21 3 17 3 10 19 13 6 3 17 22 21 13 10 3 16 13 14 17 11 8 17 23 28 0 20 16 3 22 16 9 3 19 14 14 6 20 10 7 6 24 20 10 10 16 16 17 12 3 16 13 16 0 19 6 3 9 17 14 18 3 6 7 0 20 0 26 13 9 3 23 9 20 13 14 19 11 10 21 6 17 19 10 6 7 3 14 23 18 17 13 30 6 30 7 10 20 9 23 17 16 9 6 20 17 21 31 7 23 24 20 14 7 19 10 17 16 13 17 14 23 7 20 17 13 9 20 0 6 24 13 22 14 21 17 17 0 13 10 9 3 16 0 14 0 23 12 10 12 21 13 13 20 3 14 30 19 10 13 13 0 21 9 11 15 14 9 16 7 13 16 7 24 20 20 20 23 10 12 6 12 19 10 8 0 15 7 7 10 13 17 21 11 19 14 9 16 13 16 16 18 10 16 20 27 20 14 3 13 27 26 7 12 16 17 17 17 16 16 17 10 10 7 15 13 7 6 13 13 19 24 13 23 10 10 9 7 10 14 16 17 24 7 13 3 17 17 22 12 17 23 23 14 9 13 18 13 10 12 10 17 14 16 10 13 10 19 6 10 30 27 10 20 0 10 16 15 22 3 13 24 17 10 6 17 6 19 24 20 23 7 22 21 16 21 0 9 6 11 21 12 19 9 10 13 10 13 16 9 17 20 0 17 13 10 31 7 17 10 6 13 17 19 9 14 7 19 14 27 19 20 3 9 13 28 18 10 3 9 14 13 17 12 18 20 20 11 6 10 9 12 6 13 20 10 6 6 20 13 10 19 19 13 14 17 6 17 19 6 13 13 24 27 13 9 14 14 10 20 8 10 16 9 13 7 16 14 12 16 13 3 16 12 7 21 3 27 9 19 16 13 7 10 6 27 17 10 0 10 3 20 21 14 6 17 11 6 13 10 14 7 6 7 17 13 14 7 12 11 19 6 20 21 3 10 14 16 10 10 10 10 16 13 20 17 16 10 16 23 16 12 16 10 6 7 9 27 14 13 10 13 5 7 13 3 20 31 23 23 0 14 12 14 9 10 13 26 10 10 6 11 10 16 10 13 14 6 14 17 19 12 10 6 27 20 12 27 6 19 9 12 26 16 13 27 10 7 3 10 17 12 10 9 9 20 21 9 6 13 6 9 14 13 20 3 14 20 11 24 9 10 13 13 12 7 20 3 20 14 28 9 23 19 28 20 18 19 7 13 10 10 16 17 20 20 25 24 21 9 9 10 19 9 3 3 6 19 16 20 10 7 20 14 21 14 23 20 24 20 7 27 17 16 27 22 9 9 13 20 3 27 16 7 12 14 9 25 7 10 14 17 17 10 3 24 10 26 9 18 17 21 6 17 20 26 20 6 20 10 16 11 17 32 24 6 3 17 22 17 23 16 16 13 17 14 6 16 13 14 6 6 17 23 13 18 12 16 19 7 13 13 17 13 17 17 10 17 13 18 13 7 19 20 10 10 0 13 10 19 10 16 13 13 10 14 17 16 12 13 17 3 13 23 13 9 17 13 17 28 16 10 24 20 12 9 17 25 16 14 14 13 12 16 17 9 20 20 25 17 14 7 16 9 12 24 20 24 20 14 23 16 13 13 7 3 10 10 16 17 14 7 11 11 23 13 3 18 17 7 12 11 3 17 6 16 13 18 13 20 14 13 13 13 7 9 24 16 25 13 6 17 20 12 6 14 17 20 20 6 25 20 13 11 17 17 30 12 16 17 10 7 9 23 0 16 9 3 3 23 14 13 13 10 20 3 17 10 22 7 20 14 17 19 6 21 13 21 16 8 24 20 6 6 10 10 7 13 24 16 24 20 3 3 23 9 13 6 10 3 7 6 14 15 13 16 10 12 17 9 9 13 20 6 9 17 10 6 6 17 6 10 27 7 12 6 20 8 13 13 0 16 27 24 22 6 19 13 14 10 23 8 34 15 19 18 13 20 16 28 20 6 0 14 22 10 13 31 19 18 21 18 14 14 21 17 13 24 29 6 8 16 24 6 15 7 10 0 10 10 14 8 10 10 10 6 10 3 19 17 18 28 20 20 3 14 13 6 7 12 24 10 30 17 19 18 19 13 13 6 7 3 14 13 10 23 20 17 17 7 14 16 20 3 24 10 6 21 24 24 16 17 8 6 20 20 13 3 14 13 20 10 21 21 17 5 3 19 18 10 12 13 16 7 3 3 17 6 7 14 20 16 14 12 11 24 0 13 17 16 25 10 23 6 0 20 6 12 18 3 13 16 12 20 10 20 23 10 16 22 0 6 20 10 17 9 0 15 17 7 13 13 3 14 27 17 15 9 23 17 17 10 20 27 0 10 9 19 10 29 13 13 6 10 13 27 13 7 23 13 10 17 19 10 18 14 9 15 23 19 26 17 6 10 21 24 20 6 15 17 21 6 6 14 17 10 27 3 9 20 9 27 0 30 17 27 6 16 10 10 22 17 14 21 17 10 19 10 20 10 18 21 13 13 7 17 27 9 30 13 27 3 13 6 9 6 3 17 20 23 11 13 10 10 10 10 24 12 14 6 9 6 20 13 0 17 17 14 9 16 10 13 10 31 13 9 17 10 3 9 27 12 13 10 16 6 16 9 13 9 13 14 16 20 7 16 17 7 6 6 23 15 16 14 6 29 12 10 6 19 17 9 20 6 9 13 17 12 13 7 21 10 7 9 10 3 7 19 14 24 13 10 17 14 3 18 7 17 13 10 11 6 6 20 20 24 10 8 6 12 21 12 16 13 3 16 27 23 12 13 13 17 20 17 7 21 17 9 3 13 22 19 14 24 0 13 10 6 23 19 13 6 6 17 6 17 10 10 6 26 17 19 3 13 6 22 6 19 16 12 10 23 23 17 22 9 12 14 3 15 20 30 20 17 17 29 23 10 20 9 10 7 17 16 25 13 13 20 16 3 13 3 6 15 14 30 34 16 18 16 12 3 23 0 10 17 20 17 26 3 17 10 0 20 10 0 9 21 16 17 35 14 16 21 12 9 17 10 14 10 10 14 19 0 6 6 7 12 13 3 10 7 6 16 3 17 10 17 15 16 15 20 10 6 17 8 13 15 20 7 10 17 14 17 14 13 8 13 16 9 16 19 21 30 14 20 20 10 21 10 13 6 15 9 12 16 7 14 10 10 3 16 16 3 10 20 10 20 15 6 12 21 8 13 10 19 22 16 10 14 13 9 14 10 7 14 6 31 16 23 9 25 14 15 13 13 23 3 14 16 13 12 8 6 3 24 13 10 10 13 6 7 16 16 17 10 16 13 7 20 17 6 13 13 21 22 24 13 3 14 20 6 6 14 6 16 13 17 19 18 14 20 27 3 6 19 16 20 3 22 12 13 13 9 17 10 15 17 0 13 20 14 9 12 0 13 15 10 20 24 22 10 22 10 18 13 6 10 25 3 17 6 6 13 20 17 26 15 3 17 10 10 17 3 16 6 12 10 17 9 30 20 17 13 10 14 17 21 10 13 3 13 10 20 13 7 19 26 26 14 34 3 12 24 13 10 18 6 15 20 10 13 15 24 20 6 9 15 3 11 3 20 19 29 17 10 17 6 16 10 6 14 10 12 28 23 0 16 28 13 7 21 9 24 13 13 9 10 18 14 17 21 9 7 16 14 20 10 24 3 13 6 6 20 7 10 10 17 12 20 20 26 19 27 0 9 3 3 10 17 6 13 17 10 20 17 14 11 9 15 7 20 0 20 7 6 17 14 3 16 15 6 17 10 3 21 20 24 13 7 24 17 17 24 13 10 6 17 17 10 15 16 9 16 15 23 20 3 6 13 10 12 11 13 18 14 3 14 23 20 0 9 10 9 13 10 27 18 0 16 12 17 10 21 28 27 20 14 17 10 24 3 17 16 20 23 17 9 6 6 24 11 6 16 6 13 6 12 7 14 16 3 10 12 13 25 23 20 13 9 10 17 24 10 14 13 19 10 10 13 16 10 13 3 13 6 17 6 13 15 10 3 14 7 11 10 20 10 15 13 13 7 9 13 17 17 16 10 10 17 16 20 20 16 13 17 15 24 17 24 23 10 24 3 16 14 7 17 24 21 23 3 16 10 13 9 3 16 6 17 17 37 8 10 10 10 20 3 10 7 20 17 10 9 17 0 3 7 6 10 24 10 6 17 16 24 34 16 21 13 3 24 7 15 6 31 12 16 10 18 9 6 27 13 24 14 14 16 16 22 12 10 0 13 20 14 12 10 10 3 13 0 7 18 20 13 6 21 10 24 11 13 10 25 23 10 12 18 16 13 6 13 13 16 16 6 17 22 24 9 9 7 3 10 12 6 10 10 22 20 30 10 13 10 12 3 24 3 0 26 7 20 24 28 13 27 16 7 12 24 21 24 13 7 15 27 17 23 16 13 33 10 26 9 10 7 0 10 17 15 13 19 9 16 16 10 24 10 7 19 17 17 16 13 16 10 11 3 10 16 9 21 9 13 6 17 3 27 20 13 19 16 0 14 9 3 30 15 6 13 20 17 3 9 17 9 24 17 24 0 10 6 13 16 34 23 13 20 15 19 13 12 13 20 13 0 24 3 23 10 20 13 13 19 13 13 34 10 20 34 16 3 10 7 20 22 17 12 17 13 15 22 12 10 13 27 12 14 16 16 10 20 16 17 16 24 17 13 19 16 15 10 14 12 17 6 7 3 17 14 25 16 9 13 6 16 17 23 12 11 0 20 16 13 17 12 17 16 9 7 18 13 16 16 13 12 12 14 13 27 0 11 31 14 15 23 20 31 9 14 17 10 13 10 21 3 21 6 23 3 3 18 9 24 7 9 24 27 10 11 16 13 10 3 16 19 23 20 17 14 24 26 14 14 17 17 16 13 13 23 3 21 10 7 30 12 24 3 17 17 17 6 6 17 10 35 13 13 10 16 16 12 13 16 6 9 17 3 27 9 0 6 8 20 17 15 6 13 13 14 28 15 17 24 3 14 18 17 10 10 12 21 11 16 10 16 3 16 13 19 10 12 7 14 21 13 20 33 7 9 3 24 6 6 10 12 3 24 20 13 23 12 13 14 10 16 7 15 14 16 10 10 12 13 27 10 12 17 10 16 13 28 14 24 16 6 7 10 9 7 14 21 10 20 3 10 10 20 9 6 17 13 13 17 10 12 13 14 12 30 5 12 13 10 13 16 10 12 15 19 12 7 27 26 10 11 14 23 13 13 12 18 10 20 17 13 18 14 27 17 3 10 14 7 21 9 28 3 15 20 7 6 6 6 12 20 17 17 27 20 10 23 11 14 14 7 10 16 21 10 10 12 10 20 17 13 9 17 13 9 27 11 6 30 16 19 10 6 31 10 15 11 9 14 14 18 6 13 10 10 7 15 16 27 9 6 3 10 10 3 14 17 19 20 10 21 13 27 14 12 8 11 13 13 37 16 16 19 21 23 7 20 21 16 9 13 13 23 19 22 17 24 3 6 10 19 13 12 17 13 0 9 14 3 23 16 16 17 26 3 10 6 10 8 15 9 6 3 20 23 10 17 9 10 10 10 10 17 20 10 22 6 19 13 16 10 17 16 25 14 19 13 10 16 3 17 13 17 13 6 14 17 7 10 14 20 6 20 16 13 3 17 13 17 16 17 20 6 10 12 17 14 3 10 10 16 6 14 13 15 19 13 10 3 12 20 14 6 3 30 6 8 10 21 10 10 9 9 20 23 12 17 20 13 6 23 10 16 7 15 10 19 10 10 23 10 19 20 20 14 19 33 6 17 7 13 17 19 12 17 20 13 20 24 10 13 17 30 14 18 13 13 20 16 3 6 23 10 9 10 17 24 20 35 27 17 3 9 16 17 24 15 17 31 7 6 16 10 16 10 23 13 16 17 3 13 23 9 20 20 9 13 16 9 16 13 16 23 17 14 3 13 9 10 15 24 20 6 13 13 6 24 20 9 7 6 24 10 17 21 14 10 12 3 7 20 0 9 10 10 27 17 17 24 20 17 12 17 7 7 10 3 10 12 13 10 13 13 23 13 16 24 3 13 31 33 0 6 24 6 12 17 10 6 16 17 14 9 16 25 16 23 3 16 13 17 3 13 6 10 24 15 20 24 17 20 19 16 14 21 9 7 10 9 14 17 14 21 6 22 13 17 16 17 9 7 20 10 23 17 10 6 24 9 13 10 20 21 20 13 21 24 7 17 20 12 13 23 7 6 16 3 13 14 15 13 13 3 9 23 10 8 13 17 23 15 24 13 16 20 10 13 6 12 31 12 16 10 14 17 13 7 9 9 22 20 15 10 16 13 10 17 10 20 13 21 15 13 6 13 10 9 3 11 30 15 13 3 13 3 22 3 20 13 17 17 13 13 9 14 10 17 18 3 13 6 20 20 9 16 19 9 14 21 20 7 19 12 10 30 15 10 0 12 7 20 9 13 14 24 12 20 10 10 14 10 13 20 16 16 9 28 17 10 13 6 20 3 18 13 17 13 14 10 34 20 13 9 28 17 13 9 7 13 24 16 10 0 13 10 10 17 16 7 17 22 0 11 3 21 7 19 3 17 7 10 16 10 10 19 21 6 7 17 10 20 23 28 24 0 14 13 6 19 10 23 16 11 3 24 14 3 17 3 16 13 3 7 3 6 3 6 18 10 13 23 7 3 27 3 0 14 20 17 14 34 3 13 29 16 20 10 28 24 9 13 27 13 20 10 13 6 14 17 23 17 13 14 21 10 15 17 17 22 10 27 3 27 7 18 10 19 20 16 15 26 33 16 6 6 0 27 6 20 17 10 7 3 9 9 14 23 12 19 3 17 19 27 17 6 6 23 24 21 20 16 3 13 15 3 9 9 28 17 15 14 3 20 12 6 3 13 6 17 3 15 6 9 24 31 15 9 17 0 11 13 6 16 13 7 3 14 7 6 3 10 31 16 3 17 3 10 12 20 10 9 6 19 21 15 7 0 10 14 22 16 13 37 23 24 10 28 7 9 15 26 23 11 16 24 17 10 24 6 14 12 17 16 30 3 6 17 10 16 13 15 6 10 13 16 3 7 9 3 10 14 10 19 6 3 21 19 16 23 12 27 24 10 23 10 11 17 12 10 19 20 13 17 22 23 23 18 16 23 13 16 13 10 23 13 6 15 10 22 21 3 20 17 7 28 22 24 20 7 10 13 22 22 10 12 14 6 27 27 17 7 13 10 14 10 10 24 10 16 10 17 16 16 16 13 13 6 13 20 33 10 16 10 10 13 10 16 17 19 9 10 20 23 26 7 13 17 3 12 3 13 9 14 13 7 19 16 23 15 12 17 21 14 3 13 3 3 6 6 6 10 24 10 20 27 9 6 7 19 19 13 6 6 34 23 7 16 12 13 29 10 12 13 10 6 3 9 22 6 17 9 23 17 17 21 10 6 17 20 27 7 13 20 7 18 17 3 16 10 3 13 16 17 10 11 10 20 9 21 20 3 30 23 27 3 23 13 10 6 13 20 10 24 10 12 13 13 21 14 7 3 16 14 3 17 14 13 10 17 3 20 10 9 20 20 23 13 0 30 14 19 0 13 9 14 12 23 27 27 22 13 15 17 16 3 12 14 3 10 20 15 19 23 3 0 14 23 12 16 21 20 15 6 23 20 9 17 17 9 20 9 16 9 10 20 24 17 3 13 3 7 9 16 10 13 12 6 23 27 18 10 13 9 13 35 23 21 7 20 14 13 14 3 27 13 12 17 15 13 10 12 14 0 3 13 15 16 9 6 7 18 6 9 21 13 10 30 17 20 27 13 7 13 10 3 3 0 10 26 35 10 10 20 7 31 17 18 10 21 11 26 17 16 17 20 17 14 13 24 14 6 23 19 17 3 20 9 10 9 6 27 14 20 24 7 0 10 18 16 13 27 10 13 3 15 6 21 6 9 16 9 17 17 10 10 6 9 3 21 6 11 16 7 3 11 10 3 14 13 17 27 9 19 12 20 13 13 3 17 7 9 17 6 22 17 22 23 15 16 15 20 23 3 7 9 23 6 24 20 9 3 19 8 13 7 14 15 0 13 20 13 7 14 13 7 14 24 20 16 13 16 10 13 10 19 31 3 14 0 10 6 24 14 6 19 6 3 17 3 6 20 16 20 24 16 24 3 14 3 3 9 24 6 16 16 10 10 19 24 17 3 10 17 3 20 10 6 3 23 17 17 14 20 7 13 23 17 3 17 13 9 16 22 20 3 3 10 17 6 13 17 10 13 6 10 13 17 23 6 10 16 9 3 10 13 24 10 7 17 20 27 10 24 6 21 22 7 23 9 19 8 16 14 9 6 26 27 13 14 17 12 15 15 24 14 13 14 17 10 19 6 10 10 9 14 17 17 10 3 21 12 24 10 13 19 3 24 7 19 23 16 20 14 6 14 16 14 22 6 17 13 9 17 16 16 14 10 16 13 10 10 11 23 14 17 9 17 7 3 30 6 10 27 21 17 6 20 6 17 3 19 9 10 9 14 16 24 9 24 10 21 10 17 6 18 10 17 3 7 27 14 21 13 16 17 15 7 14 12 12 9 13 10 7 9 16 13 15 16 9 10 19 7 13 13 9 16 16 9 10 3 13 14 10 23 17 34 7 19 10 20 24 13 0 25 33 6 3 13 8 10 21 7 17 13 21 3 3 19 13 10 9 27 20 16 17 9 3 16 3 20 12 21 6 10 13 17 21 27 17 20 7 6 13 27 17 16 7 13 13 15 19 13 3 19 20 13 29 16 10 14 13 6 31 13 17 13 17 13 17 17 6 17 10 25 6 3 13 13 17 14 27 24 24 9 10 18 7 12 24 23 17 17 20 3 20 23 7 14 16 24 16 3 18 15 20 12 20 17 21 17 9 9 10 17 16 7 20 17 24 14 10 0 20 6 16 6 17 31 9 10 7 6 11 17 16 19 20 6 13 21 14 17 14 16 5 12 13 10 9 16 14 10 18 13 3 10 17 11 9 13 10 19 23 24 15 19 13 10 20 17 7 17 26 0 12 20 14 3 13 9 14 17 19 10 14 10 23 10 24 14 20 7 14 18 20 17 17 27 9 15 10 23 38 10 9 13 19 16 7 17 27 10 3 28 29 6 20 13 23 3 14 14 27 13 14 10 14 14 10 17 19 10 20 13 16 23 12 17 9 13 9 0 13 28 18 14 3 16 11 16 3 6 11 9 12 16 9 3 20 14 16 30 7 12 13 13 10 6 7 10 19 9 10 15 16 10 10 13 17 3 15 9 3 13 6 31 9 11 23 15 18 9 9 18 14 6 6 16 0 14 14 17 16 16 14 9 19 24 6 11 14 17 9 7 9 20 23 27 9 12 20 14 17 10 13 27 16 24 14 16 6 33 13 10 10 17 17 20 23 20 3 16 21 21 16 14 13 17 13 19 28 13 17 27 19 13 7 17 27 32 12 13 12 16 16 16 19 16 14 7 7 10 20 30 7 6 17 14 46 3 34 17 13 6 6 8 14 12 20 20 17 6 17 7 9 20 7 20 7 17 9 16 10 10 16 17 9 24 16 17 27 17 26 15 16 21 14 12 10 6 18 0 27 20 13 19 10 7 23 16 0 0 3 20 23 9 6 8 13 3 25 3 10 19 6 8 14 24 14 16 15 3 21 10 10 10 7 10 10 16 10 12 13 17 10 14 20 13 0 16 27 12 15 10 13 9 6 3 10 3 17 13 23 6 15 6 16 7 27 14 13 10 16 25 20 23 10 7 21 17 10 13 27 3 9 20 21 6 10 10 14 14 16 20 17 9 7 10 7 10 26 15 12 23 9 0 7 10 20 17 20 10 6 17 3 10 8 9 17 20 0 24 16 10 0 3 20 10 16 6 14 20 21 23 3 14 12 3 0 3 19 12 19 20 24 10 10 14 6 20 16 14 20 12 10 13 13 17 9 17 12 20 20 7 23 28 14 12 10 21 16 6 20 7 3 10 16 9 27 19 7 10 12 24 23 10 23 21 21 17 20 17 16 6 7 10 14 17 7 15 16 24 27 6 13 0 17 12 14 0 16 17 20 11 6 9 12 6 21 24 9 14 20 20 10 10 13 20 26 9 14 13 9 6 13 16 12 16 13 0 9 10 7 9 6 3 20 20 21 20 13 21 16 14 0 12 9 16 13 19 16 34 13 28 16 14 16 9 24 20 16 20 3 3 10 17 12 6 20 8 9 7 10 10 13 9 23 10 14 18 14 10 9 6 27 17 6 13 16 38 13 19 6 17 9 16 19 3 17 15 3 6 14 13 3 7 10 19 0 17 16 21 13 8 6 10 10 3 24 7 33 3 6 16 10 20 27 7 18 10 10 13 19 10 23 10 17 21 18 6 17 13 21 14 18 13 23 20 17 25 10 26 15 15 3 6 20 34 13 15 13 10 9 19 16 6 20 17 17 7 13 13 0 17 20 9 0 10 7 20 17 10 16 3 9 8 7 19 23 6 16 17 14 9 20 13 9 37 20 10 13 14 10 23 10 24 17 20 6 11 17 22 10 10 16 3 17 9 9 13 29 17 10 14 3 24 14 17 28 9 2 17 14 14 16 6 6 7 12 19 10 27 10 13 26 20 16 9 9 13 9 10 13 17 10 14 12 28 16 14 16 0 0 7 7 6 3 19 3 13 23 13 10 20 12 27 19 10 10 20 13 20 26 7 16 9 13 17 13 17 20 23 7 7 7 25 16 21 20 19 6 3 20 3 16 12 30 9 16 17 17 23 11 20 6 13 18 23 26 9 24 7 9 20 13 21 10 13 28 17 10 14 12 9 0 15 9 15 17 3 9 13 17 15 23 10 3 24 18 20 17 13 6 6 6 10 6 16 21 17 13 20 17 26 2 10 6 26 24 13 12 17 17 7 20 15 21 23 6 10 0 3 24 19 20 13 17 13 19 24 19 10 20 12 10 7 3 0 7 14 6 20 16 3 27 21 22 3 13 21 7 6 20 10 16 9 10 6 10 15 7 17 3 17 10 22 6 17 17 3 17 20 9 3 26 16 13 24 10 7 18 13 12 8 9 10 20 3 13 13 12 20 10 10 9 3 9 3 23 12 20 3 21 7 13 21 14 6 17 10 24 7 16 9 26 9 31 13 10 20 6 3 20 12 15 14 17 16 17 3 13 3 19 26 27 22 10 9 3 14 9 16 13 3 10 19 9 10 10 14 20 10 19 6 27 20 14 17 11 13 21 13 22 16 6 10 11 16 6 6 6 10 9 12 20 30 23 31 13 10 10 16 16 3 13 12 11 16 6 16 13 16 10 17 23 10 3 16 10 17 3 17 10 13 28 3 19 10 17 10 20 14 13 17 10 16 10 16 29 24 17 14 9 3 3 7 27 16 7 12 10 6 13 6 13 10 11 13 18 13 17 12 24 10 7 15 6 10 9 16 9 20 9 6 14 12 6 24 17 17 9 3 9 17 0 29 14 3 13 15 10 20 13 10 23 21 7 16 20 23 27 14 17 27 19 27 14 12 6 10 6 14 14 13 10 6 20 16 17 3 10 6 17 31 17 0 16 9 19 10 3 13 12 10 17 10 3 19 10 9 10 14 17 17 19 14 6 14 10 10 13 17 3 12 13 12 9 14 15 10 6 10 20 7 13 12 7 24 6 14 9 19 26 34 0 14 13 38 26 10 10 17 7 17 6 20 7 14 13 14 20 15 13 10 9 13 6 27 20 6 23 10 13 26 10 3 10 7 7 3 3 10 9 7 3 20 24 9 7 21 3 3 14 10 16 9 18 12 13 13 14 36 20 20 19 6 20 17 17 26 17 6 23 23 13 0 10 11 10 10 17 24 16 16 20 12 7 20 20 15 27 16 6 20 16 16 3 9 3 19 17 10 13 30 16 13 17 14 17 15 9 6 12 10 31 9 10 10 0 3 17 31 13 10 10 19 0 10 16 21 13 19 13 17 6 10 22 24 7 17 10 10 25 3 20 6 27 17 13 14 3 3 13 10 7 13 9 14 17 21 13 0 7 10 13 14 20 17 14 17 6 16 17 10 10 19 10 10 16 12 21 23 18 10 7 10 9 17 19 6 7 23 10 7 20 10 7 20 17 16 7 21 13 24 21 10 10 14 13 2 3 3 17 6 9 20 21 0 21 19 3 14 9 14 10 10 15 7 10 6 20 0 21 12 27 13 13 24 9 9 20 17 7 17 14 20 34 20 20 13 27 0 17 13 17 7 10 7 20 19 6 21 9 24 13 16 12 12 20 10 18 6 24 17 22 13 7 6 14 10 27 20 20 13 10 6 15 17 17 13 17 16 19 24 17 25 24 0 3 13 3 11 17 13 24 10 10 6 0 7 6 12 7 23 3 23 9 28 23 16 13 21 23 7 9 27 9 13 23 11 15 13 0 21 17 26 21 13 22 3 13 27 3 27 6 14 19 9 10 10 10 17 23 20 25 3 3 20 23 13 11 9 10 17 16 3 7 16 13 0 13 11 14 6 16 10 13 13 20 24 9 7 21 17 14 27 9 24 7 10 12 10 10 24 19 3 12 7 6 6 26 15 13 23 17 10 19 12 28 10 3 18 13 10 3 12 16 14 24 7 12 3 10 18 3 9 20 16 9 10 10 22 14 10 13 16 12 3 14 16 10 10 6 10 10 17 10 6 17 9 13 13 9 14 10 26 17 3 0 24 0 24 6 6 23 6 10 13 32 20 6 10 21 6 23 11 17 10 3 28 10 18 21 16 18 14 7 20 9 14 9 6 13 16 12 13 13 10 3 10 27 14 13 20 3 19 9 14 13 17 20 17 17 24 20 6 13 10 7 10 10 23 13 6 18 9 14 14 16 20 10 17 10 10 7 24 7 6 7 24 26 6 19 13 8 28 9 7 10 1 25 12 24 10 6 13 10 10 31 34 7 17 6 30 14 20 10 21 16 0 17 31 15 6 10 23 13 3 17 12 21 17 12 14 6 23 13 12 6 15 19 17 7 22 9 14 21 12 3 13 7 14 7 10 0 13 23 9 6 13 10 13 17 25 7 14 27 3 30 27 13 20 3 13 16 10 6 9 21 27 17 21 0 10 10 20 7 14 28 13 17 17 3 12 6 20 10 7 18 12 15 13 20 23 10 16 10 7 7 16 16 24 16 9 9 13 14 6 20 30 20 13 17 23 22 14 14 0 9 11 19 10 10 26 3 20 17 17 10 17 17 24 3 16 9 3 17 9 12 20 13 23 20 8 9 19 13 9 3 21 3 16 10 16 13 27 9 0 13 21 13 3 10 21 24 9 10 17 3 13 20 3 11 24 21 9 19 6 20 7 14 20 23 13 10 13 10 16 15 22 14 21 16 15 14 12 13 13 13 6 26 12 9 17 0 20 10 7 17 10 10 15 14 13 20 7 3 3 7 24 22 3 9 16 9 9 20 6 13 21 27 17 20 16 10 17 17 18 10 20 24 10 10 14 17 17 6 21 18 28 24 16 0 12 10 10 10 13 19 6 13 19 6 17 9 13 20 3 16 28 13 27 6 14 10 13 13 12 16 10 21 20 13 19 6 19 17 13 6 12 6 10 24 22 7 17 19 6 14 0 13 30 10 8 24 10 10 13 10 3 15 6 13 0 35 20 10 8 9 24 3 3 21 13 16 21 6 6 10 13 23 7 26 10 17 20 14 31 3 9 18 15 15 3 13 23 19 13 7 10 14 10 17 13 24 27 10 7 13 10 13 14 20 17 10 30 12 13 12 6 16 13 3 14 20 20 23 20 20 0 3 22 6 9 0 33 10 9 20 13 16 20 17 7 7 8 22 19 3 14 14 23 17 6 13 7 10 11 13 3 12 10 17 13 17 20 12 13 9 11 21 19 16 16 6 20 7 10 10 10 20 11 16 22 21 10 13 16 20 31 26 9 13 12 6 30 24 13 8 14 27 16 20 7 17 0 23 22 14 14 20 10 21 10 19 14 9 0 7 23 34 0 20 20 13 15 10 16 15 3 17 20 19 17 13 20 13 17 14 6 0 24 10 19 17 31 10 6 6 24 19 17 13 30 14 7 13 7 19 6 16 0 15 6 24 12 3 19 10 6 18 10 6 13 12 27 24 12 6 10 10 21 17 7 6 6 23 6 3 10 3 3 27 31 10 13 10 14 13 20 3 10 23 6 27 13 23 13 10 24 6 3 3 14 9 23 10 14 9 3 16 24 24 27 10 17 13 17 23 20 16 6 6 10 6 9 20 24 7 18 12 14 19 17 9 12 23 10 16 24 14 17 23 24 6 20 11 13 10 16 24 10 20 26 17 14 9 14 10 14 26 28 17 13 11 17 24 21 11 16 26 13 14 12 13 6 6 19 21 3 18 20 13 13 24 22 15 6 14 13 17 10 24 17 10 9 14 16 14 10 10 10 6 28 15 3 24 17 9 22 14 27 3 6 17 42 7 23 13 23 3 23 6 10 17 29 17 3 14 16 21 9 18 6 14 27 13 38 17 9 3 13 24 18 25 7 16 21 10 20 19 6 10 20 14 28 27 23 0 17 7 10 17 13 31 13 20 16 18 17 3 17 17 12 13 10 13 7 9 23 13 21 16 22 16 20 20 27 3 30 19 10 20 21 20 10 21 29 10 0 3 16 16 27 20 10 9 6 3 7 12 16 6 10 10 20 3 18 10 17 21 16 7 12 10 16 10 24 17 17 12 17 23 20 17 26 10 6 10 9 6 15 20 18 20 8 13 10 13 10 27 10 9 16 17 6 20 20 14 31 3 31 20 9 3 30 17 12 13 16 16 15 17 20 19 20 16 20 27 23 13 9 3 17 10 13 15 15 9 0 10 17 20 7 10 13 19 10 16 13 14 10 13 6 21 14 7 10 3 10 11 7 13 1 20 23 16 10 10 6 16 6 14 22 21 6 14 10 3 24 13 6 19 6 7 6 13 6 7 17 9 7 9 17 7 7 14 24 6 14 13 9 24 13 20 19 16 15 14 23 22 10 6 13 20 16 40 13 18 19 7 10 3 13 0 6 14 10 18 15 21 13 31 18 20 9 24 14 13 16 6 7 6 14 6 13 9 27 24 15 13 10 3 23 18 19 10 17 10 13 19 13 3 30 12 6 6 10 33 20 9 20 13 10 17 15 30 10 10 9 17 17 19 31 10 12 14 18 3 14 12 20 6 9 7 7 26 3 13 13 16 6 13 7 7 10 24 9 3 23 6 9 14 10 16 19 15 24 13 21 17 3 10 19 10 13 13 18 17 13 16 17 6 13 17 19 10 10 13 23 10 13 10 16 14 24 3 17 0 3 21 17 13 21 13 7 21 16 18 17 9 16 6 20 17 21 17 16 21 14 10 3 20 14 10 7 20 19 3 2 13 17 6 15 13 23 9 3 16 13 3 17 23 10 6 6 7 13 12 24 24 12 13 6 0 17 6 3 14 13 13 18 13 33 9 13 17 10 16 29 12 17 3 21 14 15 17 12 3 10 10 27 9 15 6 19 9 27 30 6 20 17 10 6 7 10 16 20 19 27 6 3 21 13 6 6 17 10 24 0 14 13 10 13 20 16 16 20 16 2 18 7 13 14 14 12 14 14 15 0 9 3 9 20 3 10 19 15 12 6 24 6 10 7 6 23 9 7 16 16 24 23 15 27 17 17 10 17 3 12 17 12 6 27 9 9 26 0 16 17 33 16 23 31 18 6 13 6 13 22 13 33 15 17 16 9 13 12 0 18 15 25 13 10 22 14 13 16 9 24 24 16 24 21 10 6 24 15 11 6 9 34 10 7 10 20 20 24 9 10 7 3 17 23 6 13 20 19 12 20 29 16 9 10 20 6 31 13 10 10 14 13 12 13 24 20 6 6 22 10 19 14 3 7 16 10 17 17 19 23 23 24 9 20 17 15 12 13 7 6 6 10 19 6 21 7 17 24 8 3 7 7 17 3 0 10 19 14 6 21 16 12 13 10 16 16 9 27 13 9 16 26 16 10 18 13 24 11 0 19 19 20 27 16 24 20 17 7 14 26 14 14 14 13 15 14 10 16 19 6 13 17 36 27 16 31 18 21 3 17 22 20 20 6 23 12 12 0 6 13 31 9 17 17 24 16 9 17 19 14 14 6 19 21 13 14 16 14 18 7 3 6 10 16 0 9 14 13 10 13 16 2 10 13 18 14 19 21 34 13 16 11 14 10 17 20 7 20 0 16 10 9 3 10 13 16 10 6 20 6 13 18 9 10 28 19 9 17 19 10 23 6 17 9 8 13 7 17 19 15 16 14 7 6 0 16 0 6 10 17 20 10 20 17 17 9 16 16 13 17 20 24 10 10 17 14 16 13 14 17 24 14 14 15 10 3 23 9 7 7 10 21 7 21 14 14 13 10 3 0 15 12 3 24 22 16 10 21 14 16 13 22 27 20 7 0 17 21 20 13 22 6 17 6 3 12 20 24 19 20 9 17 17 7 14 13 13 13 10 17 13 3 0 10 14 23 31 3 6 16 16 17 0 24 23 13 20 13 6 10 20 27 10 3 16 0 15 7 23 17 13 10 10 13 3 13 19 13 14 17 7 10 19 13 0 6 21 13 10 6 6 17 28 17 13 14 10 10 3 20 6 20 12 10 14 10 18 13 16 14 9 18 21 3 9 11 14 17 11 6 31 7 10 16 6 16 31 13 17 3 7 6 24 16 22 6 7 14 10 17 10 3 6 24 14 13 19 12 13 6 14 0 24 24 10 23 16 14 28 25 13 6 16 11 3 21 36 7 23 3 31 6 6 26 10 3 12 24 3 8 20 11 7 6 13 7 14 14 27 6 10 14 17 10 6 17 14 10 6 13 17 13 16 10 24 10 10 6 7 18 20 15 16 13 17 9 16 3 31 20 6 13 13 37 11 14 6 21 13 20 10 17 21 23 14 17 16 23 6 20 20 16 14 17 16 3 12 27 21 21 18 19 17 9 23 19 13 10 13 14 16 7 13 16 10 16 16 15 14 20 6 17 8 10 34 9 24 17 6 20 6 6 3 14 20 10 3 3 14 19 26 13 10 10 7 16 10 14 24 23 13 17 35 3 20 21 13 20 13 12 13 13 16 12 10 7 6 12 16 10 19 17 31 20 23 13 20 6 7 0 13 0 16 0 9 12 19 12 16 34 22 17 10 3 24 17 6 10 31 10 28 14 23 13 7 30 9 30 3 16 24 6 6 6 23 21 3 0 3 20 15 26 29 13 24 17 16 6 16 10 13 13 27 7 21 12 20 34 10 3 20 9 0 13 10 17 10 26 9 26 21 0 9 24 3 0 13 13 3 25 22 9 19 19 19 6 10 7 14 20 13 23 10 11 7 20 13 13 17 6 13 10 21 15 24 14 17 10 17 3 5 22 18 17 17 17 20 0 17 21 17 18 16 17 17 13 16 10 3 9 10 27 13 16 6 13 6 14 7 17 10 6 17 11 9 13 20 9 11 18 22 10 16 10 3 3 14 14 6 10 3 7 13 10 20 14 16 14 7 16 20 17 30 6 13 15 17 15 3 10 10 9 20 3 24 10 16 5 10 3 0 13 17 6 10 16 16 13 14 16 10 11 12 13 21 17 24 3 9 3 18 11 3 13 6 17 10 23 16 17 7 22 20 6 8 10 13 31 10 17 7 6 14 10 13 6 16 18 9 14 14 13 7 17 0 17 16 14 13 9 17 10 11 14 20 17 20 3 3 14 17 14 11 3 16 20 16 24 27 6 12 21 13 14 17 6 14 15 20 14 15 9 10 13 6 10 10 17 23 10 20 9 6 10 27 24 27 13 10 24 10 20 17 9 16 12 13 3 16 3 24 13 10 15 10 3 14 3 22 20 7 6 26 13 13 17 0 17 11 20 20 13 9 14 10 21 20 13 10 12 13 18 14 10 9 7 21 30 22 7 0 27 7 16 3 14 14 13 9 23 7 22 20 26 20 16 6 20 13 14 10 14 6 12 16 13 7 13 16 13 7 13 7 10 28 17 3 10 13 15 18 14 24 21 6 21 17 20 19 9 3 17 3 9 10 3 21 7 27 9 33 3 16 13 13 21 20 31 23 0 9 9 9 20 13 9 14 9 14 13 13 13 7 3 33 16 19 10 14 13 13 14 10 0 13 14 13 13 10 3 5 17 14 20 14 16 20 0 16 9 10 31 9 12 6 0 17 17 22 3 13 13 6 17 7 6 16 6 3 6 17 16 17 13 19 10 16 11 17 0 17 9 28 20 6 0 0 21 18 7 3 16 21 3 19 29 17 10 10 15 6 19 6 10 26 28 16 6 16 8 6 10 22 10 3 13 23 3 12 29 19 16 21 16 3 16 10 16 10 20 24 9 24 13 9 16 6 21 21 23 13 20 30 16 16 0 14 9 10 12 6 26 10 20 13 5 14 10 20 13 27 7 17 10 20 24 24 19 17 3 16 7 8 17 23 10 13 19 21 14 20 24 34 17 14 15 19 13 6 16 10 23 6 13 12 17 20 13 10 6 0 6 14 23 33 20 9 16 6 18 7 7 15 7 9 17 11 7 17 20 16 13 10 12 6 17 16 13 9 18 6 19 13 0 10 9 23 13 16 9 17 14 10 9 9 26 27 10 10 27 17 24 17 13 11 16 31 16 10 3 16 13 6 13 7 16 10 10 20 20 10 13 10 13 21 3 10 13 13 9 9 9 10 12 20 9 19 30 6 6 20 0 20 22 13 34 9 23 9 6 6 6 24 14 9 20 10 6 8 30 13 14 27 10 12 12 0 13 6 17 16 17 24 20 7 21 17 16 24 10 11 5 29 16 26 7 7 3 10 3 16 13 13 7 10 10 16 3 10 23 16 9 6 20 9 14 17 17 16 21 3 17 9 17 12 6 3 6 17 20 3 19 12 20 12 24 19 16 14 17 24 23 7 10 10 14 17 20 17 9 10 10 7 14 27 21 17 24 17 9 16 6 17 10 14 13 6 10 3 9 6 6 10 19 13 24 8 8 10 20 10 16 13 17 11 27 13 6 17 6 21 13 7 15 26 10 17 6 7 13 9 17 6 14 18 16 26 17 17 10 7 8 17 13 24 17 13 20 13 17 3 12 27 13 13 14 30 3 13 10 16 17 6 12 17 23 16 23 16 10 3 0 16 17 17 12 3 17 17 7 20 14 10 13 19 6 17 13 20 18 13 23 3 23 7 17 7 13 14 24 13 9 10 36 12 19 20 14 14 13 16 25 15 24 13 20 21 13 19 17 14 16 16 13 12 7 13 14 6 13 17 12 14 16 23 18 13 0 17 9 12 10 10 18 14 16 0 14 19 14 10 27 27 3 16 14 20 13 13 3 9 7 6 27 24 13 10 13 7 19 3 23 17 21 6 17 19 17 14 13 6 17 9 10 20 13 16 16 20 13 10 19 18 17 13 6 27 6 17 7 15 21 17 20 6 15 20 7 10 22 21 13 10 20 30 21 20 20 23 7 10 3 20 16 16 13 14 20 20 17 7 27 3 13 11 16 6 17 12 21 20 27 6 17 6 15 3 31 16 21 10 21 23 14 12 24 17 7 13 9 9 17 7 24 17 7 24 14 20 17 10 12 17 13 0 24 6 3 17 9 14 7 21 10 12 31 17 7 34 19 21 16 24 6 15 3 14 11 17 10 19 31 3 17 14 0 10 14 10 9 13 16 23 16 6 13 12 29 16 3 6 14 7 6 14 20 13 14 27 16 24 6 24 13 13 6 17 3 10 10 21 24 6 21 16 14 6 14 8 9 13 9 11 10 10 9 3 14 17 20 19 8 19 3 13 17 11 6 7 14 23 17 10 14 20 12 13 16 21 3 17 16 6 13 17 21 3 6 10 6 10 16 9 9 6 19 27 9 17 23 10 9 10 10 13 16 24 10 13 6 16 17 10 24 14 7 3 6 16 21 26 19 9 17 7 12 16 14 21 7 10 7 23 16 17 3 20 14 13 10 17 10 14 13 9 24 14 3 17 13 10 17 24 13 24 17 19 12 3 9 14 16 9 33 14 19 6 3 20 17 9 9 14 6 24 10 21 13 7 12 13 16 10 13 3 13 7 6 3 20 9 0 3 24 7 14 17 23 3 20 9 6 7 23 20 17 21 24 27 13 13 14 6 13 17 24 24 3 7 13 14 20 17 17 3 10 7 13 16 24 17 0 20 20 13 2 16 16 16 38 9 15 12 17 27 6 27 3 21 6 9 25 10 13 13 13 12 16 13 9 6 13 17 16 14 9 7 17 9 9 6 10 19 19 3 10 17 17 10 16 17 0 14 10 16 12 8 24 10 17 18 3 14 10 10 16 24 0 12 10 3 10 3 15 10 12 7 7 10 11 22 12 16 24 13 9 10 13 13 10 13 10 10 23 24 16 20 7 11 20 3 21 20 3 16 23 13 21 10 19 13 16 20 17 0 17 31 7 7 16 10 13 20 16 12 6 9 17 13 9 19 13 17 20 0 9 6 22 28 34 13 27 10 6 14 22 7 14 18 16 13 13 11 13 9 24 20 16 24 3 26 16 6 6 10 10 21 10 17 7 13 14 21 10 10 17 12 24 34 24 15 13 14 9 13 6 25 10 14 14 13 6 24 13 26 15 16 10 17 24 17 18 9 10 14 17 7 34 13 13 16 13 17 20 3 20 10 17 13 24 9 14 3 10 7 19 10 17 14 10 17 21 17 17 6 17 12 10 15 7 23 21 20 14 20 6 16 20 17 13 22 10 16 17 25 17 15 28 3 13 7 27 24 16 23 23 17 0 7 0 22 7 10 12 20 31 7 19 17 10 21 23 14 9 10 3 20 14 17 13 23 16 13 27 19 20 8 16 29 30 12 14 3 20 9 19 27 0 9 13 6 17 10 13 3 20 20 6 16 31 7 8 7 16 26 17 13 12 14 3 23 13 14 9 20 23 17 16 10 12 13 19 7 33 20 14 13 6 16 27 14 15 11 10 6 9 3 23 15 10 24 21 14 24 3 17 13 9 17 3 14 7 32 24 6 17 10 12 6 6 7 24 6 14 3 0 6 23 16 10 0 3 9 10 17 13 17 16 3 7 10 10 10 13 7 15 6 7 20 20 16 27 10 3 14 17 3 17 13 7 6 14 12 10 20 13 13 13 3 3 32 19 17 0 13 14 6 3 7 6 21 22 20 6 14 3 16 3 3 13 14 13 7 16 14 19 10 13 12 17 7 13 10 13 14 20 11 3 9 24 16 17 7 16 13 9 26 14 10 6 13 3 28 20 22 7 3 14 17 18 0 24 6 14 13 20 3 13 13 13 17 24 14 3 13 14 13 18 17 14 6 21 10 7 16 17 6 9 14 0 7 17 11 10 18 6 19 25 13 12 10 9 23 9 23 0 29 23 14 0 15 23 7 3 10 17 3 24 31 21 3 13 0 16 16 21 9 13 12 10 13 13 10 10 6 12 10 9 7 12 10 25 23 6 14 13 7 7 9 16 16 17 15 14 10 3 14 17 12 3 20 18</t>
+  </si>
+  <si>
+    <t>JSB(2.286737873819267, 5.055659471131314, -14.548727264773055, 101.50313024132409)</t>
+  </si>
+  <si>
+    <t>22 27 28 34 28 21 26 30 24 22 22 16 22 16 22 25 18 24 32 27 22 29 25 30 28 24 25 23 23 32 26 27 23 20 22 25 24 27 21 23 34 31 26 22 25 19 26 28 25 33 24 34 24 23 32 16 32 22 31 28 25 27 20 25 21 20 30 23 23 28 24 34 28 25 24 18 20 26 23 29 23 32 32 22 23 28 28 22 33 21 30 26 23 28 9 32 31 20 19 20 20 21 29 26 24 19 31 23 28 22 33 32 23 28 30 33 29 28 31 16 32 29 23 27 20 23 31 23 22 28 18 30 32 25 25 24 19 30 18 26 23 33 22 29 22 27 24 22 27 30 16 32 29 26 29 27 17 17 27 22 23 25 23 30 23 23 27 28 25 23 27 28 23 19 16 28 29 30 28 25 30 33 24 24 17 31 19 25 19 21 27 24 26 31 24 29 15 26 18 26 23 15 24 27 20 19 27 25 22 24 26 19 19 29 17 25 22 25 37 21 19 25 31 23 24 26 18 29 17 24 33 26 21 26 24 21 29 33 26 23 27 27 25 23 14 24 21 28 25 28 22 30 21 20 21 30 29 27 22 23 24 16 16 28 32 17 22 21 30 27 21 26 23 24 28 25 17 30 26 25 28 25 32 29 27 32 25 18 21 26 19 26 26 25 22 27 25 19 17 25 29 20 26 21 28 28 17 25 18 28 23 21 22 28 22 31 27 18 15 32 24 27 25 23 27 21 25 22 18 30 25 26 14 26 22 23 21 34 19 22 17 25 17 28 31 30 24 22 21 20 34 22 26 23 25 24 27 19 29 25 25 22 20 30 19 21 24 16 23 21 32 25 20 30 25 31 27 27 28 29 27 24 24 26 20 24 28 21 30 19 31 26 24 25 19 30 26 26 23 23 33 28 26 23 28 30 29 20 26 23 24 29 28 35 25 25 29 31 24 21 21 22 30 17 26 23 21 32 27 25 23 32 27 29 28 27 21 32 32 32 26 13 34 19 21 33 29 20 19 25 32 22 26 28 19 20 31 17 27 22 16 33 19 30 17 26 24 17 20 26 26 22 33 25 26 30 21 23 29 22 26 29 28 17 23 27 33 24 34 22 27 29 26 31 18 25 26 22 14 28 26 18 27 24 28 29 25 23 27 20 24 20 30 21 27 23 24 18 31 23 25 23 20 22 24 29 27 32 15 27 19 22 12 29 27 29 20 31 14 16 30 29 25 24 20 26 17 29 20 25 33 29 23 25 32 23 29 24 28 23 21 25 17 27 16 32 22 23 26 25 25 32 29 30 28 19 20 18 27 22 28 21 23 23 18 26 37 29 27 26 13 21 25 26 25 30 33 30 26 14 19 22 28 17 27 13 23 21 22 23 22 34 22 18 33 24 21 18 31 22 27 19 23 28 31 26 23 21 19 23 32 21 25 27 21 28 27 23 31 28 17 29 19 31 29 31 26 24 26 26 27 25 26 25 26 31 21 27 21 27 19 18 25 35 21 26 19 26 26 28 21 30 30 28 25 19 33 25 24 24 18 28 25 27 29 25 27 30 18 36 32 27 28 28 27 33 21 21 22 19 22 22 24 18 26 20 29 22 22 28 28 35 30 21 29 26 27 20 20 28 25 24 21 34 22 21 22 31 26 33 30 23 22 26 24 21 19 37 27 23 26 14 29 31 21 22 21 24 24 30 21 24 30 19 24 22 31 28 16 27 24 21 35 23 27 16 25 26 24 32 20 27 30 22 30 22 24 31 23 19 23 25 23 16 27 30 24 24 30 25 28 25 24 24 20 25 27 28 30 25 20 19 16 26 19 32 16 28 24 25 29 23 23 35 28 23 23 24 25 24 27 35 20 22 30 26 30 16 21 25 22 24 31 20 37 25 21 26 22 36 28 26 26 25 29 34 23 19 42 15 23 25 25 25 22 21 22 29 30 23 21 28 23 26 20 29 26 25 26 25 24 15 30 25 21 28 20 34 24 24 28 21 24 22 33 21 20 23 20 21 29 30 30 22 18 22 24 28 27 28 16 22 22 23 22 22 35 26 33 33 23 17 23 29 21 23 22 26 24 36 32 34 31 24 30 23 26 20 22 30 35 31 22 25 23 25 29 30 28 26 30 20 32 21 26 20 19 25 24 21 17 26 29 29 18 26 29 27 19 32 30 25 18 21 32 24 27 30 22 31 19 20 23 25 27 25 24 28 35 22 21 29 20 26 21 24 22 27 24 20 26 30 30 21 37 29 29 24 27 27 35 21 26 22 29 31 33 23 28 24 22 30 26 24 28 24 20 27 41 30 27 23 27 16 28 28 21 29 14 25 26 25 25 15 32 21 32 21 25 31 28 25 19 27 25 23 37 23 23 18 28 22 26 31 27 27 31 29 26 33 22 34 30 31 33 18 23 30 24 32 28 25 20 26 23 30 27 28 20 23 25 21 21 21 28 23 30 22 25 19 25 18 21 24 23 24 20 15 30 29 25 24 22 29 29 33 27 33 25 17 26 24 28 31 24 30 23 29 27 20 25 21 27 30 29 30 22 26 22 26 20 32 22 37 31 22 18 18 28 24 22 17 19 20 20 25 18 19 32 25 26 25 23 32 25 27 25 18 29 21 30 28 24 26 26 27 25 27 27 21 37 35 28 34 23 18 22 20 20 31 33 20 28 30 25 27 22 26 21 21 22 18 23 25 19 25 29 23 21 22 32 23 30 24 22 24 28 24 25 22 28 31 22 33 26 21 22 26 30 23 24 19 21 27 24 19 23 18 29 18 26 28 30 23 21 28 23 35 29 24 16 26 23 27 19 31 15 17 26 23 24 27 26 29 33 28 24 19 32 25 27 21 28 22 29 28 25 32 32 24 22 22 31 24 30 17 20 24 24 25 30 25 29 22 29 25 31 27 22 13 29 27 25 21 26 27 20 30 26 23 15 15 27 19 26 30 21 22 24 27 28 21 23 18 26 31 24 16 41 14 30 30 20 23 26 27 35 18 25 33 28 13 23 23 33 25 21 22 27 21 20 25 25 24 20 25 28 27 29 30 25 29 27 35 22 24 27 26 20 25 30 16 28 26 20 25 29 30 23 20 22 22 31 23 24 24 20 22 33 16 18 18 21 26 33 21 24 20 27 24 24 13 28 19 27 19 31 22 32 29 23 20 20 17 24 32 21 27 31 29 23 12 18 25 24 24 17 29 16 27 30 30 21 28 17 24 28 26 29 30 30 19 24 24 30 28 24 20 30 28 23 30 21 30 21 23 22 27 23 23 26 26 23 24 25 24 18 22 11 27 30 21 31 18 26 21 14 29 23 31 27 21 26 25 25 24 29 19 29 19 20 31 18 25 26 24 21 27 21 31 21 23 19 33 24 24 21 27 22 14 23 30 21 24 27 26 18 23 19 21 22 26 27 29 19 26 24 31 25 20 28 30 23 22 19 29 37 25 21 29 34 21 26 26 34 22 26 28 31 18 22 20 23 19 30 15 31 33 26 25 29 30 21 30 16 39 22 37 22 20 20 29 29 17 21 21 28 30 26 29 31 20 28 27 23 25 19 34 32 32 27 26 26 19 16 23 21 27 25 18 30 20 22 18 23 29 27 26 32 23 26 30 24 22 22 30 26 18 17 32 17 18 17 17 28 35 26 13 27 23 23 22 29 34 27 24 26 23 21 18 22 29 31 32 19 27 25 23 26 24 22 21 21 19 28 32 13 28 26 32 30 19 22 27 34 18 29 29 22 28 32 20 34 18 26 21 21 28 25 32 28 26 33 25 25 19 21 30 19 19 22 26 33 21 20 17 27 30 18 29 20 24 34 27 32 23 29 25 28 33 28 29 20 19 26 23 29 24 33 25 20 21 21 20 24 28 18 23 27 24 26 31 22 21 25 24 22 23 24 22 16 30 18 27 25 32 27 30 23 31 23 25 28 27 26 26 25 21 24 24 18 28 26 25 22 34 20 28 25 19 25 26 21 27 21 31 35 28 24 25 24 18 20 24 19 33 25 28 38 25 27 29 25 17 34 13 32 21 36 20 29 27 17 17 28 24 24 24 28 36 23 27 26 29 29 27 24 25 21 20 22 31 28 21 32 19 29 27 23 27 20 23 31 21 15 26 28 21 27 35 21 36 23 25 24 19 21 19 28 20 18 20 30 25 23 17 23 28 24 27 23 26 23 25 28 26 24 28 24 22 27 29 28 27 24 26 35 26 18 28 19 23 30 31 30 17 21 22 29 32 31 31 22 28 22 17 27 26 26 26 21 28 25 30 24 24 22 22 18 30 28 25 22 24 27 32 24 26 17 28 25 23 27 23 35 21 24 36 28 29 29 21 17 27 18 28 27 22 26 24 18 22 37 26 32 25 36 28 27 25 24 22 25 21 17 25 19 22 26 33 34 20 25 18 30 20 20 24 24 21 18 23 25 28 18 33 22 19 32 25 17 28 26 31 17 28 25 25 28 22 25 22 25 23 22 19 23 23 21 25 34 28 22 23 31 25 37 29 36 31 23 25 24 22 26 20 27 32 33 16 19 23 30 30 18 27 19 31 25 30 19 24 24 27 18 30 33 21 27 31 28 23 32 19 29 23 28 27 25 31 26 28 21 29 27 26 20 23 26 27 25 35 26 22 19 28 28 16 23 18 25 25 25 23 25 20 27 35 21 23 27 22 19 28 21 22 25 26 34 15 29 26 23 21 20 19 29 32 27 20 34 17 32 30 29 29 33 26 21 31 28 24 22 23 22 24 19 20 23 22 23 31 25 18 22 28 21 31 20 32 33 19 20 24 22 25 15 18 28 26 18 30 24 23 20 19 26 29 32 30 23 17 30 29 25 24 27 36 32 22 33 25 21 27 26 27 34 25 30 27 21 26 25 21 25 26 34 16 29 34 27 26 32 23 27 23 24 25 26 28 23 25 30 28 14 27 29 30 34 29 21 24 24 26 26 25 29 26 28 20 15 24 27 32 35 24 15 25 27 29 31 27 20 28 23 25 20 16 27 34 31 26 25 28 21 21 29 24 28 21 31 18 23 26 24 23 30 22 29 21 35 18 22 19 24 21 22 27 24 26 29 32 30 22 19 29 23 31 22 22 23 35 29 20 25 23 24 22 21 39 26 25 35 17 35 21 33 23 24 32 30 22 27 24 21 26 26 26 22 27 26 21 29 30 27 21 20 27 25 24 18 32 19 24 29 14 25 24 26 25 26 28 26 29 16 17 31 31 34 29 29 18 21 30 27 26 29 25 26 33 21 28 26 25 26 28 26 23 19 26 25 29 26 24 18 22 23 23 24 17 22 14 23 19 14 23 23 30 22 30 30 29 24 22 19 28 30 21 21 24 31 22 25 21 26 19 19 23 25 25 33 25 23 17 20 21 19 19 24 21 30 28 24 22 30 20 26 19 21 19 23 33 24 27 27 25 21 36 26 22 19 21 30 31 37 30 24 23 21 32 28 26 33 27 30 27 21 19 25 21 32 17 28 22 27 32 24 19 26 24 25 31 24 24 26 27 24 24 28 22 21 19 21 30 26 27 23 24 22 31 29 27 15 27 25 28 23 22 32 33 23 25 33 27 31 25 25 26 33 26 26 21 23 21 21 24 30 23 28 31 27 26 26 21 29 29 36 19 23 22 30 20 26 26 21 23 28 25 29 25 22 29 19 20 21 20 26 23 23 22 31 25 27 24 27 27 32 25 25 29 30 22 20 30 27 22 23 22 32 21 32 28 26 23 28 28 28 21 25 22 25 19 26 30 29 20 24 21 29 24 29 27 19 23 27 25 30 29 21 25 29 29 29 32 22 20 22 19 35 29 28 37 19 26 29 30 32 28 31 31 30 17 33 20 24 22 22 31 27 23 37 23 20 34 23 23 23 25 26 23 22 28 24 22 29 22 22 32 26 23 24 24 29 30 20 35 28 28 24 22 29 26 28 30 14 23 26 32 35 27 23 22 27 28 21 26 20 30 31 22 26 32 26 22 29 26 32 18 29 13 18 27 21 20 21 32 30 30 15 26 27 21 28 30 22 27 31 25 27 32 18 22 24 27 24 27 20 24 22 31 27 33 26 25 29 33 31 28 26 28 29 23 20 28 24 17 20 26 21 26 19 24 27 21 28 25 29 24 19 30 21 23 19 31 24 20 26 18 24 32 23 29 23 28 24 20 29 22 22 21 22 19 19 20 15 25 26 27 23 29 30 26 23 14 34 32 31 23 22 34 36 29 24 29 24 20 23 27 19 25 25 18 24 19 29 23 31 27 26 24 20 33 22 33 28 18 31 23 22 20 28 21 27 27 29 29 25 27 31 25 21 27 24 20 24 22 31 24 20 35 30 25 20 20 27 24 25 28 26 28 27 19 28 21 19 25 38 31 29 26 31 24 20 25 23 27 19 21 22 21 24 26 29 32 21 32 27 25 22 28 25 24 19 27 28 25 20 18 29 24 23 26 31 23 23 26 37 27 25 28 24 24 30 24 33 25 36 32 22 21 29 25 15 27 29 29 21 28 27 22 24 21 26 28 25 20 25 25 30 25 31 25 23 26 29 15 23 26 25 22 31 30 20 24 25 25 24 21 19 23 34 22 28 27 26 30 16 36 19 37 33 23 25 35 30 15 22 25 23 34 26 28 26 24 17 24 26 34 21 27 23 26 20 22 26 22 23 24 32 24 27 23 25 21 23 24 23 35 27 28 25 21 30 35 23 21 24 27 19 28 25 22 24 21 21 14 26 31 27 22 26 30 16 24 26 34 24 23 20 25 25 29 28 20 20 36 25 28 28 22 24 24 24 25 24 15 27 21 26 23 25 24 26 30 21 32 23 24 26 32 19 30 24 27 26 24 19 19 26 28 37 27 25 27 26 30 17 20 26 27 27 23 23 24 22 34 28 27 23 19 21 23 30 22 28 25 27 24 19 29 24 26 24 26 27 31 20 15 26 33 33 28 30 29 37 22 25 25 30 22 26 27 22 29 21 27 26 27 27 29 24 19 27 26 23 22 29 22 33 30 19 32 22 27 31 19 22 31 23 23 25 27 30 19 29 23 28 26 30 36 23 28 26 16 33 25 21 26 21 23 28 23 22 26 16 19 33 27 19 27 27 21 23 15 24 20 31 17 25 25 33 25 23 29 26 34 29 26 27 28 22 29 28 21 22 22 22 22 21 25 26 25 16 19 32 27 24 29 15 22 23 31 18 29 17 24 22 26 28 20 24 31 23 22 28 19 28 27 21 33 28 24 25 25 21 26 22 21 24 27 24 27 29 19 21 14 25 22 23 14 35 26 22 33 24 27 24 26 27 32 27 24 18 16 18 19 31 18 29 28 23 22 26 25 20 22 36 27 23 21 20 21 24 20 17 36 24 23 21 22 23 21 25 21 25 23 29 30 19 29 23 26 21 26 31 22 24 26 27 28 17 26 24 31 24 22 29 21 28 27 23 17 24 19 42 29 24 23 20 30 22 31 20 24 23 26 29 21 23 26 30 21 28 28 22 22 23 30 27 22 23 22 20 31 25 23 19 26 28 21 28 25 25 29 30 24 29 30 27 37 32 24 29 23 26 20 31 24 26 22 18 21 20 17 28 28 25 26 22 28 27 16 19 22 17 28 23 25 21 27 18 15 29 21 37 25 25 22 26 30 26 31 23 26 32 24 21 24 27 24 22 25 15 27 19 22 25 30 20 17 25 24 26 26 18 26 24 25 29 27 36 24 27 25 33 22 28 24 28 13 28 31 31 25 28 32 30 24 31 22 25 18 25 30 23 24 18 28 22 29 24 25 25 28 26 20 23 27 22 33 17 34 27 28 34 29 25 28 34 23 25 27 24 34 19 25 22 19 21 27 25 19 25 39 19 25 16 25 29 36 29 26 26 28 33 22 33 28 20 26 28 23 23 14 33 16 20 22 17 20 25 16 21 31 19 28 22 25 23 26 28 25 24 31 27 23 31 25 24 28 19 25 19 23 27 21 16 25 26 38 18 25 20 29 26 24 25 22 26 27 25 22 29 15 21 34 25 24 27 28 32 33 17 27 16 18 23 20 24 31 18 26 23 21 27 26 26 23 24 19 24 24 20 25 22 22 34 20 22 24 34 20 24 15 19 28 17 34 24 26 21 25 31 21 30 31 24 33 26 27 27 28 23 29 24 27 22 32 27 20 21 23 26 22 27 30 24 34 21 23 29 27 15 18 28 22 29 17 28 19 19 32 21 33 36 20 21 27 27 22 24 32 28 30 27 33 27 22 23 26 30 24 26 27 24 20 25 28 31 24 25 26 21 20 28 20 30 18 26 19 31 34 28 29 27 21 23 21 23 27 28 25 26 21 25 26 18 23 19 24 21 28 34 29 26 27 17 23 28 26 18 25 11 17 27 24 25 19 34 25 29 30 25 15 24 32 24 23 24 18 36 17 19 24 22 22 28 23 18 26 28 22 22 33 30 23 27 23 32 28 16 28 22 29 22 24 30 26 20 26 15 30 21 19 28 37 22 18 24 32 26 26 25 26 28 22 31 20 28 26 25 16 24 22 25 22 15 37 24 34 18 30 32 27 30 24 23 20 21 22 19 25 26 28 26 19 18 25 26 27 27 26 37 25 17 30 25 22 22 24 28 22 20 27 29 29 30 34 23 20 20 23 21 21 17 24 22 32 21 33 22 22 30 29 29 24 27 26 27 27 26 24 28 16 23 34 31 22 25 19 23 26 24 29 21 29 25 27 24 26 20 23 28 27 25 22 26 22 32 29 18 27 33 21 19 37 21 28 19 19 31 31 31 20 22 28 25 24 24 15 16 34 27 29 22 19 15 25 27 19 28 30 24 34 21 30 26 18 19 26 25 18 26 22 21 26 33 26 18 22 26 34 25 32 25 30 31 31 25 22 22 21 34 17 22 30 19 22 24 27 24 16 26 27 21 23 18 24 20 25 29 25 17 24 19 29 25 18 26 27 13 30 20 28 18 22 27 21 29 24 19 24 21 30 20 31 19 25 25 31 11 20 21 23 18 22 22 25 30 24 24 26 27 31 25 24 24 30 28 27 27 29 25 27 24 25 29 28 34 23 22 27 20 19 27 27 19 30 22 19 18 11 25 19 14 22 34 21 23 28 25 26 28 30 27 25 25 24 25 23 21 30 31 20 28 25 30 19 27 30 19 28 19 18 18 21 26 15 26 31 27 27 20 39 33 20 26 30 24 20 18 24 16 23 24 30 24 16 25 22 31 24 25 16 31 26 19 26 19 29 21 28 29 29 20 26 28 20 21 29 25 22 23 21 25 29 20 24 26 17 25 24 29 31 29 22 29 25 28 29 24 22 26 29 28 16 22 29 30 27 21 32 37 23 32 23 20 19 20 24 28 21 28 30 32 31 32 17 36 29 21 20 28 26 30 15 30 24 26 17 23 21 19 28 25 26 33 23 27 28 23 28 29 25 19 36 32 22 23 18 24 23 27 33 24 25 24 22 24 16 28 23 26 31 26 23 29 25 18 21 25 22 32 36 29 21 32 24 25 22 31 32 28 25 23 22 22 36 22 22 23 32 26 30 18 27 25 22 17 19 26 26 34 22 23 34 23 28 25 20 26 21 29 24 26 20 31 27 32 18 22 24 27 19 30 23 25 20 32 30 21 25 28 24 28 22 20 27 24 16 33 29 35 34 20 25 29 26 28 22 14 30 21 24 22 31 20 26 29 27 18 22 30 31 23 26 23 30 25 27 28 21 24 23 21 26 24 28 23 31 22 31 24 34 33 24 20 26 25 21 25 35 25 27 20 17 19 37 21 23 25 29 22 32 35 20 29 23 21 34 25 29 26 26 28 22 28 31 28 24 27 30 23 22 23 35 27 22 26 29 23 27 25 23 19 24 32 27 20 30 31 21 29 33 28 30 28 27 21 29 30 24 26 22 25 19 22 26 28 31 22 25 27 29 26 23 24 25 26 17 29 19 27 30 27 33 31 20 25 18 28 29 34 29 31 15 26 27 29 26 35 27 22 28 33 23 28 25 26 20 27 20 32 25 29 20 27 20 16 31 24 23 18 28 19 25 33 17 21 22 28 27 19 21 22 19 25 21 25 25 25 28 21 20 34 27 32 23 29 23 24 26 24 24 19 24 27 24 24 28 37 21 19 28 27 23 19 29 34 25 15 31 22 22 34 19 26 23 31 22 29 21 18 23 33 33 26 22 31 21 26 26 26 27 27 28 16 24 25 19 24 29 26 17 27 34 36 22 15 17 25 17 25 34 24 32 23 14 27 24 22 22 21 27 21 28 23 29 39 28 25 16 23 17 29 20 31 20 31 24 17 30 32 36 23 32 27 26 21 27 31 32 27 26 21 26 17 36 34 25 25 22 28 24 30 17 22 21 33 28 23 25 33 35 26 29 13 33 31 23 30 28 21 27 34 33 23 28 30 40 25 18 23 19 21 24 28 26 22 19 17 31 19 21 22 22 28 33 22 24 22 30 25 20 27 23 22 31 27 25 23 22 26 26 32 22 23 17 16 21 38 29 23 27 23 36 35 13 31 24 26 24 21 21 31 16 25 30 18 31 32 16 20 31 24 27 14 24 25 19 29 19 32 22 31 33 25 26 23 30 23 27 23 22 21 26 31 18 28 23 31 27 21 28 21 20 24 30 19 25 20 20 24 25 18 22 14 21 33 25 28 28 22 31 24 23 18 22 25 26 29 28 23 18 27 28 19 24 27 23 24 30 26 26 31 27 23 31 35 21 30 27 19 31 27 19 30 30 32 28 20 29 24 29 25 28 35 25 25 27 22 29 33 28 22 26 27 27 20 17 31 29 22 29 28 24 33 26 24 25 37 19 23 15 34 31 33 21 20 24 33 25 16 15 23 30 22 22 26 20 25 20 16 24 25 25 23 28 21 33 29 28 13 24 29 24 28 29 25 34 27 30 22 29 23 19 29 21 24 23 28 23 28 15 26 18 23 25 32 20 35 27 21 30 29 26 23 23 23 27 24 18 27 30 36 33 16 26 27 26 20 23 31 22 25 25 24 25 23 26 29 24 29 26 23 24 28 25 30 22 31 26 20 25 30 22 26 23 23 31 29 15 21 22 12 28 29 26 35 22 28 20 16 27 23 34 27 27 26 27 26 20 29 35 21 30 23 27 37 29 26 24 33 21 23 28 28 17 20 23 22 26 23 29 27 36 25 21 22 33 31 21 26 30 31 22 22 23 28 28 31 23 27 23 26 30 32 22 24 25 20 24 22 20 25 24 22 21 29 15 25 22 19 25 36 18 27 27 22 20 30 22 31 32 24 23 19 28 23 26 24 27 31 25 28 27 28 25 17 20 27 26 20 24 24 31 25 20 32 27 22 26 26 24 22 19 27 25 34 21 22 30 29 31 25 18 26 25 19 28 30 23 30 23 24 25 34 19 22 27 23 25 26 20 21 24 25 27 21 28 22 30 20 22 22 24 16 22 23 26 30 32 26 14 30 26 30 16 22 22 22 28 26 25 19 28 15 27 29 20 16 19 23 27 18 30 22 22 25 30 25 17 26 26 17 26 35 20 26 26 18 34 27 24 23 24 20 20 23 25 26 20 25 24 28 31 22 24 27 22 23 29 22 33 24 30 34 22 23 22 25 22 15 17 17 19 23 19 23 32 23 22 23 17 24 18 25 24 28 26 25 20 18 23 26 32 27 28 30 20 28 15 35 22 26 28 22 26 29 30 23 29 26 28 32 18 20 21 19 30 29 23 23 20 23 28 23 38 30 32 17 24 24 24 33 28 35 28 32 24 29 24 34 26 31 19 25 25 31 31 24 28 24 14 25 31 31 31 26 24 23 27 31 26 24 32 28 29 21 17 28 32 15 20 18 26 28 25 19 30 24 34 27 28 23 23 25 19 25 25 20 23 27 32 24 21 31 34 24 20 20 29 24 20 24 18 27 18 15 22 28 18 19 26 29 24 24 26 30 26 29 24 28 27 31 21 27 34 30 30 31 24 22 29 23 19 24 27 21 22 28 19 33 18 36 20 21 18 31 14 24 30 30 30 24 23 19 20 22 19 28 22 34 30 36 19 24 29 19 20 24 29 29 28 31 28 28 21 23 29 25 23 35 23 19 14 21 27 21 17 23 17 35 24 24 27 24 31 28 22 29 29 27 26 21 25 28 18 28 19 25 27 30 20 33 21 24 17 22 29 34 18 27 27 23 23 20 21 20 25 19 27 29 32 23 24 21 26 20 20 22 15 20 27 24 29 18 28 22 23 36 23 23 25 21 18 27 30 29 26 29 23 24 24 30 22 38 30 18 21 30 17 28 34 29 30 40 22 24 23 19 15 24 23 30 29 16 26 29 21 17 19 33 24 19 28 24 20 15 27 24 18 27 26 27 30 31 31 22 23 27 25 22 21 18 33 32 28 28 26 25 20 25 23 27 21 18 27 26 21 22 23 18 26 17 22 31 22 25 28 27 28 23 23 28 29 19 27 22 23 29 26 27 24 23 37 31 17 25 24 27 24 33 28 34 23 21 17 23 17 23 27 26 28 24 25 27 31 25 28 22 26 26 26 26 21 19 26 22 14 23 18 26 21 27 39 32 22 24 24 25 26 26 20 22 29 30 27 26 22 22 29 26 25 24 30 27 29 23 24 26 24 26 17 29 19 21 23 21 26 26 18 24 23 21 17 32 17 25 22 21 19 27 21 16 26 21 27 23 22 30 35 18 29 31 37 29 22 19 28 27 14 29 24 24 19 19 25 35 27 22 24 31 22 21 33 26 23 24 23 20 23 40 22 30 21 20 15 23 22 22 22 27 24 19 26 23 27 23 22 23 31 17 23 27 23 38 34 35 36 22 23 26 20 20 26 22 30 26 14 29 34 26 23 28 27 27 25 24 26 29 26 26 28 24 33 27 39 39 28 21 29 31 25 20 22 21 28 16 32 29 30 13 24 28 15 19 28 29 16 21 22 26 28 24 21 29 24 25 28 24 26 25 32 19 31 27 28 33 29 20 21 31 25 33 24 16 26 18 25 34 17 27 17 28 26 24 29 28 20 27 28 19 24 19 23 25 23 20 24 28 23 30 30 28 23 24 25 16 33 27 16 29 31 15 17 23 17 23 28 32 25 20 24 28 31 26 33 29 31 17 28 27 29 26 25 28 28 21 33 25 23 29 30 20 25 19 19 24 25 29 24 26 24 23 25 27 25 19 29 26 23 21 22 27 27 23 28 31 21 48 30 35 28 26 30 28 26 27 28 21 31 28 24 28 27 28 30 32 27 24 18 23 19 18 15 26 24 22 29 23 20 20 21 24 25 20 23 30 30 23 22 25 17 18 23 21 26 28 28 37 24 32 15 33 34 24 31 32 23 22 30 28 25 29 16 28 23 22 16 22 21 30 30 27 20 21 23 24 26 19 22 28 30 25 25 32 20 22 29 19 26 26 19 31 22 29 30 29 24 23 21 32 23 26 32 29 25 36 25 27 24 21 20 22 18 25 20 20 32 22 25 32 19 21 29 27 22 31 23 31 19 27 30 22 17 20 18 23 23 32 27 21 26 25 19 27 28 23 18 27 26 26 28 25 26 22 20 24 12 28 24 29 22 20 21 24 24 33 24 21 31 28 20 23 18 29 27 16 24 24 17 23 21 30 28 21 22 23 20 23 20 20 16 30 17 20 25 20 26 25 26 31 33 27 17 26 23 23 24 23 23 24 29 22 29 23 22 29 22 18 23 27 31 26 12 27 25 20 23 30 26 39 33 23 24 38 30 29 27 28 30 27 19 25 20 23 24 27 21 33 17 26 27 20 22 32 26 19 23 22 31 26 28 20 24 25 24 25 19 21 35 20 24 20 25 13 23 24 22 24 28 22 27 28 25 32 25 22 26 21 20 24 19 20 19 24 22 29 21 29 25 28 33 20 24 22 29 31 27 25 24 17 29 24 26 25 21 41 26 27 25 20 32 28 22 25 32 23 35 19 24 23 22 25 30 22 21 20 29 21 21 22 21 26 19 24 26 25 27 35 22 17 26 30 24 25 30 14 22 20 29 33 28 31 23 17 23 31 26 38 25 21 28 28 21 24 24 33 25 30 35 20 25 23 22 24 31 29 31 28 25 21 19 23 22 27 22 23 23 22 27 28 35 27 26 25 22 28 27 23 17 27 24 28 25 29 28 22 32 32 28 26 20 28 21 24 30 26 22 26 24 31 22 26 29 20 32 24 26 29 25 28 16 25 25 23 23 26 29 32 31 20 23 24 28 13 24 32 25 25 28 18 18 23 20 34 30 30 33 29 25 24 26 28 22 24 30 24 26 22 28 22 27 20 23 28 33 34 23 23 29 25 19 21 22 20 13 23 23 23 27 31 24 27 14 34 20 21 29 32 18 24 26 22 26 31 21 23 25 22 20 26 32 25 34 22 22 31 16 23 26 18 32 37 25 31 26 25 28 25 23 25 25 13 25 21 28 24 19 26 36 24 21 29 26 24 19 32 25 21 26 17 22 20 34 20 25 26 31 22 22 32 25 23 15 30 27 24 34 27 23 26 24 29 22 26 28 28 31 24 26 21 27 25 13 26 35 19 23 27 23 27 20 18 20 33 25 23 26 24 30 19 24 27 20 26 26 24 28 28 27 29 29 29 15 34 22 25 38 28 25 33 17 19 23 20 18 26 17 28 21 40 23 30 26 19 23 23 20 23 21 24 31 18 23 23 26 31 21 23 21 27 30 24 30 21 16 26 23 25 36 28 31 32 27 20 29 24 26 24 22 25 27 22 29 30 27 25 39 36 28 18 31 28 33 30 27 26 22 14 23 27 31 34 27 26 20 30 29 19 19 21 27 23 20 29 33 19 29 27 19 29 24 30 30 31 29 27 25 21 17 28 18 16 26 26 25 32 28 22 26 23 25 19 15 23 25 26 27 32 29 20 25 28 20 19 24 23 24 29 27 26 24 23 24 30 27 24 25 21 29 25 32 27 23 30 21 30 25 26 23 29 14 23 22 19 26 29 28 30 15 34 32 17 22 22 24 29 17 28 27 27 17 20 26 26 18 22 23 39 27 19 21 24 24 23 30 22 28 30 27 23 31 26 31 25 18 30 25 30 32 28 17 31 29 27 24 22 14 31 14 21 25 22 25 25 29 26 29 20 33 27 30 19 25 22 30 29 23 30 24 28 32 30 17 21 30 28 19 34 29 18 23 19 20 25 31 17 19 23 32 24 23 29 26 29 31 27 23 20 29 19 25 18 27 25 23 28 26 25 31 29 22 21 33 22 26 22 29 22 26 15 17 22 25 20 26 20 25 34 19 22 31 25 36 30 30 26 16 30 31 22 21 30 26 34 23 30 21 18 21 30 20 22 20 28 27 30 26 23 23 17 33 36 25 22 18 27 20 33 30 27 14 21 28 27 20 20 32 30 22 27 20 26 27 27 29 30 28 24 38 32 20 33 20 22 23 28 29 28 27 29 24 27 28 22 25 22 23 28 26 19 33 25 30 20 31 17 37 27 15 20 31 25 22 23 19 35 25 26 23 28 23 30 30 19 27 16 20 25 24 26 31 26 29 23 29 22 25 28 31 23 25 42 26 25 26 26 26 27 32 26 19 19 33 26 21 23 23 30 28 22 33 26 17 23 29 27 24 27 17 21 28 25 31 31 30 22 36 35 33 23 23 18 30 21 20 26 24 20 25 31 22 21 16 29 17 26 21 18 21 29 29 20 26 29 22 27 21 25 20 19 19 16 27 26 27 24 25 22 21 39 34 28 26 30 21 19 23 25 25 24 37 17 25 29 22 24 21 19 29 22 29 21 27 23 35 23 32 26 27 24 23 22 22 24 27 19 25 23 27 28 23 35 32 30 28 35 22 25 27 26 21 30 20 16 8 26 29 24 16 25 27 24 26 30 33 27 22 28 25 39 19 20 18 20 26 22 27 26 22 22 30 25 33 29 24 23 22 19 27 27 18 25 22 28 23 24 20 25 26 23 36 27 21 21 22 22 25 20 27 19 23 29 31 24 28 19 26 29 15 25 25 28 26 24 23 21 24 23 23 30 25 29 31 29 31 26 19 23 20 25 26 26 26 24 29 26 19 28 29 19 23 27 24 23 30 23 33 22 21 23 23 24 25 18 30 30 22 23 31 27 18 31 24 23 21 38 26 27 34 24 26 24 19 33 27 21 29 19 25 26 23 32 25 21 20 20 22 29 24 22 13 33 21 24 25 24 23 22 25 28 16 27 24 20 26 25 23 22 23 16 30 19 23 16 33 26 27 18 28 28 35 24 26 30 21 23 21 19 24 21 16 20 29 26 26 25 23 23 22 24 30 24 18 22 28 22 16 24 18 25 22 28 27 22 25 29 26 29 24 19 27 23 31 26 19 29 16 20 23 30 20 18 20 25 29 23 16 23 22 33 22 23 24 21 15 33 27 17 31 20 29 24 19 35 18 22 23 30 34 19 24 19 34 26 29 27 26 33 27 16 23 18 32 32 22 26 30 26 36 26 23 26 28 24 28 30 26 21 25 18 24 30 31 20 24 33 31 21 21 17 25 31 27 33 15 34 22 26 22 21 30 29 37 41 24 25 18 22 26 27 21 23 26 31 22 23 24 14 25 27 16 28 25 19 20 24 30 30 31 29 23 23 27 25 23 23 30 24 19 17 20 26 31 20 17 28 17 18 32 22 30 24 23 27 18 29 26 25 27 33 31 29 31 31 25 21 27 18 27 23 23 37 28 26 33 35 33 32 29 25 27 22 26 26 31 28 30 24 27 22 30 39 25 24 28 35 29 20 31 25 23 30 29 22 16 27 23 27 29 29 26 21 21 23 24 23 26 21 23 24 35 27 28 27 21 27 23 23 33 16 24 25 30 27 28 30 20 27 25 25 18 18 24 19 30 18 32 24 28 19 34 30 24 21 25 20 31 21 26 19 23 26 29 27 33 28 29 18 21 26 22 26 28 29 22 23 28 28 28 21 22 17 24 27 27 16 14 20 14 17 26 32 29 22 28 18 29 18 23 20 23 29 28 23 25 30 25 30 28 26 25 28 17 22 24 20 28 27 26 33 28 20 22 18 23 32 26 21 23 21 24 24 22 19 29 29 24 34 29 34 25 28 25 22 19 33 38 27 25 32 21 25 20 21 23 29 25 28 24 23 29 18 30 29 22 32 25 24 28 31 30 24 25 30 23 16 15 15 25 23 20 28 30 17 18 34 16 22 29 31 25 24 32 31 30 29 30 32 18 25 24 21 23 21 33 17 24 22 14 17 27 28 20 29 19 27 33 20 34 26 18 20 24 24 25 23 27 22 27 22 19 31 21 28 22 20 26 21 24 30 26 20 32 23 23 31 16 26 24 20 25 28 22 25 19 26 31 16 27 25 26 24 29 24 31 30 22 25 25 26 29 30 18 24 25 25 23 30 31 30 27 17 34 27 18 30 25 29 24 19 26 24 22 23 28 24 31 31 21 22 12 27 31 20 25 32 27 25 31 27 25 35 22 27 28 22 28 23 26 16 23 27 25 26 26 26 16 13 21 18 25 28 14 20 36 26 25 29 22 22 23 30 31 21 24 26 26 25 20 32 18 28 28 25 24 27 28 19 27 30 24 38 24 21 29 19 27 32 19 19 17 23 24 18 21 25 32 30 24 25 21 25 28 17 20 27 26 35 26 28 28 20 26 25 33 24 31 30 25 30 25 34 28 22 19 34 18 27 23 28 19 30 22 28 17 19 24 27 18 22 18 25 29 25 31 23 30 24 33 33 32 32 25 23 28 29 24 19 27 30 23 24 24 29 26 18 23 28 26 20 28 31 25 28 23 34 19 26 34 30 31 22 30 24 18 23 27 22 34 23 24 24 20 26 21 22 23 22 15 28 17 32 25 24 33 24 29 29 20 32 24 22 13 32 33 28 31 23 20 33 27 21 20 33 29 31 27 23 29 31 21 21 24 27 23 26 19 30 29 22 30 24 26 27 30 31 18 32 36 26 25 31 33 20 26 26 25 27 24 23 32 16 22 30 24 27 17 27 31 22 21 19 28 27 33 28 29 25 26 26 16 25 24 17 24 18 21 17 22 32 32 31 12 21 30 32 21 31 28 19 10 20 20 35 30 31 28 27 23 25 25 23 24 22 28 20 23 19 21 26 30 29 29 23 19 30 28 27 33 30 21 25 24 24 19 27 27 33 19 28 24 21 29 20 27 27 36 37 29 31 23 23 23 27 19 25 22 20 26 16 21 22 32 15 27 24 31 16 23 28 20 20 36 21 21 31 30 25 33 27 27 23 16 25 23 26 26 23 23 27 22 27 33 24 21 26 19 22 31 22 22 31 27 17 28 35 17 27 26 25 32 27 30 20 25 32 26 31 24 29 26 23 17 30 21 33 23 30 21 24 21 20 31 23 21 20 28 27 25 30 31 29 33 31 25 24 34 32 26 25 22 22 25 24 29 26 27 33 24 28 18 19 21 22 19 25 22 20 22 28 26 15 24 27 29 19 13 32 23 18 24 28 22 21 26 24 26 24 14 24 29 18 27 29 24 25 27 25 31 25 38 28 20 31 18 25 29 24 27 23 23 21 21 27 17 23 16 23 23 35 24 30 20 20 36 20 19 30 30 31 27 28 27 20 25 33 30 19 24 35 27 31 32 28 24 31 17 24 16 25 27 23 31 24 22 17 23 22 18 26 28 28 29 21 21 18 22 18 35 22 15 24 27 21 27 25 28 23 21 24 24 27 24 23 23 32 26 30 23 23 32 27 26 26 29 28 25 35 31 30 26 28 29 28 29 23 23 31 25 23 25 23 20 27 26 20 25 21 27 15 20 24 25 24 22 29 28 22 23 30 21 22 23 27 25 21 27 31 27 25 23 21 19 25 30 21 30 25 21 23 23 25 15 30 25 25 25 30 25 14 27 20 24 20 18 28 26 25 21 25 23 24 30 22 26 29 22 26 24 25 29 22 31 32 19 22 29 27 24 17 20 14 19 22 24 27 32 31 31 25 24 19 31 29 21 20 21 30 27 34 27 22 23 22 29 19 18 24 19 33 28 17 20 18 33 26 25 23 28 23 30 23 20 29 22 19 23 26 30 24 24 18 21 23 18 26 25 28 29 25 31 28 33 23 17 18 21 16 29 32 27 32 20 31 22 30 22 25 30 33 33 30 22 24 25 22 28 23 25 27 22 19 18 22 21 18 27 29 30 19 23 28 21 23 31 25 32 32 26 19 24 26 31 27 18 19 22 19 24 29 23 26 22 24 23 29 25 27 26 31 24 26 27 21 26 19 24 36 25 21 17 21 25 21 22 23 23 24 20 21 28 23 23 25 28 22 28 25 25 24 32 27 27 36 32 24 21 27 32 23 26 29 20 24 23 29 31 23 20 25 24 19 31 28 24 27 24 31 28 27 28 31 24 26 31 20 30 36 24 26 21 29 30 26 28 17 30 21 18 28 28 21 23 18 29 25 22 35 28 24 23 25 30 22 24 21 29 20 29 23 24 23 20 24 22 20 21 29 26 26 23 27 29 17 26 27 26 25 28 20 30 31 26 20 22 25 25 24 26 27 23 19 26 21 17 28 28 27 28 16 27 22 14 24 16 21 20 23 24 21 20 25 27 35 37 22 26 22 24 22 20 26 26 30 20 22 24 19 21 22 29 32 27 26 28 26 19 23 20 32 20 22 23 18 23 28 25 24 23 20 28 24 29 23 26 31 29 22 29 27 25 22 22 18 25 32 29 25 29 33 22 22 35 16 16 22 20 22 33 23 31 25 32 22 25 24 26 26 27 23 20 23 20 25 34 27 23 32 20 32 26 27 25 18 21 29 20 34 22 29 28 22 24 25 21 35 30 33 20 29 18 22 22 18 24 24 18 16 23 30 18 24 26 21 31 15 28 27 30 25 30 24 30 22 26 22 31 22 25 24 26 19 20 27 21 19 25 25 28 28 22 28 28 22 27 30 23 27 30 28 25 29 20 17 21 24 24 24 21 26 27 27 26 22 17 23 28 25 24 28 22 27 18 15 33 20 26 25 24 21 22 32 31 22 26 26 19 36 24 26 31 26 22 20 27 24 27 23 27 32 20 19 23 19 22 26 25 18 24 25 25 33 29 27 26 19 26 29 21 26 21 23 25 18 26 22 28 35 31 27 25 27 25 32 21 28 30 21 28 27 27 27 32 17 23 26 24 32 23 23 27 18 23 28 21 24 22 18 35 18 35 28 29 36 28 24 21 19 31 28 17 20 21 29 32 32 32 17 30 24 28 27 23 22 31 34 25 28 31 21 24 19 20 20 25 24 33 23 23 25 25 41 26 27 18 31 22 15 23 33 17 22 18 29 28 27 28 20 25 28 23 15 23 34 27 24 33 29 14 17 19 18 19 21 23 25 24 23 26 39 21 28 26 23 29 22 26 18 24 21 26 27 27 20 24 16 20 22 24 28 21 28 27 26 24 26 27 36 31 23 21 34 26 20 18 23 28 25 34 28 23 23 25 25 33 24 25 16 20 28 34 23 27 27 21 25 19 34 28 24 37 20 28 39 21 36 29 19 28 25 30 18 28 22 21 26 27 21 28 13 22 30 31 28 26 32 31 29 25 22 26 18 18 16 27 22 24 18 29 21 20 29 27 19 25 26 25 22 20 21 29 26 27 29 25 26 18 24 22 21 32 21 18 22 21 26 25 35 22 29 28 21 25 32 25 26 26 18 24 26 21 26 35 22 21 21 30 31 20 26 28 24 32 27 19 24 25 27 22 27 23 27 26 29 24 32 21 31 28 26 24 27 24 30 22 21 23 29 29 28 29 28 27 26 24 19 22 26 22 29 20 18 27 42 23 25 22 31 24 22 27 17 24 19 30 29 25 20 23 26 25 32 30 20 24 18 27 23 25 26 24 19 22 16 17 26 23 23 25 25 18 34 22 31 24 34 21 14 19 27 20 28 21 27 23 26 24 21 24 24 21 32 19 29 27 24 25 30 30 17 26 17 31 26 26 27 26 24 19 23 23 29 24 17 18 34 29 24 30 24 30 25 29 21 22 20 29 24 26 34 28 32 27 24 26 21 26 34 40 26 31 26 18 21 26 27 29 25 22 30 27 30 22 23 20 27 20 31 26 14 30 28 25 23 27 20 26 21 23 22 25 23 30 21 27 19 23 26 28 28 21 30 23 26 26 32 24 30 22 29 27 28 27 31 27 25 32 22 20 20 26 31 16 29 30 18 10 23 26 25 25 27 19 26 32 26 16 28 23 22 31 29 23 14 22 21 28 18 18 27 23 23 29 19 25 29 30 23 29 26 29 25 26 24 31 18 31 23 27 21 23 19 28 23 29 22 22 29 33 32 27 21 36 33 20 36 14 31 26 28 29 29 27 25 30 20 22 23 29 25 27 15 27 27 26 26 14 24 28 23 25 25 23 32 22 21 20 25 34 32 22 25 22 27 23 16 21 21 23 21 29 25 22 29 22 22 23 18 32 20 20 34 19 28 25 22 29 25 23 24 26 21 30 30 23 28 19 22 24 22 15 21 25 28 33 29 31 24 21 29 29 24 29 22 25 20 15 25 20 27 28 24 27 23 20 33 26 22 25 27 21 26 20 32 25 26 24 19 21 20 27 22 25 24 28 24 21 26 21 25 24 27 26 22 26 30 21 25 25 27 30 28 31 25 32 30 24 25 25 31 31 13 26 25 22 21 23 24 36 14 19 26 20 19 31 18 17 17 20 20 27 25 29 28 18 28 26 25 31 18 32 23 22 20 24 28 31 28 17 28 28 30 23 27 25 27 19 25 26 21 22 26 31 34 19 23 30 31 29 22 23 21 18 22 22 24 29 24 25 30 33 28 32 25 31 27 22 24 28 28 18 26 24 22 26 27 17 22 22 24 32 29 31 19 34 25 27 35 22 26 21 27 22 23 23 22 28 22 26 17 28 31 21 21 28 26 22 21 18 32 19 29 22 20 16 23 24 22 27 26 28 34 28 25 27 23 27 23 24 31 19 19 18 24 26 18 22 22 26 26 26 33 30 25 19 30 23 26 36 16 25 33 29 31 19 24 20 39 30 23 22 29 25 24 25 21 26 27 23 24 12 25 32 30 23 25 24 27 25 24 23 32 35 26 22 22 25 24 26 18 33 22 21 19 23 22 23 24 18 24 20 18 22 27 20 20 24 31 22 27 26 34 26 16 25 30 29 19 18 27 25 22 21 20 28 26 24 26 31 25 10 30 20 24 22 30 23 28 25 25 34 18 33 23 24 28 21 23 28 18 27 27 24 27 32 21 27 24 22 22 22 30 27 20 26 20 23 28 21 30 27 26 20 22 29 18 35 30 26 26 27 29 19 23 26 23 27 21 19 23 24 26 24 25 19 26 25 26 22 29 26 22 18 25 17 29 23 25 21 29 25 33 30 30 25 24 22 30 28 17 23 35 25 18 28 27 22 17 20 22 23 16 27 28 34 27 29 27 14 32 34 31 18 30 22 29 28 23 23 18 32 18 28 20 21 26 25 21 24 33 31 29 29 19 38 29 26 22 24 24 19 25 21 30 20 30 30</t>
+  </si>
+  <si>
+    <t>GAM(72.1284249490613, -15.206072510371314, 0.7261100175987862)</t>
+  </si>
+  <si>
+    <t>31 41 40 43 38 36 44 47 46 37 27 33 29 26 33 36 24 36 50 34 32 43 40 39 38 31 38 37 43 46 34 33 38 30 31 39 36 36 35 36 41 46 36 41 40 27 44 39 35 48 35 45 32 36 39 32 46 32 48 42 36 35 26 40 29 34 39 42 43 44 38 47 43 36 37 30 31 44 33 46 35 49 44 40 32 41 38 32 45 30 41 43 36 44 22 44 39 31 30 28 32 33 38 34 38 28 41 34 42 33 45 41 38 37 54 45 43 42 42 27 52 40 44 37 25 43 41 41 34 41 27 39 50 37 37 37 30 45 31 40 34 47 38 42 34 44 40 31 40 39 30 43 44 38 39 34 29 32 34 34 30 35 32 45 36 30 34 42 36 33 39 42 37 33 31 38 47 41 38 38 35 41 40 33 23 42 29 39 36 33 44 35 37 41 32 39 28 42 29 44 37 28 35 38 35 33 36 39 34 32 39 28 40 41 25 41 32 39 49 37 30 36 50 41 39 37 29 46 33 33 49 32 30 35 36 32 43 41 39 35 34 40 39 28 32 38 31 36 46 43 35 35 31 36 31 41 47 40 40 36 39 30 32 49 46 29 33 30 41 40 37 39 33 36 42 36 33 38 45 34 37 37 55 41 44 38 40 32 25 35 30 42 36 35 37 34 32 31 29 37 43 32 35 35 38 40 28 34 32 41 35 32 31 34 30 46 42 32 23 36 35 41 36 33 39 36 40 31 32 42 40 35 29 38 28 34 32 50 30 34 36 42 28 45 39 35 33 33 40 37 42 36 40 39 34 31 40 30 41 29 36 32 32 36 32 41 40 24 36 36 48 34 27 40 43 45 42 50 39 51 47 37 36 35 36 44 36 33 37 35 47 36 37 32 35 48 29 32 32 32 43 37 37 32 36 44 40 35 39 37 36 43 43 45 35 39 38 49 37 29 35 39 41 27 35 37 30 42 43 34 33 44 37 47 38 44 34 43 44 47 42 25 44 32 33 47 41 30 30 34 47 29 42 39 34 30 44 25 33 37 26 40 30 38 25 40 36 28 29 36 54 43 45 36 42 41 40 40 44 29 34 43 40 41 33 42 40 37 48 32 41 40 40 44 30 38 43 32 23 34 41 31 40 30 43 40 43 40 34 29 42 40 44 30 40 36 38 37 45 37 41 35 34 34 33 43 44 48 27 41 28 34 29 47 36 39 34 48 24 28 39 41 35 35 32 40 24 48 38 37 51 44 37 36 42 37 37 39 39 37 31 33 23 41 27 48 32 35 32 31 41 44 36 41 35 29 31 37 37 33 38 28 34 33 31 39 49 42 43 33 32 32 35 39 32 39 39 43 36 32 30 35 39 32 38 31 40 37 33 39 34 46 32 25 53 32 44 27 42 33 34 32 34 38 40 36 40 32 29 38 50 35 37 41 28 41 40 30 41 38 33 41 33 38 38 44 51 45 42 39 36 36 44 44 34 43 29 40 43 47 29 29 30 48 31 35 35 41 37 36 35 44 42 36 43 32 49 39 37 34 28 39 36 34 49 36 50 45 28 48 46 33 36 40 35 43 27 35 42 29 34 35 33 24 35 33 44 36 35 35 43 42 43 33 44 40 41 37 29 41 35 35 38 50 32 30 30 40 37 45 48 36 30 35 35 34 37 56 39 37 42 28 45 41 28 32 38 38 32 46 27 31 38 42 36 35 49 40 24 42 34 39 49 32 42 29 47 35 31 47 29 40 37 39 50 32 39 48 33 31 41 35 34 23 47 37 37 31 50 29 34 30 34 34 26 38 42 34 45 41 33 29 20 36 28 47 20 40 38 40 45 35 34 48 44 30 29 34 39 36 39 53 29 32 41 43 38 29 35 35 37 41 42 30 50 35 30 37 35 53 44 34 45 36 35 49 27 29 58 28 44 36 39 33 32 29 37 43 41 33 32 46 32 35 36 37 37 38 36 38 34 32 43 35 32 39 34 46 36 33 36 31 31 31 53 33 28 45 26 32 40 53 40 37 22 30 33 42 40 35 27 33 33 33 29 32 44 38 50 46 34 35 35 40 34 33 36 39 33 45 44 44 39 38 43 35 41 40 31 39 51 42 38 41 38 29 40 39 43 41 46 37 45 26 39 32 26 43 38 43 32 36 39 42 30 43 32 41 30 40 40 35 30 29 43 35 40 37 34 48 30 29 32 35 39 34 34 38 51 30 39 47 37 35 34 35 33 41 41 29 38 44 39 32 63 38 40 38 36 41 45 33 37 36 33 40 41 39 39 31 32 41 42 37 40 31 28 38 51 39 42 32 43 32 45 42 35 45 25 37 44 36 34 30 48 28 42 32 36 43 42 40 26 38 34 33 43 34 35 31 42 33 40 41 38 41 47 52 44 44 35 54 46 40 51 24 34 42 40 43 36 38 32 32 40 44 40 39 24 45 33 32 27 34 40 29 44 41 42 26 33 24 33 35 39 29 26 28 45 42 41 43 34 38 39 40 44 44 32 31 37 34 46 46 34 41 37 38 41 30 38 29 43 40 44 42 34 39 41 41 33 43 37 50 42 32 31 29 37 40 38 28 24 30 30 33 25 34 41 44 36 30 39 46 34 36 32 31 40 29 39 37 31 34 46 38 40 47 39 30 53 47 42 51 35 30 36 30 32 45 42 25 35 39 33 36 33 39 30 32 28 27 34 38 29 38 42 33 30 32 48 44 48 37 39 35 45 37 37 36 39 48 32 53 40 32 31 43 37 37 35 30 34 34 33 27 32 27 42 22 38 40 40 37 34 45 36 43 48 35 30 37 34 43 42 46 35 29 49 34 35 44 45 37 47 40 35 36 48 33 44 31 40 33 36 39 40 45 44 32 34 38 44 37 40 26 35 34 35 35 40 44 42 27 41 40 44 45 31 28 40 45 38 26 42 37 32 41 35 39 24 28 40 35 35 50 37 35 36 40 40 35 34 28 34 46 45 28 63 24 38 47 36 38 37 38 43 35 38 37 39 23 34 30 39 35 34 40 45 30 32 37 32 34 41 36 38 38 43 40 33 41 35 49 33 35 36 41 36 31 39 29 45 37 31 43 42 37 34 33 34 34 40 33 38 40 38 35 46 26 31 25 40 41 47 34 41 31 38 36 34 20 37 32 34 25 41 31 43 37 33 31 37 35 35 47 38 37 43 46 36 24 31 34 34 40 28 48 28 38 39 38 33 45 27 34 37 38 47 49 47 25 32 32 47 35 35 38 42 38 31 41 35 41 34 30 42 44 35 45 39 35 35 36 36 38 31 30 23 42 38 33 45 31 35 29 31 39 39 38 35 35 39 41 41 33 40 30 40 35 33 40 23 40 33 38 30 38 32 44 34 33 28 46 37 33 28 37 38 32 28 42 32 40 37 34 29 33 34 31 39 34 40 38 31 36 35 39 33 40 40 49 38 39 26 41 47 37 27 45 41 32 36 39 55 31 40 40 45 33 33 36 35 27 46 31 40 46 34 40 41 42 32 49 28 47 34 46 29 28 34 43 42 29 32 26 36 49 40 45 39 35 37 38 36 41 33 48 42 45 35 43 36 35 28 35 34 42 38 32 35 33 36 29 35 42 37 39 46 34 42 45 37 33 37 40 38 30 30 40 25 24 25 24 43 38 39 25 39 35 39 35 38 40 38 37 37 38 37 26 34 45 44 39 26 38 35 32 35 36 33 34 32 39 43 41 29 38 37 46 44 34 33 37 45 32 41 33 34 38 46 28 47 27 43 35 29 45 38 41 41 34 49 38 40 32 39 42 34 32 31 40 44 36 39 24 34 38 29 50 33 33 47 35 48 33 45 35 41 40 39 44 36 26 33 36 43 30 36 40 42 36 35 32 31 35 31 34 39 40 40 43 32 31 36 32 43 35 30 32 25 46 25 34 40 42 43 38 36 44 34 43 46 37 36 36 44 27 37 38 33 43 33 33 28 50 26 37 47 25 34 43 35 47 32 48 43 41 36 33 41 37 28 40 31 48 35 39 52 39 46 37 35 28 48 28 50 28 48 27 39 38 22 28 41 30 34 42 39 50 35 41 31 40 42 39 38 37 29 36 30 38 46 28 47 29 43 44 31 42 30 43 50 29 27 38 44 29 45 47 30 46 35 34 35 33 30 36 48 35 25 37 37 40 32 33 38 46 38 43 31 35 36 41 35 35 41 39 36 34 31 45 40 44 43 34 47 37 30 38 30 32 47 45 38 25 32 32 39 38 46 44 33 39 38 27 41 38 42 38 30 34 42 45 40 39 33 30 35 41 41 36 31 38 35 44 32 36 22 41 38 31 37 27 50 35 37 44 44 39 41 32 33 42 28 40 30 33 34 31 27 35 47 43 46 37 47 37 37 36 44 35 36 37 33 39 32 33 35 51 52 34 34 29 37 31 37 38 35 35 34 35 34 39 29 46 32 31 46 36 29 40 38 42 37 44 45 39 39 28 34 26 33 34 27 27 30 34 32 40 45 37 35 31 50 36 54 48 43 44 35 34 32 33 47 32 38 47 40 30 31 38 39 43 29 39 36 46 35 48 31 33 38 40 27 45 44 39 41 40 39 30 41 36 51 34 39 49 41 41 36 42 32 42 41 34 36 37 37 40 38 45 38 27 34 46 38 27 35 30 34 31 36 33 44 30 41 46 42 33 32 40 34 38 36 35 35 34 45 35 46 35 34 33 38 37 41 49 33 34 44 31 43 44 42 46 43 41 29 45 42 36 35 32 32 31 32 33 34 35 33 42 35 25 30 38 36 41 35 41 45 26 34 38 32 37 30 30 37 38 30 41 38 37 34 28 41 43 50 42 34 30 38 39 42 35 37 46 36 37 46 37 32 38 42 39 50 36 50 38 40 35 38 40 48 29 52 26 43 47 43 37 49 42 42 37 38 40 35 41 38 43 43 43 26 36 36 43 48 35 31 30 34 34 35 43 37 38 38 27 25 35 38 50 47 34 30 42 44 43 40 39 27 38 41 37 37 27 40 41 45 42 40 41 32 31 39 32 38 39 49 34 32 37 35 35 44 36 46 31 49 31 34 30 33 37 33 37 35 40 40 46 49 33 27 50 33 42 31 40 36 44 38 27 36 35 39 31 29 57 35 33 48 37 50 36 46 41 38 46 43 38 42 42 29 42 37 43 33 36 42 31 41 42 43 34 32 48 35 39 27 41 28 33 48 28 41 41 46 43 41 43 33 42 27 28 38 42 41 45 39 32 40 44 41 45 45 37 46 49 33 43 38 31 30 41 32 29 32 38 37 37 42 38 42 35 30 40 33 27 33 28 33 35 22 33 38 44 31 42 47 35 40 27 30 37 45 39 30 36 44 31 32 40 39 27 34 40 34 41 45 39 34 30 33 29 30 33 37 27 40 41 30 32 40 30 44 33 31 34 34 40 39 34 42 30 33 49 38 30 27 32 39 43 50 39 35 35 31 45 45 39 46 36 37 46 33 33 42 27 49 31 38 35 40 39 41 33 40 33 33 45 40 36 39 41 35 38 47 34 29 26 40 40 41 43 50 36 36 40 41 37 29 35 46 40 35 35 44 54 36 44 39 34 47 33 40 34 44 37 41 30 33 32 39 37 40 37 44 46 43 36 39 33 38 39 48 33 32 34 34 31 36 40 29 30 44 38 36 37 32 38 34 35 30 33 37 33 38 42 36 40 42 32 40 36 40 38 38 36 41 32 42 40 36 30 39 39 41 31 43 37 37 37 41 50 39 41 41 31 31 33 39 49 43 35 41 29 39 37 47 39 39 31 38 29 41 47 29 37 42 45 44 40 30 33 30 29 50 42 46 53 35 39 45 45 36 37 43 43 39 25 49 29 31 31 36 54 36 40 53 44 32 54 32 30 32 39 33 31 30 40 37 35 42 37 36 42 34 33 31 31 46 45 35 49 37 35 39 33 45 40 47 42 19 42 39 46 45 40 33 29 37 40 37 41 29 40 49 38 41 50 38 37 38 34 44 33 40 29 23 32 37 26 31 44 46 38 29 37 40 31 33 48 30 34 51 34 40 42 26 33 37 34 38 38 31 35 38 44 33 37 41 31 44 41 42 41 34 36 48 34 32 35 41 37 34 42 35 41 30 38 42 31 37 32 46 32 29 41 30 34 34 46 35 37 30 29 35 48 37 41 32 38 37 28 45 33 37 34 37 35 32 32 27 35 43 41 32 41 46 36 31 23 43 52 39 38 32 48 47 43 34 46 33 34 29 40 30 35 40 32 37 29 38 33 45 38 41 35 32 43 41 47 39 35 44 34 33 32 36 35 42 40 45 40 34 49 44 43 41 33 32 35 34 33 45 39 34 47 44 38 35 29 46 36 35 40 38 34 39 32 40 31 32 41 50 43 46 39 43 45 29 44 33 40 33 34 40 33 36 34 36 48 37 47 35 34 38 44 43 43 30 42 31 37 35 32 44 39 35 39 43 34 36 43 52 37 38 42 33 36 41 37 41 34 44 46 35 30 41 37 27 38 35 50 32 36 37 31 38 36 45 36 33 40 42 34 46 37 38 37 38 47 44 26 32 39 34 32 43 55 34 34 43 39 37 37 33 33 47 31 44 33 43 45 25 52 31 47 54 30 36 52 43 26 35 35 37 45 34 46 38 42 27 38 38 43 38 36 37 38 31 34 42 29 37 34 49 36 43 33 38 31 33 40 44 51 30 44 36 37 37 51 35 29 33 39 36 39 38 35 37 32 31 22 34 44 41 32 40 43 27 38 36 48 44 38 23 32 30 41 43 28 30 45 45 42 47 33 37 35 35 33 31 26 36 30 37 39 32 34 42 44 39 47 34 32 37 36 35 42 36 40 42 35 29 29 32 41 49 44 34 42 34 42 37 33 32 41 38 37 32 33 26 41 42 36 39 32 37 33 36 36 46 33 34 46 30 43 37 31 36 40 40 38 30 25 38 45 50 39 42 43 51 40 46 36 46 38 37 37 33 42 42 43 41 42 36 38 30 23 37 36 32 35 40 31 45 44 28 46 38 35 43 37 43 43 39 34 42 40 41 28 42 32 41 34 46 55 37 37 38 32 49 40 37 42 34 38 34 34 38 40 26 27 40 38 30 44 37 47 35 23 32 30 46 29 32 37 40 34 34 42 34 47 36 31 34 44 37 38 39 31 34 31 31 35 34 39 41 34 32 35 41 43 31 35 22 27 33 44 26 44 31 30 42 36 42 37 31 39 35 32 37 34 37 41 26 43 34 32 37 39 33 35 34 35 36 34 41 44 39 37 28 34 32 32 29 23 48 43 37 43 38 43 35 42 36 46 38 30 35 28 26 34 41 28 42 42 35 29 34 40 31 32 47 36 34 36 28 38 33 27 33 50 36 30 30 30 39 31 33 33 37 38 41 41 27 40 37 39 29 42 44 31 35 39 42 37 32 34 39 43 33 34 37 38 37 33 42 23 39 26 56 45 35 35 34 46 37 41 34 34 39 41 42 31 41 42 49 32 39 41 31 37 36 51 33 27 34 32 29 41 40 37 29 39 36 39 38 41 32 40 45 31 41 40 43 51 48 37 43 40 43 38 36 35 41 35 34 39 36 27 38 44 32 35 33 43 47 23 31 30 35 35 38 36 29 38 34 27 42 40 61 34 35 29 34 38 36 40 33 44 54 33 30 34 33 37 41 34 22 37 32 33 36 41 33 34 37 36 43 44 28 43 43 34 44 43 45 38 39 33 44 33 41 31 42 23 37 47 37 44 40 43 46 38 37 37 42 30 37 49 28 30 24 43 35 37 36 34 39 43 33 30 45 37 39 50 27 53 38 38 49 39 35 41 43 29 42 44 40 51 33 36 29 33 31 44 32 31 33 45 25 36 31 39 42 44 43 42 39 37 42 31 41 39 35 37 35 29 34 27 42 30 37 37 35 34 41 33 35 40 29 38 34 37 31 37 38 34 38 43 37 37 47 44 35 41 26 39 31 32 42 31 32 42 37 52 28 39 34 46 38 31 33 33 38 34 30 34 54 28 30 47 34 35 47 39 44 40 29 36 25 30 39 30 38 50 25 33 29 32 37 42 35 40 29 38 32 38 39 37 44 38 51 37 31 35 44 24 36 28 27 47 24 52 30 38 35 39 44 31 47 40 33 42 35 38 47 45 45 39 30 40 32 40 37 37 33 33 33 37 33 42 34 46 32 36 43 38 24 27 43 34 42 28 40 30 27 38 28 45 47 30 32 42 35 39 38 41 39 44 39 42 39 35 34 41 43 35 35 33 39 33 37 38 50 36 32 34 37 34 36 30 40 32 37 23 42 46 42 44 34 38 39 34 37 39 38 37 35 26 33 40 30 33 28 41 31 33 55 46 37 38 34 36 34 32 32 34 25 34 44 33 36 30 44 39 42 40 37 32 41 44 34 33 37 31 48 24 26 39 37 30 44 42 28 36 39 37 38 44 43 41 40 33 44 43 22 37 27 45 34 33 42 42 39 33 40 37 30 37 39 64 35 37 35 45 33 35 40 39 41 30 40 33 40 41 36 23 37 40 40 33 27 56 37 50 24 43 41 49 45 40 36 34 29 35 37 34 41 37 38 31 31 38 37 36 41 35 50 33 34 39 34 33 41 39 40 32 29 41 38 36 45 49 30 25 30 33 28 31 32 44 39 45 37 49 37 39 43 35 38 38 37 36 44 43 39 30 42 28 36 46 42 37 35 38 36 35 35 40 34 40 42 42 32 39 31 38 41 46 45 29 37 30 44 45 31 39 40 25 35 57 33 40 30 40 38 47 46 28 35 44 34 34 40 28 31 47 43 43 34 32 29 43 39 32 40 46 33 49 33 36 36 34 25 37 36 33 42 29 31 38 44 36 32 28 37 49 35 44 38 45 52 41 36 35 30 31 41 28 35 37 33 38 28 36 32 31 36 40 27 34 27 32 30 34 32 33 27 34 30 35 41 25 42 42 21 40 30 37 29 37 39 30 37 39 29 40 34 40 37 36 37 41 38 39 28 31 31 34 30 31 37 34 46 36 33 39 37 40 45 34 32 52 43 46 39 42 39 39 39 28 48 36 45 35 27 35 28 36 35 35 31 43 34 33 39 18 42 36 27 36 42 33 31 38 44 35 45 42 37 32 38 37 34 37 26 45 48 35 39 42 40 33 37 38 34 40 28 35 29 33 43 27 41 44 32 36 27 63 39 35 34 48 37 35 28 38 34 39 35 45 35 25 32 30 41 38 40 32 45 32 32 37 27 37 35 42 41 41 32 35 37 29 33 46 37 31 35 32 37 44 34 38 43 34 38 32 40 46 38 39 41 36 44 42 33 31 35 44 39 23 33 47 55 39 32 42 45 35 41 36 28 28 34 38 38 32 41 45 44 46 42 28 50 45 31 31 37 37 44 24 39 35 43 33 29 28 33 39 36 35 44 33 35 43 35 33 48 34 27 46 47 33 38 28 38 34 35 46 35 37 32 29 37 28 40 39 35 48 36 34 45 35 29 36 39 31 50 60 41 34 36 36 40 31 38 45 48 38 38 29 43 53 36 45 32 44 41 42 30 35 35 30 30 26 40 34 50 32 36 53 41 40 36 29 34 25 49 38 39 35 45 45 45 27 33 37 40 37 44 41 30 31 46 45 33 35 42 36 37 36 29 38 41 22 56 49 45 50 29 37 43 41 41 33 24 43 32 34 36 44 34 36 39 44 31 37 40 48 34 39 43 38 35 39 42 30 34 39 39 36 33 43 34 42 36 46 37 48 44 37 30 38 34 35 40 41 35 42 35 29 26 44 28 30 39 39 29 43 45 36 44 29 44 44 36 45 38 37 40 32 34 39 43 37 44 41 31 34 33 50 42 34 35 43 28 36 36 35 33 36 40 34 30 49 40 34 43 43 39 43 36 35 33 41 40 33 39 37 37 28 31 38 39 43 31 37 35 42 35 35 34 37 38 27 41 32 41 39 38 40 49 29 36 29 41 43 49 38 39 23 37 37 44 35 53 38 41 42 48 36 42 37 38 39 42 33 41 41 43 30 36 34 28 40 42 32 33 39 36 41 42 28 34 38 39 39 29 33 36 29 35 34 40 31 39 48 35 31 48 42 41 40 40 32 33 34 33 30 28 34 39 35 41 41 48 28 28 44 34 33 31 35 46 34 34 38 30 39 46 26 36 36 42 34 42 30 25 35 48 53 47 27 40 30 31 43 37 40 43 36 30 36 42 29 38 38 35 29 41 45 48 35 21 28 34 29 35 46 35 45 42 21 36 37 34 35 40 41 35 43 32 41 55 48 41 24 37 26 43 27 44 35 44 34 30 42 43 45 33 48 39 33 37 42 44 46 38 39 32 35 36 55 50 37 39 29 40 32 41 24 37 33 47 48 38 39 43 48 36 41 32 45 40 30 43 33 29 35 52 50 38 42 44 55 36 30 43 36 31 35 40 36 34 30 27 46 32 31 33 32 49 49 32 39 32 38 42 27 42 30 29 47 40 33 31 31 40 38 51 35 33 28 24 28 51 38 36 40 35 56 46 30 40 37 39 39 32 31 45 33 35 40 27 45 46 27 29 38 32 40 27 34 43 31 35 30 46 31 47 45 41 38 34 40 38 38 36 33 28 39 43 28 45 31 39 33 34 39 30 36 33 42 32 40 37 31 28 35 29 31 23 28 41 40 38 40 32 51 31 27 26 29 46 46 38 42 36 35 40 41 33 38 44 34 39 42 42 42 44 39 27 42 45 28 47 44 30 48 43 33 44 46 49 39 39 39 42 38 37 44 48 37 36 40 32 40 44 36 36 44 38 36 30 31 35 47 38 40 37 34 49 41 38 35 49 32 37 28 46 44 45 32 29 38 52 42 32 26 39 56 29 40 36 30 46 34 26 42 49 36 33 38 28 36 39 37 27 40 40 29 51 39 37 44 34 43 34 44 37 32 52 35 38 44 39 35 41 25 37 30 33 39 45 30 41 38 35 40 42 39 35 32 41 37 34 29 36 37 45 52 25 35 44 38 26 34 44 34 36 38 31 39 33 46 40 33 45 32 31 30 38 37 37 30 39 33 33 38 44 34 38 42 33 40 38 27 36 35 21 41 43 39 49 34 39 30 26 40 29 51 45 39 41 35 44 29 45 51 26 34 34 37 52 40 39 35 48 29 31 41 35 30 27 32 35 37 37 56 38 56 42 29 36 55 55 31 42 40 45 38 31 31 49 38 44 29 36 33 35 40 41 37 38 34 38 39 44 30 34 39 29 33 43 25 34 32 25 43 46 32 38 36 29 33 45 36 48 44 36 38 33 36 38 33 33 39 45 38 42 42 42 33 29 29 47 39 29 33 37 39 49 30 42 37 31 32 47 34 38 36 36 29 48 36 35 44 38 36 33 34 38 39 37 41 37 31 41 35 32 35 53 38 33 37 35 34 38 28 35 38 40 34 30 40 29 41 37 40 31 33 25 33 34 41 38 42 41 26 39 30 44 26 38 37 38 35 38 35 34 42 24 37 42 39 27 31 40 46 29 43 36 35 39 44 40 36 38 40 32 40 50 31 32 44 27 46 45 40 37 33 33 32 34 38 39 32 39 44 39 46 28 34 42 30 39 35 34 44 42 49 45 34 38 35 45 35 23 29 29 30 36 27 32 47 29 28 32 26 35 31 42 30 40 36 35 27 30 29 38 46 31 41 49 34 45 24 51 35 46 33 33 35 38 47 40 41 35 37 45 35 33 32 26 45 37 33 33 29 38 38 34 62 41 49 32 32 39 34 50 43 41 34 39 34 35 40 49 37 37 29 35 41 43 39 39 38 38 30 34 48 46 36 42 40 31 39 42 35 33 51 35 38 29 25 41 43 24 27 31 34 38 40 29 40 35 51 42 39 36 34 35 33 31 45 30 45 45 38 37 33 42 40 35 25 29 43 41 32 39 36 40 29 26 31 39 30 35 34 41 34 37 37 60 38 39 33 45 35 40 37 35 44 40 44 39 34 40 45 42 37 35 36 36 35 37 28 47 26 48 30 36 23 43 28 36 46 44 49 35 30 33 28 34 33 41 32 51 43 50 30 36 45 23 26 39 40 41 37 43 36 39 37 33 44 44 32 47 38 24 34 41 50 33 33 39 23 52 42 43 39 38 47 41 34 40 45 36 34 34 44 36 33 40 25 35 39 39 29 45 31 38 25 39 48 48 27 39 35 35 36 30 33 29 43 29 36 40 40 32 39 39 37 33 31 35 29 30 36 38 40 29 44 27 33 48 38 31 33 34 35 47 41 48 40 48 34 32 37 46 30 51 45 28 26 42 34 42 49 46 36 53 33 36 37 34 26 37 38 39 43 35 30 40 32 27 30 52 35 34 45 37 26 29 34 39 35 35 40 36 50 46 43 24 35 37 34 35 36 25 50 44 37 41 41 40 35 41 33 35 28 30 43 38 40 36 33 29 50 31 29 50 43 47 41 35 42 42 35 42 45 39 46 32 29 42 37 36 43 40 50 43 27 47 45 48 28 52 38 43 37 32 33 32 24 32 38 36 42 35 32 36 45 32 35 37 32 39 34 33 37 26 38 36 22 33 25 52 35 35 55 45 38 34 32 32 39 37 37 37 42 40 45 42 36 37 39 32 38 33 38 40 41 43 38 36 34 41 31 45 33 27 33 29 37 39 27 38 37 32 28 47 32 38 35 31 29 38 26 21 35 28 35 36 34 42 43 37 42 42 46 39 35 27 40 38 27 42 33 36 29 32 39 44 33 31 36 42 30 40 44 40 38 37 31 34 31 62 42 40 31 35 24 41 34 39 35 42 31 29 36 32 40 36 36 38 52 31 36 36 34 56 57 52 51 32 32 34 31 29 39 33 48 32 26 42 47 39 41 36 39 45 37 38 41 45 33 33 38 34 41 40 54 47 38 34 39 50 34 34 36 37 42 27 43 40 38 25 42 43 28 29 41 42 32 39 40 38 45 28 35 38 41 33 39 42 40 39 46 31 41 37 39 45 43 37 31 45 40 52 33 32 37 26 37 43 35 38 36 33 38 36 39 50 38 41 41 30 35 36 33 40 33 27 40 50 32 42 37 41 37 34 31 22 46 42 25 37 45 29 26 41 26 35 46 47 37 31 41 43 42 39 51 48 35 24 46 39 39 39 36 36 39 35 45 37 30 44 41 26 32 27 32 40 42 40 35 39 33 26 43 40 34 34 36 36 36 33 36 36 43 28 40 41 29 57 43 48 40 36 43 44 38 35 34 29 42 33 31 34 46 36 39 45 45 28 28 35 28 31 22 35 36 28 37 37 29 32 35 42 43 28 39 42 40 34 36 42 32 32 33 26 33 36 39 51 36 39 33 48 40 39 48 44 34 36 42 33 45 40 29 40 39 30 27 32 43 37 45 45 34 41 34 44 36 28 38 46 44 33 39 41 30 34 41 30 38 40 32 41 30 37 45 46 45 36 34 43 36 39 46 42 45 46 34 46 36 41 31 32 34 44 32 36 47 27 36 50 33 35 43 43 35 46 30 48 26 36 43 36 35 29 29 38 32 43 38 33 39 39 27 40 36 35 33 39 37 40 38 34 32 35 28 34 27 38 33 41 42 43 35 39 33 48 34 31 40 38 29 32 36 41 38 28 36 37 28 33 41 45 40 33 25 36 31 32 29 28 28 44 25 39 40 35 33 42 43 48 46 42 27 32 37 31 36 36 36 40 39 37 50 30 37 43 37 35 37 41 40 41 15 37 38 39 26 39 52 62 46 30 40 47 40 45 46 38 48 41 37 35 31 40 40 47 32 50 31 37 34 33 40 52 39 33 37 37 42 37 39 34 36 40 30 33 33 31 38 32 32 32 37 23 38 35 35 32 44 35 38 40 40 46 33 28 38 30 34 34 32 30 29 32 34 46 34 43 40 44 40 33 36 35 36 40 44 35 30 29 35 31 46 40 48 55 41 37 34 34 47 37 31 32 42 35 47 32 42 31 30 37 40 34 29 33 36 31 34 32 31 35 32 38 40 35 35 46 33 35 35 35 34 49 39 28 35 35 39 47 45 35 30 27 34 48 34 50 38 32 35 40 35 30 33 56 36 47 48 33 32 29 38 34 38 41 38 37 37 30 25 40 33 35 32 32 37 31 43 42 47 38 37 32 34 35 39 39 28 36 38 46 35 42 46 28 46 44 44 34 29 45 32 29 37 39 30 37 32 44 38 54 42 30 40 34 37 44 31 36 28 41 42 33 40 33 44 43 38 34 38 41 37 25 36 49 39 43 37 25 35 33 40 50 40 41 48 44 40 39 36 41 33 32 40 36 39 34 41 39 41 39 40 40 39 42 37 32 37 30 38 32 30 35 26 32 42 33 36 41 30 37 31 40 32 29 44 46 32 38 37 39 33 44 31 34 41 28 31 39 47 42 46 38 34 42 24 38 36 28 42 59 37 43 40 38 39 34 35 32 41 22 44 29 37 37 26 36 45 36 29 46 37 38 23 46 29 32 42 28 34 32 44 33 33 35 49 41 35 47 41 38 24 40 39 34 47 45 34 36 32 48 33 39 41 37 43 37 36 38 40 30 27 34 50 26 34 41 32 43 33 35 28 46 46 28 40 38 40 32 37 37 32 35 43 39 41 41 42 39 37 36 22 45 35 32 53 40 41 42 35 30 34 37 37 38 28 40 34 47 30 40 38 32 39 36 33 34 34 33 40 32 40 36 44 41 29 37 36 43 43 35 38 38 28 39 34 42 50 44 44 41 37 31 48 32 34 36 34 36 37 36 36 44 39 31 54 50 39 34 44 36 43 41 37 40 29 24 36 36 43 46 32 39 34 48 38 38 33 32 41 39 29 38 43 33 37 35 40 45 34 36 47 46 40 41 34 31 28 37 26 26 38 33 34 45 43 39 40 31 41 32 28 34 36 36 39 40 47 35 36 39 35 31 36 32 35 44 34 39 34 43 41 39 37 32 37 31 45 38 48 40 37 50 35 38 31 38 38 38 24 35 35 31 30 40 39 39 27 43 40 30 36 30 36 36 25 34 36 40 29 26 33 38 30 45 36 62 39 28 40 38 42 33 53 38 36 41 34 31 40 34 39 43 28 41 43 41 41 40 31 49 44 35 34 37 31 43 25 31 39 34 33 35 48 32 43 25 41 41 39 32 37 40 44 41 33 38 37 41 47 42 31 37 41 38 38 46 38 38 30 27 39 37 43 29 33 33 47 35 32 44 35 39 40 41 38 28 43 31 37 30 37 33 41 35 37 38 41 44 30 32 46 39 38 39 46 41 38 27 26 35 33 36 41 32 32 44 39 35 38 32 53 40 39 45 25 42 45 36 30 50 38 47 39 39 34 29 32 36 34 34 34 45 42 38 38 35 32 31 37 52 37 36 22 35 32 47 45 37 25 33 42 35 40 30 40 41 37 41 29 43 35 39 41 42 38 38 50 44 30 45 25 35 33 41 39 45 39 39 34 40 39 37 37 31 32 44 54 33 40 41 41 31 45 33 50 42 27 30 43 32 38 32 31 46 37 37 35 47 30 43 35 28 35 28 32 29 34 38 43 39 38 34 34 26 43 36 37 39 31 57 40 42 33 44 31 38 51 38 33 30 40 37 27 33 31 49 37 35 48 40 32 35 40 42 36 40 34 36 38 42 35 46 40 33 49 48 41 35 32 29 39 41 33 42 32 27 38 46 29 35 24 41 31 42 29 27 35 38 33 40 40 47 33 38 29 39 31 32 27 27 38 44 37 37 36 36 34 54 46 38 39 49 32 35 29 36 37 34 51 27 41 49 33 35 36 30 46 33 53 35 47 40 45 35 49 37 37 37 31 32 33 38 37 23 37 29 35 40 33 48 50 35 37 51 31 33 46 43 28 43 28 28 20 48 42 38 29 31 34 37 35 43 42 36 36 42 40 52 31 36 24 26 37 34 39 36 38 37 42 33 45 42 45 37 45 25 36 43 30 40 35 37 29 35 39 40 39 29 47 34 41 37 33 37 38 36 42 33 35 47 39 36 40 32 44 38 30 33 41 37 38 33 31 33 41 32 34 40 43 35 42 41 38 42 29 36 32 45 41 36 41 33 43 38 29 35 41 33 49 38 36 37 38 44 50 40 32 43 37 39 35 27 45 37 35 35 46 40 26 46 33 43 34 49 37 46 49 39 38 35 31 42 33 30 37 36 37 34 29 43 42 35 35 32 33 39 33 41 23 50 38 47 31 38 38 33 44 41 21 42 32 30 39 37 30 29 38 30 42 31 36 33 45 42 41 35 42 42 45 35 39 46 38 33 30 30 32 31 28 30 41 32 41 39 30 33 37 40 43 40 30 33 39 35 24 30 28 32 29 44 41 31 36 36 42 45 35 25 40 27 42 35 29 45 27 27 36 53 32 29 36 33 36 34 24 31 29 47 35 37 36 36 33 49 44 25 47 31 38 36 36 50 33 34 35 40 45 33 33 31 49 35 38 35 36 47 43 37 34 35 42 50 36 38 44 45 46 36 32 35 42 29 40 43 46 31 33 33 39 41 51 34 35 45 47 33 29 26 32 46 36 41 26 49 32 42 36 40 42 41 53 56 36 34 41 31 36 42 30 35 34 39 38 40 34 27 34 37 30 42 32 32 36 38 43 50 47 39 36 31 37 34 38 37 47 32 35 35 40 40 48 33 36 39 36 34 43 38 37 33 26 38 25 37 39 38 34 48 46 37 47 42 35 30 36 35 36 38 41 50 42 35 43 46 47 37 44 34 42 31 41 39 45 37 42 44 39 31 47 54 36 41 39 52 37 25 42 33 36 41 43 38 22 44 39 38 35 42 38 31 32 38 37 42 32 39 35 43 41 35 42 37 32 45 40 41 47 34 37 33 38 40 36 42 29 41 40 38 33 38 41 30 46 29 40 37 39 24 47 37 40 33 34 30 43 32 42 29 34 35 39 42 46 34 38 28 30 31 31 39 39 42 38 37 43 41 43 30 35 32 30 40 39 23 21 27 28 28 43 42 41 37 35 29 39 39 40 30 33 41 40 32 37 42 38 40 38 36 44 37 28 35 32 33 39 33 32 42 39 26 39 24 29 49 38 32 36 32 38 44 31 35 43 37 36 46 34 49 35 43 32 31 32 46 53 41 32 44 37 31 38 37 32 36 33 39 32 40 44 27 42 41 30 43 37 37 34 43 45 36 37 39 41 30 23 24 39 39 29 40 49 29 28 49 30 39 41 41 35 34 47 38 46 38 46 44 32 36 36 33 33 33 51 30 37 38 31 22 42 38 32 39 25 38 44 34 47 31 27 27 35 33 40 33 45 32 45 32 27 52 28 42 40 30 31 34 34 43 43 32 44 39 30 37 25 40 31 29 37 37 37 35 26 38 43 24 41 34 41 31 40 36 46 40 34 34 37 32 44 42 35 42 40 35 38 40 41 41 33 28 49 39 39 41 40 57 39 32 40 30 27 38 41 29 42 44 33 34 28 39 41 30 37 46 46 38 42 42 38 42 38 35 40 38 44 30 36 25 35 35 35 38 38 39 27 26 34 25 34 34 32 36 48 44 35 51 27 31 38 37 47 32 40 38 40 39 36 43 31 41 46 34 33 39 39 36 38 41 34 60 36 31 37 31 41 51 36 36 31 35 38 31 30 40 41 40 36 39 31 42 41 35 31 40 40 52 35 42 39 30 32 35 50 35 40 48 40 43 44 46 41 39 30 43 35 35 31 41 26 37 39 38 31 31 33 40 26 35 28 45 39 37 39 31 44 43 42 42 51 46 38 40 42 46 43 29 39 46 32 34 39 41 39 22 40 42 40 38 40 46 37 40 40 50 36 44 42 45 40 39 49 42 27 33 39 30 52 35 40 33 30 40 35 33 35 30 26 42 29 42 40 33 46 34 46 44 30 36 33 30 25 45 47 39 44 39 31 47 41 39 32 47 37 42 50 38 36 46 39 31 33 38 34 33 31 43 39 32 36 34 44 35 34 40 28 44 54 39 45 43 45 29 32 39 36 35 35 42 39 30 29 44 37 34 28 42 44 35 31 30 40 42 39 38 41 44 38 32 25 37 42 24 34 30 30 25 36 42 46 47 23 30 35 39 26 45 39 34 23 29 33 45 42 44 31 42 37 40 35 36 31 29 43 32 35 37 30 29 44 40 38 31 39 39 33 35 50 41 31 31 39 41 34 36 37 48 47 40 32 30 39 35 41 37 55 45 45 41 30 32 41 37 28 34 34 32 34 24 33 37 43 31 39 36 49 32 41 34 28 34 57 36 33 43 38 38 45 43 40 31 27 34 33 37 36 39 33 40 35 36 44 36 32 36 38 35 43 32 34 47 45 27 36 51 36 49 35 40 48 42 45 31 41 44 43 50 38 41 39 37 31 44 32 47 35 42 33 30 30 31 41 37 28 29 42 38 32 44 45 42 45 44 35 37 42 36 39 39 34 33 37 36 41 37 41 49 40 39 30 31 33 35 34 30 28 35 36 40 35 32 35 38 34 31 24 40 45 35 33 39 32 38 37 43 34 37 22 40 43 32 37 41 37 34 34 39 40 39 49 39 31 44 35 33 38 32 40 39 36 30 30 37 25 35 32 30 36 40 41 39 30 37 55 29 28 43 43 39 42 47 36 31 45 45 44 36 32 50 36 44 43 45 36 41 24 40 29 36 40 37 42 35 29 19 34 29 30 39 42 40 35 32 28 30 41 29 55 38 23 33 38 31 41 33 43 39 34 41 38 40 38 36 36 42 43 50 42 36 40 37 37 35 41 45 35 58 40 44 42 41 38 37 41 36 34 54 36 38 41 33 28 43 36 33 39 31 42 23 32 33 33 32 34 41 42 31 31 40 33 27 38 47 39 38 35 42 39 34 34 30 38 40 44 41 46 42 29 33 36 42 30 38 34 39 34 39 41 22 41 34 33 38 33 43 35 39 37 39 29 32 42 38 42 52 37 47 38 39 39 34 44 43 36 37 46 39 32 26 32 27 35 42 37 32 40 41 38 41 38 38 39 42 38 34 29 41 46 40 36 34 47 35 43 33 31 38 34 42 41 36 37 27 43 42 35 38 37 33 42 32 30 48 31 32 35 38 40 37 38 22 35 29 31 33 33 39 45 37 46 41 44 36 33 34 39 31 44 42 38 38 31 44 35 43 35 38 45 41 47 41 27 35 44 33 43 37 42 39 35 34 26 29 34 31 43 45 42 31 33 36 38 32 42 38 39 53 42 37 35 33 48 40 29 26 34 32 36 40 35 38 37 39 39 43 37 36 36 41 37 33 38 34 38 25 31 45 33 38 27 38 34 34 34 36 34 33 36 34 35 34 35 36 41 38 38 32 42 32 40 41 39 48 53 43 35 41 45 41 39 36 34 39 33 41 48 32 37 38 38 27 43 47 33 43 34 46 35 38 38 43 36 40 43 30 42 44 28 38 35 41 48 42 42 31 43 33 29 44 47 34 35 27 47 36 31 53 41 41 32 32 38 32 41 39 49 30 46 29 33 33 33 32 33 27 32 41 41 42 33 37 42 29 40 40 35 41 42 38 46 37 38 30 32 40 37 40 37 38 34 31 40 39 22 44 40 33 38 28 39 37 20 32 27 30 29 30 39 34 29 35 42 51 50 38 41 35 37 35 32 37 41 50 35 29 42 31 32 33 39 38 39 46 42 37 33 35 28 46 32 26 35 25 35 39 38 44 32 29 50 33 42 39 35 44 41 39 37 44 40 31 35 30 37 49 37 32 40 37 32 32 48 36 29 33 37 32 50 32 42 42 42 34 31 39 36 40 34 33 28 36 32 34 45 41 39 46 28 40 33 37 31 33 28 39 29 42 33 46 38 30 32 33 31 52 46 44 29 38 29 32 36 27 34 42 35 25 33 38 28 35 41 32 39 26 42 43 44 38 42 32 43 32 34 30 42 37 37 37 52 27 38 38 24 38 32 30 36 41 30 39 33 34 38 45 34 36 42 45 39 42 30 32 41 37 37 31 34 38 46 37 29 34 27 40 43 32 37 41 32 43 36 23 48 32 39 34 35 33 30 47 46 35 37 34 38 45 33 39 42 44 36 31 47 33 41 33 36 38 35 32 36 30 29 37 34 29 36 35 39 41 35 35 42 29 43 42 31 33 29 35 35 31 40 40 44 44 44 40 32 42 40 45 39 39 35 33 45 37 32 31 40 20 32 41 38 48 27 35 42 24 34 42 39 28 42 25 53 28 49 38 39 57 40 42 36 34 46 41 25 31 31 40 46 46 44 26 37 33 39 38 36 33 47 46 37 35 38 27 32 26 29 31 35 34 52 36 33 32 33 53 41 42 23 38 37 26 34 41 23 31 26 40 38 41 41 33 35 39 42 29 34 47 37 32 46 37 25 29 30 28 26 35 39 41 36 33 39 48 31 39 39 40 36 36 36 29 35 39 41 35 35 28 27 27 34 34 41 36 31 40 38 36 30 40 41 47 42 35 38 43 41 28 32 34 38 45 43 44 44 29 38 33 41 35 36 27 27 38 50 29 38 38 31 37 36 50 47 34 58 28 46 57 30 50 42 37 40 40 38 28 42 33 31 41 39 31 33 23 31 47 40 34 40 46 45 42 37 33 34 32 30 25 41 39 35 27 43 29 31 41 36 29 35 48 34 31 31 44 40 43 36 41 43 38 28 31 33 34 40 37 29 31 37 36 38 47 36 40 40 30 43 40 36 35 38 34 34 36 37 45 47 40 32 40 43 36 32 36 36 41 37 35 31 38 38 40 36 45 36 39 40 35 30 50 37 38 36 44 33 32 42 46 31 35 31 41 38 39 34 40 42 40 36 35 26 40 32 46 39 27 42 51 31 36 36 49 35 33 42 29 39 29 42 40 32 27 31 37 35 42 45 29 40 31 37 35 33 35 38 28 33 27 26 35 36 37 36 40 25 42 33 41 35 40 36 29 27 45 33 33 33 45 33 33 39 32 38 31 39 55 34 41 41 37 34 46 43 30 42 33 45 33 37 42 33 31 26 34 35 39 40 30 29 50 51 41 42 34 40 37 39 36 35 30 50 34 40 41 48 49 36 39 37 28 39 46 53 33 42 42 32 30 34 42 43 34 36 40 40 42 34 38 24 42 31 52 39 27 43 44 34 41 39 33 45 35 39 32 40 34 42 28 36 33 32 37 39 46 30 40 38 32 49 40 32 51 32 40 43 42 36 45 38 38 40 32 28 37 35 40 24 39 38 26 21 35 39 34 42 39 33 39 38 41 26 44 29 33 49 41 36 28 33 35 41 31 30 41 40 36 38 29 42 43 36 32 39 30 39 41 35 37 46 36 48 40 37 35 33 27 46 35 47 31 40 42 52 44 38 40 40 45 29 47 27 47 35 44 41 37 45 42 41 40 31 37 41 40 42 24 41 49 47 35 18 34 39 34 36 38 35 43 33 35 26 44 41 40 31 36 35 38 31 29 28 26 39 34 45 39 28 43 37 34 36 25 43 43 38 45 29 50 38 37 49 35 33 33 43 27 45 45 37 40 33 35 32 38 29 37 35 37 42 46 45 35 39 42 40 36 48 31 37 35 30 39 34 36 36 35 36 33 28 42 35 41 40 48 28 36 30 44 43 44 40 28 31 35 41 34 33 33 37 30 34 46 37 41 41 39 35 35 38 47 31 36 38 44 43 38 45 33 45 35 37 35 32 49 37 25 32 42 41 39 36 33 47 29 29 45 31 27 40 27 27 26 30 31 35 41 45 35 26 34 38 39 32 37 45 40 33 29 50 42 41 40 34 42 47 39 33 40 31 40 33 38 40 34 28 39 42 50 33 37 40 36 42 33 33 29 32 32 34 34 42 35 35 43 37 38 43 33 49 36 36 34 44 37 33 34 38 31 35 41 30 39 36 33 40 43 46 30 40 30 34 47 33 48 31 36 37 36 34 35 42 40 39 25 44 42 36 35 38 42 30 32 36 49 31 38 35 28 30 31 40 30 36 35 34 47 40 37 38 37 38 34 33 40 29 31 37 34 43 29 30 40 38 45 45 51 45 33 32 45 27 30 46 30 41 50 41 48 33 32 32 47 43 32 31 47 37 37 34 32 32 46 32 33 21 33 42 39 41 42 42 40 36 34 35 39 45 35 38 33 39 32 42 25 43 31 32 27 29 30 33 44 29 32 33 28 36 39 37 29 30 41 31 38 39 50 39 26 41 43 42 34 33 37 33 44 38 29 44 36 32 34 47 37 23 44 34 36 32 43 37 40 34 38 41 34 51 34 32 45 32 37 40 31 43 37 44 43 42 36 37 40 34 32 41 44 31 30 39 27 31 39 33 34 40 44 33 29 40 28 48 46 36 38 38 40 29 28 38 36 45 29 29 38 33 37 36 33 28 33 35 35 31 39 35 33 31 36 33 40 32 41 35 43 40 46 45 51 34 44 32 40 39 24 38 44 30 26 41 44 32 32 32 35 38 23 36 41 43 37 45 40 24 47 53 49 31 40 38 39 39 38 34 39 46 29 43 28 37 50 36 30 39 43 48 55 41 38 47 38 34 32 33 35 25 38 30 48 29 43 46</t>
+  </si>
+  <si>
+    <t>JSB(2.094773729080517, 4.902463318897941, -146.27934956398846, 946.7225832987709)</t>
+  </si>
+  <si>
+    <t>214 248 271 323 276 188 286 267 231 186 228 141 182 136 207 235 173 225 267 247 178 280 216 266 230 243 188 208 237 264 223 256 197 195 182 217 204 235 183 195 365 334 265 195 244 158 229 257 235 261 210 327 197 216 303 163 293 236 275 242 195 266 189 238 193 152 254 210 213 254 212 291 244 220 235 167 167 221 207 239 237 261 269 191 213 290 284 176 267 214 282 243 193 252 64 326 281 193 160 201 176 198 283 222 215 154 285 207 270 184 325 282 195 212 230 277 266 234 301 165 297 278 249 235 164 193 275 198 228 271 152 281 300 192 261 247 175 289 166 233 228 356 197 272 226 245 209 198 223 265 131 313 286 226 304 259 184 154 248 174 217 253 186 269 200 224 239 250 199 199 250 293 203 198 158 272 259 270 271 237 282 297 216 203 142 295 184 215 168 221 252 215 226 263 215 275 151 203 183 229 188 182 256 246 170 194 244 233 201 216 256 174 165 308 154 215 192 215 334 175 182 263 299 200 264 209 150 306 148 225 312 224 193 221 231 195 266 331 247 181 251 228 232 233 139 216 204 252 229 251 195 295 241 186 174 263 263 270 213 219 222 166 152 242 269 173 186 199 281 246 210 220 175 221 266 244 162 271 224 210 266 236 288 246 215 283 267 181 204 263 164 276 191 227 212 243 243 162 140 199 237 205 242 201 263 257 159 245 178 227 212 182 202 266 214 286 267 161 120 300 193 253 223 225 230 218 194 172 203 282 236 254 100 261 178 214 175 281 185 182 183 228 143 264 271 277 179 229 210 176 320 207 234 195 247 210 235 185 261 256 216 212 166 266 155 215 223 162 213 184 287 220 163 262 233 285 245 241 221 252 240 236 241 250 163 217 231 190 284 172 282 247 223 173 193 256 248 258 202 224 277 256 221 193 254 292 299 186 257 224 219 299 243 328 238 217 236 241 228 169 167 210 284 172 268 227 207 288 253 233 235 316 219 331 242 224 208 278 271 306 248 131 321 172 198 301 296 166 177 268 317 224 219 255 185 158 307 149 238 200 148 277 156 258 164 290 250 145 231 237 256 205 289 226 211 264 164 222 255 192 229 280 277 159 202 252 311 201 297 193 222 261 225 281 138 225 243 243 156 243 227 176 244 239 254 266 208 203 260 186 208 173 244 168 236 202 210 173 280 202 231 235 192 208 195 287 240 286 116 251 145 195 109 296 207 223 195 285 121 166 238 271 229 203 174 267 168 222 177 231 340 239 207 187 274 174 257 197 264 234 177 220 144 262 144 271 236 229 228 231 222 336 266 259 282 148 208 153 270 209 243 182 240 264 161 278 356 272 271 212 106 192 264 236 224 250 301 259 220 129 159 179 249 182 257 122 220 161 226 205 212 269 215 177 301 217 192 151 336 190 248 174 220 274 255 236 181 190 188 214 313 214 244 223 174 251 259 177 274 254 147 299 175 264 270 303 262 232 255 222 253 215 226 183 260 288 200 219 230 252 177 152 191 302 208 211 150 238 241 215 164 268 257 289 232 161 306 258 238 219 188 236 221 268 281 238 269 239 190 299 290 234 293 248 227 271 188 201 210 180 179 206 222 184 213 190 246 207 199 232 266 277 260 172 281 232 275 182 179 254 212 203 198 302 213 199 163 251 235 320 248 233 204 244 239 214 159 327 247 215 233 132 275 285 215 206 184 237 191 261 202 216 298 170 195 209 276 245 155 243 228 213 296 195 232 151 237 244 228 266 143 287 261 192 262 237 211 246 189 186 244 222 203 139 267 285 268 216 296 242 241 241 234 232 168 198 270 257 285 244 216 175 160 240 176 301 128 295 230 227 265 190 214 297 244 202 199 203 249 228 275 304 202 203 301 241 251 124 206 246 206 203 268 201 341 248 176 239 214 377 202 222 226 233 282 290 217 166 370 139 214 219 231 236 215 182 177 326 274 205 181 252 209 260 188 253 255 236 239 193 249 115 259 251 219 260 184 325 239 237 235 207 220 163 303 172 173 237 168 197 248 286 243 213 157 225 214 260 248 250 142 201 203 228 229 196 314 227 288 273 217 146 237 263 181 170 185 252 219 351 294 298 289 245 217 184 255 207 218 274 324 265 180 223 198 235 244 281 234 243 222 155 309 214 231 180 165 242 200 191 114 226 264 263 161 259 264 260 206 284 272 238 173 187 309 250 246 287 190 248 177 171 233 215 237 236 202 266 322 196 193 249 171 241 193 208 219 243 203 222 254 265 249 205 330 248 283 237 282 225 303 185 228 233 253 299 274 216 252 248 219 276 243 214 260 219 158 235 343 275 206 212 212 123 257 229 233 245 161 251 209 263 208 150 282 183 256 169 240 292 260 267 162 224 252 208 338 216 219 181 270 182 249 289 234 262 260 253 252 293 193 304 253 285 302 151 208 306 231 272 238 229 178 230 182 287 253 249 189 219 234 178 182 207 268 202 283 206 202 172 210 166 208 209 212 209 194 148 276 239 241 210 167 256 304 319 259 307 215 142 252 216 266 288 227 315 216 246 223 218 218 188 209 304 240 288 215 244 205 236 170 281 199 340 314 189 181 162 254 217 200 126 141 168 170 224 195 193 285 185 231 230 223 286 237 245 209 152 242 213 272 237 248 254 272 272 232 280 232 219 341 336 270 262 188 174 210 190 193 304 309 171 275 311 224 261 201 225 186 204 189 160 182 198 181 215 272 196 172 186 272 226 283 210 199 244 243 233 243 195 269 282 202 286 255 199 167 237 253 199 257 158 222 253 222 163 168 139 295 177 222 252 279 213 223 248 205 291 278 186 146 256 207 235 177 277 139 150 208 223 218 279 264 292 318 213 227 160 303 228 240 174 253 194 248 231 236 315 301 214 231 219 305 232 266 183 167 215 246 227 284 242 229 206 263 249 335 261 176 99 270 221 233 213 242 204 174 280 224 236 138 141 231 167 242 276 175 176 237 253 259 171 215 161 228 231 245 138 351 132 246 246 174 225 252 212 342 180 241 286 277 112 204 239 305 223 196 216 281 227 159 241 233 217 181 244 286 268 239 270 224 261 228 287 198 214 243 226 165 210 270 151 247 214 181 227 254 271 206 186 190 183 261 221 206 218 176 225 313 147 161 177 214 213 271 218 224 166 236 188 210 143 296 157 236 161 262 194 297 263 198 158 176 140 223 319 181 253 274 257 232 104 169 249 229 215 143 259 133 264 263 257 185 272 154 255 282 223 265 260 251 166 237 257 291 246 221 186 316 288 245 284 215 274 198 219 186 239 195 190 226 240 219 210 253 207 177 231 98 260 270 202 255 180 240 170 154 273 208 264 267 216 241 232 230 205 258 167 266 174 201 292 174 223 230 195 229 250 212 328 217 209 197 309 218 254 185 281 201 131 197 275 187 204 237 216 175 213 190 190 197 211 262 272 179 238 206 277 211 199 262 275 202 233 176 253 331 207 184 271 321 204 244 239 320 193 220 213 276 168 207 219 234 178 262 158 267 257 273 234 241 272 189 295 124 323 195 315 189 165 188 254 253 163 194 193 253 237 229 233 274 204 261 248 222 229 180 332 329 292 284 243 250 174 171 195 204 229 205 176 274 192 220 138 238 265 231 242 292 202 250 290 226 180 190 265 232 161 152 301 136 168 150 150 276 321 246 112 273 212 197 201 270 297 235 182 214 187 204 187 198 219 293 261 195 227 207 197 246 169 187 180 187 188 245 305 149 245 242 253 243 182 195 239 323 182 254 297 216 238 262 179 313 169 237 195 153 257 223 285 251 216 291 197 242 169 178 256 175 172 205 242 294 162 182 156 235 290 174 287 200 208 275 229 271 211 260 223 243 332 249 308 193 172 257 213 278 210 294 215 181 211 179 158 201 241 127 186 239 203 253 303 227 206 227 227 229 203 210 185 134 287 176 235 244 280 247 210 200 260 220 221 251 273 224 228 247 173 193 222 140 207 240 232 196 317 167 274 212 162 211 237 194 210 172 299 365 249 210 228 219 138 196 188 193 306 231 241 357 213 226 253 228 161 300 130 274 217 358 197 269 229 181 181 239 229 196 218 244 336 230 269 245 267 298 232 241 219 206 169 205 289 238 211 315 185 251 235 223 226 182 263 274 178 142 243 270 189 210 330 180 319 212 273 224 171 195 178 266 188 181 205 262 257 208 189 186 252 194 234 212 255 168 188 268 215 239 281 221 195 222 251 265 242 236 260 315 202 152 300 178 227 258 256 299 131 178 208 258 314 271 300 221 267 194 136 268 257 254 218 175 223 241 236 260 235 177 180 164 277 272 206 172 210 245 277 191 250 200 266 209 229 237 215 333 191 225 312 255 276 280 178 148 225 198 289 214 172 221 215 188 197 351 233 297 227 330 258 241 210 209 193 216 174 174 241 181 242 223 254 307 179 196 148 265 164 155 255 212 220 141 219 209 254 182 304 195 152 300 250 137 254 272 296 163 239 224 241 232 192 216 199 235 230 218 181 215 219 188 230 310 282 200 207 266 238 353 283 331 262 213 223 228 158 237 214 246 265 285 127 187 189 288 273 156 227 165 272 219 273 193 190 229 248 167 267 294 155 232 305 259 225 331 169 292 233 229 251 236 300 232 275 185 264 199 228 182 201 240 229 248 271 237 177 181 235 263 151 190 175 252 225 221 182 237 179 286 287 222 233 257 202 173 274 179 194 240 230 314 125 277 249 216 206 174 195 253 311 281 157 346 157 251 269 269 279 284 245 199 229 291 201 199 197 207 266 161 195 206 237 196 279 262 145 203 272 182 285 171 269 284 166 167 241 215 217 128 184 255 237 159 277 224 205 174 165 219 238 303 291 203 161 253 295 234 232 227 290 264 217 334 184 163 267 262 253 290 260 269 242 178 217 217 192 231 236 345 127 287 298 248 251 248 210 226 205 181 221 234 242 205 265 305 273 145 256 253 300 341 267 171 198 224 251 263 227 288 248 292 191 170 213 271 320 323 204 138 230 234 255 285 249 177 248 226 263 157 157 258 290 244 245 190 271 201 187 255 187 237 191 290 174 217 207 234 211 300 191 247 204 312 190 199 190 217 203 209 241 217 276 233 296 270 195 153 242 244 320 192 237 195 335 268 187 211 198 232 213 167 334 240 230 310 167 335 197 293 220 225 269 257 198 283 239 175 228 248 252 229 238 225 221 276 255 267 203 186 229 228 187 134 319 191 222 247 149 266 223 238 216 249 244 248 245 148 174 278 284 328 243 312 187 179 253 231 230 241 239 241 293 172 238 243 222 227 269 246 218 182 261 245 311 289 210 136 195 205 222 177 159 178 135 190 165 142 196 178 250 179 281 252 303 216 192 182 235 264 199 198 220 307 184 205 203 213 163 185 232 257 230 308 239 221 170 176 177 170 142 202 161 322 250 226 172 286 185 229 159 182 173 202 294 233 237 274 198 193 342 240 199 196 168 248 277 357 249 207 222 172 280 246 231 302 237 254 225 183 160 252 164 278 190 268 192 223 286 238 149 238 208 219 321 219 226 227 265 212 222 250 197 215 182 192 259 236 237 230 239 165 299 313 228 122 243 234 264 201 234 272 278 199 243 285 246 275 225 264 232 322 246 232 174 185 192 206 233 292 191 260 281 231 221 211 200 246 263 319 154 258 203 215 187 220 246 161 213 230 222 292 201 184 271 186 159 189 201 242 231 219 199 266 223 237 232 277 212 275 227 209 276 237 185 178 276 256 200 197 217 311 168 261 246 247 210 241 277 292 210 204 195 217 197 234 304 265 179 192 201 271 205 285 267 168 237 249 246 241 233 207 245 246 268 229 272 192 179 185 154 316 278 265 342 207 244 282 272 296 250 288 288 244 154 321 155 212 206 220 256 278 210 335 214 169 322 170 216 208 211 242 220 179 265 234 192 268 198 188 256 275 233 240 221 231 283 172 354 282 237 219 213 251 224 228 250 112 202 237 301 340 241 212 190 248 289 192 241 194 319 283 220 222 283 217 208 305 250 259 159 280 131 211 256 193 163 173 309 268 307 131 246 280 173 269 286 162 250 253 222 238 309 157 206 237 249 245 242 207 202 203 301 260 296 229 207 256 296 270 234 252 247 265 198 188 255 190 157 179 251 178 218 216 209 248 193 243 222 263 213 169 266 212 197 176 253 231 193 271 190 199 285 205 238 200 288 189 197 252 180 205 189 203 187 166 191 126 247 221 216 204 262 284 228 233 127 310 301 290 220 197 314 336 288 214 261 228 204 221 237 175 255 214 175 210 169 285 189 294 229 232 211 191 333 192 324 257 168 279 211 202 206 226 226 223 256 277 245 200 260 327 243 216 248 207 178 189 203 291 227 191 291 274 230 169 185 258 216 207 289 261 237 246 212 232 197 179 252 347 269 230 239 334 240 225 243 203 272 205 200 206 160 241 216 262 266 214 266 225 259 214 270 197 210 163 233 261 237 186 153 209 219 209 226 252 230 202 244 303 244 235 243 208 219 294 211 279 243 320 297 228 168 263 238 154 235 257 234 178 255 268 212 227 211 215 269 214 185 216 257 263 238 268 247 201 243 252 114 218 265 221 209 276 278 168 234 209 252 219 207 151 215 307 205 255 253 236 288 132 321 164 351 321 193 207 292 269 118 224 227 248 325 256 246 253 216 158 217 220 304 190 227 212 227 165 199 213 196 237 191 305 208 205 205 223 221 219 231 207 296 251 260 193 227 280 290 184 183 219 254 199 263 246 209 255 203 170 140 239 281 232 236 255 295 157 221 243 299 223 190 180 204 243 300 239 186 232 280 227 255 252 203 202 204 228 229 191 118 223 174 243 211 238 211 257 308 198 305 217 207 220 284 178 269 254 256 266 220 197 183 243 246 346 247 207 293 268 278 127 183 250 233 266 215 202 250 178 343 260 241 213 170 186 219 266 211 253 256 245 227 165 271 213 217 223 252 253 280 184 154 239 297 321 265 274 264 305 214 224 233 271 226 230 228 217 249 210 220 273 243 290 263 239 206 243 245 235 205 274 209 316 304 172 230 214 242 294 163 217 293 199 210 218 231 262 163 274 238 226 228 283 349 187 233 220 152 305 242 185 228 166 187 284 213 235 283 172 189 289 250 188 238 252 193 219 146 221 155 264 177 240 230 286 223 206 273 220 321 252 229 242 230 168 292 294 191 162 196 213 191 194 207 215 216 133 171 293 210 225 253 128 206 174 312 164 283 166 222 200 218 251 160 187 279 203 199 255 182 279 259 166 259 239 204 228 241 182 224 240 177 243 238 197 242 246 164 175 135 232 194 214 126 269 212 182 290 217 244 222 223 249 303 234 214 173 141 132 184 282 161 277 233 219 217 264 209 163 217 352 239 205 222 164 201 207 184 180 363 193 249 189 208 176 169 247 182 239 220 274 279 172 274 221 236 200 237 297 214 210 217 257 286 176 213 210 280 217 196 239 194 240 252 210 159 221 184 362 267 227 229 193 267 201 319 181 249 204 274 268 187 228 248 276 219 224 264 190 193 207 286 250 214 208 186 168 290 240 217 197 278 234 206 253 246 237 279 261 236 327 243 255 345 259 215 279 219 216 178 258 220 259 222 146 218 190 135 239 249 220 258 226 261 238 149 150 209 135 273 199 239 197 233 151 128 247 197 326 230 220 180 227 273 222 280 224 246 274 245 194 195 267 233 190 217 147 247 187 203 243 254 201 168 224 197 222 228 207 250 218 233 263 246 340 225 267 241 298 223 257 221 241 152 276 283 291 235 242 290 274 229 289 222 247 176 219 270 187 234 174 259 227 248 236 245 229 259 281 215 222 271 208 330 152 299 244 281 299 250 234 267 334 207 228 223 221 318 180 272 187 188 170 255 209 172 199 368 183 247 132 248 266 326 260 238 251 284 300 209 281 258 170 271 228 213 221 125 319 152 173 210 144 200 235 203 163 272 153 235 213 206 227 236 251 213 244 253 255 209 277 254 214 267 193 235 199 199 252 192 137 268 275 331 163 217 170 278 233 221 217 207 222 250 236 172 263 139 185 293 187 199 241 271 270 313 176 224 140 165 186 217 218 266 159 278 221 220 258 251 255 189 222 186 232 214 184 200 223 206 310 192 212 229 283 194 232 137 163 216 157 260 217 234 178 221 265 177 291 277 241 291 248 254 245 234 208 252 198 272 175 308 266 191 195 219 227 206 273 257 219 332 186 190 280 264 148 184 234 200 274 155 230 177 181 272 206 302 327 179 205 258 230 214 218 289 236 262 255 294 253 193 196 234 287 215 216 237 227 189 217 262 258 229 285 213 187 174 256 189 266 166 229 163 271 287 237 265 243 187 219 169 211 261 252 204 235 195 198 259 143 225 145 209 193 240 312 232 255 231 169 241 282 263 147 225 116 161 247 210 222 203 320 222 243 308 198 127 215 297 257 227 214 158 310 188 153 186 199 214 250 200 199 250 257 197 195 260 281 189 255 218 300 252 157 219 224 276 196 215 281 244 202 231 151 263 184 163 278 295 205 168 240 292 223 241 233 229 250 190 285 163 256 224 248 118 233 253 224 185 111 300 242 292 169 249 240 247 273 237 227 189 194 200 170 271 259 254 226 161 166 222 204 230 243 230 338 225 143 273 211 184 208 235 214 173 180 249 229 261 253 294 173 156 192 211 188 180 153 221 215 271 216 319 194 158 284 325 250 237 279 216 274 215 237 212 236 152 214 314 262 195 245 182 204 242 229 278 210 240 183 229 219 225 209 175 216 235 237 269 184 210 257 246 163 278 297 177 153 349 217 279 169 163 292 263 298 194 238 297 233 246 228 143 141 313 276 260 172 141 111 249 216 167 255 280 245 348 211 276 209 158 162 236 211 175 241 210 187 219 318 239 145 226 223 307 202 284 210 292 260 312 215 226 185 187 322 174 189 265 194 182 208 226 235 148 221 255 195 206 160 255 182 221 304 208 152 168 158 257 253 179 217 248 115 253 206 230 120 180 230 195 244 232 167 234 199 273 188 259 161 223 231 293 84 183 198 197 163 189 191 220 272 228 205 235 225 246 218 231 217 260 218 227 265 276 260 246 206 215 246 238 318 200 191 232 198 153 271 250 172 243 185 165 178 140 202 185 133 193 282 167 195 263 245 262 277 236 234 203 235 260 227 208 187 245 301 171 287 195 283 184 240 284 183 233 176 163 180 210 196 144 237 278 244 261 206 300 334 189 243 280 223 214 161 206 156 193 232 256 192 157 219 196 243 204 227 164 272 229 182 233 151 292 213 247 280 299 194 217 226 184 204 267 253 207 234 204 281 271 166 223 217 161 240 222 275 267 262 216 234 256 241 234 218 209 255 235 264 127 179 272 272 235 187 268 340 241 294 218 169 144 196 182 241 179 245 277 284 265 297 181 273 249 199 178 242 263 268 136 239 207 217 161 191 191 166 248 224 208 286 213 236 240 218 261 242 244 192 303 297 197 198 172 256 211 261 297 219 226 217 216 234 127 252 214 216 247 246 194 239 215 134 209 236 177 255 315 288 191 279 213 221 230 298 280 255 231 228 213 208 323 232 205 197 317 218 270 159 241 233 187 154 182 204 252 274 214 204 301 229 250 253 157 244 156 274 200 206 174 285 251 296 157 195 223 261 193 315 188 237 179 280 290 197 236 248 257 266 177 188 224 223 140 293 292 304 317 178 253 244 217 238 180 137 276 173 204 212 272 165 283 274 231 167 195 311 255 194 238 209 281 204 252 284 199 262 217 178 223 214 286 213 289 235 263 194 302 311 208 184 246 225 187 238 326 212 263 193 144 194 352 199 189 197 273 226 308 350 203 277 189 181 300 217 234 241 221 225 199 254 261 266 236 232 291 231 208 193 317 247 199 262 300 191 264 209 243 178 229 306 262 163 266 301 178 276 310 231 294 230 248 191 263 229 214 227 211 274 165 172 267 249 279 219 236 255 283 226 245 208 235 258 136 268 171 260 255 229 307 295 184 196 162 266 280 290 292 274 146 217 254 277 236 293 257 195 225 311 237 266 226 259 198 276 195 285 183 240 163 243 172 166 292 206 212 177 267 174 225 281 189 194 218 274 235 180 235 220 167 232 187 242 233 212 227 198 185 331 201 279 201 278 207 197 229 224 216 182 205 257 218 215 253 343 185 186 253 209 256 209 266 323 207 122 260 222 202 301 180 222 189 289 197 277 202 186 203 302 294 233 208 262 198 200 258 222 248 251 280 148 221 242 164 228 280 246 149 227 317 297 240 148 140 227 138 223 310 202 266 228 128 244 210 201 217 226 255 228 240 228 259 362 274 229 150 212 164 268 167 271 204 306 219 173 300 298 309 211 312 253 230 236 233 296 306 241 231 197 254 167 309 310 214 241 179 237 243 291 160 217 187 359 288 232 254 324 304 230 281 130 323 291 211 286 251 192 246 307 267 177 276 270 410 250 178 214 202 195 230 245 214 173 155 167 301 214 222 239 197 231 308 212 231 186 284 229 165 264 223 185 295 242 215 219 178 234 235 284 211 223 142 171 179 351 267 212 250 201 289 361 149 303 211 249 217 210 159 258 165 222 272 162 262 294 119 193 297 191 260 130 208 217 174 286 166 297 186 264 266 225 246 204 236 246 250 203 188 211 242 260 157 250 181 263 245 203 233 192 162 219 269 162 217 171 187 247 217 180 203 136 201 303 231 226 251 190 256 224 221 159 193 230 249 230 232 216 152 250 239 186 228 270 207 230 275 245 239 238 240 212 322 311 156 289 227 187 312 217 161 302 254 309 251 173 270 249 263 218 218 344 227 239 235 178 297 314 294 187 242 256 230 168 149 271 240 193 290 252 236 296 239 217 230 329 197 206 135 288 280 262 194 200 221 323 217 160 139 185 276 224 188 231 177 218 201 137 202 190 231 216 273 162 296 274 249 137 207 288 231 269 273 252 300 222 309 207 243 224 160 263 190 226 219 275 197 275 140 263 184 211 222 288 150 316 250 198 240 280 178 213 176 214 214 242 151 251 264 318 279 130 261 246 252 181 198 284 169 260 232 217 242 209 239 250 257 262 235 234 222 250 215 275 213 290 202 205 238 251 211 236 193 199 288 282 126 188 217 109 264 297 249 293 200 280 170 121 256 193 315 259 249 203 229 247 174 299 343 184 250 271 229 342 259 237 218 267 224 216 261 266 160 184 206 197 220 237 253 221 329 224 260 203 292 276 189 226 260 265 201 203 214 282 255 296 212 220 181 243 287 307 252 241 217 166 239 213 197 215 209 235 194 245 148 241 225 185 246 296 169 241 288 219 215 270 230 296 287 235 228 168 255 243 245 192 262 299 253 263 244 232 269 139 187 258 244 192 210 256 273 206 173 348 217 171 219 242 208 188 121 234 227 304 182 206 281 285 268 240 148 225 268 186 276 279 189 308 211 199 268 322 176 186 267 219 207 230 192 173 230 249 286 161 262 200 264 204 247 192 244 145 221 219 230 271 312 261 135 259 238 240 139 190 197 210 254 258 238 192 239 134 234 242 191 132 188 207 238 160 306 214 202 219 271 209 140 237 256 180 269 309 185 217 260 169 302 260 205 207 251 196 183 231 215 241 155 197 211 267 255 175 230 273 198 210 308 214 299 241 250 322 167 217 195 225 183 146 181 149 183 188 178 205 283 204 187 226 186 199 191 226 222 252 240 234 226 151 235 221 289 245 261 303 178 263 125 304 196 235 262 170 247 288 245 211 264 219 252 270 156 186 229 177 288 273 212 214 181 214 257 205 336 274 296 189 235 194 217 306 288 303 279 261 211 289 214 271 244 311 167 275 278 266 275 252 255 239 153 220 289 287 229 239 201 249 236 287 237 221 252 276 260 190 172 245 269 115 163 190 234 239 218 179 260 211 320 227 307 197 222 214 161 218 222 178 233 236 271 210 156 321 334 209 185 200 246 201 187 205 171 275 176 152 195 256 169 218 250 259 206 220 252 313 221 270 245 262 237 285 195 251 287 273 233 300 181 172 228 211 192 214 229 173 226 259 172 327 176 347 151 211 173 259 145 203 264 266 302 220 186 173 198 250 160 219 208 318 260 326 176 188 228 150 177 233 243 221 240 284 246 263 195 215 261 275 173 280 218 202 122 189 243 181 151 196 166 310 205 240 234 223 302 247 202 304 243 242 249 158 240 280 176 283 186 228 250 275 169 296 169 208 166 184 237 299 177 278 256 192 198 174 180 189 231 171 258 336 289 179 214 171 216 157 181 207 134 195 271 239 250 177 252 206 223 323 223 210 249 221 175 234 281 235 228 244 221 218 209 244 253 325 250 186 227 265 168 265 308 265 284 354 218 205 229 179 128 236 240 251 294 151 251 245 183 151 166 315 221 184 263 237 173 118 261 228 181 245 235 240 255 253 285 189 192 224 254 202 197 145 278 311 251 225 208 220 191 222 211 241 220 166 218 258 185 191 211 205 261 158 216 282 211 228 237 252 240 212 230 236 250 187 209 200 238 237 236 285 212 195 324 265 156 210 219 263 216 301 272 293 219 244 185 197 206 212 255 230 243 219 208 214 307 242 234 219 230 239 269 256 203 169 232 205 103 163 154 179 174 225 320 249 174 210 204 251 222 265 204 180 251 273 227 259 196 202 295 251 258 197 250 249 262 204 239 271 235 237 141 228 169 212 220 209 234 203 141 200 192 174 142 298 173 237 201 186 188 225 168 139 274 189 277 202 220 284 326 145 251 292 336 252 200 158 227 229 145 292 241 187 145 152 215 288 241 187 196 264 186 190 326 220 212 247 210 210 201 371 214 279 169 180 151 207 212 192 202 251 225 178 251 193 209 198 193 240 275 149 192 238 218 331 259 315 383 195 213 210 204 198 238 180 306 209 130 234 331 291 198 242 279 247 205 224 255 264 251 238 288 184 298 246 327 326 244 210 270 279 236 193 187 204 244 158 270 315 245 126 212 256 151 161 243 271 134 219 184 225 279 204 214 277 220 258 247 236 242 226 289 139 269 264 272 291 266 168 213 282 228 325 243 131 271 154 238 284 141 252 130 287 205 202 241 263 160 216 254 138 238 209 222 231 203 185 216 235 222 252 286 277 202 202 227 113 284 263 134 258 298 149 149 176 150 165 266 270 247 179 206 250 282 236 308 240 294 144 276 253 273 209 225 257 235 186 288 215 226 290 282 161 231 182 170 193 239 281 194 235 222 228 223 257 241 154 267 252 228 196 215 253 265 233 285 289 183 395 255 318 261 218 262 230 224 236 276 185 291 275 234 287 272 249 271 332 242 237 187 184 146 198 137 251 242 197 261 191 208 224 207 218 226 238 182 240 292 225 230 227 187 162 174 209 233 239 280 339 245 281 136 294 301 231 309 281 213 233 264 228 251 304 142 224 214 180 157 212 185 260 269 282 184 183 206 206 204 159 211 270 293 204 247 319 225 184 220 146 225 223 156 253 206 262 242 286 218 197 200 256 217 256 287 284 207 321 236 268 199 196 148 203 174 210 162 192 282 194 250 295 177 206 288 232 222 296 232 302 149 286 267 203 182 162 180 210 234 328 251 193 249 210 186 239 229 177 150 233 211 204 251 223 247 182 197 215 125 288 223 297 199 150 208 199 208 334 227 201 303 240 181 233 144 254 241 138 211 233 123 228 211 234 238 203 196 200 181 191 197 148 160 258 156 189 225 177 293 231 269 253 291 286 137 185 221 209 202 201 192 209 305 218 251 212 202 286 192 146 197 220 302 236 113 289 230 171 202 233 249 382 290 197 224 355 269 303 268 254 282 258 178 271 166 180 222 251 212 274 164 246 264 220 231 292 231 156 222 206 262 242 243 170 205 214 217 261 184 216 315 173 252 154 208 108 190 224 240 194 262 194 277 250 234 280 206 189 223 230 187 227 179 178 177 217 248 279 217 275 250 286 286 181 224 176 266 296 255 219 231 169 217 213 247 230 197 357 267 255 202 207 279 222 170 222 285 213 327 163 224 234 200 232 259 221 172 174 235 211 201 194 197 224 155 208 220 233 250 320 186 157 239 305 245 236 230 127 223 178 271 291 262 279 198 169 210 266 274 315 219 186 265 246 210 241 185 297 217 248 312 184 225 226 186 270 331 251 301 246 223 205 172 211 235 230 236 202 233 177 293 235 320 233 269 277 202 229 289 219 156 252 198 280 231 258 222 202 284 284 246 244 156 249 175 207 282 250 224 232 197 249 213 250 279 197 306 230 225 268 214 241 151 242 213 230 220 262 309 301 290 189 203 210 235 117 206 284 227 238 290 153 153 218 206 288 252 237 281 253 222 233 228 242 210 181 278 216 269 207 248 219 240 181 191 220 303 341 209 196 280 213 198 174 187 154 128 222 231 230 266 278 202 194 120 295 177 226 252 268 167 191 224 232 238 275 169 202 227 203 193 212 287 226 268 218 179 296 179 204 247 171 269 313 228 308 242 213 243 238 184 243 214 99 246 200 261 213 192 216 320 248 199 281 234 226 181 298 217 201 218 174 207 209 293 145 254 212 262 213 177 318 209 188 127 289 212 276 332 237 209 238 221 265 208 222 240 304 288 229 257 223 221 255 119 228 337 191 217 251 224 226 176 171 232 293 223 198 269 189 267 187 236 251 210 217 249 236 250 265 295 251 255 262 146 284 198 240 310 245 244 285 148 158 218 185 160 248 174 231 182 371 190 258 211 164 243 184 151 219 214 214 260 167 189 207 264 253 180 198 193 244 266 217 281 195 131 276 184 200 324 218 277 313 243 189 259 227 220 208 206 221 290 193 271 230 232 233 333 363 273 169 299 244 297 277 225 266 203 119 222 270 276 334 230 231 154 254 244 205 152 201 267 206 185 243 311 201 251 230 172 238 198 277 272 255 257 267 202 194 161 233 181 129 241 250 239 328 255 194 213 212 260 197 130 218 244 256 268 289 260 202 261 289 184 196 248 193 222 271 280 242 194 217 251 283 240 243 234 191 241 237 288 252 205 258 177 257 281 227 211 236 120 219 207 175 226 276 276 311 147 325 323 172 166 218 228 308 164 277 253 255 156 197 258 257 146 212 218 339 230 163 200 161 224 231 282 211 225 257 232 220 303 229 283 219 133 263 241 243 264 234 161 259 273 248 224 199 142 270 140 198 221 185 269 235 265 245 264 158 294 226 300 195 248 174 243 294 217 285 208 241 276 257 163 189 250 249 208 307 271 171 187 172 170 236 307 146 176 249 281 220 208 322 220 250 265 266 221 201 298 184 248 149 256 204 201 257 230 217 328 268 223 213 296 189 238 200 248 234 233 132 124 202 214 174 248 178 233 301 180 222 231 232 330 278 269 235 141 264 282 213 203 261 257 268 194 273 208 174 200 297 168 219 167 243 238 276 269 224 239 154 293 379 257 202 153 238 175 281 254 222 118 174 273 244 171 179 293 295 200 255 200 243 229 265 265 253 242 258 297 292 180 280 163 199 199 260 269 251 235 287 227 245 247 193 245 161 207 257 258 187 346 245 275 200 257 154 346 228 139 194 300 246 178 219 165 312 225 220 218 271 219 257 302 193 240 175 214 211 223 243 247 224 254 249 262 226 234 248 289 191 223 429 261 224 260 232 245 231 297 270 184 173 315 244 188 224 214 278 271 194 279 213 144 180 262 267 205 252 172 192 252 214 284 299 247 218 316 298 288 254 221 179 264 179 160 230 212 182 226 291 189 226 155 236 156 208 191 160 191 243 269 174 206 291 194 249 221 200 186 183 177 159 269 232 263 203 237 248 192 328 304 267 247 281 185 193 225 234 219 204 328 148 228 291 194 247 194 157 263 226 255 222 243 182 300 194 319 234 242 250 225 219 205 230 254 195 210 206 223 257 213 345 320 285 240 316 241 227 226 242 214 274 171 161 76 220 271 209 132 203 262 259 227 249 287 252 207 228 250 325 174 166 157 212 263 238 219 249 175 219 269 212 272 264 199 203 214 159 260 227 166 238 186 256 203 259 208 244 213 206 313 234 193 176 212 221 237 200 239 173 209 282 306 197 249 160 230 243 149 260 257 270 255 218 220 187 192 182 221 248 210 226 298 227 279 284 142 190 197 232 202 229 208 216 242 231 162 261 285 203 195 246 205 202 269 176 317 199 209 198 185 253 228 165 264 286 208 171 235 267 199 266 204 198 184 325 260 237 342 225 235 228 160 300 271 198 290 183 202 215 205 271 201 164 183 171 187 248 239 170 112 268 186 211 242 241 216 216 240 241 122 258 226 207 248 227 214 209 204 164 260 177 196 139 322 270 226 173 274 276 316 216 244 236 227 218 192 168 216 181 170 196 262 192 232 218 216 233 187 205 270 201 159 207 267 234 147 222 174 246 198 303 251 183 222 249 212 281 236 170 239 218 275 229 166 249 156 173 222 292 167 191 219 232 271 215 148 200 206 279 214 239 208 161 142 286 235 143 258 192 303 215 172 329 158 218 239 281 284 168 198 156 300 258 245 212 271 339 218 140 210 167 308 291 219 234 291 236 317 243 181 246 261 202 262 294 255 165 227 156 219 251 285 178 240 268 291 174 199 168 249 270 285 270 122 317 184 225 190 185 239 272 336 430 199 239 178 234 258 270 199 221 236 269 186 222 208 124 215 261 155 273 224 143 159 216 284 281 269 279 210 210 224 265 175 221 258 195 184 164 172 261 295 197 164 235 165 153 268 195 286 213 228 277 163 246 263 256 283 342 297 249 306 262 227 189 209 147 245 209 205 343 286 227 256 321 319 272 275 248 241 189 200 275 295 244 277 240 260 217 276 355 243 192 276 299 281 204 306 197 231 280 249 203 165 253 200 253 287 220 228 162 180 218 222 218 199 186 204 237 340 231 252 246 190 246 224 214 300 167 232 246 299 241 230 272 185 233 220 245 147 173 242 148 254 167 265 217 252 195 309 268 220 209 258 200 284 189 219 166 201 243 267 236 306 295 269 178 232 228 204 239 214 252 244 207 214 244 250 189 191 167 223 260 215 142 127 182 128 128 264 285 263 199 249 165 255 154 189 214 234 296 290 214 239 297 253 250 227 243 263 286 158 191 190 199 241 248 229 311 240 175 205 167 202 292 230 201 215 153 217 213 199 163 240 264 213 303 252 325 234 259 231 247 204 293 315 239 246 313 209 255 191 200 210 266 226 232 228 213 309 159 303 277 227 257 236 211 282 288 217 209 235 271 201 141 130 154 198 203 204 273 276 170 151 365 127 188 319 273 235 220 311 278 282 245 300 260 173 260 193 177 214 173 303 145 205 184 147 149 235 250 179 274 215 229 319 180 303 277 167 175 209 238 229 162 246 203 224 208 179 305 193 279 207 162 238 161 202 288 280 191 307 212 220 275 146 237 201 174 255 255 207 262 193 238 274 146 239 234 227 205 257 190 298 262 196 185 250 233 254 305 149 228 188 219 215 241 244 267 243 156 307 242 137 263 257 222 245 167 230 215 222 214 268 217 280 264 181 189 112 223 296 221 235 276 212 239 304 253 255 290 209 229 281 190 221 223 251 167 232 213 259 254 222 255 150 111 182 129 230 273 139 154 343 246 227 267 227 206 177 275 260 159 207 253 236 238 154 249 177 251 245 237 235 235 273 178 225 265 207 332 212 193 284 179 217 315 168 157 180 195 226 165 182 219 285 262 211 227 166 228 231 157 183 234 244 305 248 247 235 158 234 233 291 191 272 282 221 297 245 283 274 171 181 318 142 272 225 234 171 289 180 294 177 164 197 249 181 225 118 210 263 253 257 232 256 207 265 285 281 275 217 233 251 229 243 144 229 291 280 245 242 249 257 155 214 245 245 197 230 302 217 238 198 298 178 230 303 251 267 191 267 209 159 217 243 210 279 198 255 210 202 270 181 204 233 182 121 256 168 296 238 213 298 232 252 258 190 283 198 216 125 284 303 257 268 204 190 327 269 160 183 306 251 282 235 199 293 255 196 170 227 215 158 238 138 278 302 202 234 228 244 246 288 296 169 275 306 263 197 282 300 213 267 195 235 222 231 194 312 181 180 273 237 237 144 257 269 227 191 165 239 231 312 240 251 189 233 233 165 241 207 141 212 185 179 167 228 282 263 286 110 190 259 286 206 275 273 161 100 174 179 332 313 262 263 245 169 251 238 210 207 221 235 172 237 171 190 221 272 261 267 220 194 271 248 254 344 291 219 234 236 207 184 239 263 254 175 251 198 173 268 178 278 275 365 316 253 325 196 207 208 281 169 235 221 191 249 169 198 194 332 164 266 246 251 151 200 290 208 229 265 186 203 272 320 239 279 263 229 224 164 251 212 263 229 245 214 243 200 256 350 252 182 220 184 168 275 197 195 294 240 135 284 310 134 249 241 246 302 263 242 193 258 309 228 329 237 277 255 215 133 272 181 260 216 255 183 213 189 184 280 203 254 189 295 221 226 281 253 265 291 280 231 233 303 324 255 239 232 190 202 191 256 237 215 329 243 258 166 168 173 204 195 238 220 193 182 247 2</t>
+  </si>
+  <si>
+    <t>MIE(0.3875207283086459, 2.037646069895903, -2.840360936626198e-31, 1.546235783361842)</t>
+  </si>
+  <si>
+    <t>0 1 1 3 2 0 0 1 1 1 0 0 1 0 1 1 0 0 2 2 1 0 0 1 1 0 0 1 1 3 2 1 0 1 1 0 0 2 0 2 2 1 2 0 1 1 1 1 1 1 1 2 2 1 0 2 1 1 2 1 2 1 2 0 1 0 2 1 0 1 1 1 2 1 1 0 0 1 1 0 0 1 2 1 1 1 1 1 2 2 4 0 1 1 0 2 3 0 0 1 1 1 1 2 0 1 0 1 0 1 2 1 0 0 0 1 0 1 1 0 2 2 0 2 2 0 1 0 0 3 0 2 0 2 0 1 0 0 1 1 2 3 1 1 2 0 1 1 1 0 0 2 2 1 2 3 0 0 1 0 2 1 0 2 0 1 1 1 2 0 1 0 0 1 0 3 2 0 2 1 1 2 2 1 0 1 0 1 0 0 1 1 2 0 2 2 0 0 1 0 1 0 0 2 0 0 2 0 1 1 0 0 0 0 0 0 1 1 3 1 1 0 1 2 3 3 0 3 0 1 2 1 0 0 2 0 0 2 1 1 3 1 0 2 0 0 0 1 0 0 0 2 2 1 2 1 1 2 1 1 2 1 0 1 1 0 1 2 3 2 1 1 0 1 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 1 0 2 2 1 1 1 1 1 2 3 1 2 1 3 2 1 2 1 1 2 0 1 0 0 2 0 0 0 1 1 3 1 2 1 0 2 0 0 1 1 2 0 1 0 1 1 1 0 0 0 1 1 1 1 2 0 0 0 2 2 1 1 0 2 1 1 1 1 2 3 1 1 1 0 0 0 1 1 1 2 1 2 0 2 2 0 1 2 0 0 1 1 2 0 0 4 1 1 0 1 1 0 1 1 0 2 0 0 2 1 1 1 0 2 1 0 2 1 0 2 1 0 2 1 0 1 1 1 1 0 1 2 0 1 0 2 2 0 2 2 2 1 0 0 1 1 1 0 4 0 1 1 0 1 1 1 0 0 0 2 1 1 1 0 1 2 0 2 0 1 2 1 3 0 1 0 1 0 1 0 0 2 1 2 0 1 0 1 1 1 1 1 1 1 0 3 0 2 1 0 3 1 1 0 0 1 1 0 2 1 1 1 3 0 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 1 2 1 0 0 1 0 1 0 2 1 0 0 2 0 2 1 2 0 1 1 3 0 1 1 1 0 1 0 1 1 2 0 1 2 0 2 1 0 1 0 0 1 2 0 1 0 1 1 2 1 3 1 2 2 1 0 0 1 1 1 0 1 1 1 2 2 0 0 1 0 0 1 1 1 2 2 0 1 0 0 1 1 0 1 0 0 0 1 0 0 1 3 1 1 1 0 1 3 1 1 1 2 0 2 1 0 2 2 0 2 1 1 0 1 3 1 2 1 1 0 0 0 0 0 1 1 0 0 0 1 1 1 2 1 1 0 1 0 0 1 1 1 1 1 2 1 1 2 2 0 1 0 2 1 1 2 1 1 1 0 1 0 1 1 1 1 0 1 0 1 0 2 2 1 2 1 1 1 1 1 2 1 1 2 0 1 0 1 2 1 1 1 2 2 2 0 0 2 0 1 1 1 0 1 0 1 0 1 1 0 1 0 2 0 1 0 1 1 2 0 0 1 1 1 1 0 1 1 2 2 2 2 1 1 3 1 3 0 0 0 1 2 1 1 0 1 1 1 1 1 0 1 2 0 1 1 1 3 0 1 1 0 1 2 0 0 0 1 0 1 2 1 2 0 1 1 2 2 0 0 0 1 1 0 1 1 2 1 1 0 1 0 1 0 1 0 1 0 0 1 1 0 1 3 1 2 2 0 2 1 0 1 0 3 2 1 1 1 2 1 1 0 1 2 0 1 0 2 2 1 0 1 0 1 1 0 3 0 2 0 0 0 1 1 1 0 2 1 0 0 0 0 1 3 2 0 2 1 0 1 0 1 1 0 1 2 0 1 1 0 1 1 0 1 3 0 1 0 0 1 1 1 1 0 1 1 2 1 1 0 1 0 0 2 1 0 1 1 3 2 1 0 0 0 0 0 0 1 3 2 1 0 2 1 1 0 0 0 1 1 1 1 1 1 0 1 1 2 0 2 2 1 0 1 0 2 2 0 2 0 1 1 0 2 1 1 2 1 1 0 1 2 0 0 0 0 1 1 0 0 1 0 0 2 1 1 0 1 1 1 3 0 1 1 1 1 0 2 0 1 0 2 0 1 1 2 1 2 1 0 1 1 0 2 1 2 1 3 1 2 0 1 1 1 0 0 0 0 0 1 2 1 1 1 1 3 2 2 2 1 1 1 0 1 0 2 2 0 0 0 2 0 3 1 1 1 1 0 3 1 1 2 2 2 1 0 3 1 2 0 2 1 1 0 1 2 2 2 0 2 1 1 1 2 3 1 0 0 0 0 1 0 1 0 1 2 1 0 2 0 1 0 0 2 2 1 2 0 1 1 0 1 2 0 0 1 1 1 0 1 2 1 1 2 2 0 1 0 1 1 1 0 2 1 1 1 1 2 1 0 1 2 0 1 1 1 0 1 1 1 4 1 1 3 1 1 0 2 1 1 0 2 1 1 0 1 0 2 0 3 2 0 1 1 0 0 3 1 2 1 2 2 0 1 1 0 0 1 0 1 2 1 1 0 1 0 1 0 1 2 1 1 1 0 1 0 0 0 0 1 3 1 1 1 1 0 0 2 1 1 1 0 2 2 0 1 2 1 1 0 0 2 1 0 1 2 2 3 0 0 0 1 1 0 2 0 1 0 0 0 1 1 1 1 1 1 0 1 1 1 0 2 1 2 1 0 3 1 1 1 1 2 2 0 0 1 1 1 0 3 1 1 1 0 0 2 0 0 0 1 0 1 0 2 2 0 1 1 0 1 0 0 0 3 0 0 2 1 0 0 1 0 0 2 1 1 0 1 1 1 1 0 0 2 2 1 0 1 0 1 1 1 0 5 2 1 0 1 1 1 4 2 0 0 2 0 0 2 1 1 1 1 2 1 1 2 1 0 2 1 0 1 0 1 0 2 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 0 4 1 1 0 2 1 0 1 0 2 1 1 1 1 0 0 1 1 0 1 0 1 1 1 2 2 2 1 1 2 0 2 0 1 1 0 2 1 2 1 1 1 0 1 2 1 0 2 1 2 0 1 3 2 0 0 1 2 0 1 0 1 0 0 0 2 0 1 0 2 1 1 0 1 2 0 0 1 1 3 0 2 0 0 2 0 1 1 0 1 1 1 1 1 2 2 0 0 1 0 0 2 0 1 0 0 1 0 1 1 1 0 1 2 2 2 0 1 0 1 1 2 2 0 1 0 1 1 2 1 0 0 0 1 2 1 0 1 0 1 1 0 1 1 0 0 0 2 1 2 2 1 1 1 2 1 0 0 2 3 1 0 1 2 1 1 0 0 1 0 2 0 3 0 3 0 1 1 1 1 1 2 1 1 1 1 1 2 1 1 2 1 1 0 1 2 0 2 1 0 0 1 0 0 1 0 1 1 1 0 1 1 1 0 1 3 0 1 0 1 0 1 1 0 1 2 1 0 1 0 0 1 3 1 0 0 1 0 0 2 0 1 0 1 0 0 0 1 0 1 2 1 1 0 1 2 1 0 0 3 1 1 1 0 1 0 1 0 1 2 0 2 0 0 2 2 1 2 0 2 1 1 0 1 0 1 1 2 2 0 1 2 0 0 1 1 2 1 1 1 0 0 2 2 3 1 1 1 0 2 0 2 1 0 0 0 2 0 1 1 2 1 2 1 0 2 1 0 1 0 1 2 2 0 0 1 0 1 1 1 0 0 0 0 2 0 1 0 2 1 2 0 1 0 2 0 1 2 0 1 3 1 1 1 0 1 2 0 2 0 1 2 2 2 2 2 0 2 0 1 1 2 1 0 1 1 2 1 0 0 0 0 1 2 2 4 2 1 1 0 0 2 0 1 2 1 1 2 0 1 1 0 1 1 0 1 3 0 2 3 1 1 2 0 1 1 0 1 0 1 2 1 0 0 0 1 0 1 0 0 1 0 1 0 2 1 2 0 2 2 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 1 1 2 2 1 2 1 0 2 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 1 0 2 1 0 0 2 0 0 1 2 1 1 1 1 1 1 1 1 0 2 0 3 1 1 0 2 1 1 1 1 0 0 1 1 0 0 1 0 0 2 1 0 1 0 0 1 0 1 2 0 1 1 1 1 1 0 1 1 3 2 3 1 0 1 0 0 0 1 1 0 1 2 2 0 0 1 3 0 0 1 1 1 0 2 0 1 1 1 1 1 1 1 0 0 2 2 0 1 0 1 1 1 0 1 1 1 1 1 0 1 0 0 2 0 1 0 0 0 1 1 1 2 0 2 1 1 2 0 2 0 1 1 1 1 3 1 0 1 1 1 1 2 0 1 0 1 0 1 1 1 1 3 2 1 2 0 1 1 1 1 2 0 0 2 1 1 1 2 2 0 0 1 0 1 0 2 1 2 1 1 2 0 1 1 0 0 1 0 1 2 0 0 2 0 0 1 1 3 1 1 1 0 0 0 2 3 1 0 1 2 1 1 2 0 1 0 0 2 1 0 1 1 0 1 1 2 0 0 0 0 0 0 0 1 0 0 2 0 1 2 2 1 1 1 1 1 0 3 1 1 1 1 0 1 2 0 2 0 0 2 1 3 1 1 2 1 1 2 1 1 0 0 0 1 1 2 1 2 2 0 3 0 0 1 1 1 0 1 2 1 0 1 2 2 0 0 0 0 0 1 2 1 0 0 1 1 1 2 1 2 2 2 0 1 1 0 1 0 2 1 1 0 0 0 1 1 0 1 0 1 0 0 1 2 1 0 1 0 2 0 1 2 1 0 1 2 1 1 1 0 1 1 1 1 0 1 1 0 2 1 2 0 0 0 1 0 1 1 1 0 2 0 1 1 1 1 0 1 1 2 0 0 0 2 1 1 1 1 1 1 1 3 2 2 3 0 3 0 0 1 1 2 2 1 1 0 1 1 1 0 0 1 0 1 1 1 0 1 1 1 1 0 1 1 0 2 1 0 2 0 0 1 0 1 2 1 0 1 1 3 4 1 1 1 0 2 1 1 0 3 0 1 1 1 0 0 3 1 2 2 2 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 0 2 0 3 1 1 1 2 1 1 0 1 0 1 0 1 1 0 0 0 1 1 3 0 0 1 0 1 0 1 1 1 2 1 3 0 1 1 1 0 2 0 0 3 1 1 2 3 0 2 1 1 0 2 3 2 1 1 0 1 1 1 1 1 2 0 0 0 1 1 0 1 2 1 1 0 0 2 2 0 3 0 0 1 1 1 1 1 1 1 1 0 0 1 0 2 0 2 1 2 0 1 2 1 0 1 0 1 0 0 4 2 0 0 2 1 0 0 1 0 3 0 3 0 1 1 1 0 2 1 1 2 1 1 1 0 1 2 2 0 3 0 1 1 2 1 1 2 0 0 2 1 1 3 0 0 0 0 1 1 2 1 2 1 1 0 0 1 0 2 1 1 1 1 0 2 1 2 1 2 2 1 2 0 2 1 1 1 0 0 1 0 2 1 2 1 1 1 0 0 2 1 0 1 0 0 1 1 1 0 1 1 1 0 2 1 0 1 1 0 1 2 0 1 0 1 2 2 1 0 3 4 0 1 2 0 1 1 0 0 3 0 2 0 0 2 0 2 1 0 2 2 1 0 2 0 1 0 1 1 3 2 0 2 3 2 1 1 0 1 1 0 1 1 0 3 1 0 1 1 3 0 2 1 1 0 0 1 1 3 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 1 1 2 1 0 0 1 2 2 1 1 3 0 1 1 0 1 1 0 2 1 0 1 1 0 2 1 0 0 0 1 2 1 2 2 2 0 1 0 1 0 1 1 0 0 2 0 1 2 0 0 1 1 1 1 2 1 1 0 1 0 1 1 1 0 1 1 1 1 4 1 2 1 0 1 1 0 1 1 2 1 1 0 1 1 2 0 0 1 0 1 1 1 0 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 2 1 1 0 0 2 1 1 1 2 1 2 2 0 0 2 3 2 0 1 1 1 1 1 2 0 0 1 1 0 0 0 1 0 1 2 1 1 0 1 1 1 1 1 1 0 2 0 0 0 1 1 2 1 0 2 1 0 2 1 1 3 1 0 1 0 2 1 1 1 0 1 2 1 0 1 0 1 1 1 1 2 0 0 0 1 1 0 2 1 2 1 1 2 1 1 1 0 1 1 0 1 4 2 0 2 2 2 0 1 3 0 0 1 0 1 0 1 2 3 0 0 1 1 2 1 1 1 0 1 2 0 1 1 1 1 3 0 0 0 0 1 1 0 0 0 2 1 1 1 0 1 1 1 1 2 2 1 0 0 1 1 0 1 2 1 1 1 0 1 0 1 0 2 0 1 0 0 1 2 0 1 2 2 0 2 1 0 0 1 1 2 1 2 3 0 1 0 2 2 0 1 0 1 0 1 0 1 1 1 1 0 1 1 1 0 0 3 0 0 1 2 1 1 0 0 0 1 1 0 2 1 0 1 1 0 1 1 1 1 0 0 1 1 2 2 2 1 0 2 0 2 0 0 1 1 0 2 1 0 1 2 1 0 1 2 1 2 0 0 1 1 0 0 2 1 0 1 2 1 1 4 2 2 0 0 1 1 1 1 0 2 1 0 1 1 1 0 0 1 1 1 0 0 2 0 1 2 0 1 2 0 1 1 1 1 2 1 0 1 1 1 0 1 2 0 1 0 0 1 2 0 0 0 3 1 0 2 1 1 0 0 1 3 0 1 1 1 2 2 1 2 2 1 1 2 1 1 1 0 0 1 1 0 1 1 1 1 1 2 0 0 1 2 0 1 2 0 0 1 0 0 0 1 1 1 1 1 1 2 0 0 1 1 0 0 0 1 1 1 1 2 1 2 1 1 2 2 0 0 1 0 1 1 0 1 0 1 1 2 1 2 0 0 1 0 1 1 1 0 2 0 2 1 1 3 1 1 2 1 0 1 3 0 1 1 0 0 2 0 1 0 2 0 1 0 1 2 1 1 1 2 1 2 2 1 1 2 1 0 0 0 4 1 1 1 1 0 1 1 0 1 1 1 2 1 0 1 1 2 1 0 1 1 0 1 0 1 1 1 0 0 2 1 1 0 1 0 1 0 1 0 2 2 0 0 0 1 1 2 0 0 0 0 1 1 1 1 0 0 2 1 1 0 0 1 1 1 1 1 0 0 1 1 0 1 2 2 0 1 1 0 2 0 0 0 1 1 0 3 2 1 1 0 1 0 2 0 2 1 2 0 1 2 1 1 4 2 1 0 1 0 3 1 1 0 1 0 1 2 1 1 2 0 0 1 0 2 1 2 0 1 0 1 0 1 1 1 3 0 1 1 1 2 1 2 2 0 1 2 0 1 1 2 0 1 0 3 1 0 0 0 1 1 0 1 0 1 0 0 2 1 1 2 1 0 1 0 0 2 2 2 1 3 0 2 1 1 2 1 3 1 1 1 3 1 1 1 1 0 2 2 1 2 0 2 2 0 1 2 1 0 0 2 0 3 0 2 1 1 1 0 1 2 3 0 0 0 0 2 0 2 2 1 0 0 1 0 1 3 1 2 0 0 0 3 2 0 0 2 3 3 2 1 0 1 1 0 1 0 4 2 1 1 0 1 0 0 0 1 1 1 0 0 0 1 2 3 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 0 2 2 0 1 0 1 0 1 1 0 1 1 2 0 1 0 1 1 1 1 0 3 2 2 0 2 0 1 1 2 0 1 1 2 1 1 3 0 1 0 1 1 3 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 2 0 1 2 1 2 2 1 0 1 1 2 1 1 0 2 0 2 1 2 0 2 1 2 1 2 0 0 2 1 0 0 1 3 2 0 1 2 1 4 1 2 3 0 0 0 0 0 1 0 1 0 3 3 1 1 0 1 1 1 0 1 1 0 0 2 2 2 0 0 0 1 0 2 3 0 1 0 1 1 1 1 2 0 0 1 1 0 2 1 0 2 0 1 0 1 0 1 1 1 1 1 2 2 0 1 3 1 0 1 0 0 0 0 0 0 1 1 2 3 0 0 1 1 1 1 0 0 3 2 1 2 0 1 2 0 0 1 1 1 0 0 3 0 1 1 1 1 1 2 1 0 2 2 2 0 0 2 1 0 1 0 1 1 0 0 0 1 1 1 1 1 0 2 1 0 3 1 1 0 0 1 1 0 0 3 0 1 0 0 1 1 2 1 0 0 1 1 0 1 2 1 1 0 0 2 1 1 1 2 0 0 0 2 2 0 0 1 0 2 0 2 2 1 0 1 1 1 0 0 0 2 0 1 3 1 1 2 0 0 1 1 0 2 1 2 2 0 1 2 0 1 2 1 1 1 0 0 0 0 2 2 0 1 0 0 0 1 1 1 1 0 0 0 2 0 1 0 1 1 2 1 1 2 1 1 0 0 2 2 2 2 1 0 1 0 1 0 0 1 1 1 0 0 1 1 0 0 2 1 1 2 1 1 2 1 1 1 0 0 0 0 1 3 4 1 0 1 0 4 2 1 1 2 1 3 1 1 1 1 2 0 1 1 1 0 2 1 2 0 1 1 1 1 0 3 1 2 2 1 0 1 2 0 1 2 1 2 0 2 0 2 0 0 1 1 2 1 1 1 0 0 0 3 0 1 1 1 0 0 1 0 1 0 1 2 1 1 0 1 1 0 0 2 1 0 2 1 2 0 1 0 1 0 1 2 1 0 1 1 1 0 2 2 0 0 1 1 1 1 1 0 0 0 2 0 0 1 1 1 0 0 1 1 0 1 1 0 1 1 2 0 1 0 1 0 2 2 0 1 0 0 1 0 1 2 0 1 2 0 1 0 2 0 0 1 3 0 1 1 1 1 2 2 2 0 1 1 0 2 1 0 0 0 0 2 2 0 0 0 2 2 0 1 0 0 0 1 1 0 0 1 2 0 1 0 1 1 0 0 1 2 2 0 1 0 0 0 0 0 2 0 1 1 2 4 1 2 0 3 2 1 2 0 1 0 1 1 0 0 3 1 1 1 2 0 2 0 3 2 0 1 2 1 1 0 1 1 0 0 2 1 0 0 3 1 3 1 1 1 0 3 0 2 1 1 1 1 0 1 0 1 2 0 1 1 0 2 1 0 1 0 0 1 1 1 1 1 1 0 1 2 0 0 3 0 1 1 3 1 0 1 0 2 0 0 0 1 0 2 0 0 0 2 1 2 0 2 0 1 1 1 0 1 2 1 2 0 1 2 0 1 1 0 0 1 1 1 0 0 1 1 1 1 0 1 2 1 0 1 1 1 2 1 1 0 1 1 0 2 1 4 1 2 0 2 2 0 0 1 2 1 0 0 1 0 1 0 1 1 3 0 0 1 1 1 1 3 2 1 2 0 0 1 0 2 0 3 0 1 1 1 2 2 2 2 1 0 1 4 2 0 0 0 0 2 1 1 0 2 2 1 2 0 1 1 1 0 2 1 2 2 0 1 2 2 0 0 1 2 0 0 1 1 1 0 1 3 3 0 1 0 1 1 2 2 1 1 1 0 2 3 1 1 1 1 0 0 2 1 1 0 0 1 1 2 1 0 1 0 0 1 1 1 2 1 0 0 2 0 1 0 2 4 1 0 1 0 1 2 1 0 2 0 1 3 2 2 2 0 0 1 1 0 0 1 2 0 2 1 0 1 2 1 0 1 0 1 1 1 1 0 1 0 1 1 1 1 2 0 0 1 1 0 1 0 2 2 2 1 1 0 1 1 2 1 2 1 1 2 2 2 0 2 0 1 1 1 2 0 0 1 1 0 1 1 3 1 0 4 1 0 1 1 2 0 1 1 3 0 1 1 2 2 1 2 1 1 2 0 1 2 0 1 0 1 0 0 1 1 1 1 0 0 1 1 0 0 0 1 0 1 0 0 1 2 0 2 1 0 1 0 1 0 0 1 2 0 1 0 1 0 1 0 2 0 1 0 0 0 0 4 0 0 1 2 2 1 0 2 2 0 0 0 0 2 1 1 1 1 1 0 0 2 0 0 1 1 0 1 0 1 1 2 0 0 2 0 2 0 1 2 0 2 1 0 0 3 1 1 1 2 0 2 2 1 0 1 2 3 0 2 0 1 1 0 0 1 1 2 1 1 1 1 1 3 0 1 0 1 0 1 1 0 0 0 0 1 1 3 1 0 1 2 2 0 1 2 0 0 1 1 2 0 0 3 1 0 1 0 1 3 1 2 1 1 0 1 1 0 2 1 0 2 1 1 2 2 2 0 0 3 1 1 1 0 1 0 3 2 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 2 0 1 1 0 1 1 1 1 1 2 0 3 1 1 0 1 1 0 1 0 1 0 1 1 1 1 0 0 0 2 0 2 1 1 0 0 0 1 0 1 1 0 0 0 1 0 1 2 1 1 1 1 0 2 2 1 1 2 1 1 0 1 0 1 2 2 0 1 1 2 1 2 0 2 0 1 1 1 0 0 0 0 1 0 0 0 1 0 2 2 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 0 2 2 1 0 0 1 0 0 0 0 1 1 1 2 2 0 0 1 1 2 0 1 1 1 1 0 1 0 0 1 1 2 1 1 2 3 2 1 1 2 1 0 1 0 0 1 1 1 3 0 1 1 0 1 0 1 0 1 3 0 1 1 1 0 0 1 1 1 1 2 2 3 1 1 0 0 1 2 1 0 2 2 2 0 0 0 1 1 0 1 1 1 2 2 1 1 1 0 3 0 1 1 0 0 1 1 0 0 1 0 1 1 0 1 0 0 2 2 1 1 1 2 2 2 0 0 0 0 0 2 1 3 2 2 1 0 0 0 3 1 1 2 0 0 1 2 0 0 2 1 0 1 1 1 0 0 2 1 2 2 2 1 0 0 2 0 1 1 0 4 1 1 1 2 0 1 1 0 2 2 0 0 1 1 0 1 0 1 0 2 1 3 1 1 0 1 1 0 2 0 3 0 0 1 0 1 2 1 2 0 1 0 1 1 2 1 2 1 2 0 2 1 2 1 2 1 1 0 2 2 0 1 2 1 0 0 2 2 0 0 0 0 1 2 1 0 1 0 2 0 1 2 0 2 1 0 0 1 1 1 1 1 0 0 0 1 0 0 3 0 1 0 0 1 2 0 0 2 2 1 2 1 1 2 1 1 2 1 0 1 2 1 1 1 1 0 1 0 0 1 2 2 1 1 0 2 2 1 3 0 0 1 2 2 0 0 1 0 0 2 1 2 1 1 1 0 1 0 0 1 0 1 1 0 1 1 1 3 1 0 1 0 0 1 1 0 0 0 0 0 1 1 1 2 0 1 2 1 1 1 0 1 2 1 1 0 1 2 1 2 2 1 1 0 1 1 1 0 2 1 0 0 0 0 2 0 3 0 1 1 2 2 1 1 0 1 0 2 2 1 3 1 0 2 1 2 0 1 4 2 0 0 0 0 0 1 1 0 2 0 1 1 1 2 1 1 0 2 0 2 2 1 0 1 0 1 0 1 2 1 1 1 2 2 0 1 1 0 1 0 0 1 1 1 0 1 3 2 0 1 0 0 1 0 1 0 2 1 1 3 2 1 1 0 0 1 0 0 1 2 0 2 1 0 1 2 1 0 1 1 1 0 2 1 1 1 1 0 1 1 1 1 0 2 1 1 0 1 2 0 1 2 1 0 1 0 1 3 1 1 0 1 0 1 1 1 0 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 1 1 1 2 1 0 1 1 2 1 0 0 2 1 1 1 1 1 0 0 1 0 1 1 2 2 2 0 1 0 0 1 0 3 0 1 0 2 0 0 1 0 1 1 0 1 1 2 1 1 1 0 2 2 1 0 1 1 3 1 1 0 0 0 1 0 0 1 0 0 1 0 2 3 1 1 2 1 0 0 0 0 0 0 1 2 0 1 0 1 0 0 2 1 0 1 0 1 0 1 0 0 3 0 0 0 2 1 2 1 1 1 1 0 1 0 1 3 2 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 2 0 0 0 1 0 0 0 0 2 1 0 1 2 0 1 0 1 2 0 1 1 0 2 0 1 1 1 1 2 2 0 2 0 3 2 2 2 1 1 2 2 0 0 0 0 1 2 1 0 0 2 1 2 0 1 0 1 1 2 0 1 1 2 0 0 0 0 1 0 1 0 2 1 0 1 1 1 1 1 2 1 1 0 1 1 2 0 1 1 1 0 1 1 0 0 1 0 1 1 0 0 1 0 1 0 1 2 2 0 1 1 3 1 1 0 2 0 1 0 1 1 1 0 1 2 0 1 0 0 0 0 2 1 0 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 1 2 0 1 2 0 0 1 1 0 0 1 0 2 2 2 3 2 2 1 0 0 2 2 1 2 0 2 0 1 0 1 1 1 1 1 3 1 1 2 1 0 1 2 2 2 1 0 2 1 0 0 0 0 0 1 1 1 1 0 1 2 1 2 1 0 0 0 1 2 0 0 0 0 0 2 4 0 1 0 1 0 1 1 0 1 0 1 1 0 0 2 2 0 1 0 0 2 0 2 1 2 1 1 1 0 0 1 1 0 1 0 1 2 1 0 0 1 1 2 1 2 1 1 2 0 2 1 1 1 1 1 1 1 0 3 2 2 1 1 0 1 1 1 0 0 2 1 1 1 1 1 1 2 2 1 2 1 3 0 1 0 2 1 0 0 0 2 0 0 1 1 0 1 0 0 1 0 1 0 1 2 1 0 0 1 0 3 1 3 1 1 2 0 1 1 2 1 2 1 2 1 1 1 0 2 0 2 1 2 1 1 0 1 2 0 2 0 2 1 0 0 0 1 1 2 1 1 2 3 1 0 1 1 0 3 2 1 1 1 0 0 1 2 1 2 0 1 2 2 1 2 0 0 1 0 1 0 2 2 1 1 0 0 1 0 0 1 0 0 2 0 2 1 0 0 2 1 1 1 2 1 1 1 1 2 0 0 3 2 0 2 1 1 0 1 4 0 0 0 2 1 0 1 1 1 1 2 2 2 0 0 2 1 1 1 0 1 1 0 0 0 1 1 0 0 1 2 0 1 1 1 1 2 3 0 1 2 1 2 2 0 0 1 1 1 1 1 3 0 0 0 1 0 0 1 1 1 1 2 1 1 0 2 1 0 1 1 1 0 1 1 2 3 1 0 0 0 2 0 1 2 1 0 0 0 1 2 1 1 1 2 0 2 0 0 1 0 1 1 1 0 0 1 0 1 0 1 2 1 1 2 0 0 1 0 2 0 0 3 1 1 1 3 1 0 0 2 0 1 1 0 0 0 2 1 1 2 0 0 2 0 1 1 2 0 0 1 1 0 1 1 0 0 1 2 2 1 1 0 0 0 2 2 2 2 1 2 2 0 0 1 1 1 0 1 2 1 0 1 1 0 1 2 2 1 0 0 0 1 3 1 0 0 2 3 1 1 0 1 4 0 1 1 0 3 0 1 1 0 2 1 0 2 3 1 2 0 1 2 0 1 2 0 0 2 0 1 1 0 2 0 0 2 0 2 1 1 2 0 2 1 1 0 2 1 2 0 2 1 2 1 0 0 1 1 2 1 1 0 1 2 0 0 1 0 0 0 2 1 0 0 0 1 3 1 1 0 1 1 0 0 0 3 3 1 1 0 1 1 2 1 2 3 1 1 1 0 0 0 0 1 0 0 1 0 1 2 1 1 1 0 1 1 1 0 2 2 0 1 0 1 0 2 2 1 1 2 1 3 2 2 0 1 0 0 1 1 2 0 0 2 2 0 2 1 1 0 0 0 0 1 0 1 1 1 1 2 1 0 0 1 1 0 1 0 2 1 1 1 2 0 0 1 3 0 0 1 2 1 1 1 1 0 1 1 0 1 2 1 1 0 0 1 0 1 1 2 1 0 1 1 0 1 1 2 2 0 1 1 0 1 1 1 0 2 0 1 2 0 1 1 1 2 1 1 2 1 0 2 1 0 0 1 2 2 0 0 1 1 0 1 0 1 3 1 2 1 0 1 2 1 1 1 1 3 0 1 1 1 2 0 1 1 2 2 1 0 1 1 1 1 2 1 0 0 2 0 2 0 1 1 0 1 2 2 1 1 2 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 2 0 1 2 0 0 2 0 0 2 1 1 3 1 0 1 0 0 1 0 1 0 3 2 1 1 0 0 0 0 2 1 1 1 1 0 0 1 2 1 2 1 1 2 1 2 0 1 2 1 2 0 2 1 0 1 1 1 2 0 2 0 1 2 1 1 1 1 0 1 2 1 0 1 1 0 0 0 2 0 0 1 1 1 1 1 0 0 0 1 1 1 0 2 0 0 2 0 1 0 1 0 1 1 1 1 0 1 2 1 1 0 1 0 0 1 1 0 1 1 1 1 2 1 0 0 0 1 2 2 1 1 0 2 1 0 0 1 0 0 1 1 3 1 1 1 1 1 1 0 1 0 1 2 2 1 1 2 0 0 1 1 2 0 2 1 2 2 0 1 2 0 0 1 0 0 0 1 3 0 1 1 1 2 0 0 1 0 1 1 2 1 1 1 0 1 2 0 0 2 0 2 0 3 1 0 0 2 1 1 1 1 2 1 1 1 1 0 1 0 2 0 1 0 0 1 1 0 2 0 0 0 1 2 1 1 0 1 0 3 1 1 0 0 1 0 0 1 0 0 2 3 1 1 1 1 1 1 0 1 2 0 2 1 2 0 1 3 0 0 0 1 0 2 1 2 0 0 1 0 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 3 1 1 1 1 1 1 0 0 2 1 1 3 2 1 2 1 0 2 1 1 0 1 3 1 1 1 2 1 0 1 1 1 2 1 1 0 1 1 3 1 1 2 2 1 2 1 1 0 0 2 2 0 0 2 1 1 1 1 1 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 3 1 0 2 2 0 1 1 2 0 0 2 1 1 2 0 1 0 1 0 0 2 1 0 0 2 1 1 0 2 0 0 1 1 2 1 1 0 1 2 1 2 1 2 2 1 1 1 0 1 2 2 4 3 0 0 1 0 1 2 1 1 1 1 1 0 1 0 1 1 0 1 1 1 1 0 1 1 1 0 1 0 3 1 3 0 1 1 1 2 3 1 0 2 2 1 0 0 2 1 3 0 1 0 0 0 0 0 1 0 0 1 2 0 0 1 1 1 1 0 0 0 1 0 1 1 2 0 0 2 2 2 2 1 0 1 0 0 2 0 2 1 1 0 0 1 1 2 1 0 1 1 1 1 2 0 2 0 3 1 0 0 2 2 1 1 2 0 0 2 1 1 1 0 2 2 1 1 0 0 1 0 0 0 1 1 0 0 2 2 1 1 1 1 1 1 0 2 1 1 0 2 1 1 0 0 1 1 1 0 0 1 2 1 1 1 0 1 1 1 0 1 0 1 1 0 3 1 0 1 0 1 1 0 0 1 1 0 1 0 2 1 1 1 2 0 2 0 0 2 1 0 1 1 0 2 2 2 1 1 1 2 0 4 1 2 0 1 1 0 2 0 0 1 1 1 1 1 0 2 0 0 0 3 1 0 1 0 1 1 1 0 1 0 2 0 0 1 0 0 2 0 1 1 2 1 1 2 1 0 3 1 1 0 1 4 1 0 2 1 0 2 0 2 1 0 1 1 1 2 2 1 1 2 0 0 1 0 1 0 0 1 1 2 0 1 1 1 0 1 0 0 1 3 0 0 1 0 0 0 0 1 0 2 3 1 1 1 0 0 1 0 0 1 2 1 2 0 1 0 1 2 0 1 1 1 1 0 0 1 1 1 1 0 0 0 0 1 1 1 1 1 0 2 1 1 0 0 1 0 0 2 2 1 2 1 2 1 0 2 1 1 1 1 1 0 0 1 1 0 2 1 1 0 0 1 0 0 1 0 1 1 0 1 2 0 2 2 0 0 0 0 2 0 0 2 1 1 1 0 3 1 1 1 1 1 2 1 0 0 1 2 1 1 1 0 1 1 2 0 1 0 1 1 1 4 0 1 1 0 0 1 0 2 1 0 2 0 0 1 1 0 0 2 0 2 0 2 0 1 1 2 0 0 2 1 0 1 1 1 1 2 0 2 2 1 0 0 0 0 2 0 0 2 2 0 0 2 0 1 1 0 2 0 1 0 1 1 2 1 2 2 2 0 2 0 0 1 0 0 2 1 0 2 0 0 2 2 0 2 1 2 0 0 0 0 1 1 3 0 2 1 0 1 1 0 0 1 2 0 1 1 2 0 1 0 3 3 1 2 1 1 1 2 0 0 0 0 3 0 1 0 1 2 3 0 1 1 0 1 2 0 1 1 2 1 2 3 1 0 1 1 0 3 1 1 1 2 1 0 0 3 2 0 0 1 0 1 2 0 0 0 1 1 1 1 2 1 1 0 1 1 1 0 1 1 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 0 1 2 0 1 0 0 1 1 1 0 0 2 1 0 1 1 1 1 2 1 0 1 0 0 1 2 3 1 2 2 1 0 1 2 2 1 2 1 1 1 1 1 1 0 1 1 2 3 2 3 2 2 0 2 2 1 2 0 1 0 1 0 0 1 2 0 0 2 1 1 0 1 0 2 2 0 0 3 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 1 1 0 0 1 2 1 1 1 2 1 0 1 2 0 1 2 1 1 0 2 0 0 0 1 1 1 0 0 0 0 1 2 0 1 2 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 2 1 0 1 2 1 0 2 1 0 0 2 1 1 1 2 2 2 2 2 2 1 0 0 0 0 0 1 1 1 2 1 1 0 1 0 0 0 0 0 2 1 2 1 3 0 1 0 1 1 1 1 0 2 1 1 1 0 0 2 0 0 1 2 1 1 1 0 1 0 0 0 1 1 1 1 0 1 0 0 1 1 2 3 0 1 1 1 2 0 1 1 1 3 1 0 1 2 3 1 0 1 0 0 1 1 1 0 1 0 1 0 1 2 1 1 2 1 1 2 0 0 0 2 1 0 0 0 2 3 1 0 2 0 1 0 1 0 2 1 1 1 1 0 0 1 1 0 2 2 0 0 1 1 1 1 0 2 1 1 1 0 1 1 1 2 0 1 0 1 0 1 0 1 1 0 1 0 0 0 2 2 1 1 1 1 0 2 0 1 3 1 2 0 1 0 0 1 0 1 1 0 3 2 1 3 0 4 0 0 3 1 0 0 2 0 0 1 1 1 0 1 0 2 2 1 0 0 0 2 1 1 2 1 1 0 2 1 1 1 0 2 1 0 0 1 1 2 1 1 1 2 0 0 0 2 2 0 1 0 2 1 1 0 1 1 2 0 2 3 1 2 1 0 1 0 2 1 0 1 1 1 0 0 3 3 2 1 1 2 0 1 1 1 1 1 1 1 0 1 1 1 1 0 2 2 2 0 1 1 1 2 0 1 2 0 2 0 0 0 1 2 0 0 0 2 1 3 1 1 1 1 0 1 1 2 2 1 1 2 0 2 1 1 2 1 0 0 0 0 1 1 1 0 1 1 0 1 1 3 1 2 1 3 0 1 0 0 0 2 0 0 0 1 0 0 2 2 2 1 0 2 1 1 0 2 1 1 2 2 0 0 1 1 2 0 1 2 0 0 0 1 2 0 0 0 2 2 2 2 0 2 2 1 0 0 1 1 0 3 0 2 0 2 2 1 0 1 0 0 1 1 2 1 1 0 1 2 0 0 2 0 0 0 2 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 0 0 1 1 0 1 1 2 0 1 0 2 1 1 0 0 1 2 1 2 2 0 0 1 2 2 0 1 1 0 1 1 1 0 0 0 2 1 0 0 1 0 2 0 1 1 0 2 1 1 0 2 1 1 1 2 1 2 0 0 0 1 1 0 1 0 1 0 1 2 1 2 1 1 1 1 2 2 0 1 1 0 0 0 1 1 0 2 0 3 1 1 0 0 0 0 1 1 0 1 2 0 0 0 1 1 1 0 1 3 2 2 0 0 0 1 0 0 1 0 2 0 2 1 0 1 1 1 0 1 1 2 1 1 0 0 0 2 1 1 0 1 2 0 1 2 1 1 1 0 0 2 1 0 1 2 0 1 0 2 1 2 0 0 2 2 1 1 0 1 1 1 3 1 0 1 3 1 1 1 0 1 1 1 0 1 0 1 1 0 0 1 2 2 1 1 0 0 1 2 1 1 1 0 3 0 2 2 1 1 0 1 0 1 0 1 1 1 0 1 0 1 0 3 2 1 0 0 1 1 1 0 2 1 1 1 2 0 1 0 1 2 1 0 1 1 1 1 0 0 1 2 2 2 1 0 3 1 1 0 2 1 1 0 2 0 1 1 2 0 1 0 2 1 2 1 1 0 0 2 1 1 1 0 1 0 1 0 1 2 2 0 0 1 2 2 2 2 1 0 2 1 1 1 0 0 0 0 1 1 0 1 1 1 0 1 0 1 1 0 2 1 3 1 0 0 0 0 1 0 0 2 0 2 1 1 2 0 0 3 1 0 1 1 1 2 1 0 0 0 1 1 0 1 0 0 1 1 3 2 1 2 0 0 0 1 4 1 1 0 0 2 2 2 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 2 0 1 1 1 0 2 0 3 2 0 0 0 2 2 1 0 1 2 0 1 2 1 1 1 0 0 2 0 1 2 2 1 0 2 1 0 0 2 1 0 1 1 0 2 2 1 1 0 0 0 1 1 2 1 0 1 0 2 1 1 1 0 1 2 2 1 2 2 1 1 0 0 0 1 0 0 0 1 1 2 0 2 1 0 1 1 1 2 1 2 2 3 2 1 0 1 1 1 1 1 1 0 0 2 2 2 2 4 0 2 2 1 1 0 0 1 2 0 1 0 2 3 1 0 0 0 0 2 3 1 2 0 1 0 0 1 0 0 1 1 1 1 0 2 0 1 0 1 0 0 2 1 1 1 2 0 0 0 0 1 0 2 0 2 0 1 0 1 1 0 2 1 0 1 2 1 1 1 1 1 1 2 0 0 0 1 1 0 0 1 2 1 1 0 2 1 2 1 0 1 0 1 0 1 1 1 0 1 1 1 0 0 1 0 0 2 0 1 2 1 2 1 1 0 0 0 0 1 1 0 2 1 0 0 4 1 2 3 1 0 2 0 0 0 1 1 1 3 2 0 2 1 1 2 0 1 0 4 1 2 1 1 0 1 0 1 0 1 1 1 1 1 0 1 1 0 1 0 1 0 1 1 1 1 2 0 2 0 1 0 0 0 0 2 0 0 1 1 1 0 3 0 1 1 1 2 1 0 1 0 1 2 1 1 1 1 0 0 2 3 2 1 3 2 0 1 0 2 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 2 1 1 1 1 1 3 1 0 1 0 2 1 1 0 2 0 2 0 1 0 0 1 0 1 1 1 2 0 1 0 1 1 2 2 2 2 1 1 1 2 0 0 2 1 0 2 3 0 1 0 1 2 0 0 2 2 0 2 0 1 0 0 2 0 1 0 0 2 0 1 2 2 0 1 1 0 2 1 2 2 0 0 0 2 1 2 0 1 2 3 1 1 0 2 1 2 1 1 2 1 2 1 1 3 1 2 2 1 0 1 1 2 2 1 0 1 1 1 0 0 2 0 1 1 1 0 0 0 1 0 0 0 1 0 2 2 0 1 2 2 1 2 3 0 0 2 1 0 0 0 1 1 0 2 3 1 1 1 1 1 0 0 1 2 0 1 1 2 1 2 0 1 0 1 0 1 0 1 1 1 1 0 2 2 1 0 3 0 2 1 1 3 1 2 0 2 0 0 0 3 2 0 1 0 2 3 1 1 3 0 1 0 2 1 1 1 2 2 3 2 1 3 0 1 0 1 0 2 0 1 1 1 0 1 0 0 0 3 2 1 1 3 2 1 0 3 2 1 1 0 0 1 1 2 1 0 3 2 0 2 0 0 0 1 0 2 0 0 2 0 2 1 2 1 1 3 1 1 3 1 2 1 3 0 2 0 2 0 2 1 0 4 0 2 1 0 1 2 0 0 1 1 2 1 0 1 1 2 1 0 0 2 0 0 1 1 1 1 0 1 2 0 3 1 0 0 2 0 1 1 2 2 0 3 1 1 0 1 1 0 1 1 0 1 0 0 0 2 2 2 0 0 1 0 0 0 1 0 1 2 1 1 1 1 2 1 2 2 3 0 0 0 0 0 1 2 0 0 1 0 1 1 0 1 0 1 1 0 2 2 1 0 0 1 1 0 1 0 1 0 0 1 0 2 2 1 0 0 1 3 3 1 0 1 1 0 1 2 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0 3 2 0 2 1 1 1 2 0 3 1 2 0 0 1 2 1 1 2 1 1 0 0 0 2 0 0 2 0 3 1 3 1 1 1 1 1 1 1 0 1 1 0 0 2 1 0 0 1 0 2 1 2 0 0 0 0 1 1 1 2 2 2 2 1 1 2 0 0 1 2 2 0 0 1 2 2 2 1 0 1 1 1 1 2 1 0 1 1 1 0 2 0 0 4 1 0 1 1 0 0 2 0 2 0 1 2 0 0 1 1 1 0 1 1 0 0 0 1 1 1 1 1 0 0 0 1 1 1 0 0 2 1 1 1 1 0 2 1 1 0 1 1 1 1 2 0 2 0 0 1 2 0 0 0 0 0 0 1 1 0 1 0 1 1 2 0 1 1 0 0 0 0 1 0 0 1 0 3 2 1 1 1 1 0 0 2 0 0 0 2 0 1 1 0 1 0 1 0 0 1 3 1 1 1 1 1 2 1 0 1 1 2 2 0 1 0 1 1 0 0 0 1 3 3 2 2 1 0 2 2 1 1 1 1 1 0 0 1 1 3 2 1 1 0 2 1 0 0 1 1 2 1 2 1 1 1 3 0 1 2 0 1 2 0 2 1 1 0 1 0 1 1 0 2 2 0 1 1 1 1 1 0 1 3 2 1 0 0 1 2 1 2 1 1 0 0 2 2 0 3 1 1 0 2 0 2 0 0 0 1 1 1 2 1 2 2 2 1 0 1 1 0 1 0 0 1 2 1 0 0 2 1 2 1 0 1 1 2 1 2 1 3 0 1 1 1 2 0 2 1 1 0 1 0 0 1 1 0 1 4 1 1 1 1 1 2 2 0 1 0 2 2 2 2 2 1 1 2 1 2 1 0 1 2 0 2 0 3 0 0 2 0 0 1 0 1 1 2 0 1 1 0 1 2 1 0 0 1 1 2 1 1 2 0 2 0 2 0 0 2 2 1 1 0 1 2 1 1 1 1 1 0 0 1 1 2 1 1 0 1 0 2 1 1 1 2 1 2 0 2 1 0 2 0 1 1 2 3 0 1 0 0 0 0 1 2 0 1 0 0 0 2 2 1 0 0 1 1 2 1 2 2 0 0 1 1 0 0 1 2 0 1 1 2 0 2 1 0 1 1 0 2 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 0 0 1 1 2 1 2 0 2 0 0 0 0 0 2 0 1 2 1 1 1 1 1 1 1 0 1 2 1 1 1 0 0 3 1 1 1 2 1 0 1 2 1 0 0 0 3 1 1 1 0 2 2 1 0 3 0 0 1 1 0 1 1 0 1 3 1 0 1 2 1 1 2 1 0 2 0 1 0 2 0 0 2 0 0 1 1 0 1 0 1 1 1 0 1 0 2 0 2 0 2 1 0 0 2 1 0 0 1 0 0 2 0 3 0 1 0 2 1 2 1 0 0 0 1 1 1 1 1 0 1 1 1 0 1 2 1 0 1 0 1 0 1 0 1 2 2 1 0 0 2 1 1 0 2 1</t>
+  </si>
+  <si>
+    <t>GAM(0.2248062078160018, -2.531355158656714e-28, 0.5678107943066982)</t>
+  </si>
+  <si>
+    <t>0 0 0 0 1 0 0 1 1 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 3 0 0 0 0 1 1 0 2 1 1 0 1 0 1 1 0 0 1 0 0 2 1 0 0 0 1 0 2 0 1 0 0 0 0 1 0 1 0 0 0 1 0 2 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 1 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 0 0 1 1 0 0 1 0 0 0 0 0 2 0 2 0 2 0 1 0 0 2 0 1 0 0 1 1 0 0 0 1 0 0 3 2 0 0 0 1 0 1 0 1 1 1 0 2 1 0 0 0 0 0 0 0 0 0 0 2 0 0 2 2 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 3 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 1 1 2 1 0 0 0 0 0 0 2 2 1 0 0 2 0 0 2 0 0 1 1 0 0 0 1 0 0 0 1 1 0 2 1 0 0 0 1 0 1 2 0 0 1 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 3 2 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 0 2 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 1 0 1 1 2 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 1 1 0 0 2 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 3 0 0 1 2 0 1 1 2 1 2 1 1 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 2 1 0 0 0 1 0 0 0 0 3 3 0 0 0 0 0 0 1 4 1 1 0 1 2 0 0 0 0 0 0 2 3 1 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 1 1 1 1 1 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 1 0 0 0 1 0 2 0 1 1 0 2 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 1 0 0 1 1 1 2 1 0 1 1 0 0 0 0 1 0 0 0 0 3 0 0 0 0 1 0 1 0 0 1 2 1 1 0 0 0 0 2 0 0 1 1 0 0 0 1 1 1 0 0 2 1 1 0 0 0 0 0 2 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 3 1 2 0 0 0 0 1 0 0 0 0 1 1 2 0 0 0 1 0 1 0 0 2 1 0 1 1 1 1 1 1 0 1 2 2 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 1 2 0 0 0 1 2 0 1 0 0 1 1 1 0 1 0 1 0 0 2 2 0 1 0 1 1 0 0 3 2 0 1 1 2 1 0 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 1 3 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 2 0 0 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0 1 0 2 0 2 0 0 0 1 0 0 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 3 0 1 2 0 0 0 0 1 0 1 0 0 1 0 0 2 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 2 0 0 2 0 0 0 0 1 0 0 1 2 1 0 1 1 2 2 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 1 0 1 0 1 0 2 0 2 3 1 2 1 0 1 1 2 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 2 0 0 0 1 1 0 2 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 1 1 1 0 0 3 1 0 0 2 1 0 0 0 1 0 0 2 1 1 1 0 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 1 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0 2 0 0 0 0 0 1 0 2 1 1 0 0 0 1 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 2 1 0 0 0 0 0 0 0 2 0 1 1 1 0 0 0 3 0 1 2 0 0 1 1 0 0 1 1 0 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 2 1 0 3 1 3 1 1 0 0 0 0 0 0 0 0 2 1 0 1 1 2 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 2 0 0 0 0 1 0 1 2 0 0 0 0 1 1 1 0 1 0 0 0 1 0 3 0 1 0 0 1 0 1 1 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 3 0 0 1 1 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 3 2 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 2 1 1 2 0 0 0 0 1 0 0 0 1 3 0 2 1 0 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 3 0 0 0 2 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 2 0 1 1 0 0 2 0 0 3 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 2 0 1 0 0 0 0 3 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 2 1 0 1 0 2 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 3 0 0 1 1 0 1 1 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 1 0 0 1 3 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 2 1 0 1 0 1 2 0 1 0 0 0 1 0 0 2 0 0 1 0 1 0 0 0 1 0 2 1 0 1 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 2 3 3 2 0 1 1 1 0 2 0 2 0 1 1 0 1 1 1 1 2 0 2 0 0 1 2 0 0 2 0 0 0 0 2 1 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 3 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 2 0 0 0 1 0 0 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 3 0 0 1 1 0 1 0 0 2 0 1 1 0 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 2 0 2 1 2 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 3 1 1 1 0 1 1 1 0 1 1 0 1 1 1 1 0 0 2 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 2 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 3 2 2 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 1 1 1 0 0 0 0 2 2 0 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 1 1 0 1 1 2 0 0 0 0 0 0 2 0 0 2 0 2 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 2 0 1 0 0 0 0 1 2 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 1 0 0 0 1 2 1 1 0 1 0 2 1 0 0 0 2 0 0 1 0 1 0 2 0 1 1 2 0 0 0 1 1 1 1 0 0 1 0 1 1 1 2 0 1 0 0 0 0 0 0 1 1 0 1 0 2 1 0 1 1 1 1 1 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 1 0 2 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 2 0 1 0 1 1 0 0 1 1 0 3 1 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 2 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 2 1 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 4 0 0 0 0 0 0 1 3 2 1 1 0 0 1 0 1 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 2 1 1 1 1 0 0 0 0 4 1 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 2 0 1 0 0 0 0 1 1 2 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 2 0 0 1 0 0 0 2 2 1 1 1 0 1 1 1 1 0 0 1 1 1 0 0 1 0 1 1 0 2 1 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 2 0 0 1 2 2 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 4 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 2 2 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 2 2 0 0 0 0 1 0 0 0 0 0 2 0 0 2 0 1 0 0 4 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 2 1 0 1 1 2 1 0 0 0 0 0 0 0 0 2 0 1 0 0 3 0 1 0 1 1 0 1 0 1 2 0 1 1 0 1 0 0 0 0 1 0 0 2 1 1 1 1 0 0 1 0 0 2 0 0 1 0 0 0 0 1 1 2 1 0 0 0 1 0 0 0 1 0 0 4 1 1 2 1 0 0 1 0 0 0 1 2 0 0 0 2 0 0 0 1 1 1 1 1 0 0 0 0 3 0 2 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 1 1 1 2 0 1 1 0 0 1 0 2 0 0 0 1 0 2 0 1 1 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 2 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 0 2 0 0 0 0 0 1 0 1 1 1 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 2 1 0 1 0 2 0 0 0 0 0 0 0 0 2 0 0 1 1 1 0 0 1 0 2 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 3 1 1 0 0 0 0 0 0 0 0 0 1 2 1 0 0 1 0 0 0 0 1 0 1 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 2 1 3 0 1 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 2 0 1 0 0 1 0 0 2 2 0 0 1 1 0 1 0 0 0 1 1 0 1 1 2 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 2 1 2 0 2 1 1 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 2 1 1 0 1 1 1 0 0 0 1 1 0 1 0 1 1 2 0 0 0 0 0 0 2 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 3 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 1 5 1 2 1 0 0 1 0 2 0 0 0 0 0 1 1 0 0 1 0 2 1 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 1 0 1 2 1 0 0 1 0 0 0 0 2 0 1 0 2 1 0 0 1 0 0 0 1 0 1 0 1 2 0 0 1 0 0 0 0 0 1 0 2 0 1 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 2 0 1 1 2 0 1 0 1 0 0 0 0 0 0 0 0 3 2 0 2 0 2 2 0 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 2 1 1 0 1 0 0 2 2 1 0 0 0 2 1 1 0 0 1 0 0 2 0 2 1 1 1 0 0 1 0 0 0 0 2 0 0 1 1 0 0 0 1 0 1 2 4 1 0 1 3 0 1 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 0 1 1 2 0 0 0 0 0 2 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 2 0 0 1 0 0 0 1 0 0 1 1 0 2 0 1 0 0 2 0 0 2 0 0 0 1 3 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 2 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 1 1 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 1 0 1 0 2 1 0 1 1 1 0 1 0 1 0 0 1 0 1 1 0 0 0 1 1 2 0 1 0 0 3 0 0 3 0 2 0 0 1 0 0 0 0 2 0 2 1 0 1 0 1 0 0 2 0 0 0 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 1 1 0 1 1 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 1 2 0 0 0 0 1 0 1 0 0 0 1 0 2 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 1 0 0 0 1 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 1 0 0 0 1 1 0 1 3 0 1 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 1 0 0 0 2 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 1 0 2 0 0 0 1 1 0 1 0 2 1 0 0 2 2 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 2 0 2 1 1 1 0 1 0 0 0 0 1 2 1 1 1 1 2 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 2 1 3 0 0 0 1 1 0 1 0 2 0 0 0 1 0 0 0 2 2 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 0 0 2 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 2 0 0 1 1 0 1 0 2 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 3 0 1 1 0 0 0 1 0 0 0 0 0 2 0 0 1 1 2 1 0 1 0 2 0 0 0 1 0 0 1 2 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 2 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 2 0 0 1 2 1 1 1 0 0 0 1 1 0 0 1 0 1 2 0 0 0 1 0 0 0 0 1 0 0 0 1 2 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 1 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 2 1 0 1 0 1 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 2 1 0 2 1 1 0 2 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 1 1 0 1 1 1 1 1 0 0 1 0 2 0 0 1 2 0 1 1 1 1 0 0 0 0 2 1 1 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 4 2 0 0 0 0 1 0 0 1 2 1 0 0 0 0 0 1 0 1 1 2 0 1 1 1 0 0 1 1 2 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 1 0 2 0 1 0 0 0 0 1 0 2 0 0 2 2 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 2 1 3 0 2 0 0 0 0 0 1 1 2 2 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 1 0 0 1 1 0 1 1 0 1 0 0 0 2 1 1 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 1 1 0 0 3 0 0 1 1 4 1 1 1 0 1 0 0 1 0 1 0 0 1 0 1 0 2 0 0 0 1 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 2 0 0 0 1 0 0 0 0 1 1 0 2 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 3 0 1 1 0 1 1 0 0 2 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 2 0 1 0 1 0 0 1 0 1 0 2 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 0 0 0 2 2 0 0 0 3 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 1 1 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 2 1 0 0 2 0 0 0 2 0 1 1 0 0 0 1 0 1 0 1 2 0 0 1 0 0 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 2 1 0 1 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 1 1 0 1 0 2 1 0 0 2 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 0 0 2 0 0 2 1 2 1 0 1 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 2 0 0 1 1 1 0 1 0 0 1 0 1 0 1 0 0 2 0 0 2 0 1 0 0 0 0 0 0 3 0 0 0 0 1 3 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 1 1 2 0 0 0 1 0 1 1 0 0 2 1 0 0 2 0 1 0 1 0 1 3 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 1 0 1 0 3 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 1 1 1 1 0 0 0 0 2 0 0 0 1 3 2 0 0 1 0 2 0 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 1 1 0 1 0 0 0 0 1 2 0 0 0 0 0 1 0 1 1 1 1 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 2 1 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 2 0 1 0 2 0 1 0 0 0 0 0 0 0 0 3 1 0 0 1 0 0 1 2 0 0 1 1 2 0 1 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 2 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 1 1 1 1 3 0 1 0 0 0 1 0 0 2 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 1 2 0 0 1 0 0 0 1 1 1 2 0 0 1 1 0 0 0 0 1 2 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 1 2 1 0 0 0 1 0 0 0 2 0 1 0 0 0 2 2 0 0 0 1 0 1 0 0 1 1 0 3 1 2 0 0 1 0 1 0 1 0 0 2 1 0 1 0 1 0 1 3 0 0 0 0 0 1 0 1 0 0 1 1 1 0 1 1 0 0 1 0 0 1 2 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 2 0 0 0 2 0 1 1 0 2 2 0 0 0 1 0 1 1 0 1 1 0 2 2 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 2 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 2 0 1 0 0 0 0 1 1 1 0 1 0 0 1 1 0 1 2 0 0 0 0 0 0 0 1 1 0 1 1 0 3 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 2 2 2 1 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 2 0 0 1 0 1 0 2 0 0 0 1 0 0 0 0 1 3 0 0 3 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 2 0 1 0 2 0 0 0 1 1 0 0 1 1 3 1 1 0 0 3 0 0 1 0 0 0 2 2 1 1 0 0 0 0 0 1 0 1 0 1 1 0 2 0 0 0 1 0 1 0 0 1 0 0 0 1 0 2 1 0 1 0 0 1 1 0 0 3 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 2 1 2 0 0 0 0 2 1 0 0 1 2 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 1 2 0 0 0 1 2 0 1 1 0 0 0 0 1 0 1 1 0 0 0 2 0 0 1 1 0 1 0 0 1 0 0 0 1 3 0 1 0 0 1 0 1 1 1 3 1 1 1 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 2 1 0 0 1 1 1 0 0 1 0 2 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 2 0 0 1 1 0 1 0 1 0 0 1 2 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 3 0 0 1 0 0 1 1 1 1 1 0 1 3 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 2 0 1 0 0 0 0 0 1 1 1 0 2 1 0 0 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 1 1 0 0 0 1 1 0 0 0 3 0 1 0 0 0 0 1 1 0 0 0 2 1 1 0 1 0 1 0 0 1 0 1 0 0 1 3 0 1 0 1 1 0 1 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 1 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 1 2 0 0 0 0 1 0 1 2 1 1 0 3 0 1 0 0 2 2 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 0 2 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 2 0 0 0 2 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 2 0 0 1 2 0 0 1 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 1 2 0 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 1 1 2 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 1 0 1 2 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 3 0 1 0 1 0 2 1 0 0 0 0 0 1 0 0 2 0 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 1 1 0 0 1 0 0 0 2 2 2 3 0 1 1 1 1 1 0 1 2 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 2 2 0 1 0 1 0 0 1 1 0 1 0 2 1 1 0 2 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 2 0 2 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 2 0 0 0 1 1 1 1 0 0 0 0 2 1 1 2 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 2 1 0 0 0 0 0 2 1 1 1 0 2 1 2 0 1 0 1 1 0 3 3 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 2 0 0 0 1 0 1 2 0 0 0 1 0 1 0 2 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 2 2 0 0 2 0 1 3 0 0 0 0 1 1 0 2 0 1 0 1 0 1 0 0 0 2 0 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 4 0 1 1 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 2 0 1 0 2 0 0 1 0 1 2 1 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 1 0 0 2 1 0 1 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 1 2 1 0 2 1 0 1 0 1 0 1 1 0 2 1 0 0 0 2 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 2 0 1 0 0 1 0 1 0 1 1 0 1 0 2 0 1 0 1 1 1 0 0 0 0 0 1 2 1 0 0 1 1 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 1 1 1 3 0 1 1 0 1 0 1 1 1 0 0 0 0 0 1 2 0 0 1 0 0 2 0 2 0 1 1 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 2 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 1 1 0 0 0 0 1 0 1 0 2 1 0 0 3 1 0 1 2 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 3 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 2 0 1 0 2 0 0 0 1 0 1 0 1 1 0 1 1 0 1 1 1 0 0 0 1 0 1 1 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 1 1 0 0 1 0 1 0 1 1 1 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 2 2 0 0 0 1 0 1 0 1 0 0 0 1 1 1 0 3 0 0 1 2 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 2 0 1 0 0 0 0 1 2 0 1 1 0 0 1 1 0 0 3 0 0 3 1 1 0 1 2 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 1 3 1 0 0 0 0 0 0 0 1 1 0 3 1 1 2 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 1 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1 0 0 4 2 1 0 0 0 0 0 2 0 0 0 2 1 0 0 3 0 1 1 2 1 0 2 0 1 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 2 1 2 1 0 1 1 1 2 0 0 0 1 0 1 0 2 0 1 0 1 0 0 1 1 1 0 0 0 2 0 0 1 2 0 0 0 3 1 1 0 2 0 0 1 0 2 0 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 2 0 0 0 0 1 2 2 0 0 1 0 0 1 1 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 2 0 1 1 2 1 0 1 0 0 0 0 0 1 1 1 0 0 0 3 0 1 0 2 0 0 0 0 0 0 0 2 1 3 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 3 1 0 0 0 0 1 1 0 1 1 2 0 2 0 1 0 2 1 1 1 0 0 2 1 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 1 2 0 0 1 0 1 0 1 0 0 2 2 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 2 1 0 0 0 1 0 1 1 2 0 0 1 0 0 0 2 3 0 0 1 0 0 0 0 1 1 0 0 2 0 2 0 1 1 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 1 0 0 1 2 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 1 2 0 1 1 0 2 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 2 1 1 1 0 2 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 2 0 1 0 0 0 2 1 2 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 2 1 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 2 1 0 2 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 0 4 0 1 0 1 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 1 1 0 1 0 2 2 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 1 1 1 2 0 2 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 2 0 1 1 0 0 0 0 0 1 0 1 1 0 0 2 0 1 0 0 1 0 2 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 2 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 1 2 1 0 0 1 0 0 3 0 0 1 1 0 0 2 2 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 1 0 2 1 1 1 1 1 1 1 0 0 0 0 1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 2 2 1 0 1 0 0 0 0 2 0 0 1 2 0 1 0 0 0 0 1 0 0 0 1 0 2 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 1 1 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 2 0 1 2 1 1 3 0 2 0 0 1 1 0 1 0 0 2 1 0 2 2 1 1 0 1 0 0 2 0 0 2 1 0 1 0 0 0 1 0 0 0 0 0 0 3 1 0 1 0 1 2 0 1 2 2 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 1 0 0 1 1 1 0 0 2 0 0 0 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 3 1 0 1 0 2 0 0 1 0 0 0 1 1 0 0 0 1 0 0 2 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 2 0 0 0 1 0 1 0 1 1 0 0 2 0 2 2 0 0 1 0 0 0 1 0 2 0 1 2 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 2 3 0 0 1 0 2 0 3 1 0 2 0 1 2 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 1 0 0 0 1 0 1 0 1 0 1 2 0 2 0 0 0 1 2 0 0 2 3 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 2 1 1 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 2 2 0 0 0 1 0 1 2 0 0 0 2 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 1 1 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 2 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 1 1 2 0 0 0 0 0 0 0 0 0 0 2 1 0 0 2 0 0 0 1 1 0 1 0 0 1 0 2 0 1 1 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 2 1 0 1 1 1 1 0 0 0 2 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 1 0 0 0 0 2 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 2 1 1 2 0 1 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 4 0 2 1 1 0 0 0 0 0 0 0 0 0 4 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 2 0 0 0 1 1 1 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 2 1 0 1 0 0 2 0 0 0 1 0 1 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 1 1 2 0 1 0 0 2 0 0 1 0 0 0 1 2 1 0 0 3 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 0 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1</t>
+  </si>
+  <si>
+    <t>JSB(2.855773632312829, 2.918268728586553, -49.54996899560405, 458.38208939525674)</t>
+  </si>
+  <si>
+    <t>92 69 77 71 91 51 87 61 84 116 87 41 72 53 83 58 120 39 63 127 138 98 51 44 70 38 52 64 65 47 47 198 113 117 12 69 97 61 65 60 51 36 53 86 128 127 126 126 102 74 56 100 85 76 77 104 34 58 107 100 114 68 216 43 136 33 85 81 29 113 67 113 70 89 84 50 20 18 64 125 55 48 67 66 94 109 23 73 59 107 102 135 113 93 27 53 57 127 68 28 166 83 76 99 11 91 22 51 112 79 72 78 63 89 62 41 64 45 46 69 53 51 64 58 139 69 70 47 81 68 69 56 123 142 89 102 76 96 75 80 84 98 34 69 92 82 24 97 68 64 71 93 89 145 123 78 81 50 66 84 124 50 38 110 98 105 49 108 64 56 100 33 84 44 101 115 146 52 72 47 83 68 49 130 152 106 98 93 56 91 26 87 130 110 137 84 47 54 79 34 63 47 82 129 81 54 37 56 136 121 69 122 81 79 107 82 138 65 43 82 52 76 46 72 89 89 99 53 45 100 85 96 109 95 70 99 94 66 30 73 117 119 41 58 66 88 88 5 65 108 19 124 36 94 184 77 71 64 132 35 130 95 100 50 92 94 67 99 65 80 82 123 67 121 38 107 40 72 39 101 74 103 45 74 57 69 88 129 84 99 101 97 81 70 91 66 10 91 108 66 88 101 112 96 70 77 81 73 68 65 75 41 91 105 77 79 70 84 44 79 153 65 66 56 105 89 111 95 80 42 181 68 96 52 114 117 96 58 138 94 117 101 63 84 77 100 71 81 61 84 17 98 81 37 76 67 104 61 55 96 139 61 87 57 103 89 22 93 81 61 32 40 72 118 50 51 66 12 112 42 42 51 33 155 54 86 101 123 53 48 82 55 68 68 79 85 63 55 113 68 75 87 158 89 83 105 55 124 171 82 120 52 33 65 102 69 78 39 152 104 81 46 77 92 64 47 96 72 95 64 87 72 46 82 96 41 82 80 30 102 85 99 98 66 56 51 91 112 202 100 112 136 139 46 47 82 68 65 68 109 87 108 90 120 65 93 111 61 129 95 41 51 101 64 136 49 119 91 101 78 55 72 62 108 109 115 26 79 63 80 43 57 59 58 59 122 66 116 66 103 39 67 78 81 101 76 107 133 53 93 36 64 72 86 129 31 111 50 78 61 102 49 117 72 58 74 45 69 49 113 90 123 44 65 46 93 83 30 139 76 83 46 82 95 70 50 45 55 60 37 91 62 101 78 105 47 143 94 83 131 116 70 91 85 64 29 80 69 149 104 101 77 101 78 28 77 77 59 171 98 67 99 59 91 47 91 106 85 106 126 37 97 112 135 120 80 103 119 82 35 89 85 47 25 102 50 86 37 127 79 44 61 108 87 65 72 75 121 122 123 68 98 97 58 84 69 42 69 67 67 40 66 116 67 50 65 74 136 85 85 47 99 62 92 74 101 45 9 112 19 62 48 84 80 86 98 73 42 62 46 143 94 100 89 66 31 141 97 120 63 77 105 120 123 77 35 22 67 51 124 104 99 120 70 59 52 70 57 66 45 70 71 79 91 54 102 41 58 13 21 74 106 74 141 103 64 38 48 86 122 108 47 91 72 59 64 63 56 98 86 30 78 48 112 69 123 115 92 81 54 66 60 107 138 65 111 90 33 55 24 89 95 75 99 98 35 67 99 31 44 108 126 123 54 89 74 38 136 87 86 63 85 64 91 107 54 17 47 93 48 101 40 95 109 41 82 79 67 156 104 64 95 27 82 93 44 49 104 54 87 86 147 121 80 68 59 44 110 67 76 74 101 80 113 133 107 78 104 114 45 59 57 61 26 88 111 99 63 85 93 71 58 82 59 43 165 65 104 67 93 101 110 78 64 49 141 106 88 100 48 52 79 27 60 62 27 34 48 37 166 32 110 129 88 123 65 95 72 63 154 59 128 84 103 15 81 38 97 69 194 51 159 75 75 88 101 61 86 47 75 130 83 61 99 30 55 95 58 102 37 57 20 90 40 117 100 40 54 86 101 87 49 57 86 62 44 118 60 70 95 61 98 63 135 82 88 80 95 67 97 50 64 131 59 43 36 105 34 122 77 82 138 48 61 78 47 57 108 79 105 87 70 22 26 94 140 53 25 83 28 144 93 86 66 97 49 66 74 122 83 126 76 50 135 114 105 34 121 38 44 56 107 91 105 72 56 40 71 71 78 62 102 109 64 87 87 166 60 50 81 23 108 73 24 18 58 44 59 99 85 104 74 128 103 113 100 95 70 53 84 93 130 36 107 81 68 86 64 41 121 40 54 88 54 48 90 92 88 54 117 37 142 48 56 82 87 43 79 104 97 103 57 55 93 101 93 80 95 61 85 59 93 85 50 88 79 58 47 91 67 39 68 59 46 87 73 31 84 124 88 89 49 96 110 29 65 67 113 144 65 133 76 100 63 86 157 54 75 46 103 175 122 120 107 69 83 68 87 78 36 73 59 106 48 80 71 54 39 98 194 86 107 30 26 118 68 85 73 17 148 65 115 27 54 136 21 46 134 37 56 89 74 33 23 61 70 74 100 67 98 81 96 111 97 92 74 103 50 138 53 65 104 111 88 128 88 57 46 123 113 98 60 101 107 46 69 93 70 50 45 33 65 110 50 121 47 99 83 114 61 90 79 117 93 54 106 82 54 115 61 75 102 81 38 69 50 133 78 39 106 93 33 52 56 88 79 79 60 65 183 76 25 65 42 95 80 53 44 77 90 117 93 59 59 79 78 75 89 38 95 132 66 54 94 55 85 48 66 76 134 112 99 61 34 85 102 50 92 51 57 27 75 64 36 53 67 109 67 68 85 153 71 39 66 37 145 41 29 57 67 131 22 103 67 75 55 63 103 67 60 85 69 68 103 58 43 103 114 56 92 66 53 30 39 72 19 80 62 57 86 155 140 61 90 119 38 93 125 72 79 46 79 64 66 104 45 83 85 63 96 62 52 79 64 71 123 79 100 132 100 69 75 57 109 112 51 92 88 31 89 84 162 97 38 18 84 74 46 62 152 95 57 115 41 116 54 91 101 130 164 122 96 39 117 150 50 64 35 69 49 98 66 80 51 36 77 110 127 68 49 46 54 89 89 85 113 25 65 107 54 49 88 83 131 138 144 69 94 25 73 68 97 54 47 43 76 130 82 93 42 54 59 74 81 65 50 114 27 75 96 64 72 95 59 69 96 53 140 50 42 41 128 72 81 87 78 65 73 63 58 66 76 87 75 116 116 65 42 69 43 64 147 76 136 67 54 60 126 51 60 33 128 78 80 111 104 42 85 25 57 111 36 51 47 84 120 20 131 86 101 61 71 53 50 90 76 159 105 60 42 85 38 64 75 78 40 123 91 10 132 129 92 61 46 85 120 33 40 62 141 33 123 105 65 58 92 57 105 84 69 77 50 69 116 71 101 71 97 75 73 136 110 129 81 64 79 103 86 123 45 88 57 97 99 76 72 62 28 111 44 69 97 82 72 33 100 99 72 52 94 85 97 91 70 95 134 106 66 87 43 64 48 65 117 97 32 70 53 72 54 121 61 48 70 116 78 92 41 46 119 114 113 45 74 55 94 70 36 121 45 44 45 53 102 152 50 52 67 126 119 57 58 96 108 75 68 63 73 53 57 44 73 130 73 70 64 91 95 104 108 81 89 73 38 103 138 101 91 81 61 46 34 146 80 53 58 94 132 79 47 40 72 87 92 98 110 78 47 66 18 46 99 66 66 59 68 45 80 51 107 48 120 65 109 94 98 113 81 49 72 94 63 44 84 38 108 94 144 76 24 92 115 24 130 104 143 16 84 74 129 112 83 30 86 81 61 87 91 83 101 42 53 90 118 69 84 53 119 55 104 114 60 48 73 20 81 40 85 61 90 39 60 56 65 67 75 71 90 25 62 107 105 49 61 50 79 153 101 136 79 50 69 94 120 137 50 143 158 111 32 108 44 87 54 100 76 68 73 98 69 116 22 91 101 29 47 84 128 73 96 105 82 72 76 71 15 59 84 55 115 126 70 46 87 43 84 87 40 24 70 89 108 131 52 56 67 78 61 115 79 45 104 37 92 41 14 48 38 78 62 106 121 57 34 25 57 54 62 81 34 88 54 84 85 104 73 87 78 114 144 63 43 32 57 100 72 68 72 58 60 109 65 114 116 85 132 65 42 147 65 73 123 100 47 116 69 46 113 53 54 60 72 9 108 29 89 59 101 105 96 48 42 60 52 47 120 104 66 118 80 86 75 25 52 46 36 59 45 26 99 58 144 44 93 89 47 62 70 132 53 92 90 101 103 52 48 32 70 70 76 84 87 122 72 97 52 51 49 90 59 52 67 85 57 69 106 59 74 59 89 28 95 73 81 66 90 51 97 82 95 33 136 63 117 104 60 23 82 67 54 40 98 81 59 86 30 84 108 77 63 50 70 48 54 99 68 26 104 55 80 134 109 87 76 102 67 66 45 33 61 96 21 121 31 30 73 85 79 127 41 92 90 70 70 97 32 107 24 87 96 64 32 94 96 88 66 78 119 87 83 93 54 65 62 109 69 86 119 87 95 100 167 133 29 56 133 91 55 59 72 103 99 80 135 86 112 73 68 64 86 25 44 21 87 98 134 73 115 71 44 127 55 57 50 46 63 77 76 34 105 113 33 49 97 99 118 74 46 66 82 67 88 100 91 66 53 74 47 93 123 93 13 62 39 56 54 81 64 66 89 82 91 103 120 93 160 91 81 48 76 99 53 45 142 136 58 110 116 80 39 31 139 84 84 23 133 80 32 113 63 71 75 58 91 62 89 6 72 112 72 75 74 95 63 79 99 112 59 48 113 113 104 85 26 36 65 38 81 27 65 27 69 51 77 58 85 30 122 73 74 144 58 35 82 140 78 124 50 120 39 46 92 37 64 95 72 72 64 53 72 85 64 129 76 62 81 73 125 97 68 85 82 119 53 42 100 65 60 34 67 57 43 88 71 69 103 52 134 72 61 141 37 93 40 118 48 83 61 55 75 47 45 82 119 54 57 26 43 74 88 86 52 67 67 78 68 44 88 98 45 85 68 24 10 113 47 138 84 72 85 108 34 55 114 115 95 51 55 98 29 66 150 84 81 82 82 117 81 68 72 120 112 64 30 154 63 99 57 47 82 81 90 133 134 46 102 74 61 192 45 87 36 131 92 36 27 53 42 49 30 68 20 52 47 119 93 58 68 76 108 34 62 46 74 24 107 35 135 36 100 99 137 50 77 91 78 141 52 50 89 118 99 119 60 29 30 116 69 95 59 59 45 76 59 108 122 128 93 123 84 63 66 56 127 64 155 90 100 87 72 80 78 89 53 105 175 82 58 54 99 59 67 96 46 100 107 133 62 53 109 40 58 148 154 64 43 89 6 139 61 66 79 79 106 96 138 59 105 85 112 105 126 129 91 54 21 79 91 93 80 52 92 92 66 146 108 86 24 41 72 61 116 69 112 76 84 74 69 32 71 108 82 85 88 63 62 95 51 44 60 109 45 67 136 72 16 25 117 41 147 40 105 165 90 31 92 69 44 160 30 78 48 66 37 70 65 53 48 72 52 100 24 101 51 30 102 190 115 111 112 127 114 68 122 122 100 27 34 110 58 98 55 65 111 91 78 99 45 142 38 152 124 101 68 110 84 94 114 85 50 79 62 53 91 69 65 60 102 89 60 113 79 111 33 85 106 118 70 45 62 106 87 38 104 72 69 58 47 87 43 44 82 100 80 45 78 55 70 152 95 103 8 45 71 82 59 65 64 92 83 67 47 81 58 85 99 72 88 49 41 78 47 39 14 107 82 38 155 29 116 111 106 37 90 67 56 179 14 50 40 54 84 46 34 48 118 62 128 164 85 113 69 58 135 44 68 133 96 86 99 133 123 83 88 98 96 93 78 121 123 24 114 81 54 82 72 181 36 64 88 71 140 77 51 68 113 32 91 42 106 53 22 54 48 111 71 22 75 89 75 158 55 64 59 36 44 92 46 57 48 76 146 57 33 122 118 14 83 43 70 72 86 91 78 78 129 50 93 21 56 47 134 74 92 55 33 81 81 46 119 41 101 32 93 104 67 14 95 29 144 104 56 117 68 125 81 99 107 72 48 101 89 71 89 91 103 58 63 63 57 102 70 59 119 98 111 63 71 62 38 45 75 75 170 116 114 40 110 54 115 40 69 86 88 70 78 51 60 66 63 65 110 67 140 44 56 70 124 116 124 70 179 70 97 124 54 65 116 57 79 76 50 52 6 63 88 46 89 79 90 126 45 93 49 70 58 85 29 92 49 62 93 42 72 91 122 14 78 105 69 121 62 57 142 52 71 153 78 108 23 87 53 24 137 78 74 140 33 88 102 63 74 124 47 52 88 98 116 87 71 62 67 79 38 92 49 61 48 61 47 79 48 110 59 43 109 73 88 54 88 84 77 117 61 80 97 43 106 59 82 95 113 54 49 76 76 57 110 86 148 37 59 71 104 96 86 51 96 83 75 129 130 97 71 75 58 73 100 19 90 65 77 104 99 95 50 159 60 40 73 69 16 99 57 104 40 93 104 67 49 38 110 28 85 45 35 50 49 64 32 31 62 80 40 138 98 46 51 122 80 97 32 113 88 115 90 39 67 94 104 77 77 72 60 62 42 67 86 87 107 90 73 84 88 83 109 128 91 72 33 85 101 88 81 97 126 60 76 75 45 53 102 83 49 73 1 150 43 55 78 28 133 83 74 54 81 66 111 60 66 93 125 28 60 88 47 68 43 82 105 52 110 44 112 124 103 43 111 196 114 84 106 127 87 26 97 81 70 73 64 30 70 66 114 46 117 75 67 109 70 55 115 92 90 52 83 101 80 120 21 103 44 71 100 101 114 110 60 68 82 103 123 115 63 91 103 42 78 63 86 60 68 121 62 73 54 30 110 52 97 96 69 60 107 81 51 66 104 98 123 82 81 46 36 53 80 110 97 78 42 85 63 74 112 44 70 81 74 88 55 93 95 93 63 91 80 26 95 22 65 16 73 72 94 68 105 47 61 36 33 34 60 65 40 57 73 66 73 118 74 77 97 51 29 106 144 126 94 55 72 120 36 105 72 92 83 69 123 77 76 65 150 86 95 46 51 134 47 99 45 84 59 70 47 63 82 68 108 75 109 67 69 57 60 18 106 112 99 151 153 59 53 75 24 80 29 73 79 45 48 97 52 104 153 163 43 71 90 135 69 159 115 66 76 44 92 55 161 98 54 72 59 59 82 77 89 68 68 68 30 19 95 53 41 68 82 96 58 213 49 57 83 81 102 77 54 129 100 82 49 66 92 85 81 87 115 97 147 29 52 75 65 74 141 72 103 96 49 90 78 51 59 35 36 12 48 140 64 75 44 108 24 149 31 80 84 77 109 105 66 87 68 61 79 87 83 103 43 120 139 44 165 128 45 35 82 103 81 137 55 61 78 79 71 58 55 92 81 62 93 99 105 41 54 128 78 113 66 135 80 111 82 68 81 65 22 125 34 80 43 37 91 91 48 30 88 114 42 73 59 118 52 58 81 74 77 74 83 70 87 54 110 62 88 70 20 144 131 54 73 38 82 101 144 16 109 133 103 44 89 115 156 96 83 43 102 42 60 81 90 47 30 81 65 41 64 41 126 83 38 58 103 76 51 84 60 72 62 59 40 24 63 35 60 117 27 61 113 61 39 82 41 99 98 38 107 58 101 74 73 99 71 40 47 66 118 56 50 42 37 82 83 106 62 104 70 79 90 77 92 120 69 66 41 69 142 46 93 50 98 73 22 105 46 98 78 98 98 73 71 83 81 31 119 56 57 92 126 110 20 60 42 76 74 58 57 27 103 87 78 69 72 115 52 123 59 89 94 39 80 93 99 73 83 65 145 26 66 48 98 82 110 46 108 45 105 38 87 47 83 58 135 113 60 114 43 74 75 64 104 104 81 61 104 42 64 40 37 119 37 62 64 55 38 88 120 83 113 61 106 87 159 19 32 118 23 119 58 115 110 87 87 75 68 93 45 69 118 123 116 120 65 91 89 62 60 60 59 93 68 96 29 70 75 38 75 63 67 46 75 26 84 63 62 72 23 98 63 82 81 86 46 102 107 66 125 112 152 134 65 116 58 40 94 69 41 139 46 74 117 76 71 107 121 60 117 106 61 88 117 81 78 87 151 73 75 52 61 99 114 59 130 96 46 76 57 71 72 109 109 32 80 142 54 121 59 94 69 60 80 81 75 63 101 66 58 54 92 76 84 85 102 80 28 50 69 122 71 106 74 62 33 74 31 70 107 66 53 60 57 89 21 68 84 37 63 48 78 73 108 113 29 53 125 66 51 103 60 56 67 70 74 70 79 51 93 77 94 80 84 85 88 63 84 85 99 85 127 48 98 125 143 80 48 94 58 149 87 60 53 30 85 27 33 118 26 84 50 137 52 82 97 96 87 100 103 93 113 78 123 41 75 102 56 89 23 66 45 104 123 119 46 23 65 104 98 47 61 117 125 103 46 99 78 134 101 69 58 73 91 95 58 100 91 79 47 70 59 43 67 10 50 53 52 122 66 32 87 19 30 86 78 50 82 77 110 80 104 71 47 93 95 80 94 74 71 113 51 105 106 106 64 123 69 67 63 96 83 35 63 56 38 45 79 103 68 60 64 42 105 121 82 98 102 128 72 50 71 37 111 38 94 117 21 48 60 55 54 85 92 67 62 41 5 77 139 18 30 84 66 63 130 110 105 85 55 54 109 110 71 62 20 24 96 32 48 71 95 137 34 79 72 38 97 74 52 59 62 75 66 83 59 78 96 47 103 109 70 23 81 51 27 63 19 84 127 97 67 44 107 75 126 79 104 117 84 12 79 63 67 108 85 89 76 94 129 129 39 106 59 86 26 110 41 57 48 84 85 81 61 76 35 74 72 87 61 57 132 32 68 19 43 69 94 31 103 89 45 19 87 91 99 41 66 38 143 113 64 73 41 85 112 94 42 79 146 130 108 61 71 70 74 82 69 50 124 81 91 129 36 97 104 81 106 54 71 127 130 99 49 78 93 106 42 100 67 65 79 94 41 55 80 129 98 33 75 63 97 101 87 130 58 76 111 91 68 56 116 68 70 75 34 82 88 60 71 11 107 127 95 85 106 64 84 126 7 30 96 109 82 118 63 138 13 27 91 39 20 54 40 60 38 44 67 101 49 68 49 50 109 35 99 86 64 42 97 122 53 73 154 54 46 105 69 59 82 72 57 72 125 76 29 67 56 58 94 89 101 117 43 68 53 86 52 88 49 23 74 86 48 49 80 81 99 35 79 64 51 54 95 80 45 88 71 122 109 120 136 58 49 52 52 91 69 91 79 99 98 59 47 128 96 69 56 114 78 73 60 111 75 50 47 126 120 97 86 97 95 69 52 75 124 24 78 87 56 137 60 106 88 81 113 120 59 92 27 86 102 120 127 69 52 97 31 96 58 28 66 47 116 67 92 17 25 93 47 103 91 81 149 70 124 66 98 77 96 43 74 46 78 54 90 99 120 72 86 53 85 82 65 91 85 35 64 68 61 93 91 70 99 138 74 32 49 113 134 89 31 60 79 62 80 61 54 70 98 53 98 106 31 64 54 49 10 112 45 99 68 78 48 49 66 57 103 52 65 58 51 93 83 8 32 235 21 24 73 16 102 122 105 79 82 95 35 58 72 89 95 67 68 96 121 121 100 45 67 63 94 106 97 80 32 108 26 95 74 75 64 32 98 64 120 67 110 52 69 123 63 107 71 37 101 138 64 81 96 44 116 122 117 125 78 57 94 59 40 93 66 23 63 41 98 136 62 50 132 110 67 86 88 83 43 68 91 90 41 80 82 70 136 128 55 122 74 52 56 88 62 101 23 48 94 66 68 107 106 87 37 45 73 74 101 67 64 54 53 105 113 101 61 78 70 129 61 46 131 29 55 24 72 48 76 56 78 75 38 84 73 66 37 44 59 60 46 77 96 46 60 32 88 94 99 54 90 68 91 69 106 94 56 109 146 87 89 139 32 68 140 64 105 78 42 63 106 123 84 98 123 41 55 73 13 45 37 111 93 122 36 89 69 67 82 97 62 120 62 81 86 44 118 104 39 134 61 90 51 83 52 80 41 88 136 81 82 87 123 70 61 29 113 111 58 71 40 79 22 77 63 52 93 100 111 100 78 33 41 63 62 61 64 118 141 115 105 65 68 8 78 55 62 90 137 58 33 84 16 67 126 157 104 31 102 84 87 70 78 61 132 58 26 71 118 69 65 22 152 61 102 121 90 57 55 63 84 57 64 120 85 91 26 100 25 107 68 77 67 45 67 89 66 108 80 61 93 123 124 31 53 10 82 73 23 98 61 173 136 79 36 167 123 142 50 110 120 56 81 83 97 32 85 62 88 39 74 71 129 110 113 81 123 102 80 73 70 48 96 79 80 147 41 73 81 87 105 70 69 154 64 73 89 72 55 56 104 122 85 59 90 56 90 36 85 57 41 105 51 97 70 117 75 68 85 54 53 78 91 64 21 79 100 125 140 87 112 63 106 91 93 31 76 94 79 20 100 47 53 53 85 108 88 140 76 75 93 69 67 39 96 84 55 67 94 46 101 66 57 108 141 39 40 44 118 141 103 42 86 140 66 65 45 75 89 50 42 74 101 132 70 27 44 30 63 62 109 67 35 83 70 66 80 100 38 52 49 77 68 59 89 67 75 38 63 104 93 108 62 42 54 57 91 102 35 61 34 169 56 82 87 158 65 118 100 81 115 94 16 61 91 40 131 97 47 16 83 85 61 41 68 82 136 39 99 85 59 49 50 63 94 145 76 69 107 112 33 68 21 169 64 85 114 10 90 59 69 95 83 38 83 38 47 90 42 47 37 141 66 57 117 71 103 79 95 60 84 101 67 41 40 104 67 89 41 88 32 83 132 50 111 62 128 82 53 110 90 115 104 54 57 140 112 104 54 80 116 35 53 107 89 79 83 68 92 57 21 82 34 161 89 64 29 100 95 53 42 93 97 81 104 47 51 76 50 52 66 76 76 72 48 83 73 119 47 63 32 154 77 27 15 68 136 89 95 118 68 88 16 103 117 55 66 75 177 89 43 133 72 73 95 30 87 52 110 83 144 82 101 88 96 87 73 85 41 90 46 96 61 79 66 73 48 42 51 39 55 50 109 91 156 103 121 11 114 116 96 88 63 57 78 60 101 23 103 56 79 111 76 57 49 88 58 24 58 70 86 101 69 83 92 79 48 103 70 121 60 62 49 116 118 99 102 43 40 71 55 119 58 129 118 30 65 56 97 25 85 108 101 34 98 79 91 122 65 68 132 56 39 61 66 76 25 58 75 37 92 100 45 88 72 67 44 72 65 23 85 66 78 42 57 112 79 81 190 97 101 73 118 52 76 72 149 159 111 107 48 128 102 109 46 129 71 70 70 60 35 125 100 79 64 54 73 112 49 91 67 77 40 84 89 102 31 130 70 46 71 105 129 99 102 75 52 49 112 95 119 62 146 57 64 90 107 49 103 49 114 86 62 105 73 88 160 15 84 77 70 54 81 120 21 120 96 89 66 43 39 59 86 131 68 52 52 73 111 134 78 9 45 106 155 45 87 106 77 112 75 66 92 77 97 66 72 85 123 89 68 92 71 79 57 87 71 44 65 54 84 73 109 81 78 144 67 106 67 86 132 67 94 108 95 99 54 78 102 77 41 101 76 72 39 77 116 35 89 49 149 125 80 98 58 89 51 65 54 72 97 125 102 75 84 41 89 66 146 82 86 114 174 89 94 114 73 74 68 71 50 77 56 122 95 94 84 79 48 32 105 37 120 115 61 112 55 100 31 112 59 54 85 109 75 89 126 64 94 46 106 37 83 45 47 43 106 91 99 37 95 24 121 80 89 119 102 47 81 124 121 55 80 90 45 10 33 71 94 105 72 67 62 91 83 60 114 63 76 65 54 44 36 58 86 37 83 100 83 72 88 77 83 130 97 46 71 72 50 74 50 70 54 74 90 52 70 65 124 24 49 55 63 105 27 161 158 43 63 68 100 97 114 60 49 57 101 112 64 36 85 143 39 81 65 76 112 103 68 12 59 60 60 126 62 72 48 72 34 67 100 50 62 81 42 103 75 159 107 127 98 114 121 51 157 111 54 94 45 79 100 70 65 81 164 43 93 114 114 94 32 57 109 34 74 63 95 112 88 83 87 75 63 74 36 137 118 52 99 138 45 69 93 36 64 58 78 123 57 33 49 38 135 53 41 68 98 40 79 73 128 89 108 54 58 53 61 196 42 78 62 28 57 89 67 83 97 73 122 116 26 28 63 124 77 55 118 65 98 142 26 65 63 35 42 81 96 67 63 96 78 65 103 93 101 85 83 47 76 119 91 147 155 48 105 69 21 69 106 77 42 35 95 46 66 102 90 72 108 75 38 150 62 12 102 107 111 85 64 70 83 70 122 62 110 54 62 46 74 25 73 53 45 54 70 32 115 108 46 74 96 66 117 174 46 95 60 120 93 77 109 64 109 74 87 61 55 144 84 54 60 71 105 28 48 74 42 103 112 101 64 100 39 67 41 31 71 75 84 116 71 33 88 27 79 84 82 94 126 77 124 20 93 77 78 68 97 39 143 62 75 54 138 90 94 91 62 130 89 57 62 128 136 22 103 101 124 131 107 44 47 81 89 100 56 75 83 42 126 44 75 19 68 112 75 79 58 96 71 70 78 43 86 81 59 81 108 39 107 44 66 59 54 95 54 66 53 115 18 17 106 136 96 24 148 104 74 69 46 147 33 87 74 72 47 52 85 75 117 114 59 139 72 99 87 104 50 57 77 68 26 87 75 38 84 103 54 137 82 121 67 43 88 86 51 97 83 62 73 81 107 44 65 39 127 93 78 71 57 112 116 78 145 128 46 54 62 110 72 162 109 73 58 23 33 50 89 129 64 52 35 15 50 100 79 47 88 82 96 56 87 55 141 55 97 93 115 86 38 94 18 121 89 72 74 51 23 131 35 57 128 80 94 99 105 102 40 17 78 73 40 104 124 66 64 109 23 87 101 114 89 66 22 100 78 86 55 57 73 103 96 17 59 59 37 77 49 76 31 80 64 77 113 77 107 52 70 60 93 97 75 57 52 68 59 53 30 86 48 73 96 116 44 123 94 88 86 65 73 47 103 79 75 64 46 60 25 26 32 87 68 99 106 67 84 96 90 35 43 86 93 72 90 106 128 126 56 32 50 48 134 67 113 100 101 33 49 74 107 44 99 101 101 80 67 65 68 135 93 59 90 89 43 88 69 104 80 72 47 64 45 88 103 73 40 64 139 110 67 55 90 90 83 63 75 61 43 46 83 101 174 34 45 20 72 67 101 112 97 44 98 107 104 67 111 72 68 96 42 70 120 34 96 98 19 36 128 22 100 123 152 41 65 113 53 70 129 74 179 51 70 111 141 25 103 73 69 93 116 47 44 36 102 144 71 19 104 55 122 119 32 80 113 110 48 84 25 41 87 47 38 49 68 82 111 48 65 101 130 74 103 70 91 76 82 82 65 66 159 88 66 49 17 51 92 108 84 102 92 89 59 58 128 133 74 47 134 100 55 63 82 73 90 130 32 89 55 90 81 66 75 73 53 55 43 91 92 69 43 69 79 22 45 127 151 94 58 57 60 59 70 82 62 92 66 149 119 91 107 59 87 56 77 33 111 33 110 42 72 25 25 61 58 85 45 17 21 66 44 119 70 86 86 53 72 47 87 37 71 91 133 49 99 25 23 79 75 91 83 86 61 123 39 50 51 71 39 114 115 61 117 78 82 86 67 75 132 41 117 83 51 58 72 70 50 72 92 50 55 45 97 69 72 83 114 40 66 77 35 64 54 76 42 86 72 159 42 72 42 27 79 50 23 40 2 28 95 50 107 38 33 60 76 152 99 50 65 27 103 58 136 66 78 103 68 103 124 124 101 86 103 83 57 82 71 119 88 97 79 119 87 69 86 35 35 118 92 69 109 26 86 45 40 91 76 64 75 54 58 78 65 112 42 102 77 29 66 37 72 88 45 183 50 131 119 75 44 24 66 77 118 43 138 124 50 70 62 65 64 57 83 60 93 95 61 54 79 56 95 91 78 103 78 88 67 75 76 53 73 66 121 91 68 76 72 109 120 72 104 6 68 48 90 107 134 138 43 63 82 117 64 64 69 42 51 64 35 41 122 96 127 117 125 88 58 118 74 81 103 115 67 67 115 66 88 116 92 128 40 57 76 77 84 44 127 25 27 72 55 51 130 54 85 92 90 107 61 60 100 62 75 81 94 116 74 88 19 70 64 107 55 82 62 111 62 74 54 35 84 79 97 71 120 66 149 56 194 151 103 70 86 71 88 91 61 96 80 11 36 41 77 24 52 68 37 33 39 70 115 122 70 50 29 43 97 137 85 102 83 57 76 108 93 112 147 78 94 86 87 77 109 53 18 40 53 39 72 106 95 41 44 59 120 106 134 112 81 33 49 86 48 17 114 156 69 96 58 55 75 70 125 145 76 92 112 115 67 41 140 7 115 85 86 87 36 42 131 87 66 43 73 74 73 61 86 110 67 167 69 101 77 36 87 55 44 82 46 59 41 133 29 71 101 68 71 140 40 62 59 140 73 100 94 104 80 37 73 81 76 139 78 24 60 112 66 106 70 134 91 101 49 56 135 49 101 36 75 82 42 49 81 118 64 39 66 62 83 65 62 106 78 77 71 56 69 74 140 89 84 51 116 98 82 61 83 41 136 73 100 134 60 103 134 156 25 68 82 23 81 38 115 84 99 125 84 79 117 104 85 41 9 82 79 39 94 110 149 100 55 125 66 80 20 119 29 73 57 105 45 77 77 92 62 94 45 136 85 95 44 70 84 73 117 48 48 116 85 50 84 105 68 71 46 50 167 90 49 74 98 64 145 107 51 36 62 84 80 57 94 81 73 123 135 87 76 94 86 50 71 75 38 75 70 57 62 86 45 128 73 60 61 79 79 65 105 70 102 25 124 93 94 76 78 62 46 69 67 90 140 72 107 54 51 82 87 126 132 64 121 51 29 44 30 71 57 98 17 58 39 86 77 72 110 60 117 93 68 145 128 24 85 59 42 94 65 71 78 61 74 89 92 89 88 60 87 40 68 90 94 78 86 138 36 66 68 59 152 123 24 78 93 116 54 100 52 52 52 79 54 66 106 71 54 53 27 64 105 116 87 49 62 60 68 121 56 76 78 70 81 74 54 78 93 60 116 76 68 138 66 81 85 81 25 48 93 62 94 114 46 62 98 23 51 97 119 91 70 96 98 49 72 62 89 55 99 66 67 65 67 37 110 33 97 32 118 143 69 44 53 60 94 141 106 58 51 41 115 67 99 84 107 68 76 72 75 72 52 98 71 56 84 86 72 36 124 46 98 48 101 58 52 111 96 28 68 67 142 24 38 150 107 85 98 37 78 73 125 82 101 75 112 118 43 55 110 45 78 102 64 46 108 54 118 88 88 36 73 125 142 83 52 59 83 118 67 85 44 70 105 44 60 79 83 7 114 65 65 116 26 129 109 116 101 109 77 103 94 22 73 66 98 54 33 30 63 73 120 111 105 101 121 68 116 21 127 90 24 128 62 37 43 117 107 53 52 46 77 76 107 116 61 89 84 82 53 91 117 63 93 72 33 72 56 51 82 80 55 72 68 87 103 92 75 39 78 67 116 136 87 52 78 32 49 54 66 89 76 107 84 118 50 68 95 50 65 175 86 57 40 80 53 97 88 108 72 54 95 111 85 77 151 62 72 33 86 77 104 116 89 85 91 125 58 53 87 44 66 59 94 52 44 58 74 79 34 54 169 91 97 75 95 51 43 87 58 51 71 92 55 55 92 55 56 77 16 64 84 104 36 68 29 86 97 57 49 98 40 60 100 96 62 54 53 95 143 55 94 88 43 41 43 83 57 75 52 72 30 68 48 92 50 54 89 74 52 73 19 108 121 101 87 55 42 49 94 82 13 55 73 129 126 131 81 51 76 31 65 117 67 22 43 45 38 95 87 114 85 143 69 111 64 149 33 131 108 75 33 30 71 96 79 66 102 121 12 77 80 83 135 81 150 63 101 84 56 84 99 36 86 87 71 26 108 60 107 56 104 84 82 60 121 84 39 87 101 110 94 98 172 37 65 46 110 37 42 54 141 95 85 30 91 135 74 100 77 80 43 102 63 63 36 84 142 108 50 53 98 131 100 57 100 79 80 116 106 101 41 113 100 64 54 86 29 83 39 83 90 77 84 70 133 81 123 158 66 52 82 91 124 67 113 18 127 61 15 146 90 40 140 134 47 72 49 66 137 43 181 47 111 30 119 73 112 131 75 59 73 77 91 69 68 51 109 26 27 131 106 65 86 27 58 85 106 63 81 50 109 68 38 43 86 76 43 67 107 98 117 102 94 60 30 138 47 87 61 92 73 67 104 67 100 109 97 41 105 40 70 87 92 40 84 81 60 71 32 33 95 43 70 82 107 79 142 133 120 89 116 33 41 47 106 20 112 68 119 58 44 130 39 68 87 87 107 101 26 83 67 65 71 84 88 117 81 92 66 46 39 66 58 58 63 98 60 55 51 65 69 79 68 50 104 107 19 71 76 118 84 81 97 37 149 61 47 99 100 120 70 36 68 68 72 97 36 26 76 109 90 59 99 29 57 82 35 69 45 91 78 122 99 52 81 114 38 76 88 56 116 115 38 107 33 44 95 62 127 61 107 77 49 159 48 65 62 54 106 104 134 46 87 58 17 115 74 83 148 106 157 60 95 39 115 67 52 90 56 44 72 101 107 37 79 106 42 101 116 126 99 46 48 84 104 145 45 141 83 107 81 84 102 186 56 73 91 128 40 82 77 51 106 138 85 86 106 77 168 82 134 41 91 98 107 85 34 40 74 92 41 91 47 99 84 117 125 7 62 66 92 135 66 87 25 149 79 44 36 136 93 91 32 41 131 61 101 82 68 60 155 63 46 88 42 89 29 68 50 69 110 130 104 57 68 105 20 128 82 62 75 91 41 77 52 81 79 115 56 79 102 85 127 33 164 49 95 57 91 74 69 41 105 73 67 80 68 64 85 71 96 113 96 40 79 118 58 57 40 54 114 97 61 53 56 131 112 114 37 73 72 53 62 73 61 74 58 101 93 43 22 80 74 73 123 129 79 144 81 76 48 74 56 106 78 48 119 58 46 58 42 64 95 81 86 60 108 103 62 87 44 90 79 143 127 79 143 102 54 148 63 151 113 92 62 63 66 76 97 133 92 58 26 39 75 40 50 36 112 81 152 71 82 66 68 118 61 63 58 66 78 106 65 103 127 119 76 100 22 102 57 88 67 61 31 114 53 36 118 66 119 57 96 40 87 112 76 22 19 78 39 35 115 125 32 83 121 113 58 135 125 117 113 118 26 79 70 118 66 91 71 52 51 45 41 86 70 70 76 68 86 113 48 92 100 133 74 61 116 95 94 37 110 103 85 122 66 58 80 59 87 13 119 106 116 84 33 70 54 69 40 44 36 62 36 90 48 73 100 107 72 84 54 48 87 61 85 57 97 60 77 91 65 41 73 89 49 65 51 96 37 87 93 57 98 61 57 145 111 60 89 67 47 89 57 141 81 85 59 109 10 53 53 82 58 52 63 27 61 75 83 70 98 114 97 128 61 60 66 60 59 116 91 119 119 34 65 79 39 89 54 64 100 50 68 88 78 65 78 70 23 147 40 97 59 130 53 80 96 86 27 69 79 36 89 118 89 59 48 88 97 73 76 51 106 59 115 51 104 159 43 53 3 90 98 128 118 150 51 36 122 84 89 66 92 83 99 69 48 87 82 82 89 86 96 113 99 23 42 64 55 119 65 78 98 92 38 92 111 72 57 112 180 72 42 50 90 147 104 84 122 48 76 55 45 46 83 52 68 87 110 77 73 85 26 70 67 124 69 60 50 90 84 99 102 79 57 50 73 100 73 117 70 92 108 144 60 104 79 81 71 65 19 169 177 118 43 55 68 40 71 54 59 99 107 39 26 72 70 86 76 45 37 64 172 57 71 55 66 98 101 91 92 62 96 73 101 42 32 81 72 130 50 68 101 20 25 87 35 89 96 118 113 62 92 96 79 36 33 68 59 30 38 84 89 100 95 69 109 69 64 69 21 91 113 49 66 137 101 140 88 151 101 55 120 53 92 115 92 88 39 40 42 149 140 30 34 68 100 29 73 147 47 101 103 102 68 101 52 92 84 69 70 69 60 89 73 64 31 91 75 51 77 27 92 19 81 102 93 83 68 82 62 48 51 71 75 33 81 37 33 103 104 79 28 52 79 48 103 54 91 53 62 73 82 118 96 87 45 111 77 97 100 69 83 35 65 80 25 58 87 59 75 28 78 133 18 86 93 78 100 54 63 58 80 90 103 57 94 75 102 134 152 50 84 96 88 90 111 82 63 113 60 41 81 83 73 32 64 73 77 78 104 17 45 119 77 65 90 48 61 110 38 78 96 102 93 44 62 89 63 146 70 88 62 69 65 79 57 142 68 140 87 86 121 82 47 68 75 55 89 90 24 79 45 79 112 94 65 41 74 120 73 45 80 108 54 79 96 106 68 21 64 50 38 49 76 107 112 60 129 95 62 69 91 70 108 51 168 76 44 103 26 86 87 126 78 128 92 78 41 75 98 35 83 70 80 115 90 56 56 87 58 62 95 92 35 80 49 68 77 13 154 96 91 42 78 138 108 88 96 58 142 108 61 77 106 135 95 43 59 98 60 72 57 57 89 95 38 109 38 60 67 133 117 64 97 56 114 46 113 45 86 65 125 69 56 98 68 74 67 73 57 56 54 63 72 60 90 44 72 66 74 94 128 51 35 38 138 82 66 53 127 60 93 65 95 61 10 39 70 73 124 69 44 63 82 54 85 38 71 60 64 46 73 62 37 43 115 90 78 115 63 70 92 22 85 90 77 45 80 110 66 66 83 45 59 113 66 70 74 48 109 66 95 53 88 77 48 83 93 85 125 76 80 75 91 84 96 90 118 55 29 26 109 176 57 126 97 131 94 64 106 60 78 86 46 108 30 94 28 56 117 94 61 66 46 47 70 82 125 84 77 114 104 94 125 52 40 87 85 96 69 102 66 102 117 52 46 58 49 38 98 39 105 100 16 96 91 67 138 11 34 99 54 117 13 167 55 59 78 55 123 71 52 60 41 59 43 96 81 94 75 99 56 43 40 131 30 115 83 118 79 71 11 13 70 113 60 79 81 65 81 93 81 56 79 57 127 98 114 180 56 160 128 78 99 52 32 44 66 88 67 92 112 88 88 75 136 77 42 108 74 32 69 57 63 50 81 75 72 75 83 66 141 63 75 126 59 63 101 131 94 91 -2 107 52 84 59 81 157 53 77 44 53 59 51 133 80 108 59 36 40 77 103 93 91 90 55 135 75 53 88 66 58 51 100 132 99 95 74 120 80 59 75 99 98 56 82 95 114 62 93 62 51 25 69 59 59 77 69 35 67 147 85 108 138 17 136 31 60 108 96 90 59 31 52 128 134 90 58 65 119 63 77 82 74 27 29 40 73 75 44 68 107 56 71 40 103 94 36 36 63 82 71 153 75 82 85 73 94 102 93 24 113 100 108 94 73 103 113 18 75 99 56 99 39 83 114 34 25 58 116 56 42 65 131 147 54 26 70 39 137 121 77 137 82 77 75 102 65 50 107 50 133 14 73 53 67 28 103 157 61 78 109 66 86 31 78 131 69 93 53 112 99 70 108 82 99 127 141 79 95 29 67 96 133 95 100 18 34 126 113 79 72 95 32 35 48 58 14 67 125 80 45 81 25 47 82 108 63 39 77 82 69 96 91 108 41 83 115 84 129 62 74 72 61 91 108 131 93 61 81 48 98 70 157 61 77 67 107 58 97 78 80 112 104 101 45 77 73 77 87 106 67 105 115 76 95 91 40 104 58 69 128 89 74 74 39 28 34 109 105 96 136 63 26 65 149 50 68 60 105 37 85 89 67 94 78 79 95 62 130 82 66 85 19 41 117 51 43 52 68 81 84 91 91 89 78 54 52 64 66 139 101 57 64 105 64 17 59 111 67 76 52 112 70 66 58 99 85 78 69 101 87 127 54 59 95 38 35 33 141 95 92 29 51 75 49 112 24 47 60 146 42 88 83 58 38 107 133 70 72 42 66 110 120 29 48 64 38 65 112 50 89 91 93 66 115 52 74 112 71 84 137 106 80 133 99 99 25 49 99 88 51 77 53 35 88 79 106 204 127 86 102 83 36 43 40 49 31 88 81 98 111 9 66 99 79 78 125 92 57 111 36 115 91 79 45 88 97 100 90 149 35 51 31 65 105 36 111 96 62 17 78 96 87 101 73 61 82 74 24 177 66 62 59 93 67 51 47 36 82 69 92 111 88 26 74 54 77 38 61 65 31 129 61 62 76 119 100 57 133 125 37 86 64 100 58 80 55 33 16 65 38 94 57 47 57 17 147 32 88 29 82 80 88 101 94 122 126 42 90 99 139 39 110 62 107 14 77 148 138 76 123 84 87 112 106 81 85 71 67 56 26 111 77 161 59 94 54 118 65 43 106 120 78 35 68 65 68 86 70 103 97 105 41 160 56 102 71 119 55 29 56 96 39 39 41 59 127 74 89 60 33 57 65 49 75 120 68 119 81 22 83 97 166 83 57 83 75 41 111 81 126 83 93 117 60 127 38 60 93 80 39 106 46 95 99 113 49 94 85 66 69 82 84 36 90 67 40 72 53 85 71 68 57 45 86 102 81 175 46 87 65 56 118 43 26 107 131 44 110 86 111 63 111 74 53 115 87 24 95 120 91 82 108 74 63 79 89 65 48 80 89 107 79 61 109 80 91 81 72 52 82 148 112 115 94 123 92 105 62 37 48 18 74 62 45 95 64 91 91 64 70 109 81 90 42 82 86 130 121 83 57 77 124 132 64 41 65 122 73 88 120 32 47 45 88 85 81 155 73 69 62 71 42 21 83 105 123 43 121 96 72 55 75 84 59 86 15 49 70 43 70 92 72 33 85 64 73 -2 61 49 76 28 53 87 56 64 42 122 119 60 76 112 24 110 96 81 85 41 91 90 92 70 81 93 64 111 95 57 87 85 60 71 49 49 54 46 115 92 94 52 72 85 131 105 106 75 37 142 109 81 74 101 66 68 113 58 144 36 128 111 68 59 62 109 92 123 99 107 86 73 48 76 68 47 43 77 104 121 60 57 58 109 50 99 85 17 73 56 92 52 95 121 36 36 53 66 25 54 25 77 153 44 78 97 61 87 33 70 109 37 107 108 45 82 59 40 48 42 54 65 75 83 43 50 78 181 109 67 123 44 113 127 90 40 51 83 96 116 84 62 57 102 68 32 84 26 116 81 70 60 107 122 81 61 57 69 96 122 82 33 86 112 50 48 89 115 53 105 74 114 6 97 57 56 95 76 81 97 91 44 60 68 83 63 135 48 78 56 58 53 98 129 54 91 83 58 163 66 70 27 39 46 48 51 23 184 50 70 52 72 105 171 99 29 80 51 74 164 90 58 86 63 79 68 178 70 63 51 74 11 102 56 15 40 53 10 95 132 98 102 64 45 116 90 68 119 122 87 80 67 102 90 86 80 93 115 81 143 98 61 108 131 94 139 92 86 105 71 63 83 115 102 86 48 70 133 117 27 82 73 88 71 114 67 72 118 96 80 119 118 114 48 110 123 75 147 52 53 53 115 97 94 50 45 77 52 77 102 108 146 105 77 84 52 112 72 31 77 123 193 133 67 68 105 98 80 69 92 8 57 45 102 32 45 80 103 132 43 100 75 60 11 106 100 79 100 65 80 73 69 103 102 52 53 59 89 57 40 36 32 132 62 56 55 128 70 120 19 63 66 95 84 72 56 22 77 79 81 30 79 62 67 124 29 107 51 64 92 159 83 104 68 85 95 115 153 54 38 77 24 29 54 45 102 61 106 47 114 55 73 72 44 89 56 29 71 41 111 75 58 63 45 72 70 56 44 125 16 47 96 43 75 66 80 48 11 36 73 61 88 84 52 66 46 105 75 91 69 53 132 109 61 55 76 76 124 105 29 139 59 65 54 115 56 46 50 101 94 93 77 163 44 97 32 41 68 43 162 113 35 66 17 48 63 73 114 114 66 37 27 35 59 64 57 127 42 50 57 81 74 100 66 62 78 36 22 90 128 25 103 105 67 75 90 100 48 31 45 67 107 125 103 132 84 108 82 28 69 119 74 34 59 124 101 18 38 64 27 71 90 53 24 121 77 79 67 119 54 26 74 112 101 90 119 86 62 116 74 104 75 47 61 66 70 33 54 87 47 69 101 50 46 58 64 46 71 68 100 69 94 61 108 138 93 54 85 148 72 68 83 175 65 88 139 62 29 107 53 78 30 26 67 188 75 80 68 68 16 63 45 101 44 63 80 111 19 129 81 48 45 46 16 100 48 39 90 68 157 175 64 56 52 138 43 48 126 44</t>
+  </si>
+  <si>
+    <t>GAM(0.33699896211514013, -2.6377412801182983e-28, 0.5574228296992401)</t>
+  </si>
+  <si>
+    <t>1 0 0 1 0 0 2 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 2 0 0 0 1 0 0 1 3 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 0 1 0 2 0 0 1 1 0 1 1 0 1 0 0 1 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 2 2 2 0 0 0 1 1 1 0 1 0 1 1 2 2 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 2 0 0 1 0 2 0 0 1 0 1 0 0 0 0 0 1 0 1 1 1 2 0 0 1 2 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 2 0 0 1 0 1 1 0 0 0 2 0 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 2 2 0 1 0 0 0 1 0 1 1 1 0 0 0 4 1 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 2 1 0 1 1 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 2 0 1 0 1 0 1 1 0 2 1 0 0 0 2 1 2 2 0 0 2 0 0 0 1 1 1 0 0 2 0 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 1 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 1 0 0 0 2 1 0 0 0 0 3 0 0 0 0 1 1 1 1 0 2 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 0 1 0 1 0 0 3 1 1 1 0 0 1 0 1 0 0 2 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 0 2 0 1 1 1 0 0 0 0 0 2 0 1 0 0 1 0 2 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 0 1 0 1 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 2 0 2 0 1 1 0 1 1 0 0 1 0 1 0 1 0 2 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 2 1 0 3 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 1 2 0 0 2 1 1 2 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 2 0 1 1 1 0 0 0 0 1 2 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 1 0 3 0 1 2 0 1 0 1 1 1 1 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 1 1 0 0 0 0 0 0 1 0 2 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 0 1 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 0 1 1 0 1 1 0 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 2 0 0 0 0 0 1 1 0 2 1 0 0 0 1 0 1 1 0 0 1 1 1 0 1 0 3 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 1 1 0 1 0 0 2 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0 0 2 0 0 3 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 2 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 2 2 0 0 0 1 1 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 2 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 2 0 1 0 1 0 0 2 1 1 2 1 0 0 0 0 0 0 1 1 1 0 1 1 1 0 1 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 2 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 2 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 2 2 1 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 2 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 3 1 0 2 2 1 1 2 0 0 0 1 0 1 1 2 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 2 3 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 3 0 0 0 2 0 1 0 1 1 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 2 1 0 0 0 0 0 0 0 0 1 1 3 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 1 2 1 1 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 2 0 0 0 0 0 1 3 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 2 0 1 1 2 0 1 1 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 2 0 0 2 0 0 2 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 2 0 0 2 0 0 0 1 1 2 1 1 1 0 1 0 0 0 1 2 0 0 0 0 1 1 0 0 1 0 2 0 0 0 1 1 1 0 0 0 0 1 0 3 0 0 0 0 1 0 0 0 1 0 0 2 1 1 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 0 2 1 0 0 0 2 0 0 1 1 0 0 2 0 0 0 1 0 1 2 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 2 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 2 0 0 1 1 1 0 0 0 0 2 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 1 1 0 0 0 0 0 2 1 0 2 1 1 1 0 1 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 2 0 0 0 1 0 1 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 1 1 1 0 0 1 1 1 1 0 1 1 1 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 1 1 2 0 2 2 0 0 0 0 0 1 2 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 2 0 0 1 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 3 1 0 0 1 0 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 1 0 1 0 0 2 0 1 1 1 0 0 0 0 1 0 1 0 0 1 1 2 2 0 0 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 1 2 0 0 0 0 1 1 0 0 1 0 0 0 0 2 0 2 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0 0 2 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 2 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 3 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 3 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 1 1 1 2 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 1 1 0 1 1 0 1 1 1 1 0 1 2 2 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 1 2 2 0 0 1 0 0 0 1 0 1 0 1 0 1 2 0 1 1 0 0 0 1 1 1 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 1 2 0 2 0 0 0 1 0 0 2 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 2 1 0 1 0 2 0 0 0 0 0 1 1 2 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 0 1 2 1 0 0 1 0 1 0 0 0 0 0 0 2 3 0 1 0 0 0 4 0 2 0 0 1 0 2 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 2 1 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 1 0 2 0 2 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 2 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 2 3 1 0 1 0 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 2 0 0 2 1 1 1 0 0 1 1 1 1 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 1 0 2 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 2 0 0 0 0 1 3 0 1 0 1 1 0 0 0 0 1 0 0 1 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 1 2 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 2 1 0 0 0 1 0 2 1 2 0 0 0 0 2 1 0 1 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 2 1 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 2 1 0 1 0 1 3 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 3 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 2 1 0 0 0 2 0 1 0 1 1 1 0 1 0 1 0 0 0 0 2 0 0 1 0 0 1 0 1 0 1 1 0 1 4 0 1 1 0 0 0 1 2 0 0 0 0 0 1 0 1 1 1 1 1 0 1 0 0 0 1 0 3 0 3 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 2 0 2 1 0 0 0 2 0 0 0 0 1 1 0 1 2 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 1 2 1 0 1 0 0 1 0 2 0 0 0 0 1 0 0 0 0 2 0 0 2 1 0 0 0 1 0 0 0 0 0 2 2 0 1 1 0 0 0 0 0 0 0 1 1 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 0 1 2 2 0 2 2 0 1 1 1 0 0 1 0 1 1 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 3 2 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 2 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 2 0 1 1 1 0 0 0 0 0 2 1 0 1 1 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 2 0 0 0 2 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 2 2 0 0 0 0 0 0 0 2 0 1 0 1 0 2 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 2 0 1 0 0 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 2 1 0 1 0 0 2 0 0 0 0 0 0 0 2 2 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 1 2 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 2 0 1 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 1 0 1 0 1 0 1 0 3 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 3 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 2 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1 3 0 0 1 2 1 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 1 1 0 1 1 1 1 0 2 1 0 0 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 3 1 0 0 1 0 0 0 1 1 1 0 0 0 2 1 2 1 0 0 0 1 0 0 0 3 0 0 0 0 0 1 0 2 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 3 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 0 1 2 0 1 0 1 1 2 0 1 0 2 1 0 1 0 1 1 0 1 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1 2 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 1 1 0 0 0 2 0 1 0 1 0 1 0 1 1 1 1 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 2 0 1 2 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 3 1 1 1 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 2 0 0 0 2 2 1 1 1 1 0 0 1 0 0 1 0 0 1 0 0 0 2 1 0 1 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 3 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 2 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 2 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 2 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 2 1 0 0 0 2 0 2 0 0 1 0 0 3 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 2 3 0 2 1 0 2 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 1 0 1 1 0 0 0 2 0 1 2 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 1 2 0 1 0 1 1 1 1 0 0 1 0 0 1 1 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 1 0 0 1 1 0 1 0 1 0 1 1 0 0 2 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 2 0 0 0 1 0 0 1 0 2 2 1 1 0 1 1 1 0 1 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 2 1 0 0 0 0 1 0 0 1 1 2 0 1 0 0 0 1 0 0 1 1 2 1 2 0 0 0 0 0 0 2 1 0 0 1 0 2 1 1 0 0 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 1 3 1 1 0 0 0 1 1 0 0 0 3 1 1 0 0 0 1 1 0 0 2 0 1 1 1 1 0 0 1 1 1 0 1 2 0 0 1 1 0 0 1 1 0 0 0 1 1 1 0 0 0 1 1 0 2 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 2 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 2 1 0 0 0 1 0 2 1 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 5 0 0 1 1 0 1 0 1 0 1 2 0 0 0 1 0 0 0 2 2 1 3 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 3 0 1 1 1 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 2 0 0 0 0 1 1 1 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 2 1 1 0 1 0 1 2 0 0 0 2 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 2 2 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 1 2 1 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 2 1 1 1 2 0 0 1 2 0 0 0 0 1 0 0 0 1 3 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 1 0 1 1 0 2 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 2 1 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 2 0 0 2 1 0 2 0 1 1 0 1 2 0 0 0 2 0 1 1 0 2 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 1 0 0 1 0 0 1 2 0 0 2 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 2 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 3 0 0 1 0 1 2 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 2 1 2 2 0 0 0 1 1 0 0 1 1 0 0 1 1 1 0 0 0 2 0 1 0 0 0 1 0 0 0 0 3 0 0 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 1 2 0 2 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 2 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 2 1 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 1 1 2 0 1 1 0 0 0 2 0 2 1 1 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 2 1 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 1 0 1 2 1 2 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 2 0 0 1 0 1 3 0 0 0 0 0 2 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 3 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 2 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 2 0 0 0 2 0 0 1 0 0 1 0 1 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 3 0 0 2 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 2 1 0 0 0 1 1 0 1 2 0 2 0 0 1 1 2 0 1 0 0 1 0 0 0 2 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 1 1 0 0 2 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 3 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 2 1 0 1 0 1 0 0 1 1 2 0 0 1 0 0 2 0 1 0 0 1 0 1 1 0 2 1 1 2 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 3 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 2 2 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0 1 1 0 0 1 1 2 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 2 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 2 0 0 0 0 2 0 2 1 3 0 0 0 1 0 2 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 0 2 2 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 2 0 1 0 0 0 0 2 0 2 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 2 1 0 0 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 1 0 1 0 0 0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 2 0 0 0 1 2 1 0 1 1 2 1 0 0 1 2 1 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 1 0 2 0 1 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 2 0 0 2 0 1 1 1 2 1 0 1 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 1 2 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 2 1 1 0 1 0 0 0 0 0 1 1 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 1 1 0 2 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 1 2 0 1 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 2 0 1 0 2 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 3 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 1 1 0 1 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 1 2 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 2 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 1 1 0 1 0 1 3 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 0 1 2 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1 2 2 0 1 1 0 1 2 0 1 0 1 0 1 0 0 2 0 1 2 0 1 1 1 2 0 1 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 2 3 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 1 0 1 1 0 0 0 0 1 1 0 0 2 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 1 1 1 3 2 0 1 2 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 2 1 1 1 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 2 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 1 0 0 2 0 1 1 0 2 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 3 1 1 0 0 1 2 1 0 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 2 0 1 0 0 0 0 0 0 0 1 2 0 0 1 1 0 0 2 0 1 4 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1</t>
   </si>
   <si>
     <t>Name</t>
@@ -213,24 +213,24 @@
     <t>A.Shaheen</t>
   </si>
   <si>
+    <t>P.Williams</t>
+  </si>
+  <si>
     <t>M.Brown</t>
   </si>
   <si>
-    <t>P.Williams</t>
-  </si>
-  <si>
     <t>I.Ford</t>
   </si>
   <si>
     <t>D.Johnson</t>
   </si>
   <si>
+    <t>P.Laird</t>
+  </si>
+  <si>
     <t>P.Lindsay</t>
   </si>
   <si>
-    <t>P.Laird</t>
-  </si>
-  <si>
     <t>H.Long</t>
   </si>
   <si>
@@ -270,52 +270,52 @@
     <t>J.Sanders</t>
   </si>
   <si>
-    <t>NIG(25.228371623457363, 15.034400063886068, -3.545301679201108, 29.625095766426867)</t>
-  </si>
-  <si>
-    <t>9 24 13 17 13 7 10 20 34 17 18 23 20 17 13 27 31 13 28 22 14 10 23 9 18 3 17 17 10 20 17 12 10 10 21 12 37 13 23 34 31 14 42 9 33 24 17 20 27 16 20 3 33 3 27 20 3 17 37 14 24 34 16 17 20 33 21 7 17 13 21 7 24 30 20 17 13 21 23 6 3 27 3 24 13 24 19 20 15 23 17 14 5 20 16 9 20 13 23 20 20 19 20 20 24 13 34 20 13 17 17 34 13 20 20 30 12 13 20 17 20 6 13 20 10 30 15 23 20 13 17 24 6 18 21 10 25 17 12 17 24 14 20 16 13 20 28 20 14 3 14 13 15 3 13 38 34 22 34 9 7 10 13 18 14 34 7 6 20 31 28 19 27 15 6 10 16 6 27 14 34 21 6 11 20 24 15 37 17 17 3 27 17 17 7 23 16 10 12 17 17 27 17 17 30 22 16 31 3 30 13 24 12 20 33 28 16 40 13 16 20 10 19 31 17 23 7 16 14 24 17 13 30 0 24 7 17 0 20 38 10 20 17 10 23 3 20 10 21 13 27 0 17 23 17 27 17 10 13 16 17 20 28 20 13 3 20 6 14 12 31 14 9 24 19 10 10 17 9 20 10 17 33 17 20 20 7 20 14 27 20 14 19 14 16 21 20 28 20 14 13 28 17 21 20 12 12 29 16 23 3 21 7 29 19 27 34 26 19 27 20 13 27 23 24 24 21 9 9 3 13 21 13 35 30 14 34 3 37 20 3 19 7 13 16 7 33 14 35 23 37 16 13 3 22 22 16 6 23 21 9 19 17 24 13 16 27 14 19 27 13 27 23 17 17 17 30 14 24 21 20 13 6 15 0 19 13 37 30 20 7 10 10 12 10 19 20 10 27 13 34 21 20 27 20 21 17 10 16 24 36 30 27 28 27 17 11 27 17 20 10 16 14 31 21 15 7 17 38 18 13 9 9 20 24 20 34 17 30 19 19 7 27 18 7 0 14 17 10 10 15 20 7 14 21 17 28 31 20 24 13 6 37 19 38 31 34 6 16 35 23 20 10 12 16 20 17 26 13 23 24 38 22 28 34 34 17 10 16 26 17 24 21 27 9 10 10 3 34 34 20 24 17 14 24 14 0 24 17 30 13 24 10 23 13 31 23 10 35 21 27 22 12 17 16 12 20 26 13 31 7 25 9 19 3 6 34 24 14 10 10 10 20 30 21 14 15 24 8 23 10 10 34 24 21 14 27 20 16 20 10 10 27 19 12 13 17 28 13 45 12 20 17 17 31 13 3 20 24 26 20 3 18 12 3 20 13 37 10 14 22 21 16 23 15 42 16 9 13 17 20 23 19 16 9 35 21 24 14 23 14 10 27 30 7 13 0 34 31 13 13 11 23 23 24 21 28 14 12 14 13 16 12 34 23 17 20 17 40 31 20 17 27 30 6 23 16 3 27 16 20 14 37 27 21 27 24 24 13 23 16 23 0 13 10 13 23 13 3 26 24 26 14 27 22 17 20 16 23 11 16 23 27 20 13 20 31 3 21 24 28 17 17 23 13 23 13 17 19 7 13 23 31 31 20 17 21 21 0 16 24 35 24 23 13 20 21 7 13 0 27 10 20 13 10 20 14 36 22 6 30 10 13 28 17 17 24 20 20 14 31 13 6 12 12 27 35 23 16 23 36 14 18 17 17 27 10 17 10 20 13 27 13 7 17 14 27 23 23 30 36 20 10 17 34 22 14 31 23 23 13 23 24 7 13 10 27 13 13 13 26 12 23 16 14 16 12 26 6 38 10 14 31 41 10 28 10 14 7 27 10 32 13 34 17 24 20 23 21 17 19 10 10 24 10 34 20 29 13 15 14 34 21 14 14 14 24 17 27 16 19 20 10 10 5 16 9 16 7 14 38 14 14 24 23 14 20 23 18 6 13 23 19 10 27 3 33 21 16 17 28 20 3 17 13 34 10 9 21 14 23 39 27 19 17 17 17 23 24 20 24 23 30 12 19 10 9 10 34 24 13 13 13 9 27 10 24 31 24 24 27 24 10 20 6 34 28 10 24 7 22 9 13 24 17 17 23 16 12 10 6 21 18 35 35 17 37 24 13 19 20 30 17 27 14 28 21 18 33 27 16 12 3 31 21 24 16 31 33 6 22 24 22 13 27 35 9 13 28 17 13 12 21 30 20 26 24 15 10 10 13 13 7 24 14 24 17 13 24 17 23 31 9 13 17 9 19 16 34 20 21 23 10 24 16 13 31 21 10 17 12 19 33 13 14 27 27 30 10 10 17 13 23 17 16 24 16 14 19 33 23 24 16 23 27 6 10 10 27 27 34 31 20 14 21 17 8 14 31 20 19 21 24 20 15 31 7 16 17 27 7 13 26 3 31 27 13 0 17 21 17 17 21 10 13 13 16 10 14 14 17 17 14 10 31 37 21 16 19 23 15 17 14 20 16 10 23 10 30 21 3 35 12 9 0 16 33 17 12 30 22 24 16 21 34 18 24 23 42 20 14 20 27 3 20 26 7 25 24 6 9 9 17 34 17 13 17 23 10 20 0 17 16 3 28 10 14 21 16 24 17 17 35 10 17 27 13 17 38 0 27 33 13 27 3 6 21 17 18 14 9 16 24 27 30 0 7 24 17 27 9 20 27 24 17 10 24 7 19 23 17 26 6 14 17 16 21 10 40 21 13 13 24 20 22 16 10 6 13 30 6 27 24 23 21 24 14 8 16 20 13 20 3 13 24 21 27 20 7 16 3 17 30 7 24 17 10 3 13 16 28 31 27 22 27 24 20 7 23 27 13 3 13 7 13 24 6 22 20 23 20 10 10 16 22 9 13 20 17 10 19 9 15 26 17 17 14 30 10 3 25 20 13 17 28 16 21 28 19 17 13 27 25 23 38 17 23 13 20 21 37 23 18 21 30 20 3 10 16 23 16 27 12 13 6 9 24 20 20 20 19 27 14 20 6 13 22 10 13 31 0 27 17 10 6 7 23 10 14 10 24 3 17 20 13 28 24 20 14 17 10 30 7 35 31 9 6 28 20 10 22 23 17 17 3 10 7 2 0 21 13 17 13 24 24 20 24 12 20 27 13 24 14 23 21 24 19 24 25 20 10 16 16 29 20 28 14 13 23 10 3 17 16 7 14 27 21 35 13 20 24 16 9 10 20 17 6 16 16 28 23 17 10 24 10 14 17 19 17 22 22 21 10 24 24 24 10 28 10 22 10 20 37 19 13 23 44 17 38 9 15 13 14 20 24 6 16 23 7 35 27 42 7 18 17 13 13 3 23 27 22 29 16 38 3 14 7 13 10 24 7 18 17 16 7 17 34 31 21 20 10 17 16 36 16 24 14 24 16 13 7 27 36 19 29 13 8 3 19 30 23 13 6 12 19 28 10 31 12 21 3 17 20 20 8 26 17 17 16 7 27 20 27 16 24 31 6 42 28 28 10 24 32 10 10 27 20 24 10 19 7 12 10 14 33 10 23 24 14 13 16 20 10 29 31 10 9 24 42 17 24 20 14 13 17 19 36 17 37 20 17 14 27 19 10 13 33 14 19 21 20 24 14 23 28 49 6 24 19 21 7 28 17 20 21 3 17 20 17 14 20 33 17 10 30 35 22 24 14 20 14 15 27 26 13 16 27 29 12 23 13 33 20 13 33 13 12 31 10 14 27 36 15 9 33 16 7 10 27 14 17 27 26 24 21 17 10 20 23 14 19 16 13 20 37 12 24 6 34 7 17 20 7 17 24 23 20 29 31 24 17 17 10 49 19 0 20 14 10 10 20 40 18 12 13 28 14 21 28 28 17 20 13 20 12 34 24 18 24 30 13 7 7 9 23 17 7 14 17 38 13 10 21 17 10 21 16 14 26 16 21 21 23 21 21 20 13 41 24 34 10 48 20 26 23 17 20 23 17 3 27 12 24 7 23 10 24 13 17 9 27 16 17 24 17 10 23 13 20 24 6 20 19 17 16 17 24 15 9 27 23 27 12 14 24 10 20 19 17 9 9 26 17 24 17 17 30 17 3 17 34 34 16 16 15 16 10 27 17 10 31 10 10 14 13 10 17 14 28 6 3 16 10 26 16 34 17 27 26 14 14 17 17 13 20 6 16 13 17 27 7 0 17 14 20 0 26 20 20 16 26 30 24 23 31 21 3 35 20 33 23 16 17 37 7 7 13 0 20 11 12 6 14 11 18 22 33 10 6 38 20 24 3 10 11 26 14 10 17 10 28 15 23 24 24 0 14 16 0 34 11 37 31 20 20 31 10 17 31 12 21 27 10 20 10 20 28 17 10 10 24 23 30 17 14 30 10 23 12 40 16 20 14 9 20 22 31 23 23 24 14 31 17 26 14 9 24 14 10 16 18 23 20 13 17 18 13 47 7 23 17 13 24 17 17 12 27 7 20 17 10 14 16 30 16 13 12 11 26 6 24 27 13 24 18 7 8 31 33 17 23 14 16 14 16 16 20 6 17 24 24 38 20 24 17 17 20 19 34 20 13 3 7 22 17 20 16 22 20 9 20 17 34 33 16 19 19 14 20 31 17 17 12 13 24 13 24 13 30 27 21 19 20 14 10 16 22 13 7 20 23 12 27 6 22 20 9 28 13 21 20 6 17 27 13 17 20 37 23 17 19 17 3 20 19 6 9 9 13 13 23 27 7 7 7 9 24 7 24 27 9 21 12 15 20 24 7 19 16 21 38 17 18 18 3 17 22 14 24 29 20 20 13 24 24 17 30 24 22 27 27 30 24 31 31 23 27 13 30 24 9 11 21 10 23 13 26 10 41 6 9 17 12 6 22 16 7 10 17 17 7 17 19 10 3 16 17 28 10 10 21 27 31 31 12 14 11 14 27 17 3 14 21 11 17 17 33 10 34 21 17 27 16 23 13 10 10 31 17 14 17 13 11 21 27 13 18 13 26 24 14 16 16 34 17 34 33 17 20 24 12 22 9 27 10 17 14 27 20 17 33 11 17 17 9 17 7 23 20 17 31 17 23 17 17 15 10 23 7 21 27 9 16 7 20 16 10 13 34 24 28 6 7 9 15 17 7 7 12 10 22 17 22 13 21 17 10 23 20 19 19 17 10 30 12 13 26 18 9 26 35 13 20 10 6 10 13 17 21 34 7 12 13 10 42 7 14 21 23 14 24 14 17 20 10 37 31 13 27 22 20 23 10 9 19 23 23 20 20 20 27 14 14 13 8 24 7 17 21 17 17 20 21 30 10 10 34 16 17 13 35 6 14 17 37 6 16 21 30 10 20 20 17 12 40 14 14 24 15 17 13 0 10 24 24 24 19 17 10 23 17 20 6 27 20 9 10 10 25 10 9 9 18 17 24 21 20 26 21 21 9 21 14 21 29 16 35 30 17 12 13 13 27 10 17 20 31 27 21 27 26 13 34 3 21 10 17 23 16 21 17 23 30 13 20 7 17 13 19 13 24 16 16 15 31 11 30 24 6 10 17 30 10 24 21 34 21 10 17 27 13 17 19 20 28 3 17 0 20 9 10 17 20 23 17 29 22 23 31 14 13 43 25 17 13 23 20 16 21 17 17 21 10 17 24 21 10 6 20 19 14 29 17 34 28 34 21 17 37 28 6 30 16 23 20 19 13 11 0 3 24 13 10 3 20 30 9 20 14 19 13 21 21 16 27 16 16 22 10 13 24 35 17 24 13 14 21 13 23 13 13 31 7 20 19 17 28 14 20 13 38 35 41 34 14 24 21 13 10 31 13 27 7 10 17 17 23 19 29 23 14 30 26 27 16 15 30 16 10 7 20 10 10 30 23 14 33 20 13 28 29 28 20 10 34 13 10 26 6 7 22 13 16 24 27 23 31 10 35 26 6 20 16 16 3 28 17 20 17 40 16 10 13 27 19 15 27 26 35 23 27 23 19 14 13 7 3 17 15 14 3 9 27 9 30 7 12 26 17 24 9 14 34 17 23 15 3 24 24 24 20 24 16 13 17 26 21 24 16 10 28 20 23 20 27 23 16 24 17 21 20 24 9 2 19 20 16 21 21 25 23 9 3 17 30 24 6 25 24 19 38 21 15 16 9 30 3 33 23 3 8 48 20 24 28 23 23 27 13 28 21 13 17 17 34 12 14 20 3 23 6 7 24 13 22 6 28 21 10 13 26 12 24 17 21 26 13 3 17 35 24 10 16 23 6 16 29 10 17 16 30 23 17 25 14 10 20 24 27 10 14 16 23 15 19 13 33 41 13 24 14 30 21 13 30 19 17 23 9 33 16 13 10 21 23 9 19 17 24 10 34 6 20 23 12 20 13 24 10 20 22 9 35 24 31 23 16 30 31 19 34 7 37 27 25 6 17 15 23 21 17 31 13 6 13 31 6 24 17 27 26 7 13 10 34 3 27 12 23 45 45 10 20 11 30 24 24 25 24 17 13 28 19 17 37 20 16 17 20 16 22 23 14 19 20 7 28 33 17 13 10 24 13 13 16 20 23 24 20 13 21 14 10 17 22 13 16 38 31 23 20 30 38 27 31 20 16 6 7 20 17 19 24 20 21 20 20 21 29 27 34 19 17 17 22 13 30 20 10 23 24 17 27 24 19 21 17 23 24 26 17 27 15 6 20 28 7 20 23 3 21 16 23 20 0 17 17 10 9 17 7 17 24 31 17 24 24 13 12 11 17 30 3 17 21 6 0 6 17 10 24 17 31 37 13 12 17 13 12 17 27 10 6 9 23 17 33 7 22 21 13 16 14 13 13 31 17 13 24 6 29 24 20 16 17 28 17 31 24 13 20 33 36 17 24 10 24 20 27 26 3 21 17 19 28 17 17 3 10 14 23 10 27 17 20 9 19 16 19 16 21 20 23 21 37 31 21 17 20 7 28 24 27 31 6 9 6 17 30 14 24 23 24 10 16 21 17 34 0 16 17 10 27 21 20 24 10 12 6 29 3 33 13 30 34 13 14 40 11 14 13 10 13 31 20 16 21 9 34 51 29 24 3 17 17 17 27 20 23 14 34 17 13 27 7 24 23 13 27 16 11 13 14 3 13 15 13 24 16 17 17 31 15 34 31 10 31 20 26 31 13 31 19 13 20 27 14 17 10 19 16 0 30 19 6 17 17 13 13 34 13 31 17 24 13 10 19 27 28 26 30 17 21 40 28 16 13 27 27 17 0 13 26 14 15 20 31 7 16 19 17 16 33 24 20 24 13 20 26 20 17 34 22 13 31 24 22 19 27 17 14 27 16 17 9 13 12 13 31 21 30 17 20 13 20 23 24 3 24 27 20 9 13 31 3 14 10 15 13 23 6 13 16 7 15 34 0 19 7 13 17 24 12 16 15 7 25 30 27 16 10 24 20 10 24 12 24 14 13 25 6 35 14 20 20 23 23 13 17 47 20 9 7 59 16 17 24 16 12 21 23 21 27 13 10 24 21 10 20 13 13 21 9 17 7 30 13 38 30 34 14 19 20 13 20 12 17 20 10 31 27 31 10 10 23 13 41 28 24 7 34 20 27 16 24 17 20 16 20 24 3 14 17 10 20 9 9 10 10 6 13 7 24 31 21 17 29 17 22 2 21 6 16 6 6 21 6 14 23 17 23 16 11 17 30 28 28 24 20 20 31 37 13 27 7 24 13 17 24 20 20 27 10 17 10 27 20 13 21 31 9 21 27 23 6 23 10 38 20 16 20 24 34 26 16 13 30 23 17 28 15 28 9 20 20 24 19 33 16 9 24 20 17 7 13 18 34 24 14 16 28 10 31 27 28 7 6 22 20 27 20 7 20 20 6 16 10 19 13 7 17 21 9 13 30 20 22 10 34 24 28 19 7 10 27 6 0 16 20 19 34 19 40 12 12 14 17 20 30 21 16 23 10 14 17 20 6 22 24 9 13 16 14 9 13 18 17 16 13 17 12 17 13 13 16 7 13 20 20 41 22 30 16 10 10 19 13 31 20 16 13 20 14 12 13 14 6 10 12 26 12 24 14 7 20 16 14 17 17 10 41 24 13 26 14 10 17 24 12 9 24 17 17 17 21 3 17 14 20 20 14 0 13 7 20 12 27 23 31 30 24 3 17 17 35 23 17 3 0 30 31 31 9 22 23 7 23 15 28 34 13 14 28 21 41 10 16 13 31 13 6 41 3 25 30 17 33 16 10 17 31 9 19 19 15 14 20 41 24 27 27 17 13 22 10 28 16 17 24 27 7 16 20 27 28 28 39 20 24 20 17 21 7 13 35 34 16 6 15 10 24 14 22 23 17 16 16 24 12 24 17 17 34 21 17 23 15 12 17 14 24 23 13 13 7 23 20 12 3 24 24 16 13 17 24 16 16 10 27 14 14 16 24 10 13 17 3 20 17 13 13 20 6 9 16 12 14 14 6 9 20 15 3 24 6 17 19 13 17 27 19 16 31 9 13 14 17 24 23 14 7 20 30 24 17 7 20 7 17 8 18 7 6 20 30 23 3 10 17 19 18 21 10 3 20 10 17 23 24 7 15 12 34 20 29 17 11 24 23 10 14 17 10 14 10 12 7 6 10 13 14 23 23 31 6 30 34 14 24 30 23 17 10 14 19 19 10 17 24 17 24 10 17 19 15 23 18 9 40 16 21 9 21 21 28 7 24 27 0 26 24 9 10 15 20 19 17 26 17 24 13 27 24 17 24 16 20 24 14 13 15 3 30 31 20 10 35 14 17 10 13 23 23 30 21 6 21 21 7 24 20 31 28 9 14 27 23 7 10 37 16 10 13 20 6 33 13 10 26 16 20 16 24 6 3 33 36 23 34 31 17 10 21 23 13 14 17 24 20 20 12 21 20 24 17 0 26 17 19 15 21 26 21 27 16 17 24 17 28 24 26 16 13 20 22 16 14 24 24 19 20 20 24 18 20 7 20 31 27 13 7 10 31 17 21 13 16 21 20 10 14 17 17 7 14 13 23 17 24 38 10 14 20 24 13 21 3 16 7 21 9 20 0 45 23 20 35 22 20 34 28 26 25 17 9 20 3 17 28 30 37 20 13 13 13 6 24 3 16 38 10 17 20 17 10 17 10 6 20 24 10 17 24 16 26 16 24 3 13 20 34 20 34 23 14 9 9 9 19 14 6 16 13 6 16 10 14 22 13 20 13 14 17 21 34 17 17 13 11 13 17 37 10 35 13 16 17 20 6 17 18 33 33 12 16 17 7 31 13 26 16 3 33 24 10 27 27 16 16 27 24 20 41 17 15 16 28 34 20 12 21 27 14 28 10 23 9 14 17 14 13 21 7 14 20 20 27 28 7 24 19 13 23 17 13 20 34 20 20 10 15 10 17 14 23 23 13 20 14 19 20 16 15 13 17 21 12 3 14 17 17 38 16 0 23 30 50 22 37 10 6 34 13 27 14 6 31 20 22 23 23 7 17 23 24 13 14 3 7 21 16 20 28 9 16 17 37 9 17 16 23 3 27 26 26 18 19 14 27 20 6 10 16 6 22 27 13 22 16 10 20 21 9 23 14 23 13 0 10 14 24 17 10 23 26 12 7 10 7 12 24 9 14 20 15 10 26 33 13 31 17 10 9 10 16 28 10 28 13 37 37 21 13 31 34 13 38 9 22 38 16 13 13 3 34 10 24 3 13 24 7 13 17 16 28 19 32 13 7 13 4 31 17 16 16 23 8 31 23 28 7 3 23 15 9 31 20 19 17 27 12 26 20 21 38 16 14 29 27 24 17 24 17 17 12 13 14 10 23 20 13 21 30 21 3 28 27 10 14 3 9 17 13 17 13 6 19 17 15 26 3 21 16 20 24 10 7 20 32 27 24 16 30 10 16 26 28 13 33 17 23 10 19 14 23 21 21 17 10 14 23 13 16 17 23 6 3 35 31 7 17 13 17 20 21 30 25 6 17 18 19 20 20 7 14 27 17 29 31 7 13 13 15 20 9 6 22 13 27 24 27 20 21 31 14 17 6 14 21 16 23 7 28 21 22 19 7 23 10 23 16 27 17 20 23 17 13 24 14 14 27 9 14 17 9 24 21 23 0 14 17 10 24 12 14 17 28 13 28 32 17 21 23 7 23 26 14 13 14 10 38 27 17 16 17 14 17 13 8 17 17 23 21 33 20 30 37 6 15 23 3 15 17 28 27 20 27 40 17 21 27 14 14 20 22 31 13 20 7 24 12 10 16 17 27 17 20 12 6 17 26 19 20 12 45 13 17 14 10 33 24 13 24 9 34 10 16 10 14 14 9 20 13 27 7 34 21 16 10 24 31 24 20 21 13 12 16 17 17 26 18 27 13 27 19 14 28 6 20 24 24 30 13 7 6 23 10 13 13 38 14 27 17 20 17 23 16 16 24 22 16 6 20 10 21 20 17 14 0 20 20 17 17 20 10 30 6 31 26 31 30 24 17 19 9 28 12 17 3 17 12 20 20 24 13 36 30 21 24 0 30 10 28 7 18 14 11 23 27 28 22 17 7 20 20 10 17 20 10 20 24 6 16 20 34 24 17 27 27 7 10 27 16 17 31 6 13 30 18 6 19 12 20 17 17 32 10 16 23 20 20 23 17 20 24 21 38 14 27 6 19 24 23 13 20 13 12 6 14 20 10 20 16 13 28 10 13 13 16 31 16 7 16 9 31 20 13 24 17 20 19 8 23 13 10 14 26 13 13 28 13 10 20 16 23 36 6 6 0 7 13 14 20 26 26 24 10 24 16 9 17 20 10 33 31 10 20 17 13 17 13 20 10 27 20 7 15 6 10 21 23 14 34 33 22 3 27 13 6 20 13 31 17 26 20 23 6 20 30 23 20 33 31 12 33 24 20 20 21 24 22 13 19 16 34 13 20 23 17 30 12 17 7 20 9 13 14 14 13 17 15 13 30 13 6 10 42 23 35 16 17 7 23 13 23 24 20 31 23 17 20 16 10 14 23 23 14 17 20 16 15 10 16 16 17 24 34 34 28 10 23 14 17 16 7 26 3 17 21 23 17 10 13 17 11 17 9 6 11 10 20 13 29 16 37 20 24 6 17 19 20 31 17 15 11 21 27 7 12 6 13 14 18 17 6 12 17 28 10 20 16 10 26 21 14 13 3 9 6 12 0 28 25 12 23 16 26 26 6 20 13 12 31 28 23 13 13 20 34 24 21 20 15 6 7 15 3 20 24 16 17 28 17 14 38 17 22 17 34 20 14 10 23 17 12 10 13 22 10 27 19 20 20 26 17 17 13 14 10 23 14 14 13 22 7 28 17 15 13 24 7 27 23 23 20 34 16 26 13 13 13 19 27 17 16 21 10 13 10 17 12 16 19 14 6 20 3 16 20 27 24 31 17 24 7 20 20 13 10 0 30 6 20 7 10 10 17 33 14 20 27 13 22 3 24 28 13 14 14 10 23 28 10 20 17 22 10 9 10 16 16 26 7 37 7 22 3 20 9 13 3 12 16 10 20 27 17 24 20 27 26 10 20 14 21 24 23 17 14 22 23 10 14 23 3 24 23 27 24 13 20 17 14 3 14 41 26 20 27 3 21 16 23 10 13 19 28 21 11 19 14 21 21 22 21 30 17 14 37 13 10 21 19 26 19 16 23 20 17 16 16 28 6 10 31 13 30 20 3 19 27 17 3 24 16 20 27 20 24 16 23 20 13 16 15 18 31 27 13 14 16 12 13 20 12 20 31 9 31 13 13 37 26 10 14 27 26 30 14 27 17 17 10 25 23 17 26 13 17 31 34 21 17 17 19 3 13 17 13 28 23 18 10 27 19 13 19 10 10 35 24 13 24 12 20 13 23 17 16 19 27 19 31 22 16 17 3 9 13 27 9 13 19 14 9 12 17 13 17 23 12 24 3 17 27 13 3 20 21 14 26 10 10 27 17 20 24 10 19 10 24 24 6 20 23 10 27 38 12 16 19 24 16 12 10 14 22 17 21 27 24 29 17 26 13 19 17 20 13 23 23 16 13 24 35 21 27 17 9 20 19 9 20 20 37 20 24 35 27 17 20 14 20 28 12 10 6 16 10 7 23 13 27 16 9 20 17 19 24 10 12 26 13 17 27 23 26 21 6 23 17 3 22 31 17 21 20 33 17 6 23 17 31 31 3 21 21 23 16 20 16 17 12 30 21 21 24 29 15 26 20 14 31 13 35 24 10 19 3 23 17 10 15 17 23 23 35 17 19 23 18 10 27 23 10 14 13 7 13 38 27 28 14 24 20 17 10 20 24 17 7 6 41 26 28 20 14 26 10 17 6 20 17 17 10 7 23 14 13 24 6 34 10 6 12 9 30 14 16 3 21 26 23 6 20 24 26 29 14 24 17 20 27 26 21 24 24 27 13 28 14 0 14 13 17 17 20 6 33 14 9 15 21 3 23 6 15 12 14 10 30 17 30 0 20 22 10 17 10 9 20 14 7 13 10 17 30 22 24 13 6 23 34 13 20 33 23 24 16 14 9 13 25 13 17 23 14 13 30 24 37 16 12 13 27 16 3 20 10 9 27 26 21 24 17 9 7 20 24 13 14 17 13 16 17 21 19 14 30 34 6 16 17 9 26 21 14 7 14 10 22 30 20 14 27 17 16 6 23 10 3 23 10 17 14 27 20 44 23 17 6 29 17 23 29 10 10 16 12 28 23 14 17 12 24 24 13 7 17 17 13 16 7 13 24 26 24 17 7 6 17 13 17 16 10 6 16 23 16 16 3 20 12 20 6 34 17 14 27 23 17 20 24 3 23 17 24 9 27 30 9 20 15 19 31 17 31 13 17 34 6 16 15 7 30 14 23 23 13 16 31 24 20 40 35 16 7 7 17 37 13 21 20 14 24 3 31 24 20 13 27 16 20 16 15 17 13 18 23 24 17 29 19 9 13 13 0 20 29 17 31 27 34 10 20 27 27 17 16 10 31 16 16 17 24 31 20 13 42 17 27 12 20 11 24 10 23 27 31 8 17 21 25 13 10 16 23 13 17 6 17 20 27 16 15 22 16 16 16 14 14 13 20 31 13 14 26 13 0 24 16 17 10 19 24 27 27 10 33 21 13 34 17 14 30 10 7 24 13 15 10 17 3 23 30 9 17 16 16 22 10 27 27 24 9 16 16 20 34 20 14 6 20 34 16 17 17 6 13 35 13 13 17 29 23 20 34 6 12 14 24 14 14 21 20 10 37 34 10 24 27 30 17 21 17 24 17 10 23 10 30 24 21 21 16 14 28 28 14 28 16 20 26 16 21 24 23 20 6 13 13 15 26 20 10 20 6 13 18 7 13 28 10 19 9 22 24 6 12 3 24 27 7 49 13 27 20 20 16 12 30 13 20 3 17 34 33 22 24 11 10 13 31 38 28 17 24 6 21 10 16 33 17 24 20 30 30 16 20 16 31 6 20 33 0 27 35 16 20 7 16 13 7 7 10 10 35 20 15 6 7 17 27 10 14 17 9 16 9 29 20 6 23 16 11 17 20 6 17 23 20 21 23 0 28 10 13 15 26 28 17 20 16 16 14 34 28 17 10 0 20 7 24 17 20 31 20 13 13 13 23 28 3 14 27 10 27 6 24 14 22 14 19 14 13 16 23 12 6 17 13 28 13 20 17 23 25 17 14 16 26 20 23 7 17 21 36 6 16 24 17 17 24 16 27 19 19 27 3 9 24 7 26 27 14 23 7 13 3 3 17 31 6 17 24 18 10 9 20 23 10 17 17 10 32 13 52 20 10 27 7 20 16 20 24 31 13 17 16 9 13 14 10 13 13 38 18 31 20 10 21 17 13 7 17 17 14 21 35 10 23 20 17 12 13 12 18 25 21 24 21 20 6 21 16 24 17 17 20 7 13 20 16 7 27 27 15 17 16 30 6 28 17 34 3 12 41 14 28 24 7 10 3 6 33 14 20 7 0 20 27 17 23 20 20 21 23 36 34 12 27 14 10 31 17 26 14 17 17 30 3 22 30 3 7 9 31 7 21 21 10 40 31 13 24 13 27 13 13 13 27 35 21 34 30 30 20 20 12 16 37 3 17 17 16 24 17 6 10 3 14 27 14 10 24 16 14 21 7 13 16 16 21 7 10 23 30 19 23 20 27 33 25 16 19 14 20 21 26 19 27 7 21 10 19 10 19 15 31 21 20 14 27 30 30 6 10 17 10 16 6 18 28 22 13 13 17 20 10 24 20 27 27 24 23 13 13 14 12 23 30 10 29 7 20 17 14 19 10 13 20 3 23 30 17 16 22 15 27 19 10 30 9 14 24 24 22 14 10 31 10 18 20 20 19 16 37 10 14 13 31 20 21 13 24 20 21 0 19 21 13 26 14 27 23 20 21 27 29 27 28 36 28 31 24 18 29 37 17 41 20 13 10 18 29 9 14 25 18 7 24 20 28 15 28 20 13 27 13 25 21 30 28 21 0 11 27 19 23 10 10 31 33 14 18 24 24 24 13 13 26 17 16 20 17 31 14 13 21 21 17 3 17 27 10 21 27 17 16 20 17 22 13 36 7 13 13 24 20 33 11 13 20 36 13 17 7 28 28 31 17 37 13 20 0 45 13 27 35 17 21 41 19 14 22 19 13 14 21 27 13 17 21 20 13 10 20 22 17 20 24 23 44 20 3 14 13 20 9 20 7 10 16 24 7 40 23 8 17 14 13 21 6 10 17 14 14 16 20 6 23 20 17 13 10 35 16 13 11 21 24 19 2 13 10 28 9 27 27 16 34 17 17 24 19 20 16 9 18 10 14 31 17 5 15 21 13 24 14 24 14 30 20 6 10 26 10 24 7 12 22 13 9 41 23 14 13 20 31 21 16 41 10 7 14 21 27 28 9 14 10 7 21 7 17 3 28 24 27 7 20 16 10 17 10 34 20 38 31 7 14 17 10 27 30 31 7 14 17 12 16 20 20 12 13 24 28 20 14 20 23 13 17 27 5 33 17 17 13 24 10 19 24 16 6 23 11 34 17 22 24 32 20 23 24 13 24 20 9 13 14 23 14 24 21 16 24 12 14 16 23 17 17 13 37 17 13 13 3 15 21 26 20 22 40 0 17 21 17 38 10 14 14 6 17 35 20 20 0 10 17 30 3 28 14 36 16 16 13 18 17 10 36 24 9 16 27 18 17 12 12 7 24 18 10 20 19 16 29 6 13 5 13 10 38 30 14 21 3 34 17 10 27 14 14 22 14 10 26 30 17 21 13 16 41 6 27 34 6 29 10 34 15 29 33 18 13 24 26 24 17 12 27 13 17 17 31 30 23 17 13 21 6 24 16 10 20 10 17 31 21 10 30 21 3 16 10 17 31 10 6 21 20 13 23 26 14 13 14 17 0 17 17 13 14 20 20 14 20 16 17 19 14 19 23 22 24 34 19 15 27 3 24 10 16 24 19 16 13 3 6 17 15 10 15 3 22 27 30 25 14 23 14 20 34 13 28 17 24 13 13 8 27 7 17 9 21 23 28 21 24 17 34 17 23 28 11 33 21 7 33 31 39 20 20 21 29 3 29 7 28 28 20 10 27 23 13 27 13 16 17 24 15 23 23 26 10 21 40 31 24 13 27 24 13 17 7 17 29 15 14 27 7 22 26 31 17 14 24 7 9 3 17 38 21 9 20 17 20 18 0 20 13 10 37 6 13 16 6 28 20 17 35 24 24 30 14 14 18 9 13 19 27 17 10 20 16 12 13 37 34 3 13 16 26 17 23 17 7 20 23 24 10 23 32 13 10 14 12 13 16 32 3 25 13 20 14 26 25 13 20 17 24 10 6 14 24 14 7 27 20 20 6 14 9 6 23 14 21 30 7 18 2 10 14 28 28 17 0 17 10 23 23 21 12 17 26 17 23 14 31 17 10 20 23 17 30 31 9 9 10 16 17 20 17 10 17 21 17 43 7 24 12 17 9 13 28 16 19 27 14 24 33 23 13 7 14 27 17 24 19 17 30 13 31 14 3 13 27 17 20 13 20 14 19 21 17 13 18 13 31 10 20 28 20 15 24 38 7 9 10 28 24 10 20 10 17 22 19 20 27 13 13 20 17 30 40 14 12 30 17 21 12 13 16 21 20 14 12 31 13 9 24 13 0 30 23 14 17 9 14 13 34 34 8 21 21 24 3 9 21 7 10 3 14 17 7 17 13 20 23 27 3 24 14 17 20 31 13 25 14 20 31 33 6 7 10 14 14 7 20 13 22 24 3 2 24 20 13 20 27 24 23 9 19 27 13 33 16 7 15 13 22 20 24 24 7 24 21 14 23 19 10 23 7 21 10 17 7 24 20 24 20 20 24 7 14 20 21 13 10 27 7 12 20 17 31 28 26 12 14 17 16 24 19 20 27 15 27 20 49 38 17 14 6 27 17 30 6 7 20 24 9 16 19 27 33 16 20 21 27 10 20 19 6 20 35 20 26 23 10 10 38 17 21 14 14 21 11 16 59 28 31 16 27 20 6 24 24 13 31 20 13 28 17 28 10 14 20 16 3 10 27 38 10 17 14 15 16 17 20 3 14 10 24 21 19 45 30 13 13 16 31 23 3 7 17 27 19 28 7 19 8 16 17 24 6 10 21 27 9 20 10 38 27 30 6 10 3 10 21 19 17 10 31 24 20 21 22 17 23 23 7 20 24 9 22 13 7 20 10 27 3 17 21 6 13 0 21 27 14 13 17 20 27 14 22 13 0 19 27 17 6 13 6 30 29 13 38 27 34 34 17 20 16 21 16 30 17 7 23 41 19 20 23 21 24 17 21 17 14 34 10 20 3 17 6 20 28 17 13 23 31 10 3 9 20 23 14 19 17 17 21 24 16 10 17 35 12 17 13 20 24 10 13 27 14 24 7 17 21 14 6 15 17 3 19 13 17 7 27 7 14 24 20 16 19 37 14 16 31 10 20 16 20 14 29 9 27 10 16 10 17 10 31 24 10 13 13 23 21 7 23 20 24 17 16 23 16 24 16 14 17 13 17 31 17 20 20 14 10 27 23 20 10 20 13 17 13 14 17 10 7 10 10 23 13 14 13 20 16 10 16 20 14 20 20 20 34 14 20 13 15 10 20 7 27 20 16 7 14 14 17 16 24 16 17 19 20 28 10 38 17 7 7 19 10 20 7 20 15 23 34 13 23 20 19 7 13 24 13 13 17 13 14 18 16 17 24 17 16 25 19 17 14 16 24 28 7 16 28 10 19 24 13 7 6 14 16 17 13 7 3 13 23 18 17 31 20 16 16 10 33 20 13 17 20 20 10 27 19 20 31 34 20 20 23 34 24 13 10 10 24 12 13 26 10 37 16 20 7 23 19 27 0 17 17 16 16 17 10 23 20 29 17 23 13 13 17 30 19 7 26 14 31 3 21 23 3 14 13 28 27 13 30 6 20 13 13 27 20 27 15 24 17 8 20 20 20 20 14 17 27 27 30 20 17 3 21 19 24 10 16 7 16 24 15 17 22 31 20 14 9 33 12 21 23 10 19 14 16 27 24 19 12 24 24 16 21 24 20 17 17 24 10 20 27 7 10 9 20 9 27 37 10 10 23 20 17 20 24 8 26 13 6 17 16 31 30 19 17 10 20 20 3 10 3 3 13 21 23 24 31 17 19 19 9 26 9 10 19 19 30 10 20 19 9 16 14 6 20 20 15 21 30 34 23 20 13 12 13 3 16 24 13 24 19 18 7 39 16 17 23 16 17 16 10 27 16 20 13 20 12 33 34 17 31 27 6 27 15 23 31 7 6 13 22 3 17 10 24 21 9 35 35 12 28 14 13 6 10 17 42 10 24 13 16 6 17 6 13 0 3 20 17 20 14 16 14 10 3 10 20 27 17 36 16 37 9 20 26 14 20 14 30 31 17 30 13 31 7 20 14 22 13 23 15 20 42 24 24 20 6 14 26 17 35 16 29 16 7 20 28 17 12 19 17 7 37 29 38 26 6 3 20 22 20 12 10 10 20 14 14 10 17 19 21 10 13 16 7 14 17 20 21 31 31 28 17 26 31 10 14 38 27 41 13 23 31 14 14 23 31 13 21 27 13 16 24 14 6 13 13 20 10 20 20 16 24 14 13 10 23 10 37 23 21 24 23 30 31 7 20 17 21 34 28 24 10 27 17 10 26 43 24 9 17 18 28 26 24 23 20 40 41 14 9 23 15 17 6 24 16 20 20 17 16 6 14 17 14 15 7 19 22 14 31 7 20 7 19 20 14 27 20 17 14 17 26 17 14 44 14 19 17 10 10 31 20 24 10 27 20 14 19 13 3 17 41 20 27 24 35 10 9 27 31 10 28 24 13 13 22 20 13 9 9 23 24 16 10 16 16 7 13 21 23 27 20 19 28 22 13 32 21 16 13 13 17 30 10 23 21 16 14 17 23 17 6 16 24 13 10 25 27 23 20 13 3 31 17 16 9 27 30 23 13 26 31 30 10 21 6 15 41 20 26 17 0 11 13 24 23 30 17 30 8 24 31 3 26 26 6 20 23 3 20 10 17 15 13 0 27 7 10 10 24 14 24 34 27 19 18 17 6 19 27 30 13 20 3 24 34 19 10 27 24 10 15 17 20 31 3 3 9 16 17 9 27 10 10 17 24 24 31 9 16 26 26 14 3 6 23 13 17 19 29 20 16 17 20 10 13 10 14 12 23 24 23 13 13 31 9 0 10 20 21 10 23 6 20 23 0 20 3 14 34 20 27 10 20 14 16 34 24 17 23 27 10 30 16 17 31 10 7 3 20 19 10 20 28 10 6 37 6 10 16 14 23 30 24 20 31 34 13 37 15 13 28 20 13 6 0 31 16 19 37 20 31 21 10 6 23 14 16 7 23 31 20 26 13 10 17 27 15 17 21 20 10 13 13 10 6 0 14 13 7 16 21 20 6 24 17 17 20 24 24 20 13 34 13 34 23 10 23 17 6 16 10 17 13 20 20 17 13 14 19 21 22 31 9 23 27 9 22 23 16 31 12 10 6 35 20 6 13 31 17 20 23 16 12 24 20 15 21 13 26 13 10 13 17 10 17 23 20 20 7 12 17 16 13 14 7 22 28 16 10 13 10 24 28 26 38 24 34 20 34 23 10 10 26 24 22 20 19 6 31 26 13 9 10 17 20 14 39 19 31 10 21 20 26 0 17 40 24 13 13 23 10 17 31 3 13 9 22 19 31 10 17 37 21 38 23 7 9 13 21 13 34 28 10 34 10 21 10 17 24 27 6 13 10 31 28 19 13 7 28 10 13 13 20 30 24 7 13 17 11 14 20 20 24 10 17 24 24 16 23 29 23 20 15 42 14 17 6 33 14 20 23 16 30 13 6 31 34 10 13 20 0 24 16 10 20 30 16 6 6 9 20 17 17 17 17 20 10 30 34 10 23 20 16 19 30 17 24 20 16 13 10 27 24 27 18 10 24 27 17 12 13 7 9 7 27 17 21 7 21 28 13 13 14 8 38 31 17 16 38 10 41 6 17 17 30 16 38 21 6 7 24 20 34 19 10 14 10 21 22 14 10 15 31 13 13 6 14 10 10 24 23 19 17 15 17 14 14 23 16 21 14 24 23 28 21 17 24 23 6 20 30 24 27 35 9 10 38 13 17 20 14 16 23 17 17 15 20 51 23 9 38 16 13 3 26 20 20 20 20 6 7 30 38 17 27 10 14 10 21 31 28 20 31 28 30 17 20 21 27 17 23 12 6 13 34 24 17 21 17 14 20 16 27 27 16 23 30 14 16 7 10 13 24 12 24 28 19 19 20 24 20 13 35 13 3 15 10 13 24 27 17 14 21 38 20 23 16 13 7 26 26 16 6 13 12 14 38 31 13 7 10 23 9 14 24 6 26 13 13 20 12 18 19 10 20 33 17 13 20 13 21 30 20 13 36 24 28 19 17 34 10 24 13 26 16 27 17 38 3 3 17 16 10 16 34 24 38 20 20 19 15 9 6 20 20 34 3 10 13 9 13 8 21 30 3 13 17 20 23 6 20 34 19 20 7 16 22 13 13 26 27 24 20 14 17 23 0 17 23 20 17 16 10 10 30 19 14 17 23 41 10 6 16 14 9 27 17 17 19 24 13 13 20 21 17 13 10 17 19 24 21 14 24 20 23 20 27 37 24 10 19 13 7 28 0 22 3 17 18 14 19 10 9 3 24 14 10 16 17 23 24 23 24 33 21 13 17 34 20 17 41 21 24 18 10 24 20 0 20 23 26 12 14 21 10 20 19 18 30 17 3 16 23 21 25 10 24 17 24 17 33 16 20 13 19 27 21 10 17 15 13 13 19 30 27 12 20 9 3 6 13 14 10 17 28 3 13 19 19 9 12 16 13 24 10 17 17 0 20 18 27 10 10 7 17 17 13 23 24 27 13 13 17 19 21 17 16 16 13 7 7 17 31 17 13 29 17 31 9 10 14 27 13 23 7 20 35 28 28 19 27 10 28 24 14 28 17 14 14 13 29 14 17 17 13 24 7 24 13 13 13 20 27 20 10 20 24 17 31 13 17 24 14 13 9 23 30 17 30 11 10 27 14 10 24 19 26 7 13 17 14 17 16 19 38 22 24 27 10 24 24 20 23 19 17 10 13 17 13 24 9 35 38 10 17 16 13 10 31 31 17 28 24 17 31 31 27 14 10 10 17 13 14 34 7 30 20 12 13 17 3 23 25 23 20 21 26 6 24 13 10 19 16 22 16 20 3 13 6 23 30 14 17 24 10 29 23 21 16 3 20 10 14 17 19 18 24 30 0 14 17 23 17 23 33 27 14 17 20 20 27 20 17 24 17 17 24 14 7 14 27 32 17 10 35 27 13 3 30 30 17 27 10 23 22 18 17 20 0 21 15 10 14 24 31 13 31 21 24 24 14 17 28 20 18 17 13 36 3 13 19 27 22 9 14 7 23 27 31 24 3 17 17 9 23 21 17 19 20 10 30 12 17 17 21 23 10 13 23 17 16 17 14 16 28 7 16 19 24 16 14 21 24 17 17 23 22 18 21 31 30 34 21 10 30 28 24 24 13 25 30 21 16 27 21 13 21 20 16 28 17 19 38 10 28 13 10 20 21 10 24 24 24 33 18 14 12 10 27 21 9 15 7 6 17 27 12 13 21 7 10 28 27 13 14 16 28 10 25 16 0 14 19 35 14 16 11 23 27 23 36 20 9 16 24 14 13 21 14 35 12 6 13 14 31 0 24 22 31 27 26 13 14 19 33 26 10 3 3 20 27 6 28 38 26 16 13 13 27 24 23 10 24 12 17 19 20 27 6 30 17 24 6 21 19 13 15 9 17 16 14 17 8 24 27 9 14 30 37 21 21 18 24 16 10 17 28 34 13 21 20 24 19 27 3 19 6 10 9 19 34 20 20 31 12 7 10 17 3 13 20 19 23 28 19 18 13 24 35 37 20 10 16 26 6 24 17 20 3 26 19 17 31 22 14 24 11 19 29 19 17 20 26 7 13 24 13 6 27 24 25 17 39 24 31 14 37 27 13 17 30 17 15 24 24 19 21 22 30 9 27 23 17 27 11 24 13 24 26 27 20 10 26 34 28 31 23 9 13 3 23 20 24 17 26 14 3 7 20 12 7 23 21 20 21 27 17 33 14 17 17 10 12 22 34 21 21 20 20 20 34 10 28 10 17 12 13 23 24 34 26 17 9 27 13 13 17 17 20 12 21 26 13 13 20 20 0 17 14 14 20 24 17 14 16 14 25 26 10 21 19 13 24 16 10 24 28 0 20 21 33 35 20 37 26 13 7 17 10 19 27 7 19 17 22 20 21 9 31 7 24 15 21 17 28 34 31 26 19 17 0 20 23 7 29 17 20 19 17 24 26 10 23 14 6 19 27 20 23 17 15 28 16 20 17 20 20 17 37 13 17 14 17 23 35 24 16 10 16 14 10 24 23 3 17 22 42 7 3 7 26 27 12 31 14 20 19 7 14 21 10 15 22 17 20 13 19 34 17 17 14 21 20 23 38 24 9 9 14 19 20 16 9 17 15 27 23 16 28 23 17 17 14 14 24 3 7 13 17 22 16 16 7 21 22 30 16 14 21 17 20 10 16 13 27 19 11 3 24 20 7 20 12 14 15 13 14 9 10 8 3 13 10 24 21 27 16 24 27 23 0 27 9 19 17 17 12 10 13 21 18 31 36 6 10 20 9 24 13 27 3 13 11 21 24 24 19 0 38 22 31 10 23 20 27 26 21 13 19 27 10 20 22 6 30 3 20 10 24 10 6 13 24 23 13 34 17 10 13 18 13 24 21 6 23 13 17 14 13 16 21 13 38 14 7 27 10 16 7 7 9 30 23 16 17 19 26 17 10 7 27 23 20 20 14 17 3 27 31 13 26 24 17 14 9 24 13 31 20 13 21 17 14 17 17 6 15 20 27 12 29 27 17 20 14 24 19 13 9 16 7 24 19 10 26 3 10 17 20 22 13 17 16 23 31 27 17 22 17 14 10 24 17 20 23 30 40 23 30 17 27 23 16 6 13 13 26 27 30 9 20 31 10 20 23 27 20 6 20 23 17 7 20 41 17 10 23 17 21 28 21 17</t>
-  </si>
-  <si>
-    <t>NIG(148.18005100832897, 75.96376061057862, -4.1418083749019905, 40.56944891499156)</t>
-  </si>
-  <si>
-    <t>21 19 16 26 17 10 16 21 28 18 21 27 22 15 18 22 26 20 17 22 21 19 14 20 25 10 18 21 26 29 14 17 17 13 19 14 22 17 21 26 24 20 31 17 23 26 19 19 20 20 29 22 32 12 16 21 9 16 14 16 21 30 22 22 24 20 21 18 12 17 23 18 15 23 23 11 19 22 19 24 24 16 25 16 18 15 19 18 20 20 15 23 14 19 18 23 26 19 18 23 27 17 16 19 32 15 23 23 14 21 23 25 21 26 19 26 18 21 19 23 29 16 16 27 16 27 21 19 19 16 17 21 15 23 18 22 24 19 20 21 17 19 17 17 23 17 13 13 24 19 21 24 18 20 17 28 25 26 17 22 15 23 18 18 16 25 14 13 17 17 20 24 28 23 24 18 19 18 25 16 17 19 16 21 23 20 20 23 19 16 15 18 21 15 21 25 28 16 16 22 15 23 18 19 23 25 21 21 16 23 17 15 21 20 33 17 19 24 13 20 24 23 18 23 18 21 10 13 12 21 18 30 25 29 18 13 18 21 23 24 16 24 17 17 21 18 21 11 20 23 21 23 15 19 20 22 20 20 19 19 18 20 17 18 19 18 20 15 24 19 30 20 14 17 20 16 22 17 20 18 22 19 23 21 17 23 23 19 19 21 24 22 21 22 22 17 23 18 16 16 24 22 12 23 15 22 21 26 19 21 17 29 13 26 15 20 17 17 18 19 16 21 31 20 23 18 20 24 17 12 23 22 11 25 23 18 15 8 27 14 23 25 19 17 11 12 31 25 26 19 19 15 19 19 26 20 26 20 28 17 26 24 15 22 30 18 29 14 24 24 22 25 32 27 24 14 24 25 23 20 22 22 18 16 9 27 21 28 21 21 17 18 20 16 21 18 18 23 23 25 20 29 18 23 20 21 20 19 15 20 25 24 22 28 19 19 24 26 20 16 22 26 16 24 17 19 18 23 21 23 21 17 15 20 24 28 18 22 21 22 15 19 22 18 17 22 16 33 23 23 17 25 18 17 23 21 18 31 28 24 21 18 25 21 27 21 22 24 20 24 24 18 20 19 18 22 20 18 16 24 20 28 19 24 27 24 22 21 17 17 18 15 16 22 21 23 14 14 20 33 21 24 16 17 19 13 13 23 19 26 14 24 15 17 15 21 26 15 27 19 21 23 20 20 25 27 17 25 22 29 21 21 18 20 16 24 25 20 15 23 14 22 20 23 21 20 16 22 14 24 17 26 24 23 24 17 19 23 17 19 20 18 26 23 26 13 14 21 22 26 19 22 16 16 23 18 17 20 22 32 16 19 14 17 15 20 16 18 16 18 19 22 24 25 26 29 22 17 17 21 17 14 31 19 16 22 18 26 23 21 20 28 13 20 19 23 13 27 27 14 21 18 25 23 25 21 26 20 17 21 22 22 12 25 17 14 24 19 18 22 21 18 22 31 13 24 18 16 25 20 19 16 18 33 25 18 24 31 24 21 16 21 16 14 16 15 23 21 22 17 22 21 20 19 25 20 21 17 25 20 16 22 24 13 18 20 18 14 16 23 21 21 21 26 11 22 27 24 21 16 16 18 24 17 24 19 26 17 18 23 28 21 25 21 16 19 25 22 17 17 24 15 22 22 16 15 27 28 21 21 27 15 20 19 20 14 17 22 18 21 29 15 26 15 22 19 29 25 20 16 23 24 16 31 21 30 12 20 13 20 16 16 16 18 17 18 24 22 18 24 25 23 16 14 28 24 18 25 30 19 23 20 22 14 13 14 24 22 23 22 20 16 18 21 16 19 23 24 22 32 22 20 21 35 22 21 23 21 17 19 19 22 19 23 18 22 27 21 19 17 19 20 24 19 21 27 17 22 12 19 13 24 27 20 16 26 24 17 24 15 27 15 15 20 16 19 19 19 10 24 17 16 27 19 27 16 17 17 29 18 23 19 23 17 21 12 21 23 22 18 16 15 17 26 27 21 17 18 22 17 20 29 18 22 15 16 16 23 14 21 23 24 25 14 15 17 14 18 19 22 18 22 30 17 22 25 20 26 19 19 22 20 11 17 20 27 22 22 18 13 18 21 20 21 19 18 25 24 21 24 30 18 21 24 24 25 26 21 13 18 20 27 14 22 20 23 20 14 32 24 24 20 19 20 20 16 18 19 20 17 28 27 21 13 27 22 18 18 27 14 24 22 22 24 16 28 17 17 15 22 20 23 19 17 20 22 27 25 16 21 19 23 12 11 14 14 24 23 26 16 18 19 21 23 20 19 17 18 20 18 18 15 19 13 23 22 21 23 20 23 21 23 16 25 20 19 24 13 15 25 23 21 15 19 14 21 17 17 23 19 17 21 20 14 25 16 15 25 25 20 20 10 23 11 22 27 17 16 18 22 21 26 19 13 24 23 19 24 27 19 18 21 23 18 14 19 11 18 18 26 22 20 14 25 26 16 28 25 25 16 17 17 23 16 17 19 25 14 17 21 15 20 19 20 24 18 21 20 20 24 23 19 16 15 18 14 16 26 27 16 17 20 24 17 16 23 21 19 23 20 19 28 21 29 21 15 17 22 15 22 19 18 20 13 24 21 20 26 13 28 17 17 27 21 18 15 17 21 26 18 22 25 23 23 21 19 15 12 22 25 21 17 26 22 21 22 12 28 17 25 21 28 27 16 22 17 22 20 19 22 18 19 19 20 22 21 22 17 22 24 17 18 23 25 22 24 14 19 20 19 21 23 22 22 18 17 14 17 22 19 19 20 20 14 21 22 20 23 17 29 17 18 22 20 18 24 21 25 17 30 19 24 21 22 22 22 21 12 21 29 21 26 14 23 16 21 19 19 24 20 23 26 20 15 19 17 27 17 24 28 22 26 22 19 25 18 22 27 16 20 18 20 24 20 17 25 22 26 21 23 19 17 18 21 25 26 22 27 24 21 23 25 28 25 19 21 18 17 16 29 32 18 24 18 13 14 19 20 15 25 19 23 22 19 20 19 20 13 14 22 16 26 22 18 19 19 18 23 19 16 21 20 20 17 18 22 19 22 19 11 19 26 21 26 24 18 13 21 15 22 26 19 25 15 22 29 14 10 12 20 20 16 18 18 20 23 20 24 25 23 18 20 16 25 10 21 18 15 24 23 20 23 14 23 20 28 18 19 17 17 20 21 29 25 18 24 23 16 16 18 18 14 20 16 26 26 20 15 26 23 24 27 19 22 17 15 19 13 19 16 30 15 12 20 14 25 17 26 20 20 17 17 27 23 14 24 18 24 25 24 28 22 21 18 14 13 23 20 12 27 23 28 15 28 21 25 16 18 18 31 21 24 19 26 15 15 20 23 13 24 16 20 15 19 12 12 22 24 27 21 20 25 15 20 21 22 16 23 26 18 19 21 25 19 21 15 16 18 15 23 17 22 11 18 15 16 23 30 16 23 23 14 21 19 21 25 11 17 26 13 21 27 19 17 23 26 17 26 26 15 22 18 22 14 15 18 22 19 25 25 14 13 20 21 20 16 14 25 20 14 13 16 22 23 27 16 23 22 28 21 22 22 20 22 21 20 20 23 24 22 17 19 19 23 15 18 21 19 18 23 20 22 25 14 16 27 17 19 18 17 13 25 14 18 20 23 24 23 21 16 22 17 12 15 24 26 19 18 16 20 22 13 16 27 22 19 22 25 23 17 20 23 20 11 25 16 25 26 19 15 23 27 20 21 23 18 20 18 25 23 16 23 21 22 21 20 23 21 22 21 17 20 26 21 22 19 30 17 23 15 21 24 28 20 21 18 27 20 23 21 20 21 21 31 19 22 21 21 16 21 14 23 24 11 20 19 13 18 20 16 19 20 11 25 23 24 17 22 26 25 19 19 16 21 19 28 24 27 16 26 17 12 23 14 17 23 15 19 30 26 21 21 26 22 15 26 16 20 23 29 18 25 17 18 22 19 22 24 19 16 15 19 17 18 25 20 20 20 17 21 18 17 24 21 28 22 19 26 20 17 19 18 21 18 21 19 17 19 17 24 23 21 21 24 20 24 18 21 23 11 18 19 27 17 25 16 21 24 18 13 27 21 24 15 25 24 16 21 25 17 20 22 23 19 16 21 17 14 20 16 16 19 18 24 14 26 19 23 25 19 23 19 18 21 18 16 20 28 17 20 19 8 19 18 19 21 23 19 20 15 19 21 20 22 22 22 8 24 25 26 31 16 22 30 15 15 15 16 18 21 19 27 15 22 18 17 21 18 12 28 18 18 15 16 16 20 21 19 18 21 37 22 22 22 25 12 15 15 16 20 19 24 24 19 24 28 12 17 19 19 14 17 17 21 7 19 21 17 21 14 16 23 21 19 18 18 22 27 12 32 19 20 25 20 20 25 17 23 25 22 22 21 18 25 19 24 22 18 23 20 21 25 20 18 22 19 11 22 12 20 27 22 20 20 19 17 27 17 21 21 17 20 18 29 21 13 24 25 21 26 23 20 18 19 13 17 23 23 24 20 19 30 23 23 22 13 19 15 21 18 20 29 23 22 21 18 18 24 21 20 18 20 15 16 16 20 13 25 20 17 25 16 22 18 17 17 18 19 24 24 16 24 24 19 20 15 23 20 18 25 17 18 15 15 16 26 20 22 16 24 27 21 20 18 17 24 12 20 17 31 21 24 17 17 18 16 22 23 18 15 22 16 21 16 26 14 19 17 19 23 18 16 19 15 14 9 20 21 14 24 19 14 22 17 20 20 19 20 19 24 29 13 23 18 13 13 26 19 16 21 15 21 23 23 16 21 23 18 20 19 22 17 23 24 26 23 17 21 24 22 19 13 18 20 23 22 18 17 31 17 15 22 18 17 25 19 12 16 24 22 26 15 26 22 11 24 24 19 19 23 19 15 26 24 20 16 24 18 25 20 17 22 19 20 22 15 22 16 28 30 21 18 21 17 18 22 15 22 19 20 20 18 18 27 19 23 27 17 19 23 18 16 19 33 19 32 24 19 27 18 23 20 18 21 14 17 13 29 26 18 18 15 18 16 18 20 25 28 19 19 21 18 24 15 21 20 17 21 14 11 20 23 15 15 19 24 15 21 25 16 19 15 16 20 18 17 19 13 20 25 24 17 19 20 18 13 19 22 20 18 16 21 26 29 21 22 23 18 16 14 25 21 24 20 10 20 16 21 20 28 19 18 26 26 29 15 14 19 19 19 24 17 22 20 12 28 21 22 27 20 22 15 15 17 24 23 23 22 21 21 21 17 21 21 24 21 15 22 24 17 15 17 21 25 29 19 26 19 16 21 19 18 21 18 32 22 12 26 25 11 26 15 18 19 30 22 16 21 15 15 21 11 15 25 24 26 25 15 23 19 17 20 21 26 18 19 25 21 21 30 11 19 18 17 25 17 23 30 21 19 16 22 15 24 20 23 25 33 23 17 20 16 20 9 10 19 26 24 25 25 18 23 29 13 20 21 21 23 18 19 20 19 19 20 14 18 23 17 16 20 19 19 20 28 20 21 25 22 19 19 19 22 16 16 24 28 21 22 21 21 18 19 17 21 32 19 18 22 17 22 14 21 19 23 20 24 18 16 20 20 20 23 24 18 18 16 19 19 16 21 21 19 18 24 22 25 13 16 25 22 19 26 22 26 24 24 19 18 22 24 13 24 22 24 14 22 19 18 16 13 24 24 22 12 21 29 21 20 19 18 16 24 17 19 26 19 21 25 20 18 19 30 25 24 18 10 20 19 17 19 17 21 20 13 15 15 17 18 27 15 32 20 22 23 21 23 17 18 19 23 22 33 26 23 20 21 21 21 22 18 10 31 32 17 28 20 20 18 20 19 25 15 18 22 25 20 30 20 26 25 21 23 18 19 25 25 21 18 18 15 16 19 19 24 20 27 25 12 20 28 21 24 24 16 13 25 19 21 16 26 15 14 18 21 22 18 23 22 27 25 20 21 23 22 14 17 16 22 22 15 15 21 24 17 21 21 23 19 18 13 17 19 23 17 23 25 18 25 18 13 15 20 24 19 13 26 14 25 20 16 29 22 23 23 22 20 15 17 22 18 15 32 18 25 17 16 14 20 22 24 15 19 16 19 22 20 16 26 23 18 25 20 22 14 17 23 21 22 21 14 13 35 24 15 21 17 22 25 21 27 15 17 28 20 23 23 17 19 26 17 27 21 27 21 17 21 27 18 15 19 24 14 29 29 22 22 14 19 18 23 26 19 21 21 9 15 20 21 23 23 22 15 19 20 26 20 23 22 18 26 19 19 20 18 21 20 33 22 23 19 22 28 24 18 28 19 20 16 17 23 14 14 19 20 24 14 18 18 25 15 22 14 30 27 23 18 16 22 16 27 24 20 22 24 28 27 20 26 24 23 28 18 23 27 23 15 16 16 23 18 18 25 25 24 19 19 19 26 18 17 23 18 18 17 16 10 29 10 20 28 24 13 18 15 23 17 15 15 15 19 16 27 20 17 19 23 21 12 21 13 18 19 9 16 27 16 26 25 15 16 23 12 22 18 21 17 23 18 18 13 18 13 17 20 20 19 13 26 23 15 22 28 32 29 20 17 21 16 17 22 20 18 24 20 18 20 19 19 23 19 28 17 18 23 21 15 20 18 16 19 26 25 20 21 17 22 22 21 16 25 22 19 21 14 23 15 25 19 21 14 21 16 26 18 13 20 15 14 15 16 19 20 18 20 18 16 13 21 19 16 19 28 25 21 16 18 21 16 21 21 18 21 24 27 20 27 22 18 20 17 27 16 21 20 22 23 24 23 24 15 17 22 20 23 20 20 13 15 20 16 21 23 24 19 16 15 20 28 22 20 22 23 22 18 16 23 15 17 21 26 20 18 25 19 23 19 21 17 22 16 23 19 21 26 25 22 21 24 22 18 26 19 20 20 28 14 26 24 15 23 18 19 24 20 17 20 14 19 24 26 22 23 18 18 22 16 23 25 19 20 21 17 25 22 17 22 21 19 19 15 13 14 13 17 20 21 12 25 20 17 25 22 19 20 21 11 19 27 23 25 23 22 19 22 21 18 20 21 12 25 25 20 20 23 24 21 20 15 22 19 15 17 18 8 18 17 20 18 15 13 27 23 29 27 22 16 25 24 22 27 23 27 19 16 17 18 17 16 22 22 16 21 19 26 11 22 29 22 21 21 16 14 21 22 21 18 23 19 28 22 23 16 20 18 16 22 19 21 23 15 10 13 24 19 22 14 21 18 20 29 21 15 16 16 19 22 19 18 22 24 18 25 23 24 18 20 20 20 25 23 20 26 13 20 7 18 24 17 24 22 29 19 23 16 18 18 21 21 18 23 14 25 23 21 17 20 18 20 19 23 8 19 20 18 19 24 28 23 16 19 18 18 18 20 11 25 18 21 17 14 19 22 14 13 21 19 21 20 15 21 12 28 15 16 16 23 21 18 15 31 21 14 14 37 15 19 31 21 18 22 12 18 20 18 26 25 19 17 13 22 15 27 20 18 21 24 28 28 22 26 13 23 20 10 23 19 21 24 11 26 25 26 16 17 17 22 26 22 17 18 28 22 22 17 22 15 23 19 22 24 9 17 20 21 20 15 11 16 20 17 20 20 19 15 21 18 20 14 22 18 20 17 21 23 15 14 21 15 26 14 20 12 26 18 20 23 20 21 22 19 25 23 19 28 15 17 16 23 21 23 21 19 20 23 20 19 20 13 16 20 24 17 21 24 15 17 21 27 20 17 21 28 26 23 18 14 22 22 16 13 19 22 16 25 21 14 26 21 25 20 22 18 13 13 15 15 26 17 13 19 21 18 21 21 16 17 15 21 22 22 22 16 20 18 16 16 21 19 21 18 22 16 26 20 25 17 16 13 19 17 19 25 19 19 34 15 18 17 13 15 27 22 27 19 17 14 14 19 23 21 13 14 15 10 20 15 19 19 27 12 10 23 29 19 18 16 18 18 14 18 15 22 18 19 21 16 16 21 21 24 19 26 20 20 16 20 24 25 17 20 18 14 18 17 23 18 19 17 15 19 20 23 16 29 18 16 16 21 23 16 23 15 22 21 21 17 20 23 21 18 21 13 24 26 22 16 14 11 28 19 18 16 16 19 19 14 29 12 26 25 24 25 13 15 22 20 16 21 18 31 22 27 18 24 22 17 22 22 22 26 15 21 18 21 21 25 15 20 20 18 17 18 13 28 20 18 24 13 22 21 21 22 19 23 23 19 25 31 21 19 24 30 19 25 24 22 17 12 20 21 17 21 22 16 25 22 23 26 18 24 18 21 24 21 22 24 16 12 17 13 18 20 16 26 22 24 17 27 18 20 14 27 23 25 21 30 22 20 23 23 22 24 25 19 18 28 19 28 20 15 19 15 19 28 22 22 22 17 18 23 21 22 17 20 12 21 21 18 17 14 17 21 16 19 21 22 15 17 15 17 22 15 23 26 14 22 18 18 22 21 28 16 24 16 19 19 31 21 17 31 17 20 20 18 13 12 15 19 22 12 18 25 24 17 30 21 20 17 22 20 13 20 27 9 21 19 25 22 20 18 24 21 26 19 28 14 19 22 19 24 22 22 18 23 20 14 16 23 20 22 16 21 22 27 14 20 23 11 16 22 21 22 21 20 18 20 16 16 20 21 17 19 16 30 22 20 27 15 31 24 23 16 21 19 26 12 19 23 18 25 23 24 19 17 21 27 16 24 20 26 21 16 21 23 28 19 18 26 16 13 22 11 25 21 22 17 23 15 17 14 19 20 26 29 25 17 16 16 19 16 22 30 22 15 19 24 21 13 21 31 22 21 19 23 16 24 24 14 28 17 24 17 20 17 20 18 25 19 24 23 15 11 17 19 17 23 15 26 24 22 19 19 27 23 22 19 29 21 26 21 22 20 20 24 23 16 19 22 25 25 24 15 22 20 21 20 19 22 24 16 25 16 23 16 16 18 16 26 22 18 22 8 23 18 20 18 13 21 26 13 14 16 25 17 27 20 21 21 21 23 16 19 26 21 8 19 14 17 13 20 22 30 16 22 21 21 26 20 21 26 23 22 16 20 20 20 18 14 22 19 19 20 16 16 24 17 21 17 26 34 21 21 17 19 17 24 19 15 17 20 14 18 18 25 20 19 23 19 15 23 24 20 18 25 16 19 25 11 21 20 14 23 12 18 23 17 15 16 21 16 24 21 22 19 21 16 26 16 21 14 19 28 20 25 21 15 12 19 18 22 24 23 22 13 15 16 20 22 25 18 19 16 25 24 25 22 17 17 20 20 19 18 28 21 19 19 21 21 26 25 15 19 18 24 18 18 20 24 11 18 29 23 16 19 21 15 25 20 7 13 21 18 20 19 15 19 20 20 17 14 24 18 16 22 22 20 15 12 19 21 17 10 19 20 20 21 18 15 22 18 15 25 20 17 19 16 24 16 31 20 22 20 12 25 14 22 22 16 25 19 26 23 21 17 27 17 15 20 20 16 21 15 23 19 21 23 24 16 15 23 22 16 20 20 25 26 21 15 15 23 23 13 17 18 24 23 22 19 14 17 15 22 17 18 25 18 14 13 17 19 14 23 20 24 20 21 19 21 10 22 25 25 18 12 15 21 20 33 26 19 22 19 23 20 23 17 21 18 20 29 19 24 20 19 22 15 29 21 24 28 25 11 18 19 21 18 20 15 15 24 17 22 23 24 24 12 22 18 14 12 18 23 18 13 15 23 20 19 22 26 16 17 15 19 12 24 15 21 15 27 28 23 18 18 26 19 17 23 23 23 20 22 14 22 22 13 19 20 18 17 23 24 19 21 16 15 19 24 20 15 23 15 26 21 16 19 18 16 15 27 17 14 16 20 22 19 25 14 22 25 27 17 16 22 19 19 24 19 27 15 24 14 20 20 27 21 20 22 17 19 23 24 24 17 20 20 12 20 27 22 26 29 16 21 23 28 24 18 19 17 20 14 21 14 18 25 13 16 21 20 14 17 19 25 17 22 25 17 19 23 16 28 16 22 19 22 10 20 22 19 23 14 25 19 23 11 15 23 12 21 18 20 23 17 27 19 16 17 23 21 17 21 20 18 19 14 18 24 13 17 18 15 30 26 20 20 28 20 20 22 15 18 15 9 22 18 18 18 18 12 27 18 18 20 25 20 21 18 19 14 19 12 17 26 25 23 26 9 29 26 19 22 16 20 20 18 24 26 17 17 27 13 22 21 14 30 23 21 16 19 21 13 15 23 21 17 15 18 14 28 23 25 22 20 22 14 19 19 18 16 22 17 17 23 30 20 24 18 20 19 10 22 23 18 14 30 18 21 21 25 27 18 22 18 17 15 12 18 20 28 24 24 17 21 12 20 19 15 25 26 18 24 21 18 16 23 18 15 14 20 22 22 25 23 17 13 19 25 21 20 21 14 17 18 18 18 21 16 15 14 24 21 17 23 10 18 17 21 26 27 23 20 13 28 20 21 22 25 12 22 20 15 20 19 29 25 28 24 17 22 26 15 24 20 27 13 20 25 16 27 20 20 13 21 15 24 15 19 14 16 23 21 13 24 30 20 14 20 18 19 16 28 18 26 26 14 16 25 22 21 23 18 24 21 20 27 11 20 23 25 20 17 21 15 21 20 22 24 21 15 21 22 21 19 23 18 13 16 20 24 20 20 16 13 17 11 22 21 19 23 20 17 17 17 22 20 22 18 17 14 22 12 18 15 11 17 23 19 13 20 17 15 17 19 20 19 15 22 11 8 16 14 21 21 19 24 21 18 19 19 19 20 13 24 17 19 14 21 12 21 20 19 19 22 18 17 22 20 18 23 21 18 28 25 20 15 21 19 19 16 19 20 16 22 24 20 22 21 28 17 15 26 24 16 22 21 23 20 18 21 15 28 20 21 30 13 21 18 24 22 18 15 27 22 20 19 16 22 14 17 24 18 18 18 22 20 20 25 28 27 21 20 19 22 15 21 21 18 22 15 15 15 22 18 19 21 16 22 16 24 22 11 19 22 26 28 23 31 23 23 23 28 11 18 18 28 15 20 24 17 20 17 17 18 23 22 16 23 17 24 19 25 20 27 23 20 15 13 13 21 16 24 18 15 15 23 25 22 25 16 17 27 21 9 24 17 19 17 18 14 18 17 23 17 22 21 19 16 18 20 13 20 21 13 25 17 23 18 24 21 20 11 18 22 14 17 13 29 29 20 21 20 22 14 13 22 16 18 15 16 20 17 27 15 27 21 16 21 28 15 18 19 24 22 18 19 19 18 11 23 21 19 22 17 25 18 15 22 19 22 22 17 15 27 18 23 19 26 14 16 12 21 18 22 16 21 17 26 26 19 29 18 28 23 16 20 20 19 19 22 22 14 25 10 23 14 18 19 18 22 21 29 24 25 16 16 20 22 22 15 26 23 21 10 16 19 21 24 21 16 21 14 21 24 21 24 25 23 17 20 19 24 14 18 16 23 13 16 13 27 17 22 20 25 14 23 21 14 23 27 17 21 25 17 21 22 17 21 13 16 17 22 20 22 20 28 20 15 18 21 22 18 27 24 19 23 13 26 27 19 24 27 21 24 18 23 16 19 24 6 23 18 19 19 13 22 26 23 16 22 26 20 19 17 17 20 22 23 29 11 27 26 18 26 19 20 18 21 18 24 18 26 17 15 24 23 17 22 14 21 21 17 21 19 20 20 24 22 25 19 23 24 16 19 16 18 29 29 19 18 23 23 21 22 14 20 27 18 23 16 14 23 22 14 21 22 23 22 23 14 11 25 18 34 17 18 20 22 20 23 25 23 23 20 20 23 20 20 18 23 22 25 25 24 19 20 29 21 24 19 20 18 13 13 22 11 21 16 20 16 29 19 22 24 24 20 18 12 14 16 12 19 18 16 17 19 20 18 18 18 20 16 19 21 19 18 21 18 16 16 23 19 18 17 26 20 25 23 19 17 26 24 13 13 19 25 23 23 18 19 16 17 19 17 16 20 20 15 19 28 20 21 25 21 24 25 21 21 18 14 23 24 24 24 23 27 27 18 16 24 20 16 22 15 24 19 21 24 28 20 22 22 20 12 20 12 11 25 17 15 24 17 19 23 19 21 25 25 29 29 19 21 18 19 18 20 21 22 20 20 17 9 22 22 20 24 20 29 14 17 22 25 23 27 8 15 17 17 16 20 17 20 16 25 26 21 16 18 26 24 25 21 26 18 23 27 17 23 18 19 26 20 17 18 21 18 22 22 25 21 20 17 22 17 16 23 22 19 12 26 26 20 23 20 23 23 19 18 19 24 18 19 29 19 26 22 19 25 13 17 26 20 21 15 22 15 16 20 20 19 20 22 14 17 24 20 23 23 16 13 16 23 26 14 23 20 24 22 13 24 24 15 21 18 21 27 20 19 16 17 24 15 20 15 18 18 19 18 24 21 18 21 18 14 27 21 21 16 15 22 24 23 20 9 18 16 18 24 20 23 18 14 11 19 20 18 23 20 26 19 15 20 25 21 21 24 20 22 15 14 23 20 25 18 18 15 15 15 23 16 20 23 15 21 18 23 18 22 17 23 22 29 23 19 20 22 20 23 15 24 19 18 17 22 17 20 22 30 25 24 13 23 14 18 22 14 20 13 11 18 26 27 21 17 13 14 17 15 26 25 22 15 28 14 20 20 17 27 27 19 22 26 13 27 28 20 14 20 19 26 27 19 22 20 21 21 16 20 21 31 19 27 17 18 19 21 23 14 15 13 19 22 18 20 21 13 16 15 24 19 24 12 21 20 18 22 20 18 24 21 13 22 18 19 25 13 18 15 22 22 19 18 16 21 29 20 23 23 18 21 14 21 23 14 22 14 27 19 24 23 30 20 19 29 21 18 19 15 18 19 18 15 19 20 17 18 30 23 20 14 28 21 20 16 27 17 18 23 18 17 28 24 22 17 18 18 18 18 22 21 22 18 19 20 23 18 30 16 21 18 26 14 15 22 25 28 19 16 27 21 23 24 22 22 26 22 25 23 19 18 24 23 27 21 20 18 24 22 17 24 18 14 19 14 19 22 18 23 19 15 19 23 16 25 17 21 26 19 18 15 12 18 13 12 27 22 25 16 23 19 19 18 15 16 18 16 17 21 19 21 14 20 16 12 25 27 15 22 28 18 16 23 25 20 18 15 16 22 23 24 22 14 25 25 14 17 22 22 11 22 15 20 18 24 22 24 28 19 27 14 16 10 15 26 21 17 25 27 18 25 28 27 20 18 20 23 21 19 23 16 24 24 15 16 13 20 21 23 21 17 18 18 19 21 19 23 20 14 20 15 17 16 19 21 15 22 15 28 18 20 19 19 12 24 19 22 17 19 17 15 26 23 19 27 17 22 24 20 18 17 22 23 22 18 18 25 21 28 19 28 18 16 22 30 19 23 24 16 25 24 20 26 21 20 15 18 27 15 11 15 21 19 24 23 18 23 22 26 15 22 19 12 21 16 20 14 18 18 22 16 18 18 20 17 22 20 20 22 18 26 13 19 26 18 24 16 19 14 26 16 19 19 14 22 24 19 22 28 23 24 19 16 14 21 24 20 23 21 16 19 27 20 27 21 30 21 15 17 13 14 26 22 19 21 22 23 21 19 16 16 20 23 18 17 13 21 22 13 20 25 14 20 8 19 27 21 21 20 20 22 21 31 16 21 20 18 21 17 17 27 24 15 28 20 19 21 16 22 14 22 17 14 23 19 25 17 16 14 16 23 21 22 19 20 29 19 14 18 14 25 23 19 22 21 26 17 21 27 16 19 19 16 18 20 18 16 26 21 20 28 22 20 13 25 21 20 20 22 24 18 22 20 18 18 15 22 19 25 27 21 27 16 25 17 17 13 21 21 18 27 19 21 18 18 15 21 21 21 16 16 20 20 15 16 15 22 17 12 26 22 15 21 17 22 15 19 25 18 24 19 15 20 26 21 27 15 18 22 16 25 25 25 15 15 22 20 20 13 20 13 19 16 23 23 20 16 19 18 25 24 19 19 21 17 18 18 27 21 22 21 17 27 27 20 25 17 23 13 21 18 21 27 16 26 14 21 24 17 16 21 28 13 16 22 15 22 23 15 21 18 20 21 16 15 21 21 18 23 24 13 16 24 19 21 21 20 24 22 20 23 19 25 19 10 24 18 19 18 23 20 22 17 26 21 23 17 18 22 24 30 18 15 21 18 26 17 24 19 15 10 13 17 23 22 17 19 18 19 24 22 15 23 24 23 17 23 18 18 18 14 32 15 19 12 25 20 18 17 20 24 19 19 20 25 19 22 24 15 24 27 14 22 19 23 18 20 25 19 19 22 14 23 14 24 22 24 30 17 12 22 23 18 21 16 28 23 25 13 26 24 17 27 14 22 21 15 23 20 23 20 23 27 21 25 24 23 18 29 23 30 20 19 13 21 32 15 24 18 15 17 23 23 19 19 24 22 17 26 18 26 18 22 18 21 10 20 22 19 22 17 17 20 23 20 17 24 24 20 16 20 21 22 21 16 22 20 23 26 17 26 19 20 25 23 22 20 22 20 18 23 17 22 21 26 18 17 21 22 18 30 18 21 19 30 22 16 24 20 27 21 24 24 14 19 19 26 16 32 24 23 20 31 22 19 21 21 24 15 24 23 17 20 18 18 13 16 19 19 19 15 23 17 26 24 19 24 22 16 22 14 20 17 23 21 13 16 25 20 18 20 22 21 16 17 16 22 16 20 16 15 19 19 21 13 22 21 21 19 18 20 20 23 13 20 16 19 19 23 19 15 19 18 21 22 17 22 24 19 15 20 20 30 20 22 29 28 19 16 15 20 21 22 17 13 16 22 21 18 22 18 24 24 18 22 20 18 19 15 29 18 25 24 21 20 17 21 19 14 17 18 18 20 16 11 20 16 19 25 16 11 18 19 21 19 17 18 15 27 19 18 17 19 15 23 27 22 22 17 18 21 15 21 25 18 16 17 22 23 18 19 12 20 20 24 22 22 15 28 15 24 15 22 24 23 18 25 14 26 15 21 23 23 17 21 24 23 20 23 12 15 22 19 27 17 19 15 22 14 19 16 18 24 20 16 27 23 22 21 16 17 16 21 12 22 24 18 23 26 14 24 20 15 17 13 12 23 17 16 14 18 25 23 10 21 20 21 23 22 18 17 17 20 19 22 18 21 22 33 19 19 24 16 19 26 18 19 18 18 22 25 20 18 14 18 31 26 27 23 18 24 17 22 22 21 18 20 14 15 24 20 22 18 20 20 28 16 27 19 13 20 19 25 23 22 19 19 22 18 22 13 22 23 15 16 20 17 24 24 27 17 23 23 20 21 25 17 17 16 20 22 18 10 20 25 16 24 18 13 25 15 22 20 21 23 23 24 20 17 18 16 16 14 20 18 14 15 11 18 17 19 12 21 23 22 22 13 14 20 23 20 18 14 18 17 22 16 18 24 14 22 21 18 25 22 20 15 20 20 31 20 17 23 17 22 25 22 25 22 23 16 17 27 27 14 11 23 21 14 21 21 22 22 20 19 20 21 26 26 21 21 20 22 23 21 25 14 22 15 25 13 23 18 13 13 24 21 21 27 14 24 17 24 22 24 17 17 15 21 21 20 24 20 26 21 19 18 14 21 19 26 15 19 17 25 25 25 20 22 22 28 21 27 22 29 18 21 21 26 17 22 14 28 21 14 24 20 13 12 13 21 18 17 24 24 24 28 22 16 21 26 21 21 17 12 17 21 24 18 19 22 27 20 22 20 17 23 19 17 14 19 17 20 14 29 18 13 20 18 20 20 26 23 15 22 18 18 21 21 17 15 20 26 20 20 16 25 25 15 21 23 18 27 17 20 20 16 25 16 28 28 13 19 23 20 16 19 24 19 14 27 19 16 20 20 13 19 22 12 12 17 23 22 20 19 19 17 23 17 15 14 22 16 19 19 18 18 15 25 18 20 16 31 17 20 11 23 23 18 18 18 15 22 25 18 12 20 14 20 13 22 21 19 25 23 21 24 12 22 24 19 17 23 24 16 20 16 26 13 15 14 25 22 24 17 23 21 23 23 24 14 21 25 15 23 15 13 22 23 17 20 25 19 18 24 16 29 28 19 19 18 24 15 22 13 15 20 22 17 19 21 23 24 19 17 13 26 21 16 22 14 20 20 29 25 19 21 21 24 17 22 18 18 20 19 23 16 24 25 16 21 20 18 17 18 22 18 16 19 21 21 24 15 21 25 14 17 20 28 19 18 21 18 15 24 18 14 20 20 18 22 19 17 20 16 21 22 13 27 15 12 14 14 17 26 24 23 19 25 17 19 24 19 18 18 15 28 10 15 18 21 22 22 12 20 20 19 18 17 19 25 15 17 16 10 20 25 18 24 22 11 23 23 13 23 20 26 24 20 20 18 17 28 18 25 21 26 22 24 14 22 17 14 17 21 31 24 26 17 20 18 27 19 21 17 19 17 24 21 29 18 21 17 20 15 26 28 18 20 18 25 33 26 22 16 22 27 17 23 20 15 28 18 19 23 19 24 18 27 20 22 17 19 18 29 11 13 18 19 23 24 22 17 16 16 20 22 20 35 20 13 14 34 26 22 10 15 12 17 20 21 19 23 17 18 21 25 17 20 17 23 20 24 21 25 23 26 14 18 21 21 22 25 23 19 26 25 21 19 24 15 29 24 8 19 21 17 15 25 20 18 19 23 20 11 23 20 13 11 22 24 19 23 13 22 19 20 15 14 17 23 20 22 16 18 13 24 23 26 25 20 28 26 13 16 19 22 11 19 19 26 18 29 12 23 27 28 18 19 23 19 16 27 14 18 22 25 11 24 19 21 16 21 20 19 19 21 22 26 21 22 23 17 21 31 13 24 21 27 16 24 12 11 26 23 18 25 16 26 12 19 18 19 19 19 24 22 25 16 22 18 27 14 23 21 16 13 21 23 17 15 27 19 18 15 20 22 28 17 24 23 24 21 21 18 25 21 16 18 21 22 16 17 20 18 23 18 22 13 23 27 27 16 21 24 19 21 21 21 17 16 18 23 22 16 23 14 22 21 19 20 19 20 16 21 21 23 22 24 24 15 24 16 20 23 28 16 18 16 18 17 16 16 18 15 21 14 16 22 21 17 18 19 18 16 23 14 22 17 22 27 18 25 17 20 12 21 16 23 15 17 20 22 23 33 16 24 21 16 14 19 17 19 24 19 14 24 22 23 20 19 27 15 19 23 16 23 24 26 17 25 22 17 15 24 16 18 11 20 16 17 16 13 13 16 22 18 16 21 18 18 18 17 32 18 16 21 20 19 19 18 16 22 26 27 19 25 21 29 15 15 19 14 15 17 18 23 20 29 19 20 16 28 21 21 23 18 17 22 21 19 25 24 20 24 13 18 18 18 20 19 19 18 20 14 19 18 22 21 20 23 24 24 25 20 26 13 23 15 17 24 15 12 25 16 20 21 14 19 30 15 19 12 24 21 18 22 15 23 24 18 22 24 29 18 10 23 17 16 24 20 22 22 25 23 11 20 27 16 27 18 20 21 20 18 18 22 17 22 27 24 25 24 19 22 16 20 23 14 19 13 25 21 20 23 18 13 17 23 19 17 15 15 21 19 20 20 16 20 18 25 17 23 22 22 16 22 14 14 19 20 25 26 27 21 18 15 26 27 18 13 20 20 21 19 10 20 18 17 14 24 17 17 17 18 21 29 20 20 17 19 18 16 23 18 15 25 25 19 20 26 21 19 25 13 18 20 12 17 19 19 10 27 21 22 25 18 16 19 20 24 19 20 28 14 22 24 16 17 23 10 18 19 23 13 26 20 26 22 22 20 24 19 32 10 22 14 24 24 18 18 20 15 22 27 11 15 20 17 21 23 18 15 24 15 20 25 13 23 12 19 20 20 16 21 21 28 18 19 16 25 23 14 18 24 19 21 15 18 29 23 21 22 15 27 22 28 28 21 26 22 17 17 27 23 18 16 14 15 29 18 28 29 17 12 21 26 23 24 26 12 21 16 23 18 24 15 24 22 12 21 19 20 23 20 19 21 18 20 21 23 22 21 15 21 19 20 24 18 21 28 16 22 21 22 17 26 21 15 22 18 18 24 21 23 24 19 14 14 18 23 20 24 22 20 22 18 21 24 26 30 21 27 21 24 26 24 18 22 19 19 10 22 28 28 25 21 21 22 22 16 18 22 25 23 32 27 18 28 20 24 12 22 21 18 17 10 19 17 19 18 26 20 18 21 17 11 23 23 15 20 16 16 20 23 13 23 19 19 29 19 14 33 21 27 25 21 22 26 19 21 21 22 20 19 19 15 12 21 25 19 19 22 25 24 20 21 26 16 23 21 16 16 23 19 14 30 20 16 23 22 14 24 18 17 15 23 23 25 25 17 24 21 21 21 26 18 17 25 26 28 21 17 13 18 18 22 16 22 18 21 14 15 16 19 18 25 25 21 23 21 13 19 19 23 27 33 21 24 22 26 23 15 17 22 22 15 30 25 12 18 15 19 21 31 18 24 15 21 31 17 23 25 20 25 20 19 18 22 19 23 14 13 21 18 14 19 19 18 24 29 20 18 22 22 17 18 24 18 23 28 9 24 26 20 24 20 20 14 19 32 18 14 12 10 13 23 15 17 19 14 19 17 18 21 26 15 23 14 27 18 14 19 18 18 19 23 17 20 24 17 15 16 18 24 16 20 16 25 25 16 19 21 19 19 17 21 18 20 22 19 20 22 13 21 18 19 23 21 22 16 16 11 22 19 21 17 23 22 21 28 20 22 21 24 10 20 24 13 11 23 16 20 21 24 17 21 18 15 13 30 22 21 21 22 16 26 17 18 21 17 19 19 25 22 22 17 26 17 19 21 19 23 20 20 18 15 21 21 22 26 17 16 22 24 13 20 24 25 18 21 27 17 11 20 26 26 13 15 17 19 18 29 22 19 19 23 22 23 23 25 15 27 20 19 17 14 21 19 20 22 13 11 21 14 21 18 26 18 17 17 19 26 17 12 19 27 17 19 22 12 14 21 26 17 18 20 18 18 18 18 20 29 19 15 27 18 23 24 17 28 20 16 15 23 17 22 11 19 21 19 19 12 13 23 20 16 14 20 22 19 19 30 21 20 17 20 24 18 14 14 20 26 16 21 24 20 23 20 17 19 20 16 22 23 26 16 20 16 20 28 30 11 17 28 25 22 13 22 21 18 18 20 19 19 18 19 16 25 24 20 20 25 23 18 22 23 21 22 25 25 26 20 12 21 21 11 21 24 14 22 17 25 21 19 23 17 22 16 18 9 20 26 19 19 18 14 18 22 20 21 31 11 16 29 24 21 19 21 28 17 17 23 27 18 22 24 19 16 18 17 19 19 16 24 23 14 12 20 17 17 12 19 24 23 21 13 23 23 18 17 15 15 19 19 22 22 23 18 17 16 17 21 25 24 25 19 20 21 20 24 22 18 20 20 24 20 19 14 18 18 23 25 19 20 16 15 21 25 16 14 11 27 22 13 18 17 20 18 25 25 23 23 19 19 25 22 17 24 23 19 22 19 17 25 16 18 21 19 21 15 23 22 21 19 15 27 21 21 18 22 19 16 17 23 16 16 23 23 16 18 27 32 19 16 19 29 17 20 25 20 28 34 15 19 26 14 21 21 17 16 20 16 13 22 17 31 14 25 24 20 17 16 19 16 22 20 21 23 13 24 29 18 26 30 19 23 16 19 19 26 28 25 22 15 21 22 27 18 28 19 14 22 22 25 24 20 20 20 24 16 17 22 13 27 27 14 18 23 17 8 20 19 18 22 28 20 19 19 25 23 28 13 24 24 12 14 21 22 23 20 27 23 21 12 19 21 12 26 17 20 20 22 27 16 20 18 19 17 11 24 23 20 19 16 19 19 16 23 17 19 20 16 23 25 11 22 18 18 26 27 24 14 20 16 20 21 23 22 16 22 23 26 23 25 20 24 19 20 24 25 18 16 19 16 27 20 15 19 12 21 16 19 21 26 9 20 19 15 19 26 15 17 12 20 21 16 17 10 19 26 18 21 23 18 21 21 18 27 24 20 19 15 18 24 26 19 23 22 20 27 19 18 24 25 14 19 20 26 20 21 15 18 19 24 17 18 19 23 26 16 17 18 21 18 17 20 25 21 26 19 19 27 22 19 25 22 15 15 19 17 15 19 15 21 15 15 19 20 21 21 15 18 21 17 16 22 25 13 23 23 21 22 23 16 23 23 19 19 21 20 14 21 18 20 21 19 25 21 19 20 20 21 21 20 15 24 22 20 18 25 22 20 18 18 17 18 22 17 21 24 21 15 14 24 24 20 9 13 21 20 22 22 18 15 17 20 18 24 27 26 21 20 16 24 20 20 21 21 26 24 22 23 26 16 18 14 25 20 15 15 15 28 18 18 18 20 24 19 22 22 26 24 15 19 22 23 20 16 17 18 22 17 23 24 26 24 17 19 22 22 18 17 16 16 16 27 19 20 21 12 21 19 20 22 22 21 19 14 25 15 19 16 24 19 18 18 27 16 14 19 27 15 21 25 14 19 30 22 20 25 18 10 22 21 22 25 23 14 19 21 16 27 21 19 20 23 14 15 16 21 21 17 28 25 18 28 25 17 27 27 22 23 19 16 20 21 14 23 19 22 30 20 18 24 19 19 24 20 18 17 20 23 24 31 21 14 19 18 21 24 16 23 17 22 21 23 22 18 12 18 15 19 17 23 26 20 31 12 9 27 24 25 20 20 21 26 13 22 21 15 17 18 20 27 24 25 22 20 23 17 20 22 20 20 23 19 15 16 22 23 15 22 25 28 20 21 18 20 21 29 16 25 24 16 26 19 15 20 26 23 18 25 25 22 20 19 19 20 16 30 15 25 17 23 16 26 11 23 15 16 20 22 21 28 18 21 17 22 24 13 20 25 24 14 22 27 20 23 22 20 18 23 19 27 17 23 22 23 20 23 17 17 24 18 18 17 18 18 23 19 18 17 19 22 20 16 21 16 26 20 17 19 21 18 29 27 26 21 18 19 15 15 17 15 21 15 24 21 35 20 18 15 20 17 22 20 24 23 26 24 21 21 23 15 19 21 23 17 22 19 28 22 15 30 19 16 23 22 19 20 24 27 21 14 21 14 24 17 9 22 21 17 21 19 11 26 24 19 20 21 25 11 11 21 23 15 17 15 15 25 25 26 16 26 23 20 22 23 26 18 22 22 24 19 18 20 22 22 20 20 22 21 22 12 19 24 20 29 15 26 19 20 22 22 18 19 16 15 31 21 22 27 22 25 19 15 10 22 16 17 16 15 14 28 17 24 20 28 14 25 18 20 24 14 18 17 14 25 26 26 18 22 25 17 18 19 26 21 19 20 14 12 30 17 27 24 21 19 29 21 16 22 18 20 15 27 16 22 27 20 19 24 18 20 11 18 19 15 19 16 24 24 18 19 13 18 22 23 14 16 16 24 14 20 17 21 19 17 14 21 27 21 18 25 19 10 24 26 21 26 19 15 26 17 17 19 23 22 22 27 24 16 24 12 21 23 23 20 24 20 19 22 18 22 24 25 30 18 16 27 17 24 17 16 26 20 17 31 21 17 23 29 20 28 19 18 21 9 17 24 22 16 14 20 17 18 18 19 19 23 14 13 20 22 24 25 22 22 22 18 26 20 25 16 15 21 24 19 26 16 22 25 14 16 17 21 19 27 29 18 23 21 18 20 20 18 18 20 22 22 20 21 16 15 14 20 13 20 24 17 14 28 17 20 18 26 16 18 19 11 22 20 19 28 24 15 20 18 23 24 19 20 16 16 19 19 13 20 25 16 16 24 22 15 22 19 20 18 15 17 18 25 25 17 28 26 16 15 13 26 19 22 22 15 18 23 24 26 23 23 20 26 15 20 20 23 19 20 25 18 23 12 16 21 24 23 29 21 19 23 18 20 25 25 24 19 22 18 25 25 26 18 18 18 22 23 12 24 23 10 22 20 18 19 24 20 25 24 22 16 16 20 21 14 24 22 17 16 14 21 23 24 18 22 21 20 21 25 24 22 14 15 23 17 26 21 19 17 19 16 14 26 24 19 7 21 18 31 25 25 21 16 28 29 19 20 24 25 20 16 17 15 18 23 23 20 16 18 23 14 22 15 24 22 24 15 19 12 18 18 19 21 22 25 19 20 16 22 25 26 15 21 14 16 13 20 16 25 26 19 23 14 21 17 13 25 22 21 20 15 25 20 23 22 21 11 21 17 20 17 26 14 22 18 21 22 16 23 26 27 24 20 20 11 20 22 22 18 16 19 22 15 26 22 19 18 14 24 20 18 20 24 14 22 16 21 17 22 27 16 17 16 15 28 18 21 20 11 16 28 26 29 20 21 21 19 22 20 24 20 18 22 21 21 23 26 24 13 18 16 20 23 15 17 25 18 22 16 22 18 13 21 21 21 24 16 27 24 28 24 23 25 16 24 20 18 13 27 19 23 24 14 20 22 17 26 16 20 20 20 16 19 17 11 13 18 22 15 24 24 16 23 18 14 33 26 15 19 17 23 20 18 23 16 28 21 20 17 23 26 13 22 19 19 15 18 21 22 22 28 16 28 18 18 23 14 19 15 16 13</t>
-  </si>
-  <si>
-    <t>JSU(-13.922749764560834, 12.959456025178524, -24.884651796917037, 44.45072316649468)</t>
-  </si>
-  <si>
-    <t>33 31 30 43 28 22 30 33 39 32 36 36 37 27 34 32 37 31 27 35 32 31 31 36 38 21 32 39 41 35 30 28 32 24 27 30 28 37 41 35 31 36 45 35 34 38 28 27 25 38 53 37 45 25 31 38 17 28 27 27 33 40 33 31 35 35 32 29 22 29 31 37 23 29 39 20 27 33 35 37 39 23 38 28 34 24 40 34 33 33 34 35 28 27 32 38 40 33 31 34 39 28 25 32 46 29 34 33 28 33 35 35 33 39 39 39 36 38 31 35 38 34 27 48 32 33 40 34 29 29 32 29 30 32 35 33 31 28 36 30 35 32 24 25 37 31 22 28 33 39 33 36 40 31 34 38 36 33 28 39 32 38 34 32 36 43 30 27 29 23 29 40 43 38 33 37 27 32 38 25 33 35 26 33 30 31 38 36 25 28 28 25 27 24 38 31 41 35 30 30 26 32 33 31 32 37 30 36 31 35 27 26 26 32 42 32 35 37 22 33 35 36 36 31 29 39 25 26 26 29 25 47 39 54 28 26 26 32 33 29 23 35 26 35 32 30 27 20 26 45 36 39 32 35 27 33 32 37 34 27 25 34 31 26 33 32 37 29 39 34 39 31 36 33 29 30 38 26 39 32 32 37 32 34 24 40 33 35 29 35 33 42 38 35 34 26 34 25 28 32 42 30 26 39 27 41 34 36 30 37 24 46 29 33 28 32 24 31 35 30 30 37 43 33 33 29 33 33 35 22 37 33 27 35 41 36 23 20 38 22 38 44 36 29 19 24 44 38 37 36 29 27 32 38 36 30 40 45 42 28 37 32 26 28 42 29 36 22 41 39 45 30 45 40 38 23 38 35 35 30 37 33 35 28 18 39 33 38 33 37 35 27 34 31 28 38 24 39 36 46 32 44 31 30 37 36 29 34 32 29 39 32 35 36 31 35 45 41 36 26 36 44 28 32 23 35 28 33 32 37 33 37 28 34 32 40 26 31 35 34 30 31 35 28 36 41 26 44 38 43 34 31 30 23 38 30 31 40 42 39 33 35 34 33 35 27 33 48 31 35 41 33 32 29 37 29 31 31 30 38 34 50 33 39 39 33 37 39 23 27 29 25 27 38 40 35 20 36 28 39 31 31 24 24 29 26 25 33 26 40 26 41 32 32 21 37 35 24 39 34 33 36 32 35 33 48 33 38 44 39 33 32 29 26 27 34 33 33 24 37 30 39 26 28 34 37 31 32 29 35 28 43 39 36 40 32 29 35 28 36 32 36 39 35 39 25 22 30 34 36 36 36 28 24 32 32 33 31 39 48 28 32 29 29 28 31 33 32 27 34 33 32 33 37 40 43 34 30 34 30 26 29 44 30 29 33 33 31 35 32 35 45 24 34 33 35 26 35 39 30 40 32 40 35 32 28 46 34 30 32 33 40 26 38 26 24 32 33 29 33 33 30 41 54 28 39 30 29 36 32 30 25 33 48 36 28 29 42 37 31 27 33 43 25 28 32 36 29 40 25 35 37 30 27 33 34 35 28 36 35 28 35 31 27 25 24 28 30 35 34 34 39 31 38 26 35 39 42 29 33 34 28 33 26 43 30 36 25 32 39 35 27 38 34 30 30 35 37 25 26 38 24 34 31 29 24 36 33 43 35 37 33 39 30 33 26 35 33 25 38 40 31 46 35 32 38 46 39 26 24 29 38 31 44 33 42 26 27 21 32 26 31 27 33 27 26 33 33 25 35 43 38 31 28 39 34 34 35 42 28 34 33 33 24 22 28 43 31 31 33 30 32 25 37 29 37 42 34 48 45 39 28 31 50 34 30 36 32 29 32 29 38 32 36 30 37 37 33 34 31 29 37 41 28 35 38 32 35 26 33 22 39 36 35 30 38 34 29 41 25 53 25 22 36 38 29 28 34 20 39 31 31 36 28 41 31 31 33 45 37 34 29 38 39 40 25 32 34 37 27 29 24 28 39 40 31 31 30 28 32 36 42 29 36 31 23 27 35 23 31 35 37 46 24 28 27 30 25 31 29 37 34 44 29 34 44 27 35 26 32 40 26 20 31 37 42 32 33 31 33 33 34 34 35 34 28 38 36 37 33 48 31 37 41 34 37 36 41 21 29 33 41 26 38 34 34 35 29 43 42 45 31 37 30 31 34 32 31 32 37 50 39 35 23 39 29 35 25 40 25 33 39 41 38 30 53 32 29 27 38 34 43 30 29 29 32 40 41 30 37 32 36 35 22 26 22 33 37 36 32 23 35 36 29 31 33 23 31 39 28 31 26 33 33 38 33 32 33 34 30 31 38 29 38 32 29 41 22 29 38 37 32 33 29 24 42 23 28 38 28 27 40 29 23 37 27 41 38 33 31 36 24 33 26 32 40 28 41 24 30 38 39 31 24 40 41 29 41 41 27 28 29 40 29 31 26 27 31 32 36 29 35 22 36 36 32 40 41 35 27 30 26 34 24 28 29 41 29 28 30 33 25 39 33 40 31 37 37 41 36 37 27 29 19 31 22 28 42 31 23 34 36 36 31 21 37 38 30 48 40 32 48 32 41 31 27 34 35 25 35 35 29 31 27 35 32 34 34 26 38 29 34 37 37 29 24 28 36 35 31 40 34 32 35 32 32 28 22 38 42 36 32 35 32 38 39 22 38 29 39 38 40 38 29 43 30 32 35 34 37 28 33 33 31 40 37 32 33 33 39 31 28 35 37 38 41 27 30 30 34 27 31 28 28 31 27 28 31 35 32 35 34 33 27 30 33 33 34 31 47 29 30 30 38 30 31 41 41 31 44 23 33 33 34 38 32 31 28 30 38 37 49 34 34 26 27 35 29 34 34 30 43 35 30 32 29 34 29 35 43 27 52 36 32 47 23 44 40 34 37 33 33 43 31 27 37 33 37 36 30 34 25 30 29 36 37 37 47 37 32 35 43 51 39 37 35 35 29 24 41 50 26 36 38 28 27 29 40 31 45 31 36 30 31 39 30 29 24 32 30 30 37 32 35 30 31 34 40 39 26 30 35 32 38 26 34 32 39 28 20 34 34 27 39 32 30 28 34 31 31 45 31 38 26 41 41 36 32 23 35 30 35 27 23 30 34 27 38 33 36 31 28 31 43 21 33 26 28 41 35 38 37 27 38 27 39 31 31 29 29 40 39 45 40 35 40 30 26 35 25 25 25 40 25 38 38 34 24 43 38 33 39 34 36 27 25 32 22 34 26 38 24 21 30 30 44 26 38 34 34 26 29 38 33 25 37 28 37 38 37 39 32 25 26 23 25 34 31 22 42 41 35 34 43 41 43 30 29 25 48 30 38 34 38 35 25 30 35 23 35 23 30 27 29 27 23 33 35 38 29 34 32 25 40 33 30 31 35 43 31 31 31 39 31 36 28 27 36 28 40 32 32 28 37 30 23 38 39 34 32 36 28 32 32 32 32 22 30 44 29 27 39 28 28 30 34 35 40 43 25 32 31 35 29 28 28 34 27 43 36 26 23 35 38 35 30 25 35 28 26 23 25 38 37 43 33 36 31 41 36 34 33 29 36 31 38 43 40 34 32 29 33 28 30 28 35 34 31 25 31 42 30 36 24 32 36 35 34 30 30 23 32 26 30 29 41 35 34 32 26 33 31 25 26 35 37 30 29 29 34 35 25 23 33 37 31 31 37 32 29 30 37 34 21 33 27 40 36 37 24 40 42 34 35 41 30 31 29 34 33 27 31 35 32 29 42 37 33 42 35 34 34 39 36 29 25 41 26 32 34 30 39 39 33 36 33 38 27 29 35 29 32 34 42 33 35 36 38 31 38 28 33 40 21 34 31 25 27 26 26 34 30 23 35 42 38 26 34 41 38 32 33 27 42 30 38 36 42 34 37 34 19 36 21 37 37 25 31 49 37 28 36 37 41 20 44 27 34 33 41 39 35 25 30 38 33 36 38 29 30 33 33 29 33 44 29 34 36 25 42 29 26 41 32 37 29 33 37 30 23 32 24 32 28 34 32 28 33 26 35 34 32 32 39 33 34 30 32 38 25 37 30 40 38 33 28 41 39 32 22 40 32 43 26 31 34 25 35 40 25 29 39 42 32 30 31 28 26 30 35 40 28 39 42 24 39 26 33 37 34 31 29 25 31 37 31 27 43 29 32 31 20 35 34 31 31 30 32 29 32 29 34 31 34 30 27 16 36 36 32 48 34 43 44 34 36 29 31 34 42 28 43 30 47 25 29 30 25 32 41 28 26 33 26 33 33 34 24 31 29 47 36 29 42 38 35 28 29 43 33 39 40 35 32 36 39 21 23 27 33 21 32 21 34 20 30 33 30 29 32 23 36 29 29 32 28 33 42 22 45 28 32 41 37 24 37 34 39 35 37 34 30 31 36 29 35 32 32 41 31 31 37 36 32 36 28 18 40 28 32 43 37 30 36 30 27 41 31 31 30 34 33 28 40 32 25 37 41 38 41 39 30 35 35 32 30 34 31 33 31 32 38 38 32 35 24 32 27 26 31 33 42 33 32 34 36 32 38 33 29 34 30 25 25 34 27 22 34 32 26 33 27 35 29 37 31 28 30 36 40 29 40 40 31 31 32 36 37 31 33 24 30 25 25 32 41 28 36 31 33 34 34 26 28 25 32 23 33 29 43 33 38 31 30 29 30 32 36 33 24 36 31 36 33 37 32 30 38 34 36 26 30 37 24 25 25 35 29 20 39 36 25 34 32 36 31 39 34 35 32 37 25 38 32 22 21 37 25 24 30 23 33 29 35 25 31 33 30 38 26 40 31 34 39 39 36 31 33 35 34 32 30 27 29 38 33 35 24 46 26 28 32 34 26 40 28 28 36 42 30 41 26 36 40 25 39 37 30 31 45 29 26 42 38 36 24 41 28 38 37 38 35 29 36 38 28 31 33 48 41 35 28 39 27 38 41 27 32 38 32 36 26 32 42 33 46 43 30 26 33 29 33 34 46 28 37 35 36 36 27 36 34 38 28 31 24 26 42 36 30 31 28 23 30 34 33 36 37 32 39 40 26 34 30 35 37 33 31 34 16 34 39 25 27 34 46 31 39 30 31 26 28 27 32 37 30 40 22 40 41 33 31 29 39 25 25 33 28 41 31 29 41 40 39 38 38 38 38 30 23 34 31 32 39 26 38 25 37 37 45 33 30 44 39 40 34 31 27 38 33 32 34 38 28 22 45 34 28 42 33 35 32 22 39 36 32 32 32 31 31 37 29 34 36 45 33 26 35 38 31 21 30 31 32 49 33 35 35 30 37 28 32 27 25 45 35 26 41 38 26 38 26 27 35 45 45 31 28 27 28 35 28 29 35 35 43 38 28 39 31 26 28 39 43 34 42 38 34 34 40 26 27 33 29 34 29 37 43 38 29 32 40 26 33 35 36 38 40 36 30 32 22 30 21 16 27 38 37 36 34 26 32 43 32 32 39 38 34 32 24 26 29 37 35 34 32 38 38 29 33 31 32 38 39 30 34 37 37 34 29 29 38 29 24 35 35 30 32 28 30 30 28 30 29 47 36 28 33 24 43 25 33 30 40 37 33 34 25 37 27 40 32 40 31 26 30 30 31 32 30 32 30 34 33 32 38 25 36 42 34 32 31 37 35 34 33 24 30 39 38 23 39 35 44 31 37 34 38 36 30 30 40 47 30 44 43 40 29 35 37 31 40 24 28 37 36 27 34 34 29 36 40 37 28 31 23 33 38 28 31 30 30 37 28 28 29 21 31 45 28 41 33 34 34 36 36 29 29 28 39 31 40 44 32 33 37 27 36 36 29 18 40 43 29 47 30 31 30 29 34 38 23 33 32 39 27 39 33 43 38 35 38 28 35 37 47 36 33 34 32 30 32 30 32 28 39 46 22 29 41 47 33 34 22 33 40 32 42 26 35 29 26 32 34 33 25 31 36 39 39 28 34 32 38 18 27 28 36 33 28 38 28 32 29 34 36 41 35 30 21 32 34 30 28 31 38 41 38 25 17 35 28 40 38 28 52 24 44 30 28 45 34 37 31 29 31 26 30 52 30 29 45 29 41 33 26 24 29 30 39 25 30 35 33 35 29 36 41 39 35 38 28 37 31 35 34 41 36 38 28 28 44 38 27 31 28 32 33 35 44 28 34 44 33 31 46 32 28 45 26 44 33 41 34 29 44 37 28 28 37 30 32 41 49 35 34 27 38 29 31 35 33 40 38 25 32 39 35 39 41 36 28 34 32 47 32 34 32 26 40 33 26 37 33 36 35 41 32 39 30 33 39 32 31 42 30 26 24 26 39 26 28 33 31 37 24 33 26 35 28 28 24 44 33 44 32 26 26 32 41 34 36 33 30 36 36 35 40 34 41 38 31 39 32 32 28 30 27 40 25 26 32 39 41 37 35 36 37 29 27 42 36 32 29 31 22 49 18 33 36 30 24 28 28 32 38 22 34 31 27 26 38 27 26 35 30 35 19 35 25 36 29 19 27 45 25 42 37 24 23 41 22 39 33 41 27 32 30 30 35 26 28 26 31 36 32 21 35 33 27 35 39 39 39 31 31 30 30 32 33 37 31 32 33 29 34 33 25 39 31 38 28 29 39 33 30 26 31 34 30 39 39 33 29 31 29 33 31 28 37 36 34 37 25 35 23 44 32 36 30 33 27 45 30 30 31 30 28 35 32 36 38 30 31 24 30 24 31 29 30 30 40 42 34 24 37 41 33 35 38 31 34 34 46 33 41 38 31 38 31 43 29 35 32 33 36 30 36 37 24 40 34 38 39 34 36 26 24 36 35 33 31 39 28 25 26 34 39 32 35 33 33 34 31 24 34 24 30 31 44 32 30 41 30 34 28 29 37 37 39 33 35 38 39 41 37 36 35 32 35 35 31 27 28 34 19 40 32 27 40 35 31 38 30 35 41 33 25 39 40 36 34 28 28 36 27 36 30 37 31 33 32 34 35 31 38 32 36 30 23 33 23 26 30 22 41 20 36 41 35 32 41 34 28 31 24 30 42 34 35 32 34 39 30 30 26 39 27 24 40 36 33 38 36 38 35 30 29 30 33 29 27 29 24 43 28 34 33 24 31 42 33 42 40 37 26 40 39 29 40 40 40 37 26 28 29 32 28 34 29 29 46 27 34 22 32 42 42 34 31 31 26 34 33 39 35 44 33 40 39 37 26 30 36 24 34 35 33 34 26 24 26 39 29 43 18 37 32 34 44 35 29 25 28 36 33 29 39 31 34 28 35 34 38 27 35 35 31 40 34 35 40 24 34 25 33 36 25 32 37 34 30 40 24 30 30 30 39 28 38 27 48 43 32 31 30 33 34 29 32 24 27 27 38 43 39 44 34 26 29 31 30 33 32 23 46 32 30 33 27 35 33 27 25 26 33 27 38 26 32 26 41 28 30 30 43 29 32 24 46 37 22 25 47 34 35 45 29 26 29 22 31 30 38 38 35 31 31 24 38 24 42 32 34 32 34 46 35 34 36 26 34 36 24 34 32 34 46 24 36 33 35 25 37 31 40 37 32 26 35 39 36 32 29 34 21 36 35 33 37 25 27 31 42 32 30 30 27 37 31 42 34 26 27 34 30 38 30 30 32 32 33 29 36 30 29 41 27 33 23 31 25 46 34 31 30 33 31 26 41 39 34 30 41 27 34 27 42 31 39 35 32 30 36 31 31 31 29 30 30 31 26 39 35 28 23 37 38 30 29 34 39 40 34 32 26 31 31 34 20 29 30 32 36 35 20 36 35 40 39 34 35 27 34 21 28 38 29 21 28 30 34 30 27 32 33 33 38 30 30 31 29 40 33 37 34 36 37 39 31 31 24 36 36 39 29 26 28 27 25 34 37 34 42 48 32 39 32 33 25 40 30 41 38 29 26 28 31 35 31 26 27 29 26 33 28 38 33 40 22 24 34 48 38 35 32 40 35 27 24 25 31 28 37 39 37 30 33 33 33 39 38 34 32 26 37 42 37 30 36 32 24 30 34 33 25 42 31 28 29 36 39 22 43 30 28 30 30 37 27 35 23 35 35 30 25 37 38 32 39 33 25 34 42 29 33 26 27 39 41 28 38 29 34 36 26 38 19 36 41 40 39 31 30 30 31 28 36 33 46 28 40 32 33 33 30 33 26 33 38 32 35 29 32 35 39 26 38 35 31 33 34 25 41 33 30 36 26 37 35 36 38 28 38 38 29 44 39 29 30 37 51 31 34 36 34 31 26 35 31 39 31 39 27 35 33 33 35 26 32 26 23 43 32 35 34 22 25 26 25 28 39 28 38 35 38 23 39 33 31 30 43 31 36 38 47 41 38 39 37 35 36 34 33 27 43 32 41 35 30 30 23 30 41 39 38 33 33 27 39 33 44 26 36 23 30 43 32 33 28 28 28 30 37 35 39 29 23 32 38 31 29 36 39 22 31 31 32 32 37 44 24 41 28 32 30 41 38 30 48 33 35 30 29 30 32 27 30 32 26 32 50 43 24 45 30 33 35 34 29 24 31 43 25 35 30 36 28 31 32 40 34 36 29 40 29 34 38 27 32 36 32 29 41 33 24 30 35 32 30 29 34 32 37 31 35 32 26 29 34 36 31 37 26 28 33 35 28 33 29 35 38 26 44 39 30 35 29 38 36 39 34 31 32 41 23 29 36 37 41 35 36 35 25 36 32 25 37 32 41 44 32 29 42 39 33 31 36 22 26 30 33 33 31 36 34 32 26 28 20 32 28 37 42 37 25 25 29 35 26 37 45 30 25 31 35 32 24 33 39 34 39 28 33 29 37 40 23 41 29 35 34 33 30 39 34 36 32 38 34 27 19 25 33 28 36 24 35 39 36 36 26 45 33 28 35 41 33 44 37 32 35 34 36 37 30 32 35 36 42 32 26 38 30 31 33 25 30 38 29 42 24 38 29 30 34 28 40 31 32 41 21 34 28 32 28 28 31 32 22 21 25 32 42 45 25 35 36 31 34 25 31 33 32 19 32 39 25 26 31 37 42 31 31 29 38 35 36 41 37 38 43 31 36 36 32 27 21 28 29 29 37 33 26 39 31 35 37 42 43 37 43 29 27 30 39 32 23 22 30 25 31 28 33 28 28 37 30 25 34 43 38 30 39 27 29 38 25 30 34 29 34 32 32 34 28 27 33 31 23 41 33 31 28 32 29 35 25 35 24 32 44 33 36 32 30 22 32 26 37 30 34 29 31 24 26 28 37 39 29 35 29 42 33 40 34 29 25 27 30 39 32 35 34 35 34 38 28 38 41 25 30 30 38 30 33 40 42 24 32 40 34 28 30 32 25 50 30 22 24 35 32 32 31 33 31 30 43 29 30 35 33 35 33 28 34 32 25 29 30 25 25 37 29 36 30 26 26 30 30 27 32 38 29 31 22 33 22 39 33 36 28 28 32 26 35 33 33 34 29 36 37 34 27 37 32 28 42 32 31 33 27 31 31 37 35 35 21 23 35 34 34 28 32 41 38 35 32 27 33 38 30 27 39 38 33 35 27 23 29 24 34 31 40 35 34 29 32 25 35 27 38 34 40 32 38 33 38 22 41 33 43 29 32 29 33 35 47 36 31 31 30 33 37 35 28 37 31 31 42 31 35 30 32 32 33 43 38 34 42 36 25 31 37 35 28 32 42 29 32 35 29 34 39 40 22 45 29 27 20 37 29 28 34 25 30 33 34 31 31 30 36 26 25 25 32 25 35 26 39 42 29 29 28 27 25 28 37 35 35 28 33 23 32 35 26 32 37 34 34 36 32 37 33 25 22 26 40 37 34 47 29 43 33 27 29 33 28 28 36 44 20 28 27 30 29 41 31 31 32 45 24 29 38 33 34 33 32 38 29 41 26 35 30 47 24 31 39 36 30 38 42 33 33 32 38 26 32 38 40 38 47 23 28 36 39 35 35 31 27 31 24 28 25 30 38 20 29 35 36 33 33 29 40 29 36 37 35 31 43 23 43 28 28 27 39 23 28 29 37 40 29 41 31 37 14 28 37 22 33 33 27 39 35 38 30 26 34 34 36 27 32 32 30 25 22 23 35 26 24 27 27 41 41 33 27 43 31 36 37 29 35 22 17 37 38 34 34 28 21 39 27 34 31 39 24 34 22 42 25 40 24 26 41 42 31 41 23 50 43 41 36 28 31 32 27 42 40 25 30 38 21 37 29 29 43 34 32 33 25 38 23 28 38 30 39 29 33 29 37 33 43 34 38 33 34 36 30 29 25 32 30 29 41 44 36 37 36 32 34 25 38 42 32 26 47 25 32 35 35 44 29 34 33 28 21 20 34 34 40 34 34 27 34 30 31 28 27 38 39 27 36 32 33 36 40 30 21 26 30 31 35 40 34 25 23 32 30 31 35 30 25 25 30 30 28 30 22 21 28 37 29 23 34 21 29 37 28 46 31 38 33 24 52 35 34 36 40 25 40 32 25 28 27 39 34 42 32 32 43 44 25 36 34 39 20 34 43 28 40 33 29 25 35 25 43 22 26 24 25 32 36 22 29 39 27 29 29 34 31 31 43 31 43 33 27 31 36 37 39 41 37 35 36 35 42 25 36 35 36 34 23 32 29 28 35 34 38 34 34 35 31 30 37 37 33 32 22 34 31 34 30 26 26 31 22 33 40 39 29 34 33 24 29 37 31 42 33 36 23 38 23 28 28 21 24 37 35 23 32 29 32 27 28 27 33 40 43 28 16 31 25 31 30 26 37 40 30 32 35 30 41 33 37 28 37 30 32 23 29 33 30 29 35 32 31 35 32 36 36 31 33 39 34 26 26 34 32 30 24 30 33 33 33 44 30 41 35 37 35 22 37 41 32 34 31 35 28 30 30 29 36 27 26 43 21 36 25 46 32 34 32 35 32 39 29 32 43 19 31 38 35 29 37 37 29 27 38 43 39 31 37 32 33 34 32 35 29 31 28 24 33 38 26 29 41 28 35 28 36 34 23 31 39 45 39 32 42 30 35 33 39 23 31 27 37 29 34 32 25 30 33 25 25 40 36 28 31 32 34 36 37 30 45 32 34 24 25 23 38 24 35 30 21 30 38 39 31 37 26 27 40 37 15 40 34 35 27 40 26 33 29 38 34 35 32 31 31 36 40 30 31 33 31 40 38 33 32 40 32 36 20 30 30 27 36 25 40 41 39 40 30 32 28 29 32 30 32 24 25 31 25 43 27 38 33 30 31 39 28 24 28 42 32 26 27 26 28 25 31 34 35 28 29 34 30 23 36 38 37 36 33 25 45 33 39 35 32 26 22 28 29 32 33 27 29 29 42 41 28 45 29 39 33 27 33 35 30 31 37 32 24 38 24 40 25 32 33 31 30 34 39 38 36 33 27 33 47 35 32 46 35 27 26 26 39 36 38 31 30 31 24 32 37 37 41 45 35 24 31 32 40 37 28 30 33 21 31 25 44 29 34 34 32 28 33 38 25 37 43 32 40 47 30 30 39 34 32 23 30 33 34 39 36 29 42 27 28 28 37 35 31 48 41 40 28 26 41 37 32 37 38 38 45 26 36 28 32 36 21 35 26 30 37 28 43 33 34 29 35 40 32 37 33 31 35 30 37 38 23 48 38 28 34 31 34 28 35 33 38 33 33 28 32 34 36 26 36 29 34 35 29 40 40 34 38 34 37 38 23 36 39 25 33 27 32 43 38 31 32 37 36 35 38 26 31 38 39 38 24 32 34 34 26 36 32 46 29 29 25 21 39 28 52 32 31 33 37 41 38 34 38 30 34 31 42 33 33 34 31 30 42 46 44 31 34 41 32 33 29 34 33 25 26 28 23 40 22 32 34 41 33 33 39 35 29 30 27 24 28 27 37 25 27 34 38 30 30 31 26 39 27 36 38 28 30 40 31 27 26 31 33 32 32 41 40 34 38 29 30 41 36 33 19 30 30 34 32 28 29 31 25 35 32 30 32 34 28 27 40 31 39 38 32 30 35 31 30 31 29 34 36 36 33 37 44 39 36 25 31 36 29 35 30 35 36 31 35 40 30 36 30 34 22 36 23 25 39 33 28 34 30 34 38 30 34 38 37 44 47 45 30 26 26 30 29 33 34 31 27 28 21 29 37 33 45 32 40 25 32 37 35 38 41 21 21 25 30 31 35 29 29 30 39 37 33 29 31 41 40 36 38 37 28 29 41 28 41 28 39 39 38 30 32 36 32 34 31 39 33 29 26 29 31 30 38 46 40 24 35 37 29 36 27 37 39 29 26 28 37 31 31 38 33 31 36 27 36 30 26 42 34 33 30 31 31 28 33 33 28 33 34 35 32 37 42 34 39 28 22 20 35 40 25 34 31 37 31 22 28 32 32 34 30 35 40 26 27 28 28 39 31 27 22 31 29 28 30 33 40 31 33 24 32 37 38 40 27 24 35 38 31 30 24 26 25 32 39 35 34 35 26 21 30 36 29 38 34 39 31 33 28 44 35 34 42 37 38 31 24 38 33 38 22 32 29 30 27 37 26 41 34 28 37 26 34 41 38 33 44 38 39 38 30 33 36 40 31 28 32 36 31 26 34 28 33 32 45 35 36 30 37 27 32 31 29 27 25 23 35 41 45 34 31 25 24 33 32 32 40 36 26 43 24 32 31 24 39 38 36 36 37 28 36 42 39 26 34 37 38 40 33 29 32 31 29 23 31 34 48 29 41 28 35 32 29 35 21 33 36 31 36 23 31 37 32 30 28 38 34 40 21 35 40 35 32 40 31 41 38 29 31 32 43 42 27 31 33 26 38 32 31 25 36 39 35 33 41 33 26 26 28 45 29 34 34 43 32 36 40 43 35 31 43 32 32 32 29 34 26 28 24 32 36 30 32 38 32 29 22 41 33 30 32 44 27 28 36 33 23 37 41 29 29 30 27 35 26 38 39 34 28 32 34 34 29 50 31 35 36 37 28 30 36 36 44 26 29 37 45 35 42 42 39 41 37 41 30 26 28 33 30 36 32 32 26 30 41 35 33 26 24 32 22 33 38 36 36 37 30 25 36 23 38 24 26 33 29 37 33 27 30 27 26 36 35 38 32 38 27 43 36 25 28 30 26 36 36 30 34 30 26 33 27 33 44 27 36 44 30 30 36 31 29 31 28 26 38 34 35 36 29 41 36 21 27 30 37 22 32 32 40 28 34 36 32 48 30 38 21 25 19 25 37 36 25 35 39 27 34 39 39 33 35 35 33 38 28 36 30 37 36 26 28 19 34 35 30 29 23 25 30 33 32 30 29 33 30 33 30 27 33 27 35 27 37 28 50 32 35 29 32 31 37 30 41 22 35 34 37 40 35 34 38 25 39 35 36 35 26 30 35 30 34 36 40 36 40 29 42 28 34 29 42 28 37 36 34 42 38 34 39 35 28 27 35 41 28 21 28 36 33 36 35 29 35 34 42 24 38 34 30 44 31 29 24 29 32 31 25 29 35 28 27 36 30 36 39 34 39 22 31 42 32 40 28 29 25 41 26 33 32 28 33 36 31 34 47 33 32 26 25 24 36 38 30 36 41 30 32 43 43 37 29 45 36 23 27 30 24 44 32 36 32 31 35 29 35 27 30 26 44 27 29 24 36 35 31 33 33 25 31 21 34 41 30 36 29 32 34 41 38 28 31 34 28 37 33 34 38 32 25 36 36 29 33 23 33 40 35 30 36 35 30 33 27 30 23 28 42 30 32 30 29 45 32 28 30 23 41 42 32 37 33 41 34 34 40 35 30 36 27 30 27 25 21 38 34 31 47 34 30 27 36 32 30 28 29 44 38 36 32 37 33 30 34 33 36 42 33 34 28 36 33 24 26 29 39 29 40 32 32 26 33 25 30 33 35 25 28 36 32 24 33 28 33 31 21 41 31 32 28 32 30 25 35 36 28 38 30 34 33 43 30 39 25 38 34 26 40 37 45 33 28 35 36 28 21 33 24 34 30 33 36 31 27 28 27 40 37 30 32 32 36 40 30 34 29 34 30 27 42 41 37 43 36 37 26 32 28 32 35 29 41 22 31 39 25 32 31 44 28 32 29 27 33 36 24 32 31 36 31 28 26 28 34 31 29 42 28 33 40 28 27 33 24 40 34 35 31 29 38 30 19 36 33 30 27 37 30 30 31 40 34 41 27 31 38 35 43 31 27 34 31 37 39 41 30 25 25 27 34 30 31 30 30 32 29 41 30 32 37 39 33 27 37 31 27 28 23 46 31 30 23 37 31 34 25 30 48 35 34 26 39 33 39 35 30 35 41 29 33 28 36 30 30 35 35 32 28 24 37 27 32 28 43 43 28 27 31 33 28 34 26 37 39 36 21 38 34 34 46 21 32 33 27 35 31 34 34 35 37 31 35 36 38 28 42 33 39 36 35 29 33 46 30 30 24 36 28 34 31 30 30 39 31 25 36 30 41 30 34 27 27 27 35 26 31 34 36 26 33 39 37 25 41 33 28 31 29 36 36 43 29 35 35 33 41 31 38 40 30 36 34 36 34 30 35 35 39 29 38 37 34 35 32 37 28 35 42 33 37 36 45 43 24 40 22 41 33 40 42 30 27 39 36 31 44 37 38 37 42 35 34 36 39 39 28 37 32 28 32 30 27 20 24 25 38 29 23 32 34 36 36 32 36 33 34 37 26 39 24 32 31 23 27 38 34 36 27 33 31 30 30 28 44 28 34 34 35 37 28 38 31 34 33 39 33 26 31 28 34 27 35 32 29 40 29 35 21 28 28 31 28 32 29 38 33 31 35 29 39 32 32 39 37 27 34 29 31 29 32 25 29 32 33 33 32 34 33 40 37 30 30 31 37 33 27 38 29 36 38 36 39 31 30 32 19 28 24 25 32 35 25 30 30 27 30 29 28 30 29 38 29 28 37 31 43 28 33 35 27 23 32 38 32 31 28 29 35 28 31 46 26 29 29 32 36 30 31 25 32 30 37 41 40 26 48 31 31 25 40 35 35 33 47 25 42 21 36 35 33 24 38 39 37 25 39 23 22 36 30 39 24 30 34 36 26 30 22 28 41 30 22 47 28 38 37 27 34 27 31 21 33 38 35 38 38 25 35 29 25 26 25 22 34 27 22 36 39 42 43 26 36 33 26 35 33 29 31 25 31 26 30 41 29 39 50 25 33 40 27 31 40 28 28 36 35 29 40 39 39 27 30 43 36 41 35 43 36 28 37 34 30 39 35 32 26 42 32 34 25 33 33 44 32 39 28 24 30 40 31 31 41 30 34 36 29 34 32 35 32 23 28 30 29 35 38 42 28 39 34 28 38 33 35 31 30 37 35 25 26 36 39 34 33 33 24 40 20 42 31 40 39 33 40 38 26 30 33 32 26 34 31 30 33 22 38 25 34 23 36 34 33 32 29 21 32 35 38 25 30 25 25 32 27 36 37 30 33 36 36 44 33 39 29 35 35 40 39 32 35 24 35 40 33 33 38 33 29 31 40 35 22 21 41 33 23 34 29 32 35 34 26 31 30 45 41 34 39 31 34 36 33 36 25 35 31 35 19 33 27 29 26 45 36 37 40 32 49 25 41 34 34 26 32 31 33 34 33 37 36 34 31 33 34 26 32 29 43 23 34 32 34 36 42 28 28 37 40 32 47 38 39 26 31 33 38 27 39 33 39 31 26 32 36 19 26 26 28 28 26 40 40 35 39 41 27 35 39 33 34 28 34 32 42 33 35 36 35 34 42 35 31 28 35 34 26 19 33 27 39 26 42 25 22 30 27 30 37 39 44 26 33 29 31 34 26 28 23 32 45 31 30 24 44 36 21 37 37 30 43 31 30 34 35 36 23 34 39 24 36 39 32 38 31 36 32 26 41 31 34 33 26 31 30 41 24 21 28 32 39 35 25 36 26 29 24 26 25 39 31 31 37 27 36 19 35 34 35 33 46 32 28 30 40 38 28 33 25 27 31 37 36 23 36 30 36 26 36 31 31 39 32 30 42 25 37 36 38 28 41 37 23 31 25 40 23 32 28 37 35 31 32 35 37 33 34 46 32 43 37 28 38 28 34 36 32 28 32 40 25 32 33 32 39 37 34 32 23 34 34 35 28 32 35 39 26 35 29 32 40 34 27 30 38 35 28 37 28 35 34 44 31 36 27 34 36 29 37 28 37 36 37 35 30 37 37 28 33 29 27 32 29 32 26 30 30 36 34 35 26 33 37 27 33 30 46 31 29 39 35 29 38 29 33 30 39 32 29 34 24 33 32 38 31 24 40 31 24 26 26 28 35 29 42 36 33 24 32 37 32 33 27 27 40 23 31 34 40 35 37 33 40 28 37 30 32 37 39 29 32 37 28 31 40 30 33 33 32 44 37 22 34 33 35 37 33 31 32 24 38 28 44 33 36 32 37 28 42 28 25 33 33 43 42 44 32 29 24 41 31 35 31 36 29 32 31 50 32 38 31 31 26 38 37 29 32 37 37 43 40 32 24 33 36 30 33 30 28 40 38 34 33 35 31 36 39 32 34 33 28 28 42 22 21 31 32 41 38 29 29 29 30 29 27 28 45 33 33 19 52 29 29 26 31 24 30 30 27 41 31 36 30 38 38 29 31 32 30 31 41 33 37 31 35 29 32 32 38 30 32 35 28 34 36 35 29 36 32 40 42 14 32 33 30 23 30 40 29 32 32 37 23 38 36 22 24 33 35 24 42 31 33 30 25 26 27 35 36 33 36 29 33 32 31 30 41 30 33 48 30 26 24 30 29 20 29 29 38 30 34 30 38 30 38 29 26 37 34 33 38 31 30 43 35 25 41 29 36 19 36 28 32 31 42 39 39 36 34 32 27 35 46 27 38 28 38 32 37 32 23 36 35 35 45 28 44 24 32 28 39 35 30 36 45 36 34 33 33 42 27 28 29 29 23 30 38 29 28 41 39 29 28 30 31 40 36 35 38 32 34 36 31 36 26 31 29 45 36 26 33 33 29 38 28 35 24 35 40 45 35 32 39 29 34 30 27 29 32 30 35 34 27 32 27 35 28 29 35 37 36 34 41 37 38 32 37 37 25 37 24 33 29 44 25 32 25 26 35 33 29 37 26 31 28 26 45 39 29 32 32 33 32 30 32 34 33 30 34 28 35 30 37 26 30 27 33 35 29 33 33 31 44 32 34 35 27 25 29 25 38 30 34 25 43 38 38 26 35 39 27 32 35 27 36 40 36 27 36 30 35 26 37 32 31 30 30 25 32 32 24 31 30 40 33 33 28 28 28 35 32 41 29 29 33 35 33 30 29 30 34 33 40 33 44 34 41 27 28 29 34 23 30 28 33 31 37 31 27 26 39 37 34 34 33 35 40 38 28 42 35 30 34 30 26 27 30 33 29 36 30 31 20 26 31 33 30 29 32 46 37 43 33 34 22 31 31 30 38 22 26 37 25 30 31 24 30 45 29 38 20 31 36 26 32 29 46 41 25 33 46 48 30 20 41 32 23 33 25 37 33 34 34 25 34 40 24 43 31 36 26 33 30 37 37 21 34 44 35 38 39 29 36 26 33 34 27 30 30 38 38 34 33 30 24 33 39 29 27 29 30 36 33 33 27 32 21 24 44 30 41 30 38 27 39 27 30 32 29 39 42 37 32 37 22 36 35 33 31 30 27 32 28 20 28 27 28 21 44 29 34 30 30 29 39 31 30 26 34 33 30 35 31 29 34 43 37 30 39 37 30 34 23 31 37 24 28 35 31 20 43 30 28 34 29 29 41 36 29 36 29 44 31 40 45 30 31 32 25 30 30 37 24 37 36 34 38 36 38 36 32 42 21 40 27 36 45 27 39 28 27 41 37 28 20 28 28 34 32 23 31 37 24 35 38 24 37 23 27 31 27 30 31 29 40 26 32 25 36 34 25 29 41 32 40 31 25 36 38 32 28 29 49 37 40 40 39 42 33 34 37 34 38 28 32 26 21 39 28 37 44 36 23 32 44 37 35 45 27 37 27 38 33 36 26 39 29 26 34 28 37 32 31 28 32 27 29 37 38 33 41 27 29 36 28 31 31 31 40 30 31 33 36 23 36 33 29 36 27 28 43 39 41 39 31 24 27 24 36 38 44 33 31 34 32 31 34 37 46 25 42 33 37 39 33 24 33 33 33 18 35 47 39 41 38 33 34 33 33 30 36 35 40 44 43 41 42 41 42 30 39 37 29 29 19 32 30 27 31 40 33 35 30 30 22 35 41 28 32 31 25 32 34 25 33 31 29 41 29 27 43 45 41 32 34 38 36 32 37 34 34 28 34 29 22 25 31 34 32 32 37 33 36 37 36 37 24 34 32 29 28 38 28 20 51 35 31 35 38 23 37 25 36 27 38 36 44 33 30 28 35 30 37 39 31 34 45 36 39 45 26 25 30 30 35 29 36 35 34 25 29 33 31 30 38 38 42 37 32 24 35 27 34 46 49 32 39 33 38 32 24 30 30 31 26 35 36 20 32 29 31 30 42 30 39 32 34 43 37 36 33 33 41 33 29 30 45 35 36 29 30 26 36 32 36 35 26 34 39 30 33 38 40 34 30 37 33 41 43 21 34 41 34 35 35 36 28 39 41 30 30 25 26 27 37 27 35 38 27 30 29 30 28 33 27 34 29 40 26 29 36 29 33 27 37 27 40 40 24 24 28 31 37 24 33 25 36 39 29 26 32 28 36 37 33 27 31 35 40 34 26 34 29 35 29 40 32 35 30 25 32 34 31 30 34 33 31 31 42 32 30 34 44 31 30 35 27 17 35 27 29 34 34 34 36 23 24 29 41 33 41 25 31 32 35 30 31 37 28 36 30 50 33 39 29 42 25 36 33 32 38 30 29 32 28 33 31 29 34 34 24 32 30 26 34 38 36 30 39 37 30 22 40 41 44 29 24 28 28 25 45 30 28 30 32 33 37 31 39 25 30 31 29 27 21 35 33 33 27 31 22 29 21 34 36 46 30 29 29 38 40 32 28 25 45 32 27 32 22 29 30 46 33 31 31 27 26 25 38 33 40 31 35 43 33 33 51 26 48 29 29 28 42 26 30 22 44 41 33 33 22 28 34 31 28 26 36 36 32 33 41 35 32 34 33 35 25 21 27 29 35 21 38 37 36 32 34 34 33 30 37 34 37 41 25 29 28 32 37 46 29 25 42 36 32 26 30 38 28 30 40 28 38 29 32 23 40 41 29 29 38 37 35 35 36 29 34 31 34 36 33 19 26 33 24 32 39 27 42 32 33 32 34 35 31 34 26 35 23 30 40 35 34 32 24 34 38 38 36 44 24 26 36 43 30 28 39 47 31 27 28 44 35 37 32 34 32 34 30 26 32 33 38 30 21 24 35 30 27 22 33 37 39 27 27 46 37 28 30 35 26 34 31 43 33 39 28 28 29 31 37 38 32 35 26 36 31 30 35 35 30 38 32 30 34 34 28 30 32 40 43 30 31 24 26 29 31 30 27 26 49 35 18 34 27 32 30 37 49 38 39 31 29 35 36 32 39 31 34 35 34 31 41 24 29 31 29 29 27 37 39 36 36 25 52 36 33 33 26 27 28 32 39 29 27 35 35 30 24 38 49 30 23 28 41 25 34 38 25 37 41 30 29 37 25 34 39 27 21 33 27 22 36 28 44 23 39 35 33 24 28 30 29 34 28 34 39 31 29 39 32 38 44 31 42 26 26 26 38 42 38 32 32 40 30 39 22 41 33 32 38 34 38 41 33 33 31 38 30 28 29 29 42 43 23 29 40 32 21 31 35 34 37 42 31 26 27 34 36 35 22 32 36 25 22 33 31 30 24 39 41 34 16 34 43 19 37 33 33 39 41 43 31 29 28 39 31 17 38 37 34 26 34 32 33 31 33 32 31 36 35 33 35 25 32 31 26 38 37 32 25 32 22 34 40 40 27 26 34 32 38 43 34 31 37 31 37 39 36 32 27 30 23 38 30 27 35 23 31 32 32 35 46 20 29 25 28 28 41 28 32 21 30 36 28 30 26 31 36 34 34 40 27 31 35 39 41 32 29 31 25 33 41 40 31 35 37 25 43 34 28 37 37 24 25 33 30 33 33 27 27 37 36 35 37 32 37 39 31 33 27 29 27 33 32 43 28 41 30 28 39 31 32 38 28 27 30 26 29 33 30 30 30 36 27 35 39 31 33 32 37 38 32 29 32 33 31 43 32 30 38 31 26 43 36 29 29 30 27 25 31 33 32 36 32 40 33 40 39 32 28 35 32 26 41 35 34 24 40 35 32 29 32 27 32 35 31 36 36 35 35 29 38 35 38 23 30 46 37 40 33 28 33 33 33 32 43 41 38 28 32 28 46 33 28 41 35 40 35 40 35 41 32 37 35 37 33 23 32 32 46 29 32 32 34 32 35 35 40 35 37 29 33 38 39 38 28 31 29 30 29 32 31 34 34 25 42 31 29 32 34 26 31 24 44 30 36 30 23 32 30 33 31 39 29 35 27 35 28 35 23 40 34 36 31 39 31 24 31 39 26 28 42 22 28 40 34 33 42 32 20 38 34 36 36 36 33 30 33 32 42 41 35 32 29 29 27 32 34 36 29 40 35 30 40 37 28 40 35 36 34 33 26 31 35 27 35 34 29 44 36 29 34 36 27 35 24 33 24 34 36 38 40 33 28 33 25 38 34 25 31 30 44 35 38 32 27 26 36 34 26 30 31 48 29 42 22 16 34 36 40 34 33 36 36 26 24 37 26 35 25 34 41 32 35 40 39 30 28 28 33 33 33 39 30 25 29 27 39 31 32 34 42 28 33 27 27 40 44 30 33 38 33 36 39 30 36 40 32 33 40 37 31 29 36 30 36 28 46 34 37 25 40 27 38 21 34 29 28 29 31 30 37 26 37 21 29 41 28 28 36 45 31 38 41 35 31 40 33 27 33 33 38 33 32 34 36 37 34 28 28 38 32 29 33 25 31 37 34 31 30 34 32 29 35 35 35 35 30 33 32 26 33 46 41 35 38 29 33 22 29 35 29 32 25 32 29 43 34 30 25 35 23 32 32 40 35 43 31 37 34 37 30 34 34 41 29 40 34 46 32 20 44 34 24 32 35 29 32 28 46 37 32 37 24 32 34 31 33 36 26 33 36 25 39 33 38 33 27 44 29 20 36 34 24 29 23 28 40 39 41 28 36 46 35 34 33 40 26 31 37 38 28 24 29 41 35 33 28 44 33 38 35 29 37 31 40 25 35 29 27 28 32 32 37 27 25 45 32 35 36 32 33 32 26 19 29 26 32 36 23 30 42 29 32 35 39 25 31 33 34 39 23 30 27 27 39 37 38 39 29 43 31 29 32 36 38 23 29 25 26 49 27 38 34 34 34 43 36 27 35 34 29 27 46 32 35 39 32 36 36 37 38 17 31 30 25 37 31 37 35 31 36 30 30 32 38 28 26 24 39 27 31 28 34 31 29 24 37 38 40 28 35 36 23 36 38 29 37 36 29 35 25 30 29 31 35 31 33 32 23 34 24 26 37 45 29 33 30 40 30 27 35 35 36 47 28 26 38 23 36 32 33 45 29 25 41 33 31 31 40 35 38 31 32 32 21 26 35 31 29 21 31 33 36 27 34 36 35 29 24 35 33 34 39 37 37 37 32 43 29 40 25 29 30 42 31 41 32 34 36 26 27 25 34 35 43 46 39 34 28 25 36 29 35 25 33 34 32 28 27 26 25 42 28 25 30 44 25 28 41 31 39 31 42 30 32 32 23 31 34 27 40 33 30 33 30 35 36 27 29 31 28 29 31 29 35 35 30 25 45 38 21 31 37 26 33 25 29 27 37 45 31 39 35 25 27 42 39 27 35 30 27 26 37 34 37 31 31 32 37 27 34 32 39 30 31 40 27 34 28 20 33 38 31 40 30 32 38 29 28 34 35 37 28 33 36 30 35 44 32 32 23 34 39 29 38 39 17 37 35 28 28 37 33 37 38 38 27 29 33 27 38 37 34 33 23 22 34 34 37 27 36 34 36 41 36 36 35 24 26 36 33 44 33 28 29 31 32 26 34 34 40 17 35 29 41 40 37 33 24 34 39 27 32 31 39 30 27 29 26 31 42 36 37 29 29 40 22 43 27 36 36 36 28 34 23 33 25 35 28 31 40 36 29 32 37 37 36 36 38 30 29 30 35 25 40 37 26 30 31 39 29 28 38 34 31 36 28 34 27 30 31 35 29 30 31 33 28 42 29 38 33 33 37 32 31 44 42 38 29 30 24 35 42 35 26 24 34 37 26 45 31 31 28 23 34 37 29 30 40 20 31 28 26 29 36 40 29 30 31 26 39 34 39 35 32 28 40 38 43 32 32 30 31 38 33 39 32 28 37 39 32 38 42 32 22 31 23 37 34 25 27 32 33 34 20 32 30 26 31 36 43 37 26 47 35 39 32 36 39 32 39 33 30 24 46 30 36 33 31 30 37 37 39 24 31 33 29 24 31 32 17 29 29 33 30 46 34 22 36 28 24 49 42 30 31 25 35 34 32 37 34 38 35 35 28 36 32 22 37 31 32 36 33 30 38 30 52 28 40 28 33 36 26 31 23 28 23</t>
-  </si>
-  <si>
-    <t>JSU(-14.451964334072173, 13.797953908674089, -312.6981626431566, 426.33431164224385)</t>
-  </si>
-  <si>
-    <t>243 245 188 302 176 124 174 240 311 209 241 302 236 136 197 221 292 245 189 254 191 228 177 245 238 92 235 231 293 278 150 171 189 129 200 150 271 191 251 284 226 215 375 219 275 272 232 193 244 209 302 276 319 133 172 205 92 164 200 185 225 322 222 254 321 275 228 186 133 182 265 216 153 268 248 119 185 220 198 205 312 178 259 167 180 130 192 266 185 219 162 263 146 195 192 251 277 218 177 255 269 197 185 187 331 148 252 271 149 233 252 251 230 265 197 360 155 226 194 252 278 164 170 312 209 280 226 196 209 182 176 246 133 252 201 243 273 213 226 259 166 195 197 176 224 189 136 166 232 224 248 281 210 209 164 324 291 300 192 251 176 263 198 198 173 304 183 142 176 186 214 238 327 304 207 220 177 210 311 198 148 246 173 228 249 206 210 295 215 187 140 188 181 167 198 271 309 165 152 229 160 290 196 209 266 337 254 293 163 312 166 167 239 207 351 172 230 274 183 238 259 280 233 263 217 226 100 141 112 241 194 341 271 285 198 153 207 230 252 221 173 285 181 211 221 153 224 106 244 250 242 219 159 214 215 216 228 197 186 209 204 243 214 186 242 235 216 151 257 215 297 235 169 171 207 174 248 195 210 204 258 209 263 208 191 245 250 239 194 224 263 240 237 230 225 177 224 200 228 172 283 228 132 245 185 222 228 286 200 211 188 293 144 264 140 210 239 180 218 207 191 226 319 235 219 206 206 266 198 125 263 270 119 278 270 185 165 88 338 137 237 276 225 160 116 147 296 296 323 205 226 152 197 166 313 220 274 240 322 181 282 241 146 305 302 188 294 159 268 228 237 283 344 309 283 168 283 267 267 232 228 249 151 193 103 315 198 320 235 219 164 184 205 175 232 183 190 251 229 277 213 324 165 258 207 241 218 188 197 250 278 282 250 284 235 197 247 281 241 220 237 292 182 205 171 246 178 273 247 222 243 217 171 231 270 311 181 230 230 263 188 219 244 171 212 234 178 315 245 256 178 254 235 191 235 248 237 331 271 247 253 172 250 236 301 243 259 226 240 231 295 180 213 232 191 200 244 203 168 274 258 310 198 300 276 288 252 239 213 158 209 201 166 201 250 226 147 159 213 307 232 257 161 166 238 117 132 263 195 283 151 280 159 216 174 254 286 132 279 195 275 254 232 210 282 287 211 299 232 322 231 195 200 229 183 259 272 225 152 254 165 228 232 252 211 202 181 261 134 280 166 285 285 262 262 210 201 215 205 217 187 210 274 271 277 124 184 216 235 332 238 227 203 188 266 199 173 224 263 349 196 192 202 213 145 246 173 161 156 189 190 250 249 209 246 283 210 251 190 237 210 180 326 197 172 239 238 262 231 224 218 282 152 213 219 268 118 306 317 182 241 206 273 270 243 202 276 209 169 221 258 241 115 279 209 147 277 209 187 238 223 204 258 375 136 314 177 174 278 215 240 166 225 350 278 226 240 292 239 250 175 245 171 131 183 175 251 237 216 175 217 263 214 201 260 205 214 177 267 192 194 221 312 168 222 202 221 152 169 298 222 261 216 267 157 221 274 233 215 147 150 207 235 206 294 203 298 199 169 251 303 208 312 242 152 182 258 231 193 180 261 175 300 249 213 176 285 274 241 247 298 178 215 247 196 138 201 231 258 273 348 181 283 191 245 193 333 321 263 181 256 226 156 303 205 330 141 188 149 213 172 157 173 186 210 202 295 242 169 261 265 290 171 165 279 253 167 252 368 202 229 186 194 136 120 161 281 254 219 215 222 183 204 229 184 194 232 277 227 316 205 181 249 393 249 218 206 237 181 198 216 262 211 222 219 224 290 205 197 171 200 212 277 226 237 331 194 224 138 177 143 274 266 262 190 254 234 197 242 202 274 182 197 184 174 228 177 250 113 226 186 175 354 217 278 152 188 202 366 175 257 241 256 178 217 149 257 257 235 215 196 177 169 274 297 241 165 172 226 162 246 292 214 262 168 192 176 259 181 225 289 247 249 141 181 170 150 162 232 237 169 193 344 207 252 303 202 288 221 236 247 221 114 170 232 296 225 210 211 143 221 215 215 247 222 176 253 279 216 222 320 234 239 250 238 308 280 247 132 196 209 314 140 238 196 239 234 202 328 270 248 241 192 206 208 187 213 209 233 171 294 284 247 174 293 254 203 160 289 180 236 247 238 247 162 340 199 151 150 241 243 223 167 198 175 233 278 290 187 233 200 245 139 170 152 152 254 245 282 173 193 234 251 239 253 216 169 202 231 170 190 178 181 135 251 223 252 225 210 229 236 234 171 290 237 205 251 147 175 276 296 227 174 243 154 247 200 226 270 234 216 258 206 137 301 188 155 237 252 242 237 111 272 79 245 306 170 193 224 237 240 259 198 143 284 249 214 249 322 230 190 236 268 219 161 210 115 228 198 280 254 261 153 277 299 180 310 234 257 197 190 181 243 169 184 209 282 174 189 229 160 210 237 213 236 189 297 221 226 267 221 199 185 154 222 146 210 321 371 174 185 238 240 187 153 293 274 203 263 226 189 289 202 301 222 164 206 241 165 250 193 211 215 148 271 254 196 274 120 293 209 219 339 236 201 160 197 249 264 156 269 285 253 266 208 187 162 144 255 241 206 187 314 273 239 227 99 295 159 295 213 301 285 166 229 197 252 218 238 252 185 229 172 217 212 218 235 182 248 269 200 170 225 279 225 253 148 163 227 225 213 260 228 245 198 184 145 184 252 206 214 232 187 168 220 241 227 253 186 292 171 197 232 230 188 238 241 245 214 310 202 255 210 240 250 206 240 113 217 317 241 265 168 278 182 233 239 190 323 245 247 245 216 151 237 180 330 208 234 346 247 275 234 208 294 211 233 291 165 205 213 245 241 223 186 254 228 314 213 231 171 194 201 232 276 285 218 286 246 264 294 277 251 268 194 282 188 164 184 323 361 195 258 238 138 176 186 208 177 325 170 229 256 229 216 200 239 125 178 266 137 310 251 211 186 216 204 230 257 176 223 207 204 183 186 237 217 217 194 163 225 286 243 302 256 202 138 250 173 242 279 216 269 162 234 278 138 108 126 198 223 197 200 208 250 231 204 241 277 221 205 234 191 278 110 226 177 137 266 237 213 240 180 235 217 302 190 184 206 199 199 237 306 257 209 270 252 182 193 180 227 169 222 188 240 252 212 153 312 256 255 269 164 242 151 165 202 144 200 198 296 170 135 225 140 325 204 272 210 273 195 208 287 245 160 284 249 256 317 229 291 232 233 174 147 125 225 195 120 309 228 319 164 303 211 277 157 195 214 336 228 257 194 233 142 177 221 252 117 237 145 217 177 227 142 130 231 270 284 222 204 281 199 210 227 270 204 233 301 213 217 300 247 208 248 145 158 191 164 266 184 221 151 191 125 160 230 298 187 217 253 175 287 187 238 283 136 181 250 146 274 301 211 186 286 262 204 298 303 149 209 215 228 144 162 241 238 213 251 214 129 124 183 232 263 198 136 238 195 169 103 197 225 241 295 164 251 193 331 220 218 265 245 255 225 226 228 274 320 222 159 172 251 249 142 209 238 193 196 254 220 234 283 162 184 305 191 239 185 204 125 255 150 215 187 274 245 261 241 178 299 155 142 160 275 264 221 194 150 252 218 141 218 335 228 226 241 269 219 176 201 278 253 114 296 186 295 262 213 171 235 324 175 262 290 258 217 199 308 279 175 255 207 237 234 224 244 226 260 235 182 190 279 221 259 221 341 186 275 179 236 232 298 210 221 231 273 237 227 194 205 210 226 359 237 207 233 223 152 232 160 269 274 115 230 208 155 200 224 218 153 213 115 278 247 274 211 232 282 278 239 216 168 233 173 297 263 278 149 282 187 115 270 115 168 230 172 200 333 280 213 242 271 235 171 262 169 232 261 299 197 300 192 214 253 203 271 298 211 202 132 200 191 207 253 199 258 208 186 274 177 167 255 211 282 228 185 255 217 174 228 205 233 225 274 219 186 231 193 279 270 250 254 245 218 254 204 214 249 115 191 206 270 242 284 166 224 286 199 170 311 231 283 158 274 247 170 261 235 186 233 269 229 217 183 221 197 205 217 175 173 192 186 258 169 280 225 247 291 191 240 200 188 231 186 172 209 337 201 219 193 90 210 206 186 200 269 203 226 171 192 230 259 257 263 245 83 282 294 285 349 205 235 397 154 162 177 163 179 212 209 265 157 214 206 156 229 190 143 348 200 209 170 166 173 254 244 201 165 237 385 251 248 286 293 119 138 158 169 219 195 245 267 201 258 310 127 177 216 228 182 206 206 231 85 206 230 180 219 155 182 264 189 205 218 193 250 289 107 354 173 213 260 229 221 252 196 284 267 252 244 305 208 276 205 270 247 220 263 173 217 290 227 203 278 200 105 226 131 219 271 228 192 245 204 204 342 185 232 236 147 191 207 332 233 169 256 337 277 282 277 203 197 244 127 170 272 220 266 216 214 349 276 243 216 132 212 163 238 201 221 308 249 219 232 205 193 257 217 256 218 216 134 184 178 205 138 294 188 170 308 174 194 207 151 214 191 185 255 258 180 274 264 198 230 179 269 203 218 279 222 191 177 168 156 310 201 250 161 227 314 214 208 163 204 256 139 189 205 337 277 287 172 209 208 182 242 272 178 158 242 195 234 176 279 179 217 163 202 274 214 188 211 185 154 73 233 219 166 252 211 149 220 205 217 201 215 222 195 250 281 143 258 207 128 117 282 204 221 239 155 257 261 222 164 214 273 214 235 207 226 205 213 265 256 271 221 254 231 243 196 126 189 215 246 259 200 163 331 209 180 247 211 158 251 193 139 150 272 219 278 153 257 193 131 250 249 233 196 231 198 193 289 260 226 208 207 220 291 236 209 237 209 196 250 161 241 181 342 300 240 219 226 176 197 247 156 212 250 230 217 214 162 297 246 247 326 186 252 238 220 171 204 337 191 322 247 216 275 195 275 183 234 218 191 175 112 321 291 219 181 188 207 207 213 232 287 344 236 212 237 225 297 200 219 240 196 215 158 109 232 292 149 140 234 248 197 253 265 198 199 163 167 237 179 215 177 125 183 299 310 173 212 200 179 109 203 280 246 192 200 225 267 286 281 245 224 182 153 171 332 243 263 208 103 244 201 218 193 281 189 175 262 287 290 136 128 192 194 207 253 181 207 231 118 369 247 217 341 221 252 150 142 172 245 239 218 223 211 223 245 192 217 225 245 257 142 258 296 195 184 207 207 266 301 191 310 223 198 242 232 201 208 185 346 247 146 257 280 156 277 172 222 221 354 235 161 236 131 237 219 119 194 301 247 286 266 155 218 225 180 217 267 282 185 204 284 214 220 325 111 214 200 200 260 176 230 315 268 264 175 260 149 293 257 277 272 322 234 177 199 196 223 103 89 214 273 235 261 297 190 235 300 153 235 240 218 240 165 228 218 188 273 201 190 195 240 186 183 207 231 186 221 309 182 213 322 283 217 169 203 247 174 179 293 296 262 264 210 213 190 197 189 214 323 200 181 214 200 286 156 234 203 245 206 284 189 195 222 214 225 334 261 197 181 168 233 183 187 217 213 219 185 215 269 269 128 187 305 202 232 291 247 280 258 282 232 219 269 238 148 276 262 282 193 265 197 186 163 110 232 271 227 120 230 362 259 225 204 191 184 212 225 213 297 226 243 270 237 183 205 338 253 252 244 102 224 204 190 189 188 212 235 134 172 187 199 192 299 162 384 258 256 275 245 241 154 233 174 278 219 336 271 272 191 249 241 262 273 197 97 331 356 205 312 202 257 185 187 236 245 181 237 251 288 238 305 219 287 263 248 278 190 164 235 293 203 202 183 178 222 206 214 307 222 336 325 113 235 357 229 275 285 221 137 288 262 205 169 281 183 153 242 254 246 206 236 257 287 285 285 229 226 255 141 158 139 202 248 165 167 203 295 179 225 225 217 205 159 133 189 200 258 194 268 297 177 265 176 132 168 223 251 215 131 258 174 297 233 173 336 236 251 224 247 213 168 213 252 196 147 353 207 270 179 175 132 207 229 267 196 209 165 191 293 195 203 326 252 223 290 264 254 155 178 242 207 249 257 173 150 359 281 172 247 200 233 304 191 297 146 177 237 232 220 276 220 208 315 182 286 242 274 225 201 270 258 204 164 202 245 139 274 341 269 274 169 211 192 255 266 218 259 271 114 162 249 251 290 264 241 194 207 218 276 230 244 267 204 267 217 199 197 183 235 213 347 267 232 245 274 329 226 210 294 195 206 183 175 262 145 144 203 186 280 157 242 223 296 143 300 129 292 302 231 205 173 224 186 262 287 236 237 262 265 298 196 269 267 268 294 171 265 303 253 177 174 148 295 226 198 280 282 228 198 237 223 281 174 219 272 173 176 177 171 96 351 114 265 389 266 132 183 160 215 227 171 181 166 200 187 299 233 194 156 225 209 143 224 133 198 193 91 159 297 188 332 253 173 176 234 129 213 211 229 183 263 200 191 145 204 126 199 242 211 201 154 277 233 182 263 307 355 335 231 203 202 178 156 235 224 215 284 183 206 231 206 207 271 205 319 204 218 301 237 168 224 214 176 197 313 270 231 178 180 210 264 236 208 319 232 215 247 115 239 170 262 221 231 149 247 185 299 175 115 219 126 159 203 192 194 237 227 253 190 175 181 257 198 177 199 333 291 244 184 173 215 204 214 228 196 256 290 312 226 289 264 185 194 207 302 169 264 168 230 254 247 238 311 160 155 232 211 251 263 236 151 185 226 192 227 233 250 213 185 186 207 328 215 206 262 244 250 217 178 281 158 167 257 310 244 153 250 233 235 200 235 170 248 143 248 182 226 283 244 282 244 223 265 203 258 212 244 218 318 168 264 276 186 265 222 205 303 202 169 209 143 199 232 269 256 274 206 180 234 182 224 286 181 227 216 176 299 274 185 246 246 216 217 160 129 140 138 213 209 209 136 309 203 172 268 212 222 221 220 117 214 296 289 284 288 225 216 212 190 232 216 235 138 230 290 217 200 263 205 201 235 144 229 196 165 189 188 73 210 191 203 241 157 148 265 286 298 294 241 178 270 263 224 310 214 294 225 169 212 216 191 157 237 202 147 227 249 266 117 241 340 240 227 230 189 146 229 258 245 210 270 186 305 214 301 161 184 240 188 258 182 212 270 131 119 157 296 220 259 151 242 198 235 324 256 164 226 169 235 229 180 194 263 286 167 288 249 306 223 258 253 275 278 200 204 299 191 204 88 192 267 191 262 281 331 199 245 186 190 179 226 189 213 245 158 253 232 199 227 227 224 208 201 260 104 225 215 179 204 259 274 232 146 221 224 181 183 195 118 227 182 243 207 162 204 236 125 154 255 198 240 204 173 240 141 325 164 186 178 281 232 161 166 368 221 166 135 409 128 209 349 247 193 239 146 208 252 206 268 268 213 193 130 244 187 270 204 213 219 236 267 315 259 299 138 218 235 96 244 214 226 287 114 278 269 300 173 184 186 184 266 224 173 171 299 232 273 234 282 160 222 233 256 252 109 183 215 216 209 197 128 192 251 196 207 217 202 145 210 233 261 138 229 195 206 170 220 271 154 155 190 193 316 162 204 124 238 207 223 239 176 248 214 195 290 240 207 336 141 176 182 264 224 238 232 199 243 228 223 204 210 116 187 219 262 188 270 275 155 203 203 358 238 198 222 273 321 232 220 142 246 262 168 160 184 245 204 267 239 178 228 245 292 250 210 191 127 140 114 159 314 191 150 228 223 188 231 253 180 171 192 213 252 260 255 181 246 191 193 188 236 255 256 202 256 190 315 210 269 187 187 155 209 177 208 288 237 188 335 185 209 175 137 181 339 253 265 230 193 150 153 245 217 229 153 166 164 111 223 179 184 214 332 167 84 211 326 221 181 154 201 202 139 192 152 250 178 185 244 166 182 243 268 282 225 279 211 223 168 185 253 282 182 210 189 156 167 201 254 210 198 198 153 192 207 229 177 319 212 204 179 191 266 180 230 180 190 227 227 171 241 256 215 163 226 167 275 275 248 167 158 107 294 206 192 159 174 206 229 168 288 121 320 286 262 280 130 146 251 223 197 239 167 318 245 293 203 256 274 211 224 237 240 270 156 176 211 265 219 304 159 219 276 190 204 207 139 326 193 225 272 163 243 239 244 249 228 283 242 221 256 349 206 221 282 321 213 309 244 255 174 139 215 219 177 246 211 145 292 246 280 265 192 297 176 212 283 255 264 245 167 127 205 142 197 184 190 295 182 269 178 272 211 236 174 286 215 275 212 306 248 216 228 234 265 289 238 204 198 359 200 311 202 180 195 170 196 311 287 237 227 198 206 289 212 222 193 222 154 222 220 192 189 165 186 296 162 216 234 281 196 175 164 218 231 177 217 302 139 217 221 208 246 225 308 179 263 167 194 202 323 207 186 330 149 236 197 204 187 117 167 188 239 136 198 276 244 170 308 235 236 172 298 204 153 190 292 104 255 213 284 253 192 206 258 243 267 197 302 156 195 240 205 258 233 227 203 253 201 155 201 223 218 258 168 246 249 349 131 186 250 117 187 257 199 289 249 251 199 210 208 177 214 243 202 199 237 313 224 211 310 162 342 236 264 176 249 207 324 133 197 228 202 247 285 295 219 181 239 288 170 219 258 286 233 161 223 244 324 230 221 310 178 132 256 90 277 234 258 182 234 154 170 128 204 220 276 296 249 152 171 211 163 187 263 332 250 162 202 271 259 155 259 339 243 208 201 230 167 258 257 176 286 173 270 185 196 228 228 217 271 236 241 242 162 127 191 213 154 234 172 332 298 259 211 220 324 275 257 226 320 230 257 239 239 206 221 270 249 185 224 245 269 277 254 162 268 209 242 225 208 220 270 208 282 176 209 188 174 191 159 257 257 197 219 81 255 189 253 172 131 223 271 156 183 194 246 199 321 238 212 262 222 315 177 192 254 290 100 191 149 179 130 238 236 352 164 250 220 254 299 206 275 264 274 246 182 221 246 284 228 161 245 230 239 206 217 172 266 160 250 189 286 342 257 245 188 218 167 289 187 158 225 226 130 228 181 257 239 194 236 202 152 225 285 228 170 284 160 203 274 141 211 208 115 268 104 190 249 181 160 185 250 175 245 224 258 223 201 213 261 186 218 150 202 331 171 267 226 176 160 230 196 196 246 264 239 167 151 177 231 227 307 247 221 151 315 275 275 238 212 198 229 213 252 212 290 241 188 235 264 225 296 306 144 230 198 361 175 207 227 284 109 190 354 257 184 205 208 160 316 247 86 180 223 219 213 190 188 212 217 202 188 144 226 214 181 239 256 220 172 136 190 222 183 127 222 204 229 237 192 163 240 228 160 256 231 174 228 187 300 180 330 221 227 208 120 261 134 255 221 184 267 173 268 215 221 204 348 181 176 219 202 159 224 196 212 212 229 252 225 165 159 249 227 186 219 227 290 305 256 159 200 252 245 118 194 193 275 266 235 225 163 180 167 230 200 191 250 223 136 140 174 189 167 275 215 251 214 237 198 271 105 234 271 275 191 132 173 210 220 403 262 211 304 205 252 231 230 176 241 231 204 300 275 260 207 236 244 196 326 186 241 338 274 122 192 193 229 198 231 152 208 257 222 263 236 253 271 163 238 209 138 126 188 227 200 133 150 252 201 224 211 268 168 202 175 214 129 290 160 187 193 324 289 281 180 181 285 226 187 262 262 296 178 225 160 241 263 131 210 227 192 182 298 236 221 261 179 172 233 247 231 150 254 145 250 186 203 179 178 176 213 296 213 159 169 238 228 202 256 160 268 268 301 198 190 232 212 187 259 223 301 174 254 150 211 264 340 230 189 243 164 185 232 261 238 159 256 207 155 208 269 224 261 312 185 267 253 317 286 192 225 159 249 156 211 147 188 305 151 212 208 209 172 179 187 304 163 265 262 167 232 278 170 319 221 269 213 214 101 208 212 233 245 134 316 194 234 120 152 249 129 261 179 210 261 186 316 230 185 196 260 219 194 269 232 184 182 157 200 263 107 161 188 164 332 259 220 218 302 233 223 270 157 208 192 113 258 207 190 203 212 105 319 180 218 209 299 224 199 201 194 151 220 176 231 297 247 276 358 90 331 263 226 265 209 267 216 186 251 297 199 201 287 138 221 225 175 329 226 200 168 222 235 125 188 262 236 190 216 176 154 314 270 316 251 271 239 153 212 203 196 177 249 180 190 234 339 196 253 219 244 224 114 256 246 193 161 316 199 239 230 247 292 233 241 188 199 176 135 239 214 276 267 259 190 250 134 203 208 148 315 277 228 277 197 196 187 254 231 175 141 227 292 259 259 242 173 172 219 273 249 224 247 172 188 156 214 178 232 133 150 141 256 236 159 241 112 201 190 221 245 301 288 210 132 337 199 242 230 263 127 205 197 155 224 205 276 277 298 271 195 206 288 162 278 216 310 116 220 260 164 315 200 240 178 266 173 252 198 181 162 187 247 245 138 278 301 223 142 256 215 226 186 296 206 322 271 157 179 272 218 226 222 214 276 216 224 299 97 259 269 272 213 217 206 164 239 236 273 296 277 159 213 253 266 223 227 229 170 159 193 267 198 201 188 126 174 117 207 246 222 259 211 192 168 184 261 234 231 206 168 163 245 139 197 151 122 177 265 199 138 216 204 165 155 228 266 203 217 245 99 71 205 151 241 290 183 312 235 202 260 199 226 209 143 262 164 200 202 244 128 223 243 202 205 229 208 184 206 215 196 259 248 190 347 291 264 163 235 217 194 191 186 207 208 237 276 200 222 228 295 186 192 323 260 161 209 240 261 206 227 239 158 308 216 210 333 117 224 210 259 232 212 173 293 275 214 238 173 307 156 180 249 203 190 225 242 194 265 237 315 266 200 187 220 224 171 206 235 182 233 173 189 177 234 181 263 234 205 282 171 275 253 151 240 242 266 323 229 329 236 246 226 290 138 190 200 321 129 201 280 209 197 208 164 198 248 296 168 209 233 253 249 259 208 272 222 228 180 133 146 205 155 238 188 155 133 262 301 227 233 151 220 267 244 100 272 193 193 185 228 138 185 159 254 202 243 237 173 197 216 217 149 203 225 158 273 172 245 176 271 282 177 136 182 268 146 208 175 299 345 223 243 192 238 137 148 217 184 201 177 143 251 208 308 166 277 221 183 200 304 156 190 260 266 237 155 195 197 231 144 229 240 193 236 159 293 180 179 234 234 227 236 206 153 302 221 261 245 274 163 198 145 256 201 249 194 277 170 291 245 165 298 188 277 253 154 226 197 203 204 211 211 157 247 128 243 166 171 199 164 236 241 332 266 247 192 195 206 245 219 175 305 227 249 108 153 204 224 258 214 164 220 145 243 222 245 239 274 275 183 228 206 269 176 185 188 223 143 176 151 270 217 236 196 303 164 265 214 144 244 267 158 249 271 134 217 291 153 245 145 189 179 232 189 273 210 346 198 141 236 231 247 172 318 295 184 267 133 286 256 222 250 278 228 234 198 282 186 225 264 78 279 216 200 211 190 222 285 224 181 254 257 220 208 208 172 207 231 253 333 147 289 307 221 319 192 202 190 257 204 244 211 254 193 166 227 249 201 220 107 243 234 187 238 249 216 205 283 256 289 226 279 266 181 229 156 193 305 313 209 186 270 268 216 254 157 197 302 209 222 185 148 276 236 142 224 246 240 259 243 145 107 271 208 368 193 227 250 238 238 266 293 259 244 191 186 239 194 204 196 252 259 294 298 261 241 222 312 204 258 223 223 202 146 137 209 108 212 201 195 207 345 205 231 279 297 227 193 159 165 210 110 221 186 158 161 237 230 187 180 208 206 168 206 233 206 186 194 222 159 214 233 224 198 221 272 205 274 265 201 183 235 245 143 150 232 250 241 240 201 194 171 190 224 193 203 222 259 175 210 294 228 219 278 217 239 277 196 224 196 137 234 285 267 273 239 273 345 209 203 254 222 195 232 192 300 230 218 305 347 198 233 264 234 148 201 150 119 299 222 163 283 198 235 241 210 189 253 249 335 321 227 227 204 212 262 248 223 269 213 239 202 74 235 225 213 276 232 332 184 195 280 265 276 316 97 204 195 192 180 222 167 240 183 245 312 236 177 194 238 257 251 215 283 189 268 285 188 264 182 230 263 200 172 189 264 188 231 253 266 234 191 185 212 208 149 251 244 208 148 279 307 219 246 226 264 318 174 194 183 281 185 203 317 218 297 254 208 260 188 180 271 238 226 185 229 211 174 203 191 251 208 221 187 179 224 234 271 246 170 150 175 243 292 147 246 221 260 241 168 246 245 213 215 200 210 303 222 253 174 167 251 137 227 186 201 198 223 187 247 236 185 272 171 140 324 230 264 165 137 192 237 248 229 84 234 217 191 270 210 244 198 175 133 218 219 179 264 229 263 220 151 211 292 244 262 249 263 266 182 175 213 232 291 185 188 161 166 174 289 209 219 269 157 254 227 267 208 276 193 198 275 331 283 244 215 209 221 264 152 296 212 192 227 303 162 213 220 361 263 278 131 226 135 202 217 148 244 130 134 217 273 270 240 185 130 162 159 167 259 277 243 185 342 132 211 219 209 330 298 265 241 261 153 280 289 212 148 237 193 273 309 211 210 231 224 233 176 212 216 341 217 292 171 179 253 226 266 153 159 143 223 223 217 182 233 120 171 150 261 235 231 116 254 239 176 271 201 176 283 256 162 229 216 198 292 124 225 174 249 264 226 197 173 254 272 197 248 238 211 239 142 259 249 142 261 179 308 191 234 273 265 188 204 333 214 200 172 169 206 179 209 163 201 197 239 200 359 265 210 174 278 243 220 159 307 194 203 274 186 160 296 254 239 175 206 177 196 175 234 267 248 176 223 209 280 192 351 153 218 183 258 151 174 273 326 297 212 190 319 258 259 251 260 222 306 254 312 286 204 168 305 261 294 226 215 209 249 274 211 218 200 163 219 143 200 254 201 266 191 166 200 277 174 276 188 193 311 223 176 147 118 184 173 124 301 276 275 167 272 203 240 195 159 190 203 211 149 200 225 222 156 258 197 158 274 269 151 210 308 199 172 271 234 202 188 183 169 189 260 283 237 153 280 246 166 198 266 240 130 286 178 222 189 292 251 284 330 229 292 118 182 110 164 266 232 192 284 301 198 262 297 306 218 192 207 214 218 206 248 144 284 273 184 174 161 233 268 227 220 184 213 176 244 223 197 286 225 166 201 155 199 156 227 217 161 247 145 335 178 197 205 214 144 241 219 264 191 199 203 151 303 220 219 293 182 258 221 207 206 203 314 262 243 181 188 288 212 290 205 286 208 166 250 302 185 239 245 194 328 278 238 272 195 195 198 205 297 141 137 166 230 257 251 254 222 240 245 251 154 216 210 117 233 173 201 139 248 192 285 161 161 208 213 166 235 202 239 241 222 316 139 206 293 194 253 184 229 141 294 160 189 224 171 239 279 186 228 336 282 249 235 200 120 238 275 202 225 268 125 193 265 237 293 245 298 278 160 195 195 152 292 213 186 206 268 253 230 248 149 180 171 235 197 210 116 210 232 148 201 233 162 211 104 252 256 208 245 198 237 228 227 331 207 239 230 229 228 165 167 275 271 182 320 211 199 216 159 255 161 249 171 141 268 216 262 208 184 147 156 250 226 260 192 231 324 198 135 167 174 231 257 203 230 213 326 220 257 261 188 200 198 154 234 224 210 148 282 236 268 254 228 217 154 285 241 204 226 227 301 195 220 207 202 174 176 238 210 291 287 221 342 169 296 181 156 176 224 212 208 344 211 250 204 213 170 224 231 245 147 160 193 202 186 167 180 225 190 136 253 270 148 241 197 250 186 214 293 175 257 188 159 220 324 197 306 168 192 201 168 263 262 298 189 191 252 215 192 153 232 160 250 191 271 262 227 150 204 216 305 256 214 185 265 191 162 193 266 229 201 222 208 352 304 195 310 203 208 180 243 193 219 323 154 293 145 231 240 180 181 218 355 155 164 246 162 222 284 124 242 188 203 242 152 167 237 304 173 215 245 150 188 294 194 214 235 206 263 239 246 239 215 308 227 155 275 187 221 185 246 242 290 189 288 177 279 195 217 257 282 289 223 164 219 212 253 178 272 215 141 99 130 186 275 235 187 216 191 217 216 238 151 243 252 247 199 262 220 209 193 176 359 164 268 138 266 228 219 223 227 254 224 196 191 281 219 219 273 151 264 275 171 264 207 281 206 213 272 200 195 242 169 220 144 238 239 270 297 206 139 289 254 201 216 167 284 244 259 142 299 271 205 314 166 224 246 155 254 226 246 217 261 320 248 255 267 255 219 341 239 397 221 224 127 255 370 159 267 197 183 182 261 271 179 198 333 232 167 303 208 270 239 271 197 229 103 220 237 227 276 218 160 260 314 215 196 253 250 220 155 214 220 260 231 178 193 236 259 285 190 260 199 179 255 252 238 230 238 196 170 224 208 260 222 298 220 181 238 253 220 369 187 219 198 285 246 192 264 220 327 218 283 281 168 222 183 322 168 306 258 247 233 337 244 208 241 257 269 180 263 253 185 223 176 192 141 177 201 255 189 177 244 212 340 269 198 232 245 168 226 153 207 165 228 231 147 182 275 190 194 222 252 225 179 211 194 235 153 224 161 159 211 183 227 158 242 270 248 211 186 199 189 229 159 199 169 200 179 222 204 168 198 196 207 258 187 216 256 210 176 214 223 322 239 206 323 262 211 175 163 203 209 223 180 117 147 213 245 174 247 190 269 287 199 283 199 200 226 193 304 196 259 284 222 222 200 223 218 182 193 168 184 242 174 124 214 174 195 257 227 99 203 181 206 214 192 228 178 291 187 211 215 190 185 256 289 267 207 227 202 264 149 239 266 185 161 200 229 239 193 208 134 278 232 270 232 237 165 322 168 229 153 281 236 212 196 249 165 289 166 208 275 230 199 252 247 253 190 241 171 181 247 237 298 185 177 167 271 182 235 179 175 275 235 155 300 265 226 230 171 181 170 252 151 265 283 180 265 296 187 250 201 191 152 126 147 295 202 181 122 251 228 267 117 217 208 191 254 274 181 170 201 210 275 256 189 219 206 340 180 206 255 175 220 280 206 210 236 211 276 286 179 173 181 192 378 290 332 274 227 267 172 214 256 250 209 214 165 209 249 244 297 166 209 212 308 166 311 233 124 193 217 266 309 236 207 258 213 205 217 183 225 263 165 159 204 181 256 277 313 195 254 262 193 213 267 165 171 155 214 228 198 123 220 268 190 305 190 143 295 157 225 231 239 241 241 237 254 193 236 165 175 121 247 218 151 173 147 183 217 169 137 191 234 244 272 131 149 227 283 238 173 116 200 193 257 187 203 281 172 241 225 211 265 265 232 145 266 223 319 247 236 248 168 231 300 247 249 238 229 211 207 296 292 132 102 236 223 144 220 220 217 245 217 189 216 263 268 289 261 220 216 325 248 250 311 173 289 147 286 98 227 225 150 135 282 237 185 275 173 263 199 267 268 245 195 208 169 262 251 240 277 202 298 235 175 207 149 239 187 246 164 216 153 300 308 270 216 225 228 293 188 319 253 347 184 249 248 276 205 258 129 327 202 132 257 249 145 167 153 190 247 203 258 273 239 277 225 204 250 302 195 218 193 127 194 232 301 191 208 236 312 209 236 233 185 242 242 209 128 198 158 220 179 319 189 169 202 175 187 232 318 251 186 252 185 197 228 246 168 160 255 235 204 178 147 287 250 179 273 252 213 312 159 203 217 138 268 149 310 326 138 225 214 223 178 217 247 223 142 277 233 215 229 216 147 209 216 132 162 196 283 249 236 210 214 186 283 203 151 172 234 215 188 240 196 227 164 245 219 233 158 311 179 204 130 233 249 222 247 182 147 287 279 163 142 213 130 237 155 263 232 218 328 236 219 303 125 242 292 219 185 221 237 157 222 170 284 157 176 170 262 254 264 187 248 241 262 257 282 130 207 295 183 261 158 132 227 247 148 242 285 232 211 243 177 349 360 180 206 207 239 202 204 157 168 191 256 178 209 261 241 238 191 206 149 271 209 203 285 149 215 220 368 253 205 257 218 293 210 246 193 197 227 185 229 196 249 278 171 217 214 222 191 202 227 175 160 196 211 254 257 183 219 271 129 176 206 301 232 171 251 212 171 320 224 159 246 233 209 251 215 217 232 159 212 245 143 265 166 142 162 134 169 290 254 265 191 249 228 196 234 213 144 228 173 302 103 174 211 257 230 252 130 253 197 167 201 199 186 264 154 231 189 107 248 299 221 273 239 125 226 233 159 248 221 324 253 224 264 214 204 295 190 266 209 283 242 270 132 223 202 165 184 249 357 272 292 196 273 209 295 224 194 207 199 202 297 245 321 174 170 185 216 157 324 318 188 205 210 228 395 267 266 185 266 292 110 265 226 173 332 191 196 271 223 254 190 257 237 241 183 207 207 327 123 148 178 210 271 275 222 196 144 200 201 204 221 385 226 166 174 338 270 250 92 184 149 188 198 242 187 250 212 172 231 293 181 233 195 293 220 279 217 298 238 328 144 194 206 215 244 281 259 166 289 301 259 189 274 159 301 285 72 225 233 178 160 269 236 193 216 271 210 129 251 234 156 110 230 286 214 268 143 286 203 189 176 146 191 240 221 241 150 190 140 276 258 261 247 221 319 289 183 161 197 261 111 232 189 273 189 334 132 250 268 289 212 176 230 223 161 287 174 178 254 251 129 291 214 230 148 219 221 215 242 242 242 277 220 274 230 164 265 282 165 212 212 309 220 257 131 127 273 208 182 292 189 266 166 210 185 210 202 222 295 240 334 189 237 199 274 172 237 244 171 147 246 269 212 163 291 160 184 196 249 249 294 169 246 234 324 204 216 195 281 235 167 201 246 269 174 186 206 186 232 194 229 152 238 265 288 154 222 242 251 247 222 233 161 168 220 223 248 180 228 145 216 213 201 204 204 258 206 293 252 250 236 270 289 184 321 189 221 250 329 191 210 166 204 179 179 209 182 165 201 126 217 224 246 199 204 232 231 173 243 146 229 214 192 324 197 344 206 219 161 197 192 287 120 174 229 212 236 357 177 247 259 169 155 204 151 188 270 214 183 266 234 235 248 186 310 195 193 243 175 260 255 263 154 303 237 218 141 259 181 203 108 202 133 215 172 121 163 201 249 212 167 225 207 219 201 161 319 183 169 229 220 217 178 174 162 239 303 350 185 293 225 316 166 172 205 161 147 198 187 235 220 313 215 248 180 318 235 238 236 233 149 257 278 187 279 253 224 290 137 176 248 202 215 210 196 209 179 154 214 193 232 223 185 220 290 273 289 217 309 161 261 139 183 289 173 139 273 197 220 241 159 224 312 173 194 122 232 223 206 251 186 255 287 161 267 265 291 172 139 227 192 186 274 186 270 225 286 249 106 217 299 165 287 189 241 273 241 178 252 241 206 237 362 249 254 235 214 265 179 206 253 141 192 132 253 255 229 309 177 145 203 266 214 189 178 194 245 216 250 256 158 248 175 266 196 266 227 240 181 233 144 180 208 221 295 300 290 234 201 170 348 291 203 144 209 244 270 187 131 217 201 195 141 313 217 176 190 204 239 298 244 205 184 210 181 157 222 208 148 245 299 212 217 280 199 214 294 119 199 261 95 204 219 211 104 302 216 286 291 197 205 244 203 252 238 204 356 160 201 263 180 149 273 103 188 187 278 150 271 221 290 238 230 194 303 208 343 83 241 195 242 221 192 206 260 166 246 293 110 191 225 180 223 238 189 174 287 154 199 286 126 279 132 217 189 241 173 194 243 286 183 194 215 280 222 165 193 257 229 233 156 178 345 260 257 233 187 267 249 311 327 240 287 240 191 223 293 242 178 195 202 195 311 228 302 309 178 125 221 280 262 264 283 158 230 180 255 191 229 205 308 205 158 199 208 197 225 224 201 252 209 226 218 217 243 224 164 218 230 239 245 197 227 287 210 233 243 221 193 340 209 198 246 200 203 236 247 265 255 193 144 116 219 244 203 261 239 201 239 215 208 295 252 339 229 279 272 274 262 259 204 252 217 255 128 219 303 309 269 244 240 213 224 196 188 227 294 235 351 285 184 320 232 302 125 243 207 178 183 72 201 198 232 237 282 206 197 229 197 120 256 268 170 203 170 160 198 270 139 294 203 199 297 205 147 381 200 304 276 217 271 284 200 199 197 245 240 211 194 161 122 223 314 237 229 214 313 262 210 216 288 177 217 243 167 169 282 214 148 307 221 211 212 230 164 261 200 220 181 252 232 261 280 187 270 231 215 243 268 189 192 295 271 327 259 167 171 185 231 261 172 235 179 212 154 156 179 242 182 278 327 189 230 206 155 253 198 265 292 343 206 254 256 278 237 164 197 249 239 183 367 282 134 211 147 192 294 366 223 303 150 218 342 178 243 246 249 268 226 223 185 219 226 253 172</t>
-  </si>
-  <si>
-    <t>GAM(0.38461441213254177, -1.7681925174802138e-25, 1.106627433301764)</t>
-  </si>
-  <si>
-    <t>0 1 1 0 1 1 1 2 2 0 1 1 2 2 1 3 2 0 2 1 2 1 1 0 0 0 1 1 1 2 0 0 1 1 0 0 4 1 1 3 3 1 2 0 2 1 0 1 2 1 2 0 4 0 1 1 0 1 0 1 3 3 1 2 2 2 1 1 1 1 1 1 2 1 2 0 1 2 1 0 0 2 0 1 1 0 2 1 2 0 1 1 0 2 1 0 1 1 1 2 2 0 0 2 1 1 1 0 1 1 2 2 0 2 1 2 0 0 3 2 2 0 1 2 1 4 1 1 1 1 2 0 0 1 2 0 3 2 0 2 1 1 1 1 1 0 0 1 1 0 2 1 1 0 1 1 0 0 4 0 0 1 0 0 2 2 1 0 1 3 4 3 1 1 0 1 1 0 2 2 3 2 0 0 0 2 0 4 1 2 0 1 0 2 1 1 1 0 0 1 2 3 2 2 0 1 1 2 0 1 0 2 0 2 3 3 1 2 1 1 2 0 1 2 2 0 1 1 1 2 2 1 3 0 2 1 2 0 1 2 1 1 1 1 1 0 1 0 1 1 1 0 1 2 0 2 2 0 1 0 0 0 1 1 1 0 1 0 1 0 3 1 0 2 2 1 1 2 0 1 0 1 2 2 0 1 1 2 1 2 2 1 1 1 0 1 1 2 0 1 1 2 0 1 1 0 0 3 1 2 0 3 1 3 0 3 3 1 0 3 2 2 2 1 2 1 2 0 0 0 1 2 0 4 3 2 1 0 3 1 0 2 1 1 0 0 2 1 2 1 2 0 1 0 1 1 1 1 2 2 0 2 1 3 1 2 2 1 2 2 1 2 2 0 1 0 1 1 2 2 1 1 0 1 0 2 1 2 3 2 1 1 1 0 0 1 1 1 2 1 3 3 1 2 0 1 1 1 1 2 2 4 3 3 1 1 1 1 1 0 1 1 2 4 2 2 1 1 4 2 0 0 0 0 2 1 1 2 2 1 1 0 1 2 1 0 0 1 1 1 1 1 1 0 2 2 3 3 2 2 0 0 2 0 3 3 2 0 2 4 1 0 1 0 1 2 1 2 0 3 2 3 1 3 3 3 0 1 0 1 1 2 2 1 0 1 1 0 3 4 1 3 2 1 2 1 0 1 1 1 0 2 0 1 1 1 2 0 4 2 2 1 0 2 2 1 3 2 1 4 0 2 0 1 0 1 3 2 0 1 0 0 1 3 3 2 1 1 1 0 1 1 3 1 1 1 3 1 1 2 1 0 3 0 0 0 0 2 1 3 1 2 1 0 2 1 0 2 1 2 1 0 2 0 0 1 1 2 0 1 1 3 0 2 0 4 1 0 1 2 0 2 1 1 1 3 1 0 1 1 1 1 2 1 1 1 0 2 2 0 0 1 1 2 1 1 1 0 1 1 1 1 1 2 1 1 1 2 3 4 0 1 1 2 0 0 1 0 2 1 2 2 3 2 2 2 2 2 1 2 1 0 0 1 0 1 1 0 0 2 2 2 1 1 2 2 1 0 2 1 0 1 2 0 1 2 3 0 1 3 1 1 2 2 1 0 1 2 1 1 1 0 1 2 1 2 2 2 0 1 3 2 1 2 1 1 3 1 1 0 3 0 0 1 0 1 1 2 1 0 1 1 0 3 1 0 1 1 0 1 2 1 0 1 0 2 3 0 1 0 3 2 1 2 1 0 0 1 0 2 0 2 0 1 0 2 0 2 2 3 1 1 0 1 2 1 1 2 1 2 1 2 3 1 1 1 3 0 1 0 0 0 2 1 2 1 0 1 0 3 0 2 3 4 1 4 1 1 0 2 1 1 1 3 2 2 1 3 2 2 1 1 1 3 1 1 1 2 1 1 0 2 2 2 2 2 1 0 2 1 2 1 1 1 0 1 0 1 0 1 2 0 1 0 2 1 1 1 2 0 1 0 1 0 1 0 1 2 0 2 1 1 0 0 1 0 1 0 3 1 1 1 1 2 2 1 0 0 1 2 1 1 0 0 1 1 0 0 3 2 1 0 0 0 1 1 1 2 2 1 1 0 1 1 0 2 2 1 1 0 0 0 0 1 2 2 2 2 0 1 0 1 1 0 3 2 2 1 0 0 0 2 0 0 1 2 0 1 3 2 1 1 0 1 0 1 0 2 3 0 3 1 2 1 1 3 1 0 2 1 1 1 1 2 2 3 2 2 0 1 1 1 1 2 0 3 2 0 2 2 1 3 0 0 1 0 1 1 1 1 2 2 0 2 1 1 3 1 0 1 1 1 2 1 1 2 1 2 1 0 1 1 1 2 0 2 1 0 1 3 1 3 0 1 3 0 1 1 2 3 1 4 1 2 1 1 1 1 1 2 0 1 2 1 1 4 0 1 1 2 1 1 1 0 3 2 2 0 1 2 1 0 3 1 0 1 0 1 1 2 2 1 1 1 2 2 3 0 2 2 1 2 2 1 1 1 2 0 1 2 0 2 1 0 0 1 1 1 0 2 2 2 0 3 2 0 1 1 3 1 0 1 2 0 3 1 1 0 2 0 1 1 2 3 1 1 1 0 0 0 0 0 1 0 4 0 1 3 0 3 1 2 2 1 1 1 0 0 3 0 1 3 1 2 0 0 2 1 0 2 1 1 2 2 3 0 1 2 1 1 1 2 3 1 0 0 2 0 1 2 2 2 0 1 2 1 3 0 1 1 0 1 0 1 1 1 0 0 1 0 0 1 2 1 3 1 1 1 1 0 0 1 0 0 2 0 2 1 1 1 0 1 2 0 2 0 1 0 1 1 1 2 1 1 2 2 2 0 1 2 0 0 1 0 1 1 0 0 0 1 1 1 0 1 2 1 0 1 1 0 1 0 0 1 1 1 2 2 1 0 1 1 1 2 3 2 1 2 0 1 1 1 0 1 3 1 2 2 0 1 2 2 1 2 2 1 0 0 1 3 1 1 0 0 1 0 1 1 0 2 2 1 2 1 0 1 2 1 0 2 0 2 1 0 1 1 0 1 1 1 3 0 1 1 1 4 2 1 1 1 1 2 1 5 1 0 1 2 1 0 1 3 1 1 0 1 1 0 0 2 0 2 0 1 1 2 2 1 2 1 1 0 2 1 2 2 1 2 1 2 1 0 1 0 1 2 2 1 1 1 0 1 2 0 2 2 3 2 1 1 1 1 0 1 2 1 0 2 0 3 2 1 1 3 0 1 2 1 2 3 2 1 1 2 3 3 1 3 1 0 0 0 3 0 0 1 4 2 1 0 2 1 2 2 1 0 2 1 0 3 3 4 0 2 1 2 1 0 0 3 0 3 1 4 0 2 1 1 0 0 1 1 1 2 1 1 3 2 2 1 1 1 0 4 0 2 1 3 0 0 1 1 1 1 2 1 0 0 0 2 1 1 0 0 2 2 0 3 1 2 0 1 1 1 1 2 1 1 1 0 1 2 0 2 2 3 0 5 3 0 0 1 1 1 1 2 1 1 1 2 1 0 1 1 3 0 2 3 1 1 1 2 1 1 4 0 0 2 5 1 3 1 2 1 1 0 2 2 2 1 2 0 3 2 1 1 2 1 0 2 1 1 2 0 2 4 0 1 1 0 0 3 0 1 3 0 2 1 0 2 1 1 1 1 2 3 1 0 1 2 0 1 1 2 0 0 0 1 0 2 0 1 1 0 1 0 1 4 0 0 1 3 0 1 1 1 1 1 1 2 1 2 2 1 1 2 1 1 3 1 0 1 1 1 1 1 2 0 1 1 1 1 1 1 2 1 0 1 2 2 2 2 1 5 1 0 2 2 1 1 2 3 1 0 1 3 2 1 3 2 2 1 1 2 1 3 1 0 3 1 1 1 1 1 2 2 1 1 2 4 0 0 2 1 1 2 0 1 1 1 3 1 2 2 3 1 1 4 2 4 1 2 2 0 2 1 1 0 1 0 2 1 2 0 1 1 0 0 2 0 1 1 2 1 1 1 2 1 2 1 1 1 1 2 0 2 2 0 1 0 1 1 1 1 1 1 1 1 1 0 0 2 2 1 1 2 0 1 0 1 3 2 2 1 1 1 1 1 2 1 2 1 0 2 1 1 1 0 2 0 0 0 1 3 1 4 1 3 3 2 2 2 2 0 0 0 1 1 0 2 1 0 2 1 2 0 1 1 3 1 2 2 2 0 3 1 0 3 2 2 2 1 1 2 1 0 0 0 2 1 0 1 2 1 0 0 2 1 0 1 2 0 0 1 1 1 0 0 2 0 3 1 2 1 1 0 1 1 0 2 1 3 0 2 1 3 1 1 3 0 3 1 1 2 1 2 4 2 0 0 2 2 3 0 0 3 1 1 0 3 0 2 1 0 1 1 2 1 2 1 1 3 0 1 2 0 1 2 0 1 2 1 2 0 1 1 1 2 0 2 2 1 1 1 0 1 3 1 2 1 1 2 1 1 0 1 1 1 2 0 3 3 0 0 0 1 1 3 3 1 2 2 0 1 2 0 2 1 2 1 1 4 2 2 0 1 1 1 4 1 1 0 1 2 2 1 1 1 2 0 1 0 2 2 1 1 1 1 2 3 2 2 0 1 1 1 2 0 2 2 3 1 0 1 0 2 2 0 1 0 2 0 2 0 1 0 1 1 1 2 2 1 1 2 1 1 2 2 1 1 1 1 0 1 1 0 1 1 1 1 1 2 1 1 1 0 0 1 1 3 1 2 0 1 2 1 1 0 1 3 2 1 0 1 0 1 2 1 3 1 1 1 1 2 2 1 2 1 1 3 2 3 3 2 1 1 1 1 2 1 0 1 2 1 1 1 2 1 3 0 0 1 1 0 2 2 0 1 1 2 1 1 1 1 0 1 2 1 1 1 2 2 3 1 1 2 0 1 1 1 0 1 2 0 1 1 3 0 4 0 2 0 1 2 0 1 1 2 0 1 0 1 1 1 1 0 2 1 1 1 2 1 1 3 0 2 2 2 2 2 0 0 0 1 1 1 0 1 2 1 2 1 1 1 0 1 1 3 1 0 0 1 2 1 1 0 1 1 1 0 0 0 0 1 0 2 1 1 3 1 2 0 1 1 1 2 0 1 0 1 1 1 2 1 1 1 1 1 1 2 1 2 1 4 0 1 2 2 0 1 2 1 1 1 0 1 1 1 2 3 1 1 1 0 4 0 1 2 2 1 0 2 2 2 0 4 2 1 3 2 2 1 1 0 0 1 1 1 0 0 3 0 2 1 0 3 1 1 3 2 0 0 2 2 1 1 2 0 0 1 3 0 2 1 4 0 0 3 2 0 2 2 2 1 3 0 1 2 1 2 1 0 1 2 0 3 1 0 1 3 1 2 0 2 2 0 0 0 1 1 0 0 0 2 3 2 2 2 1 2 1 2 1 3 1 1 1 3 1 1 1 0 2 0 1 2 1 2 2 1 1 0 2 0 1 1 2 1 1 1 1 1 2 0 1 1 1 1 0 0 2 1 1 0 3 1 3 3 0 0 2 2 1 1 1 1 3 0 2 1 0 0 1 2 3 0 1 0 1 1 1 2 2 2 2 0 1 0 3 2 1 5 1 1 0 2 1 0 0 2 2 2 1 1 1 1 1 0 2 1 1 1 2 2 3 4 2 1 3 2 0 0 2 1 0 0 0 1 0 0 1 2 0 0 2 2 0 0 1 0 0 3 2 1 3 1 1 2 0 1 0 3 2 2 1 1 1 1 2 1 2 3 0 2 1 0 3 0 1 1 3 2 2 5 1 2 2 1 1 3 1 1 1 1 2 0 1 1 1 2 0 2 1 1 0 2 2 1 1 1 2 0 0 1 0 2 2 1 0 3 2 0 3 0 2 0 1 1 0 1 2 1 0 2 1 1 1 0 1 1 0 1 1 0 0 2 2 0 1 3 1 0 1 3 1 0 4 1 3 2 1 1 1 2 1 1 0 2 1 0 0 0 0 1 1 0 1 0 2 0 0 1 1 1 2 1 0 2 1 1 1 1 1 0 1 1 2 2 1 1 2 0 2 2 2 1 0 3 0 2 1 2 0 0 0 1 1 2 1 1 2 0 0 2 2 3 0 1 1 1 2 1 0 1 0 1 0 3 2 0 1 5 2 2 3 2 1 2 0 2 2 1 2 1 3 0 1 3 0 1 0 0 3 1 1 0 3 2 1 0 2 1 2 2 2 3 0 0 1 4 2 0 2 1 0 0 1 0 2 1 2 2 1 3 1 0 3 1 1 1 1 1 2 1 1 1 4 2 1 2 2 1 3 1 4 0 1 1 0 1 0 1 0 2 2 1 0 0 3 1 1 0 1 2 1 1 0 1 1 1 1 0 2 2 3 3 1 2 2 1 3 1 1 1 2 0 2 0 1 0 2 2 1 0 1 4 0 3 2 1 3 1 0 1 0 0 1 0 3 2 2 1 0 1 2 2 2 1 2 2 1 1 1 0 2 1 1 0 2 2 0 1 0 0 1 1 2 3 2 0 1 3 1 1 1 1 2 1 2 1 3 1 1 2 2 1 0 4 3 2 2 3 4 1 2 2 2 0 1 1 2 1 1 1 0 1 1 1 1 0 3 0 0 1 2 1 2 0 1 0 2 1 3 1 1 2 2 0 2 2 2 3 1 0 1 3 0 1 1 0 1 1 1 1 0 2 2 1 0 0 1 1 2 3 2 0 1 1 1 0 1 1 0 2 1 0 0 0 2 0 2 2 2 3 1 1 1 1 0 1 3 1 0 0 2 1 3 0 2 1 0 1 2 1 1 1 1 1 1 0 1 3 0 1 0 1 1 3 1 1 1 2 4 2 1 1 2 2 1 3 0 2 2 1 3 1 0 0 1 1 2 1 2 2 0 0 1 1 1 1 3 1 2 1 2 1 0 2 2 1 3 2 2 3 0 0 1 0 0 1 2 1 2 0 1 3 2 3 0 1 2 0 0 2 2 1 0 0 0 2 0 0 1 2 3 1 1 4 1 1 1 1 0 0 1 1 3 0 4 2 2 1 0 2 2 0 1 1 2 1 2 2 1 2 1 2 0 1 2 1 1 1 0 0 0 1 1 0 0 1 1 3 1 2 2 1 2 1 1 4 1 1 0 1 1 1 1 2 1 1 1 0 0 2 0 1 2 2 1 3 0 2 1 1 0 1 1 2 0 2 2 0 3 4 0 1 1 1 1 0 0 1 1 2 0 0 3 0 1 2 0 1 2 2 2 2 0 1 1 2 1 3 2 1 3 3 1 1 1 1 1 2 1 2 0 0 1 1 4 0 2 1 1 0 1 1 1 0 1 2 1 0 1 1 0 0 1 2 1 1 0 0 1 1 2 3 0 1 0 0 2 2 0 1 2 1 1 0 1 0 0 2 2 0 2 0 1 1 1 0 0 4 1 1 0 0 2 1 0 4 1 0 1 7 0 1 2 1 0 3 0 0 2 1 1 2 1 1 1 1 1 2 0 2 1 1 1 4 1 1 1 1 0 0 1 1 0 2 0 3 3 4 0 1 1 1 2 3 2 1 2 1 1 1 2 1 2 1 2 1 0 1 0 1 2 0 0 1 1 0 0 0 1 2 1 0 3 0 2 0 2 0 0 0 0 1 1 1 1 1 2 1 1 2 0 3 2 2 1 1 1 3 0 3 0 3 1 1 1 1 0 2 1 1 0 3 1 1 2 2 0 1 1 1 1 0 1 4 1 0 1 1 3 3 2 0 3 1 2 2 1 2 0 1 1 1 1 1 1 0 2 0 1 1 1 1 3 3 0 0 3 1 1 1 1 0 0 1 1 2 2 1 0 2 0 1 1 1 0 0 1 1 1 1 3 1 3 0 0 1 2 1 1 1 2 0 0 1 1 1 2 1 4 0 1 2 1 2 1 1 2 0 1 1 2 2 0 1 2 0 0 0 1 1 1 0 0 1 0 1 0 1 0 0 0 1 0 1 2 3 1 2 1 0 0 1 0 2 2 2 1 0 2 1 1 1 0 1 0 2 1 3 2 1 2 0 1 1 2 0 1 1 1 1 2 0 1 2 1 0 2 2 2 2 3 0 1 1 1 2 2 0 0 1 2 1 3 1 3 2 3 0 2 1 1 1 1 0 0 1 2 4 0 1 1 1 2 0 2 1 0 2 3 3 2 0 0 1 1 1 0 0 0 2 1 0 2 0 1 0 1 0 0 1 0 0 2 2 3 3 2 2 1 2 1 3 1 0 1 2 0 1 2 1 2 1 2 2 1 1 0 3 1 1 3 3 0 0 1 1 2 1 0 2 1 0 1 1 1 0 1 1 2 1 0 1 1 0 1 2 3 0 1 0 0 3 2 1 0 0 2 0 1 1 2 2 2 1 2 2 2 1 0 0 1 1 0 1 1 1 0 2 0 0 0 1 1 2 0 0 2 0 0 2 0 2 0 1 0 1 1 0 2 0 1 1 2 2 0 2 1 1 2 3 1 1 1 1 2 1 0 1 0 2 2 1 0 1 2 1 1 2 1 0 2 0 2 0 1 1 2 1 1 1 0 1 1 2 2 1 1 2 0 1 1 0 1 0 1 1 2 0 1 2 0 2 0 2 0 1 1 2 0 2 1 0 1 2 2 0 2 0 1 2 1 2 1 0 4 0 2 0 1 2 2 1 1 3 0 1 1 0 1 1 1 1 2 1 2 2 0 1 2 2 3 0 0 2 0 1 1 0 1 2 1 1 3 2 2 0 0 2 2 3 1 1 2 3 1 3 1 2 2 0 2 2 2 1 1 3 1 0 1 2 0 2 1 0 1 0 1 1 2 0 0 3 2 0 2 2 1 0 3 2 1 2 2 2 2 2 0 3 2 2 1 0 1 1 1 1 3 2 1 1 0 1 2 2 3 3 2 1 1 2 2 1 1 2 1 1 2 2 3 1 2 0 0 4 2 0 1 1 2 2 2 1 0 1 2 0 1 1 2 0 1 1 1 2 1 3 1 1 2 2 0 1 0 0 1 0 0 1 0 3 1 0 5 0 2 3 2 2 1 1 1 0 0 1 1 3 4 1 0 1 1 0 2 0 0 4 1 2 1 1 1 2 0 0 0 1 1 0 3 2 3 2 2 0 0 1 3 1 2 2 0 0 0 0 1 1 0 1 0 1 1 1 1 1 1 2 0 1 2 2 3 1 1 1 1 0 1 3 1 3 1 0 0 0 1 1 2 2 2 1 0 0 1 2 0 1 2 0 2 1 1 3 1 1 1 2 2 0 3 1 0 1 3 2 0 0 3 0 2 4 1 0 0 1 2 2 1 2 1 1 0 2 3 2 0 0 1 1 3 2 1 2 2 1 2 1 0 1 0 1 1 1 0 0 1 2 0 0 1 1 1 1 0 0 1 2 1 2 0 0 0 2 2 2 4 0 0 2 1 3 1 0 3 1 3 3 2 0 2 1 1 0 2 0 0 1 1 0 4 0 1 2 3 1 1 1 1 0 2 2 2 2 0 2 0 1 0 1 1 0 2 1 2 2 0 0 3 3 0 1 1 0 1 0 0 1 2 2 1 2 0 0 1 1 1 1 2 0 2 1 1 1 0 2 0 2 0 1 0 1 1 3 1 2 1 3 0 2 1 2 2 0 4 0 1 1 0 1 1 0 3 0 2 0 1 2 0 1 1 1 3 2 1 0 0 0 0 3 1 0 0 2 0 2 1 2 1 0 0 2 0 2 2 2 1 1 2 2 1 1 1 1 1 2 1 1 1 3 1 1 0 0 1 1 2 2 1 2 0 1 0 2 2 1 2 0 1 2 1 1 1 1 1 2 0 2 0 2 1 2 2 1 0 0 0 1 1 1 0 1 0 1 2 0 3 1 1 0 1 1 2 1 1 1 1 1 2 0 1 1 2 0 0 4 2 1 2 1 0 2 2 2 0 0 1 1 1 2 1 1 1 1 0 1 0 1 0 0 0 1 0 0 1 0 1 2 0 2 0 4 1 1 0 1 3 1 0 1 2 3 1 0 0 2 1 0 0 2 1 1 2 1 0 2 1 1 1 0 1 2 0 1 1 2 0 1 1 0 2 0 0 2 3 1 1 2 2 2 1 0 2 0 0 1 1 1 3 3 2 0 1 1 0 1 1 1 1 0 1 2 1 1 2 0 2 1 0 0 2 3 0 1 1 4 0 1 3 0 2 2 1 2 1 1 1 2 0 1 1 2 1 2 1 0 1 2 2 0 2 0 4 0 1 0 0 4 0 1 0 0 2 1 0 1 1 2 0 1 0 1 1 2 1 0 1 1 3 2 2 0 1 1 0 1 1 3 0 1 1 3 1 2 1 0 0 1 1 1 0 1 1 0 0 1 1 2 1 3 1 2 0 1 0 1 2 1 1 0 1 1 1 3 2 2 0 2 2 2 2 1 1 2 0 3 1 1 3 3 1 1 0 2 0 1 0 0 1 1 2 1 1 2 1 3 1 0 3 1 3 0 2 2 1 2 2 4 1 1 0 1 1 1 0 2 0 1 1 0 1 2 2 1 0 3 1 0 1 2 0 2 1 0 1 1 2 0 1 0 1 1 1 2 0 1 2 1 2 2 0 2 2 1 1 1 2 0 1 2 1 1 2 1 0 0 2 2 0 2 1 0 3 0 1 1 1 4 1 0 0 1 3 1 1 1 0 1 2 0 2 0 1 1 2 1 1 1 1 1 1 1 1 2 0 0 0 0 0 1 2 2 2 2 1 3 0 0 0 2 0 3 3 1 1 0 0 1 1 1 1 1 0 1 1 0 0 2 1 2 3 2 1 0 2 1 1 1 1 1 1 1 2 1 0 2 1 2 1 4 3 1 1 0 2 2 1 1 1 0 1 1 1 1 1 2 2 2 0 2 0 1 0 1 1 1 0 1 1 1 1 0 0 0 3 2 4 1 1 1 2 0 0 0 2 2 1 0 1 1 1 1 1 2 1 1 1 1 1 1 1 2 1 3 1 2 2 1 0 0 2 0 0 2 0 2 1 2 0 1 1 2 1 1 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 4 1 1 1 2 1 1 1 0 1 1 0 1 0 0 1 0 1 2 0 0 0 2 0 0 0 0 0 0 0 2 1 0 2 1 2 1 0 2 2 0 3 2 0 1 1 2 4 1 2 1 0 0 1 0 0 2 1 2 1 2 2 1 3 1 3 2 3 2 1 1 1 1 1 1 0 1 1 2 1 1 1 2 0 2 0 1 1 1 2 2 1 3 1 4 2 2 0 1 1 2 0 1 2 2 0 2 1 1 1 1 2 2 1 1 0 1 1 2 0 0 0 1 0 1 0 1 1 1 2 3 1 1 1 1 2 1 1 0 3 0 1 1 0 0 1 4 2 0 1 1 1 0 3 3 1 1 1 1 2 3 1 2 1 2 0 0 1 1 0 1 1 3 1 0 0 2 0 1 0 0 1 1 2 1 1 2 2 0 1 1 1 2 2 2 0 0 0 2 1 1 2 2 0 2 1 3 2 1 2 1 1 0 0 2 0 0 1 0 0 1 0 1 0 1 2 2 1 0 2 1 2 0 2 2 2 1 4 0 1 2 1 1 2 1 0 2 1 1 1 4 0 1 2 1 2 1 0 0 2 1 0 3 1 0 2 2 0 1 1 0 0 0 0 1 3 3 0 1 1 0 1 2 0 1 2 0 3 1 0 1 2 1 2 2 1 2 2 2 1 2 1 3 2 2 1 1 1 3 1 1 1 2 0 0 0 2 0 2 1 1 1 1 0 1 2 1 1 2 1 1 1 1 1 0 2 1 0 1 2 1 2 2 1 1 0 0 1 3 0 0 0 2 0 0 0 1 1 2 0 1 0 1 2 1 0 1 1 1 2 1 0 1 2 1 3 1 1 1 3 2 0 0 2 1 1 2 0 1 1 1 1 0 1 1 1 2 2 3 2 3 1 1 1 1 0 1 0 1 0 1 1 2 3 1 3 2 0 1 0 0 0 2 3 1 2 4 1 2 1 1 1 2 1 1 0 1 1 0 0 1 2 1 1 1 1 1 2 1 0 3 1 2 0 1 1 3 0 2 2 0 3 2 1 1 2 4 1 0 1 1 2 4 0 2 1 1 1 1 0 0 0 2 3 3 2 2 2 1 1 1 3 1 5 3 1 1 0 2 2 0 1 1 0 1 3 2 1 0 2 1 2 0 1 2 0 1 0 1 2 2 2 3 1 1 1 1 2 1 1 1 3 2 2 1 1 2 1 1 0 1 1 1 1 0 1 1 1 1 0 3 1 1 0 0 3 2 1 0 2 1 0 0 2 2 2 2 2 2 2 1 3 2 2 3 2 2 1 3 1 0 0 0 1 1 1 0 1 2 0 1 1 0 2 0 0 1 1 1 1 1 3 0 2 3 1 2 1 1 0 2 1 1 1 1 1 1 2 0 0 2 1 0 2 2 1 2 1 1 0 0 2 1 1 0 0 1 1 1 3 1 0 1 2 1 0 0 1 0 2 2 3 1 2 1 1 1 1 1 1 1 0 1 2 2 2 2 3 3 0 1 1 0 2 1 1 0 1 1 2 1 0 1 3 1 1 0 2 1 0 1 1 2 2 2 1 4 0 1 0 1 1 2 2 1 0 1 1 2 2 1 2 1 1 2 0 0 2 2 0 1 1 2 3 0 3 2 1 0 1 1 2 0 0 1 1 1 0 0 0 0 0 1 1 2 2 2 1 0 0 1 3 0 1 1 1 0 1 2 0 3 1 1 3 1 3 1 2 1 0 1 0 0 3 1 2 2 1 1 2 3 1 2 2 1 1 0 1 2 1 2 2 1 1 0 0 1 1 0 2 1 2 1 1 1 0 2 2 2 2 2 1 0 0 0 0 1 1 2 2 1 3 1 0 1 2 2 0 1 2 1 0 0 2 2 1 0 6 1 2 0 1 1 2 0 1 2 2 0 2 1 2 1 1 0 2 1 1 0 0 1 0 1 1 1 0 1 1 0 2 1 0 4 1 2 1 1 0 3 0 1 0 1 3 1 3 1 1 1 0 2 1 1 2 1 1 1 0 1 0 1 0 1 3 1 1 1 0 0 0 2 2 2 0 1 1 2 1 2 0 0 2 2 0 2 2 0 0 3 0 1 2 3 0 1 2 0 1 2 2 1 0 1 2 1 3 2 1 2 3 1 2 2 2 2 1 1 0 1 2 3 1 2 1 1 2 4 1 2 0 1 0 1 1 1 1 1 0 0 1 0 1 2 1 2 0 1 1 0 1 0 0 1 0 1 0 0 0 0 3 3 0 4 1 1 1 2 0 0 3 1 1 0 2 1 3 1 2 1 0 1 1 4 2 1 1 0 0 1 1 2 1 2 1 1 1 0 1 1 2 1 2 1 0 1 3 1 1 1 0 1 1 0 1 0 2 0 1 0 1 1 2 1 2 2 0 0 0 1 1 0 2 1 1 1 2 0 1 2 1 1 1 0 1 1 1 0 3 4 1 0 0 1 2 2 3 2 1 0 1 1 2 1 2 2 1 0 2 0 2 1 0 2 3 0 2 0 1 0 2 2 0 1 2 1 2 0 0 1 1 2 0 2 2 1 1 1 1 0 2 1 1 1 2 2 2 0 1 1 2 0 2 2 1 0 0 1 0 0 2 1 2 3 2 1 0 0 0 0 2 3 0 1 3 1 1 0 1 1 1 1 0 0 2 1 3 0 1 2 0 1 1 2 2 2 0 1 1 0 0 1 1 1 0 2 1 2 1 1 2 1 1 1 1 2 1 1 4 0 2 1 1 0 2 0 2 0 1 1 3 1 0 2 1 2 1 2 3 1 1 1 1 0 0 2 1 2 2 1 0 2 2 3 0 0 3 1 2 1 0 1 0 0 1 1 0 0 0 1 1 1 1 0 0 3 1 2 2 1 2 1 1 1 1 2 2 0 2 3 0 0 3 0 0 0 1 1 1 2 0 4 2 0 3 0 3 1 2 0 3 4 1 2 2 1 2 2 0 1 4 0 0 1 0 3 2 0 0 0 1 0 1 0 0 1 2 2 1 1 2 1 2 1 1 1 3 1 3 2 1 3 2 1 1 2 2 1 1 1 3 1 2 1 1 1 1 0 2 3 1 1 2 1 3 0 1 2 1 0 0 1 2 0 0 0 2 1 0 3 1 4 0 3 0 0 1 1 0 2 3 1 1 0 1 2 2 0 0 1 1 0 2 2 1 1 1 0 2 1 1 1 0 1 3 1 2 2 0 4 0 2 1 1 2 1 4 0 0 1 3 1 2 1 2 1 2 0 1 2 0 1 1 2 1 2 1 1 1 1 4 2 3 2 3 0 0 4 1 3 1 0 0 1 3 0 2 2 1 0 1 1 3 2 2 1 1 3 1 2 0 2 2 0 0 1 1 1 2 1 1 1 1 0 1 2 2 2 1 0 1 1 0 2 2 3 2 0 1 1 1 0 2 1 1 2 3 0 0 1 1 0 1 4 1 1 0 1 2 2 1 1 1 2 1 0 1 1 2 2 1 2 0 1 0 4 0 2 1 2 1 4 1 2 3 2 0 1 3 2 0 2 2 2 0 0 1 0 2 2 0 1 3 1 0 1 2 2 1 2 1 1 1 2 1 0 1 0 1 1 1 1 0 0 2 2 1 0 2 0 2 2 2 1 1 2 1 1 1 2 1 1 0 1 0 0 1 1 2 0 1 2 1 2 0 2 1 0 1 0 1 3 0 0 2 1 0 1 1 1 2 3 1 0 1 1 1 3 0 0 2 1 1 1 1 2 0 1 2 2 2 2 1 1 0 2 2 1 1 2 1 1 1 0 1 0 2 3 2 1 1 1 0 1 1 2 1 5 4 1 2 2 1 2 1 3 0 2 2 0 1 0 1 2 0 3 2 2 2 0 1 1 2 2 0 2 0 2 2 1 1 0 2 0 0 1 1 2 1 0 2 2 0 0 2 1 3 1 0 1 1 1 0 2 1 1 1 0 2 1 2 2 1 1 1 2 0 1 0 1 0 3 0 1 2 0 1 1 2 2 0 1 2 1 0 4 1 1 0 1 1 2 0 2 1 1 1 0 0 1 2 1 1 1 0 0 2 2 2 0 0 1 1 1 0 2 0 0 1 0 0 0 1 1 3 2 2 2 0 3 2 1 1 1 0 1 1 1 2 0 1 1 1 2 2 0 2 3 0 3 0 3 1 2 1 1 1 1 3 3 2 0 1 0 1 1 2 3 0 1 0 2 0 2 1 0 1 1 2 3 1 1 2 1 0 1 0 1 1 1 0 2 1 2 2 2 1 1 1 2 0 0 2 2 1 0 1 0 2 0 0 0 1 2 2 1 1 4 1 0 1 0 2 1 1 1 0 1 1 0 0 0 0 1 2 0 2 1 3 2 2 1 1 1 3 1 2 1 2 0 0 1 1 1 1 1 1 2 1 3 2 0 3 1 3 3 0 3 3 0 3 2 4 2 1 3 2 0 0 1 1 2 0 0 3 1 0 1 1 0 2 1 1 1 2 0 0 1 2 3 3 1 2 3 1 1 0 1 2 1 1 0 1 0 1 2 2 1 1 0 0 0 2 3 0 0 2 2 1 1 0 1 1 1 3 0 0 1 0 3 1 2 2 1 2 3 1 0 0 1 1 1 1 2 1 1 1 0 0 3 3 0 1 0 0 1 1 1 0 1 1 0 1 0 4 1 1 1 0 1 1 3 0 2 1 1 1 1 1 1 2 2 3 1 0 1 1 1 1 2 2 2 0 2 0 0 0 2 1 2 0 1 0 1 1 2 3 1 0 1 1 1 2 1 0 0 1 1 1 2 2 2 1 0 1 0 2 1 0 0 0 1 1 2 2 0 1 2 1 3 1 2 1 1 0 1 2 1 0 1 1 3 3 2 0 1 2 2 1 0 1 2 2 1 2 1 0 1 1 2 1 1 2 1 1 1 1 1 0 1 2 1 1 1 2 1 1 1 1 0 0 2 3 1 1 1 1 2 1 1 1 0 0 2 1 2 2 2 0 0 2 1 1 0 0 1 0 2 0 1 1 1 2 0 0 3 1 1 0 0 2 1 3 3 1 2 2 2 0 0 1 0 0 0 1 1 1 2 1 1 1 2 0 1 2 1 2 2 1 2 1 0 2 2 0 0 1 2 1 1 1 0 0 1 0 0 3 1 0 1 2 1 0 0 1 2 1 3 2 0 2 0 2 2 1 2 1 3 1 0 2 2 1 1 1 1 0 1 1 2 1 0 0 1 2 1 2 0 1 1 0 2 1 0 1 2 2 2 3 0 2 2 1 2 2 1 2 1 2 1 5 2 1 2 0 1 1 2 0 1 1 1 0 1 2 2 2 1 2 2 0 0 2 1 0 0 3 1 2 1 0 1 4 1 1 2 1 3 1 1 3 1 3 0 2 2 0 1 0 0 4 1 1 1 1 4 1 2 2 1 0 0 2 4 0 0 1 0 0 1 2 0 2 1 2 1 1 4 1 1 0 1 2 2 0 0 1 1 1 0 1 0 1 1 1 2 0 0 2 1 0 0 0 5 1 1 0 1 0 1 2 0 1 1 2 2 2 1 1 2 3 1 1 2 1 1 1 1 1 2 1 1 0 1 3 0 0 0 3 1 1 1 1 1 2 1 1 1 0 1 3 2 0 1 0 2 3 1 1 1 1 3 1 1 1 3 2 1 1 0 1 3 1 1 1 2 1 2 2 1 1 1 1 1 0 1 0 1 2 1 0 1 3 0 0 1 1 1 1 1 2 0 2 3 0 1 1 4 1 1 0 2 2 1 0 2 1 3 1 2 2 1 0 0 0 0 1 1 2 1 2 0 2 0 0 0 0 2 1 1 2 1 0 1 0 2 3 0 2 1 1 0 1 0 2 2 0 1 1 1 2 1 0 2 1 2 0 0 2 3 1 1 1 1 2 2 2 2 1 1 0 2 2 1 1 1 1 2 1 1 1 1 1 1 0 2 1 2 1 0 2 0 0 2 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 2 2 2 0 1 1 1 2 2 1 3 2 1 0 1 0 0 1 1 0 0 1 1 3 2 2 0 0 1 0 1 1 0 1 0 2 1 1 1 1 1 0 1 2 1 2 3 1 0 1 0 1 2 0 1 0 2 0 2 0 0 0 1 2 1 1 1 2 1 1 1 2 2 0 1 1 1 1 3 2 2 3 3 2 2 2 3 1 1 1 1 3 0 0 0 1 1 1 0 1 2 0 1 0 0 2 2 1 2 1 1 1 0 1 1 1 1 2 1 1 0 2 1 3 0 1 0 0 1 0 2 3 1 1 0 0 1 0 3 2 1 1 1 1 1 2 1 2 0 1 0 2 2 2 2 1 0 2 1 2 1 1 1 2 2 0 0 3 1 2 2 0 4 0 3 1 1 1 2 1 1 2 1 1 1 2 1 2 3 1 2 1 2 1 1 0 1 1 0 1 0 3 1 1 1 1 2 1 2 0 1 0 1 0 2 0 3 2 0 2 1 2 1 0 1 0 0 0 2 1 3 2 0 0 1 0 2 0 0 1 2 3 1 1 1 0 1 0 0 1 1 2 2 1 2 0 1 1 0 0 0 1 1 1 1 1 2 1 4 2 1 3 1 1 1 1 2 0 2 1 1 1 3 3 2 2 3 1 3 1 1 3 0 0 1 1 0 1 0 3 2 0 0 2 0 2 1 1 0 1 1 4 0 0 1 1 0 1 0 0 0 0 1 1 2 1 1 2 1 0 1 2 1 2 3 0 2 0 1 1 2 1 1 2 2 1 4 0 4 1 1 1 2 1 2 0 1 3 3 1 2 0 1 1 2 3 1 2 1 0 0 3 1 1 1 1 0 2 0 5 1 0 0 2 0 0 0 1 1 1 1 0 1 2 1 2 1 0 0 1 1 0 1 2 1 1 3 2 2 2 1 1 2 2 2 0 1 3 1 0 1 2 1 2 1 1 0 1 0 0 1 0 1 1 1 1 0 1 2 1 1 2 0 2 1 3 1 3 3 4 1 0 1 2 2 2 2 0 3 0 1 1 3 3 1 0 0 3 2 2 1 2 2 3 1 1 0 1 1 0 2 0 1 1 1 0 0 2 2 2 1 0 1 1 1 3 0 2 1 0 2 1 1 1 1 1 1 2 2 1 3 1 1 1 0 1 2 2 2 1 0 2 1 1 0 0 2 1 2 2 2 1 1 0 3 3 1 4 2 0 1 2 0 1 1 0 2 2 1 1 2 1 0 1 2 0 1 2 1 3 2 1 0 3 1 0 1 1 3 1 0 2 1 1 1 0 1 0 0 0 1 0 2 1 0 2 0 0 2 1 0 0 3 2 0 0 1 2 3 1 1 0 0 2 2 1 2 0 1 0 2 0 2 0 1 0 2 2 0 0 2 0 1 1 0 0 1 1 2 0 0 2 0 1 1 1 1 3 1 2 1 1 0 0 1 3 2 0 2 0 1 3 0 0 2 2 0 1 2 0 3 0 0 0 0 1 0 1 0 1 1 1 2 2 0 1 2 2 2 0 0 2 1 1 1 2 0 1 0 1 1 0 1 2 0 1 1 1 0 1 1 0 0 1 1 0 1 1 0 2 2 0 1 0 1 3 1 1 1 0 1 1 1 0 1 2 2 1 2 0 1 1 1 1 0 1 1 0 2 3 1 0 3 0 0 1 2 2 3 1 1 1 2 0 2 0 1 4 1 0 0 0 3 1 1 3 3 4 2 0 0 1 1 0 1 2 3 1 1 0 1 2 3 1 2 1 2 0 2 2 0 0 0 2 1 0 0 2 2 0 2 1 2 3 2 1 1 0 3 0 4 2 0 1 1 0 0 1 2 0 1 1 1 1 2 0 3 2 1 1 2 3 0 3 1 1 2 0 0 0 2 2 1 1 2 2 1 1 1 1 2 1 0 2 0 2 1 1 1 1 0 1 2 1 3 0 0 1 2 1 0 1 0 3 1 1 0 1 1 1 2 3 1 0 2 3 3 1 1 3 3 1 2 0 0 1 1 1 0 1 0 2 1 1 1 2 1 2 1 1 0 0 4 3 1 1 2 0 1 3 0 0 0 1 1 3 1 2 0 3 3 1 0 0 1 2 1 1 2 0 3 1 1 0 1 1 2 0 1 0 3 1 1 1 0 2 1 0 1 0 3 2 1 0 1 1 1 2 1 1 1 1 3 2 0 1 2 3 1 0 2 1 1 0 2 1 1 1 1 2 1 1 2 3 0 1 1 0 2 0 1 2 2 0 0 0 0 1 0 1 2 0 1 1 2 1 0 1 2 0 1 1 1 1 1 0 0 1 2 2 3 1 0 2 3 0 0 1 0 1 1 2 2 0 1 3 0 1 0 0 1 4 2 1 0 2 1 3 0 1 2 1 0 2 1 0 1 1 0 2 1 1 1 0 2 2 1 0 0 3 1 1 0 1 1 1 2 1 0 1 0 2 1 1 2 0 1 1 2 1 2 0 1 2 0 0 2 1 1 2 1 1 0 3 1 2 2 0 1 1 2 0 1 2 3 2 0 3 2 0 0 2 2 1 1 2 0 0 2 4 1 1 0 1 1 3 2 3 2 4 1 0 1 1 1 0 1 3 0 0 1 3 3 2 3 2 2 2 0 1 1 0 2 1 1 0 0 1 0 1 0 3 3 1 2 1 0 1 2 3 0 0 0 0 1 0 1 2 2 2 2 0 1 1 1 1 2 2 1 0 0 1 1 4 4 1 1 0 1 0 1 2 0 1 1 0 1 0 1 1 1 2 1 0 1 1 1 2 3 2 0 0 2 2 1 1 0 0 3 1 2 2 3 1 2 0 0 2 1 0 0 1 2 5 1 2 0 2 1 0 2 1 2 0 0 1 0 1 1 1 1 0 1 1 0 2 0 0 1 1 1 0 1 1 1 0 2 3 2 0 0 2 1 0 1 0 2 2 1 0 1 3 1 2 2 2 2 1 0 1 2 0 1 2 0 0 2 1 0 1 1 1 0 1 0 1 2 3 2 2 1 0 1 3 1 2 0 0 0 0 2 0 3 0 2 1 0 1 0 0 0 1 2 0 2 1 1 2 2 2 1 1 1 2 2 0 1 1 1 1 1 0 1 2 0 2 1 1 1 1 1 0 2 1 2 1 1 0 2 1 1 1 1 2 0 1 2 0 1 2 1 1 0 3 1 0 1 1 1 0 1 0 0 1 0 0 0 2 2 1 2 2 0 1 0 0 0 1 1 0 2 1 1 1 0 1 2 2 1 1 1 1 2 1 1 1 2 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 2 1 2 1 0 1 3 1 2 1 1 3 4 1 1 2 1 3 2 1 1 1 2 1 0 1 1 2 1 1 2 1 2 1 0 0 1 2 1 0 0 1 2 1 0 2 2 1 0 0 2 1 1 3 1 1 2 1 1 1 1 1 0 1 1 1 0 0 1 2 1 1 2 1 1 3 2 2 1 2 0 1 0 1 3 0 4 2 1 1 1 1 1 3 4 0 1 2 2 1 3 0 0 0 1 2 0 2 1 0 3 2 1 1 1 0 1 0 2 2 2 2 0 3 1 1 1 1 1 0 0 0 0 0 0 3 2 2 1 0 0 1 2 1 0 0 0 2 2 0 1 3 1 0 1 2 0 2 2 4 3 1 1 2 0 1 2 0 2 1 1 0 2 0 2 2 2 2 0 0 3 1 0 3 0 1 2 1 2 2 2 1 2 0 1 1 1 1 2 4 0 3 1 2 2 2 1 3 0 2 0 1 4 0 1 1 2 1 1 1 1 2 2 2 2 0 1 1 0 2 1 1 1 0 1 1 0 2 1 1 1 1 0 2 1 1 1 1 0 2 1 2 0 2 1 1 3 1 1 1 0 2 2 2 0 4 0 3 0 2 1 2 3 1 3 2 2 1 1 1 1 1 1 1 3 1 0 4 1 4 1 1 1 2 1 2 2 3 2 2 0 0 0 1 0 0 1 0 0 2 0 1 1 3 0 1 0 4 0 2 1 1 0 0 1 0 1 3 3 1 0 1 1 1 2 1 0 0 1 1 0 1 2 1 3 0 0 1 2 3 0 1 1 1 0 1 1 1 1 1 2 1 0 0 0 2 0 2 3 1 1 1 1 0 1 0 0 1 0 1 1 1 3 0 3 0 3 1 1 0 1 0 0 1 1 1 2 1 3 2 1 2 0 3 2 1 2 0 1 1 0 2 2 1 2 2 2 1 2 0 0 0 0 0 2 2 0 0 3 0 1 0 0 0 1 0 0 2 1 1 0 1 2 2 4 1 1 0 3 0 1 2 0 0 0 0 1 1 2 1 2 1 2 4 3 1 2 1 1 1 3 1 0 0 2 1 1 1 1 1 0 2 0 0 1 0 1 0 1 0 2 1 1 2 1 3 1 1 2 0 3 0 2 2 3 2 1 2 3 1 4 2 1 1 0 1 2 2 1 2 1 0 0 0 0 1 1 0 1 1 2 1 3 2 1 2 1 1 1 2 0 1 1 1 2 1 0 2 1 1 0 0 0 1 1 3 2 0 2 1 0 1 2 2 0 2 2 1 2 2 1 0 0 1 2 1 0 1 2 1 1 2 2 1 1 0 0 1 0 1 3 3 0 1 0 1 3 1 2 1 1 1 1 0 1 2 1 1 2 2 1 0 0 1 1 1 0 1 1 2 0 3 1 1 1 0 0 0 1 1 0 1 1 2 2 0 1 1 2 0 1 3 2 1 2 0 2 0 0 2 2 1 1 1 1 0 2 1 0 3 3 1 1 1 2 1 1 2 0 1 3 4 1 0 1 1 2 0 1 1 0 1 1 2 1 0 1 1 1 2 1 1 1 1 1 0 2 0 1 2 3 1 0 1 0 2 1 0 1 1 0 1 2 3 1 2 0 1 2 2 0 1 1 1 1 1 1 1 0 2 2 1 0 3 2 1 1 0 0 2 1 0 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 0 3 0 3 1 2 2 1 0 2 0 1 0 0 0 1 0 2 2 1 2 0 1 1 1 2 1 2 0 1 1 1 0 3 1 0 3 0 2 1 1 1 1 1 2 1 2 2 0 2 2 0 3 0 1 1 2 1 0 1 2 1 1 2 2 1 1 0 1 3 3 0 1 1 1 1 1 2 2 1 2 2 0 3 1 0 1 1 1 3 2 1 1 1 2 2 0 1 1 1 0 1 2 1 0 3 2 1 1 2 1 2 0 1 0 2 1 0 1 2 1 0 2 1 2 0 1 0 2 3 2 0 1 2 1 1 0 1 0 2 0 1 2 0 0 1 1 0 0 0 1 0 1 0 2 1 0 0 0 1 0 2 2 1 3 2 1 0 2 1 1 0 0 0 1 3 2 0 2 3 0 1 1 1 1 0 0 2 2 1 2 3 0 1 2 1 2 4 1 0</t>
-  </si>
-  <si>
-    <t>GAM(0.09796539703540608, -7.936829854028137e-28, 0.6894572087075335)</t>
-  </si>
-  <si>
-    <t>0 1 0 1 0 3 1 0 1 1 0 0 1 2 2 0 1 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 2 1 0 0 0 0 1 0 2 0 2 1 0 0 1 1 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 2 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 4 0 1 0 0 0 0 0 2 1 1 2 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 2 2 2 0 2 1 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 2 0 1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 2 1 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 2 1 1 0 0 0 1 2 0 1 1 2 1 0 1 0 2 0 0 0 0 0 1 1 2 0 0 2 0 0 1 2 1 1 1 0 0 1 1 2 1 0 0 1 0 1 0 0 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 3 0 0 0 1 1 0 0 1 1 1 0 2 1 0 1 0 0 0 2 0 0 0 2 2 1 1 0 1 0 0 0 3 0 0 1 0 0 1 2 1 0 2 0 1 0 1 1 0 1 0 2 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 2 2 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 1 0 1 0 0 0 0 1 2 0 0 1 1 0 0 3 0 1 1 0 0 0 0 0 2 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 3 1 0 0 1 0 0 1 2 0 0 0 1 1 0 2 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 1 0 0 1 2 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 0 0 4 0 0 2 1 0 0 0 1 1 1 0 1 1 2 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 2 1 1 1 1 0 1 1 2 1 2 0 1 0 0 0 2 0 0 0 1 1 0 0 2 0 1 1 0 0 0 0 1 2 0 1 1 0 1 0 3 1 1 0 0 2 0 0 0 1 0 0 1 0 1 0 0 0 1 1 1 1 0 1 0 1 2 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 2 1 2 0 0 0 0 0 1 1 0 1 2 0 1 1 0 0 1 2 0 1 1 1 0 1 0 0 0 0 0 2 0 0 0 2 1 0 0 1 2 0 1 1 1 0 0 2 2 2 0 1 0 1 0 1 0 0 3 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 3 2 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 1 1 1 0 1 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 2 0 3 1 2 1 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 3 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 2 0 1 2 0 2 1 0 0 1 1 1 0 1 0 1 0 2 1 0 0 1 1 1 1 1 3 0 0 1 1 0 0 0 1 0 1 0 1 2 1 0 1 1 0 0 0 0 0 0 2 0 0 3 1 1 1 1 1 0 1 2 1 0 1 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 0 1 0 1 0 2 0 1 0 1 0 1 1 2 1 1 0 1 0 0 0 0 0 0 0 1 1 1 0 2 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 2 0 0 1 0 1 0 0 0 2 1 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 2 0 0 0 2 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 1 0 2 0 0 1 1 3 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 3 1 1 1 1 0 0 1 0 3 0 0 0 1 4 2 2 0 0 0 0 0 0 0 1 0 2 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 0 2 0 0 2 1 0 0 1 0 0 0 2 1 1 1 1 1 0 1 2 0 0 0 0 2 2 1 1 0 0 0 0 2 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 1 2 1 0 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 2 0 1 2 1 1 0 0 0 0 1 0 0 0 1 1 1 0 2 1 2 0 0 0 0 0 1 1 1 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 2 0 0 2 1 0 0 1 1 2 0 0 1 1 0 0 2 2 0 2 0 0 0 0 1 1 1 0 0 1 2 0 0 0 0 1 0 0 2 2 0 2 0 0 0 1 0 1 1 1 0 1 0 1 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 2 0 0 1 1 1 0 1 1 0 1 1 0 0 0 1 2 0 0 1 0 0 0 0 2 0 0 0 1 0 3 0 0 0 0 2 0 2 0 1 0 1 0 1 0 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 2 0 2 0 2 0 0 0 1 1 0 0 0 1 0 2 0 0 0 1 0 0 2 0 1 1 0 0 1 1 1 1 0 2 0 0 0 3 3 1 2 2 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 2 0 0 1 1 1 0 0 1 2 1 0 1 2 1 0 0 0 1 1 2 0 2 1 0 0 0 0 1 0 1 0 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 2 1 0 0 1 2 0 1 2 0 1 0 0 2 0 1 1 0 0 2 0 0 0 1 0 3 1 0 1 2 0 2 0 1 1 1 1 1 4 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 2 1 2 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 2 1 0 0 1 3 1 1 0 0 1 2 0 0 1 0 1 2 0 1 0 0 2 0 0 1 0 1 0 1 0 0 1 2 0 1 0 2 0 2 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 1 1 1 2 0 1 1 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 1 1 0 1 1 0 1 0 0 0 0 0 1 2 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 3 0 0 2 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 2 0 2 0 0 1 1 2 0 0 0 0 0 1 0 2 1 0 0 1 0 0 1 0 0 0 0 2 0 0 1 1 0 1 4 0 0 1 0 0 0 1 1 1 2 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 1 1 1 3 0 0 2 0 1 1 2 1 1 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 2 2 0 2 1 0 1 1 0 0 2 2 1 1 1 0 1 1 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 3 0 1 1 0 0 0 1 0 1 0 2 1 1 1 3 0 0 0 1 2 0 0 0 1 2 3 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 3 0 3 2 1 1 1 1 2 2 0 0 0 0 0 5 2 0 0 2 1 0 1 2 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 1 0 0 0 2 0 2 0 0 1 1 0 0 1 0 0 0 0 1 1 2 2 0 0 0 0 0 1 1 1 1 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 2 1 0 1 1 0 0 0 1 0 0 0 0 0 1 1 2 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 1 3 0 1 0 1 2 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 2 0 1 2 0 2 0 0 1 0 0 0 0 0 1 1 1 0 0 2 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 2 1 0 0 1 1 0 0 0 2 0 0 0 0 1 1 1 0 0 1 0 0 1 1 2 1 2 1 1 1 1 2 1 0 1 0 0 2 0 1 0 2 0 2 0 0 0 2 1 1 0 0 0 1 0 0 2 0 0 0 1 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 3 1 1 3 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 1 3 0 1 0 0 1 0 0 1 1 0 1 1 0 1 0 1 0 0 2 3 0 0 0 0 0 0 0 0 0 1 2 2 0 1 1 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 3 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 2 2 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 2 1 0 0 1 3 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 2 0 1 0 1 2 1 0 0 0 2 0 1 0 2 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 2 2 0 0 1 0 0 3 1 0 1 0 0 1 1 2 0 1 0 0 1 1 0 0 1 0 0 0 2 2 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 2 0 1 0 1 0 0 0 1 2 1 1 0 0 0 0 0 1 1 5 0 0 0 0 2 0 1 0 0 1 1 2 0 1 1 2 1 0 1 1 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 1 1 0 0 0 1 2 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 2 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 1 0 2 1 0 0 2 0 3 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 1 0 0 1 1 1 0 0 1 0 0 1 1 1 0 2 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 1 0 1 1 1 0 0 1 1 0 1 2 1 0 0 0 0 0 0 1 0 3 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 1 2 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 1 1 0 0 1 0 0 3 0 1 1 1 1 0 0 0 0 0 3 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 2 0 0 1 1 2 1 0 1 0 1 1 0 0 0 0 0 3 0 0 1 2 0 0 3 1 0 0 1 1 0 0 0 0 0 0 0 2 0 1 0 1 2 1 0 1 0 0 0 0 4 0 0 1 1 0 2 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 2 2 1 1 0 1 0 0 4 0 0 3 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 1 1 2 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 2 0 1 0 1 1 1 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 0 2 1 0 0 0 0 3 0 1 1 0 0 0 0 0 1 0 2 0 0 0 1 1 0 1 2 0 1 0 2 0 0 1 1 0 1 1 2 3 0 1 0 1 0 0 1 1 3 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 2 0 1 0 1 2 0 0 1 0 0 1 1 0 2 2 1 1 0 0 0 0 0 1 0 1 2 1 0 0 0 1 0 0 0 0 1 2 2 3 1 1 1 1 1 0 0 0 0 0 3 0 0 2 1 0 0 0 0 1 0 0 1 2 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 2 0 1 1 1 2 0 0 0 0 0 1 0 0 0 0 0 2 1 2 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 2 0 0 0 1 2 0 0 0 0 4 0 2 0 1 0 1 1 0 1 0 0 1 0 1 1 2 1 1 3 2 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 2 1 1 1 0 0 2 0 0 2 0 1 1 0 0 1 1 1 1 1 0 0 0 2 0 2 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 1 1 0 1 1 2 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 1 4 0 1 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 0 2 0 0 0 1 1 1 0 0 2 1 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 2 1 1 0 1 1 2 1 0 0 1 2 0 1 0 0 2 1 0 2 1 1 1 0 0 0 0 0 0 2 1 0 1 0 0 1 0 2 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 0 0 1 2 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 1 0 1 2 1 0 0 0 3 0 0 1 1 1 0 0 1 2 1 1 1 0 2 1 1 0 0 0 0 1 0 1 1 1 2 1 0 1 1 0 0 0 0 0 1 1 0 0 0 2 2 0 0 0 0 0 2 0 0 2 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 0 1 1 1 1 2 2 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 2 0 2 3 0 1 0 1 1 0 0 0 0 0 3 0 2 0 0 0 0 0 0 1 0 4 0 1 1 1 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 2 2 1 0 1 0 0 2 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 2 0 0 1 0 0 1 1 1 0 0 0 2 0 0 1 0 1 0 1 3 0 0 1 0 0 2 0 0 0 1 1 0 0 0 0 1 0 0 0 2 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 4 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 2 1 1 0 0 2 0 1 0 1 0 0 1 0 0 0 0 2 1 0 1 0 0 0 2 1 0 0 1 2 0 0 0 1 0 0 2 0 2 1 0 1 2 1 1 1 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 2 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 2 1 0 0 0 0 0 0 1 1 1 2 1 0 0 0 1 0 1 0 2 0 1 2 2 1 1 1 0 2 0 0 1 3 3 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 1 0 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 2 1 1 0 0 0 1 0 0 1 0 0 0 2 0 1 1 1 0 0 0 0 1 0 0 0 1 1 3 0 1 0 2 1 0 0 1 1 0 0 0 2 2 2 1 1 1 1 1 0 0 0 1 1 1 0 1 1 1 0 1 0 0 1 0 0 1 0 1 1 0 0 0 2 0 2 0 0 1 1 1 2 0 0 1 0 1 1 1 1 0 0 2 3 2 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 1 0 2 0 0 0 0 0 1 0 0 0 1 2 1 1 1 0 1 0 0 1 0 0 0 3 1 1 1 1 0 3 0 1 1 0 1 4 0 2 0 0 0 1 2 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 0 2 1 0 0 0 0 0 2 0 1 3 0 1 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 1 0 0 2 0 1 4 0 0 0 2 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 3 2 3 1 3 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 2 0 1 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 1 1 1 2 1 0 0 0 1 2 0 3 1 0 1 0 1 1 1 1 3 0 0 0 2 2 2 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 2 1 1 1 0 0 0 3 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 3 2 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1 2 1 0 1 2 1 0 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 2 1 0 1 0 0 0 2 0 0 1 0 0 1 2 1 1 0 0 0 0 3 0 0 1 0 0 1 2 1 1 1 0 0 1 1 0 0 0 1 2 1 2 0 0 1 2 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 2 2 2 2 0 0 1 0 0 0 0 1 0 0 0 2 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 2 0 0 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 2 1 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 2 2 1 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 2 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 1 3 0 1 0 0 2 1 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 1 0 1 0 1 2 0 2 0 2 1 1 1 0 1 0 1 0 1 1 0 0 0 2 0 1 2 0 0 0 0 2 2 1 0 3 2 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 3 0 0 0 1 1 1 0 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 1 0 1 0 1 2 0 0 0 1 1 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 0 1 1 2 0 1 1 0 1 0 1 1 0 1 0 3 0 0 0 0 1 0 0 0 0 2 2 1 0 3 0 0 1 2 1 0 0 2 0 0 2 0 0 2 0 0 0 1 0 1 0 0 0 1 1 1 1 1 0 0 0 2 1 0 0 2 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 2 0 0 3 0 1 1 0 0 0 1 2 0 2 0 0 2 0 1 1 1 0 0 0 0 0 0 3 1 1 0 1 1 0 0 0 1 2 2 0 0 0 1 0 0 1 0 2 0 0 1 1 0 0 1 1 2 0 0 2 0 0 1 1 0 1 0 1 2 1 0 1 1 0 1 1 0 0 0 0 0 1 1 1 1 2 0 0 3 1 0 0 0 1 1 0 0 0 0 0 2 2 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 1 0 2 0 1 0 2 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 2 2 1 0 0 0 1 3 2 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 3 0 0 0 1 1 0 1 0 1 1 0 1 0 0 2 0 2 0 2 2 0 0 1 0 0 1 0 0 0 0 2 1 0 0 1 0 0 1 0 3 1 2 1 0 0 0 0 0 1 2 1 2 2 1 0 1 0 0 0 2 1 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 1 2 1 0 1 3 0 1 2 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 2 1 0 1 0 0 0 2 1 0 1 0 0 1 2 1 0 0 1 0 2 0 1 2 3 2 1 1 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 2 0 1 0 1 2 0 0 3 2 1 0 1 2 0 0 1 1 0 1 2 1 0 1 0 0 0 0 1 1 1 0 2 0 2 0 1 0 2 2 1 0 1 1 1 0 0 1 0 1 1 2 0 1 0 0 0 1 1 0 0 0 2 1 3 4 0 1 1 0 0 0 2 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 1 0 2 1 0 0 1 1 2 0 0 0 0 2 3 0 0 0 0 0 1 0 0 0 0 1 0 0 2 2 0 2 0 1 0 0 0 1 0 1 0 1 3 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 1 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 1 0 2 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 1 1 0 0 1 1 0 0 0 2 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 1 2 2 0 1 0 2 1 0 1 0 1 1 0 2 0 0 0 3 1 0 2 0 0 1 0 1 0 0 0 0 1 1 0 1 2 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 2 1 1 0 0 0 1 0 0 1 1 0 1 1 2 0 1 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 2 0 0 2 0 2 0 0 2 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 2 0 0 1 1 1 0 1 0 1 1 0 2 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 0 0 1 2 0 1 3 0 1 0 0 2 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 3 2 0 0 1 0 1 0 0 0 0 0 2 1 0 1 0 0 0 0 2 0 1 2 0 0 0 2 0 0 0 0 2 1 0 0 3 0 1 0 0 2 3 0 1 0 2 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 2 1 0 0 0 1 0 2 2 0 1 3 0 1 0 2 2 0 0 1 0 0 1 1 1 2 0 0 1 2 0 1 0 0 1 0 1 3 0 2 1 1 0 1 2 1 0 0 0 2 1 1 1 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 1 3 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 1 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 2 0 0 1 1 0 0 0 0 1 1 0 3 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 0 2 0 1 0 2 0 0 0 0 1 0 2 1 1 1 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 1 1 0 1 0 3 1 1 0 2 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 2 0 1 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 1 1 2 2 0 0 0 0 0 0 0 1 0 0 1 1 0 0 2 0 1 1 0 0 0 0 2 0 0 0 0 0 1 0 1 1 0 1 0 1 2 1 1 0 1 1 1 0 1 0 0 0 2 0 0 0 1 0 0 0 1 1 2 0 0 0 1 0 1 0 2 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 2 1 0 0 0 0 0 1 1 0 1 1 0 1 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 2 0 0 0 0 1 1 2 1 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 2 1 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 2 0 0 0 0 0 0 2 1 1 0 0 1 1 0 2 0 1 0 0 1 1 1 0 0 1 1 0 2 1 0 0 0 1 2 1 0 0 0 1 0 0 2 0 0 0 0 0 0 2 1 2 0 2 0 0 0 0 1 0 1 1 2 1 0 1 2 0 1 1 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 3 1 0 1 1 1 1 0 1 1 0 0 1 1 0 1 2 1 2 0 0 2 0 0 0 0 0 0 0 2 1 1 0 2 2 1 1 0 0 2 0 0 2 2 2 2 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 0 1 0 0 0 2 1 1 0 0 0 0 0 2 0 2 0 0 0 0 1 0 0 0 2 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 1 1 1 1 1 0 0 0 0 1 1 0 2 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 3 1 1 0 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 1 0 2 1 0 0 1 0 2 0 1 1 0 2 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 1 1 1 1 0 0 3 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 2 0 2 1 1 0 1 0 1 1 3 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 1 0 0 0 0 2 0 0 1 0 1 1 0 2 0 1 0 2 1 0 2 1 2 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 2 1 0 0 1 0 0 0 0 0 0 1 0 3 0 1 1 0 1 1 1 0 1 0 1 0 2 1 0 0 1 0 0 0 2 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 0 1 2 1 0 0 0 0 0 0 1 0 0 1 2 0 0 1 1 2 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 3 0 0 0 1 2 0 0 1 0 1 0 1 1 2 3 2 0 1 0 2 1 0 1 1 1 1 1 0 1 0 0 2 0 0 1 0 0 0 1 2 1 0 1 0 0 3 1 0 0 0 0 0 1 1 0 0 1 1 2 0 0 2 0 0 0 0 0 0 1 0 0 1 0 1 3 0 0 0 3 0 1 0 0 1 0 0 1 1 0 1 2 2 0 1 0 1 1 0 2 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 2 0 0 0 2 0 0 2 1 0 0 1 0 2 3 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 2 0 0 2 0 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 0 2 0 2 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 1 1 2 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 1 0 1 0 1 1 0 0 1 0 1 1 2 0 0 0 0 1 0 0 3 0 1 1 1 2 1 0 1 1 0 0 1 0 1 0 1 0 1 3 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 2 0 1 0 0 0 0 2 1 0 0 0 0 0 2 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 2 2 2 1 1 0 1 0 2 1 0 0 1 0 2 1 1 0 1 3 0 1 1 0 1 0 0 1 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 2 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 1 3 2 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 2 1 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 1 0 2 0 2 0 1 3 0 3 0 1 0 1 1 1 0 0 1 0 1 1 0 0 1 0 0 1 2 1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 1 1 2 0 2 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 2 0 1 0 0 0 0 1 1 1 1 2 0 2 0 1 0 0 1 2 0 1 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 2 0 2 1 0 1 1 0 0 0 0 2 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 1 0 0 0 1 3 0 0 0 1 0 1 1 1 1 1 1 0 2 1 1 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 2 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 2 0 0 1 1 1 1 1 1 0 2 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 0 0 1 2 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 0 0 3 1 0 0 0 1 0 0 2 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 2 0 2 2 0 0 0 0 0 0 0 0 0 4 0 0 1 1 1 2 0 0 1 1 1 3 0 1 0 0 3 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 3 0 1 0 1 1 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 2 3 1 1 0 2 1 1 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 1 2 1 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 3 2 2 0 0 0 1 0 1 3 0 1 1 1 0 4 0 0 1 2 0 1 0 0 1 0 0 1 0 0 2 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 2 1 1 0 0 0 1 2 0 1 1 4 0 0 0 2 0 1 0 1 1 0 0 2 1 0 0 2 0 0 3 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 2 0 0 0 1 2 1 0 0 3 0 2 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 2 1 0 0 0 0 1 0 1 0 0 0 3 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 2 1 1 1 0 1 0 1 0 2 0 0 0 0 0 0 2 0 1 2 1 1 0 2 1 1 0 1 1 1 2 0 0 1 2 0 0 1 1 0 2 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 1 0 3 0 1 1 1 1 0 0 1 0 2 0 1 0 0 1 1 2 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 2 1 2 0 2 0 1 1 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 2 0 1 2 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 2 1 1 0 2 1 1 0 1 0 2 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 0 1 0 0 0 2 0 2 0 0 2 3 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 1 1 0 0 1 2 0 0 2 0 0 0 0 0 1 0 2 2 0 1 0 0 0 1 1 0 2 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1 0 0 2 3 0 0 0 0 0 0 0 1 1 1 0 0 0 0 2 2 1 1 1 1 0 1 0 1 1 0 0 1 0 0 1 0 0 0 2 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 2 0 1 0 0 1 0 0 1 0 2 2 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 2 0 1 2 0 0 1 0 1 0 1 0 0 2 0 1 1 0 0 1 1 1 0 0 1 0 0 1 2 1 0 0 1 0 2 0 1 0 2 0 0 0 2 2 0 1 0 0 1 1 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 1 0 1 0 2 2 0 1 0 0 0 2 0 0 1 1 0 0 0 0 0 0 2 0 0 2 2 1 1 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 2 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 2 0 0 0 0 0 1 1 0 1 1 0 2 0 1 1 1 1 0 0 0 1 2 0 0 2 1 1 0 0 0 1 0 1 0 0 0 3 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 4 1 0 0 0 1 0 1 0 0 2 1 2 0 0 1 1 0 0 0 0 2 0 1 0 1 4 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 1 1 1 2 0 0 0 0 1 0 0 0 0 1 0 0 0 4 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 2 0 0 1 0 0 1 1 1 0 0 3 0 0 1 0 3 1 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 2 1 0 0 0 0 0 0 1 0 0 1 2 0 2 1 0 1 1 1 0 1 0 0 2 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 3 0 2 0 0 2 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 2 0 0 0 0 0 2 0 0 1 0 0 1 0 0 2 0 1 2 1 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 2 0 2 0 0 0 1 0 0 1 0 1 0 1 1 2 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 2 1 0 0 0 1 0 1 0 0 1 2 0 1 1 1 0 0 0 0 0 0 2 0 1 1 0 0 1 1 0 1 0 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 3 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 2 1 0 0 2 1</t>
-  </si>
-  <si>
-    <t>FTL(0.11693457069888882, -216.46579146071258, 327.58915835536334)</t>
-  </si>
-  <si>
-    <t>96 177 68 112 83 157 82 126 111 101 83 74 215 210 80 111 173 79 210 53 124 82 141 67 107 101 122 109 63 49 82 71 100 179 101 149 135 22 97 176 111 68 151 88 127 179 137 146 117 84 120 151 137 85 149 96 132 69 199 128 88 149 118 110 107 141 105 106 110 142 76 54 165 136 97 164 125 150 106 126 51 219 27 192 72 187 54 62 133 153 88 62 100 127 42 139 144 158 93 140 78 137 117 142 143 118 170 119 100 151 129 141 126 76 121 138 139 97 99 77 103 64 66 88 72 126 115 178 137 115 104 147 70 135 72 147 166 93 114 94 173 148 179 77 85 127 139 71 110 125 60 90 84 92 111 156 114 132 153 64 115 121 114 175 87 121 62 58 162 156 78 96 124 110 187 84 108 79 123 145 217 73 111 76 160 138 98 80 159 126 83 116 148 65 42 174 24 91 103 70 74 90 171 129 181 119 174 125 48 151 192 112 125 50 103 165 56 178 90 103 93 118 143 142 99 142 106 129 94 154 116 69 113 14 161 107 125 40 155 157 72 78 195 128 109 48 77 141 92 107 142 33 125 103 95 164 131 103 159 162 96 111 188 112 58 50 100 80 153 157 68 112 98 127 111 100 68 73 138 136 97 126 222 72 103 94 47 57 85 114 112 35 112 74 185 81 108 181 81 77 97 87 109 65 162 112 85 165 116 80 124 63 90 124 163 106 124 176 114 155 150 34 91 178 74 113 98 180 118 87 92 100 100 75 133 103 126 103 126 149 42 91 96 112 110 97 166 116 175 168 159 128 116 67 151 133 54 46 75 157 48 123 142 97 64 103 84 95 41 114 34 153 108 71 67 100 163 96 117 118 131 94 107 80 137 69 62 203 200 102 110 56 107 86 88 106 158 104 72 28 131 101 158 154 156 97 114 45 120 110 179 120 147 127 87 112 43 153 119 75 76 89 138 188 142 85 88 129 171 66 80 86 120 104 137 113 178 117 103 120 178 95 167 83 40 117 97 94 71 90 143 131 112 107 119 129 92 98 146 130 112 109 144 84 156 213 144 101 48 150 137 138 56 113 77 85 187 135 127 122 82 131 140 100 234 74 84 106 84 118 105 111 149 99 103 78 84 55 144 127 126 143 126 158 106 168 46 149 85 100 126 101 112 198 116 173 118 132 76 47 113 126 135 103 80 94 84 123 88 116 91 134 128 145 35 115 110 85 103 58 91 115 56 120 94 107 186 115 60 136 69 62 139 84 115 71 113 116 42 137 144 28 162 103 140 170 100 102 92 135 78 115 68 89 125 93 80 121 110 76 119 126 107 87 105 121 127 227 118 96 147 114 104 73 117 198 173 100 81 104 149 139 116 58 74 153 130 197 39 154 80 100 165 144 25 116 110 142 101 88 129 58 117 153 75 149 130 88 64 75 143 104 120 124 80 166 152 85 202 142 119 121 97 103 50 109 158 100 137 104 125 89 105 112 146 148 117 69 102 193 111 110 85 100 77 93 142 90 17 154 111 174 118 137 84 83 138 115 157 47 178 157 135 101 93 157 132 23 122 124 174 66 61 56 45 97 105 159 90 146 125 156 247 163 75 70 97 123 39 216 166 182 123 115 79 143 140 57 90 75 147 109 103 78 53 111 90 148 114 84 149 97 147 122 155 201 109 166 102 47 95 133 76 177 122 87 122 190 105 160 184 114 157 80 131 143 143 104 26 69 144 105 45 56 138 107 140 113 106 161 174 99 105 90 162 73 97 153 97 115 118 89 166 85 100 75 75 36 141 115 103 128 142 114 84 147 92 134 99 109 84 94 200 121 67 109 71 99 106 171 80 176 76 114 221 91 65 217 177 89 201 142 102 126 127 141 105 125 114 74 162 128 114 57 106 71 199 133 131 132 53 165 89 109 146 136 122 75 55 87 212 108 109 164 134 76 194 155 61 69 69 108 104 88 164 65 155 187 139 110 145 148 86 104 108 146 127 139 134 165 89 121 152 36 90 97 100 107 160 126 90 183 145 88 129 96 88 77 131 139 154 137 61 132 113 45 184 109 107 127 147 88 185 131 89 196 111 97 117 92 88 95 111 147 114 103 179 90 165 118 43 73 72 216 187 115 149 100 151 63 142 188 125 148 93 172 117 88 154 71 90 112 58 264 137 136 122 164 145 109 70 93 100 177 144 183 58 139 147 117 92 74 84 107 116 31 182 136 103 59 133 142 111 94 150 81 149 88 125 113 147 165 154 72 126 77 84 165 114 132 101 146 50 87 74 110 166 131 121 178 91 98 202 84 73 123 124 98 81 104 118 85 188 75 100 72 70 91 172 119 84 95 162 134 123 6 139 70 81 165 183 77 126 91 180 68 35 57 129 108 117 105 156 227 105 144 140 180 76 124 109 122 113 58 141 162 75 84 84 101 70 136 107 57 125 109 97 144 172 75 95 102 87 100 171 109 153 134 132 106 156 113 97 115 173 99 138 131 134 141 75 170 111 86 60 119 146 98 103 89 91 118 84 103 180 96 122 125 136 87 138 128 103 73 120 176 49 163 58 67 100 77 141 165 149 100 110 165 186 130 48 125 114 156 131 88 99 97 175 80 93 102 152 96 111 208 127 136 165 100 166 121 53 104 106 77 165 93 114 99 43 124 90 125 94 91 101 85 133 75 18 91 111 148 107 93 65 90 209 71 93 115 73 60 106 141 127 90 158 149 112 166 126 93 130 104 83 96 162 227 106 106 123 135 118 188 123 38 134 76 136 97 94 58 147 108 173 104 94 101 131 53 169 84 171 123 26 154 170 86 209 115 127 78 155 102 107 90 127 143 148 77 57 -3 139 84 94 176 149 92 120 40 76 154 199 21 116 101 138 88 119 92 115 169 144 111 79 72 75 91 170 111 99 64 162 81 116 138 103 101 109 196 185 108 113 89 157 60 144 101 134 118 38 69 104 141 120 95 77 113 121 227 89 101 84 73 139 83 167 100 158 119 89 86 69 43 114 63 102 98 69 127 107 80 57 118 128 44 95 91 131 74 74 115 58 130 169 123 98 103 39 163 83 136 198 133 39 139 131 105 108 78 108 139 76 112 70 54 28 174 83 85 172 112 66 84 139 70 82 114 92 71 139 74 147 111 162 134 85 131 154 89 175 188 115 121 90 117 130 120 99 96 40 16 81 141 64 167 59 155 123 93 250 36 58 153 71 104 77 153 153 105 124 136 87 144 99 172 52 130 86 162 84 126 170 86 109 97 93 102 129 108 206 129 172 134 204 79 154 116 79 53 58 153 106 90 138 108 94 70 141 212 93 32 141 91 111 97 146 113 160 82 138 206 77 119 86 103 138 134 119 126 127 58 53 173 99 136 106 112 72 89 91 220 100 121 110 125 141 136 25 89 275 153 150 88 72 46 173 106 121 68 88 147 194 140 107 87 107 135 50 110 62 109 42 97 126 88 97 111 131 84 132 115 71 79 98 146 70 172 157 121 182 55 109 147 85 102 126 126 156 167 71 124 127 109 167 73 100 91 161 72 55 204 115 69 92 183 174 91 112 62 71 99 130 161 210 65 101 126 72 98 90 99 116 73 161 101 186 87 78 65 89 168 189 192 79 136 177 112 85 65 116 110 153 147 86 70 94 181 104 158 131 109 146 97 146 128 60 101 119 91 148 78 84 111 106 159 63 193 135 145 126 94 131 60 46 79 80 110 207 176 86 152 130 101 60 82 155 66 131 125 140 100 107 102 83 188 106 56 130 122 55 121 99 114 119 59 102 68 88 86 121 130 115 93 113 79 120 125 131 140 119 149 84 109 72 104 112 63 109 160 137 79 75 94 91 112 191 129 156 88 135 76 58 112 113 100 112 105 95 62 96 43 106 85 53 74 160 180 127 101 115 145 66 84 155 52 153 72 152 137 53 105 73 152 94 158 160 180 35 178 163 128 132 96 137 76 83 36 188 80 113 109 127 52 90 138 94 73 133 133 112 163 112 52 189 97 108 144 138 153 73 112 77 121 142 105 38 123 139 87 81 103 117 78 157 190 157 183 91 181 69 93 108 130 119 41 89 165 103 177 62 76 110 89 129 120 99 156 210 124 64 108 104 113 88 71 154 106 138 108 98 123 106 117 82 106 110 86 111 90 108 144 102 117 81 98 155 115 56 61 146 98 131 23 174 137 128 116 97 82 116 86 116 125 60 152 59 131 105 121 58 94 125 83 145 84 142 68 62 43 124 40 111 134 141 90 57 150 208 123 64 94 126 105 86 135 104 156 102 73 125 113 110 68 109 170 29 189 106 239 151 136 172 156 109 120 122 156 144 112 59 110 172 78 82 153 124 114 132 97 162 117 143 190 117 105 91 108 154 131 57 76 110 175 159 82 66 146 114 138 163 165 141 70 98 111 53 101 133 138 50 74 83 26 91 108 51 87 140 131 105 59 132 142 113 79 128 71 163 78 105 122 122 110 55 54 76 66 55 80 130 148 132 54 83 124 124 81 163 62 133 73 163 96 75 60 130 121 158 167 136 162 101 103 132 66 114 74 85 96 79 139 73 61 95 163 117 117 133 108 241 151 70 121 157 73 102 111 97 132 81 127 84 164 133 104 116 163 94 115 130 69 152 70 92 87 124 124 98 76 111 148 148 120 75 108 79 93 102 57 144 111 67 164 96 138 161 70 113 133 47 91 124 110 137 119 102 81 154 100 63 76 152 107 161 35 143 145 97 167 53 136 100 155 53 95 119 64 195 109 102 110 123 130 124 79 107 118 161 124 105 132 150 143 148 182 106 127 138 80 142 101 179 70 144 139 127 132 128 73 124 117 126 110 139 83 146 115 116 99 115 118 144 58 75 93 140 118 89 120 105 54 32 162 125 176 108 59 71 156 118 223 72 81 97 161 104 121 29 100 112 72 75 176 115 73 66 69 135 128 99 164 110 111 104 204 134 63 85 113 172 142 116 69 163 115 175 106 90 121 52 101 109 220 169 129 125 125 85 133 112 143 64 64 119 127 148 142 181 83 99 105 83 100 58 65 167 58 126 108 82 117 174 102 97 115 99 141 137 116 132 29 65 86 93 68 160 95 90 60 57 58 30 67 78 122 161 52 82 121 222 123 140 142 162 166 52 90 141 67 102 151 153 105 156 81 112 174 110 99 68 75 112 93 73 98 50 131 58 90 150 69 160 82 129 118 118 68 68 103 144 105 105 92 98 142 99 136 94 114 126 59 121 118 152 133 186 67 124 143 125 110 71 58 70 59 90 79 154 108 113 96 116 111 139 62 80 48 129 89 85 77 143 113 120 91 91 131 52 128 134 117 244 93 137 118 157 112 158 70 88 68 99 126 104 169 48 127 135 131 103 116 137 84 108 92 176 120 149 88 59 96 212 123 149 104 67 68 86 115 70 119 211 135 138 101 108 80 121 37 95 85 138 81 136 222 74 153 190 89 174 81 183 70 68 129 80 146 177 121 130 166 160 162 112 87 144 144 138 165 78 75 170 63 78 107 50 154 71 139 95 135 101 151 117 104 117 138 51 161 99 112 77 100 152 72 143 33 86 64 109 94 133 154 84 205 75 62 121 137 144 32 83 89 134 103 140 117 65 95 90 64 120 100 85 125 114 103 106 131 60 166 82 99 82 190 155 169 96 227 46 129 117 120 107 81 65 77 209 77 68 33 72 132 113 109 148 112 122 90 100 95 150 131 64 70 78 104 146 74 128 125 94 134 109 100 106 67 125 157 89 185 83 117 122 116 112 163 187 132 164 224 111 77 147 94 122 200 110 130 42 37 133 117 149 126 133 156 116 67 41 108 111 55 104 112 101 32 100 95 134 112 138 95 131 155 92 147 72 154 134 121 138 101 58 154 80 73 87 86 157 158 103 138 133 97 143 61 62 136 124 105 29 92 78 116 112 164 123 72 54 202 93 94 114 100 192 100 152 142 163 59 135 114 61 86 98 142 103 79 152 73 143 94 123 121 118 130 110 52 170 128 105 77 100 109 163 150 90 138 84 39 104 97 115 76 119 105 151 84 194 144 87 131 86 92 104 184 76 135 116 36 129 97 167 62 113 118 156 113 27 154 65 153 52 139 132 108 95 144 128 146 151 203 72 123 157 125 75 201 116 156 89 118 84 91 131 111 104 119 90 112 229 52 110 125 47 132 126 53 193 70 108 123 82 75 92 110 171 116 118 63 132 186 114 78 101 199 116 99 81 105 120 169 152 110 126 135 111 137 135 120 145 93 93 122 180 64 114 181 95 124 111 64 54 248 64 120 67 115 133 95 90 92 136 134 112 113 85 78 107 119 98 64 62 94 174 125 149 112 130 98 69 67 85 108 116 147 124 66 169 121 95 72 186 87 107 133 121 145 105 110 100 68 84 110 69 133 130 121 97 93 103 136 89 70 109 199 147 35 95 141 240 59 85 86 108 149 130 83 119 102 174 177 128 75 178 173 58 138 95 115 142 88 118 138 83 127 183 156 89 197 170 81 89 173 125 138 153 161 99 92 99 192 103 152 124 84 85 141 96 66 135 174 126 198 149 115 173 91 126 137 143 95 150 108 48 130 82 93 126 143 115 132 150 58 112 176 88 144 76 118 91 94 159 147 53 129 100 30 96 244 154 120 76 141 150 167 147 141 82 136 167 238 59 119 121 97 52 140 75 95 26 113 113 88 57 99 113 153 73 162 103 196 116 67 113 52 110 134 100 78 111 66 68 51 123 68 139 82 101 165 82 79 71 97 139 86 82 127 77 103 112 48 156 87 117 130 82 60 57 98 108 190 121 110 116 82 130 102 146 196 182 118 120 90 127 88 106 198 153 170 178 84 150 129 172 129 33 158 89 206 205 122 119 62 129 114 146 109 110 87 110 34 96 93 171 176 106 102 132 131 222 178 178 85 154 110 118 149 70 158 80 94 96 57 124 78 98 199 124 105 74 108 127 161 47 86 106 89 131 68 116 137 101 97 104 135 106 203 105 160 159 92 128 138 71 79 82 80 138 111 141 108 99 75 118 178 127 167 60 140 105 94 152 81 194 118 112 142 118 166 85 132 145 136 156 173 122 89 100 91 144 142 156 142 154 151 124 134 68 83 130 86 118 89 171 78 106 103 102 154 71 154 64 90 98 116 116 41 144 81 83 98 45 72 76 154 86 135 66 95 84 51 160 179 138 158 162 117 149 112 160 151 81 98 124 123 79 36 133 66 135 133 164 62 100 116 129 151 135 140 139 126 76 151 98 38 89 137 87 100 194 120 122 107 190 137 147 109 116 116 140 101 115 112 133 55 133 181 102 125 213 236 162 98 128 173 158 97 90 157 78 109 116 91 88 86 106 102 55 94 46 128 49 143 75 115 141 147 155 92 105 63 129 144 137 120 50 107 101 170 63 81 146 87 150 123 97 142 147 156 138 136 152 93 143 46 134 156 83 229 79 130 41 67 156 112 155 90 116 103 119 141 141 55 137 117 47 88 144 104 82 179 72 137 185 153 94 183 186 123 116 80 147 81 144 131 109 63 113 53 152 122 214 130 114 63 140 155 156 50 93 117 109 63 112 209 91 104 165 131 123 106 67 110 50 152 99 81 100 178 129 109 98 117 168 89 178 82 92 91 79 91 79 101 105 131 74 96 58 125 133 129 175 135 101 205 141 156 103 70 141 147 50 130 144 111 143 148 132 140 98 88 139 86 156 163 64 110 95 133 98 152 109 75 93 115 85 105 105 131 92 201 157 95 97 113 83 73 114 78 92 121 62 158 110 67 86 110 125 82 85 112 110 107 82 150 223 35 154 136 110 61 27 103 99 226 80 65 126 123 101 163 84 91 79 98 72 86 76 104 152 111 121 87 204 130 129 97 48 94 116 58 69 105 132 112 123 113 172 115 92 84 93 90 137 177 125 128 97 93 93 107 110 93 62 83 155 100 97 79 97 123 144 95 162 117 62 79 93 133 80 85 140 83 77 226 125 185 100 92 102 81 109 115 160 86 67 162 51 95 77 99 146 74 119 141 155 161 51 99 61 74 122 150 117 112 195 159 178 168 81 198 121 140 69 92 121 115 64 71 98 33 115 135 73 64 50 74 77 69 128 57 82 216 132 99 76 102 139 104 184 31 119 51 25 99 177 202 102 96 84 52 111 76 164 154 143 33 139 50 160 110 119 96 114 134 105 189 43 61 128 124 90 139 53 144 118 161 157 127 111 110 153 165 100 111 98 121 116 43 94 147 106 150 180 154 95 147 105 150 48 182 97 105 134 101 53 105 96 52 89 155 107 153 61 88 113 132 111 103 103 84 73 75 72 159 79 85 111 66 94 106 159 118 163 72 107 122 125 78 65 155 104 122 117 181 156 156 110 132 114 131 113 119 61 84 69 104 133 133 53 115 93 148 132 75 88 149 75 44 107 88 33 81 91 104 75 120 126 149 81 87 138 87 111 170 80 145 140 87 101 112 97 123 124 101 119 160 193 193 109 94 175 119 55 67 122 32 67 81 94 106 106 112 115 85 132 213 100 67 110 99 127 139 154 32 39 129 120 122 124 102 113 118 85 89 103 170 66 74 99 128 63 89 104 74 103 85 121 128 76 148 191 83 166 159 127 106 44 83 124 119 99 112 120 126 157 107 64 103 68 159 132 107 156 115 72 51 102 123 154 96 142 173 40 160 123 113 98 72 127 107 76 122 85 157 85 137 134 110 81 93 134 121 126 75 51 63 134 138 164 118 168 48 102 139 76 126 141 171 110 59 95 70 125 160 114 85 188 91 42 84 71 31 94 83 122 114 111 135 49 142 86 168 115 106 136 144 129 110 96 142 217 101 172 127 128 173 91 134 117 71 151 85 82 154 83 140 114 54 67 39 118 132 140 78 116 114 113 122 118 65 138 59 69 149 223 161 143 142 141 108 50 110 107 122 76 105 121 89 205 124 132 171 151 64 52 145 126 74 164 103 113 147 100 88 85 110 87 157 76 113 179 98 170 190 70 88 120 65 125 145 71 111 69 145 82 104 91 163 133 149 142 103 71 170 143 114 107 103 49 99 37 98 122 198 143 163 122 30 109 129 133 71 113 149 101 107 120 67 76 120 96 151 142 127 86 69 100 142 92 132 125 106 142 144 74 86 203 159 142 134 88 98 125 111 57 118 107 76 115 80 134 117 145 150 123 71 132 129 172 102 92 39 75 190 88 179 147 157 96 134 87 112 59 117 129 147 116 124 122 120 117 176 76 114 86 121 131 119 105 132 147 81 112 180 73 171 113 87 106 131 155 152 184 76 191 259 93 101 157 102 118 52 147 80 51 55 100 87 127 130 134 220 101 129 109 81 177 71 63 133 117 159 104 104 128 117 41 72 101 113 107 158 130 135 199 118 83 60 162 88 153 115 82 114 131 140 190 53 183 137 214 169 123 75 136 149 276 61 166 73 187 90 141 122 137 122 82 167 97 109 151 124 99 147 104 142 109 90 142 107 227 79 140 47 129 65 111 134 72 37 88 74 232 91 91 64 129 146 69 183 85 173 59 84 154 183 98 164 136 80 118 57 99 142 90 80 161 96 131 121 87 70 87 92 87 101 91 104 119 102 123 49 110 130 157 55 125 75 145 184 74 96 108 180 115 107 104 155 120 132 118 104 128 106 115 122 128 13 202 121 91 81 89 113 92 134 99 119 76 102 108 161 143 115 12 130 83 67 122 201 86 142 140 154 100 91 142 147 150 56 121 186 88 90 89 111 123 116 235 146 130 117 168 114 125 108 72 112 107 112 106 57 149 82 86 105 146 68 58 135 112 48 122 55 98 138 133 110 87 65 127 66 75 111 52 147 99 93 116 109 60 99 180 135 108 168 211 41 104 177 139 95 162 110 139 103 75 131 94 147 98 150 67 47 98 120 107 184 142 86 127 170 140 95 69 96 154 63 126 124 112 39 131 125 135 159 99 80 95 84 133 206 255 57 105 71 144 138 166 148 58 111 87 128 123 146 150 94 141 133 100 136 92 88 162 59 62 128 99 183 111 197 101 116 80 155 83 190 71 78 76 91 142 104 145 117 86 108 74 152 157 137 77 80 72 74 80 64 147 91 113 42 113 126 114 139 119 135 143 89 150 54 96 100 87 200 121 92 192 120 162 126 65 131 61 90 145 156 117 146 99 101 52 95 36 191 67 154 97 181 190 140 115 104 178 93 65 108 143 110 95 118 55 159 137 105 72 88 146 98 129 115 66 72 58 90 102 128 177 130 143 95 145 194 128 59 163 70 120 177 91 74 95 67 98 114 50 180 31 123 121 91 59 92 151 145 118 165 99 80 156 82 137 109 126 115 207 137 112 62 233 139 110 69 117 249 110 17 74 97 87 81 134 197 64 147 157 84 128 106 139 94 156 92 158 65 88 143 111 137 156 149 91 119 107 65 167 164 88 78 76 124 135 132 100 109 76 74 81 147 64 90 53 159 169 131 119 71 69 202 127 124 143 114 74 54 76 107 127 125 105 67 182 84 73 86 71 78 95 69 122 95 67 64 134 27 105 113 97 115 195 170 115 85 99 74 60 75 155 60 72 145 75 45 117 140 129 112 110 135 184 54 131 84 123 90 141 95 92 88 176 81 122 100 128 132 79 87 127 132 107 129 41 130 79 106 154 92 145 78 106 82 86 146 106 69 109 58 128 48 68 108 139 175 170 132 91 162 89 187 69 120 151 131 99 76 97 105 81 218 61 70 99 85 119 134 121 142 146 103 82 120 73 108 96 208 139 120 110 102 84 153 153 113 180 98 83 141 158 83 22 49 72 72 122 122 172 167 132 99 142 165 67 133 130 136 85 181 72 110 66 152 182 62 96 100 182 119 151 121 93 86 163 190 133 76 78 81 143 101 112 163 86 161 144 90 102 91 121 133 104 125 177 119 104 82 285 110 89 103 181 107 82 91 93 81 74 44 127 155 73 129 132 145 110 111 170 48 213 117 89 84 96 135 152 108 81 92 96 78 192 170 116 109 119 110 96 139 128 163 75 124 145 87 105 40 109 102 48 114 64 17 56 124 112 86 122 111 233 90 136 70 72 118 230 87 125 112 118 92 113 117 42 100 65 116 112 96 55 83 116 116 52 116 89 168 125 119 91 61 72 112 67 106 40 172 123 61 114 169 144 91 94 133 111 119 209 129 109 80 97 42 87 104 101 147 68 67 81 106 34 109 109 97 91 147 75 127 100 144 79 167 123 131 54 38 94 74 102 74 100 92 89 128 96 119 105 126 118 105 83 133 114 121 69 105 159 32 54 146 147 164 72 157 38 137 162 167 93 136 70 83 90 117 89 87 89 67 119 83 77 77 137 100 141 124 171 86 77 97 74 92 180 95 124 115 84 98 96 112 102 75 83 71 60 72 123 97 153 146 105 144 113 135 138 130 150 95 185 156 103 129 156 85 184 128 41 110 150 84 97 56 117 135 110 147 92 117 89 156 69 207 138 47 43 50 110 28 146 122 76 153 115 118 146 53 151 102 133 129 155 75 82 150 156 143 16 87 68 124 183 77 145 108 82 99 63 79 110 200 149 133 95 96 72 96 141 119 187 146 104 104 80 111 54 143 93 103 248 150 84 123 82 93 49 102 110 88 65 86 136 130 166 129 133 96 107 128 117 112 148 128 73 70 135 65 23 83 115 111 93 134 113 112 70 102 47 96 145 180 109 107 94 92 163 123 74 69 76 153 100 73 128 119 155 187 109 83 71 73 122 207 114 261 106 102 83 122 100 81 193 157 186 167 214 132 95 119 145 105 64 143 84 103 104 52 54 171 84 91 110 60 82 152 149 96 130 89 109 178 112 152 117 68 118 109 170 125 61 105 11 118 90 135 144 160 150 100 88 112 106 92 122 171 122 139 98 43 122 129 55 136 133 77 119 69 114 138 47 98 130 93 129 104 97 105 74 161 136 88 107 194 141 88 121 135 85 124 114 106 133 156 66 159 121 132 48 154 133 127 139 137 54 193 183 47 111 159 166 102 51 100 114 109 118 123 81 126 135 172 193 99 112 70 87 88 110 124 63 105 101 166 108 95 127 154 183 58 85 163 123 112 131 56 118 94 78 88 127 222 149 170 66 94 92 101 58 124 100 185 104 102 110 52 74 135 181 119 103 143 66 161 152 55 118 55 155 161 139 114 139 151 102 143 66 125 169 133 156 155 138 61 60 145 125 103 129 150 90 106 185 81 179 105 130 117 149 147 119 87 90 77 129 196 80 84 50 178 93 37 73 153 122 75 44 105 182 166 141 77 140 150 85 120 57 59 113 173 101 65 111 82 68 127 77 113 24 81 124 137 161 138 95 80 92 100 59 114 111 116 106 124 64 155 124 77 94 181 165 82 186 145 87 168 102 62 120 121 101 99 114 85 138 84 169 83 129 22 125 76 102 181 78 75 134 73 155 65 112 86 64 55 109 67 121 73 147 104 43 151 173 37 128 55 58 116 108 158 140 137 139 54 103 103 136 80 72 45 145 171 136 101 99 96 181 51 133 126 115 83 41 72 55 93 162 104 84 156 126 88 72 123 174 97 64 130 64 71 151 124 121 59 162 140 63 107 108 68 118 113 118 117 161 100 123 202 149 125 145 124 146 84 98 100 53 115 134 148 121 203 148 86 130 131 122 142 95 122 123 146 154 77 89 120 146 110 103 89 142 120 88 63 119 94 105 73 47 80 102 146 139 114 113 40 135 116 79 148 67 55 190 129 93 112 82 149 90 111 61 155 123 135 127 112 145 107 146 57 64 169 129 101 174 157 109 65 113 77 153 65 192 203 61 148 76 83 195 93 172 75 133 140 115 83 112 154 128 100 94 138 54 91 157 216 129 130 121 99 143 133 167 105 76 146 108 92 134 134 109 88 117 166 172 188 135 125 43 119 84 91 76 227 130 83 177 167 95 80 123 126 89 102 138 100 193 97 117 93 66 140 136 73 183 87 110 156 119 56 91 134 105 120 159 159 87 102 110 58 99 112 80 75 93 84 91 160 144 149 104 109 112 105 154 137 72 85 109 107 84 101 163 77 56 102 182 129 70 148 107 78 105 89 149 140 84 137 118 138 148 68 95 145 123 87 78 109 89 156 134 60 103 163 162 121 129 140 174 161 64 127 148 83 189 100 101 134 51 162 97 107 63 18 140 111 111 110 73 167 120 129 97 109 43 111 84 168 64 150 200 82 152 149 93 103 82 104 125 116 127 133 103 75 164 118 104 112 73 178 137 89 119 108 125 148 176 134 159 96 128 75 93 93 108 95 83 150 188 93 217 83 160 117 125 126 100 128 59 95 103 76 206 73 200 121 119 130 101 211 88 151 172 103 101 183 72 95 126 67 109 135 144 78 160 106 176 75 165 119 128 67 151 70 50 104 103 222 130 143 65 123 92 133 204 125 132 76 120 214 113 114 176 87 135 63 160 65 124 149 85 145 93 115 104 115 152 184 121 156 140 91 92 132 70 169 157 164 100 132 15 67 105 116 53 77 124 124 118 117 175 106 101 65 88 78 156 97 137 129 52 125 86 91 121 43 150 36 141 90 119 165 89 155 29 180 138 207 61 79 105 105 131 91 186 77 111 55 177 152 116 113 100 101 157 119 115 201 117 83 110 136 166 138 128 69 186 64 110 108 106 106 155 87 101 155 20 94 117 103 157 104 68 113 57 88 113 77 144 108 146 115 92 96 125 54 35 113 102 39 152 111 54 79 199 104 112 98 109 100 90 47 202 73 75 184 118 197 59 123 147 171 150 154 132 58 56 73 82 66 135 165 83 140 72 92 48 112 88 100 90 103 106 102 117 144 89 123 146 99 78 80 52 173 55 82 124 86 59 82 72 97 111 83 160 91 85 125 166 56 206 132 92 149 40 90 94 129 85 157 122 145 94 116 76 124 100 140 91 83 135 66 148 89 82 92 117 90 106 63 99 123 175 251 161 70 145 69 57 121 129 212 97 119 60 132 169 118 92 120 54 90 164 57 178 137 105 164 189 105 62 83 75 101 99 118 145 174 139 145 165 185 103 138 154 112 108 50 126 78 123 99 90 107 60 68 114 153 95 185 102 139 96 87 48 172 119 92 146 40 38 137 118 118 148 143 145 103 95 126 83 105 76 125 128 162 143 31 165 61 82 72 128 108 102 80 93 65 103 121 185 75 147 112 134 96 30 113 141 134 159 92 166 77 43 75 148 112 96 58 141 67 79 158 118 121 84 77 142 115 93 149 111 130 90 71 104 65 124 134 51 76 118 118 141 79 77 160 97 88 156 127 67 38 137 105 101 81 98 119 73 75 161 108 168 90 191 156 173 89 163 52 90 44 65 65 129 121 70 171 107 107 111 97 144 151 92 128 115 104 68 120 157 167 80 63 58 91 74 140 49 98 78 133 94 95 128 185 175 108 53 131 115 118 134 107 73 155 161 112 42 28 125 102 113 101 117 122 90 180 133 176 170 138 150 93 132 84 61 169 80 150 141 120 141 99 98 113 126 200 69 110 122 183 118 81 130 105 122 92 91 100 83 137 136 68 114 114 130 105 117 94 62 102 75 202 62 118 104 136 73 159 118 124 183 72 85 113 101 92 149 73 114 93 177 108 65 70 133 114 70 131 116 120 99 183 163 77 176 80 74 89 88 160 116 136 41 104 139 148 49 184 122 63 100 97 56 160 105 124 133 104 147 96 139 40 190 179 123 140 55 173 150 103 74 133 104 127 104 96 75 174 84 139 74 99 214 93 164 107 169 119 103 201 186 114 96 185 149 81 49 95 141 196 88 117 112 123 121 138 122 146 64 98 142 107 80 95 132 180 153 41 66 127 127 104 112 157 91 133 77 107 116 152 87 76 110 60 113 160 104 64 169 104 115 129 161 106 106 152 92 176 66 168 172 81 114 98 93 134 162 204 76 47 87 136 78 152 74 115 123 114 101 98 99 188 140 89 84 129 62 166 162 73 59 102 103 92 125 96 106 150 121 167 145 98 130 138 117 102 155 97 101 126 183 169 161 151 163 132 115 54 87 58 75 92 162 84 100 132 152 121 101 95 128 124 178 111 129 131 127 78 95 150 139 216 109 72 97 87 122 88 128 125 22 85 88 156 31 136 80 180 99 70 170 114 126 38 182 126 127 130 167 44 88 122 119 107 113 93 162 130 123 89 244 77 103 86 91 88 96 139 112 158 46 134 128 113 151 76 71 98 148 103 149 109 57 163 70 110 168 140 138 185 71 126 86 217 69 109 110 91 75 156 118 146 101 101 206 125 95 126 138 161 112 118 89 131 103 123 105 75 124 104 94 185 94 146 177 75 75 68 131 146 109 91 80 93 100 12 125 98 129 107 22 104 108 115 63 130 89 114 148 109 85 150 166 102 133 145 126 119 146 159 138 105 138 67 125 42 168 187 123 108 91 114 87 134 113 154 49 93 104 125 109 97 28 82 71 129 111 133 162 101 166 111 133 29 133 65 124 106 71 182 98 104 135 64 145 146 83 138 65 108 125 61 128 132 106 143 148 120 53 110 66 131 188 151 123 82 59 104 67 132 191 112 99 99 81 177 107 149 140 62 139 157 84 106 106 170 145 144 98 133 79 123 132 153 120 118 171 129 108 92 166 46 120 58 91 144 159 38 86 101 153 94 53 122 58 103 149 50 114 98 47 205 124 75 102 174 122 93 127 137 120 40 51 136 120 216 59 155 152 104 157 144 147 81 127 108 149 96 130 130 108 117 148 91 104 104 224 121 78 125 80 197 42 95 59 104 136 42 100 157 182 96 150 119 87 67 117 80 157 81 90 200 135 115 108 150 45 179 99 87 128 96 89 110 79 89 105 116 158 101 67 112 151 94 103 124 54 173 190 154 144 109 139 151 117 140 86 126 117 181 107 118 49 103 148 147 147 150 83 112 107 200 111 101 68 100 58 56 164 126 105 163 111 153 126 209 160 75 120 167 164 95 148 143 115 155 148 50 111 86 150 115 188 208 89 71 106 164 96 129 141 126 139 97 107 186 129 121 116 165 48 79 119 189 73 39 207 176 154 90 99 79 98 135 51 141 110 69 102 43 112 132 158 92 127 117 129 88 125 140 102 117 115 59 187 159 104 151 39 51 100 107 35 84 111 143 62 52 136 96 53 154 153 92 78 11 76 118 55 70 131 102 148 214 59 147 87 123 171 146 60 120 72 108 123 125 122 99 89 42 107 120 175 147 109 112 40 34 98 82 134 143 128 92 117 93 101 114 159 131 102 127 65 152 143 84 106 139 127 132 112 79 122 44 123 139 74 66 136 155 67 82 170 112 178 85 178 103 146 90 105 195 79 81 97 86 160 36 149 96 118 53 54 75 96 142 98 133 84 149 86 106 182 160 108 78 25 146 71 140 152 139 133 175 123 174 83 107 197 149 54 102 164 79 140 119 60 142 105 106 149 232 125 99 137 93 141 55 110 92 74 67 197 175 134 129 174 79 72 70 101 121 63 105 71 62 112 119 89 90 69 78 100 98 61 135 54 180 74 91 161 55 119 141 118 131 133 163 138 92 121 71 125 97 176 118 150 145 127 147 133 106 86 72 23 154 88 83 135 92 85 53 178 179 153 130 148 91 74 67 106 28 158 92 51 62 131 88 100 158 53 176 93 164 102 138 91 69 159 118 36 104 92 98 78 104 55 87 124 85 132 200 142 79 152 58 199 44 101 113 19 65 138 87 80 163 69 149 117 42 94 150 173 137 117 82 134 99 122 126 116 123 174 129 134 140 94 77 137 153 69 137 155 120 102 159 65 169 109 99 159 149 140 93 164 102 79 54 130 135 111 114 153 79 56 42 110 86 120 104 107 120 99 105 139 131 56 117 127 94 93 65 114 124 84 79 126 31 113 114 94 52 138 95 82 135 172 159 65 138 121 185 136 87 129 114 139 107 130 39 100 91 96 103 116 87 104 116 189 122 53 110 104 42 120 56 108 136 175 167 59 139 151 38 161 96 96 149 130 116 156 110 99 115 136 186 49 161 86 56 61 144 96 51 33 80 67 68 131 99 43 115 103 104 149 108 126 117 150 159 231 128 123 46 80 99 81 89 124 40 123 80 86 58 76 105 115 120 73 149 118 153 127 128 117 98 67 52 121 149 87 192 157 86 153 139 170 97 106 80 55 104 149 108 162 167 100 47 80 126 124 130 76 162 127 123 116 130 203 116 53 76 111 72 106 133 137 57 35 103 152 74 131 122 94 80 100 119 113 157 72 113 128 54 147 127 113 45 164 138 26 140 108 131 105 126 51 103 128 117 86 32 102 58 113 99 135 142 86 93 98 41 44 93 51 135 52 59 186 91 37 100 39 164 143 161 137 124 134 101 101 225 105 87 161 143 108 104 107 116 30 111 78 111 113 84 176 130 138 117 114 66 147 169 89 102 119 116 149 144 74 146 70 104 154 188 217 77 111 13 24 201 130 97 112 68 90 108 156 85 73 149 108 105 89 153 82 108 135 88 83 76 86 100 88 154 80 211 102 113 110 213 69 34 125 110 115 107 144 50 128 125 122 84 118 151 54 100 87 109 140 110 169 46 94 126 52 81 189 133 193 108 135 102 122 125 111 120 43 23 193 146 173 85 123 102 90 124 148 186 76 95 92 86 147 69 161 71 120 100 130 116 126 128 86 120 160 148 59 75 63 104 114 111 87 76 111 80 110 30 80 158 104 85 93 149 133 132 83 144 95 66 172 93 66 175 184 117 129 154 52 103 52 145 113 30 95 56 164 50 115 102 188 119 75 262 138 69 122 58 93 64 34 184 96 90 151 112 87 71 101 68 77 90 142 74 153 115 94 144 105 96 97 89 115 132 120 119 147 209 85 88 162 106 160 94 159 107 110 198 117 94 50 156 111 85 28 115 118 82 61 168 124 90 67 47 129 67 113 56 130 62 120 115 148 75 163 100 74 149 77 181 200 101 82 95 115 107 153 143 133 77 59 79 36 106 126 69 110 34 103 117 92 108 93 101 167 123 191 147 125 128 101 105 174 282 118 172 164 100 174 46 143 141 130 37 162 109 106 125 121 77 86 157 122 102 168 132 178 118 113 152 151 61 134 126 119 100 80 102 142 109 158 83 107 56 135 162 241 118 96 148 143 75 116 129 138 88 55 99 163 160 185 140 130 124 141 139 54 110 46 115 100 174 72 146 140 169 70 82 79 105 88 85 69 64 119 110 193 106 96 43 146 114 106 163 111 116 142 109 100 43 160 138 47 144 117 138 72 178 132 113 125 156 137 120 40 70 77 145 164 36 153 128 106 119 66 132 99 107 161 121 117 108 33 117 113 94 77 100 90 72 94 122 113 29 55 83 125 101 75 139 90 156 90 148 75 98 114 51 35 58 63 185 127 197 131 63 167 81 68 134 204 144 120 105 143 121 93 103 41 185 78 83 90 120 127 102 108 190 95 162 55 133 82 86 132 118 132 139 94 102 143 123 96 102 140 107 75 161 162 72 114 149 102 83 119 59 115 126 78 63 106 72 158 130 100 119 157 43 82 97 182 99 135 89 48 147 114 211 72 52 104 108 141 144 80 136 83 160 104 72 79 162 95 53 89 121 124 108 134 67 100 86 105 100 152 144 94 141 170 62 113 105 158 111 91 114 90 107 72 153 110 95 83 89 173 122 91 121 158 141 87 165 165 38 48 122 139 84 111 80 171 128 74 193 40 122 160 133 222 70 173 129 101 215 118 148 137 137 95 115 75 100 212 96 75 86 104 138 138 102 137 50 72 136 72 111 132 95 156 146 160 95 176 156 67 138 174 144 107 146 120 93 49 174 80 131 114 148 139 37 195 38 122 68 104 86 111 119 44 152 192 94 71 141 132 141 156 129 184 131 107 109 85 42 103 132 124 195 140 113 81 109 147 96 86 62 146 121 110 133 101 147 89 100 185 91 64 89 77 97 111 251 96 97 146 80 59 175 148 228 88 223 209 95 127 136 83 182 60 178 89 98 79 84 113 141 159 127 124 139 116 101 140 112 45 84 131 126 77 67 105 51 107 109 127 109 118 84 79 97 122 111 95 162 110 107 100 86 119 111 87 139 177 186 168 127 136 133 98 75 205 122 166 111 152 60 115 144 71 104 90 169 146 66 174 136 195 65 112 134 123 64 176 201 108 198 149 148 80 159 157 76 70 82 96 150 255 49 111 162 132 164 103 81 80 84 92 96 129 84 89 170 82 108 113 110 107 104 111 70 93 113 126 131 151 112 166 93 109 66 187 189 135 38 99 101 129 84 124 122 80 120 192 73 162 103 136 157 82 120 128 148 68 135 83 124 98 172 171 63 116 70 93 214 179 100 113 137 61 106 133 112 110 135 111 43 73 79 120 88 122 80 134 118 59 136 157 176 166 135 125 67 130 117 109 103 93 115 106 137 116 107 87 78 78 160 131 103 133 68 68 33 130 96 134 64 105 168 125 152 157 87 96 205 50 112 174 94 180 41 161 112 196 95 124 140 79 89 104 118 161 152 29 48 98 115 137 124 199 138 133 158 97 142 105 62 77 144 150 102 83 179 139 100 128 70 129 118 93 124 96 91 98 108 75 140 44 88 96 155 88 108 100 103 146 96 70 72 111 135 183 120 153 63 142 133 191 131 154 119 88 65 71 159 92 85 91 51 83 127 132 92 142 33 93 129 132 216 116 101 67 98 166 113 78 116 117 190 149 93 60 101 94 44 56 73 93 65 157 50 121 118 141 94 164 117 91 45 37 111 170 115 145 127 153 82 161 112 105 78 150 131 159 76 206 121 128 144 112 128 112 163 132 115 97 111 65 90 157 105 55 97 67 174 257 145 152 138 179 126 73 138 196 88 111 116 158 88 124 110 131 125 83 134 144 107 121 83 34 147 141 87 125 184 165 181 131 232 131 107 91 120 126 155 126 134 62 51 92 137 92 112 180 152 155 132 124 99 77 134 123 122 128 124 54 61 91 174 128 59 107 151 46 119 104 95 164 126 132 104 91 93 99 202 120 59 210 106 134 179 89 103 168 141 28 97 116 121 67 136 80 62 123 80 109 128 123 150 81 55 167 87 84 139 148 77 90 80 95 157 207 140 162 137 91 150 122 149 72 100 157 94 86 144 97 243 126 101 69 116 122 130 63 70 87 85 190 105 128 91 116 82 133 76 110 121 72 125 120 90 82 174 91 136 99 125 117 106 222 132 178 155 76 168 115 113 147 89 128 131 68 131 84 123 166 129 148 96 79 81 128 112 186 99 112 126 58 63 177 105 162 95 152 209 111 95 151 72 36 55 116 174 134 97 130 105 75 61 17 70 55 91 184 112 88 156 63 62 80 79 95 123 127 106 128 93 72 163 169 67 113 71 123 121 94 174 145 117 124 169 9</t>
-  </si>
-  <si>
-    <t>GAM(0.202669028550718, -1.9986598697150027e-27, 0.663598101007215)</t>
-  </si>
-  <si>
-    <t>0 2 0 2 0 0 0 0 2 2 1 1 0 0 0 0 2 1 2 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 3 1 0 0 1 1 1 0 4 0 1 2 2 1 1 0 0 0 0 0 2 1 0 1 4 1 0 1 0 0 0 2 1 0 1 0 2 0 1 3 0 2 0 1 1 0 0 1 0 1 0 3 0 1 0 2 1 1 0 0 0 0 1 0 1 0 0 2 2 0 2 0 3 2 0 1 0 3 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 3 0 1 0 1 1 0 1 0 2 1 1 0 0 2 4 1 1 0 0 0 0 0 0 4 4 2 0 0 1 0 1 2 0 2 0 0 1 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 2 1 0 0 1 0 0 2 2 0 0 1 1 1 0 1 0 0 0 0 4 1 0 2 0 2 1 1 0 0 0 1 0 3 1 0 0 1 0 2 0 2 0 0 1 1 0 0 0 0 1 0 0 0 1 3 0 1 1 0 2 0 1 1 2 0 2 0 1 0 2 1 0 1 0 1 2 2 3 1 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 1 1 1 0 2 1 0 0 1 1 1 1 0 1 1 1 1 2 2 1 0 2 2 2 1 1 1 1 0 1 0 0 0 0 1 0 1 1 2 0 0 0 1 1 1 2 1 0 0 0 0 1 1 1 0 0 3 0 1 0 0 0 0 0 1 1 1 1 3 0 2 1 0 0 1 0 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 1 0 1 0 2 2 0 1 1 1 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 1 0 1 1 1 0 1 2 2 2 1 0 0 1 1 0 0 1 2 1 0 2 1 2 0 1 0 0 1 0 0 1 1 0 2 0 0 2 1 1 3 0 2 1 1 1 2 0 0 0 2 1 0 0 0 1 0 2 1 0 1 1 1 1 1 0 3 1 2 1 2 0 0 1 2 2 0 0 0 0 1 1 1 0 1 2 1 1 1 1 2 0 1 1 1 1 1 2 0 0 0 0 1 0 1 0 0 1 1 1 0 2 1 2 1 1 1 1 0 3 0 1 1 1 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 2 0 1 1 1 0 0 0 0 2 0 2 0 0 1 2 2 1 1 1 0 0 0 1 1 1 1 1 2 2 0 3 0 0 1 2 2 0 0 0 2 1 1 0 0 0 0 1 0 2 1 1 1 0 2 1 0 2 0 0 0 0 2 0 1 1 0 2 2 2 1 1 0 0 1 2 0 0 0 3 2 1 1 0 1 1 2 2 1 2 0 1 1 0 0 2 1 1 1 0 1 0 2 1 2 1 0 3 1 0 1 1 0 0 1 1 1 1 1 1 0 1 0 2 0 0 1 0 1 2 0 1 1 1 1 2 1 0 1 1 0 0 1 1 1 2 0 0 1 0 1 0 3 1 0 1 0 2 0 0 1 0 0 2 3 2 1 0 1 1 0 0 0 3 2 0 0 1 0 0 0 0 0 1 2 0 1 1 1 2 0 0 2 0 1 1 0 2 2 1 2 0 2 0 0 0 0 1 2 2 0 2 1 0 1 0 1 3 1 1 1 0 1 1 1 0 2 0 3 0 0 0 2 1 1 1 2 2 1 2 1 0 0 0 0 0 0 0 0 1 0 1 2 1 0 1 0 0 0 2 0 2 1 0 1 2 0 0 0 1 1 1 0 2 0 1 0 0 1 0 1 0 0 0 0 0 0 3 1 2 0 0 2 2 1 0 0 0 2 2 1 0 0 1 0 0 0 0 0 0 1 1 3 2 1 3 0 0 1 1 0 0 0 2 1 1 2 0 2 1 1 0 3 1 0 2 0 4 0 0 0 0 1 4 2 0 0 1 2 1 2 0 2 1 3 0 1 0 0 1 1 1 0 1 1 1 2 0 2 2 1 2 2 3 0 1 0 2 2 0 2 1 2 0 1 2 0 0 1 0 1 0 0 2 0 5 2 0 3 1 1 1 2 1 2 3 1 2 3 1 0 1 0 0 0 2 3 2 1 2 1 0 0 2 0 0 2 2 0 1 2 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 2 0 0 1 1 0 1 1 0 1 1 0 1 0 3 1 1 1 1 1 0 0 1 2 1 1 0 1 1 0 1 1 2 2 0 1 1 0 1 0 1 0 0 2 1 1 1 0 1 1 0 0 0 0 1 0 3 0 1 0 2 1 0 1 3 0 1 2 1 1 0 0 1 0 1 1 0 0 1 0 1 1 0 0 1 1 1 2 0 0 1 0 1 0 0 0 0 1 1 0 2 2 0 1 0 0 0 0 0 1 1 0 0 1 2 1 0 3 0 0 0 0 2 1 1 1 0 1 1 0 2 2 2 1 3 1 2 1 1 0 0 2 0 3 1 0 0 0 0 1 1 0 1 2 1 2 0 2 1 0 0 1 1 0 1 0 1 0 3 0 1 2 1 2 2 0 2 1 0 1 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 2 0 0 0 2 2 1 1 1 0 0 0 0 0 0 0 0 0 1 3 2 1 0 3 1 1 1 1 0 0 3 0 2 1 1 0 2 1 0 0 3 2 1 0 1 1 3 1 1 0 0 0 1 1 1 1 1 0 0 0 0 2 2 2 0 1 1 0 1 1 1 1 0 0 1 0 2 0 2 2 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 1 1 0 1 0 0 2 1 0 0 1 0 1 2 2 1 0 2 2 1 2 1 1 0 2 2 2 1 1 1 0 1 0 1 0 0 0 2 0 1 0 0 2 1 2 0 0 2 0 1 0 1 1 0 2 2 0 1 1 1 0 0 2 0 1 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 3 0 0 2 1 1 0 0 1 1 0 0 0 0 0 1 1 0 1 2 2 0 0 0 0 2 0 3 0 1 1 1 1 1 0 0 0 1 1 2 1 2 0 0 1 0 0 1 0 1 0 1 0 3 0 1 2 1 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 1 0 0 0 2 0 1 0 0 0 1 0 1 1 2 1 2 1 1 1 0 4 0 0 1 0 0 2 0 0 1 1 2 0 2 1 0 1 0 0 0 2 0 2 0 1 1 0 0 0 0 1 3 0 0 1 0 0 1 2 2 1 1 0 1 1 0 1 1 1 0 1 1 0 2 2 1 1 0 1 0 2 2 1 0 1 0 0 1 1 1 0 1 0 1 1 1 0 1 1 1 0 1 2 0 3 0 1 1 0 1 1 4 1 2 2 0 0 1 1 2 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 1 0 1 1 1 0 1 0 0 1 1 1 0 3 1 0 2 0 0 0 0 2 1 1 1 1 2 0 2 0 3 0 2 1 3 1 1 2 1 0 0 0 1 2 0 1 2 1 0 2 2 1 3 1 0 2 1 2 1 2 1 3 1 1 1 1 3 1 1 3 2 0 0 1 2 2 1 2 0 2 1 0 0 2 0 1 1 0 2 2 0 0 1 0 1 2 0 0 1 3 0 1 0 3 0 1 1 0 1 1 1 2 2 2 1 0 0 0 2 1 0 0 0 0 0 0 2 0 0 0 1 0 2 1 2 0 1 0 0 0 1 2 1 0 2 0 0 0 0 1 0 0 1 0 1 1 1 1 1 0 1 1 1 1 1 0 2 1 1 0 1 0 1 1 0 0 5 0 2 1 1 1 2 1 0 1 0 1 1 1 0 3 1 0 0 2 0 0 2 1 0 1 0 0 2 0 1 1 0 1 0 1 2 0 3 1 2 0 0 2 0 1 0 1 0 0 1 0 2 1 0 3 1 0 1 2 3 0 0 0 1 0 2 0 0 2 0 1 0 0 0 1 2 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 2 1 0 0 0 1 0 0 1 2 0 0 1 1 1 2 1 2 0 2 0 1 0 1 1 2 0 1 1 0 0 0 0 0 0 0 2 1 2 0 0 4 0 3 0 0 0 2 2 1 0 1 1 0 1 2 2 0 1 0 0 2 0 2 4 0 1 1 0 1 1 0 0 2 0 0 0 0 0 0 1 1 1 0 1 2 2 1 0 1 1 1 2 0 1 0 1 1 2 2 1 2 1 1 2 1 0 0 2 0 1 1 0 1 1 1 1 0 0 3 1 1 0 0 2 1 2 0 0 0 0 1 0 0 1 3 1 0 0 0 1 0 0 0 1 3 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 2 2 1 1 1 2 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 2 2 2 0 1 1 1 0 1 0 0 0 0 2 0 1 1 1 1 0 0 2 1 1 0 0 1 0 2 0 0 1 0 0 2 0 3 1 1 1 0 1 1 0 1 0 2 1 1 0 1 0 1 1 0 0 0 0 0 2 1 0 0 0 1 3 0 2 0 0 1 0 1 0 2 0 1 0 0 3 1 0 0 0 1 0 1 0 2 1 1 0 1 1 1 1 2 1 1 1 0 0 2 3 1 2 0 1 1 0 0 1 0 1 0 1 0 2 0 0 1 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 2 0 0 1 1 1 3 0 0 1 1 2 1 0 1 1 1 1 1 2 1 1 3 0 3 0 0 1 0 0 2 2 1 2 1 0 1 2 1 0 0 2 2 0 0 1 1 2 2 1 0 0 1 0 1 0 2 0 1 2 2 0 1 1 0 1 1 0 1 0 0 1 2 4 1 0 1 1 0 0 1 0 3 3 0 1 0 2 0 0 0 2 2 2 0 0 0 0 0 1 0 0 0 1 1 0 0 2 1 0 2 1 0 0 0 0 0 1 0 1 0 0 1 3 0 1 0 0 0 1 1 0 1 0 0 1 1 2 1 0 1 0 1 3 0 0 0 1 0 2 0 0 0 0 1 0 0 1 1 1 1 2 2 0 2 0 0 0 0 0 1 0 0 2 2 1 2 0 0 2 1 2 0 2 0 0 1 1 0 1 0 1 1 0 0 0 0 2 2 1 1 0 0 0 0 0 1 2 0 0 2 0 0 1 0 0 1 0 0 1 1 2 0 1 0 1 0 0 1 0 0 2 1 0 1 0 0 2 1 4 1 1 0 0 1 1 1 1 0 3 1 1 2 1 1 2 0 2 0 0 1 0 2 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 0 0 0 0 1 0 1 0 2 0 3 0 1 0 2 1 2 0 0 1 0 1 0 1 0 0 0 0 1 0 3 1 2 1 0 0 0 1 1 1 0 1 1 3 0 0 0 0 1 2 2 0 0 0 0 1 2 0 2 1 0 1 1 1 2 0 3 0 1 2 2 1 0 0 0 2 0 1 0 1 1 0 2 1 1 1 0 0 0 0 0 0 0 1 0 3 2 0 1 0 1 1 0 1 0 0 1 1 0 0 2 1 2 1 0 2 3 3 0 1 1 1 0 0 1 0 2 0 0 0 2 1 1 2 0 2 1 1 2 1 0 1 0 0 0 1 1 1 3 2 0 1 1 1 1 0 4 0 1 2 1 0 2 0 0 1 0 1 1 2 1 3 1 4 1 0 1 0 1 0 1 0 2 1 1 0 1 0 0 0 0 0 2 2 0 2 2 1 0 0 0 0 0 0 2 0 1 3 0 2 1 0 3 0 3 0 0 3 1 0 0 0 1 2 2 1 2 0 1 1 1 1 1 0 0 2 2 0 0 1 1 1 0 2 1 1 1 0 0 1 1 0 1 2 0 0 0 0 0 2 0 0 1 1 1 3 2 1 0 0 2 0 1 0 0 0 2 0 1 1 0 1 1 1 2 1 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 1 1 1 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 0 2 2 0 1 1 0 0 0 0 0 3 0 1 0 2 0 0 0 1 1 1 0 2 1 0 1 1 0 0 1 2 0 0 4 0 1 0 0 1 1 2 0 1 1 0 3 1 1 0 1 1 2 0 1 0 3 2 0 0 0 1 1 3 0 2 0 0 0 0 0 0 0 2 0 0 1 0 4 0 1 1 0 4 4 0 2 0 1 1 1 2 1 0 0 3 0 2 3 1 0 2 0 0 1 1 2 1 1 0 2 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 1 1 0 1 0 1 3 2 0 0 0 0 1 0 1 2 1 2 1 1 1 2 4 1 1 2 1 0 0 2 3 0 2 1 0 0 2 0 1 0 2 1 0 0 0 1 0 1 1 1 1 1 0 2 0 1 1 0 0 0 0 0 1 0 1 1 1 0 3 2 0 0 1 1 2 0 0 1 0 0 0 0 1 1 0 2 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 2 1 1 0 0 0 3 1 0 2 0 2 0 2 0 2 3 1 1 2 0 1 2 0 0 2 0 1 0 2 0 0 1 0 1 1 1 2 0 0 1 1 0 1 0 2 0 1 0 1 1 0 1 0 2 2 3 2 0 0 0 1 1 1 1 0 0 0 2 3 0 1 2 1 1 0 0 0 1 0 0 0 1 3 1 0 2 1 0 0 2 0 4 0 1 1 0 1 1 0 1 0 0 1 4 1 1 0 0 0 5 0 2 0 0 0 2 2 1 1 1 2 0 0 1 0 1 2 0 1 1 0 0 2 0 1 0 0 3 1 1 1 1 1 2 2 0 2 1 2 0 0 3 2 0 1 2 1 0 0 1 0 0 3 0 0 1 0 0 0 1 1 2 0 2 1 0 0 1 4 0 1 2 0 0 4 0 0 2 2 2 0 0 2 0 1 2 1 1 0 0 2 0 1 1 0 1 2 1 1 1 1 1 0 0 1 0 2 0 2 1 1 1 0 0 0 1 0 0 0 1 1 1 1 1 2 1 2 0 2 1 1 1 0 3 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 2 3 2 1 1 1 0 1 1 0 1 1 0 2 0 0 0 1 2 2 1 0 2 2 0 0 0 1 1 1 1 0 0 0 2 3 1 0 0 1 2 0 1 0 0 1 0 0 0 2 0 1 2 3 1 1 2 1 1 0 2 0 1 1 0 0 1 0 1 0 3 1 1 0 2 2 2 0 1 1 0 0 0 2 0 1 2 0 1 0 0 0 0 0 1 1 2 2 1 2 1 2 0 0 1 0 1 0 1 2 0 1 1 1 1 0 0 0 3 1 2 1 1 1 3 1 1 0 1 0 0 0 2 1 2 1 0 1 1 0 1 0 1 2 0 2 2 2 0 2 0 1 1 1 1 2 2 0 0 1 0 1 0 2 1 2 1 1 1 2 1 3 0 0 1 2 1 0 0 0 1 0 2 1 1 0 3 2 3 1 0 2 1 1 0 0 2 0 0 0 0 0 1 1 1 2 0 0 1 1 0 1 4 2 1 1 0 0 1 0 0 0 1 0 2 2 0 0 0 0 1 0 2 2 0 2 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0 2 0 1 0 1 1 1 1 2 0 0 0 2 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1 0 1 4 2 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 2 1 1 0 0 0 0 4 1 1 0 0 2 2 0 0 1 1 0 1 1 1 3 1 0 1 0 3 1 1 0 3 0 0 5 0 0 2 2 2 1 0 2 3 0 2 0 1 2 0 3 0 1 1 0 0 1 0 1 1 2 2 1 1 1 0 2 2 3 3 0 2 1 1 0 0 0 2 1 2 0 0 0 1 0 2 1 1 1 1 2 0 3 1 1 2 2 2 1 0 1 1 0 0 2 0 1 1 0 0 0 0 3 1 1 0 1 1 0 0 0 1 0 0 0 3 1 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 2 2 0 1 2 0 0 1 0 1 2 0 0 1 2 0 1 0 1 0 0 0 1 0 0 0 1 2 0 0 0 1 1 1 0 0 0 1 0 2 2 0 0 0 3 1 3 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 2 1 2 0 1 4 0 3 3 1 0 1 0 1 1 0 0 1 2 1 1 1 0 1 0 1 0 1 1 1 0 2 1 2 0 2 0 0 2 2 1 0 1 1 0 0 1 0 1 1 2 1 0 0 1 3 1 2 0 0 0 2 2 1 0 2 0 0 1 1 0 0 1 2 0 1 0 0 0 1 2 2 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 1 1 1 0 1 0 0 1 2 2 2 2 1 1 0 0 0 0 0 1 0 1 1 0 0 1 1 0 2 1 0 0 0 0 2 2 1 1 1 0 1 0 0 1 0 0 0 0 1 1 2 1 0 0 0 0 0 1 2 0 1 1 0 0 2 0 1 0 1 0 0 1 1 1 0 1 1 1 1 0 2 2 0 1 1 1 1 2 0 1 0 3 0 1 0 3 1 2 0 1 0 1 2 1 2 1 0 2 0 1 3 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 2 0 2 0 0 0 0 1 0 1 1 1 1 2 0 2 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 1 1 0 1 1 0 1 1 0 1 1 2 0 1 0 1 2 2 0 1 0 2 2 0 1 2 0 2 1 1 0 0 2 2 0 0 2 0 1 1 1 2 2 1 0 0 1 2 2 1 0 3 0 0 0 2 0 0 0 0 0 1 0 1 2 0 0 2 1 3 0 0 0 0 0 1 2 1 0 0 0 0 2 1 1 1 1 2 0 1 2 2 0 0 1 2 0 0 1 0 1 3 1 0 2 1 4 0 0 1 0 3 0 1 1 0 1 1 0 0 1 1 0 1 2 1 0 0 1 1 0 2 0 0 0 0 1 0 1 0 2 0 1 0 0 0 2 0 3 1 0 0 0 0 1 2 0 0 1 1 0 0 0 2 1 2 0 0 1 1 1 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 2 1 1 2 2 0 0 0 0 1 0 2 0 2 4 1 0 2 2 1 1 0 1 4 1 0 0 0 1 1 1 0 0 1 1 0 1 0 1 0 1 1 1 1 0 1 1 1 1 1 0 2 1 2 0 0 2 0 0 2 1 0 1 2 0 1 1 1 4 0 1 1 2 2 1 0 1 1 1 1 0 0 0 0 0 1 3 2 0 2 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 2 3 2 2 0 3 0 1 1 2 1 1 1 1 1 0 1 1 2 2 1 0 1 0 1 0 1 0 0 0 1 2 0 0 0 2 1 1 2 1 0 1 0 0 0 1 0 1 2 2 2 4 0 1 1 1 1 0 0 0 1 2 1 3 0 2 0 1 1 0 1 0 1 2 0 1 0 1 1 1 1 0 3 1 1 1 1 0 1 1 1 1 1 3 0 1 0 0 2 2 1 0 1 1 1 1 0 2 0 1 0 2 1 0 0 1 1 1 2 0 0 1 0 2 1 0 1 1 1 2 0 0 1 1 2 2 2 1 2 2 0 0 1 0 1 0 1 3 2 2 0 2 2 0 2 0 0 2 2 0 1 0 1 0 0 0 0 2 0 1 1 0 0 1 2 0 0 2 1 1 2 1 1 3 0 3 0 2 0 1 0 1 0 1 1 1 2 0 2 2 1 0 2 1 1 0 3 0 0 2 1 1 0 2 2 0 0 0 0 3 0 2 2 2 2 1 0 0 2 1 0 0 3 1 0 1 0 2 1 2 0 1 1 1 0 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 3 0 0 1 0 0 2 0 1 0 2 0 1 0 1 0 2 2 0 2 0 1 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 2 1 1 1 2 0 1 0 2 2 2 1 2 1 0 1 2 0 3 0 0 2 0 0 1 1 1 1 1 2 1 0 0 1 0 1 1 0 1 2 4 1 1 0 1 1 2 0 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 1 1 0 2 2 1 0 1 0 1 0 1 0 0 0 3 0 0 1 0 1 2 0 0 0 1 1 1 1 1 0 1 0 0 2 0 2 0 1 1 1 0 1 2 1 1 0 1 0 2 2 0 1 0 1 0 1 0 1 1 2 0 1 0 0 1 0 3 1 2 0 2 0 0 2 0 1 0 1 0 3 3 0 0 1 2 0 1 1 0 3 0 1 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 2 1 0 1 3 0 1 0 1 0 0 1 2 3 0 2 1 2 1 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 3 2 2 0 2 2 0 1 1 1 0 0 1 1 2 0 0 0 0 1 0 0 0 0 1 0 2 0 3 1 2 0 1 0 1 0 1 0 0 1 2 0 0 0 0 1 1 1 0 0 1 4 0 1 1 1 2 1 2 1 0 1 0 0 0 2 2 0 0 1 0 2 0 0 0 1 1 1 2 0 0 0 0 2 0 1 0 0 0 1 0 0 2 0 1 2 0 1 2 1 0 0 1 0 1 0 2 1 0 0 1 0 0 1 0 1 1 0 2 0 1 1 0 1 0 0 0 0 0 0 0 0 1 2 0 1 2 2 0 3 1 0 0 0 0 0 1 0 0 2 1 0 0 0 1 1 1 1 0 1 0 0 1 2 1 1 1 2 0 1 0 0 0 0 0 0 2 0 1 1 1 0 0 2 3 0 1 0 0 1 0 1 1 0 1 1 0 0 1 1 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 3 1 0 1 0 1 1 2 2 2 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 2 3 2 2 2 0 3 0 2 0 1 0 2 1 0 1 0 2 0 1 1 1 0 1 0 1 0 1 0 1 0 0 2 0 1 0 1 0 0 0 2 0 1 1 0 1 1 1 0 0 0 2 1 0 3 0 1 2 1 1 0 0 1 1 1 1 0 0 0 0 0 1 2 0 1 0 1 3 0 0 0 1 1 1 0 1 1 0 0 0 1 0 1 0 1 1 3 2 1 0 1 0 1 0 1 2 1 1 0 2 1 0 0 0 0 3 2 0 2 0 1 1 1 1 2 1 1 1 2 1 0 1 0 0 0 0 0 1 1 0 0 0 2 0 1 0 0 2 0 1 2 0 0 1 2 1 1 0 1 2 0 1 0 0 1 0 0 1 0 2 1 0 3 3 0 0 0 2 0 0 0 1 1 0 1 0 1 0 1 2 0 0 2 2 2 1 2 0 0 1 2 1 0 0 0 1 2 1 2 0 1 1 1 1 2 0 1 1 1 2 0 0 0 0 0 1 2 0 1 0 0 1 1 1 1 0 0 0 1 0 3 1 1 0 0 0 0 0 0 2 1 2 0 1 1 0 1 1 2 0 0 1 2 1 1 1 1 2 0 1 0 0 1 1 0 2 1 1 1 0 0 0 0 0 0 0 0 1 1 1 2 1 2 0 1 3 0 0 1 2 0 0 1 0 1 4 1 2 0 0 1 1 0 1 1 1 0 0 2 1 2 1 1 0 0 1 0 1 1 1 0 1 1 1 0 2 0 1 0 0 0 0 0 0 1 0 1 2 1 0 0 1 0 1 0 1 0 1 1 1 1 0 1 1 0 1 0 0 2 1 1 1 2 0 2 0 0 0 2 0 0 0 1 0 1 0 3 1 0 0 1 0 0 0 0 0 2 0 0 0 0 1 2 0 1 1 0 0 3 1 0 1 1 1 1 1 0 1 0 0 1 2 2 0 2 2 1 0 1 0 1 0 0 2 0 0 1 1 0 2 0 0 0 1 2 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 2 1 1 1 0 0 2 1 1 0 1 0 0 1 0 0 1 0 0 0 1 1 2 3 1 0 2 1 1 2 0 1 1 0 2 1 1 0 0 2 1 1 1 0 0 1 1 0 0 0 3 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 2 1 1 0 3 0 0 2 2 2 2 0 0 1 1 2 0 2 1 0 0 0 1 1 1 1 0 0 3 0 1 0 1 0 1 0 0 0 0 2 0 1 2 3 0 0 1 1 2 0 1 0 1 2 0 4 2 1 1 1 0 0 0 0 1 1 0 0 1 0 1 1 0 1 1 0 1 2 0 2 2 1 0 2 2 1 0 2 0 2 0 1 2 1 2 1 1 0 1 2 0 1 0 1 1 1 1 2 0 0 2 0 0 0 1 1 0 1 0 2 1 3 0 0 0 1 1 0 2 0 0 2 0 0 0 2 0 0 0 1 1 1 0 0 2 0 0 2 2 1 2 1 1 1 0 0 2 1 0 1 1 0 1 0 0 1 1 1 2 1 1 1 1 0 1 1 0 3 0 2 0 0 2 1 0 0 0 2 2 1 0 0 0 2 1 2 0 0 0 1 1 2 2 0 0 1 2 0 1 0 2 0 1 0 1 1 0 2 0 1 0 2 1 0 0 0 0 1 2 1 1 2 0 2 2 1 1 0 1 0 0 2 0 0 0 0 0 0 1 0 4 1 1 0 1 3 0 0 0 0 0 1 3 0 2 2 0 1 1 0 0 1 0 0 3 0 1 1 0 1 0 3 1 2 1 2 0 2 0 1 2 1 1 1 2 2 1 1 0 2 0 0 3 0 2 2 0 1 0 1 0 0 1 0 1 3 2 1 0 0 1 1 0 0 0 0 1 1 2 1 0 1 0 0 1 0 0 1 0 1 2 1 0 3 0 0 1 0 0 1 2 1 1 0 2 1 0 0 0 1 0 1 1 0 2 1 1 0 1 0 3 0 0 0 1 1 0 2 2 0 0 1 1 0 0 0 0 0 1 0 2 1 0 0 1 1 1 1 1 1 1 2 0 0 1 2 0 0 2 0 2 1 0 2 1 1 2 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 1 0 1 0 0 1 1 0 1 2 1 1 0 4 2 0 1 1 1 1 0 1 2 1 1 0 0 1 1 0 0 2 3 1 2 1 0 1 1 0 0 1 0 1 2 1 1 0 1 1 1 0 0 0 1 2 2 0 1 0 1 0 1 1 0 0 0 0 1 0 1 3 1 0 0 0 2 0 2 0 1 0 0 2 1 1 2 1 0 0 0 2 0 2 1 0 1 2 1 1 2 2 0 1 2 2 0 1 1 0 3 1 0 0 2 0 0 0 2 1 0 1 0 3 0 2 1 1 1 2 1 0 1 0 0 0 1 0 1 2 2 1 3 0 1 0 0 0 0 2 1 1 0 0 0 1 0 0 2 1 1 3 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 2 1 1 1 0 0 1 2 1 0 0 0 1 0 0 0 0 0 2 0 1 1 1 2 1 0 0 0 0 1 0 0 2 1 1 1 0 1 1 0 1 0 3 0 2 1 0 1 0 0 1 0 2 1 1 0 0 2 1 0 1 0 0 1 1 0 1 0 1 0 0 2 0 1 0 2 1 0 1 0 1 0 1 1 0 0 0 1 2 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 2 1 2 2 0 2 0 2 0 2 2 0 1 2 1 1 1 1 0 0 0 1 0 1 2 1 1 0 2 1 0 0 0 1 3 1 2 3 0 0 2 1 0 0 0 3 2 2 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 2 1 0 0 2 0 0 1 2 1 1 1 1 0 1 0 0 1 2 0 2 0 0 2 2 0 2 0 3 0 2 1 2 1 1 0 2 1 1 4 0 2 1 0 0 0 0 1 1 0 1 1 0 1 0 1 1 2 1 0 0 3 1 2 1 0 1 0 0 0 0 0 0 0 1 0 5 1 0 1 1 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 3 0 0 0 1 2 1 0 0 1 4 0 2 1 1 3 0 1 1 1 0 0 0 1 1 1 1 1 0 0 2 1 2 1 2 0 0 1 0 0 1 0 0 1 0 1 0 0 4 1 0 1 1 2 1 0 3 0 0 2 1 1 3 0 0 0 0 2 1 1 0 2 0 1 0 1 1 1 1 0 2 1 0 0 0 0 0 0 1 2 1 1 0 0 1 0 2 1 0 2 0 2 0 0 2 1 0 0 1 0 1 2 0 0 2 0 1 1 1 0 1 0 2 1 2 1 2 2 2 1 0 0 1 0 0 1 1 2 1 2 0 2 1 0 1 0 0 1 0 3 0 1 0 0 1 1 0 2 1 3 0 1 2 0 3 1 1 0 0 2 1 1 1 0 0 1 1 0 2 1 2 0 1 1 1 0 0 3 2 1 1 1 0 0 0 0 0 2 0 1 0 1 1 2 0 1 0 0 0 2 2 0 1 0 1 0 0 2 1 2 1 1 0 1 3 1 2 0 0 3 0 1 1 0 0 1 2 0 1 3 0 0 2 0 0 0 0 2 2 1 1 2 1 3 1 1 1 0 1 0 1 1 0 0 1 1 0 1 2 0 0 1 1 3 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 2 1 2 0 1 2 1 1 0 1 1 2 0 1 1 2 0 1 0 0 2 1 0 0 0 0 2 1 0 0 0 0 2 0 1 0 1 1 1 1 0 2 1 1 1 1 0 2 0 1 0 2 0 2 0 1 2 1 1 0 1 1 0 0 1 1 2 0 0 2 0 1 0 3 0 3 2 2 1 0 1 1 2 0 1 0 2 0 1 1 2 1 2 2 1 0 0 1 0 0 1 1 1 1 1 1 3 0 1 1 2 0 1 2 1 0 0 0 2 3 1 0 0 1 1 0 1 0 0 2 0 1 0 0 1 1 0 3 2 1 0 1 2 0 0 0 1 2 0 0 1 0 0 1 2 1 0 0 1 3 1 2 1 1 1 1 3 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 2 0 0 0 0 0 0 0 1 2 1 0 1 0 0 0 0 0 0 2 0 2 1 1 0 0 0 0 2 1 1 0 1 0 1 0 2 1 2 1 1 1 0 2 0 0 2 1 2 2 3 1 0 1 0 1 0 0 1 1 1 1 1 0 1 0 1 0 0 2 0 1 2 1 0 0 0 1 0 0 1 1 3 0 0 2 0 2 1 0 0 2 0 1 0 0 1 0 2 1 0 2 0 2 0 1 3 0 0 2 4 0 0 1 2 0 0 2 0 1 1 0 1 2 2 1 0 1 1 2 0 1 3 0 2 0 1 1 1 2 0 0 3 0 0 1 1 0 0 1 1 2 0 0 0 1 2 0 1 1 1 0 0 2 1 1 0 1 1 0 0 0 1 1 1 0 2 0 1 0 2 0 0 0 2 2 2 0 1 0 0 1 0 1 1 1 2 0 0 0 1 1 1 1 2 2 0 0 1 0 1 0 1 0 1 1 0 2 1 0 0 2 2 1 0 0 1 0 1 1 1 0 0 1 3 2 1 1 0 0 2 2 0 1 1 0 0 1 0 2 2 0 0 0 0 0 1 0 1 1 1 1 1 2 3 1 0 0 2 1 1 0 0 1 2 0 0 0 1 1 1 0 1 3 1 0 1 1 2 2 1 1 1 1 0 1 1 2 0 1 0 0 0 5 3 1 2 1 0 0 2 3 1 0 1 0 3 1 0 0 0 0 0 0 1 2 1 1 2 1 0 1 1 0 0 0 0 1 2 1 2 2 0 1 0 2 0 0 1 1 2 1 4 0 2 0 0 1 1 0 1 1 2 0 2 1 0 2 2 0 0 0 0 1 1 1 0 2 1 0 2 1 0 0 1 0 0 2 0 2 0 0 0 0 2 0 1 0 0 1 0 0 2 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 1 0 1 4 2 3 1 1 1 0 0 0 3 1 1 1 3 0 1 1 0 2 0 1 1 0 3 0 1 0 1 0 1 2 1 1 1 1 1 0 0 1 1 1 1 0 2 1 0 2 0 1 1 0 1 1 1 1 0 1 1 1 0 0 0 1 1 0 1 2 0 1 0 0 0 1 1 0 3 2 2 2 2 1 0 2 0 2 0 2 0 0 0 1 0 0 1 1 1 2 1 1 0 0 1 1 0 2 0 2 0 2 2 0 0 0 1 1 0 0 2 0 1 1 1 1 1 0 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 2 0 1 1 0 1 2 1 1 3 1 2 0 1 0 1 0 2 1 0 0 1 0 0 0 3 0 1 0 0 2 0 2 0 0 1 0 1 2 0 1 0 2 3 0 0 0 0 1 1 2 1 0 1 1 1 2 0 0 1 1 0 2 1 1 0 0 1 0 0 2 2 1 1 1 1 0 0 0 1 0 1 1 0 0 0 0 1 3 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 1 0 0 0 1 2 0 0 0 0 0 1 2 0 4 0 2 0 0 1 2 0 2 0 0 0 0 0 1 1 3 1 2 0 0 0 2 1 1 1 1 1 0 0 2 0 1 1 2 0 0 2 0 2 0 1 0 0 2 0 2 1 0 0 1 0 3 1 2 1 2 1 0 1 0 0 1 1 0 0 0 0 1 2 2 0 3 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 1 1 0 1 0 2 0 1 1 0 1 3 0 0 0 1 0 0 3 0 0 1 0 1 0 3 0 2 0 0 0 2 1 1 1 0 0 1 1 0 0 0 0 1 1 1 0 2 2 1 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 1 3 2 3 1 0 1 1 0 1 1 0 2 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 1 1 1 0 2 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 5 3 0 2 0 0 0 0 1 2 1 3 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 2 0 1 1 2 0 1 2 0 1 1 1 2 1 0 1 0 0 1 1 1 0 0 0 1 3 0 2 0 0 0 1 0 2 0 0 0 1 2 1 1 0 0 1 1 2 2 0 1 0 0 0 2 2 1 0 0 1 1 2 0 0 1 0 0 1 1 0 1 1 1 1 3 3 1 0 1 2 0 1 3 1 3 1 1 1 1 2 2 2 0 1 2 0 1 2 2 0 0 1 1 0 1 1 1 2 0 0 0 0 1 3 1 0 2 0 0 0 0 2 1 0 2 2 1 1 0 2 0 1 1 0 0 2 1 1 0 1 1 0 2 2 1 0 2 1 1 0 1 1 1 1 1 1 0 0 0 0 1 1 1 0 1 1 1 0 0 1 0 1 2 1 1 1 1 0 0 0 2 1 1 1 1 0 2 0 1 0 3 0 1 0 1 0 0 4 0 1 1 4 0 0 0 1 0 0 1 1 0 1 2 0 0 0 0 1 0 0 0 1 1 0 0 2 2 0 1 1 0 0 2 0 0 1 1 0 1 0 2 1 0 1 0 2 1 0 1 3 0 1 0 1 2 1 1 0 2 1 1 0 0 1 2 1 1 1 1 0 1 0 0 3 1 1 0 0 0 1 1 2 1 2 2 0 1 2 0 3 1 0 1 1 0 2 0 1 0 1 0 2 1 0 0 2 1 0 3 1 0 0 2 0 0 0 1 1 0 0 2 1 1 1 1 1 1 0 0 2 1 0 0 0 1 1 0 2 1 0 1 2 1 2 0 0 1 1 0 0 0 1 0 1 0 2 2 0 1 1 0 1 0 0 2 1 1 1 1 0 3 0 0 0 1 3 0 1 0 0 1 0 1 0 1 1 1 2 0 2 1 0 3 3 1 0 1 0 1 1 1 3 0 0 0 1 1 1 0 1 0 0 1 0 1 1 0 0 1 2 1 3 2 1 2 1 0 0 1 1 0 0 1 0 0 1 0 0 1 1 0 1 1 1 0 0 1 1 2 1 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 2 1 0 1 0 0 1 1 1 1 0 0 1 0 1 3 0 1 0 0 0 1 0 2 1 1 0 3 0 0 0 2 0 1 1 0 0 1 1 1 0 1 1 0 0 0 1 1 1 0 1 0 1 0 1 0 0 2 0 2 1 0 0 1 0 2 2 0 2 2 4 0 1 0 0 0 0 0 2 0 1 0 3 2 0 0 0 2 0 1 3 1 2 0 0 1 2 0 2 1 0 0 0 1 1 1 1 0 1 0 2 1 1 0 0 4 0 2 1 1 0 0 1 1 3 2 1 1 0 2 1 1 2 1 0 0 1 1 3 0 0 1 2 0 1 0 2 0 1 0 1 1 0 1 0 1 0 0 1 0 1 1 1 0 0 1 1 4 1 1 0 1 1 1 1 0 1 1 0 2 1 1 0 1 0 1 1 0 0 1 1 0 0 0 1 2 1 0 2 1 0 1 3 1 1 0 1 0 2 1 2 1 1 1 0 1 1 0 1 1 1 0 2 0 0 1 0 0 1 0 2 0 0 4 0 1 2 0 1 2 1 1 3 0 2 0 1 0 3 1 3 2 0 0 2 2 2 1 0 0 1 1 0 1 1 0 1 0 0 0 1 0 0 1 1 2 1 0 0 1 0 1 1 2 1 1 2 2 3 1 1 2 0 0 2 2 1 4 0 1 2 0 0 0 2 1 1 0 2 1 0 4 1 1 2 0 1 0 1 0 1 1 0 0 1 1 1 1 2 1 1 0 0 2 1 0 0 3 3 1 1 2 3 1 0 0 0 0 1 0 0 0 0 0 0 1 3 2 1 0 2 1 1 1 0 1 2 1 0 1 1 0 1 3 1 0 2 1 0 0 1 0 3 2 0 0 1 3 2 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 1 1 1 1 0 1 0 2 1 1 1 1 0 0 2 2 0 1 1 1 1 0 1 4 1 2 1 1 4 1 0 0 1 0 0 1 3 0 0 0 0 1 1 3 1 0 1 0 1 0 0 0 0 1 2 0 1 0 0 0 0 2 2 0 0 1 1 0 0 2 3 0 1 1 0 1 0 1 0 1 1 2 2 0 1 0 1 2 0 0 0 1 0 1 0 0 0 1 3 0 0 0 0 0 2 0 2 1 1 0 1 1 2 1 1 0 2 1 1 0 0 1 1 2 1 0 4 1 1 1 1 1 2 0 0 0 0 0 2 0 1 0 0 2 0 1 0 1 1 0 1 1 2 2 0 0 2 2 1 4 2 2 1 1 2 0 0 0 1 1 0 1 2 1 0 1 0 3 1 0 0 1 2 1 0 1 2 2 0 4 0 0 0 1 3 0 0 2 0 1 0 1 2 3 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 0 0 0 1 0 1 2 2 1 1 0 1 0 2 2 0 1 0 0 0 1 3 2 0 2 1 2 0 1 1 0 0 0 0 0 2 0 2 1 1 0 1 1 1 3 1 0 1 1 2 1 0 1 0 1 0 1 0 1 1 1 1 1 1 2 2 0 3 1 0 0 0 1 0 0 2 1 1 0 0 1 1 0 2 1 2 1 0 1 1 2 1 0 3 1 2 2 0 2 0 0 0 0 0 1 0 2 0 0 0 1 3 0 1 1 0 0 1 0 2 3 1 0 3 1 3 2 1 0 0 1 0 3 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 2 0 1 0 3 1 0 0 2 1 2 1 1 1 0 2 1 0 0 1 0 0 2 0 1 0 2 0 0 0 0 1 1 0 2 2 0 2 1 1 1 2 0 1 0 1 1 0 1 5 0 0 0 0 3 1 1 0 0 1 0 1 0 0 2 1 0 1 1 0 1 1 0 1 1 0 1 1 2 0 2 0 0 0 0 0 1 0 0 1 0 0 1 2 1 0 1 1 0 0 2 1 0 2 0 2 1 0 1 2 1 0 1 0 1 0 1 1 1 2 0 0 1 1 1 0 0 2 1 1 2 1 0 1 4 0 4 0 1 1 3 1 0 0 0 1 1 0 2 2 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 2 0 2 0 1 2 3 0 1 1 0 0 3 0 0 0 1 0 4 0 2 0 1 3 1 1 0 0 1 0 2 1 1 0 1 2 1 4 2 0 0 2 2 0 1 0 2 0 0 0 0 1 0 2 0 3 3 2 1 1 0 2 1 0 0 0 1 1 0 2 2 1 0 0 0 3 2 2 1 2 0 1 0 1 0 0 1 2 0 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 3 2 1 2 0 3 0 0 2 2 2 0 1 0 1 0 1 0 1 0 1 0 0 2 2 2 1 1 0 1 1 0 0 2 1 0 3 0 1 0 0 3 0 1 0 1 0 0 2 0 2 0 2 1 1 3 0 1 1 0 0 0 0 1 0 2 0 0 0 0 0 3 1 1 1 3 2 3 2 2 3 1 1 3 1 0 2 3 0 1 1 2 0 0 1 1 1 1 0 1 1 1 0 0 0 1 2 3 0 1 0 0 0 1 1 1 1 1 1 0 1 2 0 0 1 3 1 2 1 1 1 0 1 0 0 0 0 2 3 2 1 2 0 3 1 2 0 1 0 1 2 2 4 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 2 1 0 1 3 1 0 0 1 1 0 0 2 1 1 2 1 0 0 1 0 1 2 2 2 1 2 2 0 0 1 1 0 1 0 0 0 0 1 3 0 3 0 2 0 2 1 1 4 1 1 2 1 0 2 2 0 2 2 1 0 0 1 2 0 1 0 0 0 0 0 1 0 0 2 1 2 0 0 1 1 3 1 2 0 1 2 2 0 0 0 0 0 0 2 1 0 1 0 2 0 0 0 1 1 1 3 1 2 1 0 0 0 1 0 1 1 0 0 0 3 1 1 2 1 2 1 3 0 0 1 1 1 0 0 0 1 1 3 1 0 1 1 0 2 1 0 1 0 0 1 1 1 0 0 0 3 0 1 0 1 0 0 1 0 1 1 1 0 0 0 2 2 0 1 1 1 1 0 1 0 1 0 0 1 1 0 2 0 0 1 1 1 0 1 0 1 2 2 0 0 1 1 0 3 2 0 0 1 0 1 0 1 0 0 0 2 3 0 0 0 2 1 2 0 1 1 1 2 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 2 0 3 0 0 0 1 0 0 0 0 2 0 1 1 0 0 1 0 3 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 2 1 2 1 0 1 0 0 2 1 1 1 1 0 0 2 1 1 1 1 1 0 1 2 0 0 0 2 2 1 1 0 0 2 1 1 0 0 0 0 1 1 2 0 1 0 1 1 1 1 1 2 1 3 3 3 0 0 2 2 1 2 2 0 0 2 2 0 2 2 1 1 1 0 1 2 1 0 1 0 1 1 1 2 1 2 1 0 2 1 0 0 0 2 2 0 1 1 1 0 2 2</t>
+    <t>NIG(20.70019901641886, 11.05436373089118, 0.42333606487685177, 28.78737308103758)</t>
+  </si>
+  <si>
+    <t>22 24 7 0 11 6 16 24 16 13 16 19 6 9 16 14 13 37 20 23 6 0 7 27 14 33 17 28 20 40 27 18 33 17 26 12 14 16 10 16 22 27 31 13 14 20 7 21 17 14 9 17 22 26 7 13 24 17 6 24 9 33 14 23 16 24 13 23 23 10 24 0 27 6 14 20 15 28 21 20 19 20 17 31 14 20 28 18 14 10 17 6 24 15 24 34 17 21 12 32 24 21 17 13 38 6 24 20 10 27 3 8 27 16 34 20 28 28 14 16 30 13 24 17 12 24 16 41 14 24 19 7 27 20 29 20 16 22 17 20 14 14 31 17 24 23 24 6 26 28 10 23 27 10 10 20 19 34 31 24 14 13 23 7 12 13 16 30 12 23 28 10 17 17 16 23 13 31 31 24 17 20 24 27 20 13 12 13 16 12 34 13 20 28 13 12 17 23 16 41 21 17 17 6 24 34 30 17 24 18 0 13 30 7 7 16 9 31 7 19 20 16 24 28 20 16 16 28 29 9 24 27 14 17 33 16 23 31 27 30 16 14 23 23 37 20 7 30 19 13 33 17 34 14 3 20 6 31 14 17 14 7 16 31 17 16 7 13 0 20 7 10 14 13 35 27 41 16 31 9 37 6 28 20 16 20 16 16 11 10 16 19 37 13 31 17 27 27 22 38 21 17 14 13 21 22 27 13 16 27 24 20 8 17 23 31 10 10 27 12 13 13 16 20 16 29 14 13 23 34 27 13 10 7 14 17 10 27 10 13 20 9 24 20 10 21 20 13 13 19 30 21 17 22 13 19 10 27 24 9 19 9 21 31 24 10 24 3 24 23 27 20 6 16 33 31 17 36 22 24 17 10 28 2 30 17 18 14 30 23 24 10 13 7 12 20 17 22 17 17 23 16 3 10 3 21 21 16 10 12 14 24 16 7 9 24 16 30 13 20 7 13 7 17 10 20 6 20 22 29 15 10 10 31 10 35 20 13 23 3 23 17 20 10 17 31 24 26 10 20 20 10 27 17 21 21 20 13 10 6 6 17 26 12 24 20 19 21 24 18 23 24 9 14 27 21 24 14 10 7 20 20 14 40 7 26 22 16 25 12 9 28 27 27 17 13 26 11 17 23 27 13 29 9 16 16 9 13 20 6 31 13 37 16 10 34 25 30 23 18 21 20 13 9 20 6 27 24 21 23 17 6 34 28 35 16 16 35 15 19 10 17 7 23 9 20 20 24 22 22 20 27 24 24 6 9 13 13 35 13 24 18 10 24 19 20 12 14 9 20 25 6 7 7 24 27 20 30 17 20 17 24 28 7 21 23 38 10 6 19 13 9 13 16 17 13 28 7 20 27 3 7 20 20 13 13 17 10 13 18 21 24 23 10 26 17 34 28 10 10 13 17 22 20 15 17 17 21 22 23 30 20 16 10 27 6 21 13 10 7 17 10 22 12 7 16 27 30 13 37 14 23 10 32 20 23 14 21 18 10 17 20 26 12 13 34 16 10 17 19 13 20 3 0 13 16 23 22 10 24 6 24 23 24 28 17 18 16 10 17 17 10 31 10 16 20 27 30 30 26 14 24 7 14 28 20 27 17 10 14 16 17 20 13 20 16 17 16 17 13 7 17 20 20 16 6 17 27 26 28 20 27 14 14 17 13 24 35 24 35 27 6 23 10 6 16 19 23 20 17 23 24 23 32 17 24 31 17 6 20 27 28 28 20 10 21 24 29 3 30 6 16 9 17 17 11 20 27 6 9 34 20 13 10 23 23 15 13 27 13 17 13 7 17 6 33 17 16 24 20 16 20 20 17 10 24 9 23 16 20 16 12 13 45 17 14 23 14 7 13 17 23 13 14 38 20 17 9 14 16 10 10 20 20 38 11 21 27 20 17 21 7 27 24 20 20 27 10 28 13 24 14 10 13 17 16 20 7 14 25 10 22 8 26 20 27 20 28 12 20 9 13 9 24 30 0 21 24 20 21 17 18 17 23 27 18 24 27 19 23 9 31 3 38 6 6 21 28 7 13 17 23 7 20 14 10 3 27 28 14 3 20 17 23 13 13 16 13 21 24 27 23 14 16 13 10 27 34 19 9 20 20 34 30 26 17 17 17 17 13 19 13 44 29 16 7 24 29 27 24 16 20 21 10 21 23 21 27 0 20 9 16 17 10 6 6 38 7 26 20 23 13 23 20 16 34 24 15 24 3 31 10 13 21 17 10 17 10 23 21 34 29 10 20 24 19 31 24 17 17 20 20 9 38 13 16 19 14 30 7 12 17 20 13 19 23 14 0 27 20 24 17 26 22 27 20 13 24 16 16 20 24 29 16 20 21 23 13 10 15 9 12 31 15 13 10 16 17 27 10 34 14 23 19 13 17 21 20 13 19 3 23 21 27 24 8 14 31 14 13 17 33 14 27 32 24 23 13 6 28 20 38 17 20 3 17 27 27 24 13 7 12 9 20 13 19 21 16 17 30 14 23 16 17 20 14 28 24 27 27 16 13 33 41 6 15 14 23 14 15 27 24 14 10 14 34 12 13 42 23 30 7 37 34 30 16 13 27 20 17 18 9 13 7 17 15 20 16 17 27 21 13 10 10 21 33 20 16 14 10 20 7 10 14 24 9 20 17 13 7 27 31 3 24 21 31 10 27 17 27 17 19 20 3 9 16 24 24 17 16 9 13 12 13 17 17 17 10 23 21 27 34 20 20 13 14 16 19 28 14 20 34 30 24 21 16 13 20 17 9 13 20 17 10 24 22 16 17 30 10 17 14 31 6 24 30 13 28 8 20 34 34 27 26 28 17 13 14 31 20 27 20 22 19 13 28 17 28 20 3 27 10 23 10 20 17 27 34 17 16 13 34 27 17 11 24 25 3 13 23 9 23 28 17 12 41 16 16 8 13 19 19 27 17 22 24 20 13 24 14 20 6 13 24 30 33 13 10 7 17 17 3 19 17 19 20 17 23 17 23 10 34 13 10 10 7 16 27 14 17 28 16 9 3 9 24 6 16 28 13 10 13 10 16 34 13 7 13 32 23 10 24 18 32 20 21 3 24 17 21 6 10 35 24 17 29 26 24 16 31 16 24 17 26 24 14 19 13 24 13 11 15 31 26 23 3 33 17 16 24 13 13 27 20 13 10 24 28 14 31 21 17 12 16 29 32 3 9 21 24 23 13 3 10 26 26 9 33 10 3 23 17 13 20 14 0 7 23 28 27 26 9 30 13 17 16 19 40 20 16 20 13 14 14 9 13 31 13 20 7 23 17 10 12 20 16 17 3 21 10 18 13 27 17 14 24 10 13 29 23 6 38 7 19 18 0 41 14 14 13 13 6 30 25 6 16 16 10 20 20 13 21 16 10 14 20 9 24 33 3 17 17 10 13 17 13 31 23 29 22 24 8 13 9 20 17 16 7 16 17 10 34 13 10 17 17 27 17 15 13 3 6 10 31 23 7 24 17 17 23 10 19 23 17 13 24 13 21 20 24 24 17 10 10 45 17 6 10 13 14 23 17 27 20 19 16 20 28 13 27 19 31 36 16 3 28 6 23 16 14 21 20 30 6 16 14 17 24 31 23 13 20 30 10 17 14 17 23 31 24 27 26 27 9 10 6 16 10 20 17 17 10 29 9 16 13 10 14 10 27 16 14 13 10 16 20 13 10 17 17 17 27 14 27 10 23 13 13 24 23 10 13 20 31 14 20 12 8 9 20 30 2 22 14 20 9 13 7 19 29 30 14 31 17 28 10 20 28 27 14 28 14 35 21 14 10 13 21 27 31 17 16 30 20 17 16 3 0 6 31 10 7 24 23 10 16 35 17 10 20 10 20 23 7 12 9 24 13 3 14 33 16 17 20 13 6 16 17 20 17 20 20 27 31 24 16 47 24 13 13 20 30 24 11 16 7 17 10 30 16 13 7 30 19 21 20 25 10 14 17 6 23 12 17 15 24 10 13 17 22 10 15 16 31 6 20 10 13 20 17 13 42 20 12 20 27 20 13 10 23 27 10 10 12 25 31 16 7 31 3 29 22 13 20 26 23 31 19 35 24 24 14 26 17 19 17 13 27 20 28 26 18 17 20 41 15 16 24 27 20 14 17 13 19 27 10 31 6 13 23 17 34 21 10 31 20 20 10 16 13 24 21 20 13 10 23 31 20 17 16 14 12 10 15 13 11 26 17 10 41 10 21 3 17 27 20 17 17 27 27 16 17 24 6 24 13 20 10 9 17 24 17 10 26 24 10 17 28 17 10 28 20 16 20 27 34 13 7 33 17 14 10 24 13 10 20 23 17 13 17 17 17 10 17 17 20 20 6 34 10 13 20 21 20 20 24 0 37 20 19 9 24 24 42 10 20 13 20 30 7 30 13 13 16 26 3 24 6 10 17 41 9 17 13 20 17 33 13 20 13 23 10 10 24 6 27 10 17 24 16 35 10 23 20 31 29 35 16 20 13 11 18 17 13 17 9 13 14 24 20 3 13 14 23 34 21 9 23 6 31 10 10 24 3 20 17 19 21 31 20 21 17 14 24 20 20 20 17 24 21 13 10 17 24 23 24 16 13 6 14 12 20 7 24 41 19 15 16 33 17 16 17 13 15 20 16 13 13 27 17 41 35 34 23 13 3 27 13 27 31 10 17 17 22 23 6 3 17 26 16 13 36 23 18 18 17 16 7 17 20 22 17 20 16 34 24 19 27 6 0 17 31 35 26 27 28 14 13 13 14 9 27 27 3 10 24 6 24 13 10 3 23 16 20 13 23 6 20 17 27 26 19 16 24 13 23 12 30 13 13 10 10 23 25 23 16 41 27 20 27 27 27 8 31 20 13 16 17 23 26 10 17 10 21 39 27 17 17 35 17 38 10 24 21 41 22 27 11 15 20 20 27 17 24 17 13 20 27 24 21 24 14 48 20 12 27 13 10 28 17 20 20 10 13 7 17 12 21 20 12 33 13 10 20 32 13 24 16 24 29 14 27 21 24 16 21 16 17 13 27 24 28 12 23 30 32 26 21 23 21 13 10 13 34 34 10 24 24 20 21 16 10 16 17 35 22 36 13 23 24 24 10 31 38 16 24 24 28 9 13 14 27 21 17 7 10 16 12 21 27 9 21 3 20 15 18 13 40 12 14 26 16 20 20 9 11 6 13 27 10 14 23 20 16 19 20 24 13 3 20 27 9 13 24 22 27 14 20 20 34 23 31 9 23 13 20 13 0 0 19 30 23 27 7 28 24 45 17 21 24 16 24 27 16 25 12 0 17 21 10 17 17 19 17 26 31 17 16 10 23 17 30 10 10 6 7 0 16 16 14 13 20 17 10 31 21 24 16 10 12 16 10 10 28 37 13 10 21 13 13 21 16 20 13 10 9 14 19 31 13 34 22 19 6 20 19 24 23 17 16 31 7 24 16 21 28 10 13 13 12 6 7 6 30 10 34 9 18 21 9 13 20 9 12 10 15 20 13 27 17 21 16 6 17 27 28 24 17 27 20 17 9 23 10 10 20 19 20 45 41 16 20 29 26 20 24 35 14 33 13 14 10 11 7 20 20 10 27 23 35 27 20 23 6 24 12 21 6 27 11 23 23 6 18 29 16 16 17 14 20 17 14 24 24 10 11 34 20 18 17 16 16 23 3 7 27 7 17 21 13 9 23 21 37 17 17 10 14 30 35 20 10 34 19 13 9 27 22 27 17 0 24 20 26 13 10 20 9 31 19 31 20 38 14 21 24 23 17 27 17 20 23 7 28 21 20 38 14 17 11 7 27 34 17 9 10 20 10 20 13 31 27 24 22 10 19 6 7 30 19 16 10 28 38 6 20 16 20 34 6 13 9 24 9 20 13 22 34 13 14 29 14 30 46 23 20 31 17 14 22 17 17 20 7 23 17 19 24 10 18 10 10 17 13 3 3 14 19 17 9 27 6 22 23 17 10 3 24 34 20 3 11 6 21 14 14 45 24 24 21 22 28 17 10 10 10 31 17 21 17 24 19 24 16 23 23 20 20 27 31 6 21 10 37 13 3 33 19 24 10 13 6 7 17 17 16 27 10 30 41 19 10 27 16 23 31 16 20 13 15 28 17 27 13 26 19 31 18 16 31 17 23 0 3 16 6 17 9 14 34 24 21 7 12 13 17 13 13 10 20 12 28 22 22 17 10 21 13 3 21 24 13 20 17 16 23 23 16 21 17 21 10 24 7 35 38 20 13 24 20 24 14 16 25 19 17 17 23 3 3 17 16 18 10 20 21 12 0 22 21 16 10 27 34 17 14 20 24 10 24 10 24 13 23 19 17 14 27 21 26 35 17 20 10 3 10 33 13 9 22 10 14 13 14 26 6 17 10 24 10 34 35 27 7 21 10 17 16 30 13 24 31 15 30 23 24 9 14 27 10 17 21 13 35 20 43 20 16 27 20 0 21 20 24 20 17 27 19 27 14 20 31 21 30 14 31 35 0 31 14 37 14 19 27 14 10 14 24 14 21 28 9 23 27 21 13 16 10 28 19 17 14 17 20 7 23 20 14 30 19 10 35 7 7 27 20 20 21 45 14 22 23 14 27 20 23 10 7 35 30 21 20 24 23 35 38 13 28 20 30 34 16 14 21 13 28 10 16 9 6 16 21 13 28 24 20 20 20 10 16 13 12 27 31 10 23 20 27 6 23 17 18 10 13 9 24 3 27 10 21 21 10 7 30 13 23 29 20 17 21 16 17 17 17 18 37 31 22 22 9 22 20 16 10 30 24 27 20 17 17 15 8 31 16 13 31 21 14 26 13 20 23 20 24 16 13 6 14 13 7 13 24 6 6 30 10 19 7 26 12 23 14 17 13 17 7 16 19 14 10 16 24 6 9 18 24 16 13 17 31 10 29 31 10 14 23 17 23 26 24 19 17 30 25 23 21 13 37 17 29 30 27 10 26 13 10 13 17 9 38 17 28 3 14 16 27 23 20 2 21 10 17 37 30 13 26 0 35 24 16 14 10 28 7 17 20 20 13 17 16 20 14 24 7 17 10 33 22 28 27 28 19 20 10 14 27 26 24 38 28 19 16 9 35 16 7 24 16 16 16 20 20 17 31 20 18 17 21 30 17 10 38 10 23 21 13 13 14 20 22 14 21 20 20 9 13 10 23 13 10 13 19 20 24 28 27 20 13 7 19 20 6 19 34 27 21 10 10 19 7 13 20 17 30 22 20 6 22 21 24 12 16 16 7 10 6 34 21 18 24 7 20 27 17 15 24 25 17 17 29 10 35 38 21 23 12 23 20 7 34 31 17 15 26 16 27 17 34 7 35 6 26 15 20 10 21 6 24 20 6 19 15 20 17 13 14 3 14 24 20 13 9 19 13 6 6 10 27 0 21 45 14 24 3 31 41 6 23 6 16 17 42 16 31 17 17 31 10 34 26 12 21 17 9 13 13 23 36 10 17 35 10 23 10 28 30 14 13 25 27 30 14 33 19 17 13 19 12 34 33 17 17 16 34 7 16 17 17 6 14 19 10 10 13 27 16 7 20 17 26 27 24 22 16 31 6 16 23 24 31 13 23 24 28 23 24 20 6 17 12 27 27 31 23 21 38 11 10 27 20 34 23 28 27 42 10 16 6 8 9 20 12 6 17 20 20 17 17 13 0 27 17 9 13 33 14 16 19 20 20 23 23 13 17 24 20 24 31 14 19 16 22 13 23 12 31 30 20 23 30 3 23 10 13 21 20 23 28 20 23 6 20 3 30 11 6 27 19 0 42 13 13 6 18 6 22 9 20 10 12 13 28 13 36 19 6 27 24 29 20 20 34 23 10 17 17 17 17 13 10 16 17 17 3 31 17 13 21 14 21 12 16 17 17 27 36 51 16 13 19 22 17 10 16 13 22 9 19 27 3 20 10 17 20 27 21 33 21 13 19 30 16 13 10 16 14 17 10 13 14 28 24 10 27 14 38 17 23 10 9 17 13 21 19 31 23 10 15 14 28 6 24 17 31 17 10 6 16 17 17 26 15 23 19 20 24 13 21 17 12 16 13 13 22 12 26 24 21 9 21 10 17 12 16 21 31 12 6 20 20 28 42 13 26 34 17 10 17 0 24 24 6 19 26 21 34 16 17 14 31 20 28 21 17 17 20 16 24 10 10 20 23 30 20 17 13 16 34 24 20 14 21 17 24 7 20 17 24 10 16 28 24 10 6 20 28 27 13 16 24 12 21 17 27 14 21 6 14 25 0 31 10 27 30 7 0 17 10 10 17 17 27 20 17 16 14 20 20 21 24 10 16 23 20 16 22 14 13 21 7 14 31 31 24 9 20 13 16 17 13 6 41 10 13 16 10 27 20 14 14 3 38 40 27 12 17 19 14 23 19 35 16 28 24 28 13 21 17 27 22 23 24 24 21 23 20 6 6 23 17 0 15 6 19 20 23 14 21 3 23 26 30 23 13 16 19 6 17 14 24 20 24 6 13 14 9 8 24 27 28 31 6 21 18 10 27 10 35 3 14 3 30 30 10 7 3 17 17 13 26 17 9 13 9 27 40 9 31 21 10 6 14 14 17 33 21 21 9 13 36 26 13 17 14 24 12 13 17 24 21 23 26 7 19 16 10 20 23 21 27 7 20 20 13 3 6 19 27 9 22 19 14 27 6 19 16 32 20 17 20 12 45 6 16 7 34 17 24 49 17 10 17 12 23 14 20 17 27 21 20 13 17 21 34 30 21 17 20 13 24 16 10 17 30 10 24 30 23 6 20 20 13 14 16 27 34 10 27 10 16 20 41 35 23 24 31 31 13 14 30 6 21 20 19 23 14 45 37 20 28 14 27 17 7 20 19 0 7 13 22 18 31 23 34 17 8 22 16 18 3 13 28 20 15 20 24 30 3 9 14 13 13 23 16 20 10 12 21 10 11 12 23 10 20 13 27 23 14 26 13 17 23 17 19 26 14 23 21 31 21 31 21 24 6 36 17 7 19 31 21 16 20 19 6 26 6 12 17 17 24 13 16 6 23 21 16 10 12 20 16 6 26 30 10 13 13 27 6 20 19 28 7 19 12 27 3 24 14 14 24 14 17 15 18 16 16 7 24 10 28 23 14 17 20 31 30 6 17 12 17 14 12 19 17 14 20 27 13 21 27 3 16 34 16 31 20 30 17 6 16 13 7 17 7 6 31 33 10 13 23 12 19 18 23 20 31 12 41 9 38 27 33 29 23 9 22 20 9 13 3 31 9 23 23 18 20 20 31 27 20 31 20 15 20 20 20 28 35 42 20 26 30 10 24 38 6 14 19 16 23 12 26 17 34 13 27 35 14 21 34 23 10 14 17 31 23 13 24 44 17 21 27 24 14 14 12 13 17 20 20 17 21 17 24 26 31 20 20 36 24 13 17 21 17 11 12 3 10 20 14 12 20 24 20 13 19 19 7 18 17 7 14 20 17 20 24 23 19 14 20 12 21 17 17 17 18 20 16 31 24 24 6 21 20 6 23 20 21 17 17 20 14 33 31 10 9 19 23 13 8 20 23 23 17 14 23 22 14 38 16 24 21 16 31 23 9 15 7 7 9 13 13 23 13 7 28 32 19 7 3 17 23 38 24 17 16 7 20 24 16 34 27 20 23 34 27 17 13 21 26 19 28 24 27 21 15 13 16 6 26 27 25 31 15 16 21 20 13 14 15 50 24 14 24 23 17 30 14 13 27 10 34 3 21 34 19 23 17 31 17 23 14 10 7 17 24 13 31 19 27 12 22 19 34 16 13 20 10 27 20 19 21 14 10 20 6 10 22 14 10 10 13 17 24 10 14 13 3 33 9 24 10 24 12 20 30 15 20 23 9 24 27 14 27 31 13 20 20 17 19 18 7 20 17 20 24 27 13 18 24 21 15 13 13 24 0 17 18 24 33 24 13 17 13 3 19 7 6 20 17 15 28 20 26 17 20 27 13 14 27 10 12 20 10 13 28 28 17 20 13 20 28 27 7 14 17 23 14 16 20 24 17 20 17 16 17 15 31 25 14 27 16 17 17 20 17 6 17 3 22 6 21 10 21 28 30 31 14 20 23 3 21 13 26 17 7 17 16 27 10 24 32 34 13 17 24 3 30 10 37 17 27 26 13 26 13 13 23 34 6 17 24 17 33 20 12 19 10 19 24 17 24 23 10 38 20 17 40 32 17 7 35 10 13 24 27 24 24 27 17 17 17 14 41 23 27 15 10 21 20 14 7 17 20 25 10 44 13 20 20 13 16 27 13 16 35 23 13 19 21 12 16 10 22 16 20 19 15 24 27 20 7 13 17 27 10 31 12 7 14 20 21 16 17 14 21 3 9 14 37 17 24 20 17 17 13 19 27 20 14 19 20 31 6 3 21 30 23 27 14 13 19 0 3 16 17 27 34 7 19 14 9 12 24 28 7 17 19 23 27 27 24 24 9 14 7 17 10 19 13 18 23 7 3 14 13 38 22 7 27 10 23 17 10 38 19 17 17 17 17 13 14 10 10 13 9 20 19 9 13 28 10 41 7 20 32 0 27 21 13 17 10 40 23 24 34 23 31 11 6 38 13 6 17 29 17 16 31 34 7 14 24 33 10 16 21 24 22 20 3 20 12 17 20 12 20 27 3 20 2 24 14 15 6 29 22 7 23 12 26 17 13 20 7 21 16 12 18 10 34 12 16 7 27 33 12 10 26 26 26 31 16 16 16 17 24 14 7 13 14 21 10 23 7 19 7 6 20 13 7 24 23 16 28 16 14 28 17 28 10 20 22 30 34 10 31 21 20 16 31 13 10 17 20 21 37 16 10 24 34 21 41 40 37 28 13 24 24 13 19 35 17 37 10 20 35 13 13 10 10 24 13 14 29 17 25 20 20 17 23 31 10 6 13 41 17 20 7 32 18 17 17 17 28 23 7 34 10 16 3 9 21 18 28 14 20 33 20 16 17 11 31 27 22 13 17 31 21 19 21 23 17 13 20 14 14 3 13 9 16 10 20 17 14 29 38 22 26 10 7 10 13 27 37 10 17 21 21 24 20 6 17 14 31 15 19 14 24 6 13 17 16 24 21 27 20 9 30 24 13 13 9 24 22 24 36 31 31 37 17 12 25 25 3 14 26 48 7 28 24 15 7 10 28 10 17 9 20 28 17 13 13 14 34 10 3 10 23 41 27 10 31 13 29 13 34 27 10 17 27 34 13 17 10 20 24 20 9 16 19 30 10 3 21 6 10 21 17 21 7 27 20 22 13 22 7 10 35 13 24 23 20 15 14 17 24 13 24 11 22 14 21 3 10 27 6 17 17 10 14 31 31 17 14 24 20 13 24 11 31 34 12 16 12 25 13 42 7 16 11 10 17 20 17 16 31 17 24 10 31 20 13 27 7 6 19 24 21 16 20 0 13 31 14 13 24 34 34 20 16 24 18 13 0 19 28 38 19 13 14 23 18 6 20 17 22 6 20 21 20 17 21 20 20 3 12 31 22 16 31 15 20 23 34 21 27 12 13 14 6 27 10 24 20 9 13 0 16 20 16 13 13 7 17 16 13 23 9 21 20 20 6 13 27 20 21 27 31 20 11 31 13 20 17 7 17 7 24 14 24 10 21 20 17 27 17 23 24 28 26 29 21 13 34 31 25 13 20 17 6 16 16 23 10 20 7 36 17 20 12 17 3 3 20 20 21 20 21 30 23 24 27 17 13 13 6 14 27 20 20 24 23 27 24 21 0 13 14 3 17 12 13 15 3 9 16 21 17 14 13 22 14 21 13 25 30 10 12 13 21 21 22 22 3 14 13 10 13 27 17 17 17 13 37 7 23 14 17 27 20 24 16 28 24 20 23 21 21 31 33 16 17 27 9 43 10 14 27 17 27 20 35 9 31 15 10 10 23 9 17 27 14 20 7 27 10 17 20 6 17 24 13 24 23 34 3 21 16 14 33 20 6 17 20 13 10 3 12 17 20 10 10 13 16 20 12 13 17 27 13 7 7 14 13 30 33 23 10 14 27 10 11 7 17 13 12 7 20 21 20 23 28 10 41 12 9 17 9 13 20 34 10 20 10 23 20 6 31 21 21 34 27 17 9 10 28 19 21 26 23 20 26 31 12 13 17 20 17 15 17 17 6 20 20 29 27 16 0 14 10 17 24 3 13 27 21 7 27 16 17 13 10 20 17 0 16 6 12 24 22 17 27 10 3 13 38 14 10 20 13 14 12 9 13 27 16 32 17 13 20 43 24 16 10 13 20 21 25 16 20 20 30 17 13 17 20 28 15 24 10 0 10 10 3 20 20 17 24 20 17 48 31 10 12 3 7 24 15 7 24 7 20 27 0 20 24 19 13 23 14 6 14 20 24 24 31 14 10 16 20 24 16 25 31 27 0 20 30 23 20 14 13 16 19 13 13 26 13 13 20 31 17 9 16 7 17 31 24 23 31 34 10 7 27 20 20 20 27 24 21 10 20 10 35 17 14 27 21 3 23 20 17 20 37 17 21 17 20 17 22 34 13 38 14 30 17 22 10 16 17 20 30 6 7 16 10 17 31 24 20 20 18 14 24 10 13 13 24 23 21 18 10 26 20 24 13 26 26 16 12 24 13 16 13 6 27 14 38 23 7 16 24 24 28 24 18 31 20 7 17 10 6 14 16 19 25 9 14 19 12 27 20 20 17 27 13 17 26 10 20 10 13 24 13 10 10 22 20 21 18 18 6 19 21 7 7 8 23 16 20 10 10 24 27 27 30 20 20 10 14 10 15 9 9 31 13 24 17 20 26 23 24 28 26 34 6 17 16 13 3 13 34 23 10 10 10 34 15 7 13 23 37 13 17 9 9 30 24 17 21 19 6 23 41 10 6 10 10 16 20 31 7 10 33 13 14 24 24 9 20 13 20 10 24 27 16 16 42 0 20 18 7 13 16 31 13 27 16 19 13 19 9 20 13 29 10 21 23 24 36 9 16 13 10 17 17 24 26 20 25 24 16 30 35 34 28 19 18 27 23 10 16 38 28 31 31 26 23 12 26 24 23 20 31 24 20 10 23 31 36 17 20 13 17 10 8 7 13 20 17 23 13 30 24 23 7 12 26 3 31 16 20 13 13 31 7 21 14 24 3 24 7 30 31 34 38 13 30 16 26 17 38 11 17 20 23 27 10 20 41 19 14 24 14 17 28 6 20 13 24 21 33 38 10 10 20 14 16 10 7 23 13 17 27 24 17 9 17 19 30 35 23 0 10 14 27 23 20 17 7 13 27 16 17 20 31 17 16 6 28 16 27 10 9 13 13 3 14 16 27 10 21 10 7 23 7 13 24 21 24 30 14 27 21 33 23 27 7 9 12 20 6 13 20 9 24 21 17 16 6 14 15 7 20 21 9 17 24 13 17 6 24 10 10 27 17 41 19 10 16 20 20 21 6 16 31 17 6 23 24 14 27 17 24 37 10 21 20 38 24 20 17 14 27 27 28 19 16 9 30 13 7 10 13 16 19 34 14 30 17 14 13 27 30 27 7 20 29 28 21 24 14 13 13 23 22 17 23 20 23 19 13 17 33 34 17 12 21 8 40 24 3 19 7 16 14 30 13 17 17 38 10 20 27 34 36 20 23 13 21 9 17 10 16 14 14 3 7 20 17 17 15 17 25 24 30 13 23 10 17 21 20 13 12 17 6 13 23 13 23 24 30 16 27 30 17 19 20 17 27 14 16 24 20 17 13 28 16 37 16 20 20 27 14 10 9 10 9 27 27 9 17 33 27 9 27 8 26 38 22 30 20 10 19 14 27 27 14 27 24 37 27 13 19 23 17 23 35 10 20 16 10 10 27 10 30 20 16 17 31 10 0 17 0 23 35 12 35 28 0 16 19 17 26 16 14 12 16 3 17 16 19 21 20 28 19 10 17 20 16 24 6 19 6 14 24 16 18 11 31 13 9 27 21 6 20 24 40 40 16 31 17 31 31 16 17 13 16 22 31 28 10 26 17 27 14 13 15 6 17 10 14 13 3 3 30 14 6 11 14 6 21 20 15 24 17 38 38 24 20 26 10 26 28 7 17 20 16 20 21 17 20 21 10 3 20 21 20 34 28 25 28 9 20 6 31 6 21 0 27 24 16 20 13 16 3 13 14 24 23 34 23 20 23 20 3 22 17 3 24 19 16 13 9 20 14 27 24 7 24 42 16 24 17 16 14 16 19 10 16 24 17 28 24 33 10 13 6 3 21 22 20 30 20 26 37 20 20 20 24 31 15 6 3 28 13 14 15 10 17 23 8 3 23 24 17 17 33 13 10 20 23 24 16 17 15 34 28 23 34 17 3 20 6 24 27 23 3 17 31 24 24 13 27 24 20 15 9 19 31 26 18 23 14 24 16 26 34 17 10 20 10 27 16 25 7 21 23 20 24 20 23 19 17 16 15 24 27 17 6 27 13 20 16 24 20 3 27 23 34 16 12 17 21 20 23 13 10 18 17 20 10 17 19 3 14 7 6 24 19 6 3 18 22 13 37 19 25 13 35 15 16 31 20 48 20 21 23 13 13 10 26 23 13 33 25 16 10 10 28 20 8 20 13 7 24 10 7 19 24 14 7 41 12 17 10 14 30 14 16 10 6 16 14 3 3 13 14 21 20 10 10 21 23 20 34 20 16 24 15 10 16 14 27 20 16 19 18 17 19 19 26 3 14 3 12 13 30 13 23 10 10 0 14 30 34 13 31 21 24 20 20 20 23 23 21 6 20 17 17 23 30 31 14 13 34 19 23 17 17 31 17 17 16 29 21 16 23 20 14 27 17 23 20 13 17 20 0 24 6 13 31 7 21 19 14 23 17 17 19 30 13 27 8 21 14 18 24 17 14 24 14 17 30 10 25 31 26 20 14 9 13 7 6 21 29 16 11 20 24 20 17 13 0 20 10 21 38 0 14 10 30 17 6 14 3 30 17 17 6 13 13 10 27 24 17 17 28 14 17 19 16 14 13 28 19 30 31 10 10 10 24 19 20 20 7 10 10 11 23 34 9 0 14 24 20 13 17 7 13 13 19 27 24 19 13 24 19 35 10 42 0 15 19 27 24 15 17 30 12 21 14 16 14 28 7 16 23 16 20 26 3 19 38 27 31 7 28 13 31 24 27 21 20 17 20 26 9 15 3 14 20 27 17 10 21 20 13 12 30 12 14 3 17 10 13 19 13 17 27 20 11 23 10 13 34 16 10 17 7 9 38 18 3 14 17 21 28 7 18 20 20 16 17 7 20 6 20 13 17 21 23 24 16 20 20 14 16 23 0 0 16 20 13 13 20 20 13 22 13 19 10 7 10 30 23 18 13 17 3 10 15 20 15 34 20 13 13 10 19 10 12 9 17 13 13 28 10 10 21 13 10 28 13 35 13 27 15 7 20 27 23 17 9 20 9 24 20 24 3 6 30 35 13 33 31 17 27 23 19 10 27 28 35 17 13 6 9 21 13 21 34 34 21 14 22 34 21 24 21 30 31 20 22 24 15 42 24 16 20 27 17 24 14 20 6 17 28 24 29 24 20 26 16 24 19 14 10 24 17 12 13 23 20 27 11 17 11 16 10 13 10 27 24 0 24 30 14 14 13 23 28 14 10 24 24 17 26 20 6 34 10 16 13 16 27 17 30 17 24 20 10 15 16 14 11 27 3 10 27 23 29 26 9 9 17 17 10 24 21 9 17 23 23 20 16 23 15 10 0 23 16 5 23 10 23 19 17 18 26 20 15 9 14 24 21 24 27 14 13 13 16 28 20 21 33 27 3 10 21 9 24 17 24 17 14 27 20 24 13 24 13 16 38 17 13 13 6 14 24 14 24 13 0 6 13 20 24 7 13 12 9 17 17 16 17 20 9 27 6 13 32 31 22 10 24 20 23 31 17 27 9 14 10 21 16 19 24 10 14 14 17 38 20 34 16 13 22 14 13 17 40 23 16 13 16 24 17 22 24 8 7 21 14 23 26 9 20 7 21 21 20 19 30 17 13 21 34 14 20 13 22 13 22 17 19 37 27 27 31 27 20 24 14 17 10 10 9 10 20 24 23 9 10 19 20 27 7 31 13 14 18 47 20 20 24 24 27 0 16 24 3 11 20 9 10 21 17 30 38 24 20 27 20 29 6 21 37 10 28 24 24 13 14 23 19 27 27 24 14 20 3 14 19 31 18 21 17 13 26 34 23 20 16 13 24 16 23 16 15 9 10 14 7 24 10 31 19 31 23 10 12 13 17 10 19 9 31 20 13 10 20 16 24 21 6 28 26 23 3 17 16 3 7 23 27 13 24 20 13 28 26 13 10 17 29 7 29 20 24 9 30 24 7 26 13 17 16 6 10 6 13 24 2 38 20 20 38 18 30 26 28 12 26 24 8 24 11 7 19 10 12 20 10 28 38 15 11 20 31 17 16 10 12 10 3 34 30 13 21 21 21 10 24 10 9 34 18 23 10 13 24 34 16 18 37 19 27 20 20 19 23 26 37 0 19 31 21 7 29 20 0 17 10 14 17 13 17 23 23 10 27 38 13 21 24 17 28 23 19 12 20 23 17 10 13 13 10 14 20 26 23 31 13 21 20 16 10 12 33 28 6 34 9 27 16 14 36 13 17 31 6 13 27 18 24 22 31 40 16 27 31 17 14 17 10 23 12 13 14 17 12 20 13 15 35 19 22 13 27 12 11 27 6 10 10 17 13 9 20 30 22 12 35 13 30 23 16 20 13 34 21 17 19 14 10 14 20 10 24 17 13 26 21 7 27 23 15 23 11 6 18 13 38 28 13 10 12 23 16 6 17 7 16 12 17 20 14 3 24 21 26 24 30 21 10 16 14 6 6 30 13 20 17 13 14 10 21 16 20 20 20 28 16 26 24 16 17 26 13 10 20 10 38 7 9 6 20 19 16 13 28 20 21 27 19 17 27 13 24 30 10 6 20 16 20 6 20 17 10 17 16 20 10 0 12 17 9 34 20 21 30 19 20 6 21 34 13 14 23 23 17 3 25 14 10 20 27 13 3 22 24 10 23 16 22 10 17 10 14 13 13 26 28 20 19 6 13 16 17 13 9 34 26 10 34 17 13 24 17 16 6 21 27 31 9 21 7 16 24 0 19 34 13 21 14 24 13 20 23 23 10 20 7 20 34 17 16 28 19 26 23 3 7 17 13 17 17 28 13 11 16 23 34 24 20 13 13 24 9 20 23 20 15 21 31 14 19 12 20 20 24 26 13 16 21 14 10 9 27 17 22 24 0 17 16 13 42 30 16 13 16 24 24 7 9 17 30 14 24 17 27 21 8 20 14 9 3 14 10 20 31 10 16 17 20 14 7 7 10 6 13 20 3 19 12 31 14 10 9 9 14 24 18 13 21 10 13 19 21 17 17 16 21 24 16 20 30 18 13 21 24 27 17 16 7 28 23 24 24 3 18 17 17 17 23 13 37 7 35 27 7 19 24 14 17 20 17 3 28 6 17 13 27 23 24 13 20 3 22 29 23 23 17 17 29 9 12 20 27 20 34 20 16 10 10 20 14 17 10 19 13 22 20 28 31 27 25 23 23 20 20 14 7 13 26 17 23 33 24 21 27 13 30 12 21 7 19 18 23 21 14 20 20 28 31 16 9 16 13 15 24 17 31 13 7 27 17 18 20 16 23 20 17 31 20 9 16 23 14 31 27 17 16 12 24 3 38 13 48 23 16 23 20 17 14 27 16 13 13 24 21 16 9 13 10 33 20 21 8 26 20 19 21 24 17 19 19 16 16 21 27 13 21 0 17 20 20 20 34 10 17 12 19 6 26 15 30 6 34 21 14 16 15 7 31 20 26 0 17 20 28 29 6 15 6 26 24 17 35 14 45 31 17 3 20 7 37 30 7 20 13 19 14 27 18 15 24 25 24 23 28 17 14 17 30 30 35 16 37 22 13 14 13 20 24 13 3 10 23 16 10 20 37 3 10 16 6 16 20 27 14 17 20 13 10 7 17 10 17 17 27 14 22 7 16 16 24 27 6 20 10 13 23 23 13 17 17 22 13 10 14 14 23 6 34 17 10 38 10 30 20 14 3 27 23 9 17 26 10 17 24 7 21 17 13 17 21 14 17 27 33 9 10 24 16 14 20 20 10 13 17 30 24 10 10 12 27 20 21 13 17 20 21 29 32 6 40 23 24 19 17 14 13 27 23 14 26 17 20 27 27 14 20 22 3 3 0 26 17 21 34 27 23 17 17 3 13 14 20 16 7 21 13 42 24 16 27 15 25 20 31 17 24 20 31 13 26 24 10 10 14 21 21 10 23 0 24 24 20 13 9 13 8 10 18 20 31 13 30 13 16 22 19 31 15 7 14 21 41 17 20 31 31 14 45 20 28 10 15 16 10 13 24 23 22 24 14 20 26 16 17 14 30 17 19 35 12 9 28 13 20 27 20 20 23 20 31 22 23 19 23 9 13 17 33 24 11 7 24 31 34 20 10 14 21 20 21 6 21 27 13 24 28 21 21 13 10 21 9 13 17 17 10 24 19 23 31 10 17 21 17 26 24 22 27 27 17 24 10 10 23 14 23 10 31 31 6 23 20 7 21 20 16 7 16 13 24 19 12 13 17 21 13 13 27 9 16 27 21 20 20 13 35 7 6 10 16 24 14 27 10 24 23 14 30 10 17 21 7 41 9 24 19 17 16 17 10 16 21 9 7 30 17 21 14 13 11 43 17 15 26 15 17 6 24 14 24 20 28 17 20 20 20 24 23 17 13 14 20 21 41 17 17 17 20 16 27 27 20 27 10 15 19 24 27 3 7 22 10 26 17 11 28 17 20 9 21 13 24 14 14 33 19 24 13 13 20 7 10 19 24 24 18 17 34 26 16 24 9 27 19 10 6 16 31 27 10 14 16 24 10 24 26 26 20 28 14 35 21 20 17 19 3 26 15 19 17 21 16 27 26 22 15 13 20 20 38 26 21 27 19 19 30 24 22 31 31 27 24 10 24 14 31 16 20 23 20 6 14 23 6 6 13 37 23 23 34 20 10 9 10 27 21 12 10 28 17 24 27 21 20 20 13 24 16 14 31 16 17 7 31 10 27 28 21 17 17 6 23 9 39 28 7 19 28 6 17 22 10 17 20 27 14 20 18 20 27 3 40 20 17 34 7 17 13 17 24 24 24 24 16 2 13 14 13 10 27 16 21 21 16 7 33 16 17 17 16 17 20 24 10 21 13 17 20 6 13 13 17 31 27 28 15 13 23 10 32 20 23 20 21 10 24 24 26 27 31 20 21 20 16 28 14 12 27 10 17 10 7 3 7 20 30 43 7 24 0 17 13 15 14 3 17 27 14 28 15 34 17 6 30 24 7 20 14 27 30 24 23 22 21 14 7 3 20 14 7 10 30 7 23 23 14 24 21 20 17 16 10 14 14 17 10 24 10 27 21 14 17 0 21 10 27 17 28 15 24 13 3 23 6 27 23 13 19 13 28 34 31 31 24 16 12 10 24 19 30 21 13 16 0 12 16 20 12 24 7 16 10 10 24 27 34 26 38 41 19 20 17 24 28 24 26 31 20 23 35 20 12 28 17 19 23 14 13 24 16 31 7 13 20 14 7 17 10 23 20 17 20 12 22 23 20 10 31 28 34 14 0 6 16 6 10 22 17 24 17 10 29 36 19 24 32 7 19 17 15 28 17 13 10 27 20 20 17 13 16 13 21 27 16 13 21 13 20 14 13 23 38 22 13 27 26 13 10 20 27 20 0 16 0 3 24 10 0 19 17 17 17 13 16 17 31 31 31 19 3 30 14 20 21 24 12 16 14 20 29 15 20 7 14 9 18 13 10 17 20 27 14 23 14 16 19 20 19 10 16 31 24 35 6 7 10 13 6 26 52 26 27 10 13 13 16 6 23 13 20 19 40 21 3 16 21 13 10 21 16 16 23 27 3 10 20 6 23 20 16 6 17 34 12 17 17 20 17 20 20 16 13 16 16 7 17 12 14 12 42 17 15 21 20 17 27 21 10 27 12 38 29 13 20 20 7 16 20 13 20 13 19 17 16 20 10 24 28 13 9 17 10 19 10 19 10 22 30 27 10 35 16 24 10 14 31 3 40 19 0 38 20 12 3 16 21 17 10 10 25 17 27 13 23 10 23 3 24 7 16 37 13 0 23 16 31 16 30 23 30 17 23 20 23 13 13 7 13 14 17 20 23 30 9 3 13 23 20 23 17 14 34 16 13 17 23 6 27 23 27 16 13 9 31 0 20 10 3 13 31 17 24 16 9 21 30 26 23 17 10 34 24 14 27 17 24 16 10 20 23 0 31 26 22 3 13 10 10 20 21 20 0 17 13 14 17 21 21 6 12 27 20 13 13 20 27 30 36 24 34 13 0 13 16 10 17 10 16 16 17 41 13 9 16 24 20 13 31 24 20 30 7 20 15 33 20 13 23 21 9 13 26 17 23 17 10 19 6 10 20 26 36 33 20 24 13 9 9 27 14 14 14 31 21 23 47 13 24 19 28 16 16 27 17 6 31 14 9 26 26 13 20 35 31 10 27 29 10 44 16 20 17 25 14 31 13 21 20 7 13 20 10 13 14 17 20 31 10 12 24 31 30 16 23 16 34 20 17 7 6 23 5 21 21 20 21 17 17 14 20 14 10 13 12 20 27 20 20 20 28 34 23 24 16 13 13 31 13 7 13 10 20 6 20 23 17 23 33 27 20 5 6 30 9 20 36 24 34 28 7 19 10 20 18 27 3 17 14 12 25 19 12 3 27 31 9 15 17 17 19 21 15 6 10 16 23 15 31 13 14 20 21 13 17 16 20 16 38 23 20 19 17 17 17 10 7 26 21 31 13 6 7 22 32 31 21 19 13 17 24 3 23 16 20 31 18 12 17 14 17 14 13 28 14 28 13 17 10 16 3 13 19 3 20 20 10 0 7 24 24 16 10 26 21 20 21 17 27 17 13 9 20 14 30 17 27 27 20 13 31 21 14 33 24 9 3 10 24 19 17 30 14 10 9 24 31 7 34 6 13 27 20 0 7 20 21 17 24 22 21 17 24 3 16 27 18 14 17 20 14 17 24 30 27 28 22 28 22 17 13 17 21 20 24 27 24 20 20 19 3 20 10 27 21 27 20 19 13 30 19 26 31 7 10 20 27 11 9 10 10 17 6 20 16 20 7 30 27 9 34 10 9 30 6 14 26 27 6 24 26 21 17 28 24 18 19 6 23 14 3 10 26 3 17 15 10 15 6 30 7 10 10 38 10 10 27 11 0 30 10 17 22 21 17 20 10 14 10 16 34 17 12 20 19 15 21 21 13 12 27 34 20 10 20 13 17 9 19 24 6 13 30 27 23 14 16 40 10 24 16 38 19 23 27 28 19 14 23 23 24 20 16 16 20 24 17 13 16 27 24 11 13 27 10 23 13 17 3 27 20 24 16 10 7 31 17 17 19 20 12 23 16 13 21 17 28 10 14 17 13 16 13 16 20 58 20 6 21 27 21 16 31 21 13 20 38 26 20 29 20 16 16 23 13 23 6 17 16 22 11 31 28 17 31 20 17 13 24 21 13 23 7 20 30 14 10 17 6 25 36 23 9 24 19 23 7 6 22 31 17 16 17 27 17 19 28 20 3 24 6 26 9 38 28 20 20 6 16 27 10 26 14 21 16 31 24 30 41 6 21 10 15 14 17 19 5 14 13 16 17 17 10 10 17 21 23 17 13 10 17 16 21 27 33 16 24 27 21 19 6 3 14 20 7 24 21 20 14 24 13 10 24 12 10 20 13 34 3 20 21 20 25 14 30 3 10 22 27 32 16 30 17 21 14 16 6 10 21 17 19 21 17 20 7 23 7 3 20 11 10 27 20 27 31 7 26 28 30 22 15 17 13 20 9 13 23 34 6 14 16 31 27 17 31 36 13 30 16 12 38 17 24 31 33 27 26 23 23 13 13 31 17 19 13 28 16 26 24 17 26 18 19 16 6 14 14 21 7 15 24 32 14 16 9 17 20 23 14 13 13 13 25 21 19 31 20 19 14 13 31 31 9 20 3 13 13 27 23 23 31 24 22 30 27 20 13 23 18 19 16 27 23 21 28 19 17 20 20 24 41 24 28 24 23 24 16 20 24 34 24 22 29 28 20 13 13 21 31 14 13 20 24 38 13 19 11 12 9 28 29 30 3 26 16 14 16 28 21 38 31 14 14 9 16 27 16 34 14 19 23 24 16 13 38 30 28 19 34 28 10 21 16 27 12 21 24 24 31 38 24 21 16 13 22 24 23 30 6 16 35 19 11 35 21 7 12 24 21 30 24 20 24 9 14 14 37 34 16 13 34 24 0 35 24 27 13 23 10 10 36 10 21 17 10 21 6 24 10 16 13 3 26 6 14 14 16 10 13 28 17 17 16 17 34 21 19 22 28 10 17 17 13 6 17 17 31 9 9 17 9 24 16 21 10 24 20 10 17 13 26 24 24 21 26 30 23 21 0 18 24 17 6 20 14 25 9 18 14 10 15 27 10 16 9 44 34 34 24 17 10 13 16 9 24 3 6 27 10 34 9 0 33</t>
+  </si>
+  <si>
+    <t>EXN(0.47418114197690303, 18.34108231349378, 3.792020029274722)</t>
+  </si>
+  <si>
+    <t>22 22 14 18 10 13 19 13 22 23 17 25 17 17 18 19 24 18 20 17 20 14 18 18 18 28 18 25 19 21 20 13 25 27 26 21 17 22 20 19 22 19 17 15 12 26 13 21 26 18 24 15 22 19 12 28 20 21 14 20 12 27 20 17 18 22 21 23 21 17 12 15 25 15 16 26 26 27 19 21 19 18 21 24 18 24 23 17 25 18 19 17 14 19 28 21 18 18 15 31 24 22 20 25 24 14 21 16 19 28 16 13 18 14 20 23 21 17 18 25 18 19 18 24 20 21 18 28 22 17 20 15 17 23 23 21 15 18 20 18 18 21 31 16 17 17 28 20 23 23 19 18 23 10 18 14 24 26 27 18 20 15 27 12 11 21 10 11 27 21 22 17 13 19 18 23 19 20 20 29 23 17 24 25 20 21 24 21 21 25 25 15 26 22 20 24 26 20 20 24 20 21 18 13 22 27 22 22 23 20 15 22 26 20 17 19 10 28 20 24 23 19 21 29 24 15 22 25 21 17 15 24 20 22 16 20 19 19 23 26 19 15 23 24 24 14 11 23 17 15 31 18 27 16 13 17 13 20 24 25 22 20 16 20 16 18 24 22 14 20 27 22 25 15 26 26 28 16 22 16 19 16 17 15 18 19 13 15 17 18 24 16 27 21 20 20 28 24 30 27 21 20 15 22 18 19 31 22 20 16 20 21 21 21 14 20 14 19 19 18 17 20 20 17 12 16 19 17 23 26 27 17 21 12 19 22 23 20 21 16 19 15 22 18 17 14 23 11 14 17 27 20 20 28 19 21 23 32 20 22 17 18 18 22 21 24 19 22 21 23 23 20 19 16 22 22 21 17 16 17 18 19 27 16 23 18 25 25 22 24 18 19 19 16 19 21 25 23 21 20 21 16 10 16 16 18 20 23 23 16 17 21 20 15 21 19 15 24 16 20 20 17 16 18 18 24 18 23 15 15 20 13 17 20 17 23 26 17 24 22 21 23 19 19 24 21 21 19 18 12 15 12 16 14 22 22 15 15 20 14 22 19 17 21 29 21 23 22 25 19 20 24 20 21 20 21 18 20 13 14 20 20 17 17 17 22 24 17 23 15 14 19 21 20 25 13 18 23 24 14 21 19 23 26 18 21 17 22 20 18 26 17 29 23 17 24 20 22 14 18 16 23 15 21 23 10 23 17 20 21 25 14 28 23 31 17 12 19 24 17 19 18 16 25 22 20 25 22 18 25 21 19 16 18 20 21 21 19 27 16 15 28 19 20 22 19 21 21 16 25 23 15 21 28 22 20 25 15 25 20 13 25 23 18 22 22 19 17 12 20 23 19 23 19 18 17 14 11 19 29 22 21 24 28 22 17 17 17 25 21 17 19 22 25 19 21 22 22 20 17 15 15 22 17 27 23 18 23 24 25 22 21 15 18 31 24 19 20 20 18 20 14 25 24 14 17 19 27 14 24 22 27 18 28 26 21 13 17 27 17 23 16 18 17 17 23 24 27 19 12 19 20 22 18 17 16 24 19 18 27 18 20 20 25 19 16 22 24 16 8 15 21 20 14 19 15 24 18 25 19 28 21 21 21 22 19 19 22 16 24 22 16 20 22 20 18 24 20 21 23 24 22 19 27 21 16 24 20 17 20 14 21 23 17 17 18 15 26 17 31 14 18 17 13 15 27 15 30 25 19 33 16 25 20 21 31 25 10 14 18 27 17 23 22 15 27 24 26 9 22 18 17 19 20 17 21 19 25 14 16 22 21 17 15 14 19 17 24 23 22 19 22 12 18 18 27 19 17 19 19 18 24 19 21 18 18 27 20 15 18 17 23 16 27 16 19 26 17 11 19 18 17 24 21 23 19 18 19 22 11 22 15 20 17 24 21 26 27 20 12 20 11 18 19 18 24 21 21 16 17 17 17 16 18 16 24 17 18 20 23 17 15 23 19 25 24 27 22 20 23 21 16 12 21 22 12 17 15 23 23 18 20 23 16 18 16 20 21 23 25 21 24 13 25 22 25 20 15 19 14 20 28 20 20 21 21 9 20 22 19 17 22 18 14 21 29 19 21 24 21 17 14 18 20 17 25 18 25 24 19 15 20 36 17 25 22 18 18 20 17 14 17 28 28 19 14 24 27 18 24 19 28 11 18 22 22 23 16 14 19 14 20 17 14 22 18 32 19 26 18 18 20 16 16 23 22 21 19 21 20 23 18 15 16 23 14 22 18 20 17 26 21 15 22 17 15 20 25 18 17 22 23 25 26 19 18 20 21 19 22 24 12 20 15 29 18 16 19 17 20 21 22 24 27 23 19 19 20 17 23 22 21 27 25 18 22 18 22 18 30 15 20 27 21 11 14 12 23 20 16 28 20 15 25 22 20 17 16 19 20 18 16 19 26 19 19 26 22 17 18 20 23 18 16 25 21 22 18 18 19 19 22 15 26 13 19 18 20 17 29 17 23 23 16 26 18 26 14 13 24 20 23 13 18 20 13 20 18 24 23 19 16 18 23 11 24 20 23 24 17 20 22 22 18 16 24 22 19 24 19 24 11 22 24 28 17 23 22 21 18 15 27 17 15 21 26 22 23 17 26 19 27 14 22 14 20 18 19 17 22 21 16 17 18 18 19 16 17 19 18 20 22 10 20 20 25 20 27 21 23 12 21 19 13 18 16 23 20 18 21 15 23 18 19 19 26 21 13 24 16 20 24 17 26 17 17 15 15 20 21 21 28 24 19 16 28 22 21 19 23 16 21 12 13 26 22 21 22 23 19 15 20 28 22 26 20 18 19 22 16 21 19 20 20 24 18 19 22 29 17 24 19 18 23 19 17 20 20 21 19 19 16 22 24 22 18 24 29 18 19 20 34 18 18 12 20 18 16 19 28 20 15 21 15 18 16 13 13 13 22 19 21 20 23 21 28 19 20 24 12 20 16 18 20 19 25 16 24 20 18 14 20 19 26 25 23 20 17 18 21 16 19 20 14 21 15 18 16 15 13 26 25 25 14 25 25 22 18 21 18 16 24 19 18 19 24 19 17 22 20 20 15 23 26 21 23 18 19 17 17 20 14 33 25 27 24 22 24 23 18 11 24 21 18 16 15 18 15 17 26 28 23 22 24 20 20 28 25 14 16 23 22 21 19 29 23 21 25 26 20 22 22 23 28 24 15 17 23 18 19 23 25 23 24 27 25 22 19 18 13 16 23 21 18 22 19 16 24 21 16 24 16 21 20 18 26 19 32 17 20 24 15 13 15 23 21 24 14 19 18 16 20 20 13 20 26 23 25 23 16 18 16 27 23 12 19 22 17 19 25 16 22 18 22 25 21 25 19 16 22 18 14 22 24 15 18 20 16 23 22 20 23 18 12 24 16 20 23 25 21 22 17 18 23 21 17 29 22 24 18 22 19 23 19 20 20 21 22 19 24 13 24 15 17 23 17 21 20 17 18 12 16 18 25 21 24 23 15 18 25 20 25 28 16 21 20 13 17 16 20 20 12 18 22 32 17 17 13 18 22 19 18 20 32 20 23 18 24 17 25 17 24 13 18 20 18 22 18 26 18 22 22 23 16 19 20 18 20 24 22 17 27 24 24 22 15 14 26 19 22 27 17 23 19 22 18 14 19 24 18 19 17 23 18 19 25 24 23 17 25 19 14 23 18 16 17 18 14 16 21 17 15 12 21 25 22 22 16 18 26 18 12 16 25 20 24 17 18 17 18 24 18 20 19 19 24 21 21 27 22 26 21 27 21 22 25 21 19 26 19 28 21 26 15 24 20 17 21 24 32 18 21 24 22 19 24 14 15 19 25 18 18 18 17 16 24 28 22 21 19 11 13 25 24 21 27 20 17 8 10 19 17 26 20 20 18 15 19 19 21 14 16 17 23 22 19 26 18 18 21 22 19 31 21 15 18 21 18 38 18 19 18 27 17 21 19 23 20 17 14 26 23 14 18 23 19 13 21 21 21 16 16 18 27 20 23 15 17 20 18 24 29 21 16 21 23 21 18 13 16 21 16 16 17 14 31 17 23 23 20 19 16 24 19 20 16 18 19 26 20 18 15 33 19 20 15 15 25 21 23 30 17 16 24 24 17 20 24 17 16 20 21 19 18 23 18 22 22 19 18 21 18 16 11 22 28 19 20 19 21 22 14 18 21 21 21 30 20 24 16 14 18 11 29 19 21 25 19 20 31 17 21 14 21 11 24 18 22 24 16 20 19 21 12 21 18 22 21 11 28 20 21 22 20 16 24 23 22 13 21 25 16 27 14 22 24 20 25 29 17 17 20 16 14 20 17 19 15 25 25 16 24 14 17 21 23 16 20 17 21 27 16 21 16 22 20 25 24 21 25 24 22 18 26 15 18 17 18 16 16 20 18 16 18 22 15 28 16 20 24 32 23 22 17 17 24 24 20 23 19 24 23 21 21 26 21 22 18 18 22 29 20 27 26 26 25 26 18 19 19 21 19 23 25 29 20 18 20 28 21 19 22 18 25 19 27 16 22 11 24 15 17 26 18 21 27 23 27 26 20 21 20 22 14 21 18 27 19 22 28 22 21 20 24 20 21 27 17 22 20 23 19 11 17 21 17 21 16 20 20 16 21 20 15 15 22 22 19 19 15 24 22 27 18 20 17 18 22 20 29 11 20 24 20 18 19 16 17 21 27 22 22 23 22 17 20 17 19 14 21 20 19 21 22 22 27 19 25 18 13 18 26 24 23 18 21 15 19 21 20 15 19 18 15 19 26 14 24 18 18 18 14 21 24 20 24 13 20 23 26 19 16 19 19 23 21 20 33 12 17 18 19 20 14 25 21 29 21 22 25 27 27 16 21 23 18 22 16 19 17 15 16 14 20 29 21 25 20 34 24 23 15 26 19 25 17 21 23 20 22 14 18 24 15 17 15 14 23 23 21 23 18 21 19 24 19 26 14 26 26 17 16 23 16 22 21 18 17 20 19 26 20 22 18 16 14 29 19 21 17 19 24 26 22 18 19 21 21 22 16 14 24 22 20 28 26 24 20 18 16 12 19 20 24 20 15 16 23 12 26 15 19 19 20 20 23 23 18 20 23 17 18 19 29 19 19 20 22 16 14 14 26 18 20 13 18 21 22 27 15 16 18 19 26 16 15 9 21 20 15 19 22 22 26 15 13 13 13 25 13 15 20 26 18 19 22 22 22 17 21 21 23 18 22 21 26 18 20 18 22 18 27 18 24 17 20 16 17 16 21 28 15 19 18 18 24 27 27 18 16 21 14 14 17 24 20 14 22 30 17 16 18 18 17 26 22 23 23 12 26 14 30 18 21 21 20 21 16 15 14 24 16 25 19 25 18 23 14 17 13 23 25 14 29 28 22 15 26 17 19 25 15 17 25 20 14 18 13 26 16 30 21 24 15 17 19 23 25 20 24 21 17 25 20 18 23 13 20 19 22 13 17 15 18 17 15 19 22 23 16 19 22 17 18 21 20 22 25 20 24 12 17 12 31 20 24 21 22 22 18 16 15 16 20 19 17 20 24 25 22 20 21 22 27 20 21 23 20 28 15 22 21 17 16 18 17 18 24 17 23 22 14 18 14 19 17 19 26 27 21 20 23 18 16 21 30 19 17 18 16 11 19 25 14 11 28 24 23 23 18 16 24 21 20 22 27 14 17 19 20 16 25 13 27 24 24 16 21 22 25 22 19 23 22 13 20 22 23 21 28 20 17 16 26 19 18 19 19 24 28 18 21 23 17 15 24 24 19 21 18 22 28 25 24 18 23 26 28 30 21 11 27 22 21 19 21 17 12 17 17 20 19 18 21 19 25 17 21 17 18 15 16 26 23 12 19 14 18 25 16 12 17 20 23 21 18 15 29 25 19 22 19 20 24 17 20 26 18 12 29 16 18 18 18 23 15 21 16 19 18 21 19 16 12 17 18 21 16 17 14 25 17 18 22 25 23 24 16 19 17 19 23 24 18 15 22 26 23 18 19 24 21 19 28 24 23 25 19 16 26 23 21 20 20 26 21 18 23 31 22 11 19 20 23 14 17 24 19 25 13 26 18 21 21 15 21 26 15 23 30 19 16 19 16 23 23 17 19 22 22 25 13 27 17 22 26 22 17 16 21 25 22 13 18 13 15 14 17 23 18 27 21 18 15 19 18 24 23 18 13 22 21 26 17 20 26 15 19 18 23 20 20 19 24 14 24 20 19 23 21 21 14 24 25 19 15 18 18 27 17 21 20 15 14 25 21 20 11 13 11 19 25 17 22 13 27 17 14 15 23 20 16 24 24 16 21 19 24 20 25 17 23 17 19 20 23 18 14 16 18 26 16 18 17 20 10 25 25 15 15 22 13 22 22 18 14 22 18 21 17 20 30 21 19 26 13 23 17 17 17 18 16 19 20 25 20 18 17 20 13 21 26 18 28 18 22 24 23 19 17 22 20 16 20 22 15 20 29 16 20 15 28 20 20 21 22 18 16 27 29 27 13 24 33 17 8 18 19 16 18 17 14 16 19 28 24 20 13 14 22 15 16 29 18 12 27 22 20 25 16 15 30 16 12 25 29 20 15 29 22 12 24 17 23 18 28 21 19 20 30 23 23 19 18 27 27 18 16 33 17 22 21 21 18 15 22 21 23 18 15 19 11 16 25 21 19 19 17 13 20 24 21 22 29 14 22 14 21 22 15 14 20 14 23 15 19 9 16 20 19 20 12 24 18 18 17 19 17 21 20 22 19 16 24 18 36 21 23 15 16 24 19 16 9 21 24 20 18 15 21 25 4 25 22 25 18 21 19 25 18 20 17 19 14 18 27 17 21 24 16 14 18 6 24 28 12 22 18 18 15 23 17 18 20 23 19 18 17 20 17 13 19 12 24 20 13 20 20 25 24 19 24 25 16 28 19 17 16 25 21 21 27 27 24 23 21 17 27 24 22 17 17 25 17 18 21 17 21 18 21 17 26 20 13 18 18 24 25 12 21 18 15 25 25 21 24 11 27 24 16 26 23 26 17 18 22 20 20 14 13 26 13 22 18 17 16 26 16 16 28 26 14 19 26 20 23 25 15 20 20 21 18 15 28 17 16 23 15 19 17 24 13 18 23 25 22 24 22 26 19 14 24 17 24 21 11 14 21 24 18 17 14 17 17 17 17 18 23 14 17 20 16 20 18 16 29 21 19 11 27 21 26 26 22 17 17 22 12 29 31 19 20 22 22 19 21 16 21 22 26 21 14 22 16 16 16 23 18 22 24 17 21 22 27 31 17 24 13 19 20 14 29 34 18 20 20 20 18 18 25 22 26 18 24 20 21 23 26 16 19 23 28 23 23 18 20 15 23 19 17 16 16 16 15 26 17 16 16 23 19 22 18 13 18 17 13 18 22 15 19 24 23 26 20 27 31 15 19 21 17 16 28 28 22 18 18 25 15 22 25 18 18 17 18 19 16 14 33 10 22 30 14 21 16 22 18 18 14 16 19 25 18 30 19 24 23 18 26 26 26 15 19 18 28 22 11 19 14 18 25 20 25 20 15 20 20 17 22 22 19 18 22 22 16 24 15 29 28 20 14 18 25 21 23 19 23 18 15 19 21 26 24 24 21 23 23 14 21 19 19 22 27 24 26 25 17 17 20 18 16 15 21 17 21 20 22 24 19 24 15 23 25 24 28 17 18 20 23 19 27 19 28 27 23 26 21 20 17 24 22 21 16 18 18 21 34 21 25 24 20 13 21 13 19 26 20 23 22 20 19 16 16 12 23 24 17 28 21 21 29 18 19 15 15 17 27 18 19 18 17 20 22 15 28 26 19 25 20 23 14 28 27 20 25 25 18 20 14 24 18 14 20 22 13 30 25 18 21 24 21 18 21 15 22 21 24 29 12 20 23 17 17 15 16 22 28 24 21 20 20 18 22 20 29 22 21 18 19 22 22 22 25 25 22 19 14 20 16 20 24 22 20 13 24 15 27 15 17 17 17 19 16 25 16 23 25 18 19 22 22 21 25 24 22 13 20 22 20 26 13 20 20 19 24 18 16 21 21 17 21 16 10 26 28 19 30 26 20 15 26 17 17 24 24 25 21 18 22 22 15 20 22 18 17 26 22 15 19 15 27 21 20 19 24 17 25 17 15 19 27 19 27 26 14 22 14 23 30 18 21 20 21 23 19 19 17 21 28 21 17 22 14 21 21 11 20 15 16 22 19 21 23 25 20 14 26 24 17 22 19 22 16 20 18 15 17 18 16 26 13 14 17 15 20 16 24 26 17 21 15 20 18 24 15 17 20 23 18 15 24 18 20 18 27 20 18 25 19 25 17 23 28 18 24 19 19 16 22 28 26 18 25 24 19 14 18 21 20 22 25 17 26 19 15 21 21 19 26 23 19 22 19 37 17 25 24 26 18 20 19 22 23 27 17 17 21 21 15 20 25 16 19 22 19 28 23 20 22 20 21 19 25 26 10 16 19 27 21 18 25 24 17 16 15 16 14 21 19 21 18 18 11 17 16 14 20 15 32 19 16 9 25 22 22 19 19 21 19 25 25 14 21 20 20 21 25 15 24 22 15 17 15 17 15 24 20 23 17 21 23 23 24 22 23 22 23 17 16 28 18 18 23 17 18 24 21 24 24 13 27 15 22 18 22 26 22 18 19 13 17 20 21 20 21 19 19 28 17 32 16 22 31 14 20 8 28 18 19 25 14 12 23 22 26 20 13 19 25 26 19 17 16 21 30 22 21 16 15 16 19 21 18 17 27 16 24 29 23 16 20 21 24 18 12 26 22 18 19 16 18 19 24 26 27 25 20 20 22 22 28 22 21 15 17 17 20 26 25 19 26 17 20 19 16 21 18 26 15 25 19 18 32 21 29 17 26 24 12 20 13 12 27 17 25 17 20 25 25 17 18 21 25 17 27 21 15 26 19 17 22 26 29 23 21 19 29 19 25 25 20 18 23 21 24 22 24 24 17 25 18 30 17 23 15 28 14 14 21 29 20 22 16 16 14 30 17 17 21 24 20 21 13 23 17 23 26 15 24 20 18 12 26 23 12 24 18 27 16 21 20 18 16 23 21 25 11 15 14 19 27 20 17 21 20 23 15 19 21 23 30 27 21 19 21 29 27 13 21 19 17 10 20 24 14 23 12 25 14 22 21 18 23 29 19 20 18 22 26 14 13 20 19 29 22 19 25 21 17 24 19 21 24 20 14 21 20 23 22 20 25 25 22 24 16 23 19 22 23 10 25 29 19 21 22 16 26 21 25 25 23 26 21 12 22 20 15 17 26 29 19 19 26 15 22 29 17 24 20 14 27 25 26 15 21 24 28 22 23 18 23 23 18 16 17 22 18 24 21 27 18 20 18 16 19 22 18 23 19 24 22 18 23 17 21 19 16 17 20 24 17 21 21 19 27 12 20 24 15 21 19 27 25 23 21 17 19 21 25 14 14 20 17 17 13 16 17 17 19 23 25 19 20 16 14 24 19 16 23 18 22 18 19 18 24 23 22 20 15 27 21 19 18 25 19 15 16 18 17 15 20 17 16 24 23 16 22 20 17 24 15 18 17 26 23 24 14 20 28 20 24 13 17 19 23 16 17 28 21 21 20 22 28 30 18 21 19 14 19 14 23 27 16 22 24 25 20 23 18 12 23 20 23 16 22 21 19 19 22 19 25 16 15 25 25 20 22 18 28 22 16 29 21 29 20 22 20 32 17 22 24 25 27 17 21 25 22 22 14 20 19 16 21 22 16 22 26 21 19 25 22 16 19 24 23 20 16 28 22 27 25 17 22 19 14 25 19 17 20 19 22 18 19 23 26 15 26 15 17 23 17 19 15 27 29 12 24 20 22 16 24 23 20 16 20 24 20 17 21 19 18 25 15 19 21 23 26 20 20 27 19 17 21 19 23 22 12 24 24 19 23 24 21 18 16 13 25 21 23 23 21 23 20 13 17 18 26 19 14 13 32 16 16 17 20 15 24 20 21 25 23 24 24 19 18 24 20 21 12 22 22 22 19 23 19 11 18 18 19 25 17 25 24 16 14 21 19 12 17 20 22 12 20 17 19 30 22 18 21 26 24 17 20 13 18 12 21 17 20 21 23 26 30 27 22 15 19 15 25 16 33 18 19 26 21 19 29 15 20 24 22 27 23 13 20 20 15 20 17 18 13 21 20 20 15 19 15 21 27 22 20 17 29 17 17 21 21 21 18 22 24 23 18 22 13 18 18 13 24 15 22 15 16 21 13 23 14 22 19 27 20 17 18 23 20 17 34 18 22 20 22 19 14 15 21 18 28 20 16 18 24 18 17 21 18 28 27 22 15 19 15 19 14 17 23 20 18 14 23 21 23 12 24 21 20 22 17 26 21 19 27 23 18 24 16 12 21 26 17 19 12 16 31 9 21 17 19 25 25 12 19 15 19 17 17 21 22 14 21 20 20 18 17 24 25 18 17 14 14 22 18 22 26 18 22 18 18 16 18 20 22 15 17 17 30 28 24 22 21 17 20 12 21 14 17 19 15 19 18 21 19 19 22 27 13 19 20 18 17 29 19 20 24 25 26 23 23 18 26 18 20 20 24 22 19 24 24 23 21 22 19 16 18 25 17 18 22 19 16 26 9 22 19 17 25 22 17 18 16 20 16 23 17 25 12 24 21 18 16 14 22 22 17 26 17 23 17 22 27 17 18 11 21 19 19 25 19 22 12 20 23 25 21 20 15 16 15 22 17 21 20 20 21 23 20 18 12 24 20 21 17 24 18 23 17 14 24 16 18 19 19 23 18 18 28 17 24 19 21 23 19 20 21 18 22 20 24 24 13 26 24 21 22 28 30 27 16 24 21 22 21 22 26 19 26 21 22 14 15 23 15 13 19 16 27 21 22 32 16 16 19 29 22 20 23 21 16 19 20 26 28 13 25 22 24 15 22 22 16 15 16 19 14 17 21 12 25 28 20 18 22 10 26 20 27 23 20 27 17 23 22 12 20 20 24 9 20 19 19 14 19 21 19 24 17 25 21 22 16 15 15 30 13 22 29 17 22 25 19 21 23 23 19 17 20 15 25 18 23 23 26 16 20 16 22 20 19 18 31 19 17 23 21 21 21 19 27 21 22 19 20 14 22 21 14 17 18 24 15 19 23 18 20 22 33 20 22 28 18 22 16 18 8 12 15 18 13 16 19 25 18 19 18 18 23 17 18 20 26 20 19 22 22 19 21 11 18 24 15 21 22 29 23 10 23 15 11 14 17 19 18 26 18 22 17 22 22 18 22 15 20 20 17 15 14 16 20 15 17 15 16 16 25 14 19 24 18 22 20 19 13 27 20 17 20 15 20 23 22 25 27 23 18 19 20 23 14 32 17 20 24 15 20 18 18 17 28 16 18 21 26 17 18 23 18 16 24 18 28 14 28 19 26 23 11 20 20 24 26 18 26 21 18 12 22 22 21 24 24 23 16 24 21 21 18 20 29 15 22 18 18 17 18 20 18 18 21 24 23 17 18 15 23 24 27 27 30 11 15 12 19 26 12 24 17 18 19 22 17 18 16 16 17 23 11 16 14 21 18 21 23 24 13 17 27 20 18 21 20 25 16 25 24 18 15 21 11 17 23 13 22 22 18 19 23 17 24 23 28 25 20 22 17 18 18 29 30 18 25 24 23 14 22 26 22 17 18 26 20 18 16 12 19 21 21 21 21 18 27 21 26 26 31 17 24 17 18 28 17 14 16 20 20 20 23 24 22 18 24 17 15 24 19 19 18 12 22 27 28 17 21 25 19 18 14 14 22 19 16 21 17 14 20 17 13 19 17 19 18 24 19 16 13 17 20 14 17 24 16 21 19 25 21 16 20 22 22 16 20 19 25 16 13 27 11 24 20 17 19 17 20 18 24 15 29 18 27 20 23 18 17 26 15 17 19 24 17 23 19 21 24 25 14 25 24 21 23 23 21 15 21 15 22 22 15 23 21 15 15 24 27 18 20 18 27 15 24 19 16 17 19 15 22 19 14 14 22 17 11 16 21 13 17 17 26 27 17 18 21 23 22 19 18 10 21 20 21 25 22 18 22 19 18 18 14 19 18 17 25 23 22 26 25 19 14 17 19 20 27 25 19 20 25 21 25 18 25 19 14 17 23 23 18 19 27 25 27 16 16 14 19 12 19 15 16 15 19 20 19 22 27 24 15 14 19 11 20 20 20 19 16 17 24 16 14 15 26 24 14 14 17 19 17 24 22 24 16 29 20 19 22 22 28 15 19 18 19 31 28 17 17 15 23 23 19 19 26 29 12 23 18 15 24 17 22 20 17 19 23 24 22 29 24 19 13 17 24 19 21 16 24 11 24 17 14 22 23 20 18 23 16 21 20 16 22 21 21 16 20 20 24 20 17 27 21 22 13 21 20 22 15 21 20 16 14 24 24 22 21 16 26 30 23 19 21 19 17 28 17 19 26 22 13 22 14 28 17 16 18 24 23 19 15 23 24 16 18 25 24 16 21 19 14 19 23 18 14 20 21 20 23 30 16 22 23 17 21 30 19 20 14 21 26 17 14 15 20 12 20 25 20 26 32 18 25 16 16 20 21 22 21 17 25 18 15 22 20 16 22 18 21 21 25 19 21 19 22 17 27 13 23 19 20 13 25 21 23 30 17 24 24 15 20 19 17 21 22 19 20 19 18 18 19 22 19 21 15 15 18 17 25 23 17 21 20 19 22 22 25 22 12 18 25 18 21 12 17 18 25 17 23 16 20 17 21 25 22 19 20 20 13 18 16 18 18 20 22 18 17 19 25 29 23 23 19 29 22 22 20 19 16 15 30 22 20 27 14 27 22 13 16 21 27 18 21 17 15 20 20 13 20 15 18 21 27 19 11 24 20 21 26 23 13 26 26 10 20 22 22 23 19 16 17 13 27 26 16 21 21 9 17 22 16 24 17 15 19 24 16 19 17 16 19 21 18 23 17 25 15 22 18 25 18 21 13 21 21 20 20 23 17 23 13 24 24 28 24 19 16 13 14 20 23 24 25 23 26 18 21 20 19 18 22 25 25 19 22 28 19 21 22 14 20 16 19 20 16 17 17 20 20 22 20 22 18 23 16 19 24 15 26 22 28 10 16 24 16 21 20 14 14 16 18 24 21 20 24 18 26 19 22 25 21 19 20 15 16 20 19 27 14 15 18 26 18 26 25 21 18 18 22 17 21 24 20 20 16 23 25 19 11 21 20 18 21 18 23 18 26 22 30 20 19 17 18 19 20 21 17 20 15 17 21 20 14 28 21 17 26 21 24 20 22 20 9 23 21 18 20 15 22 16 21 28 20 20 17 17 26 20 20 19 17 23 23 23 26 22 18 21 17 17 16 16 27 11 18 22 18 14 19 20 25 21 19 13 22 18 31 19 25 19 26 18 20 22 25 24 16 17 16 20 16 21 18 15 21 17 20 19 28 19 16 15 23 21 15 21 25 27 16 22 20 22 19 23 23 20 21 14 21 15 14 18 16 23 17 20 21 17 23 23 18 24 24 22 20 16 26 21 26 21 20 14 15 28 19 17 22 21 29 21 19 21 28 18 23 22 19 20 31 20 23 21 23 16 23 31 17 9 31 28 17 15 22 30 27 21 12 19 22 21 19 14 26 19 16 22 14 24 16 18 16 14 18 14 25 22 27 21 16 22 25 21 21 18 24 17 20 17 16 19 21 19 20 22 19 19 19 19 27 18 26 24 16 19 18 26 21 17 18 22 20 25 22 17 25 15 19 27 30 18 18 21 31 14 18 23 20 31 24 18 23 12 15 20 20 19 20 16 12 26 21 15 20 21 23 20 19 18 27 17 17 13 21 21 21 23 21 25 22 14 12 21 14 17 25 19 26 25 26 24 23 24 21 19 16 20 27 17 15 24 25 23 16 18 20 22 13 20 19 21 13 21 25 16 20 20 24 18 24 23 23 29 19 14 20 23 25 21 18 23 26 31 27 25 17 13 18 23 19 21 23 27 23 20 21 13 20 20 26 22 19 14 21 23 24 21 19 28 21 15 20 19 25 21 20 24 24 22 18 28 15 20 17 17 12 24 16 22 19 17 23 23 18 21 21 24 21 19 21 24 18 18 26 26 19 14 21 12 20 25 18 27 19 19 11 19 29 22 21 20 17 17 24 23 18 21 21 15 17 27 20 18 22 23 18 21 14 16 17 24 19 22 30 20 21 19 19 13 24 28 18 23 20 24 19 17 15 16 17 24 19 16 24 20 21 22 23 17 23 18 17 13 18 20 16 21 19 11 20 19 23 20 20 18 22 15 19 19 17 30 19 19 19 15 21 18 19 30 23 24 21 23 17 21 26 22 15 20 22 21 16 19 24 28 15 22 26 19 20 21 18 16 18 18 28 17 19 19 12 28 17 27 16 20 16 20 17 23 10 17 18 23 18 23 12 20 21 17 19 29 21 20 16 18 20 17 28 22 24 19 20 23 23 21 21 20 13 17 19 18 11 19 28 19 14 14 23 20 21 15 18 27 19 24 23 23 22 27 26 22 22 12 22 26 28 15 23 20 20 22 24 26 19 25 21 20 18 21 17 22 25 16 24 17 22 14 16 21 30 21 13 25 19 19 20 19 25 24 17 14 19 18 23 17 14 17 16 17 21 15 23 15 16 22 28 13 23 19 21 23 21 18 30 21 21 17 21 19 24 23 25 8 25 12 16 22 23 21 26 24 23 5 18 30 30 22 25 23 21 23 15 23 17 23 28 20 22 18 25 26 24 24 19 15 22 21 18 21 22 23 22 25 23 25 18 16 23 25 21 14 20 29 26 23 17 16 12 21 18 22 19 22 20 19 20 21 28 14 18 21 14 21 27 23 17 16 24 20 13 23 20 18 24 24 18 22 19 14 19 20 18 14 25 20 26 17 18 15 20 21 22 25 17 28 19 26 28 19 17 20 24 26 20 15 12 22 24 18 20 20 26 22 25 24 24 16 11 20 17 22 13 15 17 23 27 26 25 18 12 20 24 18 29 22 23 20 16 19 18 24 23 14 19 21 25 15 20 24 24 14 25 24 26 26 18 23 16 25 27 20 21 20 17 20 26 17 15 25 22 18 19 19 14 24 14 21 22 21 25 18 13 14 28 17 24 19 21 27 31 23 30 25 17 16 21 18 17 23 19 18 24 20 23 25 20 16 22 18 22 20 15 17 11 26 18 16 16 20 22 12 23 25 24 18 25 22 17 24 15 23 28 21 18 21 17 15 22 21 21 22 18 21 15 23 19 19 27 19 21 24 19 19 20 22 24 20 23 20 9 17 15 20 28 21 24 25 16 20 21 23 11 22 20 24 22 15 18 19 22 18 22 19 24 28 24 10 19 16 24 20 26 17 20 13 23 28 18 18 20 21 19 27 20 22 27 29 19 20 18 23 16 17 22 25 13 25 17 18 18 11 21 28 24 25 24 15 19 21 21 20 25 20 23 18 23 9 17 20 13 20 25 19 17 18 22 31 18 28 30 25 22 10 23 16 22 28 16 16 27 25 18 22 19 26 23 23 18 21 23 18 18 15 12 20 23 22 17 33 22 16 21 21 14 25 23 20 25 27 15 19 16 19 17 12 21 23 11 23 22 20 23 22 16 23 19 13 24 15 20 20 12 19 16 21 20 25 22 21 13 15 19 19 18 20 20 17 19 13 19 21 26 29 26 19 20 24 24 27 17 16 32 16 27 18 19 18 18 12 12 25 18 14 19 15 21 16 26 24 24 29 23 21 19 23 15 18 18 15 17 19 15 14 18 17 25 20 22 22 21 20 15 24 16 26 24 22 17 26 16 26 21 18 25 21 12 21 25 19 21 20 25 18 16 23 17 22 19 25 10 18 15 19 20 17 18 13 25 11 19 18 13 21 25 21 20 15 27 22 18 26 21 18 14 28 23 18 20 24 23 14 18 23 22 20 21 19 27 17 18 14 34 20 18 17 21 21 20 23 18 23 15 17 22 22 16 13 19 17 16 16 18 27 29 18 20 22 28 26 28 18 21 19 12 22 13 23 22 19 22 21 15 23 23 18 20 19 19 25 21 24 22 17 21 33 19 18 19 19 21 18 25 21 21 25 27 23 16 21 25 17 16 16 15 17 27 25 19 20 21 23 21 21 24 27 12 22 30 25 24 19 23 20 19 12 17 23 25 18 14 20 24 15 19 32 20 25 20 20 16 13 22 23 18 24 24 23 23 20 18 17 16 18 28 20 17 24 22 23 23 13 25 19 26 14 18 22 24 20 25 15 18 22 26 25 12 26 21 21 16 17 13 12 14 21 24 18 23 20 21 29 21 11 19 21 25 16 23 16 26 20 23 19 12 25 26 17 21 14 16 15 20 21 22 28 25 16 27 20 15 15 23 21 25 23 17 23 20 18 16 20 17 22 21 27 27 25 19 22 28 21 17 18 19 12 10 25 22 17 20 23 21 20 23 14 13 20 21 21 11 21 22 29 23 16 19 24 18 20 23 23 19 24 28 20 19 21 18 12 26 18 19 21 17 20 12 20 17 20 21 21 22 25 20 16 22 25 29 28 19 24 19 26 17 18 15 17 22 18 15 20 23 18 17 22 27 20 28 19 24 26 19 19 16 17 19 27 23 16 21 21 22 19 20 18 26 24 28 19 19 18 21 12 23 19 24 22 20 20 21 19 16 17 19 12 25 18 20 17 22 21 11 20 24 22 19 16 26 12 23 24 30 21 26 17 28 27 16 28 14 20 15 23 16 15 21 16 19 19 15 14 8 28 18 15 21 17 20 25 20 16 20 16 27 28 18 22 12 14 17 17 12 15 18 14 20 20 24 21 19 25 21 17 27 24 18 22 19 12 19 24 25 19 21 25 21 11 16 22 23 24 16 26 18 33 25 18 20 20 26 17 24 18 24 23 18 14 18 23 21 15 27 22 17 21 20 17 22 17 21 20 20 20 24 16 26 13 19 19 20 30 21 21 21 17 21 23 13 26 23 19 18 28 18 15 19 28 15 19 24 26 14 20 20 24 16 15 17 15 8 19 20 19 19 20 18 16 18 13 16 11 18 14 23 15 27 17 20 22 24 23 13 26 20 22 28 27 17 22 16 19 20 24 18 19 14 18 14 16 19 20 20 21 17 24 15 22 28 22 18 21 16 18 22 22 24 17 16 31 26 24 17 19 16 17 21 19 22 24 12 15 23 25 17 19 26 12 19 28 20 23 22 22 17 19 22 18 16 17 24 26 21 20 19 16 27 19 21 13 25 16 26 21 20 24 20 24 27 27 20 21 27 29 16 19 23 18 22 16 26 17 23 22 12 16 19 21 16 18 17 18 26 20 16 13 19 19 18 16 15 28 20 15 17 18 20 16 14 13 24 14 24 22 22 19 24 24 26 20 15 18 16 15 16 16 13 18 20 17 23 20 22 20 23 23 22 24 17 19 22 14 24 23 15 18 16 15 25 17 30 18 16 21 25 20 20 17 20 17 24 14 26 16 32 22 21 18 21 19 14 20 18 20 21 16 21 17 17 20 20 22 20 23 16 18 13 19 17 22 14 27 24 19 26 19 22 25 17 25 18 19 16 23 20 23 21 21 13 19 27 25 25 15 28 24 22 20 19 10 18 21 21 11 17 16 22 17 16 20 16 17 13 26 25 20 19 20 21 17 19 28 22 20 19 23 24 26 13 15 20 24 17 12 22 14 20 21 21 17 30 23 18 20 22 19 15 23 17 17 18 19 19 13 21 20 19 20 15 19 18 24 20 21 19 25 20 20 24 18 23 24 22 18 13 12 17 23 17 21 27 19 19 22 26 15 26 18 18 26 27 22 21 20 28 18 24 18 22 15 15 14 19 14 11 22 20 21 25 21 27 16 21 23 17 13 16 30 27 20 21 23 16 27 18 21 15 19 16 16 16 17 23 20 18 18 29 27 26 15 25 20 31 16 19 18 19 22 17 10 27 21 14 18 23 18 25 15 20 13 24 23 22 22 23 25 19 18 23 16 23 13 17 13 22 17 21 21 25 25 19 15 14 16 20 21 20 18 17 20 18 17 16 18 24 13 26 19 14 26 16 17 19 22 10 23 24 15 23 22 17 27 18 19 20 21 24 21 17 23 26 20 18 22 23 25 27 17 18 18 18 22 22 19 20 21 19 24 24 20 19 15 16 22 15 17 29 11 25 19 25 27 11 17 27 29 21 18 29 22 19 22 25 14 17 14 16 18 13 15 20 19 23 18 23 22 25 20 23 20 22 22 19 25 25 23 21 23 20 21 25 16 27 17 18 22 24 23 21 22 16 20 15 22 20 16 26 21 23 18 22 15 18 16 25 12 26 19 26 21 26 15 18 21 14 24 30 16 20 23 32 12 23 18 20 20 25 28 21 18 27 18 18 17 23 21 22 26 19 18 20 10 12 16 24 22 18 26 18 15 17 14 23 23 30 20 13 26 29 21 19 21 17 15 19 24 26 21 17 21 14 21 28 22 22 17 16 23 19 16 30 22 21 20 21 22 14 16 23 18 20 18 25 20 19 18 20 25 24 21 22 21 23 16 20 24 24 26 22 18 24 15 13 28 16 21 26 21 17 21 25 18 20 21 19 18 20 21 20 20 21 19 19 21 21 19 24 21 18 19 19 19 19 17 23 18 12 21 25 20 11 28 18 21 20 17 16 16 19 13 24 26 20 21 21 13 13 17 25 18 17 25 22 27 20 18 19 17 23 38 27 31 18 14 18 14 21 19 15 19 22 25 19 21 26 19 24 20 21 20 22 21 28 18 24 12 17 26 20 17 16 15 16 15 16 22 21 22 13 16 17 28 17 17 23 16 18 22 18 22 19 20 20 26 21 24 17 24 22 18 17 23 15 21 22 29 21 28 18 29 13 22 16 14 14 23 20 22 11 24 19 22 18 24 20 30 20 12 19 28 18 18 20 24 18 22 20 21 19 17 19 25 21 18 22 23 17 22 25 26 28 20 24 19 23 20 19 22 17 27 20 16 21 26 22 26 18 21 24 18 16 16 25 18 24 20 28 19 24 22 23 24 20 23 23 24 23 22 20 28 20 21 21 17 15 27 19 17 23 15 15 22 16 17 19 22 20 17 16 12 15 19 26 27 15 19 18 22 21 22 17 20 16 19 13 24 27 23 29 20 24 21 18 17 23 18 20 20 21 20 21 19 16 16 15 19 17 19 24 20 18 20 18 17 25 20 22 23 15 23 22 20 14 26 17 23 22 19 12 19 24 21 23 19 18 15 15 16 28 23 21 19 26 18 20 21 22 27 33 16 19 10 18 22 22 15 28 18 24 16 18 17 23 19 28 30 20 17 22 17 20 21 18 14 23 28 14 22 16 26 18 30 22 17 13 24 23 19 24 28 19 25 18 15 16 17 19 21 23 14 23 19 24 25 18 24 23 13 23 18 15 19 19 24 11 20 17 27 19 19 17 14 25 19 26 17 26 19 14 24 8 26 21 24 23 20 9 20 22 17 23 17 27 23 28 18 16 24 25 19 17 21 18 20 15 23 22 22 19 19 24 14 18 27 25 23 20 31 23 21 20 18 22 25 16 25 20 24 27 21 19 24 22 25 28 22 17 24 20 26 23 19 18 24 26 19 21 17 28 19 15 21 17 15 19 20 27 17 20 19 11 20 19 18 14 16 20 18 20 23 26 31 23 22 13 20 22 17 27 21 23 22 21 23 24 20 19 22 26 16 17 24 23 17 18 18 23 22 21 24 26 18 25 20 25 19 16 19 25 19 11 13 14 16 23 18 20 25 26 22 16 24 13 23 31 19 21 22 17 17 21 19 20 18 16 13 16 23 22 11 23 17 22 17 14 11 20 20 18 16 17 17 22 22 25 26 24 17 17 21 27 21 28 15 17 20 21 26 29 23 26 24 15 14 21 18 17 20 20 15 21 18 23 20 11 20 16 17 18 21 14 20 18 18 21 20 24 16 17 17 10 26 14 16 19 19 17 24 25 16 14 28 21 22 23 12 25 21 26 19 20 17 22 32 18 15 21 22 22 15 25 21 20 16 12 18 18 21 21 23 18 16 12 16 18 20 24 21 19 19 21 20 25 14 17 19 24 18 17 25 12 20 11 14 17 19 30 20 16 27 30 25 15 22 22 22 16 18 15 26 19 13 25 20 21 17 21 24 18 23 14 11 22 17 22 19 20 26 20 15 22 19 12 17 18 18 19 23 15 21 22 24 18 15 12 32 24 23 26 20 23 20 24 22 20 23 21 25 19 16 20 18 25 12 20 18 19 25 24 16 20 26 15 18 25 24 20 22 18 21 24 19 20 22 15 18 29 24 22 20 27 28 18 17 25 14 18 25 23 20 12 19 17 13 18 22 24 21 24 24 25 16 19 17 22 21 21 20 22 15 15 19 25 20 19 14 19 20 20 29 16 14 22 18 24 15 30 21 17 24 14 28 17 29 12 17 24 17 19 23 22 18 17 12 22 22 19 19 22 28 21 19 16 24 15 11 19 29 24 22 12 22 17 15 29 16 20 18 17 21 20 22 22 12 29 23 26 33 25 17 22 25 23 19 16 21 21 21 28 20 19 23 16 20 15 20 19 22 18 22 22 18 21 24 18 23 15 17 18 18 21 18 27 16 19 17 21 19 13 19 17 21 22 23 27 15 23 17 19 15 13 21 19 23 22 20 16 23 22 22 19 20 20 20 25 22 18 20 18 19 16 18 20 21 24 18 25 21 22 17 21 24 25 14 31 19 20 19 18 19 18 19 21 20 19 18 17 18 25 17 22 14 27 28 26 18 17 21 25 19 16 18 18 15 25 20 24 14 15 25 26 13 22 21 18 16 22 22 19 25 18 20 23 23 20 20 21 25 23 14 16 23 25 22 21 23 13 19 24 17 22 19 15 20 20 17 14 22 14 19 19 26 15 18 20 15 10 22 15 13 21 11 13 15 27 23 17 19 25 13 13 26 20 15 23 23 27 16 21 24 16 17 23 25 30 18 24 24 22 21 20 19 18 23 22 20 19 20 20 24 19 20 22 28 19 17 24 12 22 18 16 14 13 22 15 24 19 19 23 19 20 20 15 16 22 21 21 24 24 21 19 20 18 18 16 22 28 18 19 15 20 21 23 21 20 12 20 31 16 14 25 29 16 27 13 24 17 23 13 23 21 18 19 18 24 12 18 19 23 21 24 20 13 23 19 27 17 17 17 10 14 21 12 22 19 22 14 16 18 19 18 20 23 23 17 15 21 17 22 26 22 16 22 20 14 14 23 20 21 13 25 25 21 22 18 19 14 20 18 19 20 23 14 12 21 18 18 21 27 16 20 18 23 16 28 26 22 20 20 27 23 21 17 20 18 16 21 18 21 31 20 23 25 18 17 29 18 12 28 23 17 22 15 17 19 17 22 19 20 23 15 17 22 21 20 22 13 24 18 14 26 24 21 15 16 19 16 25 24 25 20 22 21 22 27 16 21 21 22 24 23 20 20 23 17 24 18 20 19 21 21 18 19 35 21 18 22 22 15 18 20 15 23 14 25 20 23 20 18 23 19 24 18 24 24 18 22 21 14 25 25 20 22 19 18 18 23 20 16 20 22 18 20 16 16 30 17 22 25 20 15 20 19 20 21 16 26 25 18 20 21 23 21 22 21 21 25 26 15 21 21 22 19 21 17 18 24 20 15 21 15 20 28 23 18 20 21 15 22 20 22 21 20 16 19 26 31 16 20 20 26 20 24 28 23 18 11 15 22 14 19 26 28 23 15 15 20 16 21 17 22 26 19 20 19 27 17 24 13 18 20 20 22 23 13 22 13 25 18 14 23 17 23 11 20 18 22 22 23 22 16 23 13 18 22 21 22 19 19 25 18 16 14 14 17 17 22 19 16 20 32 22 28 21 19 22 24 23 17 17 25 21 23 19 17 29 8 23 23 20 23 15 29 19 23 20 21 21 27 17 16 22 27 27 22 24 20 24 17 24 19 27 22 20 16 21 19 17 25 22 19 18 16 16 24 13 18 27 17 18 19 17 23 19 22 18 21 10 21 19 28 24 17 24 22 23 27 11 22 17 20 18 23 18 19 24 20 23 27 19 23 16 19 31 19 19 20 18 15 24 21 22 18 14 21 17 17 19 28 22 13 15 21 20 15 18 18 29 26 20 24 18 23 27 20 20 30 16 22 16 21 22 25 21 14 21 22 22 22 24 18 18 17 18 19 23 18 28 29 27 18 21 21 22 16 24 26 23 23 20 19 13 21 23 29 20 20 23 20 25 20 22 12 21 22 25 24 25 26 21 25 16 20 20 23 22 16 11 21 26 23 23 18 17 16 21 18 20 20 21 16 24 19 16 30 30 23 21 31 28 9 25 19 19 19 25 20 17 27 17 25 26 21 16 17 15 19 14 20 17 20 13 18 16 21 14 23 22 25 22 20 16 20 19 18 18 24 19 14 17 18 11 15 24 26 19 16 21 21 19 19 24 15 25 23 21 17 20 17 23 14 19 17 22 19 23 9 11 14 18 15 24 19 23 20 20 20 14 18 24 13 16 19 24 27 19 26 33 22 28 23 12 17 11 17 18 21 19 22 20 21</t>
+  </si>
+  <si>
+    <t>NIG(105.4223178515991, 72.09222268548686, -1.1111935089986669, 36.23224407747196)</t>
+  </si>
+  <si>
+    <t>37 31 27 42 20 21 31 25 39 42 27 34 32 36 30 34 39 23 32 24 35 26 33 28 32 45 31 37 39 32 31 20 34 39 40 27 29 36 30 39 32 33 22 28 26 42 27 33 43 31 37 23 33 26 23 47 28 32 28 30 33 34 38 28 28 38 39 41 32 28 23 33 37 36 30 36 41 35 33 32 36 36 32 35 25 36 31 20 49 38 32 34 23 35 37 30 36 33 32 40 34 28 30 37 31 26 34 29 37 45 29 29 25 24 32 38 33 25 37 47 27 32 30 34 28 37 26 44 31 30 32 32 26 39 33 27 32 32 34 25 28 34 46 28 27 31 39 36 32 36 31 31 37 22 34 24 33 40 36 27 33 30 38 24 21 33 26 23 44 36 32 26 28 28 33 42 34 32 32 39 37 27 32 34 32 33 35 34 38 36 36 27 44 38 31 39 35 34 31 37 29 33 33 18 30 35 29 33 36 26 26 32 38 33 33 30 23 41 32 42 39 29 28 36 42 26 36 37 33 36 30 38 34 38 26 35 31 28 30 49 28 24 36 39 37 30 23 29 32 25 41 37 42 30 25 29 33 34 39 37 35 43 35 31 28 36 40 33 35 31 40 45 37 27 39 38 38 27 32 24 27 34 29 26 29 31 28 33 26 37 41 30 34 35 32 36 38 35 42 38 39 33 30 33 32 38 37 39 37 22 30 33 33 30 29 31 18 31 28 33 30 33 35 26 24 34 28 31 33 31 32 31 37 32 38 34 42 41 36 28 37 32 32 30 28 23 41 28 27 30 41 32 30 40 34 34 35 45 27 30 26 34 30 29 29 38 37 44 31 37 33 30 30 35 31 35 30 33 27 31 35 36 41 38 44 33 39 37 35 40 27 32 33 28 36 36 37 37 30 38 39 26 25 25 31 34 33 33 42 31 24 31 34 27 38 32 23 36 34 35 40 32 34 26 30 35 33 34 30 21 33 26 31 30 37 34 42 40 38 42 32 38 29 37 47 30 36 34 37 18 24 28 27 26 33 40 34 29 29 28 35 29 29 33 40 33 40 31 39 37 37 32 39 34 29 32 29 30 26 31 29 36 28 34 24 35 31 29 36 25 23 28 34 31 34 24 29 36 39 29 34 27 34 41 33 31 33 36 33 35 38 25 40 32 34 32 33 34 22 28 31 37 25 38 33 22 29 33 35 38 39 26 42 34 45 37 25 26 41 28 35 30 27 41 33 37 37 35 30 33 34 32 24 27 32 38 36 32 42 26 25 36 31 35 33 28 37 34 28 44 36 29 36 40 33 28 31 29 35 31 24 40 28 38 33 42 30 24 25 26 36 30 38 30 25 37 24 25 29 43 41 37 29 47 33 32 28 28 37 31 25 28 34 31 27 34 32 32 36 29 28 34 41 28 37 30 32 34 43 36 37 34 25 28 41 43 35 35 31 31 33 26 35 37 29 23 29 38 31 39 33 41 34 41 38 36 27 27 47 28 33 29 33 26 34 36 43 44 36 25 33 29 36 27 36 31 45 33 24 43 38 35 31 33 30 24 37 37 31 20 27 34 34 25 32 27 38 28 41 39 42 33 33 37 32 29 35 36 27 33 35 28 30 39 30 29 38 37 31 43 37 31 30 40 30 24 32 32 27 36 26 36 37 30 31 34 25 34 27 43 29 31 28 25 25 43 23 42 31 33 43 31 51 36 31 42 33 21 26 26 42 30 33 37 34 43 37 43 23 32 38 26 28 32 31 34 34 35 34 29 32 29 31 33 28 34 25 35 32 41 32 45 29 30 27 36 30 24 25 35 31 27 27 32 26 31 42 32 35 30 37 39 27 41 26 32 37 30 23 31 33 34 36 28 42 32 26 36 29 24 44 26 33 29 35 40 41 41 25 32 42 28 31 35 29 32 30 35 22 31 28 29 28 32 26 37 33 31 27 38 24 31 44 33 40 40 35 37 37 40 34 32 26 34 36 30 28 25 39 36 32 32 28 30 28 28 27 32 31 36 29 37 32 36 32 40 31 28 39 27 27 46 39 32 32 31 31 34 34 28 32 42 26 27 35 43 31 33 32 29 30 22 26 34 31 37 26 42 32 41 34 35 52 27 40 35 29 26 32 30 26 35 39 37 28 38 33 32 30 35 33 38 18 30 27 31 31 25 31 29 27 38 32 23 32 28 45 32 34 36 30 27 28 26 36 32 29 31 32 36 44 27 27 28 41 31 35 35 30 36 40 31 25 40 23 27 34 38 28 28 40 36 45 40 34 33 43 35 29 43 39 21 33 31 42 30 28 32 27 29 33 38 39 37 33 31 33 30 26 31 32 29 36 39 33 36 29 33 32 46 34 35 36 36 19 26 22 36 28 27 43 28 25 39 34 29 27 32 37 36 29 30 30 36 27 31 40 33 27 29 31 32 25 25 45 29 37 32 40 33 35 29 26 36 27 34 28 30 35 45 40 33 39 25 43 26 36 29 26 37 35 32 23 30 34 21 30 32 33 33 33 30 32 33 29 35 36 35 29 34 31 31 29 24 31 37 37 40 33 38 33 27 32 32 40 30 38 36 32 24 25 45 28 26 38 43 31 38 29 36 33 45 23 41 23 29 30 34 32 43 31 30 30 27 36 31 23 31 31 39 31 34 17 39 37 33 32 45 39 35 26 25 33 25 27 28 33 32 32 38 30 40 34 31 35 32 37 28 31 27 25 37 23 39 32 36 35 28 33 35 36 38 38 31 26 45 32 35 26 35 34 38 24 24 35 30 37 29 41 31 31 39 43 37 36 33 30 30 45 25 38 37 29 33 36 28 33 39 38 25 37 30 33 32 35 32 30 31 34 34 27 35 32 30 29 30 35 38 30 37 40 49 37 30 25 32 27 25 30 39 36 33 32 25 28 28 23 24 22 32 33 30 35 29 37 40 28 40 34 17 30 36 33 35 33 40 26 32 33 28 23 44 32 39 41 37 30 28 37 37 31 27 27 28 37 31 36 31 30 24 35 42 47 21 42 33 39 30 33 32 31 47 36 29 29 34 25 31 32 30 34 24 32 34 37 35 31 31 19 34 38 30 38 40 42 40 38 36 31 25 28 41 32 34 25 31 35 30 36 36 44 35 35 36 31 37 38 42 26 29 36 33 31 30 52 39 32 40 33 30 38 35 40 45 34 26 33 37 27 24 34 40 42 32 40 40 43 30 24 29 22 32 36 26 38 33 34 35 32 30 35 30 28 31 32 44 31 40 29 33 41 34 22 25 39 29 40 28 28 35 22 30 34 25 36 38 34 38 33 30 33 30 44 33 23 22 33 30 33 30 33 36 38 40 37 47 35 34 28 32 29 35 33 36 31 34 34 30 41 35 29 34 26 20 35 34 37 32 32 30 34 34 34 39 40 25 38 34 34 29 32 34 37 44 33 36 33 39 30 35 33 35 23 40 31 31 36 33 30 32 20 30 35 38 31 36 34 23 30 38 38 41 41 31 36 31 37 26 29 33 33 24 35 42 44 33 24 25 29 35 32 29 27 46 32 30 28 36 29 44 28 35 28 26 38 24 43 27 38 31 37 35 35 20 33 32 22 36 33 38 26 40 33 46 40 23 27 36 30 25 41 24 35 28 37 35 31 35 35 24 37 27 31 32 43 34 39 33 30 38 32 22 34 34 29 26 33 24 27 29 30 23 22 26 39 31 37 28 27 38 25 28 29 39 26 36 35 39 26 33 31 33 30 32 29 41 30 31 39 31 42 33 36 31 38 39 31 34 35 36 32 39 39 23 38 33 26 27 38 41 32 30 30 30 32 32 29 36 33 38 34 32 31 29 29 38 39 32 31 33 23 23 37 40 41 42 28 31 17 24 33 30 34 30 37 37 32 28 30 31 24 25 36 29 36 26 36 36 26 34 35 30 42 38 26 30 36 26 49 37 31 30 40 30 31 29 42 33 30 22 45 31 25 38 41 30 29 40 36 31 28 33 38 36 30 39 27 26 32 31 44 38 29 26 31 34 31 32 27 22 35 28 28 41 27 42 32 35 37 35 31 26 33 27 35 25 32 35 32 34 27 26 43 31 36 28 29 44 33 36 45 25 32 36 34 30 32 37 30 28 39 27 34 33 32 34 36 37 31 31 33 26 30 25 34 42 29 38 28 32 32 24 29 35 30 30 40 30 33 28 20 32 20 45 39 38 36 30 34 43 26 29 32 32 18 34 29 34 39 28 29 30 38 22 29 26 31 38 20 44 27 40 36 32 26 42 36 38 23 32 28 23 42 30 35 39 30 37 43 30 26 28 31 32 31 27 26 21 42 44 34 35 24 27 29 35 32 39 31 44 40 31 34 32 35 31 40 36 31 38 41 37 32 40 24 35 26 28 27 29 26 29 27 28 39 32 42 39 33 33 45 35 36 29 27 35 35 36 36 36 35 39 34 28 44 36 31 26 30 36 39 32 41 37 37 34 41 29 31 32 40 32 37 38 36 33 30 33 44 30 36 34 27 36 34 36 24 43 25 30 25 31 37 32 34 43 38 35 30 34 32 37 41 27 28 27 36 30 33 39 35 36 42 34 32 31 42 33 37 29 37 29 25 28 30 31 32 29 33 30 30 33 31 28 32 32 39 34 28 30 35 32 33 31 42 31 29 38 32 40 25 32 31 31 32 35 34 23 34 45 38 27 36 41 27 31 30 32 30 34 40 29 35 42 37 43 34 35 34 28 28 43 39 36 32 33 26 29 29 34 35 33 32 32 29 48 29 29 23 27 28 26 35 35 33 30 20 31 40 39 24 30 32 42 35 32 33 47 24 29 31 28 36 29 38 37 42 36 39 39 43 41 31 28 33 37 37 27 30 30 30 23 27 31 39 34 36 31 43 38 31 26 38 27 40 29 32 37 36 36 28 27 33 33 34 27 19 34 44 32 41 27 32 32 37 30 36 31 37 38 31 27 41 31 33 32 35 28 32 26 40 32 34 31 29 27 43 42 31 25 35 42 37 30 32 27 30 41 42 30 23 28 39 33 44 47 32 25 25 24 26 40 30 31 29 27 28 31 26 39 32 38 27 31 31 35 35 37 31 34 28 28 28 43 30 35 31 32 36 26 26 37 23 36 27 36 33 44 38 24 32 31 36 41 26 35 23 27 33 27 31 42 39 40 28 28 24 27 42 27 26 32 41 32 32 32 40 44 38 33 27 33 34 34 33 40 33 33 31 35 30 39 30 40 26 27 21 29 32 39 38 28 33 40 28 38 32 42 30 29 31 24 26 25 43 37 29 34 44 36 27 25 30 31 39 30 41 34 23 37 22 42 28 37 39 29 35 33 26 25 38 24 36 31 38 30 32 20 32 26 41 34 28 41 43 33 36 37 25 38 43 30 28 39 32 26 27 28 39 23 32 33 46 23 26 27 38 35 29 30 30 31 33 36 31 38 26 32 33 35 25 30 32 22 31 19 40 39 31 28 30 31 31 34 42 34 32 43 28 35 20 35 25 42 33 33 40 38 31 30 26 35 30 33 31 30 30 43 34 33 37 36 35 38 29 33 29 33 39 31 42 36 29 27 31 25 28 46 31 37 30 24 32 23 26 29 35 38 41 34 36 34 35 33 33 49 34 27 31 28 23 36 32 25 24 48 37 34 36 34 21 39 30 36 38 35 27 28 28 31 34 44 24 42 35 35 23 38 32 33 29 41 32 34 23 32 28 35 33 42 39 26 33 38 34 25 35 36 40 42 29 35 33 26 23 37 31 38 32 32 38 38 34 30 26 32 36 42 44 39 19 40 33 37 37 35 27 26 32 33 31 32 37 29 30 44 31 37 26 29 25 34 44 32 32 31 24 31 35 35 26 26 32 27 27 29 26 43 46 28 34 41 26 33 28 30 39 33 22 43 32 31 30 33 37 27 46 29 32 31 33 33 27 26 35 31 31 29 24 29 45 26 29 31 32 40 46 23 27 27 42 35 34 29 24 34 35 38 30 29 38 36 34 43 42 34 33 35 30 37 34 31 37 32 40 38 33 34 44 31 24 28 36 34 31 32 38 28 33 30 46 28 33 26 28 38 36 25 36 39 26 26 34 25 34 36 30 31 33 33 37 22 42 26 38 48 30 30 26 28 34 30 27 32 30 25 25 30 33 27 38 32 35 26 28 29 49 37 22 22 37 29 36 29 33 40 25 30 32 35 30 33 29 34 29 42 33 30 33 29 32 24 36 38 34 25 30 32 35 24 33 31 35 34 36 38 30 21 30 19 27 36 26 38 27 44 26 25 32 33 27 34 35 36 26 40 32 40 31 29 35 34 33 28 33 33 31 21 30 32 38 28 27 30 31 22 31 43 30 25 35 28 32 42 30 36 32 28 30 28 26 46 33 31 36 24 37 26 25 32 34 26 33 34 36 28 28 32 36 30 37 39 35 38 32 32 32 37 37 31 37 31 30 38 36 30 31 44 26 30 24 36 32 35 37 35 27 28 37 43 38 27 41 47 29 20 34 27 30 33 33 33 35 29 44 43 30 22 19 37 29 33 49 32 24 43 35 33 40 24 21 42 26 23 38 40 35 29 33 36 26 39 30 28 34 42 43 32 28 41 39 35 33 27 34 37 26 24 47 29 33 34 38 28 26 31 33 42 34 29 31 17 34 33 30 35 29 27 23 26 44 33 41 41 23 31 27 36 34 25 28 31 20 46 25 34 25 26 35 29 25 35 46 31 27 29 31 25 33 34 39 29 32 45 29 51 28 37 28 33 37 30 28 21 28 40 30 33 29 36 38 21 42 36 40 28 40 33 43 29 29 30 33 23 30 43 38 31 37 28 22 26 18 45 45 22 35 27 31 29 39 29 32 40 34 34 29 30 31 32 28 32 21 44 31 18 35 32 39 34 24 40 35 32 38 27 32 20 45 28 38 45 34 34 41 36 29 38 35 37 35 26 42 30 31 30 32 34 28 36 27 35 32 22 36 36 35 42 35 31 35 24 35 40 34 35 22 39 36 31 36 33 34 35 32 34 34 32 26 32 42 24 35 27 26 33 43 28 27 43 39 26 28 38 29 29 37 27 26 32 37 26 29 46 33 29 31 26 35 26 38 19 34 38 40 34 42 39 40 32 19 36 36 35 32 21 26 37 44 30 31 22 26 33 23 30 27 33 28 32 31 26 32 28 25 45 33 33 22 44 31 44 40 30 27 28 34 24 41 45 28 32 38 39 28 31 31 34 34 39 43 30 39 31 32 33 37 23 34 41 29 31 35 33 55 27 37 28 31 31 31 40 45 30 29 31 36 28 29 37 32 47 33 37 31 30 44 41 23 30 44 47 35 36 30 29 30 33 31 34 27 25 29 24 40 27 29 31 36 30 32 42 29 30 30 24 28 33 36 29 32 33 38 44 42 44 42 30 36 29 27 39 35 33 35 35 36 33 34 32 38 23 29 34 28 30 30 48 24 43 38 23 34 30 27 25 37 29 25 33 39 29 46 36 44 37 25 46 38 37 29 27 38 44 34 29 33 27 31 40 29 47 32 29 33 37 30 40 30 32 27 33 35 25 32 31 49 47 29 20 36 31 31 32 33 39 26 32 32 37 40 40 37 34 32 37 31 28 38 31 41 40 34 35 40 27 27 33 38 23 30 33 28 31 32 30 37 31 36 29 32 36 43 45 29 25 30 37 33 42 28 49 44 36 33 35 27 26 34 34 36 24 28 32 40 45 31 43 35 30 23 33 29 33 30 27 35 40 30 30 32 27 30 38 47 28 36 37 36 40 27 36 23 27 27 42 36 30 33 30 38 30 32 45 40 34 39 32 38 31 41 42 31 42 40 27 31 26 33 31 27 34 37 29 38 37 30 30 38 31 32 31 24 36 27 31 41 25 36 39 33 27 29 32 35 45 34 38 40 42 29 36 41 46 30 32 28 35 38 34 34 29 39 33 35 22 29 29 31 31 35 33 22 39 30 41 25 32 24 33 27 29 34 24 36 42 32 31 38 33 26 35 38 38 27 35 35 31 38 26 25 41 38 34 24 28 36 35 26 42 30 14 38 36 31 44 41 36 27 45 30 30 38 36 40 35 26 41 33 29 30 32 32 27 36 41 27 32 33 38 31 37 35 36 24 35 33 28 30 35 31 39 38 32 33 29 29 44 36 42 35 31 41 25 28 36 29 38 33 26 34 25 35 29 22 32 28 25 34 31 34 33 36 35 25 37 30 25 46 28 37 33 36 32 31 30 33 27 38 28 23 28 27 24 35 37 49 24 34 23 35 29 42 34 27 35 37 29 20 35 26 28 29 37 33 27 39 35 36 30 38 37 28 38 36 36 27 35 41 45 30 37 40 28 27 32 32 30 33 41 33 36 29 22 31 35 31 38 35 32 29 29 51 35 42 39 36 34 32 26 33 35 36 31 27 37 34 29 27 38 36 33 36 29 39 38 36 37 32 30 27 38 42 23 29 36 43 27 29 33 33 25 26 24 31 30 41 27 29 25 31 26 33 22 26 31 28 41 38 27 27 34 29 40 34 30 33 32 39 38 28 32 39 30 31 44 28 38 30 24 30 32 30 22 34 29 33 26 34 41 34 41 34 39 34 38 25 24 41 33 31 35 28 35 46 40 38 36 28 42 25 29 26 37 46 47 29 25 24 30 28 36 26 38 36 41 45 24 40 23 37 39 27 32 23 41 27 27 36 23 24 38 41 32 34 21 30 30 38 34 27 24 35 47 29 31 24 30 26 33 41 35 24 38 32 36 38 35 34 35 32 43 30 23 42 28 31 25 33 36 33 29 34 39 41 28 33 35 39 45 32 36 24 30 33 34 34 37 34 36 26 37 25 32 39 31 48 26 32 32 30 42 34 43 29 39 41 30 37 32 24 40 27 44 35 29 35 43 31 30 36 37 30 36 32 26 45 33 37 27 41 49 41 37 30 40 33 43 39 38 30 36 31 29 29 31 39 23 33 29 42 26 41 23 43 24 23 43 44 31 42 31 27 23 43 42 22 33 36 33 35 22 44 30 37 42 20 45 29 32 23 35 36 24 37 21 39 30 40 25 25 32 36 38 37 25 24 24 37 40 33 28 35 28 40 29 37 33 39 41 49 35 33 34 42 42 22 43 35 26 22 32 30 19 35 29 36 20 25 34 33 37 48 29 31 33 33 31 27 22 39 32 43 35 38 31 29 37 49 28 39 40 39 26 34 25 33 30 41 41 41 34 41 27 35 31 42 42 20 40 51 38 31 35 30 43 37 37 34 31 39 34 22 33 36 31 27 38 35 29 30 35 31 30 40 36 42 33 32 38 45 44 27 27 35 43 26 34 23 38 33 32 24 31 31 27 37 32 31 32 32 33 25 33 35 38 42 31 42 33 24 29 31 30 30 28 28 37 38 23 42 35 32 34 25 33 38 28 34 32 39 42 36 39 29 35 32 36 30 29 32 25 34 27 24 26 34 41 44 31 29 39 38 24 34 34 29 31 24 32 24 35 33 41 33 37 33 22 35 36 26 30 36 25 26 25 25 36 30 26 27 27 33 35 25 36 33 28 35 26 30 29 46 30 39 31 38 51 29 36 29 31 34 30 26 27 38 30 35 34 29 41 37 34 34 29 20 36 18 32 34 28 37 38 40 35 36 29 29 36 31 32 28 32 33 37 34 34 31 43 33 25 32 38 31 36 24 42 32 27 38 28 51 30 32 30 40 28 34 34 36 36 34 28 34 40 38 29 34 34 25 29 41 26 35 39 34 23 37 29 24 24 48 31 35 38 38 42 36 36 27 32 33 23 43 34 27 28 30 34 29 33 29 39 29 39 24 31 38 30 26 25 38 45 23 39 38 33 30 41 39 29 26 33 34 35 22 32 33 35 35 29 28 27 37 39 27 36 38 30 27 38 26 45 37 30 35 39 33 33 43 30 30 29 31 45 32 42 34 34 39 27 19 29 30 33 37 28 25 42 34 37 28 35 24 30 34 30 48 44 38 38 29 36 37 38 26 31 36 34 34 34 35 32 20 25 29 29 35 27 38 47 26 25 30 27 26 30 40 39 32 35 35 31 37 33 29 36 35 41 32 39 26 30 29 35 29 33 28 37 42 45 36 37 32 27 35 35 28 44 34 28 38 34 32 45 28 36 38 37 44 30 28 38 29 30 31 26 34 22 35 33 27 27 28 27 32 39 29 32 38 40 32 30 30 29 35 21 27 48 33 35 36 22 32 24 22 44 25 38 25 33 30 29 39 27 34 34 38 30 29 34 32 30 24 41 32 41 38 34 32 29 33 40 26 41 30 29 28 39 30 28 35 26 40 39 35 28 31 26 29 24 24 40 33 34 32 41 36 33 20 32 40 29 29 34 38 32 37 43 31 29 32 30 36 32 36 24 31 20 26 44 17 34 26 36 39 33 21 34 22 30 31 34 31 43 26 41 36 27 25 34 35 40 31 27 26 30 35 31 37 43 35 34 31 34 29 28 32 31 31 30 29 44 37 38 34 45 25 30 26 35 35 31 35 24 27 29 39 31 24 31 37 27 29 28 38 33 47 31 30 32 41 32 34 36 36 34 36 40 26 32 45 30 40 40 32 32 32 36 22 29 43 27 29 37 37 32 39 24 32 38 28 39 39 31 27 30 28 31 41 31 34 26 36 38 31 29 30 38 35 36 49 31 37 29 39 42 37 32 26 29 39 30 36 40 34 19 34 38 36 33 36 21 29 22 37 25 33 29 34 35 35 34 29 26 37 27 38 32 35 26 40 26 25 42 27 26 32 33 37 31 26 36 27 37 29 37 37 28 36 32 29 40 30 38 35 23 44 39 36 30 32 34 42 25 36 39 37 35 36 39 34 44 33 27 26 25 40 29 27 38 29 42 39 39 47 34 28 32 39 32 27 43 34 27 28 36 39 40 21 35 37 31 18 35 31 30 25 35 38 26 32 31 24 38 43 32 32 32 23 34 30 39 36 34 44 31 38 32 21 32 29 39 17 34 43 38 26 31 35 34 37 31 35 32 32 29 25 30 42 29 37 37 33 35 38 35 29 35 33 33 33 30 27 44 39 31 35 40 27 26 34 29 31 35 27 41 22 27 33 41 30 32 31 38 37 33 31 34 28 29 41 26 25 33 30 29 27 36 35 36 35 48 27 35 55 26 34 25 27 18 26 22 28 32 31 29 38 31 28 34 33 40 24 29 37 41 34 34 37 37 29 36 28 29 34 33 33 25 36 37 23 35 32 20 22 31 29 29 39 34 34 28 36 36 44 32 30 34 34 23 25 23 30 30 27 25 25 26 25 36 34 31 31 34 33 33 30 26 36 33 24 27 23 30 37 31 33 37 34 33 26 33 42 25 35 33 31 36 25 26 32 32 23 41 29 25 34 39 31 30 33 29 33 40 27 37 30 40 31 36 39 25 30 30 34 39 33 38 35 30 32 34 39 35 37 35 37 26 43 33 38 37 29 47 27 28 32 28 23 28 34 28 33 28 41 32 28 32 28 37 40 36 34 43 26 30 26 32 37 24 40 29 26 33 31 27 35 31 32 24 39 21 30 37 38 33 27 40 36 32 30 36 35 26 37 30 43 24 42 40 31 23 45 21 30 30 28 39 40 32 29 36 30 40 35 37 33 44 41 25 31 28 38 43 38 33 35 39 24 35 37 43 27 33 40 31 28 38 21 31 35 31 34 38 30 35 30 45 37 43 28 34 30 33 36 24 29 24 36 34 33 33 31 37 35 34 30 28 41 35 29 35 28 33 41 44 29 38 41 34 27 29 26 35 31 27 34 31 22 36 30 27 29 28 37 32 36 29 26 28 24 35 33 28 37 25 39 32 33 41 24 27 38 39 30 32 29 43 24 25 37 26 33 30 29 27 28 30 35 30 29 43 30 53 43 29 33 25 34 28 31 30 39 32 37 29 34 41 31 25 37 34 36 45 35 28 27 31 28 39 34 23 39 36 26 26 37 40 33 28 30 40 30 39 27 25 26 37 25 33 32 25 31 34 33 29 31 36 24 28 34 47 42 32 37 30 40 34 30 29 23 35 37 41 35 33 26 39 34 33 38 35 34 25 39 41 34 35 41 41 33 32 28 26 34 44 39 30 38 35 26 39 29 44 32 25 33 36 35 27 34 38 39 43 26 38 28 36 32 35 33 33 32 24 34 25 35 39 36 29 25 28 26 37 31 33 32 31 31 35 31 32 25 44 38 21 21 35 29 33 40 34 31 26 47 32 38 27 38 40 26 31 27 32 39 41 28 25 27 42 38 30 38 34 49 21 36 35 34 45 27 40 27 26 31 32 42 31 36 35 34 26 35 46 25 32 28 34 24 35 25 29 34 36 32 28 30 26 46 34 34 35 31 28 31 40 31 38 31 29 42 35 33 28 30 32 31 25 29 35 22 26 39 37 29 30 30 43 37 38 31 30 34 23 38 31 33 39 34 24 33 30 40 26 28 27 41 33 31 25 31 35 24 33 36 43 32 32 29 28 27 34 29 23 41 34 31 40 41 31 30 41 26 34 44 32 34 25 32 43 37 27 28 34 25 29 37 29 39 48 28 38 31 27 39 35 33 27 28 39 30 28 33 30 27 39 28 36 33 38 29 31 38 37 32 36 22 35 31 28 25 33 35 34 41 31 44 39 24 38 31 28 38 34 34 33 35 33 27 34 33 30 35 20 25 28 30 34 34 31 33 34 30 39 31 33 32 22 31 42 30 29 24 36 30 41 30 35 28 40 37 33 38 34 36 34 32 24 38 31 29 39 32 35 30 29 31 37 37 33 36 28 38 37 41 35 34 34 25 46 34 31 41 26 36 38 24 31 31 42 30 28 34 30 28 32 29 31 28 35 27 35 28 25 35 38 34 36 38 28 36 38 23 34 32 31 38 28 28 22 22 34 34 28 32 30 20 25 34 32 43 30 29 34 44 37 34 27 29 35 30 37 42 33 38 29 34 29 42 34 35 29 27 34 28 33 38 29 34 30 33 36 40 34 35 31 22 22 41 32 33 37 35 37 32 37 35 31 27 36 37 38 35 41 44 33 37 40 23 35 31 27 31 32 25 32 29 37 34 28 30 33 28 31 35 37 29 37 33 43 21 29 36 35 38 34 26 30 30 30 33 26 38 31 32 37 35 33 38 32 41 31 30 29 28 31 42 34 29 32 42 30 34 35 41 29 29 34 30 30 32 42 37 26 35 41 26 20 30 29 23 27 26 32 29 31 37 42 34 32 28 29 33 29 34 27 30 29 32 35 37 26 41 28 29 44 41 32 29 44 34 24 41 34 37 37 28 35 27 31 45 40 30 29 33 44 29 32 26 35 35 32 37 37 37 34 37 27 32 36 23 46 26 28 34 27 26 41 27 38 34 35 34 34 27 47 29 36 36 35 35 34 36 44 41 27 33 28 29 33 37 33 23 27 32 35 28 41 37 27 28 37 34 32 31 42 36 27 37 34 28 32 35 29 34 34 26 29 24 29 35 30 34 33 30 39 29 33 36 32 37 32 36 36 34 38 35 34 27 35 33 25 37 34 35 42 30 43 38 33 32 42 33 42 33 29 34 41 28 28 38 47 27 41 33 30 22 45 44 31 23 32 45 42 40 30 33 27 33 32 29 37 30 32 36 28 36 26 38 25 29 30 25 35 40 33 31 27 31 34 33 34 31 37 31 28 26 25 29 31 34 35 31 33 25 35 25 34 29 35 34 29 35 34 36 35 28 40 32 27 41 32 32 36 22 35 32 39 31 30 39 40 33 31 36 30 46 36 25 34 35 28 29 29 31 33 28 19 41 34 32 29 27 43 37 27 31 37 33 30 29 37 36 31 36 35 40 30 27 24 32 33 25 36 37 36 31 45 39 46 42 32 30 25 33 47 27 29 42 42 39 28 24 31 33 27 30 23 37 29 37 43 32 30 34 32 33 35 30 36 40 31 29 38 29 35 30 29 34 34 44 40 35 29 31 31 37 31 30 44 39 38 31 32 25 34 42 37 28 27 28 45 32 39 32 36 41 35 25 31 33 39 30 30 37 34 30 31 41 24 36 22 28 31 36 31 41 30 25 33 39 25 39 23 31 34 29 38 37 30 31 37 38 32 26 33 27 34 34 32 42 33 31 21 27 51 38 38 35 35 31 31 35 34 39 26 35 26 41 28 29 39 37 31 30 27 31 27 36 33 33 39 35 32 32 38 19 39 37 32 38 26 43 31 30 29 28 29 39 32 28 31 33 36 32 39 33 30 25 27 31 31 28 31 32 35 19 33 36 43 34 32 28 41 29 27 34 32 53 25 25 28 30 33 30 29 40 31 32 36 42 38 35 40 33 31 31 33 30 23 30 39 40 28 44 44 29 38 31 28 28 27 30 47 31 27 28 33 40 35 43 24 33 26 30 25 34 20 29 29 37 26 33 23 34 34 29 34 39 37 34 24 32 35 36 42 31 34 37 32 32 38 34 31 26 27 29 26 31 16 30 37 41 24 26 35 27 37 28 36 40 32 36 35 31 36 40 34 34 31 26 29 37 43 28 38 32 34 34 38 38 29 36 39 41 35 38 25 33 43 28 40 26 39 27 35 28 45 35 28 38 28 32 28 31 35 36 31 24 35 31 32 31 28 31 30 29 34 27 35 24 29 38 36 28 38 26 37 39 33 25 43 33 30 35 31 31 35 37 40 22 45 23 31 31 35 35 41 39 40 21 29 36 47 41 35 37 35 36 28 42 23 40 36 34 36 31 37 42 39 32 37 31 31 38 30 34 36 39 37 41 38 34 30 25 40 41 35 21 34 45 47 33 26 28 28 33 30 30 28 43 33 35 35 40 39 24 29 42 34 38 47 38 27 30 30 27 30 32 35 29 37 40 27 33 34 29 29 34 28 28 42 27 40 31 29 23 31 37 34 43 35 38 41 43 46 35 30 30 36 35 43 29 28 32 32 35 30 34 34 38 36 36 48 25 22 32 28 35 21 26 27 32 37 43 36 34 26 30 37 32 44 33 41 32 26 37 30 33 47 33 32 36 39 29 31 38 36 29 37 41 40 40 32 34 27 36 43 28 37 39 41 38 40 39 28 41 37 29 32 35 31 40 25 34 36 35 38 31 33 27 41 27 35 33 26 43 51 34 43 35 26 34 31 27 36 44 34 26 32 35 41 39 33 30 40 32 33 36 24 28 22 49 34 30 26 29 32 21 37 36 38 33 39 36 38 34 24 39 38 39 31 32 31 25 29 37 37 32 26 33 32 35 34 32 34 29 31 42 26 30 32 42 33 38 42 31 27 30 32 32 43 30 30 35 34 32 35 31 27 38 30 36 37 30 32 30 42 38 35 29 38 36 35 26 35 30 37 32 39 29 32 29 32 35 29 31 26 35 28 42 31 36 36 47 33 32 32 35 26 28 34 33 29 34 33 28 33 24 34 41 43 42 29 23 25 36 35 40 36 26 37 31 41 21 28 29 24 29 34 28 28 30 33 45 24 37 47 33 37 24 39 32 33 36 27 28 43 40 29 41 34 34 39 37 29 33 32 31 30 23 29 33 43 30 28 45 36 31 34 34 23 32 37 25 33 48 26 26 31 26 27 28 40 37 18 35 30 34 35 40 42 35 33 23 36 28 35 28 22 31 29 29 28 35 35 42 21 24 41 31 34 37 34 29 30 34 31 41 38 43 43 31 39 38 37 36 26 28 45 26 36 33 31 29 35 28 22 37 30 29 31 29 35 33 44 40 38 41 36 33 26 35 30 32 29 24 32 34 24 20 30 26 34 23 42 38 35 32 29 39 27 35 36 29 20 35 31 37 37 36 38 35 29 33 39 27 33 32 36 33 33 36 31 35 27 42 20 31 29 27 32 34 31 24 39 21 34 27 26 30 37 33 31 27 40 36 31 37 38 29 27 40 33 37 33 43 36 19 26 30 36 30 36 29 37 29 30 21 50 40 26 29 29 32 30 36 39 38 29 28 38 35 28 28 30 30 28 35 28 31 41 29 26 34 35 41 37 28 38 31 24 36 29 37 34 32 36 33 34 34 35 28 34 33 38 44 31 34 35 32 39 52 28 29 39 29 37 29 38 37 30 33 38 40 22 43 37 30 33 30 29 30 40 38 25 33 35 34 31 33 37 39 26 40 42 36 34 31 32 40 30 17 33 36 34 29 31 32 36 26 31 44 30 41 30 33 28 34 38 33 32 49 34 32 38 28 37 30 33 28 47 27 24 34 41 33 35 31 41 28 34 24 31 45 34 26 43 32 34 32 39 41 33 35 31 30 33 36 26 24 21 29 37 36 33 31 35 38 29 32 39 35 35 28 40 30 35 28 32 28 28 37 42 26 31 32 30 28 36 32 41 40 42 30 37 36 26 28 33 39 43 35 27 34 35 34 28 28 30 44 40 36 32 47 30 35 34 39 29 31 29 28 18 36 37 32 28 38 35 35 35 23 27 32 37 35 26 33 33 36 33 28 30 34 24 34 34 34 34 41 36 37 34 33 28 24 36 27 30 33 26 26 19 31 30 30 33 31 38 39 33 25 38 36 33 37 36 30 31 39 31 25 26 28 34 25 24 28 36 31 27 33 39 34 46 28 39 33 32 31 30 31 31 39 39 35 35 41 35 34 25 34 35 39 37 29 30 32 30 28 37 28 39 38 36 42 36 25 29 27 31 26 39 29 29 24 32 38 20 31 42 33 27 28 38 25 30 39 41 42 38 25 37 36 30 46 22 33 31 38 36 31 33 26 27 36 27 28 28 40 27 27 35 32 36 30 36 29 38 22 37 36 29 30 20 28 28 35 22 33 32 20 36 31 45 40 41 48 29 24 34 31 31 31 30 33 33 34 40 34 32 35 35 22 26 36 36 37 33 40 39 45 35 34 39 31 39 32 34 33 39 35 26 30 34 37 37 27 43 31 27 32 33 33 29 34 31 30 30 38 34 28 40 29 30 29 31 44 30 29 33 28 36 33 24 38 37 32 28 41 34 30 30 44 34 26 34 37 23 37 37 40 29 20 31 30 20 35 29 34 25 32 31 33 29 20 28 27 34 23 34 25 40 22 30 40 39 36 31 35 35 34 40 38 36 42 22 35 37 38 30 28 27 31 30 28 31 43 31 32 29 42 30 32 36 34 25 31 26 36 45 37 40 27 23 51 41 35 29 28 38 26 33 35 35 35 24 34 35 36 28 31 37 26 37 35 33 39 35 39 28 26 36 26 26 26 40 36 34 32 36 30 33 32 40 28 41 25 46 34 38 33 33 37 34 41 33 35 39 39 23 25 44 25 31 28 34 24 36 31 22 23 23 38 35 31 27 29 37 30 30 23 28 24 34 29 29 45 33 30 40 35 37 30 25 26 34 34 34 30 33 36 32 42 32 34 26 22 31 32 27 26 29 30 33 26 43 32 33 28 35 36 39 32 27 25 32 32 38 42 30 36 27 29 44 32 39 25 34 36 32 31 30 27 36 32 32 25 38 26 44 33 33 29 32 34 22 35 31 40 39 23 33 32 31 33 29 30 31 37 31 33 31 34 30 32 27 39 34 30 38 28 38 32 29 41 28 37 29 35 33 45 36 35 29 34 59 35 37 31 41 35 31 28 32 28 32 31 34 20 28 25 34 41 27 33 29 33 26 43 38 34 27 30 31 26 36 43 37 24 33 33 38 39 28 27 32 32 28 21 30 25 27 33 29 22 42 33 30 23 35 33 33 31 23 34 29 30 33 26 37 40 31 27 26 40 31 31 33 42 31 32 30 30 32 23 37 40 27 34 20 27 30 28 22 36 39 34 33 38 46 29 40 37 26 39 39 34 31 28 34 35 37 28 34 36 25 24 31 28 25 31 42 37 31 30 34 22 31 32 25 25 29 46 34 27 36 33 32 34 30 30 28 32 27 24 29 26 33 36 28 30 46 37 36 21 33 35 46 30 31 31 34 35 26 22 43 40 29 28 33 28 37 35 39 22 39 35 36 33 30 39 37 30 34 28 43 27 31 25 42 38 43 34 41 39 32 29 19 33 33 36 34 29 32 35 26 36 24 29 37 31 35 34 24 37 23 33 39 36 24 42 40 31 34 36 30 36 27 44 30 33 35 30 26 43 35 33 31 37 39 33 35 30 30 32 30 43 32 30 35 38 29 38 38 30 24 34 31 32 27 33 40 24 43 33 39 43 22 29 46 43 27 31 41 34 33 32 43 22 30 24 37 38 30 29 32 26 33 34 34 40 40 38 41 34 36 29 31 37 37 31 39 44 36 33 38 32 39 29 27 37 37 36 30 33 28 32 27 28 31 28 36 35 30 34 34 32 26 35 40 25 40 31 40 36 33 24 35 35 23 37 48 29 30 42 50 22 33 28 28 30 40 35 35 34 38 27 29 28 37 29 37 34 31 30 30 17 30 31 37 35 31 34 29 24 37 29 38 34 46 33 22 42 40 30 29 31 28 24 31 37 35 27 33 44 21 28 37 36 36 34 29 35 29 31 45 35 35 33 26 37 25 32 33 31 33 27 42 31 31 27 37 38 33 43 38 36 35 31 37 39 33 41 37 29 34 35 26 48 32 41 41 31 42 35 35 28 35 35 37 35 33 35 31 30 36 31 28 35 40 30 34 35 33 31 27 29 33 27 33 35 24 35 39 35 23 40 35 32 30 31 31 31 28 26 38 33 34 32 36 24 19 25 43 27 30 45 34 39 34 31 32 33 33 58 42 40 29 34 31 26 34 34 29 30 38 39 32 34 37 32 35 36 38 36 33 29 38 32 36 31 24 40 32 33 23 24 28 20 30 40 34 40 24 27 34 41 27 34 32 26 37 38 23 39 34 30 30 34 38 38 43 37 32 32 31 35 25 38 39 45 31 46 32 53 31 33 24 24 28 38 32 32 25 38 37 33 32 35 34 44 29 20 33 35 25 32 28 38 37 33 36 41 31 28 32 39 35 28 31 38 32 42 40 43 43 31 45 30 34 30 29 35 25 38 34 29 26 41 36 39 30 34 41 32 31 29 43 39 38 39 42 32 34 40 33 41 35 32 29 40 36 29 37 38 35 31 33 28 32 41 36 28 33 28 26 34 23 28 37 30 35 26 30 29 28 33 37 45 34 27 28 33 27 35 28 30 33 28 27 36 42 32 43 39 38 30 28 26 38 30 33 37 27 31 27 28 31 29 33 31 33 32 35 29 34 36 29 28 31 32 36 31 25 34 36 35 26 47 29 32 36 28 27 37 36 34 38 31 36 24 28 33 42 26 34 27 38 27 29 37 39 42 41 23 33 12 28 39 30 26 39 33 39 33 29 31 41 34 44 42 36 29 30 31 38 35 34 27 38 39 29 36 32 36 30 47 29 30 27 34 33 27 43 49 32 41 31 23 32 28 26 38 37 29 32 38 40 37 37 34 37 23 36 27 28 34 25 35 23 27 34 47 30 34 28 30 37 27 39 26 37 30 23 37 30 43 38 32 34 34 22 33 32 34 35 33 35 33 39 33 24 37 39 30 33 35 39 38 27 32 43 33 34 28 39 32 37 44 34 35 33 43 38 34 39 30 25 39 29 32 32 40 41 35 39 31 38 42 45 30 40 45 31 36 39 29 28 35 39 31 32 29 44 37 36 29 29 23 35 31 39 29 27 35 24 37 32 33 22 33 28 30 33 35 39 45 37 37 19 27 37 25 41 24 38 32 37 32 36 37 26 32 33 29 20 37 31 35 35 25 30 35 35 35 34 40 43 31 36 32 26 30 40 26 30 23 29 34 33 34 33 41 36 39 32 40 26 41 44 33 29 34 28 27 34 37 26 27 29 23 26 30 29 23 30 35 33 25 27 23 30 35 29 24 31 29 37 35 39 40 36 29 29 28 39 29 45 29 26 34 39 37 41 37 37 35 32 27 30 26 32 32 28 24 37 33 36 34 20 36 27 28 33 34 23 33 36 34 38 33 35 25 30 32 21 34 28 28 33 28 25 34 43 33 29 40 36 33 41 23 32 37 36 30 32 28 36 47 29 21 41 33 33 25 37 33 28 28 25 36 32 36 32 31 29 26 25 27 27 34 34 31 38 37 38 32 45 24 34 33 37 27 26 34 24 31 25 29 25 34 42 30 27 40 52 38 34 36 35 36 35 28 31 35 30 25 35 39 34 41 25 34 28 36 28 35 28 32 32 37 28 38 35 25 34 27 26 32 35 32 35 36 27 36 30 35 30 30 26 42 39 41 36 37 31 30 37 36 33 39 37 37 28 20 31 36 28 31 35 34 34 44 38 27 31 43 31 33 41 40 40 40 29 28 35 31 28 34 24 26 41 40 35 31 32 37 27 28 32 22 29 39 31 29 28 31 33 26 27 31 40 38 39 33 36 30 33 26 30 39 39 36 33 25 28 30 39 29 29 30 35 31 32 43 28 21 42 39 40 30 43 33 27 40 34 35 29 52 24 22 36 30 32 38 30 26 31 23 42 40 38 30 43 37 35 33 27 34 31 19 23 36 36 33 21 35 26 22 44 33 27 30 40 41 27 35 33 24 36 35 48 46 35 25 35 39 32 32 27 38 34 31 35 32 37 41 24 30 23 29 28 34 34 35 34 32 33 41 28 29 33 33 31 32 31 37 42 31 27 34 31 31 26 29 30 35 32 40 41 25 35 27 31 25 29 35 33 30 41 31 28 43 32 32 30 30 29 34 39 36 31 36 28 37 23 33 30 38 37 30 33 28 37 29 45 37 36 20 42 33 34 26 32 32 32 31 39 34 27 30 34 41 41 23 37 23 42 42 39 35 27 31 42 36 25 30 27 31 35 31 35 25 19 38 40 29 31 36 30 29 35 37 28 34 33 28 30 36 32 36 25 32 39 32 29 39 42 29 27 36 29 29 33 32 31 28 26 32 29 35 26 35 25 33 32 34 28 23 31 26 24 33 31 25 30 31 15 26 40 40 31 27 41 21 27 38 31 24 33 30 39 24 31 36 31 29 34 40 43 29 40 35 34 35 31 30 29 37 40 34 31 33 32 39 31 39 40 37 38 32 37 26 34 31 31 26 25 32 30 40 26 29 36 28 32 43 33 26 38 36 33 37 37 27 37 29 31 23 25 38 47 28 33 31 33 36 33 32 30 24 31 52 28 32 42 45 25 44 19 36 27 34 23 39 29 29 31 29 36 24 31 30 36 31 44 37 36 37 40 38 28 30 28 21 33 34 30 34 32 32 28 28 29 34 32 33 33 44 27 30 33 34 41 34 33 35 33 32 27 32 53 36 43 24 40 32 30 30 31 40 23 30 28 33 32 28 27 22 32 28 32 31 41 31 32 28 41 26 37 34 40 38 31 38 35 37 29 29 27 29 32 28 35 49 32 37 40 27 27 44 32 17 44 30 27 32 21 31 32 30 37 34 30 32 20 33 37 30 31 37 20 33 32 33 41 36 36 30 30 29 29 34 35 32 32 34 32 30 37 32 36 32 35 36 39 30 31 34 28 45 29 36 28 32 39 31 28 58 40 28 34 31 25 44 25 24 36 25 41 29 35 29 23 48 31 36 31 45 32 37 42 36 35 37 45 32 29 27 29 29 35 35 26 34 38 27 31 23 29 48 32 38 34 35 27 30 32 34 39 29 35 34 29 37 34 39 35 32 26 36 45 42 30 31 44 29 30 35 26 33 39 29 37 30 28 28 43 32 28 33 32 34 38 30 38 26 28 30 32 37 50 30 34 26 39 37 41 39 37 33 25 24 29 22 25 39 36 37 31 25 31 30 36 29 32 38 24 35 28 41 28 35 24 32 38 31 38 39 28 34 32 28 23 28 40 31 43 26 32 30 41 35 32 32 31 34 23 38 40 36 38 27 35 40 35 26 26 26 30 38 31 29 32 31 43 42 43 34 23 30 37 36 31 26 39 33 46 24 28 42 20 40 38 31 30 30 41 36 33 35 31 33 38 30 25 32 39 39 38 37 27 41 34 39 37 35 37 29 30 34 29 27 42 35 28 28 29 24 38 27 30 44 30 27 30 31 39 28 41 26 35 20 35 37 36 32 27 34 37 46 45 19 31 25 35 30 35 29 33 38 27 39 38 29 41 28 35 42 38 35 35 31 24 34 36 33 30 26 31 25 28 28 42 29 23 26 36 32 28 27 28 40 37 25 34 28 32 43 43 32 39 27 35 23 30 30 40 34 34 30 39 31 34 33 27 24 26 37 28 34 28 39 39 46 30 39 32 33 26 28 34 38 38 32 32 25 38 30 45 36 35 34 33 37 38 32 28 34 27 37 38 35 38 35 38 35 30 32 33 32 37 24 35 38 29 29 29 34 28 42 26 31 30 30 30 49 33 27 43 39 36 35 42 40 27 32 25 26 29 41 32 24 43 28 35 38 29 26 26 21 28 29 33 34 33 28 40 25 30 27 33 33 43 32 33 31 28 33 28 29 30 25 23 27 29 28 28 35 36 38 31 33 40 34 31 43 28 35 41 33 31 34 21 33 26 32 30 37 27 35 22 17 29 28 30 33 29 42 39 34 32 26 32 38 26 30 41 36 38 32 43 47 29 37 34 32 27 25 28 29 34 36 36 38 31</t>
+  </si>
+  <si>
+    <t>JSU(-16.79952463836588, 12.045100139909056, -302.67108118658325, 276.47478182200473)</t>
+  </si>
+  <si>
+    <t>244 256 158 186 102 160 230 215 270 290 200 246 187 178 184 234 304 268 211 188 205 139 192 193 218 331 207 297 211 243 224 125 305 280 306 230 213 246 233 206 251 197 241 160 126 299 125 251 296 190 258 212 242 206 127 272 215 222 185 197 203 314 210 175 199 224 217 277 225 180 144 156 268 214 141 258 269 314 193 239 198 206 216 227 189 276 256 151 262 187 257 177 167 210 283 241 195 175 177 324 299 245 217 279 268 179 224 172 246 316 184 131 227 144 248 261 245 213 191 286 199 191 203 272 208 232 191 311 267 214 228 164 194 280 289 212 135 189 247 199 203 205 285 189 205 181 283 244 255 236 193 193 304 131 218 132 265 286 303 184 206 165 293 131 131 234 117 135 327 236 247 170 138 237 233 235 167 237 250 305 231 183 254 263 209 243 299 224 249 294 286 164 300 248 222 246 267 180 208 264 218 187 181 135 296 318 268 261 245 244 143 263 287 193 188 183 83 286 195 288 281 195 264 310 300 157 263 280 241 169 181 292 201 237 186 210 217 269 242 308 184 153 281 283 266 166 116 224 186 161 315 228 266 146 136 216 154 207 266 247 265 216 175 224 197 211 271 231 182 245 295 281 237 155 304 295 261 176 242 155 187 185 174 185 195 229 195 180 157 198 231 188 332 223 192 222 296 253 352 277 233 242 175 260 211 205 373 262 253 166 240 225 219 245 155 224 155 221 212 196 231 206 244 177 126 184 243 190 291 324 291 185 207 149 208 237 252 245 258 201 201 174 277 185 167 203 245 157 160 201 312 231 228 282 220 244 260 331 235 223 203 215 239 300 212 248 204 220 253 284 253 245 235 163 208 290 234 201 153 220 200 177 302 149 235 182 255 271 269 226 196 197 267 188 237 255 276 250 231 204 219 164 111 167 170 164 208 218 243 200 172 243 213 126 219 194 191 256 177 189 197 206 149 183 181 240 191 245 168 167 209 120 193 228 149 278 296 203 282 227 236 261 191 204 240 232 232 209 200 120 184 145 156 170 235 241 158 160 217 162 216 213 195 230 324 238 259 231 252 222 225 301 250 248 262 275 187 220 138 115 240 214 188 197 182 271 282 190 231 160 152 255 259 228 262 149 204 262 276 152 229 202 247 300 234 235 185 276 271 216 271 183 305 250 182 284 184 223 161 194 192 257 175 215 251 106 237 213 209 242 285 153 290 250 316 226 119 226 282 201 176 237 168 295 269 207 264 250 164 248 218 255 164 200 208 243 248 221 305 146 194 321 219 199 240 247 217 196 151 290 227 154 216 251 257 217 315 173 283 195 146 262 300 196 244 262 201 190 119 194 257 213 245 176 197 166 147 149 216 315 227 232 254 306 278 172 190 194 287 254 156 244 192 258 238 240 295 259 209 181 138 175 239 193 307 235 220 249 262 313 271 223 145 189 384 256 205 236 208 206 215 156 283 286 151 202 215 282 147 282 220 282 211 277 327 248 117 188 272 156 259 175 229 185 201 264 284 277 227 112 225 244 241 177 181 146 213 193 175 294 202 216 205 251 200 179 240 243 177 100 164 226 236 150 191 168 276 202 283 198 288 225 211 223 238 231 221 202 182 262 233 158 236 223 224 173 225 249 249 282 210 250 235 251 186 167 252 281 200 213 175 235 226 161 174 204 168 307 197 375 142 160 247 153 152 294 158 326 322 218 370 138 286 241 220 339 286 122 149 204 268 188 250 246 178 318 251 289 97 242 185 173 241 211 181 216 191 263 122 173 221 215 184 149 128 234 202 234 248 228 205 280 132 213 224 292 201 206 275 226 207 265 187 246 184 226 319 246 161 242 225 215 203 297 192 209 296 201 106 195 185 212 276 221 304 191 196 231 235 141 228 203 246 216 256 233 243 300 240 147 191 96 209 211 199 256 242 227 211 165 201 200 178 193 175 270 183 209 236 271 227 200 253 195 268 257 274 277 199 237 236 158 121 222 266 167 176 159 238 240 204 238 222 194 186 203 243 234 253 267 198 302 145 305 233 254 237 158 227 144 208 327 234 185 234 201 116 219 280 212 196 260 204 178 233 323 173 268 248 257 215 148 209 236 212 267 181 266 253 196 160 214 387 213 252 211 210 213 258 214 130 192 292 351 174 145 271 363 209 274 225 289 114 197 233 199 234 169 123 225 155 217 176 146 236 200 331 231 304 202 194 222 183 178 264 258 250 215 255 245 262 191 181 190 230 151 221 195 215 173 288 246 163 239 156 173 213 291 210 219 234 297 289 274 172 222 243 250 238 228 267 140 235 153 351 155 148 201 197 244 234 261 247 325 244 279 217 214 174 256 267 255 279 288 220 274 245 229 177 292 144 223 286 265 105 158 176 252 223 189 315 192 151 275 242 231 237 182 220 207 193 158 281 262 228 211 306 246 159 193 232 262 209 169 251 234 228 198 198 276 220 226 143 282 138 201 221 206 205 305 196 227 264 166 268 179 288 139 140 311 210 261 129 205 232 177 261 179 246 217 201 182 218 249 129 247 237 249 262 202 236 260 221 214 183 308 262 262 290 217 269 110 253 258 309 205 248 232 205 186 186 296 189 187 229 270 268 234 184 290 252 254 154 240 182 204 211 182 216 297 219 193 172 233 222 196 166 203 200 195 218 257 119 233 218 239 194 244 249 270 134 248 218 126 223 171 228 227 189 216 178 232 187 213 208 305 254 143 268 161 222 248 159 280 211 193 162 156 219 194 232 355 259 226 174 290 234 248 191 257 203 239 141 163 307 264 230 266 259 210 162 224 293 259 256 240 198 227 220 172 262 212 234 205 276 169 187 212 297 137 333 201 157 243 202 215 197 200 219 233 223 182 236 274 238 185 240 344 189 211 213 359 217 197 121 211 211 146 191 306 225 163 245 174 185 158 181 144 130 204 211 221 225 295 236 304 208 218 273 124 244 178 204 217 233 254 215 268 238 211 153 201 228 250 286 264 231 178 202 213 204 206 198 126 241 180 217 157 180 117 273 239 264 143 271 271 226 202 277 195 168 343 206 190 187 251 216 207 237 238 210 161 243 246 240 221 224 184 160 220 209 145 336 292 300 234 241 257 226 193 123 243 240 215 186 134 216 138 178 267 280 236 276 271 188 198 304 246 155 171 281 212 276 210 319 238 195 263 293 206 254 245 234 306 271 172 183 226 202 216 252 241 271 272 290 246 252 230 198 140 199 222 242 225 223 184 150 261 227 127 265 184 228 228 177 248 221 347 196 230 241 166 134 170 263 217 276 147 217 202 171 277 216 134 249 268 270 263 281 176 218 181 316 244 135 221 266 205 187 310 148 246 188 262 260 231 285 223 209 239 202 144 240 280 181 196 206 173 250 281 223 205 194 120 261 176 230 209 272 208 238 214 216 262 237 236 286 262 276 186 194 193 226 191 198 225 204 238 195 264 136 207 150 198 236 178 267 220 182 244 135 196 169 232 217 301 247 160 196 256 248 272 325 194 235 253 153 181 177 234 261 99 187 224 372 194 180 129 202 280 219 206 239 345 220 234 209 272 179 299 195 265 151 183 191 207 231 166 284 189 250 255 218 178 233 245 194 213 214 296 150 271 284 280 257 146 164 312 198 227 338 185 280 193 245 199 156 202 259 187 246 176 240 163 237 264 245 257 213 274 214 194 254 193 171 207 186 156 177 237 189 157 133 251 252 225 211 174 203 255 187 150 162 268 214 268 184 186 185 179 267 191 203 223 176 267 207 210 312 237 300 218 284 235 211 250 210 214 316 190 304 249 319 186 261 210 177 223 280 359 193 281 278 258 214 263 125 156 199 330 171 187 183 185 189 250 283 226 218 196 108 150 284 275 223 303 245 168 88 117 202 177 304 220 201 186 150 217 198 249 165 161 174 226 273 195 318 192 188 237 210 187 316 232 189 181 237 206 390 195 171 196 304 197 213 230 266 176 176 179 272 273 148 193 232 217 168 228 252 244 183 194 184 271 213 250 148 209 215 196 278 340 258 156 223 245 223 201 138 150 292 192 189 190 165 325 177 244 241 185 247 183 273 189 224 234 220 198 275 217 173 184 327 234 242 150 149 280 223 207 363 201 161 296 259 201 216 337 187 172 213 240 246 190 276 197 236 233 191 179 234 185 193 119 248 300 225 182 211 250 228 196 203 242 245 253 311 211 260 163 166 225 107 360 202 191 317 227 208 321 164 237 145 210 119 245 215 232 246 164 214 217 244 124 203 233 230 194 102 305 237 208 268 198 137 230 259 218 121 220 303 171 359 130 240 230 188 304 252 197 183 204 155 175 211 187 222 157 316 249 172 237 159 170 246 254 192 195 179 255 252 182 263 157 251 250 276 309 247 260 240 232 246 321 150 224 187 202 200 177 225 211 165 195 215 143 288 174 213 254 364 309 218 186 174 241 239 204 252 219 270 248 229 233 245 241 229 180 202 242 367 201 331 272 349 286 288 216 200 237 216 209 245 258 288 210 165 178 290 231 202 265 205 306 246 323 174 234 175 268 200 224 320 189 210 336 276 299 282 222 241 222 247 182 243 234 320 220 249 294 255 239 248 312 239 196 313 151 244 200 267 198 146 166 256 184 218 154 240 213 214 240 243 170 189 252 281 195 210 188 264 250 281 215 212 190 207 247 245 326 121 253 274 235 203 172 177 185 237 268 245 227 260 254 200 225 201 222 150 195 209 230 217 247 256 296 200 261 215 148 199 291 269 283 210 232 181 214 237 226 167 226 186 192 189 293 168 233 208 196 206 138 256 232 196 269 137 229 222 268 184 176 229 189 265 219 210 361 138 179 219 200 233 159 254 233 298 253 223 299 295 269 175 236 245 223 252 158 245 175 185 175 166 223 358 239 243 246 366 279 254 165 293 185 328 212 262 260 212 241 151 187 224 175 157 147 165 221 256 279 253 174 251 201 261 194 255 160 285 276 209 176 265 181 223 213 181 195 212 192 298 205 206 172 201 145 347 164 263 197 196 282 319 216 163 217 233 223 249 188 153 251 248 229 324 302 291 217 199 175 129 240 226 285 201 146 186 267 126 311 164 188 214 230 212 269 293 196 195 236 221 233 242 305 180 207 197 266 157 158 153 287 223 208 173 183 218 228 314 163 184 218 222 320 191 166 89 214 263 175 214 241 245 274 155 191 169 138 276 129 161 197 298 211 224 253 247 265 143 226 223 242 188 218 259 301 208 214 200 234 204 280 224 272 192 240 204 199 157 247 297 181 207 185 220 248 310 294 215 207 240 168 155 190 267 206 172 265 322 220 167 230 241 203 308 237 235 275 144 309 136 342 195 233 224 187 228 179 186 154 287 174 302 217 258 205 220 134 192 146 281 297 138 306 294 241 188 283 198 188 306 177 214 266 183 164 205 133 260 214 330 212 280 155 163 202 276 241 220 250 229 199 310 227 204 244 166 253 229 231 119 173 179 191 173 140 202 190 251 178 200 281 163 199 247 201 243 262 200 311 113 178 117 327 231 303 261 269 216 213 153 190 193 212 189 184 238 277 283 259 234 226 222 327 200 204 279 208 322 171 288 253 159 146 182 209 199 285 195 281 254 149 216 196 211 157 219 248 303 202 254 221 224 205 262 358 199 177 208 150 139 208 270 168 147 308 252 271 245 214 150 272 229 226 194 291 163 222 226 232 169 315 181 322 256 254 195 251 242 300 263 195 236 237 132 201 207 268 273 273 225 171 157 301 240 187 188 193 257 340 202 233 265 200 166 278 267 217 219 215 257 275 268 252 176 256 284 313 321 255 107 306 250 235 186 217 150 134 184 170 219 206 203 228 183 281 205 216 179 194 136 172 266 256 156 180 150 215 280 151 145 180 251 234 241 201 169 306 242 188 261 243 254 267 218 225 256 188 96 374 172 193 225 199 241 205 233 205 188 225 215 221 181 142 186 202 232 166 203 164 275 197 215 249 250 253 244 172 214 207 219 204 222 210 139 242 272 242 201 199 285 239 170 320 241 255 252 225 191 283 207 209 241 206 294 219 196 245 372 248 123 204 172 276 160 169 259 197 319 151 283 193 226 260 191 272 288 166 236 348 208 228 228 203 246 263 182 221 224 266 239 151 300 224 249 327 244 147 188 239 256 246 172 207 144 182 150 166 214 225 306 242 208 183 186 193 274 206 193 149 248 240 262 210 215 278 184 214 180 231 223 195 182 261 155 267 182 222 217 241 202 142 265 238 306 231 237 205 278 179 252 228 138 161 295 221 249 97 147 114 214 282 170 208 151 266 184 181 155 253 199 164 257 286 172 211 200 285 203 293 181 224 204 252 233 251 190 153 172 241 276 165 169 191 208 122 273 275 144 165 243 129 237 244 230 156 245 222 235 173 210 293 200 215 294 145 289 205 195 189 197 190 207 218 256 197 235 169 206 163 236 325 215 289 224 260 267 263 198 225 245 186 157 202 229 202 203 307 182 205 178 299 263 202 233 243 172 187 275 313 311 176 266 363 180 107 184 233 186 162 197 154 206 193 300 247 229 156 170 275 162 179 288 223 133 308 281 209 261 191 156 317 169 153 263 313 246 192 323 251 139 231 200 252 210 327 229 206 221 314 269 257 211 180 317 324 165 180 358 186 243 219 239 213 160 262 255 246 158 187 203 169 174 293 209 217 228 209 146 207 247 235 267 325 140 242 138 230 260 190 161 171 150 232 224 194 88 187 242 215 169 120 255 192 226 195 210 163 239 184 212 189 171 291 196 399 239 289 211 167 257 204 186 85 237 300 231 213 195 196 275 57 302 276 255 226 283 201 265 180 227 165 207 187 200 304 194 240 235 179 160 220 57 272 313 135 255 206 231 168 265 197 221 227 266 194 199 199 204 157 136 209 122 288 196 139 225 206 248 231 189 216 274 171 269 221 188 157 275 222 224 247 303 215 281 220 186 257 286 255 176 160 273 236 192 214 185 232 204 247 206 321 233 151 195 224 223 311 134 209 200 162 290 309 239 245 123 303 254 191 301 229 286 188 163 250 214 242 162 154 311 159 227 198 189 168 322 175 165 308 254 169 192 262 223 254 272 176 244 230 249 185 195 334 214 175 278 170 220 193 272 115 221 229 263 275 285 224 276 216 179 264 197 239 240 119 159 272 260 203 153 166 190 223 181 193 201 261 153 172 225 162 245 195 171 324 221 225 117 320 219 281 289 239 189 202 206 120 321 317 209 242 238 244 206 251 186 243 241 320 241 144 266 168 147 155 219 206 231 250 189 212 212 296 345 200 268 154 214 215 157 295 405 201 232 189 232 202 224 275 272 288 187 256 225 236 263 305 194 196 240 328 237 226 179 214 166 268 201 168 180 187 191 163 300 202 205 176 229 229 229 229 150 171 207 149 213 268 127 239 273 271 276 200 304 331 163 217 252 185 193 329 307 276 188 190 251 167 248 235 195 193 190 187 210 146 133 309 133 241 323 150 193 217 239 226 187 185 204 215 296 188 307 191 245 264 237 289 302 294 165 194 244 331 204 137 196 139 216 242 238 229 217 144 218 238 177 279 196 221 189 281 254 188 263 170 268 319 197 173 213 276 215 273 293 275 207 179 251 221 250 257 292 239 251 272 137 223 188 206 264 319 252 243 267 186 160 216 204 168 197 213 208 216 263 221 240 253 233 150 231 262 274 245 200 181 236 263 205 316 234 324 286 319 264 230 232 166 261 231 238 161 194 253 243 382 299 313 238 244 153 220 132 214 285 231 261 268 226 221 154 170 135 260 229 208 272 233 207 292 206 201 137 168 169 307 197 219 195 201 215 236 173 325 267 186 265 252 266 173 288 335 230 236 281 202 230 143 236 188 150 192 226 146 349 256 193 222 286 207 217 231 147 250 260 239 318 140 250 244 263 189 159 183 233 271 258 225 230 184 221 267 242 313 249 265 150 216 262 265 225 291 261 201 219 145 225 165 209 281 245 204 128 290 188 313 161 211 176 235 218 176 264 185 268 253 187 200 203 265 221 271 302 241 154 208 228 247 280 174 193 214 197 258 197 157 224 231 185 216 193 111 272 279 175 281 308 237 175 273 150 205 258 283 264 256 194 231 215 155 244 262 200 233 308 263 175 221 141 333 241 206 199 254 235 263 199 202 165 276 229 294 285 175 259 202 236 317 221 212 260 236 239 208 207 212 201 312 215 193 237 169 223 217 113 211 178 168 251 223 197 250 245 184 179 275 248 136 247 216 227 190 228 204 182 184 212 202 287 126 147 193 180 248 187 251 263 178 223 172 199 215 245 190 177 200 308 203 170 275 194 206 208 317 183 231 283 228 252 181 269 302 204 256 231 193 179 261 316 272 194 278 247 219 170 237 222 276 253 238 208 264 205 161 237 236 200 229 282 268 233 241 392 197 283 286 246 224 244 221 228 238 291 214 172 239 218 179 213 275 166 229 225 215 274 277 231 266 215 241 217 282 324 119 167 205 353 211 222 261 253 218 177 197 177 159 193 206 200 205 227 104 200 161 165 195 168 329 228 172 98 253 233 217 186 231 196 239 269 235 177 215 242 203 255 302 151 301 261 177 184 198 189 162 297 213 255 203 234 266 268 270 233 253 249 239 170 175 320 160 208 225 178 206 231 203 266 251 161 305 183 269 216 270 230 233 179 182 134 185 221 200 227 203 218 210 319 184 349 171 243 372 192 207 95 332 177 209 287 133 125 265 237 295 192 188 202 309 283 235 201 141 268 310 254 207 221 162 169 196 249 192 179 291 185 261 340 275 205 212 237 270 204 147 264 240 196 194 152 198 220 248 283 264 257 234 224 269 242 273 240 219 163 206 200 189 274 332 226 286 217 200 231 187 263 215 278 173 300 200 199 335 202 324 186 282 270 170 191 117 139 298 265 269 172 218 271 298 210 186 223 272 220 287 223 160 272 229 178 244 270 326 264 227 224 318 229 255 282 228 182 288 233 247 223 291 287 174 248 201 396 201 266 185 311 150 146 266 312 252 265 197 194 178 351 174 187 219 249 212 208 141 230 212 284 290 150 256 229 174 130 247 232 123 246 184 311 153 190 191 202 161 246 231 281 112 149 169 228 315 230 178 207 197 219 143 202 232 243 319 311 248 192 226 322 316 119 235 267 169 104 223 316 142 250 147 257 126 260 247 195 251 302 196 199 215 246 262 164 124 197 232 328 250 185 267 232 171 254 225 250 283 229 151 244 208 284 274 220 296 295 268 277 176 232 167 252 244 136 242 339 224 243 229 169 250 240 325 271 286 274 255 122 243 218 174 165 298 339 201 235 254 144 208 348 165 275 216 137 248 236 279 203 253 244 270 246 298 160 246 252 275 169 199 267 186 245 212 356 208 248 236 165 228 254 200 231 202 258 254 217 274 177 244 254 205 200 238 250 184 294 236 212 297 141 216 238 158 225 225 264 266 262 243 191 194 244 232 144 169 179 181 182 138 188 165 210 242 228 297 203 194 188 175 217 208 168 260 222 213 217 191 178 300 254 213 192 139 267 200 249 176 278 200 177 157 169 177 180 224 200 180 293 228 160 222 234 217 250 171 183 202 254 293 259 159 219 290 176 260 127 189 236 238 173 189 325 230 224 217 264 340 388 184 211 218 118 197 155 238 293 184 221 262 274 247 261 212 128 259 241 272 195 232 260 198 206 236 205 269 179 172 301 241 204 237 216 261 224 163 382 257 302 217 272 222 309 178 252 269 262 277 206 208 287 276 231 172 223 190 206 214 234 185 208 286 259 295 295 248 174 197 265 243 249 162 326 233 308 294 173 239 215 190 282 199 167 223 175 210 225 208 274 269 171 262 180 180 296 190 237 147 269 345 125 256 213 231 161 299 211 177 170 212 242 222 199 285 222 254 238 141 173 224 277 269 193 255 242 198 185 260 231 264 217 105 263 257 227 282 230 236 200 209 122 282 230 265 244 236 272 212 145 187 185 283 213 151 133 359 195 179 231 227 152 258 267 219 268 262 280 263 220 191 251 222 256 141 265 216 243 185 239 180 126 178 173 233 261 216 296 258 181 142 201 215 149 208 241 225 116 199 169 213 320 274 249 241 280 244 171 211 155 244 141 244 187 222 235 233 305 349 298 249 179 214 170 302 147 337 176 216 278 210 223 275 164 240 265 272 307 239 163 207 241 177 248 171 203 133 214 283 213 179 266 153 210 289 238 227 184 286 183 191 264 275 208 189 228 292 281 270 244 141 204 193 141 280 160 277 149 146 216 152 241 147 238 211 302 226 160 208 302 222 181 374 186 235 214 246 218 173 159 230 191 317 193 189 203 254 172 189 206 191 259 311 240 150 231 169 219 144 180 248 206 179 137 265 247 262 137 228 269 192 195 172 308 243 221 265 247 188 252 173 125 229 305 173 245 106 204 335 90 233 197 228 270 293 147 241 190 216 186 219 247 217 156 230 214 275 160 181 278 297 195 191 131 127 231 190 223 321 198 205 205 174 169 209 205 253 189 202 202 310 308 259 236 246 202 213 138 220 165 185 195 167 224 188 220 252 225 272 334 130 212 262 181 230 294 218 211 234 312 285 263 260 185 270 206 211 244 281 227 218 286 277 270 225 229 200 167 188 331 179 187 258 205 180 277 98 219 226 212 273 252 189 193 167 253 185 239 209 270 127 294 212 231 182 147 257 248 207 302 161 235 197 273 318 191 220 93 256 196 213 330 193 236 151 212 231 279 216 238 193 198 165 259 202 226 213 186 224 224 172 207 109 246 246 217 221 256 191 241 201 153 249 174 186 169 208 281 213 197 321 172 255 222 228 258 214 213 244 178 275 228 314 262 134 274 216 214 268 314 357 319 174 276 219 254 214 255 243 234 280 203 248 136 145 213 198 150 197 174 269 242 239 324 193 215 205 329 213 191 244 334 186 182 245 283 306 138 285 223 262 199 216 251 145 191 173 217 146 222 199 140 273 294 216 175 234 101 280 240 342 209 239 285 159 220 263 128 212 238 251 103 223 193 199 149 202 234 221 269 179 275 239 238 169 139 126 323 130 240 330 181 232 273 204 216 255 251 168 174 225 170 260 200 284 250 266 174 236 177 239 200 232 171 321 204 174 253 214 211 225 212 338 220 267 215 201 146 239 237 160 185 224 340 189 233 285 208 198 261 388 205 224 308 211 234 189 184 92 146 199 162 128 155 237 323 199 216 185 205 272 194 190 251 303 212 190 236 222 223 226 133 226 244 200 225 263 318 215 109 262 146 120 149 205 203 215 281 188 199 197 256 209 169 225 138 238 237 174 136 156 162 191 189 166 180 192 158 306 148 186 252 191 255 224 186 165 279 203 174 218 173 204 236 258 281 281 253 219 244 202 259 143 359 243 247 244 175 263 217 189 166 332 190 193 234 299 158 201 261 220 162 281 186 311 171 306 175 282 272 122 230 257 275 279 217 300 289 194 141 204 277 254 285 234 256 168 279 245 261 196 191 321 151 239 204 196 197 187 260 212 209 226 281 267 186 186 140 283 272 297 279 377 128 164 149 202 295 118 265 212 172 211 273 207 236 167 183 175 246 136 173 168 244 154 290 246 247 142 157 269 234 234 271 277 308 172 279 281 212 169 245 119 190 249 162 230 226 215 229 242 172 277 275 337 258 203 288 178 181 218 302 354 203 271 239 238 130 247 305 230 183 182 328 222 190 215 162 206 241 226 233 237 179 276 268 313 298 350 224 286 171 181 276 211 154 183 205 208 221 227 233 226 188 237 177 166 300 189 252 229 133 245 271 301 158 184 302 227 166 193 162 294 247 175 239 222 146 249 187 133 175 173 203 219 265 185 186 152 206 226 137 226 285 157 237 245 248 245 178 213 255 269 144 215 201 275 162 175 300 94 255 205 176 200 223 195 203 258 162 355 181 315 211 285 223 157 280 166 164 197 244 168 262 247 221 233 286 139 292 232 220 240 210 252 166 232 156 218 270 163 263 249 164 181 316 278 190 210 216 283 159 298 186 177 190 211 154 239 197 153 174 250 160 118 180 219 129 191 164 274 270 225 191 246 245 243 193 239 117 255 232 248 287 232 202 218 189 174 190 158 181 200 184 301 285 233 292 262 232 148 188 229 265 301 292 219 232 291 248 292 178 284 210 143 192 274 251 193 205 292 293 269 163 158 134 201 160 204 171 148 176 195 206 217 231 271 265 162 145 175 141 253 177 220 209 174 191 261 188 172 161 254 253 120 163 169 200 189 249 217 266 184 328 260 219 251 250 297 163 234 214 261 339 356 204 229 161 266 262 206 200 275 326 177 216 200 163 277 152 236 230 184 222 240 257 229 317 245 206 138 185 268 211 248 164 280 113 214 184 125 277 247 228 222 222 160 193 214 190 257 259 237 168 262 208 285 211 190 290 236 256 135 265 236 233 174 208 214 178 154 257 250 226 227 193 311 322 234 211 253 238 174 307 165 210 249 250 136 253 175 280 184 185 206 290 259 189 184 250 300 200 189 295 279 169 228 204 158 212 251 207 144 206 194 210 255 389 194 252 233 164 232 368 213 229 162 219 295 225 162 164 218 137 241 286 210 287 340 163 278 180 178 200 184 242 241 215 248 196 205 223 211 177 230 237 246 245 254 226 264 191 219 197 270 141 232 186 228 144 320 231 270 342 196 282 284 173 201 213 178 210 265 200 181 215 215 195 214 215 184 233 149 163 231 184 257 241 199 228 244 191 233 203 268 268 142 195 271 210 225 124 171 170 290 193 235 143 208 195 227 280 249 219 212 255 163 192 163 182 251 239 220 197 213 227 297 337 238 271 179 384 233 247 216 203 192 135 301 254 222 281 135 311 199 154 173 230 342 157 219 182 183 193 206 134 230 173 187 232 282 174 155 250 247 219 272 278 122 258 293 120 227 200 225 244 241 181 167 128 299 274 183 212 214 120 232 226 182 256 177 179 205 346 187 201 190 180 198 226 215 208 197 283 163 251 189 277 189 219 139 227 220 235 242 234 181 254 149 282 249 281 263 211 153 150 145 238 255 246 272 278 300 228 242 202 194 182 230 289 267 252 202 315 242 254 265 125 193 155 207 207 171 188 225 260 177 234 177 276 158 255 162 216 288 162 333 250 310 131 168 245 176 271 190 161 155 187 191 296 217 213 271 171 271 192 236 245 264 234 211 160 244 208 222 269 185 178 204 288 202 287 274 220 187 198 260 199 232 260 208 205 171 228 292 200 117 237 171 194 260 206 268 190 269 232 376 239 254 198 194 224 232 275 158 209 178 186 227 196 162 324 232 180 253 198 259 213 301 219 103 274 236 206 186 159 257 198 265 286 221 237 188 188 291 224 233 223 197 232 269 285 311 227 190 241 179 171 172 157 297 127 184 219 203 144 244 172 277 203 212 163 244 193 355 222 257 211 312 197 268 225 256 259 193 191 197 217 163 274 205 147 244 230 221 245 298 189 207 193 264 246 170 247 305 306 192 248 211 256 214 276 224 245 245 155 242 147 157 206 150 249 208 231 205 197 240 250 205 258 268 265 256 167 255 235 278 233 166 182 163 308 196 165 246 241 318 224 218 239 309 182 233 228 212 195 318 219 273 231 257 185 245 314 168 84 340 333 125 192 231 376 324 238 157 205 231 199 224 160 232 200 191 265 156 246 169 220 211 177 231 181 281 238 245 213 173 280 243 204 222 173 267 165 199 175 179 235 214 212 258 216 181 217 231 234 284 188 281 226 192 235 206 295 199 214 166 222 241 282 233 199 290 147 250 294 287 223 191 223 314 170 220 245 211 314 276 183 274 134 233 255 191 207 224 162 181 304 246 179 259 252 256 268 222 188 292 169 204 166 240 208 239 248 234 271 234 169 143 214 143 201 315 185 275 273 298 272 259 280 210 227 192 207 255 157 183 254 259 253 171 218 220 248 172 187 194 228 164 210 280 168 220 212 226 199 248 253 239 302 197 155 224 283 278 284 211 272 288 333 284 252 194 172 195 278 209 190 286 319 226 236 242 130 218 232 279 231 230 140 207 230 237 210 195 289 227 140 242 199 307 195 261 250 251 247 201 311 160 217 187 209 114 278 159 251 218 196 285 242 187 200 225 254 258 248 236 281 212 180 267 261 211 171 243 154 236 268 192 321 213 183 117 210 289 286 239 229 207 186 242 258 169 228 234 153 176 294 195 185 263 278 181 229 162 186 176 278 244 257 320 217 245 209 241 141 229 282 187 278 255 312 225 182 171 187 196 284 214 196 302 211 250 255 258 157 315 199 188 158 177 223 191 206 214 136 203 210 241 221 219 220 219 155 223 206 200 353 210 181 227 182 228 182 194 360 290 257 192 270 179 238 305 239 172 205 260 239 190 239 259 300 156 238 286 230 217 247 229 206 201 194 336 185 177 229 122 326 216 286 153 264 177 198 182 271 139 197 197 264 186 199 121 185 255 169 207 287 227 204 158 205 210 194 283 235 292 225 265 238 275 204 219 187 137 197 193 177 120 214 318 175 127 163 247 252 253 142 196 311 213 266 230 227 243 286 322 200 244 143 227 289 284 164 269 238 196 208 257 287 201 283 230 223 198 228 190 250 241 154 239 166 236 144 172 248 288 244 151 263 183 235 220 209 255 293 184 181 184 233 252 202 139 188 180 196 224 178 223 153 193 260 280 137 226 197 215 226 208 194 293 273 225 180 232 177 243 247 258 97 313 139 158 252 260 251 293 283 242 60 173 286 387 273 293 244 237 268 177 239 203 254 324 233 252 193 269 281 234 259 205 153 250 236 201 204 225 266 256 308 250 267 197 200 228 275 210 150 246 327 290 252 199 170 124 222 217 225 218 228 242 202 207 242 285 140 204 226 123 232 278 220 189 175 256 232 148 264 220 205 246 243 182 218 221 151 208 214 228 148 283 248 265 160 215 164 203 239 221 260 201 350 211 286 299 196 192 194 252 248 212 157 98 223 303 217 212 216 271 214 289 266 282 171 120 240 185 234 134 146 159 277 286 315 246 191 120 222 260 210 311 246 231 221 197 212 214 245 231 137 186 245 256 166 219 267 248 153 274 246 254 283 204 229 189 271 271 192 204 215 225 213 308 238 171 264 253 179 200 257 182 289 172 210 253 219 258 198 143 160 280 239 282 197 220 298 381 265 376 281 153 235 225 201 192 253 208 198 239 221 250 293 218 208 261 161 256 201 173 201 115 241 170 176 172 240 238 127 240 291 246 251 290 244 179 271 188 232 306 224 201 235 173 162 225 236 198 224 188 231 160 239 198 221 290 190 229 253 196 193 237 264 274 225 243 195 111 166 162 203 315 234 290 299 182 222 238 228 101 227 220 274 248 157 196 208 231 193 193 195 272 320 233 131 198 177 283 206 240 179 217 139 249 324 230 221 211 190 174 318 260 247 273 276 197 209 188 285 195 205 255 240 148 290 152 215 189 122 233 333 259 314 238 189 184 217 266 232 282 233 299 211 269 116 199 219 110 213 251 208 167 193 272 319 215 308 304 264 238 124 258 234 206 317 222 200 338 316 178 253 228 289 192 261 231 230 288 200 220 144 161 230 249 208 216 341 256 153 288 234 153 238 231 206 240 282 181 221 175 226 196 112 215 255 119 293 246 195 240 222 198 256 243 146 267 176 215 254 142 209 199 208 218 266 256 263 130 152 195 210 240 241 197 194 179 113 243 198 285 324 268 230 235 231 243 270 227 170 321 204 288 220 228 184 153 132 128 254 200 147 174 168 234 153 279 287 281 326 257 209 200 232 175 200 216 163 186 231 143 162 224 207 261 226 219 237 216 247 164 261 177 256 250 225 221 269 207 305 207 250 294 210 168 238 284 204 249 240 254 206 188 274 176 226 193 221 114 202 187 207 209 184 187 132 270 135 223 175 165 263 258 232 212 163 291 219 194 333 245 239 177 290 273 212 244 264 227 151 195 278 259 241 218 214 297 197 206 140 335 253 162 168 234 194 219 245 188 241 152 205 256 240 175 130 181 198 156 191 228 296 317 178 206 253 282 266 284 198 218 220 127 241 164 235 289 215 266 237 147 258 247 199 234 211 233 258 237 245 221 166 224 361 205 185 229 217 227 240 288 226 217 297 286 224 177 253 290 162 143 174 157 156 303 254 177 222 244 238 189 238 248 263 121 212 312 265 273 249 251 212 210 143 205 250 273 194 156 218 243 175 186 326 203 297 233 241 171 140 236 246 206 261 270 238 253 232 211 186 168 167 320 217 188 253 215 258 256 153 281 211 259 180 237 227 279 224 299 176 206 233 308 293 131 312 337 246 173 185 151 107 143 232 271 166 253 219 219 310 243 127 237 220 276 133 237 176 277 243 211 175 125 286 256 192 240 153 145 183 210 226 211 310 263 174 294 233 126 191 242 211 294 213 218 267 225 194 189 219 200 270 195 287 388 261 221 255 298 195 172 205 192 132 94 267 267 194 178 194 224 228 310 168 139 221 235 217 120 221 259 357 263 187 208 239 177 256 234 285 204 246 347 189 256 232 220 141 278 214 224 217 185 196 142 207 207 200 198 213 231 314 200 170 247 259 272 281 240 200 205 264 188 211 139 178 270 202 137 223 255 203 188 246 274 210 273 226 281 277 180 185 177 196 171 251 252 171 236 219 253 296 225 203 315 262 322 207 195 203 252 154 250 203 262 244 220 201 222 188 167 163 230 127 275 184 230 200 245 244 113 230 261 232 215 175 278 120 225 283 315 223 308 228 267 260 159 298 149 231 196 281 183 164 215 181 181 221 176 144 89 346 171 154 256 211 235 259 211 164 236 170 267 330 208 254 118 170 194 186 139 176 212 148 228 260 234 213 192 286 262 166 330 229 203 237 193 114 173 265 252 220 255 241 198 143 178 226 248 225 200 291 216 364 334 201 224 225 252 179 246 198 316 203 202 157 208 257 231 171 320 225 192 254 226 194 231 182 246 211 193 210 274 187 311 140 192 230 229 312 254 208 230 203 218 283 142 267 276 219 196 292 198 148 226 280 157 199 302 244 154 201 223 268 191 163 182 160 80 230 225 214 224 205 191 208 186 172 181 138 176 175 303 156 287 154 235 237 253 292 153 306 257 217 312 284 168 244 195 204 205 261 236 213 156 207 170 195 199 208 229 296 162 275 157 238 314 220 246 257 206 235 263 199 270 175 208 374 277 280 185 209 172 201 262 229 222 237 150 163 247 260 201 225 298 140 203 317 215 203 255 263 188 214 221 202 179 174 235 271 193 201 198 179 317 212 266 131 285 189 273 199 222 285 247 277 284 308 191 249 292 306 202 177 250 216 305 158 263 178 253 276 136 143 190 225 187 196 188 245 283 231 165 165 211 209 171 184 137 303 198 151 184 202 246 185 157 139 298 147 236 215 244 264 251 240 244 226 171 225 169 171 192 201 141 181 244 197 222 236 257 234 292 272 215 256 153 183 214 115 271 290 167 174 182 167 285 157 323 217 191 231 261 207 206 229 188 174 240 181 274 172 327 249 241 246 239 197 159 230 215 244 237 189 211 228 172 245 212 235 236 210 179 218 120 215 201 262 140 257 294 179 291 223 250 297 167 270 186 201 170 200 227 238 226 249 122 216 308 262 247 146 345 262 257 222 172 127 226 213 215 111 162 170 300 193 157 181 179 199 156 272 281 245 220 250 250 179 228 324 269 226 247 221 250 283 156 154 210 269 171 147 231 152 227 215 205 155 382 243 192 193 222 187 181 228 213 167 233 195 211 151 198 239 203 234 166 207 182 348 219 235 210 267 217 211 305 176 247 241 268 206 158 134 204 286 201 265 342 189 201 275 262 165 251 197 209 248 293 239 254 217 313 200 251 194 225 149 175 158 238 183 139 239 237 243 274 222 261 162 282 283 173 141 170 331 293 217 220 256 195 335 199 249 171 199 195 169 180 170 257 216 167 153 293 243 300 164 250 190 366 157 200 199 198 260 216 134 354 216 151 181 257 172 344 201 226 135 275 230 235 255 245 282 182 208 239 166 282 141 194 192 216 213 244 231 321 335 193 171 122 245 267 210 201 186 230 239 174 180 196 174 273 132 301 185 142 274 164 201 213 221 103 252 260 158 284 225 197 294 180 228 225 248 258 219 193 259 260 245 219 262 234 272 294 182 186 201 237 235 255 257 191 233 193 257 257 217 218 176 174 237 177 182 341 132 270 209 252 290 152 167 327 399 242 224 305 261 267 237 304 154 230 192 174 216 127 216 222 221 274 208 238 265 289 206 253 222 210 233 189 248 259 238 230 265 246 242 266 224 316 208 168 223 243 268 260 242 177 232 176 257 212 206 301 224 216 213 228 171 201 191 289 111 305 233 272 224 312 169 191 254 148 246 289 141 206 249 369 145 258 172 185 221 278 292 213 200 309 227 189 178 223 278 230 288 182 203 234 94 109 179 250 246 225 290 190 169 190 170 261 264 328 200 191 301 320 236 237 252 194 154 225 225 311 218 186 224 164 205 338 252 216 182 173 289 239 183 344 240 199 270 220 240 170 191 213 23</t>
+  </si>
+  <si>
+    <t>GAM(0.4755716571829439, -4.792402098072272e-21, 0.9784593236376165)</t>
+  </si>
+  <si>
+    <t>2 1 1 0 0 0 1 1 1 0 1 1 0 0 1 1 1 3 2 0 0 0 1 1 2 2 1 0 1 4 1 2 3 1 0 0 0 0 0 1 2 3 2 1 1 0 1 1 2 1 0 0 0 1 0 1 2 0 1 2 0 4 1 2 1 2 1 1 1 0 0 0 2 0 1 2 1 1 3 2 1 2 1 3 1 1 3 1 0 1 1 1 2 0 2 3 2 1 0 3 1 2 1 1 1 0 3 0 1 2 0 1 1 1 2 2 1 2 1 1 0 0 2 2 1 1 0 2 2 2 0 1 2 2 2 1 1 1 1 1 2 1 3 2 1 1 3 0 2 4 1 1 2 1 1 1 1 2 1 2 2 0 2 0 0 1 0 0 1 1 3 1 1 0 0 2 1 2 3 3 2 1 2 3 1 1 0 1 0 0 3 0 2 2 1 1 2 2 1 2 2 1 1 0 2 2 2 2 2 1 0 0 1 1 1 1 0 4 1 1 2 1 2 4 1 2 1 2 0 0 2 2 2 2 2 0 2 2 3 0 0 1 1 2 4 1 0 2 1 1 4 2 2 1 0 1 0 2 2 1 2 1 0 2 2 1 0 1 0 1 1 0 2 1 1 1 2 0 3 0 2 0 2 2 1 0 1 2 1 1 1 1 4 0 2 1 1 2 3 2 3 2 0 1 1 2 2 1 0 2 1 0 1 2 0 4 0 1 1 1 1 0 1 3 1 1 2 1 0 2 1 0 1 0 1 1 1 2 1 0 2 0 1 2 1 2 1 1 0 1 3 2 1 0 1 0 0 3 1 1 1 0 2 4 1 1 2 0 1 2 1 2 0 1 1 2 1 1 1 1 1 0 2 0 3 1 2 1 1 2 1 1 1 1 0 0 0 1 2 2 0 0 0 1 0 1 1 2 0 1 1 1 1 1 0 2 2 3 1 2 1 0 0 1 1 2 1 1 1 2 2 1 1 3 1 3 2 1 1 0 1 1 1 0 2 4 2 1 1 2 1 0 1 2 1 1 1 1 1 1 0 1 0 1 2 1 2 3 3 0 2 0 1 0 2 2 1 1 0 1 1 1 1 1 1 2 1 1 1 1 0 3 2 2 1 1 0 1 2 2 1 1 3 0 1 0 0 0 1 0 3 0 3 1 0 2 1 2 2 0 1 0 1 0 0 0 0 2 1 2 1 0 2 2 4 2 1 4 1 1 0 2 1 2 0 2 1 2 1 1 2 2 2 2 0 0 1 1 3 1 2 2 1 2 1 1 1 2 1 2 2 1 0 1 3 1 0 0 1 1 1 1 2 1 0 1 1 1 0 1 1 0 1 1 2 0 3 0 1 1 0 1 2 2 1 1 0 1 1 1 2 1 2 1 2 1 3 3 1 0 1 2 0 1 2 2 0 1 1 0 1 1 1 1 2 1 1 0 1 1 1 0 0 1 0 1 1 1 1 3 1 1 1 2 2 1 1 1 0 1 1 0 0 0 1 3 0 1 2 1 1 1 0 0 0 1 2 1 1 1 0 1 2 1 2 2 2 1 0 1 1 0 1 1 0 1 3 1 1 1 1 3 0 2 3 1 0 2 1 2 0 2 1 0 1 1 2 1 1 0 1 2 1 2 1 0 1 2 1 2 2 1 2 1 2 0 2 3 2 1 2 0 0 1 0 1 1 1 1 1 1 2 2 1 1 2 1 1 0 1 3 2 3 2 0 2 1 3 0 2 0 1 1 1 2 1 2 2 0 0 3 1 0 0 0 2 1 1 2 1 2 1 1 1 0 2 2 2 2 1 0 1 1 2 0 1 0 1 1 1 0 0 0 6 0 1 2 0 0 0 2 0 0 0 2 0 2 0 2 1 1 1 1 1 2 1 1 3 0 1 3 0 3 1 2 2 1 1 3 0 2 2 1 1 1 2 1 0 0 1 1 1 0 2 2 2 2 3 1 1 0 0 0 0 1 0 1 2 1 2 1 1 2 0 1 1 2 3 1 1 1 4 0 3 0 0 0 2 1 0 0 1 0 1 1 0 0 1 2 2 0 1 1 1 0 1 1 1 2 1 1 0 2 1 0 1 3 0 1 0 2 2 2 0 1 0 2 1 1 1 1 1 1 0 0 1 3 1 2 1 1 2 2 1 3 1 2 2 0 2 0 1 1 1 1 0 2 1 2 1 1 1 0 0 1 2 3 1 1 0 3 1 1 1 0 0 2 0 1 1 3 4 0 1 1 0 2 2 1 0 0 1 0 1 1 1 2 1 0 0 0 1 2 1 1 1 1 0 3 1 3 1 2 0 3 1 0 2 1 0 2 1 2 0 0 1 2 1 1 2 1 1 2 1 0 0 1 0 2 0 1 1 2 2 1 1 2 2 1 1 0 2 1 2 1 0 1 3 1 2 1 3 1 2 2 1 2 1 0 3 1 4 2 0 0 2 1 2 2 1 1 0 0 1 2 1 2 1 1 2 2 0 1 2 0 2 2 2 1 2 1 0 1 2 0 0 1 1 1 1 2 2 1 0 1 3 0 0 4 1 2 1 3 2 2 1 0 1 1 1 0 0 1 1 1 1 2 1 0 3 1 0 1 1 2 3 0 1 1 0 1 1 1 2 2 0 1 2 0 0 1 3 0 3 3 2 1 3 2 2 1 1 2 0 0 0 1 1 1 0 0 1 1 0 1 1 1 0 1 1 3 1 1 3 1 1 0 1 4 2 2 2 3 1 3 1 0 2 1 0 1 2 1 0 2 1 0 2 2 1 1 1 3 0 0 2 0 1 0 1 3 2 1 1 2 2 1 1 4 0 1 1 1 2 0 4 1 1 1 0 2 1 0 0 1 1 2 2 1 1 0 2 2 2 0 1 1 0 2 1 0 1 3 2 0 0 1 0 0 0 1 1 1 2 1 3 1 0 2 2 0 0 1 1 2 3 0 1 1 2 0 0 1 2 2 1 0 1 0 1 1 1 1 0 0 0 1 1 1 2 1 0 1 0 1 3 0 2 0 0 0 1 1 1 1 0 1 1 3 3 1 2 2 3 0 3 0 2 2 3 1 0 5 2 1 3 3 2 0 2 0 2 2 0 1 1 2 0 3 1 1 1 3 1 2 0 2 0 1 1 0 1 3 0 1 1 1 0 2 3 3 0 0 1 1 2 0 0 3 1 1 1 0 1 1 1 1 1 0 0 1 2 1 1 1 0 1 3 2 0 2 0 2 0 0 2 1 5 1 0 2 0 1 1 1 1 3 0 2 0 2 1 1 0 2 0 0 0 1 1 2 1 3 2 2 2 0 1 2 3 0 2 1 1 2 0 2 2 2 1 1 1 1 2 0 1 1 0 2 2 2 2 1 0 1 1 0 1 3 0 2 1 1 1 2 2 2 1 2 2 0 1 1 0 1 2 1 1 1 1 1 4 0 1 1 1 3 1 1 1 0 1 1 2 1 1 3 1 1 0 1 1 2 1 1 0 0 3 2 2 0 0 0 1 4 2 0 1 1 1 1 1 2 1 1 1 2 3 1 1 2 2 2 1 0 1 0 2 2 2 2 0 2 0 0 2 2 1 1 1 1 2 2 0 1 1 2 1 1 1 2 1 2 0 1 0 1 1 2 1 1 1 2 0 0 2 0 0 0 2 0 2 2 1 1 2 1 1 2 1 1 1 1 1 1 1 1 1 1 3 0 1 3 1 2 2 0 1 1 2 3 0 1 2 1 0 0 0 1 0 2 1 2 1 1 0 1 3 2 1 3 1 3 1 1 0 0 2 2 2 0 2 3 1 1 1 0 0 0 3 0 1 1 2 0 1 5 2 0 2 1 1 3 1 0 1 1 1 0 2 2 1 1 1 1 0 0 0 1 2 0 2 2 2 2 0 3 3 0 1 2 1 2 1 1 1 0 0 2 1 1 1 3 1 1 0 2 1 2 0 0 1 1 0 2 1 0 1 2 2 1 1 1 1 0 2 1 1 0 2 1 1 2 0 0 3 2 1 1 1 2 0 1 0 1 2 0 1 3 0 3 0 0 1 1 1 2 1 3 1 2 1 3 2 0 2 1 2 1 3 2 0 2 2 2 0 1 1 2 2 1 0 0 1 1 1 1 0 0 2 1 1 0 0 3 3 1 1 0 0 1 1 1 0 0 1 4 2 2 1 0 0 0 1 1 1 0 2 1 2 1 2 0 1 1 2 1 1 2 0 0 0 2 1 3 0 2 1 1 2 1 2 0 2 2 1 1 4 1 1 2 1 1 2 3 4 0 1 3 2 2 1 2 0 0 1 0 1 1 2 1 2 0 1 2 1 1 0 2 1 1 0 2 0 1 2 0 2 2 1 0 2 1 5 0 1 1 2 0 1 0 2 0 1 2 0 3 0 0 2 4 0 1 0 1 1 2 1 1 0 1 1 1 1 0 2 1 2 1 1 4 1 2 2 3 1 2 1 1 0 1 0 0 1 1 0 1 2 1 2 0 0 1 0 0 1 0 2 1 4 0 1 0 0 1 0 1 1 2 1 1 0 1 0 1 0 1 2 3 1 0 1 0 2 1 2 1 1 0 1 1 2 1 1 1 0 1 2 1 2 1 1 1 1 0 1 1 1 3 2 3 0 1 0 0 0 2 1 3 3 0 0 1 1 0 0 0 0 2 0 0 2 1 2 1 2 0 0 1 1 3 1 1 1 1 2 0 4 0 0 1 3 3 1 1 2 2 1 1 0 0 1 2 0 0 3 0 3 0 1 0 1 1 2 1 2 0 1 1 0 2 1 0 2 0 0 0 2 0 1 1 1 2 1 2 1 2 2 2 2 1 2 1 1 1 1 1 1 1 1 1 1 0 2 2 2 2 1 5 1 3 1 2 0 4 1 3 1 0 1 1 2 2 2 1 1 1 2 2 2 2 2 3 1 0 1 1 0 3 2 1 2 1 0 0 1 0 3 2 1 3 1 1 2 1 1 2 0 3 1 2 3 3 1 1 1 1 2 1 1 2 4 1 2 3 2 2 1 1 2 0 0 1 2 1 0 2 1 2 3 0 0 0 1 3 0 2 1 2 3 2 1 0 4 1 1 1 2 0 0 2 3 2 0 0 1 1 1 3 2 1 1 0 1 0 1 0 2 1 0 1 1 1 2 0 0 0 0 3 1 1 1 1 2 0 1 2 0 0 1 1 0 1 2 1 2 2 1 1 3 1 4 0 2 0 1 1 0 0 1 3 1 1 0 3 2 4 2 1 2 0 2 1 1 2 1 0 2 2 1 0 2 0 1 2 3 2 1 0 2 2 1 1 1 0 0 0 0 1 1 1 1 1 0 1 2 3 1 1 0 1 0 0 1 2 1 1 2 1 1 0 1 2 0 1 0 2 0 1 0 2 1 1 0 2 0 3 1 1 1 1 1 2 1 1 2 0 1 0 0 0 1 0 1 1 1 0 1 1 0 0 1 1 1 1 1 0 0 2 1 2 2 0 2 1 1 2 0 2 2 2 0 2 0 1 1 1 2 2 2 1 2 3 3 1 2 4 2 2 0 1 1 1 1 1 1 0 3 0 3 1 0 0 0 2 0 2 0 2 1 1 2 0 0 1 1 2 2 2 1 1 2 2 1 0 1 2 0 2 1 1 0 2 0 1 1 1 1 2 1 0 3 1 3 2 2 0 2 3 4 2 0 2 1 2 1 3 2 2 2 0 2 2 1 0 0 1 0 3 1 3 0 2 1 2 3 1 1 2 1 1 2 0 1 3 1 3 1 2 1 1 2 3 2 0 1 2 1 2 1 2 2 2 2 1 2 0 1 2 1 0 1 1 2 0 0 1 2 4 0 0 0 3 1 1 1 2 1 0 0 3 1 3 4 2 0 1 1 2 1 1 2 1 0 1 2 0 2 0 1 1 1 1 1 0 0 2 1 1 0 1 0 2 0 1 1 0 1 3 0 0 1 0 2 1 1 3 2 2 2 3 4 1 1 1 1 4 2 1 1 3 1 1 1 0 1 0 1 4 2 0 2 1 3 1 0 2 0 0 0 0 0 1 1 2 0 1 1 2 2 0 1 2 1 1 2 1 2 0 2 3 0 1 0 1 1 1 1 0 3 1 1 0 0 1 0 1 0 2 4 3 3 1 0 1 0 1 1 1 0 0 3 3 1 1 0 1 0 0 1 2 1 0 1 0 0 1 1 3 1 2 0 2 1 2 1 2 1 2 1 2 2 1 1 2 0 0 1 0 0 0 1 1 0 1 2 1 0 1 1 1 0 1 1 1 1 1 2 1 2 1 1 0 1 1 2 1 1 2 1 3 1 2 1 0 0 3 0 0 1 1 1 1 0 2 0 2 0 1 0 3 1 2 1 1 0 1 1 0 1 3 3 0 1 2 3 1 1 3 0 1 3 1 5 1 3 2 1 1 1 0 3 1 0 1 2 2 0 3 1 1 3 3 1 1 1 2 0 3 2 1 0 1 3 1 0 1 2 2 2 2 0 0 2 3 0 0 1 0 1 1 2 1 1 0 3 0 1 0 1 1 3 1 0 3 0 1 1 5 0 3 1 1 3 0 1 0 1 3 3 2 1 1 2 4 2 0 3 2 1 2 1 1 3 1 1 1 1 1 0 0 1 0 1 1 2 0 1 0 0 1 0 2 3 1 0 0 1 0 1 1 0 0 1 0 2 0 3 0 1 2 1 1 1 0 2 2 3 1 1 0 2 1 1 0 2 3 1 1 0 0 2 1 0 1 2 1 2 0 1 1 1 3 1 1 2 1 1 2 2 1 1 1 1 0 1 0 1 0 1 1 2 0 0 1 1 0 1 2 1 1 1 0 1 2 0 0 1 1 1 0 2 0 0 2 2 0 1 1 2 1 2 3 1 2 2 2 2 1 0 1 2 3 1 2 1 1 5 1 1 3 2 1 1 1 0 0 1 0 2 2 4 0 2 1 1 2 2 0 3 1 0 2 2 0 2 0 5 2 0 1 0 2 1 1 1 2 1 0 1 1 2 2 0 1 0 2 1 2 2 3 1 0 1 1 3 1 1 1 2 1 1 0 1 2 0 1 0 0 0 1 0 0 3 2 1 2 3 1 2 1 2 0 0 2 0 1 0 0 0 0 1 1 2 0 1 1 1 0 1 0 0 1 1 1 1 1 1 0 1 2 0 1 1 2 0 0 0 1 1 0 1 1 3 1 1 0 0 1 1 1 0 1 0 1 0 1 2 0 1 0 2 1 1 1 2 1 0 2 2 1 4 3 3 2 1 1 1 1 2 2 2 1 2 1 1 1 4 1 3 0 2 0 2 1 3 0 3 2 0 1 1 0 1 0 1 0 1 1 1 1 0 1 1 0 0 1 3 0 1 3 2 2 0 1 4 0 0 0 2 1 4 0 2 1 0 0 1 1 3 0 1 0 1 0 1 0 3 1 1 4 0 2 0 4 2 2 0 0 2 0 2 2 0 0 0 0 1 3 2 1 1 1 3 1 0 0 2 0 1 0 1 1 1 2 1 1 1 0 0 2 2 2 1 1 0 2 1 2 1 1 2 3 3 2 1 0 0 1 1 3 1 4 1 2 1 1 1 1 1 3 2 3 3 3 1 0 0 0 0 2 1 0 1 1 2 1 1 0 0 2 2 0 1 2 1 1 2 1 2 2 1 1 1 3 1 1 3 2 1 0 1 1 1 0 3 2 1 0 1 0 0 1 0 3 1 2 3 1 0 0 1 0 0 1 0 2 2 0 4 0 0 0 0 0 1 0 2 0 0 2 3 2 3 1 0 1 1 1 2 2 4 1 0 1 1 1 1 2 1 1 0 1 0 4 2 1 0 1 3 0 1 1 1 0 2 4 1 1 2 1 1 1 1 1 2 0 1 2 0 1 0 1 1 2 1 2 1 0 1 2 1 0 1 1 0 2 1 2 1 3 1 0 2 1 1 1 1 1 0 1 1 3 0 1 2 1 0 2 2 0 3 1 3 0 1 0 1 2 2 3 1 1 0 1 1 1 2 1 1 1 1 1 1 0 2 3 1 0 2 1 0 2 1 2 1 0 0 1 0 4 3 0 2 2 1 1 1 0 2 3 0 1 2 2 0 1 0 0 2 1 2 1 0 1 1 0 3 1 0 1 1 2 2 2 0 0 3 2 2 0 2 0 1 0 0 2 2 0 2 2 1 1 0 0 4 0 1 0 2 0 2 1 1 1 2 0 1 2 0 0 0 1 1 1 0 1 0 1 1 2 3 0 1 1 1 0 2 1 3 1 1 1 2 2 2 1 1 1 0 2 2 3 3 1 1 1 1 0 0 1 4 0 0 1 1 2 2 1 2 0 4 5 2 0 1 1 2 0 0 3 1 4 1 2 0 2 2 2 1 1 2 0 2 1 2 0 0 1 2 0 1 0 1 2 1 2 2 0 0 1 3 0 0 1 0 0 2 2 0 1 3 0 1 2 0 0 1 2 2 3 0 1 0 0 2 1 5 0 1 0 3 2 1 1 0 2 1 2 1 1 0 1 1 1 2 0 3 2 0 0 0 1 2 3 1 0 0 1 3 1 1 1 1 2 0 1 2 3 1 2 2 0 1 0 1 1 1 1 3 0 1 2 1 0 0 0 2 0 0 1 0 0 0 0 0 2 1 2 2 0 3 0 1 1 2 0 1 3 2 0 1 1 2 2 0 1 2 0 1 1 1 2 3 0 2 2 1 1 2 0 1 2 3 1 2 3 0 0 2 0 1 2 2 1 3 0 3 1 1 1 3 1 3 2 4 1 1 1 3 0 2 2 1 2 2 3 3 3 2 1 2 0 1 0 1 0 1 1 1 0 3 2 2 2 1 2 0 1 0 1 3 2 1 0 0 2 0 0 2 1 1 1 1 1 1 1 2 1 1 1 0 1 1 1 1 1 2 2 0 1 1 1 1 2 2 2 1 3 3 2 1 2 0 2 0 0 1 4 2 2 1 0 0 1 0 0 1 2 2 0 1 0 0 2 0 1 0 2 1 0 3 1 1 0 0 2 0 2 1 3 1 2 1 1 0 1 1 1 1 0 0 1 1 1 0 1 2 0 3 2 1 1 3 1 1 1 0 1 1 1 0 1 1 1 0 3 2 3 1 0 1 3 2 4 1 2 1 0 0 1 1 1 1 0 4 2 0 1 1 1 2 2 1 1 2 0 2 0 1 2 1 1 0 0 2 0 0 0 0 3 0 2 3 0 1 1 1 2 2 2 1 0 2 1 1 0 2 3 1 2 3 1 1 1 0 2 1 0 1 0 2 2 3 1 2 3 0 1 3 0 1 0 0 1 1 1 1 3 1 2 2 2 1 0 0 1 1 1 2 1 2 1 2 2 1 1 1 3 2 1 1 2 1 0 0 0 1 0 1 0 0 2 0 1 1 1 1 1 1 1 2 2 2 0 1 0 1 1 1 0 1 2 2 2 1 1 1 1 1 1 0 2 1 0 1 0 2 1 1 2 2 2 3 1 0 1 2 0 1 2 1 3 1 2 1 2 2 4 2 0 1 1 3 1 0 0 1 1 0 1 1 1 1 0 1 2 0 0 0 1 3 3 0 2 0 0 1 1 0 1 2 0 2 4 3 1 0 1 3 1 3 2 2 1 0 1 0 0 3 1 1 4 1 1 2 0 1 2 1 2 2 1 2 2 1 3 0 1 2 1 3 0 2 3 1 3 1 2 1 1 1 1 1 1 3 2 4 1 2 0 1 1 3 1 0 1 0 3 2 1 2 1 1 1 0 1 1 1 1 1 0 2 3 0 1 1 0 1 0 2 0 2 0 1 2 1 1 1 1 3 2 1 1 1 0 2 2 2 2 2 0 1 2 0 3 1 2 2 1 2 1 0 1 2 0 1 2 1 3 3 1 2 1 0 1 1 0 2 2 0 3 1 1 1 2 0 1 0 0 0 0 2 1 1 3 4 2 2 0 1 4 2 0 2 1 0 0 0 1 3 2 1 0 1 1 0 4 1 0 3 0 0 1 2 1 0 1 0 0 0 2 1 1 2 2 1 1 2 3 0 1 0 0 1 0 1 1 1 1 2 3 2 1 1 1 0 3 0 3 1 1 2 1 3 2 1 1 1 1 2 1 1 3 1 0 1 1 2 2 1 2 2 0 1 1 2 2 1 1 0 1 1 0 2 1 2 1 0 2 1 2 2 0 1 1 0 1 1 1 1 1 2 0 1 1 4 1 2 3 1 0 3 1 1 3 0 1 1 1 0 0 1 2 0 2 0 0 2 1 2 0 0 1 3 1 2 1 1 1 1 3 1 2 1 2 0 0 2 3 0 1 2 1 1 0 0 2 2 2 1 2 2 0 0 1 2 1 1 0 0 2 0 0 2 2 1 3 1 0 1 0 1 1 1 1 1 1 1 2 3 1 3 1 2 0 0 1 2 0 2 1 0 0 1 0 2 0 0 1 1 1 2 1 3 1 1 2 1 2 1 2 0 1 0 1 1 0 0 1 1 0 4 0 2 2 0 0 3 0 1 1 3 1 2 4 1 1 1 0 3 1 0 2 3 1 1 2 3 0 1 2 2 1 2 3 2 0 2 0 1 0 1 1 0 1 1 0 2 0 1 0 0 0 2 1 0 2 0 2 2 1 1 1 1 1 0 0 1 2 0 1 0 1 3 1 0 2 2 2 1 2 0 1 0 2 1 0 0 1 2 0 2 1 0 1 0 1 1 0 2 2 0 2 1 2 1 1 2 1 1 2 4 4 1 1 2 1 1 1 2 0 2 2 2 3 2 1 1 4 2 2 0 5 2 0 2 1 1 1 4 2 3 1 1 2 1 0 1 0 0 0 2 1 1 2 2 1 0 1 4 1 0 1 2 1 2 1 1 2 0 1 2 2 0 1 2 0 1 0 1 1 0 2 0 0 3 1 1 2 1 2 2 1 1 1 3 1 1 0 2 2 1 2 0 1 0 1 0 0 1 1 2 0 2 2 2 2 1 0 0 0 3 3 0 2 2 2 0 0 0 2 2 0 1 1 2 2 0 1 1 0 2 1 3 1 0 1 2 0 1 0 1 1 1 2 2 2 2 2 0 1 0 0 2 1 2 1 1 1 2 0 1 2 1 2 0 2 3 1 1 1 1 2 0 0 0 0 4 3 0 1 0 1 1 3 1 1 2 2 1 0 2 1 0 2 1 0 2 1 2 1 0 3 0 1 1 1 2 0 3 2 2 0 1 1 0 3 2 1 0 0 0 1 1 3 0 3 0 1 2 2 0 0 2 0 2 1 0 1 3 3 1 1 2 2 1 1 0 2 3 0 1 0 1 1 2 1 1 1 0 1 1 1 1 2 1 2 0 1 1 1 2 1 0 1 2 2 1 2 0 1 4 0 1 2 2 2 2 0 3 2 1 0 1 3 3 0 1 0 2 2 0 1 2 3 0 1 1 0 1 1 1 2 0 1 3 1 0 3 0 2 1 2 2 1 0 1 1 0 3 0 3 1 0 1 0 0 2 1 0 0 0 0 0 2 1 0 2 3 2 0 1 3 1 3 1 1 1 0 2 0 1 0 1 2 0 2 2 2 0 2 0 2 1 2 1 2 2 0 1 0 0 0 2 0 0 1 1 0 1 1 1 0 2 0 2 2 1 0 1 0 0 2 1 2 1 2 1 1 1 3 1 0 1 0 1 2 1 2 2 1 2 1 1 0 1 2 0 1 1 0 0 0 0 0 3 1 2 2 0 0 2 0 2 0 1 0 1 2 3 0 3 0 1 0 0 0 2 1 1 1 1 2 1 1 1 1 0 0 2 2 1 2 1 2 2 2 3 3 0 2 2 0 4 1 2 2 1 3 2 3 0 4 0 1 1 3 0 1 1 0 1 1 2 0 2 2 0 1 2 1 2 1 2 0 3 1 2 2 2 0 1 2 1 1 0 0 1 2 1 1 0 0 0 0 1 0 2 0 1 1 0 0 1 1 1 0 0 3 0 0 1 1 1 1 1 0 1 0 2 3 1 1 0 0 2 1 1 0 4 1 2 1 1 1 0 1 3 2 3 2 1 0 0 2 1 3 2 1 1 3 0 1 0 1 1 1 0 1 2 0 1 2 3 2 1 0 2 0 0 2 0 0 0 1 0 1 1 1 0 0 2 0 0 1 0 0 2 0 1 2 0 0 0 2 1 0 0 1 2 0 1 0 1 1 2 1 0 1 2 3 0 0 0 1 2 2 0 2 1 3 1 0 1 1 4 2 1 0 0 1 0 0 2 2 1 2 2 1 6 3 0 0 0 1 3 0 0 3 1 1 2 0 1 3 0 1 1 1 1 2 2 2 0 4 0 1 1 1 2 1 3 2 1 0 0 2 1 1 2 1 0 0 1 1 3 1 1 1 4 2 0 1 1 2 2 2 3 2 2 1 1 0 2 1 0 0 2 3 1 2 0 2 0 2 3 2 0 2 1 2 1 3 2 2 1 1 0 1 3 1 3 2 1 1 1 0 0 1 1 2 0 1 1 1 1 2 2 1 1 2 1 2 0 1 1 2 2 1 1 1 0 1 1 1 2 2 1 0 2 2 1 0 0 1 1 5 1 0 2 1 0 2 1 0 3 1 0 2 0 1 1 1 0 1 0 1 0 0 2 2 2 2 2 1 1 3 0 2 0 0 1 0 0 1 2 2 3 1 1 0 0 2 1 0 1 1 1 2 0 0 2 2 2 0 1 2 1 1 1 0 0 0 2 1 1 1 0 2 2 2 3 1 2 0 1 0 0 0 1 4 2 1 1 1 2 2 1 1 2 5 1 2 1 0 1 2 2 2 1 0 1 3 1 0 0 0 1 2 2 1 1 2 0 1 3 1 1 0 0 1 0 1 3 1 2 2 0 3 1 1 1 0 1 1 0 0 0 0 2 0 1 0 2 1 2 1 0 3 0 0 1 0 2 1 2 1 1 1 3 0 2 2 4 3 1 1 0 3 0 0 1 1 2 3 0 2 0 0 3 1 1 2 1 1 1 0 3 2 1 0 0 1 0 1 1 1 0 1 1 1 3 2 2 0 1 2 0 3 1 1 2 1 2 0 2 2 0 0 0 1 3 2 3 2 1 3 1 1 2 3 1 2 1 1 1 1 2 3 1 1 3 1 1 2 0 0 1 3 3 1 3 1 1 0 2 1 0 0 1 1 1 0 1 1 0 1 2 3 2 1 0 1 1 3 2 1 2 1 1 1 1 1 2 2 0 1 1 2 1 2 0 1 0 1 0 1 0 2 1 1 1 1 1 1 1 1 2 2 1 1 2 1 1 1 1 1 0 1 1 0 1 1 0 2 1 1 1 0 2 1 1 0 2 0 1 3 1 0 0 3 1 0 2 1 3 0 0 2 0 1 1 1 1 3 0 0 0 3 2 1 0 2 2 0 3 1 2 2 2 1 1 2 2 4 1 1 0 2 1 1 1 0 0 1 0 1 1 1 1 0 2 1 2 1 2 1 2 2 1 1 1 1 3 1 2 1 1 1 1 1 1 4 2 2 0 3 0 4 2 0 1 1 0 1 2 1 1 2 5 1 2 1 3 1 2 1 1 1 0 2 1 1 2 2 0 1 2 0 1 1 0 1 2 4 1 2 1 1 1 2 1 0 1 0 2 2 0 2 2 2 1 3 2 0 0 1 0 3 2 0 3 1 0 1 1 1 4 1 1 1 2 1 0 0 0 0 1 2 0 1 2 3 0 0 1 1 5 1 3 2 0 0 1 1 1 1 2 2 2 0 1 1 0 1 2 2 1 1 1 0 1 1 1 1 1 1 2 2 0 0 1 0 2 5 0 3 3 0 1 2 0 2 1 0 0 1 0 2 1 0 2 1 1 2 0 0 1 1 3 0 1 1 0 2 1 2 1 2 1 1 2 2 0 0 3 5 4 2 2 2 2 2 1 0 1 1 2 1 1 1 3 1 0 2 1 1 0 1 1 0 0 0 0 2 2 0 1 2 0 3 2 2 3 0 4 3 2 1 2 0 1 1 1 2 1 1 2 2 2 1 1 0 0 1 2 0 1 1 0 2 0 1 0 2 0 2 0 3 1 0 2 1 1 0 1 2 2 1 1 2 1 2 2 0 2 2 0 2 1 1 0 1 3 0 3 2 0 2 3 1 2 2 0 1 1 0 1 2 3 1 2 1 2 1 0 1 0 1 1 2 2 1 2 1 2 2 2 1 0 2 0 0 2 1 1 0 0 0 2 0 0 1 1 1 1 1 0 1 1 2 2 1 0 1 1 2 2 3 2 0 0 1 1 4 1 0 2 2 1 2 0 3 3 2 1 0 0 2 2 1 1 1 3 0 1 1 1 0 2 0 1 1 2 1 3 1 0 0 2 0 1 0 1 1 1 2 1 0 1 1 2 1 2 1 0 3 2 3 0 0 2 2 1 1 1 1 1 2 2 1 1 1 0 2 0 0 1 1 0 0 1 1 1 3 2 1 0 3 1 1 1 2 2 0 2 2 1 1 0 1 1 1 2 1 0 0 0 1 1 1 2 1 1 2 0 1 0 3 1 0 4 0 1 1 1 2 2 2 1 1 2 2 0 0 1 1 1 0 0 1 2 1 2 3 0 0 2 1 0 1 2 3 0 2 1 1 1 1 0 0 0 1 0 1 1 2 1 2 1 1 0 2 2 2 1 2 2 1 1 1 2 3 1 2 0 1 0 2 0 1 4 1 1 3 1 1 1 0 1 1 1 1 2 1 0 2 2 2 1 1 0 3 1 2 2 0 3 0 0 2 0 2 1 1 0 2 1 0 1 1 1 1 2 2 1 3 2 1 3 0 2 2 0 2 3 1 1 1 1 1 1 0 2 1 1 0 1 2 1 1 0 0 0 0 1 3 0 1 1 1 1 1 1 0 2 2 2 1 1 0 1 2 3 1 1 2 1 1 2 1 0 1 2 1 2 2 1 0 1 2 1 1 2 1 0 0 1 2 2 0 0 1 1 2 1 2 0 1 1 2 2 1 0 1 2 0 4 1 4 0 0 1 1 3 0 1 2 1 1 2 0 2 2 1 0 1 1 1 0 0 0 4 2 2 0 3 1 3 3 3 2 1 1 1 0 0 1 0 1 2 0 1 1 1 1 0 1 2 2 1 0 1 1 0 1 0 1 2 0 1 1 0 1 4 1 1 1 0 0 3 1 0 2 2 3 1 1 0 2 1 1 0 1 1 0 1 0 1 1 1 1 0 1 1 1 1 2 0 0 0 1 1 1 2 2 1 1 0 1 0 1 1 2 1 0 1 2 0 1 2 1 1 1 1 1 1 1 1 1 1 0 1 0 0 3 0 0 0 1 1 1 1 3 2 1 1 1 1 0 0 2 0 2 0 2 0 2 0 0 2 2 0 1 3 1 1 2 1 1 3 1 3 2 1 0 0 1 0 2 3 2 2 1 2 2 2 1 3 3 1 2 3 1 2 2 2 0 1 3 1 1 1 1 0 2 2 2 3 2 2 1 0 2 2 1 0 0 1 0 1 1 1 3 1 1 1 1 0 1 1 2 1 0 2 1 1 2 1 3 3 2 1 1 3 1 3 0 0 3 0 0 1 2 2 2 4 1 1 2 1 1 1 1 1 2 0 0 3 2 1 3 0 0 2 2 1 1 0 0 2 0 1 0 1 1 0 0 0 0 0 0 1 1 2 1 2 2 2 1 2 0 0 2 2 3 2 1 2 0 1 2 2 0 2 1 0 1 1 1 1 2 0 0 1 3 0 2 1 2 1 1 3 2 0 0 0 1 1 2 2 1 0 0 1 2 2 1 0 0 0 1 1 1 1 1 1 0 0 0 1 3 2 1 2 0 1 2 2 1 0 2 1 3 1 1 2 1 1 2 1 3 1 0 1 1 0 2 1 2 4 1 1 1 1 1 2 1 2 0 1 1 2 1 1 1 3 0 2 1 0 2 3 1 1 2 3 2 1 0 1 1 0 1 1 1 3 0 1 3 1 3 2 2 0 0 1 0 1 2 1 1 1 3 2 1 1 2 1 1 1 3 0 2 2 2 2 0 1 1 0 1 1 0 1 3 1 2 2 1 1 2 1 2 0 2 3 1 2 1 2 0 1 1 1 2 2 1 0 1 0 1 1 3 0 2 1 0 1 2 2 2 0 1 1 1 1 1 0 0 1 1 1 2 0 2 2 2 2 1 1 1 2 1 0 0 0 1 0 1 0 0 1 2 0 2 1 1 0 1 0 0 0 1 3 0 2 1 1 4 2 1 0 1 0 0 2 1 2 0 3 2 1 3 1 2 1 0 1 0 1 2 0 4 1 2 3 2 2 0 2 0 2 3 1 3 1 1 0 1 0 2 0 2 1 2 1 2 1 1 1 0 0 1 0 1 2 1 2 2 1 1 3 0 0 2 1 2 0 0 1 2 1 1 3 2 3 1 1 1 0 1 4 0 0 1 2 0 2 1 0 1 0 1 1 1 2 2 2 0 2 2 1 2 1 2 2 1 2 1 1 2 1 1 2 1 0 0 2 2 1 3 0 2 2 1 1 1 1 4 0 3 0 1 1 2 1 1 1 4 0 1 1 0 3 1 2 3 1 3 3 0 2 1 1 2 0 1 2 2 1 1 0 1 3 1 1 1 3 0 0 2 0 1 0 1 0 0 2 1 2 1 4 1 2 2 1 1 1 0 0 1 2 1 0 1 1 1 1 1 0 2 3 1 1 2 2 3 1 0 0 1 3 3 2 0 0 1 1 0 1 1 1 0 1 1 1 0 2 3 2 2 2 1 0 1 1 0 0 3 1 1 1 1 1 0 1 0 2 1 2 1 0 2 1 0 2 2 1 1 2 0 1 1 0 0 2 2 1 0 3 2 3 2 0 2 3 0 3 3 1 1 1 0 2 0 0 2 0 1 1 0 0 0 0 2 0 3 0 0 3 1 1 0 2 3 0 0 1 3 1 0 1 1 1 0 2 0 0 1 1 1 1 2 2 0 1 0 1 1 1 0 1 2 1 0 0 1 1 0 0 2 2 1 3 1 1 1 1 1 0 3 0 1 0 1 1 0 1 0 1 1 0 2 0 3 1 1 2 1 0 0 1 1 2 2 1 3 0 2 2 0 0 1 1 1 2 2 0 1 1 1 0 1 0 0 0 2 0 2 2 1 1 1 1 1 1 1 1 2 3 2 1 1 2 1 1 0 2 2 3 1 0 2 1 1 5 1 1 1 1 3 0 0 0 1 2 1 3 2 2 3 1 1 2 0 0 1 0 2 3 1 1 1 1 2 1 1 0 0 1 1 0 1 1 3 1 1 0 0 2 2 1 1 2 1 1 1 1 1 1 1 1 0 1 1 2 0 1 2 1 2 0 2 1 3 2 1 2 0 1 2 1 2 2 0 2 1 2 2 1 1 3 1 1 1 1 0 2 0 0 1 1 1 0 1 1 0 1 1 1 1 0 2 3 0 1 1 2 1 2 2 1 1 1 1 0 2 0 2 1 0 1 1 2 3 1 1 2 1 0 1 1 1 3 1 1 3 3 3 3 1 2 1 3 0 2 0 1 2 1 0 2 3 4 1 0 1 1 2 2 1 2 0 1 1 0 0 1 1 2 2 1 3 1 0 0 1 1 2 3 1 0 0 1 0 3 2 3 1 1 1 1 1 1 2 1 1 1 2 0 1 0 1 0 1 1 1 0 2 1 0 1 2 1 1 0 1 1 3 2 1 1 0 0 2 2 1 3 1 2 0 1 0 1 1 0 0 3 2 2 0 2 0 1 2 1 0 0 2 2 1 0 0 0 2 2 2 3 2 1 2 2 0 1 1 0 2 1 0 0 2 1 2 1 0 2 1 2 2 3 1 1 2 2 2 2 1 5 3 0 0 0 1 1 2 0 1 1 0 1 1 3 0 1 0 0 0 0 3 1 1 2 1 1 1 2 1 2 1 1 0 1 0 2 1 1 3 0 0 1 0 2 0 1 2 0 1 1 0 2 1 1 0 4 2 1 1 0 1 2 2 0 2 1 0 2 2 1 1 0 1 3 1 0 0 1 2 2 1 0 0 1 2 0 1 2 0 1 1 1 2 2 1 1 0 1 1 2 0 2 2 2 2 1 1 3 1 2 2 1 1 1 1 1 0 2 2 2 1 1 1 2 1 0 0 0 1 1 2 2 2 2 2 0 0 1 1 1 0 1 1 1 2 2 1 2 1 2 0 2 1 1 1 1 0 1 2 1 1 1 0 3 0 1 0 3 2 0 0 0 1 0 0 1 1 2 1 2 1 1 1 1 2 2 1 1 3 3 2 1 2 4 2 6 2 4 1 2 0 1 0 1 1 1 1 1 1 1 1 2 2 2 2 1 3 0 0 2 2 3 2 2 1 1 2 3 1 2 0 1 0 0 2 2 1 1 1 2 2 2 2 1 2 2 2 2 0 3 1 1 0 3 2 1 1 1 1 0 0 1 2 0 1 1 1 1 1 1 1 1 0 2 0 2 2 1 0 0 0 1 1 1 0 1 2 0 1 2 1 3 1 0 1 1 0 2 1 0 0 2 2 1 0 2 0 1 0 1 2 0 1 3 1 0 0 1 1 1 4 0 2 1 2 0 1 2 1 0 0 0 0 0 1 1 1 1 1 2 1 1 4 2 2 0 0 1 4 1 0 1 1 2 0 2 1 1 1 2 2 2 2 1 2 3 1 1 1 1 2 2 0 1 2 2 1 2 3 2 1 1 1 0 2 2 0 0 1 1 3 2 1 3 2 2 1 2 1 1 1 0 1 0 3 1 1 2 1 1 1 0 2 2 1 3 2 1 2 1 1 1 1 0 1 3 2 0 2 1 3 0 2 1 2 1 0 2 4 2 2 1 2 0 0 2 0 1 1 0 3 2 1 2 0 0 1 2 1 3 2 0 1 2 2 2 4 4 2 1 1 2 2 3 0 1 2 2 0 1 2 1 0 1 1 2 2 0 1 1 0 1 3 3 0 0 1 0 2 2 1 2 1 0 1 0 1 2 2 1 1 1 1 1 3 1 2 0 0 0 0 2 3 0 0 0 0 2 2 1 1 2 2 2 2 2 0 1 0 1 2 2 3 1 2 1 1 1 3 2 0 0 0 1 2 1 0 1 1 3 1 2 1 3 1 1 0 1 1 1 2 0 2 0 0 0 0 1 1 2 0 2 3 1 0 2 1 3 2 1 1 2 0 1 1 2 2 3 2 2 1 0 2 2 0 2 1 1 1 1 0 1 2 1 3 0 3 0 2 1 2 2 0 2 1 1 2 1 2 1 0 2 1 1 2 2 1 2 2 3 0 1 2 1 0 2 1 1 1 2 0 2 1 1 3 2 0 1 1 0 1 2 1 1 2 0 3 2 0 2 0 2 0 1 1 3 1 1 1 0 1 0 2 2 0 0 1 3 1 1 2 3 1 2 1 0 0 1 2 0 2 0 1 0 1 1 2 0 1 1 1 2 1 3 3 3 3 0 2 1 1 3 2 1 1 1 1 1 2 1 2 1 2 1 2 1 1 1 3 1 1 1 0 0 1 1 2 2 1 1 1 1 1 1 1 4 2 4 2 0 0 1 0 1 0 2 2 2 1 3 2 0 0 2 1 1 2 1 2 1 1 1 3 1 0 1 1 1 1 2 1 1 1 2 0 1 0 2 2 2 1 1 2 2 1 0 1 2 0 0 1 0 0 2 0 0 1 2 2 1 0 0 2 3 2 2 1 0 0 1 2 3 2 0 0 1 1 4 0 1 1 2 0 1 0 1 0 1 1 1 1 0 1 1 2 1 1 2 3 2 3 0 0 1 1 0 1 2 1 1 1 0 1 1 0 1 1 1 1 4 3 0 1 1 1 1 0 0 1 1 1 0 0 1 0 2 1 0 0 2 2 1 0 1 1 1 1 1 1 2 1 1 1 2 1 2 0 4 0 0 1 2 2 0 2 1 0 0 1 3 1 1 2 1 2 2 1 1 1 1 1 0 1 1 2 1 1 0 1 0 1 0 2 1 3 1 0 0 3 1 1 1 2 3 0 3 0 0 4 2 1 0 1 2 0 0 0 0 2 3 1 1 1 1 0 2 0 1 1 1 0 2 0 2 1 1 2 1 0 2 0 1 1 0 0 1 2 1 0 1 3 0 0 1 0 1 2 0 1 3 1 0 1 2 0 1 1 0 0 2 1 1 0 1 1 0 1 3 1 2 1 0 1 2 1 1 1 0 2 3 0 1 1 1 0 1 2 2 0 1 1 3 0 1 0 1 2 2 1 0 1 0 1 2 2 2 0 0 1 1 0 1 2 2 2 1 3 3 1 0 1 1 1 0 0 1 1 1 4 0 0 0 2 2 1 3 1 2 1 1 1 1 2 1 1 1 3 0 1 2 1 1 2 1 1 0 1 1 2 3 2 1 1 0 0 0 2 1 2 1 4 2 1 4 1 2 0 3 1 1 3 2 1 3 2 1 2 2 1 1 4 2 1 2 1 1 1 1 2 1 1 1 3 0 2 0 0 1 0 1 1 1 2 1 3 1 0 2 1 2 1 1 1 3 1 1 0 0 1 0 0 2 2 2 0 1 2 2 0 0 0 0 2 2 0 2 1 3 2 2 3 1 1 0 2 0 0 0 0 1 1 0 2 1 1 1 3 1 0 0 0 1 2 4 2 2 3 1 1 0 2 0 1 0 2 1 1 1 0 1 0 1 3 0 0 1 0 1 1 0 0 1 0 1 0 3 1 0 1 2 0 1 2 2 1 4 2 1 1 1 2 2 1 0 3 3 3 1 0 0 2 3 1 3 2 0 1 0 0 2 1 0 2 2 0 1 1 1 1 0 1 1 2 1 2 1 0 0 1 1 0 0 1 0 0 1 1 3 1 1 0 0 1 0 2 3 2 1 0 1 1 1 1 1 2 0 1 3 1 2 1 2 0 0 1 3 2 1 2 0 1 0 1 2 0 3 0 1 0 2 0 1 1 1 2 2 1 2 1 3 0 1 1 2 1 1 1 0 1 2 2 1 3 1 3 1 1 0 1 2 0 3 2 3 0 2 1 0 1 0 2 1 0 1 1 1 3 1 0 1 1 1 1 1 0 0 1 1 2 0 1 0 0 0 4 0 1 2 0 1 0 0 1 3 2 0 2 2 2 2 1 2 1 0 0 1 1 0 1 0 0 1 1 1 0 0 2 1 1 0 3 1 1 0 1 0 0 1 2 0 3 1 1 1 0 1 1 1 0 0 1 1 1 2 3 1 0 1 3 2 1 1 1 1 1 0 2 0 1 2 1 1 2 1 2 1 1 1 2 0 2 2 2 1 0 0 0 3 1 1 1 1 2 0 2 0 2 3 1 1 1 1 1 1 2 0 1 1 2 1 1 1 2 2 2 0 1 1 2 0 0 2 2 1 0 1 0 0 0 1 1 0 3 2 1 1 2 1 0 3 2 1 1 5 2 2 0 1 2 1 1 1 2 0 1 1 2 1 2 2 1 2 1 1 0 2 1 0 0 1 1 2 1 0 2 1 1 1 1 0 3 1 2 0 0 2 2 0 0 0 1 1 1 2 1 0 2 1 0 0 4 3 0 2 0 1 0 0 1 1 2 0 1 2 3 2 0 2 1 1 1 1 2 0 1 1 1 0 2 1 1 2 2 1 2 1 1 1 0 0 2 2 1 2 3 2 1 0 0 2 2 1 2 2 2 1 1 0 0 1 1 0 0 1 4 0 2 1 2 1 1 2 0 0 2 2 1 1 2 2 2 1 0 1 0 1 2 0 3 1 1 1 1 1 0 3 1 0 3 2 2 3 1 1 3 0 0 0 2 1 1 0 1 1 4 0 2 2 3 2 0 1 1 1 2 1 0 2 1 2 1 3 3 1 3 1 1 1 4 0 2 0 2 1 1 2 1 1 1 1 1 0 0 0 1 0 1 0 2 2 1 0 1 2 2 2 0 1 0 1 2 2 1 2 1 1 0 3 2 0 2 0 1 0 4 0 2 1 0 1 2 2 2 0 1 1 0 1 1 1 2 2 1 0 1 2 3 2 1 2 1 1 3 1 2 3 2 2 1 2 1 2 1 1 2 2 2 1 1 3 2 1 0 1 0 0 3 1 1 0 1 1 1 1 3 1 0 2 1 2 1 1 1 1 2 0 0 1 0 1 1 1 2 2 1 1 2 0 1 2 2 0 3 2 1 3 3 3 2 1 0 1 1 1 1 0 0 3 2 0 2 2 0 0 1 1 2 2 2 1 1 0 2 0 3 1 1 2 3 0 3 2 0 0 2 1 1 3 1 2 2 1 2 0 2 1 1 1 0 2 0 1 1 0 0 1 2 2 0 1 0 2 2 1 2 3 1 0 2 1 0 1 1 1 1 0 2 0 2 1 2 1 2 1 1 2 2 3 2 2 2 2 2 1 2 0 1 0 2 0 2 0 3 0 1 1 1 0 3 1 1 0 4 2 2 2 2 1 1 1 0 2 0 0 0 0 2 0 0 1</t>
+  </si>
+  <si>
+    <t>GAM(0.4256832989577013, -6.369085550304865e-30, 0.6028589762178893)</t>
+  </si>
+  <si>
+    <t>2 0 1 0 0 0 1 1 0 1 0 1 2 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 2 0 1 0 0 0 1 2 0 0 0 1 0 0 2 0 1 1 1 1 0 0 0 0 0 1 1 1 2 0 0 1 0 2 3 2 1 1 1 0 0 0 0 1 0 1 1 1 0 1 0 0 1 1 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 2 1 0 1 0 2 0 0 1 0 0 1 1 2 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 2 1 2 1 1 2 1 1 0 1 2 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 2 0 2 1 1 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 1 1 1 1 1 1 1 0 0 2 1 3 2 0 0 0 0 2 0 2 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 2 0 0 0 1 0 0 1 3 3 1 0 2 0 2 1 0 1 3 0 1 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 1 3 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 2 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 3 0 0 0 0 1 3 1 1 0 0 0 0 0 1 2 1 1 1 1 1 2 2 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 1 2 1 1 0 1 0 0 0 1 3 0 1 0 0 2 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 0 2 0 0 0 0 1 2 0 0 1 0 0 0 0 0 1 1 1 0 0 1 2 0 1 0 0 0 1 2 1 1 1 0 0 1 1 1 0 0 1 0 1 2 0 1 0 0 3 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 2 0 1 0 1 1 0 1 0 2 0 0 0 1 1 0 0 1 0 2 0 1 0 0 0 2 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 2 2 0 0 1 1 1 0 2 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 0 1 2 0 1 0 0 0 0 0 1 0 3 0 2 0 1 1 0 0 0 0 0 2 0 1 0 0 0 0 1 1 1 0 2 0 1 1 0 0 2 1 0 0 0 1 2 0 2 0 0 0 0 0 1 0 0 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 2 0 0 0 1 0 1 0 0 0 1 1 0 0 3 1 0 0 0 1 0 0 0 2 0 2 0 0 0 2 1 1 2 1 0 0 0 1 0 0 0 0 1 2 0 1 0 1 0 4 1 2 1 1 0 1 2 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 3 1 0 1 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 4 0 1 0 0 0 0 1 0 1 0 1 3 2 0 0 0 0 1 1 0 0 0 2 0 2 1 0 0 0 1 1 0 0 2 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 1 2 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 0 1 2 1 1 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 0 1 1 0 0 2 0 1 0 1 0 0 0 0 1 2 1 1 0 1 0 0 1 0 2 0 0 2 0 0 0 1 2 0 0 1 1 0 1 0 0 1 3 1 0 0 1 0 0 0 0 2 0 2 0 0 1 0 0 1 1 0 1 2 0 0 0 2 2 0 2 0 1 0 0 1 0 0 0 2 0 0 2 0 0 1 0 0 1 2 2 0 0 0 0 0 0 0 1 0 0 0 1 2 1 1 2 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 0 0 1 0 2 0 1 1 1 0 0 1 0 0 2 0 2 0 1 0 0 1 0 3 2 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 2 0 2 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 1 0 0 0 1 2 1 1 2 1 0 0 0 1 1 2 0 0 1 2 0 1 1 0 3 1 0 0 2 0 0 1 0 0 2 1 0 0 1 1 0 0 1 0 2 1 1 1 0 0 0 2 3 0 1 0 1 0 1 0 1 2 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 2 1 1 0 0 1 0 1 0 0 1 0 1 0 1 0 1 1 2 1 0 0 0 1 2 0 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 2 0 2 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 1 1 0 0 1 2 0 1 0 0 0 1 1 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 1 2 1 0 0 0 0 1 1 1 0 0 0 0 1 2 0 1 1 1 0 4 0 0 1 0 1 1 1 1 0 1 2 0 0 0 0 0 1 0 0 2 0 1 0 0 0 1 0 2 1 0 1 0 1 0 1 0 1 0 2 0 0 1 1 1 0 1 1 0 0 1 0 0 0 1 0 0 0 3 0 0 2 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 1 0 0 1 0 2 1 2 1 3 2 1 0 0 1 1 1 1 1 1 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0 1 1 0 0 0 1 0 2 1 0 1 0 2 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 0 1 2 3 0 0 0 0 0 1 0 0 1 0 0 0 0 2 1 1 2 0 0 0 1 1 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1 1 0 0 2 0 0 0 0 1 1 1 1 0 1 1 1 0 1 1 1 0 2 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 2 2 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 2 0 0 2 0 2 1 0 0 0 0 0 1 1 1 1 0 0 1 1 0 0 1 1 0 1 0 4 0 2 1 2 0 0 0 1 1 2 1 1 0 0 1 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 1 1 1 3 0 2 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 2 1 1 0 1 0 1 0 0 0 0 3 1 0 0 0 3 0 1 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 2 0 2 1 0 0 1 0 0 1 2 1 3 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 2 0 1 0 0 0 0 0 3 1 3 0 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 2 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 1 0 1 0 1 1 1 0 1 1 0 0 1 2 0 0 0 1 2 0 1 1 0 1 0 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 0 2 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 1 1 1 2 1 2 1 1 0 1 1 0 2 1 3 0 2 0 1 0 1 0 0 2 0 0 0 1 1 0 1 1 2 1 0 1 0 0 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 2 0 2 2 0 2 0 0 0 0 1 2 0 1 1 1 1 0 0 1 0 1 1 2 1 0 1 2 0 0 0 1 0 0 1 0 2 0 2 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 1 0 1 0 0 0 2 2 1 0 0 0 2 0 1 0 1 0 1 1 1 1 0 0 1 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 1 0 1 1 0 1 2 1 0 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 1 1 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 2 1 2 0 2 0 1 1 0 0 0 2 1 3 1 0 0 1 0 0 2 0 0 2 0 1 0 2 0 1 1 0 0 0 1 1 1 0 1 0 1 0 1 1 2 1 0 1 1 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 1 0 0 0 0 1 2 2 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 2 2 1 1 0 0 0 1 0 0 0 1 1 1 1 0 0 1 2 1 2 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 0 1 0 2 0 1 0 0 1 1 2 0 0 0 0 0 0 2 0 0 1 0 0 3 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 2 1 0 0 1 1 1 0 0 1 0 0 1 0 1 1 0 3 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 0 0 1 0 2 0 0 1 1 2 0 0 0 0 0 0 1 1 0 0 0 0 3 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 1 2 1 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 2 0 0 1 0 1 0 1 3 1 0 2 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 3 0 1 0 0 1 1 0 1 1 0 0 0 0 1 1 1 0 2 0 0 0 0 0 0 1 2 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 2 0 3 0 0 1 0 0 1 2 0 0 0 1 1 1 0 0 0 1 1 1 2 2 0 1 1 0 0 1 0 1 0 1 1 2 0 0 0 2 1 0 1 0 2 1 0 0 0 2 1 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 1 1 3 1 0 0 0 1 0 1 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 1 0 0 1 0 0 3 1 0 0 0 0 0 1 1 2 2 0 1 1 1 0 0 1 1 2 2 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 0 0 2 1 3 0 0 1 0 2 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 3 1 0 0 3 1 0 0 0 1 0 2 0 1 2 0 1 0 0 2 0 1 0 0 2 1 2 1 1 1 1 0 0 1 1 0 1 1 0 0 1 0 1 1 0 1 3 1 0 0 0 0 2 0 0 2 0 0 0 2 0 0 0 0 1 1 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 2 1 1 2 1 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 2 0 2 0 1 0 1 1 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 1 0 2 2 0 2 1 1 1 0 2 0 0 1 0 1 1 1 0 0 0 0 2 1 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 2 0 2 1 0 0 0 0 0 1 2 1 0 1 0 0 0 2 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 2 1 1 0 0 2 1 0 1 1 2 0 0 0 1 3 0 0 0 1 0 1 1 1 0 0 0 2 0 1 1 0 1 1 1 0 2 0 0 2 1 1 0 0 1 0 1 0 3 1 1 2 0 1 0 1 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0 1 0 3 2 1 0 3 0 0 0 1 0 0 1 1 1 2 1 0 1 0 1 0 0 0 0 1 1 2 1 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 0 2 0 1 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 2 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 0 1 0 3 0 0 0 3 0 0 2 0 0 1 0 0 1 0 0 1 1 2 1 0 2 0 2 1 0 0 0 0 2 1 1 1 1 1 0 0 1 1 0 1 0 0 2 2 0 1 1 0 0 0 2 1 1 1 2 1 1 0 0 0 0 2 2 2 0 0 1 1 0 1 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 0 2 0 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 3 1 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 1 1 1 2 0 0 2 0 1 1 0 1 0 2 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 0 2 0 0 1 0 1 1 0 3 2 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 2 1 0 1 1 1 0 2 1 0 0 2 1 0 1 0 0 0 0 0 1 2 2 0 1 0 1 0 1 1 2 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 2 2 1 0 0 1 1 0 0 0 0 0 3 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 1 0 2 1 5 1 0 0 1 1 0 0 0 0 0 1 2 0 2 1 0 0 0 1 1 1 1 0 0 1 2 0 0 0 0 1 3 0 2 2 0 4 2 1 0 0 0 2 1 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 2 0 1 1 0 2 1 1 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 1 0 1 0 0 1 1 0 3 1 0 1 0 0 1 0 1 0 0 0 1 0 2 0 1 2 2 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 1 1 0 1 0 0 2 1 1 0 1 1 1 0 1 0 1 1 2 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 2 2 2 0 0 0 1 0 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 2 0 0 2 0 1 0 2 1 0 0 1 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 0 0 0 0 2 0 1 1 0 1 0 2 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 1 0 0 1 0 0 1 1 1 0 2 2 1 0 1 0 1 0 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 1 1 2 0 1 2 0 0 0 0 0 0 0 1 1 1 0 0 2 0 1 0 1 1 1 0 0 0 0 1 1 0 1 1 0 0 2 0 1 2 0 1 2 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 1 0 0 2 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 2 1 0 2 0 0 1 0 1 1 0 0 2 1 0 0 1 1 0 1 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 1 1 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 1 2 0 1 0 0 0 0 1 1 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 2 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 2 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 1 2 2 2 1 1 0 1 0 2 0 1 0 1 1 0 0 2 0 1 1 0 1 0 1 2 1 1 1 0 1 0 1 1 2 0 0 1 0 1 0 0 0 0 2 0 2 1 2 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 2 1 0 1 1 0 1 0 1 0 1 0 1 1 0 0 0 2 1 1 0 0 0 1 1 0 0 2 1 0 1 1 1 2 2 1 0 0 0 1 0 1 2 0 1 1 0 3 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 4 0 0 0 1 0 0 0 1 0 0 0 0 3 0 0 0 0 0 1 0 1 2 0 0 0 1 0 2 0 1 1 0 2 0 0 0 0 2 0 1 1 1 1 1 0 1 0 1 0 1 2 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 1 2 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 3 0 0 0 2 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 2 1 1 1 1 0 1 0 0 1 2 0 0 1 0 1 1 0 2 1 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 0 0 2 1 1 1 0 1 0 2 0 0 0 2 0 1 1 1 2 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 2 2 0 0 1 1 1 0 0 0 1 0 1 2 0 1 0 2 1 1 1 0 0 0 1 0 1 1 2 0 1 1 0 1 2 1 0 1 2 3 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 1 1 0 2 1 2 1 1 0 0 0 0 0 1 1 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 1 0 1 2 2 1 1 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 2 0 1 0 0 2 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 2 1 1 1 1 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 3 0 1 1 0 2 0 0 0 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 2 1 1 0 0 0 0 0 3 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 1 3 0 1 1 1 0 1 2 0 0 1 0 1 0 1 0 0 0 2 0 0 0 2 1 0 0 0 1 0 3 0 0 2 2 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 0 0 1 0 2 1 0 1 0 0 0 1 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 1 1 0 1 1 0 1 1 1 0 0 1 2 0 0 1 1 0 1 2 0 0 1 1 1 1 1 0 3 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 2 1 1 2 1 0 1 1 1 0 0 0 0 1 0 0 2 1 0 1 0 1 0 1 0 1 1 0 1 0 0 1 1 1 0 0 1 0 0 2 3 1 0 1 0 0 0 2 1 1 1 0 0 1 0 2 0 1 1 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 2 0 0 0 1 2 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 1 1 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 1 1 0 1 0 2 0 0 0 0 0 0 2 1 2 0 1 0 0 0 0 0 0 1 0 1 1 0 2 1 0 0 0 0 1 2 1 0 0 0 2 0 0 0 2 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 1 0 2 0 0 0 0 1 1 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 2 0 1 0 1 0 0 0 1 0 0 0 2 0 1 0 0 1 1 0 0 1 0 0 0 0 0 2 1 0 3 2 1 2 1 0 1 0 1 0 0 0 0 2 1 3 0 1 2 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 2 0 2 1 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 2 1 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 2 0 0 0 0 0 0 0 0 2 2 0 0 1 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 1 0 0 2 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 2 0 0 0 2 1 1 1 0 2 1 0 0 1 1 0 0 1 1 1 1 0 0 2 0 0 1 1 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 1 1 2 1 2 1 0 1 1 0 1 1 2 0 0 0 0 0 0 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 1 0 0 0 0 1 4 0 0 0 1 0 0 0 0 2 1 0 1 0 0 0 0 0 1 0 1 1 1 0 1 0 1 1 1 0 0 1 1 2 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 3 2 0 0 1 0 0 1 1 2 1 0 0 1 0 1 0 0 0 0 2 2 0 0 1 0 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 0 2 1 0 0 1 2 0 0 0 2 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 2 2 1 0 0 1 0 0 0 2 2 0 0 2 1 0 0 1 0 1 0 0 1 2 0 1 1 1 0 0 0 1 0 1 1 1 1 2 0 0 0 0 2 0 0 0 1 0 0 2 0 1 2 0 0 1 1 0 0 1 1 0 0 2 0 1 1 2 1 0 1 2 0 0 1 0 1 1 0 2 0 0 2 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 2 0 0 1 2 0 0 3 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 2 1 0 0 0 2 3 0 1 1 0 0 1 0 1 0 2 3 0 0 0 0 0 1 1 0 0 0 2 1 0 1 2 1 1 0 1 1 1 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 3 0 1 0 1 2 0 0 0 1 0 1 3 0 0 0 0 0 0 2 1 0 1 0 2 0 0 0 0 1 2 1 1 4 1 1 0 0 0 2 0 2 0 0 1 0 0 2 0 1 0 0 2 0 0 1 0 2 0 2 1 1 1 0 1 0 0 0 0 0 2 1 1 1 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 1 1 0 2 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 2 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 0 0 0 0 2 2 0 0 2 2 0 0 2 1 0 0 0 3 1 0 0 0 1 0 1 0 1 0 1 0 0 1 1 1 1 0 2 3 0 0 0 0 0 0 0 0 1 0 1 1 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 2 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 2 1 1 0 1 0 1 0 1 1 3 0 1 0 0 1 1 0 0 0 0 0 0 3 2 0 0 0 0 1 1 1 0 0 0 2 0 1 0 0 0 1 3 0 0 0 0 1 0 2 0 1 0 0 0 0 2 0 0 0 0 0 1 0 2 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 3 1 1 0 1 1 0 1 0 1 0 2 0 0 0 2 1 1 0 0 0 3 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 0 1 2 0 0 1 1 0 0 0 0 3 0 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 0 1 0 2 0 0 0 0 0 1 0 0 1 3 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 2 1 2 0 2 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 2 0 1 0 0 3 1 2 1 0 1 1 2 1 0 1 0 0 0 0 0 0 1 1 1 1 2 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 1 0 1 1 0 1 2 1 3 2 0 0 0 1 1 0 0 0 2 0 3 2 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 2 2 0 0 1 1 0 1 0 0 1 1 0 2 0 2 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 2 2 0 0 1 0 1 1 1 0 0 0 1 1 1 2 1 0 0 0 0 0 1 3 0 1 1 1 1 0 2 0 0 3 1 0 0 1 1 0 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 2 0 0 0 1 1 0 0 1 1 0 0 1 1 2 0 0 4 1 1 0 1 0 1 0 1 1 1 2 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 3 0 0 3 0 1 1 1 1 1 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 0 1 1 1 0 2 0 1 1 0 0 3 0 1 3 1 1 0 0 0 1 1 1 0 0 2 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 4 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 1 2 1 0 0 2 1 1 1 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 1 1 4 0 2 1 2 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 3 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 0 0 1 0 0 2 0 3 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 3 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 1 0 2 0 0 0 0 1 0 0 0 1 0 0 0 1 2 1 1 0 0 2 0 1 0 0 0 0 0 1 0 0 1 1 1 1 0 1 2 2 0 0 0 2 0 1 1 0 0 0 0 0 2 0 0 1 1 1 0 1 0 1 1 1 2 0 2 0 0 1 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 2 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 2 1 0 0 1 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 1 1 0 0 2 1 0 0 0 0 3 0 0 0 1 2 0 0 2 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 1 0 2 0 1 4 2 1 0 2 3 2 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 1 2 0 0 2 1 2 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 2 0 2 0 1 0 2 0 0 0 1 1 0 0 0 1 0 0 2 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 4 1 0 0 1 2 1 0 1 2 0 1 1 0 0 0 0 1 3 0 1 1 2 1 1 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0 0 0 0 1 0 0 0 2 0 0 1 1 0 1 0 1 0 0 1 4 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 2 0 0 0 3 1 0 0 1 0 0 0 0 2 0 0 1 0 0 1 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 0 1 0 1 0 1 1 0 0 0 1 2 0 0 0 0 0 1 0 0 3 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 3 0 3 0 0 2 1 0 1 0 0 2 2 0 1 0 0 1 1 1 0 2 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 2 1 1 0 2 1 1 1 0 0 0 0 2 2 1 0 0 0 1 1 1 0 0 1 2 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 2 1 0 1 0 1 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 2 1 1 1 0 2 1 1 1 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 0 0 1 0 1 1 2 1 1 0 0 0 1 1 3 1 0 0 0 1 2 0 0 2 0 0 2 0 0 0 0 0 1 0 2 0 0 2 0 1 0 0 0 1 1 0 0 0 1 0 0 3 0 0 1 1 0 0 0 0 0 0 2 1 0 0 2 1 0 1 1 0 0 0 1 2 0 1 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 2 0 0 0 0 0 2 1 1 0 0 0 1 1 1 0 4 0 1 0 2 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 2 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 2 1 1 1 2 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 2 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 2 0 0 1 1 0 1 1 1 2 0 0 1 0 2 0 0 3 0 0 1 1 0 1 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 2 0 1 0 0 2 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 2 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 3 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 2 1 1 2 0 2 0 0 1 0 1 0 0 0 0 1 1 0 1 1 1 1 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 1 2 0 0 1 0 0 0 2 0 2 1 1 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 1 0 1 0 1 3 0 1 0 1 2 0 0 0 0 1 1 0 0 0 0 0 1 3 0 1 0 0 2 1 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 2 1 1 1 0 1 0 1 0 0 2 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 2 1 0 0 3 1 0 0 0 0 0 1 3 0 0 1 0 0 0 1 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 1 2 0 0 2 0 0 1 0 0 1 1 1 0 0 0 2 1 1 0 1 2 1 0 1 0 1 1 1 1 0 1 0 0 0 1 0 0 1 1 1 1 1 1 1 1 0 0 0 0 1 1 0 2 1 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 2 0 1 0 0 1 1 1 1 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 2 1 0 0 0 0 0 1 0 0 0 1 2 1 2 1 1 0 1 0 1 0 0 1 0 2 1 0 1 0 1 0 1 2 1 1 0 0 0 0 1 0 0 0 0 1 0 2 2 0 2 1 0 0 0 1 0 0 0 0 2 0 1 1 0 1 1 3 2 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 1 1 3 3 1 0 1 0 0 0 1 1 1 0 2 1 1 1 1 0 0 1 1 1 1 2 0 2 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 2 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 2 0 1 0 0 0 1 1 1 0 1 0 2 0 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 0 2 0 0 1 3 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 1 0 1 0 1 1 1 1 0 1 1 2 0 1 1 1 1 0 1 0 2 0 1 0 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 2 1 1 3 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 2 2 0 0 0 1 1 2 1 1 0 1 0 0 1 1 0 0 1 1 1 1 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 2 1 1 0 0 2 0 2 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 1 1 0 0 0 2 2 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 1 0 1 2 0 3 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 2 0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 1 1 0 2 1 1 0 1 0 1 0 0 2 1 0 1 0 0 1 0 0 1 0 1 2 0 0 0 0 0 1 1 0 0 0 0 2 0 0 2 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 2 4 1 2 1 0 1 1 0 0 0 1 0 0 1 0 0 1 1 1 3 2 0 0 0 0 0 0 0 0 2 0 0 0 0 2 1 1 0 2 0 0 0 0 0 2 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 3 0 1 1 1 2 0 0 1 2 0 0 1 0 1 1 2 0 1 0 0 1 0 2 0 1 0 0 0 0 2 0 0 2 2 1 0 2 2 0 1 0 0 0 0 2 1 2 0 1 0 0 0 1 0 0 2 0 1 0 1 2 0 0 1 0 1 2 0 0 1 0 0 2 0 1 1 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 1 0 2 0 0 1 2 0 2 0 0 1 0 3 0 0 1 2 0 1 1 0 0 0 1 1 0 0 2 0 1 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 1 2 0 0 0 2 1 0 0 0 2 2 3 1 0 0 2 0 0 1 0 0 1 0 1 0 2 0 0 0 1 2 1 0 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 0 1 0 0 2 0 0 1 3 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 2 3 1 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 2 3 0 0 2 0 1 0 0 1 0 2 1 0 0 1 0 1 1 1 0 1 3 0 0 1 1 2 0 0 1 1 0 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 2 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 2 0 0 0 1 1 0 0 1 1 1 0 0 1 0 2 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 2 0 1 1 0 1 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 2 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 3 0 0 0 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 1 2 1 1 0 1 1 1 1 2 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 1 1 0 1 0 1 0 0 0 0 0 0 2 4 0</t>
+  </si>
+  <si>
+    <t>FTL(0.1227405794899629, -197.29899719559683, 307.7494323702939)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152 84 95 59 113 119 86 70 109 77 111 96 96 73 99 76 93 159 130 179 121 91 108 177 75 152 156 137 109 175 150 148 164 66 119 83 108 79 142 77 99 135 114 112 78 88 123 112 136 99 64 104 107 97 95 77 198 79 64 128 152 81 63 160 104 134 77 141 103 102 158 43 98 66 95 59 108 166 97 111 118 105 42 168 123 62 183 132 92 95 70 86 151 96 170 126 132 241 104 185 62 89 117 70 219 77 115 141 154 98 64 43 134 124 93 76 184 129 94 78 194 127 122 95 141 179 153 127 93 88 192 104 107 97 75 66 125 102 124 209 129 51 89 64 120 114 96 60 154 148 110 135 65 109 54 129 144 142 140 116 86 102 150 55 86 91 179 149 78 107 162 79 93 90 189 132 82 101 164 52 66 105 167 140 140 79 67 56 136 109 146 112 179 32 94 37 98 153 97 132 103 146 96 110 129 188 118 136 137 143 86 101 183 40 94 129 115 142 26 123 103 69 164 104 95 90 76 96 146 75 121 106 126 87 200 90 54 138 145 128 122 120 102 125 126 110 106 137 88 170 102 83 158 96 82 110 66 124 56 74 60 80 172 129 65 175 70 91 30 99 46 177 99 102 113 99 169 103 124 119 193 69 168 67 146 52 127 150 101 98 100 150 110 138 163 123 148 140 68 187 182 106 60 43 173 41 112 68 190 145 110 157 95 34 116 88 135 87 124 76 65 102 54 171 97 132 85 118 115 93 98 139 142 96 54 75 91 45 78 127 112 107 156 59 121 102 134 119 151 116 111 95 68 127 97 49 76 95 145 72 130 129 152 135 154 102 168 70 141 150 118 116 79 60 104 81 93 142 111 82 103 167 135 32 95 110 60 75 154 101 122 118 80 173 127 159 162 66 57 92 160 76 71 112 71 111 139 101 160 111 175 164 86 63 89 86 60 158 77 154 121 135 103 142 118 72 68 84 98 161 96 87 122 116 81 91 83 64 120 15 96 118 91 70 113 126 77 172 88 133 55 90 174 119 137 104 61 167 54 100 117 49 163 70 120 147 69 161 114 42 154 111 43 102 96 98 136 108 141 94 86 115 155 167 57 95 86 96 111 129 146 135 129 163 150 74 143 113 158 173 173 229 193 71 58 57 127 154 72 131 119 99 80 85 92 142 141 148 128 92 98 128 56 58 102 106 199 104 121 94 90 104 166 106 97 118 96 143 108 96 117 69 83 163 62 110 145 179 210 118 83 112 153 83 79 61 114 100 147 75 137 60 153 75 127 192 53 100 110 136 77 60 21 82 107 153 144 206 149 168 107 83 109 106 103 144 195 90 130 103 119 61 107 98 118 97 196 55 104 138 56 93 102 122 86 96 108 88 56 137 137 99 124 104 101 86 132 155 62 98 134 163 150 180 85 97 86 200 111 118 126 134 104 83 100 40 84 73 73 44 155 176 120 161 65 89 118 89 60 153 84 165 89 117 90 111 159 144 110 132 74 143 147 108 110 162 110 68 59 273 138 126 55 71 120 143 154 127 92 86 120 105 166 100 145 135 109 121 117 131 77 64 115 100 76 80 81 169 131 213 72 149 109 130 140 152 177 89 73 27 109 77 114 64 75 97 117 119 155 99 113 70 213 96 95 83 70 91 177 110 130 110 76 63 99 126 146 109 96 134 115 141 64 52 84 79 165 162 75 101 66 185 128 152 70 134 173 134 113 114 98 207 97 98 45 77 161 110 138 102 126 115 72 100 164 88 128 72 84 121 102 162 92 122 194 162 156 88 173 90 89 41 130 102 119 129 136 41 118 109 157 94 131 86 63 146 115 192 133 112 69 88 111 150 99 110 104 102 92 104 149 92 76 141 117 95 55 77 120 165 55 70 94 88 206 43 99 54 119 120 135 88 166 85 148 73 159 92 100 196 174 114 116 90 115 114 84 78 60 96 133 114 69 160 135 153 104 70 69 90 43 85 64 134 122 101 122 80 132 112 100 189 57 181 131 99 93 133 113 175 68 165 48 182 103 93 130 118 77 62 159 75 81 155 92 78 87 148 76 59 117 110 144 107 106 106 109 83 163 108 150 161 109 80 72 106 124 239 91 48 94 134 66 176 82 101 131 118 51 108 161 144 172 184 167 90 119 113 120 146 130 140 143 109 200 123 113 145 42 78 108 98 126 55 46 83 132 103 95 137 159 156 148 107 161 90 112 57 159 100 180 109 185 106 114 80 156 84 143 175 126 138 89 149 141 74 162 90 98 110 94 121 39 121 128 91 84 50 128 62 76 133 128 79 90 136 169 80 116 95 115 77 191 105 150 55 162 112 129 72 139 95 136 106 159 105 100 99 74 51 147 83 168 93 122 148 96 97 127 85 150 145 110 78 169 102 69 129 41 132 112 129 72 134 96 111 102 116 52 52 95 140 110 94 131 76 97 94 111 121 95 138 159 108 69 162 116 116 98 76 94 74 76 108 115 135 135 110 100 160 72 85 72 133 104 134 134 116 108 98 143 104 140 157 73 88 82 173 201 76 121 207 122 94 58 127 127 108 175 130 116 91 171 102 120 160 164 136 107 94 91 115 81 166 113 49 119 158 142 173 111 47 89 93 130 128 156 143 59 93 136 99 106 116 149 76 163 79 59 103 150 42 92 150 149 138 94 126 91 108 169 178 67 47 99 83 96 137 177 108 116 104 104 127 93 99 115 110 134 155 115 133 188 130 124 95 111 144 90 71 86 84 187 98 142 114 81 100 90 94 69 124 95 159 63 110 77 133 176 78 112 74 148 44 138 190 122 113 97 110 197 154 192 171 80 125 156 124 84 155 149 84 157 153 121 127 136 114 108 57 136 108 154 92 128 95 123 118 142 84 77 86 76 137 188 150 167 112 96 85 90 109 75 159 55 219 80 93 111 104 78 107 147 160 96 122 113 84 96 121 91 63 136 90 103 122 46 83 57 66 98 74 163 83 62 88 113 129 150 106 83 139 93 91 77 108 116 180 115 121 66 119 31 91 58 133 75 85 139 151 162 69 119 108 208 106 57 66 154 32 33 107 78 125 135 220 109 87 122 85 53 142 108 84 56 120 93 140 98 196 83 95 93 153 155 91 57 110 91 116 70 124 98 85 240 36 120 91 114 133 46 101 90 104 16 73 208 96 78 144 62 124 66 77 140 96 93 100 128 155 124 94 93 68 145 125 76 136 101 92 164 83 172 81 170 57 87 123 195 193 145 114 160 162 151 98 161 196 129 130 171 104 117 133 112 105 65 138 124 149 124 73 118 151 87 55 190 65 195 78 112 78 64 95 110 180 124 63 156 127 31 204 83 144 132 19 175 76 137 138 73 81 107 107 123 82 134 60 59 83 131 137 119 73 111 146 99 111 182 61 45 208 63 128 123 99 211 202 129 121 153 63 94 45 105 71 108 59 149 70 89 174 115 141 51 80 79 128 170 81 64 98 170 103 101 78 117 138 98 103 93 56 61 144 104 150 88 109 99 180 108 85 114 60 109 49 169 75 112 102 168 70 158 152 70 58 96 129 95 113 98 177 159 81 21 139 95 112 62 39 83 89 189 62 96 143 156 149 125 116 115 95 111 134 60 124 100 43 119 121 106 130 111 104 97 101 116 120 113 75 144 119 160 63 133 42 142 87 137 83 129 94 66 70 132 219 197 100 189 87 142 185 32 106 90 135 70 111 122 80 156 119 110 162 101 45 113 35 91 159 125 48 145 118 136 124 71 105 55 144 111 71 100 156 96 94 128 118 127 132 114 65 99 45 70 121 99 103 95 92 159 49 74 157 97 116 163 50 111 156 152 110 149 114 70 123 182 66 81 114 105 100 46 75 78 81 104 112 72 124 190 80 72 100 63 71 216 152 137 141 175 81 195 157 152 122 165 130 176 117 173 208 140 41 100 43 89 69 96 82 136 89 86 79 151 102 60 121 112 134 86 96 111 116 86 119 153 44 103 191 136 100 87 100 105 91 102 215 89 56 69 126 115 75 166 73 106 82 40 167 97 117 82 109 102 121 39 96 144 74 123 142 92 205 116 133 135 165 182 103 179 113 83 92 108 120 79 117 117 129 122 89 122 64 144 129 110 74 93 123 130 51 159 171 184 109 116 107 108 98 113 114 102 131 95 119 149 63 115 93 159 95 119 67 80 122 122 106 77 133 146 113 132 66 62 62 136 127 103 137 144 101 60 151 187 65 134 89 183 152 142 150 113 64 173 107 181 62 104 124 140 91 56 184 272 81 107 116 110 46 141 102 79 122 152 153 107 78 172 107 64 47 138 88 107 122 165 149 124 102 140 79 56 101 106 99 145 88 204 115 128 158 147 89 88 122 45 172 92 197 149 128 56 155 120 134 103 102 110 72 176 121 130 82 123 177 118 109 95 96 118 81 135 95 144 55 148 89 85 144 153 97 97 109 78 147 75 147 94 56 125 89 87 154 126 45 91 112 99 91 91 67 97 97 102 172 91 153 94 98 24 93 55 119 204 97 32 156 29 97 145 86 137 95 102 135 110 84 126 110 107 105 65 95 105 152 152 62 112 120 95 63 122 96 134 81 62 114 44 107 38 63 47 219 232 109 55 116 149 82 85 126 162 100 129 137 112 152 158 68 203 184 128 144 90 25 126 107 112 123 152 110 88 95 115 118 77 76 143 155 66 174 145 87 100 118 140 167 108 163 84 95 98 98 135 149 86 115 107 70 38 126 109 113 123 137 77 57 100 100 90 194 120 47 111 47 68 109 89 90 109 122 135 135 44 127 112 156 103 147 132 138 132 93 106 174 74 126 145 103 120 108 189 122 131 97 155 105 147 79 99 137 55 116 127 71 136 137 53 136 40 149 205 142 132 85 128 95 112 61 204 106 108 190 198 152 65 89 98 102 121 149 116 130 90 122 123 81 40 88 93 57 215 96 102 166 73 130 49 54 163 133 77 86 58 104 80 102 77 175 120 55 90 131 113 117 76 163 167 149 53 122 48 79 77 114 114 64 114 83 137 129 61 93 86 85 143 111 104 200 91 100 118 117 228 38 73 109 137 121 135 99 102 100 172 111 106 75 183 65 79 174 180 193 84 111 154 130 136 143 87 70 104 135 95 137 107 94 119 104 66 48 48 97 48 76 105 179 84 121 90 70 112 113 121 108 99 67 117 102 81 221 85 50 71 146 135 118 18 115 105 55 60 128 131 130 134 134 132 84 120 124 73 113 104 100 68 36 43 126 122 187 168 62 149 108 168 65 103 81 138 108 137 197 65 195 36 67 83 86 121 64 111 90 125 151 88 69 102 160 200 128 84 91 86 72 84 163 118 80 222 158 68 100 127 106 107 112 81 147 151 133 95 154 144 75 95 97 91 105 114 129 86 95 149 85 64 131 149 101 146 174 68 90 143 157 104 184 96 121 160 38 136 85 137 168 96 52 69 102 128 64 107 143 46 235 92 80 129 43 171 91 62 86 38 82 176 175 157 63 117 122 77 80 128 121 71 143 140 102 134 84 176 132 146 84 148 98 215 216 147 149 124 78 132 118 135 71 100 64 66 84 74 39 117 100 70 102 115 132 136 131 84 143 119 113 127 90 126 80 104 164 100 138 131 94 32 175 89 130 154 77 84 163 135 44 132 191 147 162 125 114 78 56 68 102 59 134 59 87 128 40 144 107 81 139 53 67 144 174 91 76 148 218 80 91 159 80 112 58 62 131 157 117 146 151 120 61 170 139 144 103 175 101 92 108 104 79 133 130 89 146 26 110 94 102 135 59 104 87 75 157 201 132 115 36 144 86 130 73 150 112 100 132 113 89 130 61 179 146 134 80 136 169 47 101 168 141 131 88 108 94 95 52 173 110 116 163 60 126 71 107 148 211 107 104 138 112 123 120 134 107 98 128 89 132 145 107 68 114 38 114 93 115 78 48 77 117 128 82 98 98 100 103 96 111 65 111 189 102 92 51 72 98 77 124 236 48 121 134 128 116 134 86 115 118 225 93 121 104 164 120 154 113 115 60 189 105 86 144 75 96 81 186 84 48 144 120 103 56 88 113 106 96 164 85 189 133 97 138 117 48 198 91 122 179 107 42 101 66 93 190 145 118 77 74 194 117 159 144 81 115 69 75 106 168 108 71 136 182 80 135 143 147 74 142 23 123 105 162 78 127 120 144 142 47 68 74 78 185 157 107 186 86 202 109 134 81 123 100 123 129 128 122 91 234 104 148 109 128 102 121 104 129 73 121 77 99 86 114 134 70 113 137 141 64 132 76 125 102 127 73 91 166 51 80 73 71 84 112 47 98 73 145 92 70 80 198 131 131 133 85 149 75 96 132 141 72 122 137 97 99 76 70 125 53 66 100 144 99 175 143 157 82 112 113 138 60 136 111 170 168 150 164 138 90 80 148 125 145 151 83 121 92 119 165 138 112 186 79 52 146 171 162 92 92 175 75 148 58 112 158 63 110 99 90 231 82 96 44 176 86 30 80 113 141 62 51 137 106 174 151 109 92 178 111 137 116 205 113 110 109 143 87 120 73 103 64 92 160 57 105 110 143 54 112 112 114 157 92 130 93 65 99 107 123 78 87 142 92 55 90 200 176 147 143 118 161 96 117 153 90 99 59 63 141 73 83 44 61 123 155 159 79 82 135 126 87 124 37 124 30 117 88 69 103 115 141 127 103 139 97 66 130 146 168 85 148 122 147 117 97 26 129 108 145 163 171 123 99 173 140 108 70 148 120 112 151 156 171 68 116 115 115 171 38 169 114 224 131 64 32 142 184 50 123 97 107 97 102 137 100 131 121 169 86 57 149 42 59 109 117 100 44 113 99 124 99 154 77 175 118 173 126 85 75 184 112 75 73 150 96 63 68 125 125 145 62 52 159 60 119 179 112 109 109 155 159 79 124 141 82 94 97 123 106 137 134 139 94 105 190 66 127 119 67 173 172 105 158 75 62 56 146 86 124 190 48 84 76 131 103 115 114 136 102 91 95 93 102 61 140 93 120 130 129 161 107 191 136 76 109 103 186 53 84 138 111 161 141 156 121 128 100 111 140 125 92 190 117 127 91 106 106 112 75 143 166 70 180 67 153 117 113 102 38 26 124 110 41 84 139 65 117 117 162 91 71 107 123 77 123 144 66 87 53 56 119 104 82 80 143 121 162 207 138 131 44 180 159 91 63 112 138 195 116 86 69 60 79 108 87 132 200 152 93 111 78 67 129 57 144 71 104 80 69 187 135 85 108 94 97 212 83 82 130 141 153 70 142 51 153 102 140 100 109 126 47 80 190 156 86 115 135 171 183 92 156 51 110 76 123 119 101 99 116 38 150 99 129 154 109 162 184 114 113 61 90 114 116 93 78 160 124 134 47 99 122 78 64 202 134 85 87 167 79 25 86 91 118 107 188 80 124 83 144 150 130 86 93 98 138 156 67 108 153 151 156 80 170 134 136 128 115 113 146 61 99 144 91 65 135 140 121 94 122 61 66 136 114 153 101 127 76 75 174 147 113 55 97 116 143 83 133 163 127 117 137 91 167 92 78 131 100 158 163 28 108 190 218 38 84 112 89 96 103 137 96 82 117 109 182 147 100 108 138 98 61 181 103 120 121 145 102 191 91 150 90 141 118 161 94 77 94 96 131 95 74 68 61 107 138 95 163 151 80 173 93 108 88 66 75 115 84 71 111 146 172 81 107 86 145 133 136 108 97 64 95 90 142 26 140 106 146 94 135 68 162 60 159 76 84 69 182 37 47 101 127 55 157 118 65 95 108 77 111 109 111 113 65 40 162 128 115 108 63 172 154 167 90 104 112 122 84 89 71 159 128 25 90 92 197 117 75 91 144 102 74 97 147 89 138 137 71 140 187 220 79 57 66 125 138 72 118 24 110 45 97 109 77 123 48 112 54 163 162 227 116 109 88 100 64 103 102 88 153 131 47 120 116 155 153 78 49 102 140 85 92 123 119 133 155 107 135 140 91 157 106 105 145 130 124 136 135 97 189 137 68 111 159 148 95 101 145 147 176 118 114 67 48 98 121 119 81 94 142 128 205 80 90 113 136 58 73 107 104 170 98 113 99 151 189 118 144 96 105 78 161 75 129 110 104 95 124 103 176 142 113 67 112 94 131 147 125 63 101 104 58 61 213 74 84 160 147 81 96 97 109 134 163 95 176 79 148 97 96 134 137 81 101 181 104 134 90 103 190 160 195 164 166 83 201 144 159 99 132 77 88 82 120 228 50 175 94 26 28 77 106 77 75 143 185 120 104 120 109 57 93 102 86 74 73 119 110 120 178 65 80 65 65 80 137 169 69 91 128 149 102 126 87 47 173 111 52 157 57 173 122 104 120 64 167 171 134 161 108 167 70 117 79 252 103 90 122 137 52 100 84 174 90 93 138 115 158 106 64 79 99 145 77 42 78 78 91 94 151 80 118 66 120 138 105 120 83 90 120 54 91 59 162 114 118 119 67 87 119 34 135 129 168 191 85 107 152 151 79 134 182 44 111 122 106 166 83 64 79 91 122 18 117 116 121 90 107 87 120 142 141 105 92 167 92 169 104 95 100 140 106 124 132 179 115 126 69 76 114 193 98 84 144 88 127 123 114 112 48 73 136 125 90 88 128 123 96 30 35 91 164 98 137 120 123 138 94 111 138 105 84 72 112 91 181 61 87 99 142 102 163 143 108 102 76 109 96 147 163 106 103 115 108 80 165 57 112 145 91 73 133 98 102 156 116 147 170 70 82 114 151 83 125 135 64 38 158 184 106 141 127 139 85 116 169 179 157 164 160 167 63 86 146 78 102 127 56 120 154 158 133 102 143 100 139 123 44 153 69 21 123 141 111 75 109 81 114 111 54 45 193 102 107 184 38 114 112 116 91 96 46 116 80 134 105 99 122 109 86 78 127 110 133 72 195 64 107 115 104 129 61 136 80 73 144 143 82 133 58 117 100 143 138 129 151 184 69 157 131 64 88 121 95 136 172 122 75 61 41 131 101 140 122 157 107 79 147 82 121 84 76 133 107 97 187 118 94 70 67 95 73 183 125 76 94 165 66 155 70 111 137 27 165 76 118 59 113 77 143 86 104 113 64 98 148 134 131 164 143 86 116 68 84 116 121 70 101 59 112 115 191 97 111 70 141 153 160 161 203 170 108 79 102 148 28 74 113 110 137 175 155 117 240 98 70 131 100 99 201 91 198 104 181 75 178 138 148 128 135 99 53 132 93 69 69 131 127 81 112 105 100 171 61 140 96 108 132 161 108 135 216 55 144 127 180 133 151 126 98 106 102 115 113 83 113 115 175 78 132 151 47 113 108 192 131 133 159 179 189 77 188 130 123 110 114 149 158 72 183 54 90 175 105 70 114 119 153 122 175 117 159 116 115 84 159 171 123 119 228 36 81 121 114 122 111 97 146 72 114 82 73 76 161 70 84 172 155 120 124 164 108 99 87 66 132 78 107 82 76 153 50 145 138 127 134 89 53 85 170 112 108 145 93 83 112 100 123 85 102 86 88 97 41 81 113 101 134 160 79 155 67 204 122 180 101 111 70 134 41 107 117 111 98 71 97 147 94 81 105 95 89 67 103 96 106 138 233 81 97 71 175 137 74 115 129 106 94 131 154 79 57 134 129 129 100 129 178 124 82 165 119 112 151 204 81 110 45 89 61 77 112 47 152 235 95 45 167 140 82 87 98 54 87 60 140 86 126 106 129 130 138 151 130 108 59 60 97 150 105 174 138 89 130 125 118 139 124 75 112 62 70 66 129 110 117 144 114 123 137 105 175 97 87 67 115 90 101 61 56 200 95 104 61 144 82 80 20 149 105 102 120 148 57 83 177 127 178 121 156 124 84 91 122 128 94 106 116 114 112 150 65 137 149 100 102 95 56 156 39 93 87 194 155 97 33 93 96 105 122 71 82 104 76 105 121 145 159 99 85 127 154 137 101 69 136 88 39 131 124 130 93 66 130 60 134 167 46 72 124 110 85 95 100 106 187 110 78 205 94 119 148 155 141 131 164 68 110 65 135 138 129 66 120 122 132 55 115 121 145 142 113 146 129 46 128 140 104 113 44 71 77 139 44 91 85 132 105 64 163 93 99 130 104 179 185 120 126 107 51 92 128 167 46 28 164 106 196 108 108 136 97 81 202 93 123 122 119 99 107 67 117 169 88 59 146 97 159 80 143 114 181 143 77 66 131 65 243 152 165 152 68 199 145 108 58 137 141 113 104 142 78 82 193 113 166 172 78 129 72 151 134 162 105 110 76 67 80 185 33 113 79 94 151 140 84 135 174 148 43 89 108 34 119 127 85 119 34 122 147 57 56 126 128 136 114 103 128 95 72 160 122 54 138 129 141 132 125 32 114 147 168 118 127 154 120 77 36 136 63 161 117 49 100 82 90 89 234 134 34 169 136 163 130 167 137 187 104 130 109 150 35 45 164 124 82 63 58 126 153 139 125 91 213 100 118 125 103 153 73 96 105 92 139 108 102 136 58 78 99 155 149 139 104 96 38 101 134 138 130 50 125 38 121 66 145 139 102 86 79 89 163 150 107 143 70 90 121 122 160 156 138 153 97 88 143 97 105 75 94 105 87 126 65 146 99 92 112 50 117 130 81 124 76 90 115 107 69 149 102 99 62 100 131 136 138 64 81 174 97 86 119 72 147 110 114 107 128 93 102 97 220 191 124 122 102 104 113 89 170 92 84 81 121 112 121 110 70 116 102 72 87 64 39 111 136 150 208 147 105 189 101 99 43 105 109 136 127 108 110 112 147 121 114 113 50 84 66 129 63 72 92 118 122 80 223 197 110 78 101 68 111 76 61 116 105 126 118 117 153 110 173 47 33 133 102 60 132 135 104 149 161 45 107 82 106 105 98 102 124 177 43 248 80 141 53 131 151 151 82 128 65 101 38 101 120 83 100 147 95 86 77 99 102 105 87 116 67 91 142 71 115 140 109 148 134 96 102 145 68 172 113 102 107 95 153 88 76 116 188 110 121 141 122 75 69 140 127 110 106 66 83 131 90 97 137 93 195 185 99 113 86 43 101 103 78 127 81 102 92 106 133 124 117 52 149 73 133 165 94 149 115 220 159 124 143 89 80 91 188 160 111 150 109 94 74 80 78 68 123 72 76 139 81 107 181 105 174 60 50 89 112 141 109 89 174 113 76 111 187 87 66 132 107 109 124 117 72 120 125 118 75 120 57 174 43 50 81 88 124 119 97 104 48 126 88 130 113 118 65 140 146 122 175 112 187 76 84 103 183 78 140 122 172 106 112 131 104 132 81 68 136 61 111 142 136 69 108 97 148 93 150 124 128 123 68 155 85 106 58 109 94 93 58 92 132 76 96 122 110 164 104 76 147 110 180 114 64 32 127 149 83 139 64 27 76 133 158 103 151 154 91 132 121 78 94 78 55 119 169 178 89 116 104 61 90 112 125 180 52 144 142 119 168 83 110 102 115 25 78 53 130 97 175 130 74 145 101 100 55 142 121 82 123 92 122 108 99 59 87 78 95 103 94 125 110 44 138 109 72 134 67 87 81 150 67 136 123 111 103 105 144 152 53 171 74 128 110 41 220 92 135 63 112 98 125 112 65 179 144 73 113 180 169 127 110 98 291 178 87 125 79 102 56 195 110 127 63 139 81 126 135 102 70 109 92 67 122 161 60 158 132 78 125 75 175 54 107 111 78 81 176 130 76 136 163 74 114 78 117 101 105 79 96 71 71 49 152 130 114 78 108 94 73 90 139 146 79 95 133 78 129 44 101 165 173 127 65 93 129 126 132 93 81 129 92 86 139 75 122 75 96 180 139 152 132 94 137 107 77 111 74 153 140 157 85 176 137 172 111 108 141 108 131 78 116 86 99 120 58 42 160 57 92 124 102 131 34 129 120 114 67 120 131 121 140 118 124 124 61 105 97 121 166 99 134 128 137 71 127 94 95 97 96 84 100 78 80 119 88 77 81 139 125 60 149 110 81 221 156 145 106 171 128 115 160 46 97 62 107 73 139 137 179 186 195 85 136 162 100 110 70 142 121 103 28 54 77 73 160 54 117 86 102 82 113 132 66 60 118 115 64 106 125 85 191 121 121 109 127 116 81 115 136 78 108 130 104 82 132 115 71 145 98 74 201 59 167 136 196 53 132 75 111 102 65 119 132 43 91 87 105 86 150 116 95 92 81 163 127 126 95 165 65 117 67 49 94 98 112 128 74 121 116 203 144 132 39 127 117 81 91 174 79 94 183 88 129 130 150 76 85 119 65 44 144 106 93 164 133 99 159 141 116 200 133 59 66 43 37 68 112 149 93 68 151 110 121 146 140 109 80 98 189 139 108 155 126 164 114 172 123 108 90 161 108 83 190 80 49 114 167 102 123 91 111 102 129 80 131 88 70 57 133 104 107 45 117 72 112 135 165 118 112 148 143 109 175 110 105 157 165 103 113 95 105 71 131 59 112 111 42 60 98 83 145 101 118 145 130 213 131 144 77 72 122 170 101 132 201 119 129 117 167 80 100 61 122 125 122 80 111 70 146 146 50 75 75 113 103 126 113 116 188 77 92 160 104 101 114 135 167 68 75 100 72 56 115 104 114 108 114 174 162 94 196 169 103 169 72 132 88 78 125 61 79 94 149 136 90 74 89 144 56 168 102 89 106 176 87 124 132 115 119 101 150 99 129 119 67 219 83 136 123 98 33 89 120 60 67 76 101 152 106 75 74 173 137 136 166 77 168 54 109 49 191 82 143 138 52 143 103 69 112 117 104 107 133 111 50 82 150 154 100 133 118 86 45 52 202 170 31 106 47 117 98 83 128 116 46 108 116 104 118 172 75 108 171 80 84 51 65 134 95 119 47 86 192 123 53 82 159 110 106 111 117 84 100 110 45 71 143 26 105 84 136 117 133 189 120 115 117 161 92 172 80 162 115 100 176 76 215 101 129 115 139 63 80 129 125 191 148 99 140 108 160 127 146 201 141 163 96 163 120 104 78 134 123 144 83 191 133 208 95 132 134 101 148 118 153 125 101 140 132 107 143 129 138 74 72 112 96 86 101 112 82 96 194 106 75 100 137 113 141 105 110 67 64 173 122 56 162 202 109 106 109 153 167 157 123 95 99 120 112 118 184 88 60 117 105 148 66 153 159 123 87 158 74 110 134 93 175 145 62 141 155 196 78 78 117 84 88 86 112 57 104 163 84 181 63 94 66 79 72 120 153 31 77 88 104 54 123 83 81 125 170 109 82 98 182 115 125 52 98 160 149 96 137 126 117 27 103 139 143 95 108 50 56 91 94 173 103 91 125 160 86 157 131 112 158 160 117 90 72 123 111 109 154 171 100 65 111 128 106 84 55 64 95 92 143 203 112 104 125 161 67 104 101 148 62 199 165 86 79 112 200 132 63 143 76 96 58 132 114 142 113 69 141 126 72 54 67 172 126 150 90 82 141 119 88 127 74 72 172 96 61 151 151 119 99 238 173 141 153 122 93 88 184 115 82 113 148 168 112 107 96 74 112 96 159 179 189 120 161 89 89 107 204 245 131 141 127 128 219 168 86 140 70 99 84 102 101 181 46 119 50 85 109 76 150 108 137 32 132 52 56 74 91 107 103 26 91 141 82 77 142 153 166 105 116 80 155 128 151 92 167 171 60 97 82 166 138 176 113 122 143 76 111 167 184 54 71 112 104 124 111 78 82 88 127 116 102 112 116 163 79 94 81 103 83 85 48 128 103 69 117 160 102 79 134 48 147 74 82 112 76 86 128 116 174 274 150 157 147 60 94 65 144 135 135 68 136 102 122 182 74 77 198 95 151 98 172 92 166 105 46 169 47 129 103 135 151 94 87 108 46 123 111 103 85 73 94 71 103 139 104 74 80 141 130 129 113 135 145 137 204 75 50 169 149 142 132 20 89 104 108 151 111 88 173 131 157 108 89 142 93 64 201 132 126 120 119 130 123 201 78 111 152 99 90 128 117 125 32 85 114 144 75 110 136 82 79 33 85 99 166 120 40 57 78 116 169 120 153 130 59 88 130 97 112 83 131 59 124 105 151 167 113 52 134 53 135 147 137 110 183 108 118 73 240 60 82 74 79 148 140 84 199 138 55 74 57 121 98 118 145 115 65 91 130 140 122 99 185 150 100 83 61 207 144 56 107 125 112 140 47 100 75 31 101 101 88 72 98 81 41 113 97 88 47 74 54 87 88 119 123 146 153 133 149 117 70 89 118 99 39 145 56 101 59 129 124 96 104 121 64 65 102 159 77 124 142 134 46 92 158 162 141 102 120 195 166 73 171 75 126 66 32 120 185 104 72 48 138 138 77 122 113 94 142 158 73 94 140 61 153 147 78 130 64 137 237 133 72 123 78 130 118 149 85 143 227 69 156 101 149 47 155 99 133 134 115 77 96 134 134 114 160 65 99 77 89 178 152 155 99 114 94 211 139 91 100 95 164 113 125 105 88 71 108 26 65 89 147 129 64 75 119 86 197 149 117 71 145 59 51 116 110 102 132 149 83 77 122 122 152 96 89 152 66 160 53 69 180 79 85 116 93 52 145 130 41 93 80 106 90 151 58 126 64 130 170 108 132 139 53 149 122 57 114 96 108 121 93 67 77 114 114 94 173 94 120 126 29 131 90 30 116 167 55 141 93 85 99 115 130 44 43 73 70 93 116 141 86 99 86 104 83 139 73 104 98 131 153 106 118 117 154 134 113 114 137 147 76 95 145 178 71 136 155 130 136 137 117 110 119 140 100 149 163 108 126 158 105 145 122 128 89 129 127 134 75 143 119 71 91 73 126 125 58 176 178 126 102 199 89 127 79 114 109 100 113 126 117 106 88 67 199 81 127 155 102 148 80 67 84 124 88 152 141 138 85 121 87 114 150 80 42 73 115 114 154 59 93 141 166 145 70 114 111 185 108 119 68 189 72 55 118 157 122 155 119 88 184 170 72 164 111 143 86 116 118 74 112 174 111 116 150 113 106 76 77 20 86 160 169 80 119 172 140 161 115 49 137 104 77 121 134 66 147 124 136 112 35 165 45 164 107 105 51 88 63 186 61 146 52 101 130 142 128 168 94 115 140 101 42 198 122 121 125 89 117 105 127 111 167 147 150 126 87 122 182 82 59 62 50 154 103 101 78 98 95 142 158 109 123 113 168 37 120 118 157 51 198 104 54 105 110 81 193 39 91 117 76 58 170 114 80 83 115 109 195 101 98 157 104 138 144 115 141 125 106 114 171 115 162 140 127 91 70 98 146 133 91 94 112 160 62 53 78 166 75 117 73 92 177 99 49 115 106 181 34 116 129 65 87 139 94 137 101 43 89 82 74 94 119 106 140 153 118 115 123 75 117 111 67 205 52 215 67 78 106 114 107 89 137 77 141 63 70 54 130 141 58 112 150 150 72 136 167 94 151 134 61 100 66 158 138 104 84 135 74 138 100 65 107 209 165 126 81 153 62 100 16 98 123 205 28 152 51 207 87 112 70 63 185 95 51 141 123 90 130 71 103 147 121 172 144 105 89 80 93 122 111 104 66 114 147 149 35 114 69 65 126 123 50 194 124 6 91 114 133 76 67 141 130 105 78 135 95 142 132 84 81 151 130 107 135 112 189 92 127 135 157 94 104 102 107 72 25 139 35 110 171 124 125 160 75 117 125 98 156 125 172 139 64 131 118 152 119 136 156 59 96 146 81 136 125 157 96 128 118 96 170 119 122 93 106 125 137 179 129 111 139 63 146 119 105 163 170 88 49 68 83 68 161 103 132 111 63 172 158 112 138 88 103 113 100 101 93 86 85 81 83 73 107 138 123 71 82 108 92 76 111 63 109 78 105 140 141 166 129 140 50 84 154 160 131 78 173 172 202 85 115 137 102 89 81 72 116 165 71 123 92 72 121 130 106 135 108 131 123 100 86 189 143 150 89 74 110 146 105 142 167 116 96 210 126 100 206 91 121 101 168 130 87 117 56 147 70 150 179 60 117 104 150 57 209 94 111 178 147 152 176 162 133 112 152 104 154 90 68 83 121 115 121 81 68 52 102 141 49 152 110 61 89 178 116 121 176 103 131 27 52 95 55 47 157 68 93 140 90 108 127 188 109 147 113 107 85 126 118 70 93 153 67 84 95 182 138 68 111 93 143 151 36 96 118 93 101 77 154 71 218 140 95 94 152 67 89 119 142 131 65 77 54 107 73 92 100 166 146 152 114 134 128 94 119 64 123 46 171 147 161 100 104 154 101 152 90 127 86 106 101 105 181 79 33 192 110 190 106 164 112 116 110 106 90 136 127 56 106 117 34 94 167 125 64 115 166 112 107 133 149 81 102 156 85 112 157 146 176 70 190 206 104 106 69 152 89 103 68 68 100 123 59 73 76 169 96 66 130 139 113 83 116 116 118 140 110 178 155 142 95 161 124 100 93 81 77 142 56 145 103 93 68 95 68 141 95 95 142 134 75 66 44 103 165 109 95 63 95 130 112 80 42 113 103 110 140 130 107 133 105 83 126 162 97 71 95 124 160 67 107 107 131 113 85 100 40 73 120 71 125 155 130 147 123 102 112 104 34 155 203 135 117 145 73 146 86 19 187 105 92 174 64 62 165 91 81 98 180 183 166 133 127 211 111 121 123 92 45 106 76 122 135 126 110 130 152 112 127 116 119 125 114 115 82 86 69 122 79 100 88 119 74 48 96 70 168 80 160 161 80 191 85 125 78 92 100 81 125 46 113 140 107 109 96 107 149 77 99 133 49 54 106 85 126 121 43 68 65 194 103 43 142 97 134 57 77 113 131 39 87 73 95 133 112 126 108 138 120 58 108 133 59 164 93 84 104 114 169 93 58 177 78 133 85 102 127 92 54 159 116 104 157 68 151 85 120 83 116 87 90 129 99 119 93 113 93 147 138 111 142 196 33 60 104 140 90 67 152 81 83 118 134 145 69 52 121 108 117 120 93 117 142 96 91 147 153 131 62 152 129 131 97 143 112 99 138 113 181 163 69 74 138 113 133 96 84 131 122 149 88 128 86 117 100 99 155 78 83 80 113 67 108 132 56 85 157 52 122 123 107 157 89 157 226 238 90 138 111 110 124 43 73 112 79 90 135 160 80 110 186 143 82 127 28 149 149 125 124 66 84 64 126 72 131 139 59 73 149 63 109 88 43 134 146 147 161 119 85 88 97 164 143 136 131 111 128 145 132 125 122 98 107 107 75 116 151 81 86 90 110 140 110 95 39 164 100 109 185 83 81 93 111 152 119 104 85 91 105 148 137 129 133 109 100 140 157 60 58 114 90 90 91 101 189 90 156 98 86 95 113 82 115 148 99 124 130 206 69 120 89 183 60 139 79 77 116 63 138 124 114 127 216 84 146 114 141 117 97 75 197 160 171 123 105 61 78 138 183 151 117 78 103 63 120 105 119 130 227 48 113 164 75 117 137 85 131 159 114 61 109 81 166 130 128 95 154 128 96 42 140 148 104 121 120 72 146 73 114 119 97 134 108 89 93 124 175 125 112 58 167 105 72 134 76 127 170 143 111 97 128 113 104 148 100 74 88 103 183 171 58 126 153 115 160 114 64 81 137 99 92 118 124 151 111 112 81 131 130 100 141 69 175 155 149 104 64 203 92 110 124 107 141 134 114 138 110 70 136 127 132 96 168 101 123 121 130 83 141 126 172 126 165 150 93 101 50 203 132 105 124 107 134 90 57 51 126 147 126 168 114 50 156 97 152 154 91 158 79 84 96 54 129 81 130 43 132 45 121 123 124 180 122 64 101 102 136 96 142 101 177 121 113 129 33 15 142 150 114 57 92 62 121 157 96 106 43 141 103 43 210 131 164 144 173 71 163 54 219 156 84 105 77 112 134 74 126 111 140 205 130 102 170 72 159 149 130 174 130 144 118 82 134 80 76 101 159 34 78 103 85 75 102 87 133 79 54 134 79 129 135 128 50 116 82 67 84 104 66 124 79 129 147 98 121 52 66 57 111 134 60 139 148 93 74 200 81 116 132 138 138 124 36 89 95 113 116 127 125 157 66 178 106 121 114 135 109 111 76 150 78 80 193 36 115 76 185 141 109 31 87 143 216 103 86 149 81 131 178 82 109 55 165 122 110 85 117 106 115 153 164 114 127 76 147 183 97 70 147 120 109 61 101 131 125 51 104 111 111 46 98 149 92 66 145 76 51 77 48 168 161 86 176 80 152 112 74 53 81 57 122 99 69 122 102 246 78 55 133 138 128 168 109 43 140 182 126 106 154 147 53 124 98 99 98 145 124 57 112 146 66 104 131 82 123 87 51 133 171 103 146 116 96 119 174 139 67 97 86 108 98 126 107 143 112 54 140 116 92 83 101 119 55 121 95 104 83 129 142 84 163 173 102 92 165 119 55 91 171 52 189 99 65 129 73 64 124 139 118 122 98 115 122 156 103 178 116 143 85 73 86 111 110 91 83 140 148 100 136 97 69 113 135 74 91 69 135 93 117 136 205 70 102 181 118 188 102 118 74 78 119 96 155 170 147 134 85 129 82 195 77 125 147 62 140 125 202 172 130 168 113 82 98 128 105 69 132 69 153 75 163 86 102 35 129 166 183 106 85 121 180 74 86 130 139 43 113 110 167 113 144 107 79 128 120 105 226 88 84 157 52 185 119 91 84 180 129 118 75 138 115 83 82 156 97 139 82 140 171 123 68 86 130 129 134 77 117 82 160 126 118 84 110 122 117 146 165 101 108 93 129 107 169 155 152 82 167 97 86 186 163 125 73 83 125 192 172 49 58 135 125 87 91 135 95 136 117 90 161 142 145 135 97 139 152 116 83 79 121 76 94 82 147 73 177 69 149 91 75 119 77 193 157 86 91 104 168 124 95 88 74 106 130 98 141 59 170 216 82 163 134 162 129 126 41 173 89 149 90 94 102 110 205 134 47 126 150 79 196 128 103 134 116 123 102 162 88 141 131 115 142 119 154 107 129 121 148 104 81 66 98 36 43 94 122 219 137 161 173 128 106 89 76 102 162 128 66 131 95 73 217 152 138 114 63 103 113 106 142 121 135 86 175 102 147 70 140 147 104 90 140 128 133 155 110 108 202 48 93 127 122 94 103 182 114 130 62 246 146 101 144 130 128 132 97 140 178 127 171 174 144 160 102 66 104 99 71 57 124 93 112 115 120 102 184 162 184 106 207 114 144 68 92 77 82 169 138 58 57 121 63 153 115 119 123 126 147 77 132 130 101 103 86 84 114 131 117 85 93 96 98 159 90 110 107 174 81 161 88 143 78 59 102 175 225 155 54 238 58 145 66 67 75 63 63 156 159 155 207 101 70 105 154 146 80 102 57 120 139 75 154 141 152 180 33 60 168 96 50 97 119 101 96 148 69 98 107 90 120 98 110 67 64 117 73 122 59 144 70 165 98 50 96 37 180 86 116 80 148 95 38 181 56 126 150 164 166 80 91 168 117 169 103 76 57 56 126 91 91 133 72 147 52 118 143 140 97 111 100 146 81 82 78 102 138 93 97 150 120 93 96 91 124 141 116 128 111 134 180 149 112 182 93 40 128 110 117 161 109 141 145 56 98 103 43 138 188 149 178 103 158 80 134 152 93 93 100 119 129 44 72 56 88 97 116 117 54 40 189 85 117 141 126 113 172 36 65 79 77 140 142 96 102 152 84 86 154 100 98 156 91 224 74 82 96 102 86 72 75 92 161 115 142 146 112 104 106 93 92 142 119 248 19 61 154 135 77 70 162 101 116 134 118 113 110 144 148 86 75 177 59 26 65 98 100 100 84 117 130 116 158 57 94 50 147 115 92 93 207 164 143 127 159 84 80 132 156 88 126 167 117 106 79 77 150 103 129 145 187 134 139 97 96 105 130 142 122 99 99 92 153 151 57 100 166 97 47 186 206 82 129 102 47 64 61 135 113 140 115 118 134 130 112 130 112 144 138 65 113 113 73 106 103 88 110 76 117 99 169 60 88 155 83 48 181 191 60 145 78 220 142 68 142 113 81 95 169 187 104 108 74 109 73 127 127 96 142 101 68 75 86 90 73 151 86 142 173 125 100 150 84 185 101 84 176 103 160 120 68 126 76 161 61 161 105 51 79 126 162 78 211 122 170 122 169 99 148 100 126 189 102 36 99 111 118 116 145 148 116 123 82 131 138 90 92 108 115 101 102 126 124 117 84 125 90 121 77 118 64 115 232 102 97 112 91 72 157 95 174 108 128 109 85 57 165 109 77 46 95 92 162 83 73 146 102 74 162 104 97 123 68 51 114 103 139 128 108 93 74 58 150 146 101 110 69 66 99 109 101 60 71 147 165 90 157 91 110 96 122 107 103 98 137 135 122 212 172 96 112 113 33 49 135 110 158 93 60 135 113 118 106 77 74 117 142 73 151 151 214 140 50 227 108 134 154 </t>
+  </si>
+  <si>
+    <t>MIE(0.27832140206119604, 1.6763359110535874, -3.465281528986081e-29, 1.7291787773962621)</t>
+  </si>
+  <si>
+    <t>1 2 0 0 1 0 1 2 0 1 1 0 0 0 0 1 0 1 0 2 0 0 0 1 0 2 0 3 1 1 2 0 1 1 2 0 2 1 1 0 1 0 1 1 1 2 0 0 0 1 0 2 1 1 1 0 1 2 0 1 0 0 1 0 0 1 0 2 1 1 1 0 1 0 1 0 0 3 0 0 0 0 1 1 1 1 1 0 2 0 1 0 1 0 1 1 0 2 0 0 2 1 1 0 4 0 0 2 0 1 0 0 2 1 2 0 3 2 1 0 3 1 1 0 0 2 1 3 0 1 1 0 1 0 2 1 0 0 1 1 0 1 1 0 2 1 0 0 1 0 0 1 1 0 0 1 0 2 3 1 0 1 0 1 1 0 1 3 0 1 1 0 1 2 1 0 0 2 1 0 0 1 1 0 1 0 0 0 1 0 1 1 0 2 0 0 0 0 0 3 1 1 1 0 1 2 2 0 1 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 2 1 1 1 0 0 2 1 1 2 0 3 1 1 1 1 1 1 1 1 0 0 0 0 2 1 0 2 0 2 0 1 0 0 1 2 0 0 1 0 0 1 0 1 0 0 4 2 3 2 1 0 2 0 2 0 0 2 0 0 0 0 0 2 1 1 2 1 3 1 0 3 0 0 1 0 2 0 1 0 1 1 2 2 0 0 2 0 1 0 2 0 1 1 1 0 0 2 0 0 2 2 2 1 0 1 0 1 0 1 0 1 1 0 2 0 0 1 1 0 1 0 1 1 1 2 0 1 1 0 2 0 0 0 1 0 2 0 1 0 2 0 2 0 0 0 3 2 1 2 1 2 1 1 1 0 0 1 0 1 2 0 2 0 0 0 1 2 2 0 0 0 3 2 0 0 0 2 2 0 1 0 1 2 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 1 2 1 0 0 0 1 0 2 0 0 1 0 2 1 1 1 0 0 1 2 0 0 1 1 2 0 2 2 1 0 0 0 0 1 2 0 1 1 0 0 0 1 0 3 0 2 1 1 2 1 1 0 1 1 1 3 0 0 2 0 2 0 0 1 1 1 1 0 3 0 0 0 2 0 0 0 0 1 0 1 2 0 1 1 2 0 1 2 2 1 0 2 2 2 0 0 2 0 3 1 2 0 1 0 2 2 1 0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 0 2 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 2 2 4 1 1 1 1 2 0 2 1 4 0 0 0 0 0 0 0 0 1 1 1 1 2 0 0 0 0 0 0 2 0 0 1 1 2 0 0 1 1 1 1 0 1 0 0 1 1 0 0 2 2 1 2 2 1 0 0 1 0 2 1 0 0 1 1 2 0 1 0 2 2 0 1 1 1 0 0 0 1 1 1 1 0 1 2 3 1 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 2 0 2 1 2 2 0 0 0 1 1 1 1 3 0 1 1 0 2 2 1 1 0 1 0 1 1 3 0 0 0 1 0 1 1 1 0 0 0 1 1 0 0 1 0 1 0 1 1 1 0 0 2 0 1 0 1 1 2 1 4 2 0 2 0 1 0 0 2 1 1 1 1 0 1 1 1 3 1 0 2 0 2 1 0 1 1 2 0 0 1 0 1 0 1 0 0 0 1 0 0 1 1 1 1 3 1 1 0 1 0 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 2 0 1 0 1 1 1 2 0 2 1 0 2 1 1 0 2 1 2 3 2 0 0 0 0 0 0 1 1 3 0 0 0 2 1 0 1 0 2 0 1 2 0 1 1 1 0 0 0 1 0 1 1 2 1 0 1 1 0 1 1 0 1 0 1 0 1 1 3 2 0 2 1 1 1 1 0 0 2 2 0 1 0 1 1 0 0 0 2 0 0 3 2 0 1 2 1 0 1 1 1 0 2 1 0 0 1 1 1 1 0 0 0 1 2 2 2 0 0 1 0 1 4 0 0 0 0 2 3 1 2 0 1 1 1 1 0 5 3 2 0 0 1 1 2 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 0 3 0 0 1 1 0 2 2 1 2 0 0 2 0 1 0 0 2 2 1 0 1 1 0 2 0 1 1 2 2 2 1 1 2 2 1 1 4 0 1 0 1 3 1 0 1 0 0 0 1 1 0 0 1 0 1 1 2 0 1 1 1 1 1 0 2 0 1 1 2 1 0 0 0 0 0 2 0 1 1 0 2 1 1 3 1 0 0 0 1 1 0 1 0 0 0 2 1 2 0 1 1 1 0 1 1 1 2 1 2 0 0 0 1 1 1 0 2 0 0 2 1 1 0 0 0 0 1 0 1 1 0 1 2 0 2 0 0 2 0 2 1 2 1 0 1 2 3 0 1 1 2 1 1 1 1 1 1 1 1 0 1 2 1 1 0 1 2 1 1 1 2 1 1 2 0 0 0 1 1 0 0 2 1 2 1 0 0 1 0 2 0 1 1 1 0 0 0 1 0 2 0 1 1 2 0 0 0 0 2 0 0 0 1 1 1 0 0 0 1 1 2 0 1 0 0 0 1 1 1 1 1 1 2 1 3 1 0 0 1 1 0 0 0 0 2 0 2 0 0 1 0 1 0 0 0 1 1 1 1 1 0 1 0 1 1 1 0 3 1 1 3 0 1 1 2 2 1 2 0 0 0 0 1 2 1 0 0 1 0 1 1 1 0 2 0 2 1 1 1 1 2 1 0 1 2 1 0 0 2 1 0 0 1 0 2 1 0 0 5 1 2 0 1 0 1 2 0 0 0 1 1 1 0 2 0 0 2 1 0 1 0 0 0 2 0 0 0 0 1 2 1 2 1 0 4 0 1 1 1 0 3 1 0 3 1 0 0 0 0 0 0 4 1 1 0 0 0 3 1 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 1 0 1 1 0 0 1 1 2 1 0 0 2 2 1 0 1 0 0 0 0 1 2 1 0 2 1 0 2 1 0 0 2 1 0 2 2 0 1 0 2 1 0 2 1 0 0 0 2 1 0 0 0 1 1 0 2 1 0 2 0 0 2 1 0 0 0 2 3 0 1 1 1 2 0 0 0 1 1 1 1 1 1 0 0 1 1 0 1 0 1 0 0 0 2 2 0 2 0 0 0 1 0 0 1 1 0 0 0 0 3 0 0 0 0 3 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 1 1 1 0 2 0 0 0 1 0 0 0 0 2 1 0 1 3 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 0 0 2 1 0 0 1 1 2 0 0 0 1 0 3 1 0 0 1 3 2 1 0 2 0 0 0 0 1 1 1 2 1 0 1 0 1 0 2 0 2 2 0 0 3 0 1 0 0 0 2 1 0 1 0 0 2 3 1 0 0 1 1 1 1 0 1 3 2 1 1 1 0 0 0 0 0 0 1 1 0 1 0 2 0 1 2 1 0 2 0 0 0 0 1 0 0 0 1 1 2 1 2 0 1 0 0 2 0 1 0 0 3 0 0 0 0 0 0 1 0 1 0 2 0 1 1 0 2 1 1 2 1 3 1 1 1 1 1 1 1 2 2 1 1 1 1 1 2 2 0 0 1 1 0 0 0 0 1 1 0 2 0 1 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 1 0 1 1 0 0 1 2 1 0 3 0 1 2 1 1 2 0 1 0 0 3 1 0 0 0 2 1 1 0 0 0 0 1 2 2 1 0 0 2 0 1 1 2 0 2 1 0 0 0 0 1 0 3 0 0 0 0 2 0 0 3 0 0 2 0 0 1 0 2 1 1 0 0 2 2 1 0 1 0 1 1 1 1 2 1 2 0 2 2 1 0 0 0 1 0 0 1 1 1 1 2 0 0 3 0 0 2 1 0 1 2 1 0 2 0 3 0 1 0 1 3 2 1 1 0 2 0 1 1 2 2 1 1 1 1 0 0 0 0 2 0 1 0 0 0 3 0 0 3 0 1 0 1 3 0 1 1 1 3 1 2 1 0 0 1 0 0 0 0 2 0 1 1 1 0 1 0 1 0 2 1 1 0 0 0 1 0 1 0 0 0 1 1 1 1 2 1 0 0 1 0 1 1 0 1 1 0 2 0 0 2 1 2 1 1 0 2 0 1 0 1 1 1 1 1 0 0 3 0 3 0 1 0 0 0 0 0 1 0 2 0 1 1 1 1 2 0 1 1 1 0 0 2 0 1 0 0 2 0 1 0 0 1 1 1 3 0 1 1 0 2 2 0 1 0 0 0 2 0 0 1 1 2 4 2 1 1 0 0 1 0 3 0 1 2 0 2 2 1 2 2 1 3 1 2 1 0 0 2 1 0 2 1 2 1 0 0 0 0 0 0 0 2 4 2 1 0 3 0 0 1 0 1 2 1 0 0 0 0 2 5 3 2 1 0 2 0 0 1 1 2 1 1 2 0 0 2 0 1 1 2 1 0 1 0 1 1 1 1 0 1 1 1 3 1 1 0 0 0 1 1 2 1 2 2 0 0 0 2 0 2 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1 3 0 1 1 1 1 2 0 1 1 0 0 0 0 1 0 1 3 1 0 1 2 1 0 3 0 0 0 1 1 2 0 1 1 1 2 1 0 1 0 1 2 0 1 3 1 2 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 3 0 1 3 0 1 1 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 0 1 1 0 3 0 0 0 2 0 2 0 0 0 2 1 0 0 0 1 0 1 2 2 1 1 1 0 2 4 1 1 2 0 0 1 1 1 0 2 2 2 0 0 0 1 0 4 1 0 2 2 2 0 1 0 0 1 2 1 0 0 0 0 1 0 2 0 1 1 0 1 2 0 2 1 1 1 0 1 0 0 1 0 0 1 2 1 0 1 1 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 0 0 0 1 1 0 0 0 0 1 1 2 1 1 1 2 0 1 1 1 1 2 0 1 0 0 0 1 0 2 0 1 1 1 1 0 1 1 0 0 2 0 0 0 1 0 1 0 1 0 1 1 1 3 1 0 0 0 0 0 1 1 3 2 0 0 1 0 0 2 0 0 1 0 0 0 1 3 1 3 0 1 0 0 1 0 1 1 0 3 0 1 1 2 1 1 0 1 0 0 0 0 3 0 3 0 1 2 0 2 1 0 0 0 1 1 1 1 1 1 0 0 0 2 3 1 2 1 0 0 1 1 1 0 1 1 0 4 3 1 0 0 0 1 1 1 0 1 1 1 0 0 0 1 1 1 0 3 2 2 2 2 0 1 1 1 0 1 0 1 0 0 1 2 0 0 0 0 1 1 0 1 2 1 0 2 3 0 0 1 1 0 0 0 2 0 1 1 0 0 0 2 1 0 0 1 0 1 1 0 1 2 0 0 0 1 0 1 0 0 1 0 1 1 1 1 0 1 1 1 2 3 1 1 0 2 1 1 1 1 0 1 3 0 1 2 1 0 0 0 1 1 0 0 0 1 0 0 1 2 1 1 1 0 0 0 0 2 0 1 0 3 3 0 2 1 0 0 0 1 0 0 0 1 0 1 4 1 2 0 1 1 1 0 2 3 1 0 1 1 0 1 1 1 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 2 1 0 2 1 0 0 2 1 2 0 0 0 1 1 1 3 1 1 1 0 0 1 0 0 0 0 0 2 0 0 0 2 0 2 2 2 1 0 2 0 1 0 1 0 0 1 2 2 1 1 0 0 1 0 1 2 0 1 3 2 0 1 1 1 2 0 0 1 0 1 2 2 1 2 0 3 1 1 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 2 1 1 0 2 0 1 2 1 0 2 1 1 2 1 1 2 1 1 0 1 1 1 1 0 3 4 0 0 1 1 1 0 0 0 0 1 2 2 0 0 2 1 1 1 1 0 0 0 1 2 0 1 2 3 0 1 1 1 0 1 0 2 1 1 0 0 1 2 1 2 2 1 0 0 0 1 1 2 0 1 0 0 0 1 0 0 0 1 2 1 1 4 1 0 2 1 1 0 3 0 0 1 1 2 0 0 0 1 0 1 1 0 0 0 1 2 0 0 2 2 0 0 1 3 1 0 1 1 0 1 1 1 0 2 1 3 3 0 1 0 3 2 0 1 1 1 1 1 0 1 2 0 2 1 0 1 1 0 4 1 1 0 1 1 1 0 2 1 3 1 0 2 0 1 0 3 1 2 1 2 0 1 1 0 2 2 1 0 2 1 0 1 2 1 1 3 1 1 0 2 2 0 0 0 0 3 0 0 0 0 1 2 1 3 2 0 2 1 1 1 0 0 1 1 0 2 2 2 0 1 1 1 1 0 0 1 0 1 1 2 1 0 0 3 1 0 1 0 1 2 1 0 1 1 1 2 1 1 1 0 1 1 0 1 2 1 2 0 2 1 0 0 1 0 0 2 2 1 0 0 2 1 1 2 1 0 0 1 1 0 0 1 0 0 2 0 1 0 1 0 1 1 2 0 0 1 1 0 1 0 1 1 0 0 0 1 1 0 1 2 0 1 1 0 0 0 0 1 1 3 0 0 1 2 0 2 0 0 1 1 1 1 0 1 0 1 1 1 0 3 0 0 0 0 1 2 1 0 0 0 0 2 2 1 1 1 0 0 1 1 1 1 2 0 1 1 0 0 2 0 1 0 1 1 1 1 2 1 2 1 1 0 3 0 1 0 2 2 4 2 1 0 0 4 0 1 2 1 1 1 1 2 2 1 0 1 0 0 2 0 0 3 1 1 1 1 0 2 2 1 2 2 1 0 1 0 0 1 1 0 1 2 1 2 3 2 1 0 1 0 0 0 0 3 1 3 1 1 1 0 1 1 1 0 0 1 0 1 2 2 0 1 0 1 0 0 3 1 0 1 1 0 2 1 0 1 1 2 0 1 0 1 2 0 0 0 1 1 0 2 2 0 0 1 0 2 1 0 0 2 0 1 1 1 0 0 0 0 0 0 0 0 2 1 1 1 0 1 2 1 0 0 1 0 0 0 0 0 0 2 3 0 1 0 3 1 0 3 0 0 1 2 1 2 1 2 4 0 3 0 0 2 2 0 1 0 2 1 0 1 1 1 1 1 0 2 0 1 3 1 3 0 2 1 2 1 2 0 2 2 1 1 1 1 0 1 1 0 0 1 1 0 0 0 1 0 0 1 2 2 1 1 1 0 3 0 0 1 1 3 0 1 0 1 0 2 2 0 1 0 0 2 0 1 1 4 0 0 2 1 1 0 1 1 3 0 1 0 0 1 0 0 0 1 1 0 1 1 1 0 1 0 0 0 1 1 0 0 1 0 0 1 0 1 0 1 2 1 0 0 1 0 0 1 0 1 1 1 2 2 0 2 0 1 0 1 1 1 1 2 0 1 0 3 0 0 1 0 0 2 1 1 0 1 0 2 0 0 1 1 0 1 0 0 0 0 2 2 2 0 0 1 1 1 1 1 1 1 0 0 0 2 1 0 0 0 0 2 1 0 0 0 1 1 3 3 3 1 0 0 1 1 0 0 0 1 0 0 1 0 1 1 1 1 1 2 1 2 1 1 2 0 1 0 0 2 0 0 0 1 1 2 1 1 0 4 1 1 0 0 1 0 0 2 3 0 0 0 0 2 0 0 1 1 2 0 0 0 0 0 0 0 1 1 1 2 1 1 1 0 0 0 0 2 0 1 0 2 0 1 0 2 0 0 1 1 1 0 1 2 0 3 1 0 0 0 0 1 0 1 0 0 1 0 1 4 0 2 2 2 1 2 2 2 1 1 1 0 0 1 1 1 1 0 0 1 1 1 1 0 2 1 2 2 1 2 0 1 1 0 2 2 0 0 2 0 3 0 1 1 0 1 1 2 0 0 0 1 0 0 4 1 2 3 0 0 1 1 0 1 0 0 2 1 0 1 2 0 2 0 0 0 1 0 0 0 0 0 2 1 0 2 1 0 0 2 0 0 2 1 0 1 1 1 0 0 1 0 0 0 0 1 0 2 1 1 0 0 2 1 2 1 0 2 0 1 1 0 1 1 1 1 3 1 1 0 0 0 1 0 0 1 0 0 0 2 0 1 0 2 2 0 2 1 0 1 0 0 0 3 1 0 0 0 0 0 1 2 1 2 1 0 2 1 1 1 0 0 0 1 0 0 2 0 0 0 0 1 0 1 1 0 0 0 2 2 0 1 1 1 0 2 1 0 0 1 3 0 0 0 1 0 1 1 1 1 0 0 0 2 0 1 1 0 1 0 1 1 2 0 1 1 0 0 0 0 2 1 0 2 0 2 3 0 1 2 2 1 0 0 0 3 0 0 0 2 2 2 4 0 1 1 0 1 0 2 1 1 3 1 0 1 0 1 3 1 0 1 1 1 2 0 0 1 0 1 0 2 1 0 2 1 0 0 3 1 1 0 0 0 1 3 4 0 1 0 3 0 1 0 0 1 0 0 0 0 3 1 0 2 1 1 1 0 2 1 0 0 0 1 2 1 0 3 0 0 1 1 0 0 1 1 0 0 2 3 1 0 1 0 0 1 2 0 1 0 0 1 0 0 0 2 0 1 0 2 1 0 0 2 1 1 1 0 1 0 0 2 1 0 2 2 1 0 2 2 1 0 0 1 0 1 1 0 1 0 0 1 0 1 1 1 0 2 1 1 0 0 0 0 0 0 2 0 1 1 1 0 0 0 1 0 0 0 2 0 2 1 0 2 2 2 0 1 1 1 0 1 1 1 1 1 1 0 1 2 0 2 0 0 1 0 0 1 1 2 0 0 0 2 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 2 1 0 2 0 0 0 1 1 2 0 3 0 4 1 2 1 2 0 1 2 0 1 0 1 0 1 0 1 1 1 3 2 0 1 2 2 0 1 1 4 3 3 1 1 1 0 2 4 0 0 1 1 1 0 0 0 1 0 1 2 2 2 1 2 0 2 2 3 1 0 1 2 1 1 1 1 1 2 0 0 1 1 1 1 1 1 1 1 3 1 1 1 1 0 1 1 1 1 0 0 0 2 1 0 2 1 2 0 0 0 0 0 1 0 0 0 0 2 2 2 0 0 1 0 1 0 0 0 0 1 0 3 2 2 0 0 1 0 1 2 1 1 1 0 0 1 1 0 0 1 1 1 0 0 2 0 1 0 1 0 0 1 0 3 2 0 1 1 0 0 0 0 1 0 1 1 0 1 3 2 2 1 0 1 0 2 3 0 1 1 1 2 1 3 1 2 0 1 0 1 1 2 0 1 1 1 1 2 0 0 1 0 0 2 2 0 1 0 0 2 0 0 0 4 1 0 1 0 1 0 2 1 0 0 1 0 1 1 0 0 1 2 1 1 1 0 0 1 0 0 0 0 2 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 0 0 2 1 0 0 1 0 0 1 1 0 0 2 0 1 1 1 0 1 1 0 1 1 0 0 1 1 2 3 1 0 0 0 0 0 1 1 0 2 0 2 0 0 2 1 0 1 0 1 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 1 2 1 1 3 0 0 3 1 0 1 0 0 1 0 0 0 2 1 0 1 1 0 1 2 2 1 1 0 0 2 2 0 1 1 0 0 2 0 1 2 1 0 1 0 1 0 1 0 1 0 2 2 1 3 0 0 0 0 2 1 2 1 1 1 0 2 0 1 0 2 0 1 2 0 0 1 1 0 2 1 0 0 0 1 1 3 0 0 2 1 0 1 0 1 0 0 1 1 1 0 1 4 1 0 2 2 1 1 4 0 1 1 3 1 2 3 0 1 0 0 5 1 2 2 0 2 1 1 0 0 2 1 0 1 0 0 0 0 1 0 0 0 2 2 0 0 2 0 1 0 0 1 0 2 1 1 2 0 1 1 1 0 0 2 0 0 1 1 0 0 0 1 1 0 0 0 1 2 2 1 1 1 1 1 1 0 0 0 1 2 0 0 2 1 2 2 2 1 0 0 0 0 0 2 1 0 2 1 0 0 2 3 0 1 0 1 1 0 2 0 0 0 1 2 0 0 1 0 1 1 0 1 1 3 1 1 2 0 1 0 0 2 0 1 0 1 0 0 0 1 0 1 0 1 1 0 0 3 1 1 1 0 2 0 3 0 1 1 0 1 1 1 1 1 3 0 0 2 0 0 0 0 1 0 2 1 1 1 1 2 0 0 0 1 1 0 0 1 0 1 1 0 1 2 0 1 0 1 2 1 0 1 1 1 1 0 1 0 0 1 0 2 0 0 1 0 2 0 0 1 2 1 0 1 1 0 1 3 0 1 0 2 1 1 1 1 1 1 1 0 0 2 0 0 2 0 1 1 0 1 2 0 0 3 1 2 0 1 0 0 0 0 3 1 1 1 3 0 1 0 0 1 1 0 0 2 0 1 3 5 0 2 1 1 2 0 0 1 0 2 0 1 3 0 1 0 1 3 1 0 2 1 0 0 1 2 1 0 0 0 0 3 1 0 0 1 0 2 1 0 2 2 0 2 1 0 0 0 2 1 2 2 2 0 1 0 0 0 1 2 1 0 1 1 2 0 2 0 0 0 0 2 1 0 0 0 1 0 1 0 2 0 3 0 1 0 1 1 1 0 1 1 0 1 1 3 2 0 0 0 4 1 1 0 1 0 0 1 1 0 2 0 0 0 2 1 1 0 0 2 1 1 2 2 2 2 0 0 2 1 0 0 1 4 0 3 1 0 1 0 0 0 0 0 0 1 1 1 0 1 2 1 0 1 2 1 0 1 3 1 1 0 2 2 0 0 1 3 1 0 0 2 1 1 0 0 1 1 0 0 0 0 0 2 1 1 1 0 0 0 1 1 0 1 2 0 1 2 2 1 1 1 0 1 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 1 2 0 2 1 1 1 0 1 0 4 0 0 0 1 1 2 1 0 2 1 0 1 3 1 0 1 0 0 0 1 1 0 0 0 0 0 2 0 1 2 2 1 1 0 0 0 0 0 1 2 1 0 2 0 0 0 1 0 0 0 1 2 2 1 2 1 0 0 0 1 0 1 1 1 1 1 2 1 2 1 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 1 2 1 0 1 0 1 0 1 0 0 0 1 0 2 3 1 1 2 1 1 1 0 0 1 1 0 1 1 1 2 0 1 0 2 1 2 2 1 3 1 4 2 2 1 0 1 0 1 0 1 1 1 1 3 0 1 0 1 0 0 0 1 1 1 1 2 1 2 0 1 1 0 0 1 2 1 0 1 1 1 1 2 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 1 0 1 1 3 0 0 0 1 0 2 0 0 1 1 1 1 1 1 1 1 0 3 0 1 1 1 3 3 1 0 3 1 1 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 1 2 1 0 1 1 0 0 0 0 1 1 1 1 2 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 2 0 1 2 1 1 0 0 2 1 2 3 1 1 2 0 1 0 0 1 0 0 0 2 2 2 0 1 0 4 0 0 0 0 0 2 0 0 0 0 1 1 0 3 0 1 1 2 1 0 1 2 1 0 0 1 1 0 4 0 1 1 1 1 0 1 0 0 1 0 0 1 1 0 0 1 2 1 0 1 3 2 1 2 1 1 1 1 0 2 0 0 0 1 1 1 1 1 1 0 1 3 1 1 2 0 0 0 0 1 3 1 1 1 1 1 3 0 1 1 1 1 1 1 2 0 1 0 1 1 1 1 0 0 2 1 0 0 1 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 2 1 0 0 0 1 3 0 2 0 0 1 1 0 0 2 2 0 2 1 2 1 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 2 1 0 2 2 0 0 2 1 1 2 3 1 0 0 0 1 3 2 0 1 1 0 0 1 0 1 1 0 1 1 1 2 1 1 0 2 0 2 1 1 1 1 1 1 1 0 0 0 0 1 2 1 1 0 0 1 1 1 1 0 1 0 2 1 0 2 1 2 0 0 0 0 0 1 0 1 1 0 2 1 0 1 1 0 2 2 2 2 2 1 2 1 0 1 0 1 0 1 1 0 1 2 1 1 0 0 0 1 0 1 0 1 0 1 1 2 1 1 0 0 0 0 0 1 0 1 1 0 1 0 1 1 0 1 1 1 1 2 3 1 0 0 1 0 0 0 0 2 0 2 1 2 0 1 1 1 1 3 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 3 1 0 1 0 0 1 2 0 0 1 1 0 0 2 0 0 1 1 1 0 2 0 2 1 1 1 2 0 0 0 3 0 0 0 0 0 1 3 0 3 2 1 1 0 0 1 1 1 0 1 1 3 1 0 1 0 1 0 1 1 2 1 2 0 1 1 2 1 1 0 0 3 0 1 1 4 3 2 1 3 1 0 2 0 1 1 2 2 1 0 2 1 2 1 2 1 1 1 0 0 0 3 1 1 0 0 1 0 1 0 1 0 1 1 1 0 0 2 1 1 0 3 0 3 0 1 2 1 3 0 1 0 1 0 2 0 0 1 1 2 0 0 2 0 1 0 1 1 2 0 2 0 0 0 4 2 0 0 2 0 0 1 1 1 0 1 3 2 1 0 1 0 0 3 1 0 0 1 0 0 1 0 0 0 2 1 1 0 2 2 0 0 2 0 1 1 0 1 1 0 1 1 1 0 2 0 0 1 0 0 2 1 1 3 0 1 2 2 1 3 0 0 0 1 0 0 1 0 1 2 1 0 0 0 0 0 2 1 0 1 0 0 2 1 0 0 1 1 1 2 2 1 0 2 1 2 0 0 1 2 0 2 0 0 2 2 1 2 1 0 1 3 1 0 1 0 1 2 0 0 0 0 1 0 0 0 1 1 0 4 1 2 1 1 1 1 2 1 0 0 1 2 1 2 0 0 0 0 1 0 1 1 1 1 0 1 0 2 0 1 0 0 1 1 0 0 0 1 1 2 0 1 0 0 0 0 2 1 3 0 1 0 2 0 0 0 0 0 0 0 0 0 2 1 0 2 2 1 0 0 0 0 1 2 0 0 0 1 0 0 0 1 1 1 1 1 0 1 2 1 1 2 0 0 1 0 1 2 0 3 0 0 0 1 1 1 1 1 0 1 0 2 1 0 1 1 0 0 3 0 2 0 0 0 0 1 1 1 2 2 1 1 1 2 3 0 0 2 1 0 3 0 1 0 1 0 2 0 2 1 0 0 2 1 0 1 0 0 0 1 2 1 0 0 0 2 0 0 2 0 0 0 0 1 1 1 1 2 0 1 2 1 0 0 0 0 0 1 1 0 0 0 2 0 0 1 1 0 2 0 0 1 0 1 0 2 2 1 2 1 1 0 3 3 0 0 1 3 0 0 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 2 1 2 1 1 0 1 1 2 0 0 1 0 0 1 0 1 2 1 0 2 1 1 3 3 2 2 0 2 0 2 0 0 0 0 2 1 0 0 0 0 1 0 1 1 3 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 1 1 3 1 1 0 1 1 0 1 0 0 0 1 2 2 1 0 1 0 0 2 1 0 1 2 1 4 0 0 0 2 4 0 0 0 2 0 1 1 1 2 1 1 0 1 1 1 1 2 1 0 1 0 1 0 1 1 3 1 0 1 0 0 2 0 2 0 1 0 0 2 2 1 1 0 0 0 0 0 2 2 0 1 1 1 0 1 2 3 1 1 0 1 2 0 0 0 0 1 2 3 1 2 1 2 0 1 2 1 1 0 2 0 0 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 1 0 1 0 0 1 2 0 0 2 0 4 2 1 0 0 0 1 1 2 0 2 1 1 1 1 3 1 0 0 0 0 1 1 0 2 0 1 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 2 2 1 0 1 1 0 1 2 1 1 1 1 0 0 0 2 0 0 1 1 0 2 2 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 2 1 2 1 1 0 0 1 1 0 1 2 0 2 2 0 1 0 1 1 1 1 2 2 1 1 1 1 2 1 0 0 0 3 1 2 0 0 0 1 0 0 0 1 2 1 1 1 1 1 0 1 1 2 0 2 0 1 0 1 0 0 1 0 1 0 1 1 1 1 2 1 1 0 0 0 0 1 1 0 0 1 1 1 1 1 0 2 1 2 2 0 1 0 2 1 0 1 0 2 0 0 0 0 1 0 1 0 1 1 2 1 1 0 0 2 1 2 0 2 1 0 1 0 1 0 1 0 0 1 1 0 0 2 0 0 0 2 0 0 0 1 0 0 0 1 2 1 0 1 1 1 0 2 0 0 0 2 0 0 1 1 0 2 0 1 0 2 0 2 1 0 1 2 0 2 1 1 2 1 1 0 1 0 0 1 1 1 1 2 0 0 0 1 0 3 1 0 2 1 1 0 1 0 0 0 1 0 1 0 1 1 1 2 0 1 1 0 0 0 0 1 1 0 2 1 0 0 0 0 3 0 1 0 1 0 2 0 1 0 2 1 1 2 1 2 1 1 1 1 1 1 0 0 1 1 0 0 1 0 0 1 1 0 1 0 0 1 1 2 1 0 0 0 0 1 0 3 1 0 0 0 0 0 0 0 1 1 1 1 1 1 3 0 0 1 0 2 0 2 0 0 1 3 2 0 0 1 0 1 2 1 0 0 1 3 1 2 1 1 2 1 0 0 0 3 2 0 0 0 0 2 1 1 1 2 1 1 0 2 1 2 0 0 3 0 0 2 0 4 1 1 1 0 1 2 1 1 0 0 2 1 0 1 0 2 1 1 0 1 1 3 1 0 0 1 1 0 0 1 0 0 1 0 0 0 2 0 1 2 1 0 0 0 1 0 0 2 0 1 0 2 0 1 1 1 0 0 1 0 0 1 2 1 0 0 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 2 3 0 0 2 2 2 0 2 0 1 0 3 1 0 1 0 1 0 0 0 1 1 0 0 2 1 0 0 1 1 0 1 0 2 0 3 1 2 0 0 2 0 2 0 3 2 1 0 2 1 0 1 0 1 2 0 1 1 1 1 2 0 1 0 0 0 0 0 1 0 2 0 1 1 1 0 1 1 0 3 0 1 2 1 0 0 1 2 1 2 0 2 0 0 0 0 0 0 1 0 1 0 1 2 1 4 0 0 1 0 0 0 2 1 0 0 1 2 0 1 1 1 0 2 0 1 1 0 0 1 1 1 2 0 0 1 0 0 1 0 1 1 1 0 1 1 1 3 0 3 3 0 1 0 0 0 1 1 0 1 1 1 1 0 0 0 0 2 0 2 0 1 0 2 2 0 1 1 2 0 0 2 0 0 1 1 0 0 1 1 3 2 1 1 1 1 0 1 1 0 2 2 1 1 1 1 0 1 1 2 2 1 0 1 1 1 0 1 1 1 2 2 1 0 1 0 2 0 1 0 1 1 0 1 0 1 1 2 0 2 0 0 0 0 0 0 1 0 4 1 1 0 2 1 2 1 0 2 1 1 0 1 1 0 1 1 0 1 1 0 0 0 1 0 1 1 2 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 2 0 1 2 2 0 0 0 0 0 0 0 1 0 1 0 1 2 4 0 0 0 3 1 1 1 1 0 0 3 1 0 1 1 2 0 0 1 0 2 0 0 1 1 2 2 1 0 1 0 0 1 1 1 1 1 1 0 1 3 1 1 2 1 0 1 1 1 1 0 0 1 0 1 1 3 0 1 2 0 2 1 0 0 1 1 1 0 0 1 1 2 0 0 1 1 1 1 0 0 0 0 3 0 0 1 0 2 0 0 2 0 1 0 0 0 2 1 0 2 2 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 1 2 1 2 1 0 0 0 1 1 0 1 1 1 0 0 2 1 0 1 0 1 0 0 1 0 4 3 0 0 1 1 1 1 0 2 1 1 1 0 0 2 0 0 0 0 0 1 0 2 1 0 1 0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 1 2 2 1 1 1 0 0 0 0 2 1 0 1 1 2 1 0 1 0 3 1 1 2 1 0 0 0 0 0 1 4 0 0 0 1 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 2 0 1 1 0 2 1 0 0 0 0 1 2 3 0 1 1 0 1 1 1 2 1 0 1 0 1 1 0 2 1 1 0 0 2 0 2 0 0 1 1 1 1 0 0 3 3 0 1 0 1 0 1 1 0 2 1 0 1 1 0 2 1 0 0 0 3 3 0 2 0 1 2 0 1 3 1 1 2 0 0 2 1 1 1 2 0 1 2 0 0 0 1 1 0 0 1 1 0 1 0 2 1 0 0 1 4 2 3 1 1 1 0 0 0 1 0 1 3 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 2 0 0 0 0 1 2 0 0 0 0 3 1 0 1 1 1 0 0 1 0 0 1 0 1 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 2 1 1 1 1 3 0 1 1 2 0 0 2 1 2 0 0 1 1 2 1 0 1 0 1 0 1 1 2 0 3 1 0 0 0 1 1 1 1 0 1 1 2 0 2 1 3 0 1 0 1 2 1 1 2 0 0 1 0 1 1 1 2 0 0 0 0 1 2 0 1 0 0 2 1 3 2 0 2 1 0 1 2 1 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 1 1 1 1 2 0 1 0 1 0 0 0 0 1 1 2 1 0 2 2 1 1 0 0 0 1 1 1 0 1 1 1 2 1 1 2 0 2 0 2 0 3 1 0 2 1 1 0 1 0 0 0 0 3 1 0 0 1 2 1 1 0 1 1 1 2 1 1 0 3 0 0 0 1 0 2 0 2 0 0 1 1 0 0 1 0 0 1 0 4 0 1 1 0 1 0 1 3 0 2 0 2 0 2 2 0 1 0 0 1 0 2 0 5 2 0 0 1 0 4 2 0 2 1 0 1 2 0 2 1 2 1 1 1 1 1 0 1 2 3 0 0 0 1 2 1 1 2 0 0 0 1 1 0 1 1 0 0 1 0 1 2 0 1 1 0 0 0 0 0 0 0 1 2 2 0 1 0 1 2 0 0 2 0 1 1 2 0 0 2 1 1 1 0 1 1 0 0 0 0 4 1 2 0 0 0 1 1 0 0 0 0 1 3 0 0 1 1 2 2 0 0 2 3 0 0 1 1 1 0 2 0 0 1 1 1 0 0 0 2 1 1 1 0 0 1 1 2 0 1 2 1 1 1 1 0 1 2 2 0 0 0 2 2 1 0 2 0 0 0 1 1 1 2 1 0 0 2 0 0 1 1 1 0 0 0 4 1 0 1 1 0 2 2 1 2 1 3 1 3 1 0 0 1 3 0 1 1 0 0 1 1 1 0 0 0 1 1 1 2 0 1 0 0 2 0 2 0 0 1 0 2 0 1 2 0 0 0 0 0 0 0 1 0 1 2 1 1 2 1 1 2 0 0 0 1 0 1 2 1 1 2 0 0 1 1 1 1 0 1 1 0 2 1 1 1 0 2 2 0 0 1 2 2 0 0 0 1 0 1 0 0 2 0 3 1 1 1 0 0 2 0 1 1 0 1 2 0 1 3 0 1 2 1 2 1 1 1 1 1 3 1 1 1 1 1 1 3 2 0 1 0 0 0 1 2 0 0 1 1 0 1 1 0 0 0 1 1 0 0 3 2 0 1 0 2 0 0 1 0 2 1 0 1 1 1 0 3 0 0 2 1 5 0 3 2 1 1 1 0 0 1 0 0 0 0 1 2 1 0 2 1 1 1 0 0 0 1 1 2 1 2 0 0 0 0 1 0 1 0 1 1 1 3 2 1 0 0 0 1 0 0 2 0 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 2 1 2 3 1 0 0 0 0 0 0 1 3 1 0 1 1 1 1 1 0 2 1 0 0 0 1 1 1 0 0 0 1 1 1 0 1 4 0 1 1 0 1 0 0 2 0 2 1 2 1 0 1 1 0 1 2 1 3 1 0 1 2 1 1 1 1 0 0 1 2 0 1 0 1 1 1 0 0 0 1 0 0 0 0 3 1 0 4 0 0 0 0 0 0 0 1 3 2 1 1 2 0 1 1 2 1 1 2 0 1 0 3 0 2 0 2 0 2 0 2 1 2 1 1 2 3 0 0 1 0 1 0 1 0 0 0 2 2 0 3 0 0 1 0 0 1 1 2 0 1 3 1 0 0 0 0 1 2 0 0 2 0 0 1 0 1 1 0 1 1 1 1 0 1 2 2 0 0 0 0 4 1 1 0 1 0 0 0 0 1 1 1 1 2 2 1 1 1 1 0 1 1 2 0 0 1 0 1 0 0 0 0 0 2 2 1 0 0 0 0 0 0 0 0 2 1 2 1 2 1 0 1 2 0 0 0 2 1 1 0 1 2 0 0 0 0 0 0 0 1 1 1 2 1 0 1 2 0 1 1 1 0 1 0 1 1 0 1 2 0 0 0 1 2 1 1 0 2 0 0 1 0 1 0 1 2 0 1 3 3 2 0 0 0 0 3 1 2 1 1 0 0 0 1 1 0 0 1 0 0 0 1 2 2 0 2 2 1 0 0 2 1 1 1 3 1 1 4 0 0 2 1 0 1 0 0 2 0 1 0 0 1 2 1 1 0 0 0 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 2 1 3 2 0 0 0 0 2 0 0 0 0 1 2 1 0 0 0 1 2 0 0 1 1 1 2 0 0 3 1 1 2 1 0 1 1 1 2 0 0 0 0 1 1 0 0 0 0 1 1 1 0 1 2 2 0 0 3 1 0 0 1 1 1 1 1 0 1 1 0 0 0 1 1 0 2 1 2 1 1 2 0 0 0 1 0 0 1 1 2 0 1 0 0 0 1 5 1 2 0 1 0 0 0 1 0 1 1 0 0 0 0 2 1 0 3 2 0 2 2 0 1 1 0 0 1 1 0 0 2 0 2 1 1 1 1 1 1 0 0 1 0 0 0 0 0 2 1 0 1 0 0 3 1 0 3 0 4 0 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 3 0 0 1 1 2 1 0 0 0 2 3 1 2 0 2 0 0 1 0 1 1 0 1 0 0 0 1 1 1 1 1 2 0 1 1 1 0 1 0 1 1 0 3 0 0 1 1 2 1 2 1 2 2 0 2 1 0 1 1 0 0 1 2 1 0 0 0 0 2 1 1 2 0 1 1 1 1 1 0 2 1 3 1 0 0 3 0 1 0 0 0 1 1 1 0 0 2 2 1 1 1 1 2 0 2 2 1 2 1 0 0 0 0 3 1 0 0 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1 2 1 1 0 0 1 1 4 0 1 0 0 0 0 0 2 1 0 0 1 2 1 0 1 1 0 0 1 2 0 2 0 1 1 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 2 1 1 1 2 1 0 0 0 0 0 1 0 1 1 2 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 1 1 2 0 1 2 0 4 1 1 1 1 1 1 1 1 2 1 1 2 0 0 1 0 1 1 0 0 1 3 1 0 1 0 1 1 1 1 0 1 0 2 1 0 1 2 1 0 0 2 1 1 0 0 1 2 0 1 1 2 0 0 1 0 1 2 1 1 1 1 2 0 2 1 1 1 2 0 1 0 0 3 0 0 1 1 2 1 0 0 1 1 1 2 0 0 1 0 1 2 0 0 2 1 0 0 1 2 0 2 1 0 0 1 1 1 1 0 2 1 1 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 3 0 0 1 1 3 0 1 0 2 2 0 1 1 1 1 1 2 3 1 2 0 0 0 1 0 0 1 0 2 1 1 0 0 2 0 1 0 3 1 1 3 0 0 0 0 1 1 1 2 1 2 1 2 0 1 1 0 3 1 0 0 0 0 1 1 2 2 0 0 2 2 1 1 0 0 3 0 0 0 1 2 0 1 1 1 1 0 0 0 2 0 1 1 1 2 1 1 1 2 1 2 1 1 1 1 1 1 2 0 1 0 2 0 0 0 1 1 1 2 3 1 1 0 0 0 2 3 0 0 1 2 1 0 0 0 0 0 1 1 2 1 0 3 0 2 1 0 3 0 0 0 1 0 1 0 1 0 3 0 0 1 0 1 1 0 0 2 0 1 1 0 2 0 1 0 0 1 2 0 0 3 0 0 4 0 0 2 0 1 1 0 2 0 0 3 2 0 1 1 1 1 0 0 0 2 1 0 0 1 0 1 0 1 1 0 0 1 2 1 0 0 2 0 2 0 3 1 0 1 2 1 2 2 2 0 1 0 0 1 1 2 0 2 1 0 0 0 2 0 1 0 0 0 2 1 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 3 1 1 2 1 1 0 0 2 4 0 0 1 1 2 1 1 1 0 1 0 1 0 3 1 0 0 2 0 0 0 1 0 1 0 2 1 1 2 1 0 1 1 1 1 2 0 1 1 1 1 0 0 2 2 1 0 0 0 0 1 0 0 2 2 1 2 1 1 0 2 1 0 1 0 2 0 1 1 3 0 1 0 3 1 1 1 1 1 3 1 0 3 0 0 0 1 1 1 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 1 1 3 1 2 0 1 0 1 0 0 0 0 0 0 1 1 0 1 2 1 1 2 0 1 2 0 0 0 0 2 0 1 1 1 0 1 1 1 2 0 1 0 1 1 1 0 1 2 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 2 1 3 2 0 0 0 1 0 0 2 1 0 0 0 1 1 2 3 2 1 1 0 0 3 1 1 3 0 0 2 0 1 0 1 0 2 0 1 2 0 2 1 1 1 1 1 0 0 2 1 2 1 0 3 1 0 0 1 1 0 0 0 1 0 1 1 1 0 3 0 0 1 1 1 2 0 0 0 0 1 0 2 1 3 3 0 2 1 0 1 1 0 1 0 2 1 1 1 0 2 1 0 0 3 2 2 2 1 0 1 0 0 2 1 1 1 3 0 1 0 1 2 0 0 1 0 3 0 2 0 1 0 1 2 3 0 2 1 1 0 1 2 5 2 0 0 0 0 2 0 3 2 1 1 3 0 0 4 1 0 1 3 2 1 0 0 1 0 0 1 2 1 2 0 1 0 1 1 2 2 2 0 1 2 0 1 3 1 1 0 2 2 1 1 0 1 0 2 0 5 1 0 1 2 0 0 2 1 3 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 2 0 2 0 2 2 1 0 1 1 0 2 0 0 0 1 1 3 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1 3 0 0 1 2 0 0 1 1 0 0 0 0 0 0 1 2 2 1 0 0 1 0 0 1 0 0 3 1 2 0 0 2</t>
   </si>
   <si>
     <t>T.Hill</t>
@@ -384,10 +384,10 @@
     <t>D.Ozigbo</t>
   </si>
   <si>
+    <t>A.Prentice</t>
+  </si>
+  <si>
     <t>E.Winston</t>
-  </si>
-  <si>
-    <t>A.Prentice</t>
   </si>
   <si>
     <t>M.Thomas</t>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.1</v>
+        <v>33.2</v>
       </c>
       <c r="C2">
-        <v>64.90000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="D2">
         <v>1.1</v>
       </c>
       <c r="E2">
-        <v>-4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -824,10 +824,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>5.22</v>
+        <v>5.15</v>
       </c>
       <c r="L2">
-        <v>7.15</v>
+        <v>7.17</v>
       </c>
     </row>
   </sheetData>
@@ -874,16 +874,16 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C2">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>37.2</v>
       </c>
       <c r="E2">
-        <v>228.64</v>
+        <v>228.43</v>
       </c>
       <c r="F2">
         <v>0.92</v>
@@ -892,10 +892,10 @@
         <v>0.47</v>
       </c>
       <c r="H2">
-        <v>78.72</v>
+        <v>78</v>
       </c>
       <c r="I2">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1015,13 +1015,13 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>37.2</v>
       </c>
       <c r="E2">
-        <v>228.64</v>
+        <v>228.43</v>
       </c>
       <c r="F2">
         <v>0.92</v>
@@ -1036,7 +1036,7 @@
         <v>1.8</v>
       </c>
       <c r="J2">
-        <v>4.92</v>
+        <v>4.85</v>
       </c>
       <c r="K2">
         <v>0.03</v>
@@ -1045,7 +1045,7 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1077,7 +1077,7 @@
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1145,22 +1145,22 @@
         <v>54</v>
       </c>
       <c r="C2">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="D2">
-        <v>52.87</v>
+        <v>52.85</v>
       </c>
       <c r="E2">
         <v>0.21</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G2">
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>12.29</v>
+        <v>12.26</v>
       </c>
       <c r="L2">
-        <v>6.5</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1183,34 +1183,34 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="D3">
-        <v>25.57</v>
+        <v>25.6</v>
       </c>
       <c r="E3">
         <v>0.1</v>
       </c>
       <c r="F3">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G3">
         <v>11.2</v>
       </c>
       <c r="H3">
-        <v>39.82</v>
+        <v>39.53</v>
       </c>
       <c r="I3">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>10.81</v>
+        <v>10.74</v>
       </c>
       <c r="L3">
-        <v>7.96</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1221,10 +1221,10 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="D4">
-        <v>38.64</v>
+        <v>38.77</v>
       </c>
       <c r="E4">
         <v>0.16</v>
@@ -1245,10 +1245,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>8.9</v>
+        <v>8.93</v>
       </c>
       <c r="L4">
-        <v>4.69</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1262,10 +1262,10 @@
         <v>4.12</v>
       </c>
       <c r="D5">
-        <v>37.88</v>
+        <v>37.75</v>
       </c>
       <c r="E5">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F5">
         <v>0.07000000000000001</v>
@@ -1283,10 +1283,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>8.67</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="L5">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1300,7 +1300,7 @@
         <v>1.91</v>
       </c>
       <c r="D6">
-        <v>17.27</v>
+        <v>17.25</v>
       </c>
       <c r="E6">
         <v>0.07000000000000001</v>
@@ -1312,19 +1312,19 @@
         <v>0.3</v>
       </c>
       <c r="H6">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.16</v>
+        <v>4.13</v>
       </c>
       <c r="L6">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1335,10 +1335,10 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D7">
-        <v>8.720000000000001</v>
+        <v>8.44</v>
       </c>
       <c r="E7">
         <v>0.04</v>
@@ -1350,7 +1350,7 @@
         <v>3.6</v>
       </c>
       <c r="H7">
-        <v>12.48</v>
+        <v>12.56</v>
       </c>
       <c r="I7">
         <v>0.07000000000000001</v>
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1373,10 +1373,10 @@
         <v>60</v>
       </c>
       <c r="C8">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="D8">
-        <v>13.24</v>
+        <v>13.25</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -1388,7 +1388,7 @@
         <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="L8">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1414,13 +1414,13 @@
         <v>0.92</v>
       </c>
       <c r="D9">
-        <v>8.69</v>
+        <v>8.66</v>
       </c>
       <c r="E9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="L9">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1452,7 +1452,7 @@
         <v>0.8</v>
       </c>
       <c r="D10">
-        <v>7.22</v>
+        <v>7.25</v>
       </c>
       <c r="E10">
         <v>0.03</v>
@@ -1487,34 +1487,34 @@
         <v>63</v>
       </c>
       <c r="C11">
+        <v>0.7</v>
+      </c>
+      <c r="D11">
+        <v>6.47</v>
+      </c>
+      <c r="E11">
+        <v>0.02</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
         <v>0.27</v>
       </c>
-      <c r="D11">
-        <v>2.4</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
-        <v>0.04</v>
-      </c>
-      <c r="G11">
-        <v>2.3</v>
-      </c>
-      <c r="H11">
-        <v>8.02</v>
-      </c>
       <c r="I11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1525,34 +1525,34 @@
         <v>64</v>
       </c>
       <c r="C12">
-        <v>0.71</v>
+        <v>0.26</v>
       </c>
       <c r="D12">
-        <v>6.49</v>
+        <v>2.32</v>
       </c>
       <c r="E12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="H12">
-        <v>0.25</v>
+        <v>7.94</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
-        <v>0.8</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1563,10 +1563,10 @@
         <v>65</v>
       </c>
       <c r="C13">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="D13">
-        <v>4.76</v>
+        <v>4.89</v>
       </c>
       <c r="E13">
         <v>0.02</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="L13">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1601,10 +1601,10 @@
         <v>66</v>
       </c>
       <c r="C14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>1.8</v>
       </c>
       <c r="H14">
-        <v>6.33</v>
+        <v>6.25</v>
       </c>
       <c r="I14">
         <v>0.03</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="L14">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1639,25 +1639,25 @@
         <v>67</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H15">
-        <v>3.04</v>
+        <v>0.24</v>
       </c>
       <c r="I15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0.37</v>
       </c>
       <c r="L15">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1677,34 +1677,34 @@
         <v>68</v>
       </c>
       <c r="C16">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0.01</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H16">
-        <v>0.24</v>
+        <v>2.88</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="L16">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1718,7 +1718,7 @@
         <v>0.16</v>
       </c>
       <c r="D17">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="E17">
         <v>0.01</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="L17">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1756,7 +1756,7 @@
         <v>0.11</v>
       </c>
       <c r="D18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0.1</v>
       </c>
       <c r="D19">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>81</v>
       </c>
       <c r="C2">
+        <v>1.16</v>
+      </c>
+      <c r="D2">
         <v>1.18</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>1.04</v>
+      </c>
+      <c r="F2">
         <v>1.2</v>
-      </c>
-      <c r="E2">
-        <v>1.03</v>
-      </c>
-      <c r="F2">
-        <v>1.19</v>
       </c>
       <c r="G2">
         <v>0.51</v>
@@ -2000,7 +2000,7 @@
         <v>0.75</v>
       </c>
       <c r="I2">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="C2">
         <v>20.1</v>
@@ -2056,16 +2056,16 @@
         <v>32.8</v>
       </c>
       <c r="E2">
-        <v>221.49</v>
+        <v>222.5</v>
       </c>
       <c r="F2">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G2">
         <v>0.52</v>
       </c>
       <c r="H2">
-        <v>113.35</v>
+        <v>112.77</v>
       </c>
       <c r="I2">
         <v>0.8100000000000001</v>
@@ -2194,10 +2194,10 @@
         <v>32.8</v>
       </c>
       <c r="E2">
-        <v>221.49</v>
+        <v>222.49</v>
       </c>
       <c r="F2">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G2">
         <v>0.52</v>
@@ -2209,16 +2209,16 @@
         <v>3.9</v>
       </c>
       <c r="J2">
-        <v>14.47</v>
+        <v>14.17</v>
       </c>
       <c r="K2">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="L2">
         <v>0.03</v>
       </c>
       <c r="M2">
-        <v>14.64</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2250,7 +2250,7 @@
         <v>1.6</v>
       </c>
       <c r="J3">
-        <v>6.91</v>
+        <v>6.96</v>
       </c>
       <c r="K3">
         <v>0.06</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2400,34 +2400,34 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="D2">
-        <v>34.56</v>
+        <v>34.23</v>
       </c>
       <c r="E2">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F2">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G2">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="H2">
-        <v>57.48</v>
+        <v>57.39</v>
       </c>
       <c r="I2">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="J2">
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>15.46</v>
+        <v>15.51</v>
       </c>
       <c r="L2">
-        <v>12.23</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2438,10 +2438,10 @@
         <v>103</v>
       </c>
       <c r="C3">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="D3">
-        <v>36.11</v>
+        <v>36.29</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.89</v>
+        <v>7.93</v>
       </c>
       <c r="L3">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2479,10 +2479,10 @@
         <v>2.72</v>
       </c>
       <c r="D4">
-        <v>30.15</v>
+        <v>30.27</v>
       </c>
       <c r="E4">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F4">
         <v>0.04</v>
@@ -2491,7 +2491,7 @@
         <v>0.3</v>
       </c>
       <c r="H4">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="I4">
         <v>0.01</v>
@@ -2500,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.84</v>
+        <v>6.8</v>
       </c>
       <c r="L4">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2517,10 +2517,10 @@
         <v>2.39</v>
       </c>
       <c r="D5">
-        <v>25.28</v>
+        <v>25.6</v>
       </c>
       <c r="E5">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F5">
         <v>0.03</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.68</v>
+        <v>5.74</v>
       </c>
       <c r="L5">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2555,7 +2555,7 @@
         <v>2.19</v>
       </c>
       <c r="D6">
-        <v>24.78</v>
+        <v>24.68</v>
       </c>
       <c r="E6">
         <v>0.13</v>
@@ -2576,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.43</v>
+        <v>5.41</v>
       </c>
       <c r="L6">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2590,10 +2590,10 @@
         <v>107</v>
       </c>
       <c r="C7">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="D7">
-        <v>11.54</v>
+        <v>11.76</v>
       </c>
       <c r="E7">
         <v>0.06</v>
@@ -2605,7 +2605,7 @@
         <v>3.4</v>
       </c>
       <c r="H7">
-        <v>15.13</v>
+        <v>15.04</v>
       </c>
       <c r="I7">
         <v>0.11</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.69</v>
+        <v>4.71</v>
       </c>
       <c r="L7">
         <v>3.6</v>
@@ -2628,16 +2628,16 @@
         <v>108</v>
       </c>
       <c r="C8">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="D8">
-        <v>15.13</v>
+        <v>15.26</v>
       </c>
       <c r="E8">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F8">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G8">
         <v>0.7</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.81</v>
+        <v>3.88</v>
       </c>
       <c r="L8">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2666,22 +2666,22 @@
         <v>109</v>
       </c>
       <c r="C9">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="D9">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="E9">
         <v>0.02</v>
       </c>
       <c r="F9">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G9">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H9">
-        <v>12.03</v>
+        <v>11.99</v>
       </c>
       <c r="I9">
         <v>0.08</v>
@@ -2693,7 +2693,7 @@
         <v>2.67</v>
       </c>
       <c r="L9">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2704,10 +2704,10 @@
         <v>110</v>
       </c>
       <c r="C10">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="D10">
-        <v>9.76</v>
+        <v>10.03</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="L10">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2742,10 +2742,10 @@
         <v>111</v>
       </c>
       <c r="C11">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="D11">
-        <v>7.36</v>
+        <v>7.59</v>
       </c>
       <c r="E11">
         <v>0.04</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="L11">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2783,13 +2783,13 @@
         <v>0.52</v>
       </c>
       <c r="D12">
-        <v>5.34</v>
+        <v>5.42</v>
       </c>
       <c r="E12">
         <v>0.03</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="L12">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2818,10 +2818,10 @@
         <v>113</v>
       </c>
       <c r="C13">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D13">
-        <v>4.89</v>
+        <v>4.69</v>
       </c>
       <c r="E13">
         <v>0.03</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="L13">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2859,10 +2859,10 @@
         <v>0.32</v>
       </c>
       <c r="D14">
-        <v>3.97</v>
+        <v>4.05</v>
       </c>
       <c r="E14">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>0.26</v>
       </c>
       <c r="D15">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="E15">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="L15">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2932,16 +2932,16 @@
         <v>116</v>
       </c>
       <c r="C16">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D16">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="E16">
         <v>0.01</v>
       </c>
       <c r="F16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0.3</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="L16">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2973,7 +2973,7 @@
         <v>0.06</v>
       </c>
       <c r="D17">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="L17">
         <v>0.22</v>
@@ -3011,7 +3011,7 @@
         <v>0.09</v>
       </c>
       <c r="D18">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="E18">
         <v>0.01</v>
@@ -3032,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="L18">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3046,7 +3046,7 @@
         <v>119</v>
       </c>
       <c r="C19">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D19">
         <v>0.67</v>
@@ -3061,7 +3061,7 @@
         <v>0.1</v>
       </c>
       <c r="H19">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3084,10 +3084,10 @@
         <v>120</v>
       </c>
       <c r="C20">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D20">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0.06</v>
       </c>
       <c r="D21">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3146,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="L21">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3237,25 +3237,25 @@
         <v>123</v>
       </c>
       <c r="C2">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="E2">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F2">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G2">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="H2">
         <v>0.78</v>
       </c>
       <c r="I2">
-        <v>7.28</v>
+        <v>7.36</v>
       </c>
     </row>
   </sheetData>
